--- a/pw.xlsx
+++ b/pw.xlsx
@@ -288,7 +288,7 @@
     <numFmt numFmtId="164" formatCode="General"/>
     <numFmt numFmtId="165" formatCode="0.000"/>
   </numFmts>
-  <fonts count="7">
+  <fonts count="6">
     <font>
       <sz val="11"/>
       <color rgb="FF000000"/>
@@ -325,12 +325,6 @@
       <name val="Calibri"/>
       <family val="2"/>
       <charset val="1"/>
-    </font>
-    <font>
-      <sz val="8"/>
-      <color rgb="FF000000"/>
-      <name val="Calibri"/>
-      <family val="2"/>
     </font>
   </fonts>
   <fills count="22">
@@ -511,7 +505,7 @@
       <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
     </xf>
   </cellStyleXfs>
-  <cellXfs count="75">
+  <cellXfs count="74">
     <xf numFmtId="164" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="false" applyBorder="false" applyAlignment="false" applyProtection="false">
       <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
@@ -582,10 +576,6 @@
     </xf>
     <xf numFmtId="164" fontId="5" fillId="0" borderId="0" xfId="0" applyFont="true" applyBorder="true" applyAlignment="false" applyProtection="false">
       <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
-      <protection locked="true" hidden="false"/>
-    </xf>
-    <xf numFmtId="165" fontId="6" fillId="7" borderId="1" xfId="0" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="false">
-      <alignment horizontal="center" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
     </xf>
     <xf numFmtId="164" fontId="5" fillId="9" borderId="1" xfId="0" applyFont="true" applyBorder="true" applyAlignment="false" applyProtection="false">
@@ -911,10 +901,10 @@
   <dimension ref="A1:I1158"/>
   <sheetViews>
     <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="true" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A1" colorId="64" zoomScale="100" zoomScaleNormal="100" zoomScalePageLayoutView="100" workbookViewId="0">
-      <selection pane="topLeft" activeCell="I14" activeCellId="0" sqref="I14"/>
+      <selection pane="topLeft" activeCell="C43" activeCellId="0" sqref="C43"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="8.76953125" defaultRowHeight="13.8" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
+  <sheetFormatPr defaultColWidth="8.78515625" defaultRowHeight="13.8" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
   <cols>
     <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="1" min="1" style="0" width="34.73"/>
     <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="2" min="2" style="1" width="11.11"/>
@@ -1261,7 +1251,7 @@
       <c r="B15" s="10" t="n">
         <v>14</v>
       </c>
-      <c r="C15" s="18" t="n">
+      <c r="C15" s="11" t="n">
         <v>-1.015</v>
       </c>
       <c r="D15" s="11" t="n">
@@ -1278,2248 +1268,2248 @@
       </c>
     </row>
     <row r="16" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A16" s="19" t="s">
+      <c r="A16" s="18" t="s">
         <v>19</v>
       </c>
-      <c r="B16" s="20" t="n">
+      <c r="B16" s="19" t="n">
         <v>15</v>
       </c>
-      <c r="C16" s="21" t="n">
+      <c r="C16" s="20" t="n">
         <v>-0.302</v>
       </c>
-      <c r="D16" s="21" t="n">
+      <c r="D16" s="20" t="n">
         <v>2.775</v>
       </c>
-      <c r="E16" s="21" t="n">
+      <c r="E16" s="20" t="n">
         <v>0.675</v>
       </c>
-      <c r="F16" s="22" t="n">
-        <v>0</v>
-      </c>
-      <c r="G16" s="22" t="n">
+      <c r="F16" s="21" t="n">
+        <v>0</v>
+      </c>
+      <c r="G16" s="21" t="n">
         <v>0</v>
       </c>
     </row>
     <row r="17" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A17" s="19" t="s">
+      <c r="A17" s="18" t="s">
         <v>20</v>
       </c>
-      <c r="B17" s="20" t="n">
+      <c r="B17" s="19" t="n">
         <v>16</v>
       </c>
-      <c r="C17" s="21" t="n">
+      <c r="C17" s="20" t="n">
         <v>-0.302</v>
       </c>
-      <c r="D17" s="21" t="n">
+      <c r="D17" s="20" t="n">
         <v>2.775</v>
       </c>
-      <c r="E17" s="21" t="n">
+      <c r="E17" s="20" t="n">
         <v>1.325</v>
       </c>
-      <c r="F17" s="22" t="n">
-        <v>0</v>
-      </c>
-      <c r="G17" s="22" t="n">
+      <c r="F17" s="21" t="n">
+        <v>0</v>
+      </c>
+      <c r="G17" s="21" t="n">
         <v>0</v>
       </c>
     </row>
     <row r="18" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A18" s="19" t="s">
+      <c r="A18" s="18" t="s">
         <v>21</v>
       </c>
-      <c r="B18" s="20" t="n">
+      <c r="B18" s="19" t="n">
         <v>17</v>
       </c>
-      <c r="C18" s="21" t="n">
+      <c r="C18" s="20" t="n">
         <v>0.357</v>
       </c>
-      <c r="D18" s="21" t="n">
+      <c r="D18" s="20" t="n">
         <v>2.775</v>
       </c>
-      <c r="E18" s="21" t="n">
+      <c r="E18" s="20" t="n">
         <v>1.325</v>
       </c>
-      <c r="F18" s="22" t="n">
+      <c r="F18" s="21" t="n">
         <v>1</v>
       </c>
-      <c r="G18" s="22" t="n">
+      <c r="G18" s="21" t="n">
         <v>0</v>
       </c>
     </row>
     <row r="19" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A19" s="19" t="s">
+      <c r="A19" s="18" t="s">
         <v>22</v>
       </c>
-      <c r="B19" s="20" t="n">
+      <c r="B19" s="19" t="n">
         <v>18</v>
       </c>
-      <c r="C19" s="21" t="n">
+      <c r="C19" s="20" t="n">
         <v>0.357</v>
       </c>
-      <c r="D19" s="21" t="n">
+      <c r="D19" s="20" t="n">
         <v>2.775</v>
       </c>
-      <c r="E19" s="21" t="n">
+      <c r="E19" s="20" t="n">
         <v>0.675</v>
       </c>
-      <c r="F19" s="22" t="n">
+      <c r="F19" s="21" t="n">
         <v>1</v>
       </c>
-      <c r="G19" s="22" t="n">
+      <c r="G19" s="21" t="n">
         <v>0</v>
       </c>
     </row>
     <row r="20" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A20" s="23" t="s">
+      <c r="A20" s="22" t="s">
         <v>23</v>
       </c>
-      <c r="B20" s="24" t="n">
+      <c r="B20" s="23" t="n">
         <v>19</v>
       </c>
-      <c r="C20" s="25" t="n">
+      <c r="C20" s="24" t="n">
         <v>-2.1079</v>
       </c>
-      <c r="D20" s="25" t="n">
+      <c r="D20" s="24" t="n">
         <v>2.775</v>
       </c>
-      <c r="E20" s="25" t="n">
-        <v>0</v>
-      </c>
-      <c r="F20" s="26" t="n">
-        <v>0</v>
-      </c>
-      <c r="G20" s="26" t="n">
+      <c r="E20" s="24" t="n">
+        <v>0</v>
+      </c>
+      <c r="F20" s="25" t="n">
+        <v>0</v>
+      </c>
+      <c r="G20" s="25" t="n">
         <v>0</v>
       </c>
     </row>
     <row r="21" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A21" s="23" t="s">
+      <c r="A21" s="22" t="s">
         <v>24</v>
       </c>
-      <c r="B21" s="24" t="n">
+      <c r="B21" s="23" t="n">
         <v>20</v>
       </c>
-      <c r="C21" s="25" t="n">
+      <c r="C21" s="24" t="n">
         <v>-1.9484</v>
       </c>
-      <c r="D21" s="25" t="n">
+      <c r="D21" s="24" t="n">
         <v>2.775</v>
       </c>
-      <c r="E21" s="25" t="n">
+      <c r="E21" s="24" t="n">
         <v>1.56</v>
       </c>
-      <c r="F21" s="26" t="n">
-        <v>0</v>
-      </c>
-      <c r="G21" s="26" t="n">
+      <c r="F21" s="25" t="n">
+        <v>0</v>
+      </c>
+      <c r="G21" s="25" t="n">
         <v>0</v>
       </c>
     </row>
     <row r="22" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A22" s="27" t="s">
+      <c r="A22" s="26" t="s">
         <v>25</v>
       </c>
-      <c r="B22" s="28" t="n">
+      <c r="B22" s="27" t="n">
         <v>21</v>
       </c>
-      <c r="C22" s="29" t="n">
-        <v>0</v>
-      </c>
-      <c r="D22" s="29" t="n">
+      <c r="C22" s="28" t="n">
+        <v>0</v>
+      </c>
+      <c r="D22" s="28" t="n">
         <v>2.775</v>
       </c>
-      <c r="E22" s="29" t="n">
+      <c r="E22" s="28" t="n">
         <v>1.6043</v>
       </c>
-      <c r="F22" s="30" t="n">
-        <v>0</v>
-      </c>
-      <c r="G22" s="30" t="n">
+      <c r="F22" s="29" t="n">
+        <v>0</v>
+      </c>
+      <c r="G22" s="29" t="n">
         <v>0</v>
       </c>
     </row>
     <row r="23" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A23" s="31" t="s">
+      <c r="A23" s="30" t="s">
         <v>26</v>
       </c>
-      <c r="B23" s="32" t="n">
+      <c r="B23" s="31" t="n">
         <v>22</v>
       </c>
-      <c r="C23" s="33" t="n">
-        <v>0</v>
-      </c>
-      <c r="D23" s="33" t="n">
+      <c r="C23" s="32" t="n">
+        <v>0</v>
+      </c>
+      <c r="D23" s="32" t="n">
         <f aca="false">2.775+1</f>
         <v>3.775</v>
       </c>
-      <c r="E23" s="33" t="n">
+      <c r="E23" s="32" t="n">
         <f aca="false">E22+0.7</f>
         <v>2.3043</v>
       </c>
-      <c r="F23" s="34" t="n">
-        <v>0</v>
-      </c>
-      <c r="G23" s="34" t="n">
+      <c r="F23" s="33" t="n">
+        <v>0</v>
+      </c>
+      <c r="G23" s="33" t="n">
         <v>0</v>
       </c>
     </row>
     <row r="24" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A24" s="23" t="s">
+      <c r="A24" s="22" t="s">
         <v>27</v>
       </c>
-      <c r="B24" s="24" t="n">
+      <c r="B24" s="23" t="n">
         <v>23</v>
       </c>
-      <c r="C24" s="25" t="n">
+      <c r="C24" s="24" t="n">
         <v>1.9484</v>
       </c>
-      <c r="D24" s="25" t="n">
+      <c r="D24" s="24" t="n">
         <v>2.775</v>
       </c>
-      <c r="E24" s="25" t="n">
+      <c r="E24" s="24" t="n">
         <v>1.56</v>
       </c>
-      <c r="F24" s="26" t="n">
+      <c r="F24" s="25" t="n">
         <v>1</v>
       </c>
-      <c r="G24" s="26" t="n">
+      <c r="G24" s="25" t="n">
         <v>0</v>
       </c>
     </row>
     <row r="25" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A25" s="23" t="s">
+      <c r="A25" s="22" t="s">
         <v>28</v>
       </c>
-      <c r="B25" s="24" t="n">
+      <c r="B25" s="23" t="n">
         <v>24</v>
       </c>
-      <c r="C25" s="25" t="n">
+      <c r="C25" s="24" t="n">
         <v>2.1079</v>
       </c>
-      <c r="D25" s="25" t="n">
+      <c r="D25" s="24" t="n">
         <v>2.775</v>
       </c>
-      <c r="E25" s="25" t="n">
-        <v>0</v>
-      </c>
-      <c r="F25" s="26" t="n">
+      <c r="E25" s="24" t="n">
+        <v>0</v>
+      </c>
+      <c r="F25" s="25" t="n">
         <v>1</v>
       </c>
-      <c r="G25" s="26" t="n">
+      <c r="G25" s="25" t="n">
         <v>0</v>
       </c>
     </row>
     <row r="26" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A26" s="35" t="s">
+      <c r="A26" s="34" t="s">
         <v>29</v>
       </c>
-      <c r="B26" s="36" t="n">
+      <c r="B26" s="35" t="n">
         <v>25</v>
       </c>
-      <c r="C26" s="37" t="n">
+      <c r="C26" s="36" t="n">
         <v>1</v>
       </c>
-      <c r="D26" s="37" t="n">
+      <c r="D26" s="36" t="n">
         <v>2.78</v>
       </c>
-      <c r="E26" s="37" t="n">
-        <v>0</v>
-      </c>
-      <c r="F26" s="38" t="n">
-        <v>0</v>
-      </c>
-      <c r="G26" s="38" t="n">
+      <c r="E26" s="36" t="n">
+        <v>0</v>
+      </c>
+      <c r="F26" s="37" t="n">
+        <v>0</v>
+      </c>
+      <c r="G26" s="37" t="n">
         <v>0</v>
       </c>
     </row>
     <row r="27" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A27" s="35" t="s">
+      <c r="A27" s="34" t="s">
         <v>30</v>
       </c>
-      <c r="B27" s="36" t="n">
+      <c r="B27" s="35" t="n">
         <v>26</v>
       </c>
-      <c r="C27" s="37" t="n">
+      <c r="C27" s="36" t="n">
         <v>1</v>
       </c>
-      <c r="D27" s="37" t="n">
+      <c r="D27" s="36" t="n">
         <v>2.78</v>
       </c>
-      <c r="E27" s="37" t="n">
+      <c r="E27" s="36" t="n">
         <v>0.6</v>
       </c>
-      <c r="F27" s="38" t="n">
+      <c r="F27" s="37" t="n">
         <v>1</v>
       </c>
-      <c r="G27" s="38" t="n">
+      <c r="G27" s="37" t="n">
         <v>0</v>
       </c>
     </row>
     <row r="28" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A28" s="35" t="s">
+      <c r="A28" s="34" t="s">
         <v>31</v>
       </c>
-      <c r="B28" s="36" t="n">
+      <c r="B28" s="35" t="n">
         <v>27</v>
       </c>
-      <c r="C28" s="37" t="n">
+      <c r="C28" s="36" t="n">
         <v>1</v>
       </c>
-      <c r="D28" s="37" t="n">
+      <c r="D28" s="36" t="n">
         <v>2.78</v>
       </c>
-      <c r="E28" s="37" t="n">
+      <c r="E28" s="36" t="n">
         <v>1.2</v>
       </c>
-      <c r="F28" s="38" t="n">
+      <c r="F28" s="37" t="n">
         <v>1</v>
       </c>
-      <c r="G28" s="38" t="n">
+      <c r="G28" s="37" t="n">
         <v>0</v>
       </c>
     </row>
     <row r="29" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A29" s="35" t="s">
+      <c r="A29" s="34" t="s">
         <v>32</v>
       </c>
-      <c r="B29" s="36" t="n">
+      <c r="B29" s="35" t="n">
         <v>28</v>
       </c>
-      <c r="C29" s="37" t="n">
+      <c r="C29" s="36" t="n">
         <v>1.6</v>
       </c>
-      <c r="D29" s="37" t="n">
+      <c r="D29" s="36" t="n">
         <v>2.78</v>
       </c>
-      <c r="E29" s="37" t="n">
+      <c r="E29" s="36" t="n">
         <v>1.2</v>
       </c>
-      <c r="F29" s="38" t="n">
+      <c r="F29" s="37" t="n">
         <v>1</v>
       </c>
-      <c r="G29" s="38" t="n">
+      <c r="G29" s="37" t="n">
         <v>0</v>
       </c>
     </row>
     <row r="30" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A30" s="35" t="s">
+      <c r="A30" s="34" t="s">
         <v>33</v>
       </c>
-      <c r="B30" s="36" t="n">
+      <c r="B30" s="35" t="n">
         <v>29</v>
       </c>
-      <c r="C30" s="37" t="n">
+      <c r="C30" s="36" t="n">
         <v>1.6</v>
       </c>
-      <c r="D30" s="37" t="n">
+      <c r="D30" s="36" t="n">
         <v>2.78</v>
       </c>
-      <c r="E30" s="37" t="n">
+      <c r="E30" s="36" t="n">
         <v>0.6</v>
       </c>
-      <c r="F30" s="38" t="n">
+      <c r="F30" s="37" t="n">
         <v>1</v>
       </c>
-      <c r="G30" s="38" t="n">
+      <c r="G30" s="37" t="n">
         <v>0</v>
       </c>
     </row>
     <row r="31" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A31" s="35" t="s">
+      <c r="A31" s="34" t="s">
         <v>34</v>
       </c>
-      <c r="B31" s="36" t="n">
+      <c r="B31" s="35" t="n">
         <v>30</v>
       </c>
-      <c r="C31" s="37" t="n">
+      <c r="C31" s="36" t="n">
         <v>1.6</v>
       </c>
-      <c r="D31" s="37" t="n">
+      <c r="D31" s="36" t="n">
         <v>2.78</v>
       </c>
-      <c r="E31" s="37" t="n">
-        <v>0</v>
-      </c>
-      <c r="F31" s="38" t="n">
-        <v>0</v>
-      </c>
-      <c r="G31" s="38" t="n">
+      <c r="E31" s="36" t="n">
+        <v>0</v>
+      </c>
+      <c r="F31" s="37" t="n">
+        <v>0</v>
+      </c>
+      <c r="G31" s="37" t="n">
         <v>0</v>
       </c>
     </row>
     <row r="32" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A32" s="39" t="s">
+      <c r="A32" s="38" t="s">
         <v>35</v>
       </c>
-      <c r="B32" s="40" t="n">
+      <c r="B32" s="39" t="n">
         <v>31</v>
       </c>
-      <c r="C32" s="41" t="n">
+      <c r="C32" s="40" t="n">
         <v>-0.88</v>
       </c>
-      <c r="D32" s="41" t="n">
+      <c r="D32" s="40" t="n">
         <v>2.04</v>
       </c>
-      <c r="E32" s="41" t="n">
-        <v>0</v>
-      </c>
-      <c r="F32" s="42" t="n">
-        <v>0</v>
-      </c>
-      <c r="G32" s="42" t="n">
+      <c r="E32" s="40" t="n">
+        <v>0</v>
+      </c>
+      <c r="F32" s="41" t="n">
+        <v>1</v>
+      </c>
+      <c r="G32" s="41" t="n">
         <v>0</v>
       </c>
     </row>
     <row r="33" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A33" s="39" t="s">
+      <c r="A33" s="38" t="s">
         <v>36</v>
       </c>
-      <c r="B33" s="40" t="n">
+      <c r="B33" s="39" t="n">
         <v>32</v>
       </c>
-      <c r="C33" s="41" t="n">
-        <v>0</v>
-      </c>
-      <c r="D33" s="41" t="n">
-        <v>0</v>
-      </c>
-      <c r="E33" s="41" t="n">
-        <v>0</v>
-      </c>
-      <c r="F33" s="42" t="n">
-        <v>0</v>
-      </c>
-      <c r="G33" s="42" t="n">
+      <c r="C33" s="40" t="n">
+        <v>0</v>
+      </c>
+      <c r="D33" s="40" t="n">
+        <v>0</v>
+      </c>
+      <c r="E33" s="40" t="n">
+        <v>0</v>
+      </c>
+      <c r="F33" s="41" t="n">
+        <v>0</v>
+      </c>
+      <c r="G33" s="41" t="n">
         <v>0</v>
       </c>
     </row>
     <row r="34" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A34" s="39" t="s">
+      <c r="A34" s="38" t="s">
         <v>37</v>
       </c>
-      <c r="B34" s="40" t="n">
+      <c r="B34" s="39" t="n">
         <v>33</v>
       </c>
-      <c r="C34" s="41" t="n">
-        <v>0</v>
-      </c>
-      <c r="D34" s="41" t="n">
-        <v>0</v>
-      </c>
-      <c r="E34" s="41" t="n">
-        <v>0</v>
-      </c>
-      <c r="F34" s="42" t="n">
-        <v>0</v>
-      </c>
-      <c r="G34" s="42" t="n">
+      <c r="C34" s="40" t="n">
+        <v>0</v>
+      </c>
+      <c r="D34" s="40" t="n">
+        <v>0</v>
+      </c>
+      <c r="E34" s="40" t="n">
+        <v>0</v>
+      </c>
+      <c r="F34" s="41" t="n">
+        <v>0</v>
+      </c>
+      <c r="G34" s="41" t="n">
         <v>0</v>
       </c>
     </row>
     <row r="35" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A35" s="39" t="s">
+      <c r="A35" s="38" t="s">
         <v>38</v>
       </c>
-      <c r="B35" s="40" t="n">
+      <c r="B35" s="39" t="n">
         <v>34</v>
       </c>
-      <c r="C35" s="41" t="n">
-        <v>0</v>
-      </c>
-      <c r="D35" s="41" t="n">
-        <v>0</v>
-      </c>
-      <c r="E35" s="41" t="n">
-        <v>0</v>
-      </c>
-      <c r="F35" s="42" t="n">
-        <v>0</v>
-      </c>
-      <c r="G35" s="42" t="n">
+      <c r="C35" s="40" t="n">
+        <v>0</v>
+      </c>
+      <c r="D35" s="40" t="n">
+        <v>0</v>
+      </c>
+      <c r="E35" s="40" t="n">
+        <v>0</v>
+      </c>
+      <c r="F35" s="41" t="n">
+        <v>0</v>
+      </c>
+      <c r="G35" s="41" t="n">
         <v>0</v>
       </c>
     </row>
     <row r="36" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A36" s="39" t="s">
+      <c r="A36" s="38" t="s">
         <v>39</v>
       </c>
-      <c r="B36" s="40" t="n">
+      <c r="B36" s="39" t="n">
         <v>35</v>
       </c>
-      <c r="C36" s="41" t="n">
-        <v>0</v>
-      </c>
-      <c r="D36" s="41" t="n">
-        <v>0</v>
-      </c>
-      <c r="E36" s="41" t="n">
-        <v>0</v>
-      </c>
-      <c r="F36" s="42" t="n">
-        <v>0</v>
-      </c>
-      <c r="G36" s="42" t="n">
+      <c r="C36" s="40" t="n">
+        <v>0</v>
+      </c>
+      <c r="D36" s="40" t="n">
+        <v>0</v>
+      </c>
+      <c r="E36" s="40" t="n">
+        <v>0</v>
+      </c>
+      <c r="F36" s="41" t="n">
+        <v>0</v>
+      </c>
+      <c r="G36" s="41" t="n">
         <v>0</v>
       </c>
     </row>
     <row r="37" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A37" s="39" t="s">
+      <c r="A37" s="38" t="s">
         <v>40</v>
       </c>
-      <c r="B37" s="40" t="n">
+      <c r="B37" s="39" t="n">
         <v>36</v>
       </c>
-      <c r="C37" s="41" t="n">
+      <c r="C37" s="40" t="n">
         <v>0.76</v>
       </c>
-      <c r="D37" s="41" t="n">
+      <c r="D37" s="40" t="n">
         <v>2.07</v>
       </c>
-      <c r="E37" s="41" t="n">
-        <v>0</v>
-      </c>
-      <c r="F37" s="42" t="n">
-        <v>0</v>
-      </c>
-      <c r="G37" s="42" t="n">
+      <c r="E37" s="40" t="n">
+        <v>0</v>
+      </c>
+      <c r="F37" s="41" t="n">
+        <v>1</v>
+      </c>
+      <c r="G37" s="41" t="n">
         <v>0</v>
       </c>
     </row>
     <row r="38" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A38" s="43" t="s">
+      <c r="A38" s="42" t="s">
         <v>41</v>
       </c>
-      <c r="B38" s="44" t="n">
+      <c r="B38" s="43" t="n">
         <v>37</v>
       </c>
-      <c r="C38" s="45" t="n">
+      <c r="C38" s="44" t="n">
         <v>-0.085</v>
       </c>
-      <c r="D38" s="45" t="n">
+      <c r="D38" s="44" t="n">
         <v>2.431</v>
       </c>
-      <c r="E38" s="45" t="n">
-        <v>0</v>
-      </c>
-      <c r="F38" s="46" t="n">
+      <c r="E38" s="44" t="n">
+        <v>0</v>
+      </c>
+      <c r="F38" s="45" t="n">
         <v>1</v>
       </c>
-      <c r="G38" s="46" t="n">
+      <c r="G38" s="45" t="n">
         <v>0</v>
       </c>
     </row>
     <row r="39" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A39" s="43" t="s">
+      <c r="A39" s="42" t="s">
         <v>42</v>
       </c>
-      <c r="B39" s="44" t="n">
+      <c r="B39" s="43" t="n">
         <v>38</v>
       </c>
-      <c r="C39" s="45" t="n">
+      <c r="C39" s="44" t="n">
         <v>-0.085</v>
       </c>
-      <c r="D39" s="45" t="n">
+      <c r="D39" s="44" t="n">
         <v>0.938</v>
       </c>
-      <c r="E39" s="45" t="n">
-        <v>0</v>
-      </c>
-      <c r="F39" s="46" t="n">
+      <c r="E39" s="44" t="n">
+        <v>0</v>
+      </c>
+      <c r="F39" s="45" t="n">
         <v>1</v>
       </c>
-      <c r="G39" s="46" t="n">
+      <c r="G39" s="45" t="n">
         <v>0</v>
       </c>
     </row>
     <row r="40" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A40" s="43" t="s">
+      <c r="A40" s="42" t="s">
         <v>43</v>
       </c>
-      <c r="B40" s="44" t="n">
+      <c r="B40" s="43" t="n">
         <v>39</v>
       </c>
-      <c r="C40" s="45" t="n">
+      <c r="C40" s="44" t="n">
         <v>0.085</v>
       </c>
-      <c r="D40" s="45" t="n">
+      <c r="D40" s="44" t="n">
         <v>0.938</v>
       </c>
-      <c r="E40" s="45" t="n">
-        <v>0</v>
-      </c>
-      <c r="F40" s="46" t="n">
+      <c r="E40" s="44" t="n">
+        <v>0</v>
+      </c>
+      <c r="F40" s="45" t="n">
         <v>1</v>
       </c>
-      <c r="G40" s="46" t="n">
+      <c r="G40" s="45" t="n">
         <v>0</v>
       </c>
     </row>
     <row r="41" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A41" s="43" t="s">
+      <c r="A41" s="42" t="s">
         <v>44</v>
       </c>
-      <c r="B41" s="44" t="n">
+      <c r="B41" s="43" t="n">
         <v>40</v>
       </c>
-      <c r="C41" s="45" t="n">
+      <c r="C41" s="44" t="n">
         <v>0.085</v>
       </c>
-      <c r="D41" s="45" t="n">
+      <c r="D41" s="44" t="n">
         <v>2.431</v>
       </c>
-      <c r="E41" s="45" t="n">
-        <v>0</v>
-      </c>
-      <c r="F41" s="46" t="n">
+      <c r="E41" s="44" t="n">
+        <v>0</v>
+      </c>
+      <c r="F41" s="45" t="n">
         <v>1</v>
       </c>
-      <c r="G41" s="46" t="n">
+      <c r="G41" s="45" t="n">
         <v>0</v>
       </c>
     </row>
     <row r="42" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A42" s="47" t="s">
+      <c r="A42" s="46" t="s">
         <v>45</v>
       </c>
-      <c r="B42" s="48" t="n">
+      <c r="B42" s="47" t="n">
         <v>41</v>
       </c>
-      <c r="C42" s="49" t="n">
+      <c r="C42" s="48" t="n">
         <v>-0.085</v>
       </c>
-      <c r="D42" s="49" t="n">
+      <c r="D42" s="48" t="n">
         <v>0.778</v>
       </c>
-      <c r="E42" s="49" t="n">
-        <v>0</v>
-      </c>
-      <c r="F42" s="50" t="n">
-        <v>0</v>
-      </c>
-      <c r="G42" s="50" t="n">
+      <c r="E42" s="48" t="n">
+        <v>0</v>
+      </c>
+      <c r="F42" s="49" t="n">
+        <v>0</v>
+      </c>
+      <c r="G42" s="49" t="n">
         <v>0</v>
       </c>
     </row>
     <row r="43" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A43" s="47" t="s">
+      <c r="A43" s="46" t="s">
         <v>46</v>
       </c>
-      <c r="B43" s="48" t="n">
+      <c r="B43" s="47" t="n">
         <v>42</v>
       </c>
-      <c r="C43" s="49" t="n">
+      <c r="C43" s="48" t="n">
         <v>-0.085</v>
       </c>
-      <c r="D43" s="49" t="n">
+      <c r="D43" s="48" t="n">
         <v>-0.778</v>
       </c>
-      <c r="E43" s="49" t="n">
-        <v>0</v>
-      </c>
-      <c r="F43" s="50" t="n">
-        <v>0</v>
-      </c>
-      <c r="G43" s="50" t="n">
+      <c r="E43" s="48" t="n">
+        <v>0</v>
+      </c>
+      <c r="F43" s="49" t="n">
+        <v>0</v>
+      </c>
+      <c r="G43" s="49" t="n">
         <v>0</v>
       </c>
     </row>
     <row r="44" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A44" s="47" t="s">
+      <c r="A44" s="46" t="s">
         <v>47</v>
       </c>
-      <c r="B44" s="48" t="n">
+      <c r="B44" s="47" t="n">
         <v>43</v>
       </c>
-      <c r="C44" s="49" t="n">
+      <c r="C44" s="48" t="n">
         <v>0.085</v>
       </c>
-      <c r="D44" s="49" t="n">
+      <c r="D44" s="48" t="n">
         <v>-0.778</v>
       </c>
-      <c r="E44" s="49" t="n">
-        <v>0</v>
-      </c>
-      <c r="F44" s="50" t="n">
-        <v>0</v>
-      </c>
-      <c r="G44" s="50" t="n">
+      <c r="E44" s="48" t="n">
+        <v>0</v>
+      </c>
+      <c r="F44" s="49" t="n">
+        <v>0</v>
+      </c>
+      <c r="G44" s="49" t="n">
         <v>0</v>
       </c>
     </row>
     <row r="45" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A45" s="47" t="s">
+      <c r="A45" s="46" t="s">
         <v>48</v>
       </c>
-      <c r="B45" s="48" t="n">
+      <c r="B45" s="47" t="n">
         <v>44</v>
       </c>
-      <c r="C45" s="49" t="n">
+      <c r="C45" s="48" t="n">
         <v>0.085</v>
       </c>
-      <c r="D45" s="49" t="n">
+      <c r="D45" s="48" t="n">
         <v>0.778</v>
       </c>
-      <c r="E45" s="49" t="n">
-        <v>0</v>
-      </c>
-      <c r="F45" s="50" t="n">
-        <v>0</v>
-      </c>
-      <c r="G45" s="50" t="n">
+      <c r="E45" s="48" t="n">
+        <v>0</v>
+      </c>
+      <c r="F45" s="49" t="n">
+        <v>0</v>
+      </c>
+      <c r="G45" s="49" t="n">
         <v>0</v>
       </c>
     </row>
     <row r="46" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A46" s="51" t="s">
+      <c r="A46" s="50" t="s">
         <v>49</v>
       </c>
-      <c r="B46" s="52" t="n">
+      <c r="B46" s="51" t="n">
         <v>45</v>
       </c>
-      <c r="C46" s="53" t="n">
+      <c r="C46" s="52" t="n">
         <v>-0.085</v>
       </c>
-      <c r="D46" s="53" t="n">
+      <c r="D46" s="52" t="n">
         <v>-0.938</v>
       </c>
-      <c r="E46" s="53" t="n">
-        <v>0</v>
-      </c>
-      <c r="F46" s="54" t="n">
-        <v>0</v>
-      </c>
-      <c r="G46" s="54" t="n">
+      <c r="E46" s="52" t="n">
+        <v>0</v>
+      </c>
+      <c r="F46" s="53" t="n">
+        <v>0</v>
+      </c>
+      <c r="G46" s="53" t="n">
         <v>0</v>
       </c>
     </row>
     <row r="47" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A47" s="51" t="s">
+      <c r="A47" s="50" t="s">
         <v>50</v>
       </c>
-      <c r="B47" s="52" t="n">
+      <c r="B47" s="51" t="n">
         <v>46</v>
       </c>
-      <c r="C47" s="53" t="n">
+      <c r="C47" s="52" t="n">
         <v>-0.085</v>
       </c>
-      <c r="D47" s="53" t="n">
+      <c r="D47" s="52" t="n">
         <v>-2.408</v>
       </c>
-      <c r="E47" s="53" t="n">
-        <v>0</v>
-      </c>
-      <c r="F47" s="54" t="n">
-        <v>0</v>
-      </c>
-      <c r="G47" s="54" t="n">
+      <c r="E47" s="52" t="n">
+        <v>0</v>
+      </c>
+      <c r="F47" s="53" t="n">
+        <v>0</v>
+      </c>
+      <c r="G47" s="53" t="n">
         <v>0</v>
       </c>
     </row>
     <row r="48" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A48" s="51" t="s">
+      <c r="A48" s="50" t="s">
         <v>51</v>
       </c>
-      <c r="B48" s="52" t="n">
+      <c r="B48" s="51" t="n">
         <v>47</v>
       </c>
-      <c r="C48" s="53" t="n">
+      <c r="C48" s="52" t="n">
         <v>0.085</v>
       </c>
-      <c r="D48" s="53" t="n">
+      <c r="D48" s="52" t="n">
         <v>-2.408</v>
       </c>
-      <c r="E48" s="53" t="n">
-        <v>0</v>
-      </c>
-      <c r="F48" s="54" t="n">
-        <v>0</v>
-      </c>
-      <c r="G48" s="54" t="n">
+      <c r="E48" s="52" t="n">
+        <v>0</v>
+      </c>
+      <c r="F48" s="53" t="n">
+        <v>0</v>
+      </c>
+      <c r="G48" s="53" t="n">
         <v>0</v>
       </c>
     </row>
     <row r="49" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A49" s="51" t="s">
+      <c r="A49" s="50" t="s">
         <v>52</v>
       </c>
-      <c r="B49" s="52" t="n">
+      <c r="B49" s="51" t="n">
         <v>48</v>
       </c>
-      <c r="C49" s="53" t="n">
+      <c r="C49" s="52" t="n">
         <v>0.085</v>
       </c>
-      <c r="D49" s="53" t="n">
+      <c r="D49" s="52" t="n">
         <v>-0.938</v>
       </c>
-      <c r="E49" s="53" t="n">
-        <v>0</v>
-      </c>
-      <c r="F49" s="54" t="n">
-        <v>0</v>
-      </c>
-      <c r="G49" s="54" t="n">
+      <c r="E49" s="52" t="n">
+        <v>0</v>
+      </c>
+      <c r="F49" s="53" t="n">
+        <v>0</v>
+      </c>
+      <c r="G49" s="53" t="n">
         <v>0</v>
       </c>
     </row>
     <row r="50" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A50" s="55" t="s">
+      <c r="A50" s="54" t="s">
         <v>53</v>
       </c>
-      <c r="B50" s="56" t="n">
+      <c r="B50" s="55" t="n">
         <v>49</v>
       </c>
-      <c r="C50" s="57" t="n">
+      <c r="C50" s="56" t="n">
         <v>-2.84569</v>
       </c>
-      <c r="D50" s="57" t="n">
+      <c r="D50" s="56" t="n">
         <v>2.4546</v>
       </c>
-      <c r="E50" s="57" t="n">
-        <v>0</v>
-      </c>
-      <c r="F50" s="58" t="n">
-        <v>0</v>
-      </c>
-      <c r="G50" s="58" t="n">
+      <c r="E50" s="56" t="n">
+        <v>0</v>
+      </c>
+      <c r="F50" s="57" t="n">
+        <v>0</v>
+      </c>
+      <c r="G50" s="57" t="n">
         <v>0</v>
       </c>
     </row>
     <row r="51" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A51" s="55" t="s">
+      <c r="A51" s="54" t="s">
         <v>54</v>
       </c>
-      <c r="B51" s="56" t="n">
+      <c r="B51" s="55" t="n">
         <v>50</v>
       </c>
-      <c r="C51" s="57" t="n">
+      <c r="C51" s="56" t="n">
         <v>-2.7608</v>
       </c>
-      <c r="D51" s="57" t="n">
+      <c r="D51" s="56" t="n">
         <v>-2.3894</v>
       </c>
-      <c r="E51" s="57" t="n">
-        <v>0</v>
-      </c>
-      <c r="F51" s="58" t="n">
-        <v>0</v>
-      </c>
-      <c r="G51" s="58" t="n">
+      <c r="E51" s="56" t="n">
+        <v>0</v>
+      </c>
+      <c r="F51" s="57" t="n">
+        <v>0</v>
+      </c>
+      <c r="G51" s="57" t="n">
         <v>0</v>
       </c>
     </row>
     <row r="52" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A52" s="55" t="s">
+      <c r="A52" s="54" t="s">
         <v>55</v>
       </c>
-      <c r="B52" s="56" t="n">
+      <c r="B52" s="55" t="n">
         <v>51</v>
       </c>
-      <c r="C52" s="57" t="n">
+      <c r="C52" s="56" t="n">
         <v>2.7015</v>
       </c>
-      <c r="D52" s="57" t="n">
+      <c r="D52" s="56" t="n">
         <v>-2.4284</v>
       </c>
-      <c r="E52" s="57" t="n">
-        <v>0</v>
-      </c>
-      <c r="F52" s="58" t="n">
-        <v>0</v>
-      </c>
-      <c r="G52" s="58" t="n">
+      <c r="E52" s="56" t="n">
+        <v>0</v>
+      </c>
+      <c r="F52" s="57" t="n">
+        <v>0</v>
+      </c>
+      <c r="G52" s="57" t="n">
         <v>0</v>
       </c>
     </row>
     <row r="53" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A53" s="55" t="s">
+      <c r="A53" s="54" t="s">
         <v>56</v>
       </c>
-      <c r="B53" s="56" t="n">
+      <c r="B53" s="55" t="n">
         <v>52</v>
       </c>
-      <c r="C53" s="57" t="n">
+      <c r="C53" s="56" t="n">
         <v>2.7949</v>
       </c>
-      <c r="D53" s="57" t="n">
+      <c r="D53" s="56" t="n">
         <v>2.4546</v>
       </c>
-      <c r="E53" s="57" t="n">
-        <v>0</v>
-      </c>
-      <c r="F53" s="58" t="n">
-        <v>0</v>
-      </c>
-      <c r="G53" s="58" t="n">
+      <c r="E53" s="56" t="n">
+        <v>0</v>
+      </c>
+      <c r="F53" s="57" t="n">
+        <v>0</v>
+      </c>
+      <c r="G53" s="57" t="n">
         <v>0</v>
       </c>
     </row>
     <row r="54" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A54" s="35" t="s">
+      <c r="A54" s="34" t="s">
         <v>57</v>
       </c>
-      <c r="B54" s="36" t="n">
+      <c r="B54" s="35" t="n">
         <v>53</v>
       </c>
-      <c r="C54" s="37" t="n">
+      <c r="C54" s="36" t="n">
         <v>-3.022</v>
       </c>
-      <c r="D54" s="37" t="n">
+      <c r="D54" s="36" t="n">
         <v>2.6015</v>
       </c>
-      <c r="E54" s="37" t="n">
-        <v>0</v>
-      </c>
-      <c r="F54" s="38" t="n">
-        <v>0</v>
-      </c>
-      <c r="G54" s="38" t="n">
+      <c r="E54" s="36" t="n">
+        <v>0</v>
+      </c>
+      <c r="F54" s="37" t="n">
+        <v>0</v>
+      </c>
+      <c r="G54" s="37" t="n">
         <v>0</v>
       </c>
     </row>
     <row r="55" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A55" s="35" t="s">
+      <c r="A55" s="34" t="s">
         <v>58</v>
       </c>
-      <c r="B55" s="36" t="n">
+      <c r="B55" s="35" t="n">
         <v>54</v>
       </c>
-      <c r="C55" s="37" t="n">
+      <c r="C55" s="36" t="n">
         <v>-2.915</v>
       </c>
-      <c r="D55" s="37" t="n">
+      <c r="D55" s="36" t="n">
         <v>-2.5146</v>
       </c>
-      <c r="E55" s="37" t="n">
-        <v>0</v>
-      </c>
-      <c r="F55" s="38" t="n">
-        <v>0</v>
-      </c>
-      <c r="G55" s="38" t="n">
+      <c r="E55" s="36" t="n">
+        <v>0</v>
+      </c>
+      <c r="F55" s="37" t="n">
+        <v>0</v>
+      </c>
+      <c r="G55" s="37" t="n">
         <v>0</v>
       </c>
     </row>
     <row r="56" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A56" s="35" t="s">
+      <c r="A56" s="34" t="s">
         <v>59</v>
       </c>
-      <c r="B56" s="36" t="n">
+      <c r="B56" s="35" t="n">
         <v>55</v>
       </c>
-      <c r="C56" s="37" t="n">
+      <c r="C56" s="36" t="n">
         <v>2.8496</v>
       </c>
-      <c r="D56" s="37" t="n">
+      <c r="D56" s="36" t="n">
         <v>-2.5146</v>
       </c>
-      <c r="E56" s="37" t="n">
-        <v>0</v>
-      </c>
-      <c r="F56" s="38" t="n">
-        <v>0</v>
-      </c>
-      <c r="G56" s="38" t="n">
+      <c r="E56" s="36" t="n">
+        <v>0</v>
+      </c>
+      <c r="F56" s="37" t="n">
+        <v>0</v>
+      </c>
+      <c r="G56" s="37" t="n">
         <v>0</v>
       </c>
     </row>
     <row r="57" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A57" s="35" t="s">
+      <c r="A57" s="34" t="s">
         <v>60</v>
       </c>
-      <c r="B57" s="36" t="n">
+      <c r="B57" s="35" t="n">
         <v>56</v>
       </c>
-      <c r="C57" s="37" t="n">
+      <c r="C57" s="36" t="n">
         <v>2.971</v>
       </c>
-      <c r="D57" s="37" t="n">
+      <c r="D57" s="36" t="n">
         <v>2.6015</v>
       </c>
-      <c r="E57" s="37" t="n">
-        <v>0</v>
-      </c>
-      <c r="F57" s="38" t="n">
-        <v>0</v>
-      </c>
-      <c r="G57" s="38" t="n">
+      <c r="E57" s="36" t="n">
+        <v>0</v>
+      </c>
+      <c r="F57" s="37" t="n">
+        <v>0</v>
+      </c>
+      <c r="G57" s="37" t="n">
         <v>0</v>
       </c>
     </row>
     <row r="58" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A58" s="59" t="s">
+      <c r="A58" s="58" t="s">
         <v>61</v>
       </c>
-      <c r="B58" s="60" t="n">
+      <c r="B58" s="59" t="n">
         <v>57</v>
       </c>
-      <c r="C58" s="61" t="n">
+      <c r="C58" s="60" t="n">
         <v>-3.3343</v>
       </c>
-      <c r="D58" s="61" t="n">
+      <c r="D58" s="60" t="n">
         <v>2.78</v>
       </c>
-      <c r="E58" s="61" t="n">
-        <v>0</v>
-      </c>
-      <c r="F58" s="62" t="n">
-        <v>0</v>
-      </c>
-      <c r="G58" s="62" t="n">
+      <c r="E58" s="60" t="n">
+        <v>0</v>
+      </c>
+      <c r="F58" s="61" t="n">
+        <v>0</v>
+      </c>
+      <c r="G58" s="61" t="n">
         <v>0</v>
       </c>
     </row>
     <row r="59" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A59" s="59" t="s">
+      <c r="A59" s="58" t="s">
         <v>62</v>
       </c>
-      <c r="B59" s="60" t="n">
+      <c r="B59" s="59" t="n">
         <v>58</v>
       </c>
-      <c r="C59" s="61" t="n">
+      <c r="C59" s="60" t="n">
         <v>-3.1388</v>
       </c>
-      <c r="D59" s="61" t="n">
+      <c r="D59" s="60" t="n">
         <v>-2.9209</v>
       </c>
-      <c r="E59" s="61" t="n">
-        <v>0</v>
-      </c>
-      <c r="F59" s="62" t="n">
-        <v>0</v>
-      </c>
-      <c r="G59" s="62" t="n">
+      <c r="E59" s="60" t="n">
+        <v>0</v>
+      </c>
+      <c r="F59" s="61" t="n">
+        <v>0</v>
+      </c>
+      <c r="G59" s="61" t="n">
         <v>0</v>
       </c>
     </row>
     <row r="60" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A60" s="59" t="s">
+      <c r="A60" s="58" t="s">
         <v>63</v>
       </c>
-      <c r="B60" s="60" t="n">
+      <c r="B60" s="59" t="n">
         <v>59</v>
       </c>
-      <c r="C60" s="61" t="n">
+      <c r="C60" s="60" t="n">
         <v>3.1388</v>
       </c>
-      <c r="D60" s="61" t="n">
+      <c r="D60" s="60" t="n">
         <v>-2.9209</v>
       </c>
-      <c r="E60" s="61" t="n">
-        <v>0</v>
-      </c>
-      <c r="F60" s="62" t="n">
-        <v>0</v>
-      </c>
-      <c r="G60" s="62" t="n">
+      <c r="E60" s="60" t="n">
+        <v>0</v>
+      </c>
+      <c r="F60" s="61" t="n">
+        <v>0</v>
+      </c>
+      <c r="G60" s="61" t="n">
         <v>0</v>
       </c>
     </row>
     <row r="61" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A61" s="59" t="s">
+      <c r="A61" s="58" t="s">
         <v>64</v>
       </c>
-      <c r="B61" s="60" t="n">
+      <c r="B61" s="59" t="n">
         <v>60</v>
       </c>
-      <c r="C61" s="61" t="n">
+      <c r="C61" s="60" t="n">
         <v>3.3343</v>
       </c>
-      <c r="D61" s="61" t="n">
+      <c r="D61" s="60" t="n">
         <v>2.78</v>
       </c>
-      <c r="E61" s="61" t="n">
-        <v>0</v>
-      </c>
-      <c r="F61" s="62" t="n">
-        <v>0</v>
-      </c>
-      <c r="G61" s="62" t="n">
+      <c r="E61" s="60" t="n">
+        <v>0</v>
+      </c>
+      <c r="F61" s="61" t="n">
+        <v>0</v>
+      </c>
+      <c r="G61" s="61" t="n">
         <v>0</v>
       </c>
     </row>
     <row r="62" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A62" s="23" t="s">
+      <c r="A62" s="22" t="s">
         <v>65</v>
       </c>
-      <c r="B62" s="24" t="n">
+      <c r="B62" s="23" t="n">
         <v>61</v>
       </c>
-      <c r="C62" s="25" t="n">
+      <c r="C62" s="24" t="n">
         <f aca="false">C64-1</f>
         <v>-1.96</v>
       </c>
-      <c r="D62" s="25" t="n">
+      <c r="D62" s="24" t="n">
         <v>0.22</v>
       </c>
-      <c r="E62" s="25" t="n">
-        <v>0</v>
-      </c>
-      <c r="F62" s="26" t="n">
-        <v>0</v>
-      </c>
-      <c r="G62" s="26" t="n">
+      <c r="E62" s="24" t="n">
+        <v>0</v>
+      </c>
+      <c r="F62" s="25" t="n">
+        <v>0</v>
+      </c>
+      <c r="G62" s="25" t="n">
         <v>0</v>
       </c>
     </row>
     <row r="63" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A63" s="23" t="s">
+      <c r="A63" s="22" t="s">
         <v>66</v>
       </c>
-      <c r="B63" s="24" t="n">
+      <c r="B63" s="23" t="n">
         <v>62</v>
       </c>
-      <c r="C63" s="25" t="n">
+      <c r="C63" s="24" t="n">
         <v>-1.96</v>
       </c>
-      <c r="D63" s="25" t="n">
+      <c r="D63" s="24" t="n">
         <f aca="false">D62-1.05</f>
         <v>-0.83</v>
       </c>
-      <c r="E63" s="25" t="n">
-        <v>0</v>
-      </c>
-      <c r="F63" s="26" t="n">
-        <v>0</v>
-      </c>
-      <c r="G63" s="26" t="n">
+      <c r="E63" s="24" t="n">
+        <v>0</v>
+      </c>
+      <c r="F63" s="25" t="n">
+        <v>0</v>
+      </c>
+      <c r="G63" s="25" t="n">
         <v>0</v>
       </c>
     </row>
     <row r="64" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A64" s="23" t="s">
+      <c r="A64" s="22" t="s">
         <v>67</v>
       </c>
-      <c r="B64" s="24" t="n">
+      <c r="B64" s="23" t="n">
         <v>63</v>
       </c>
-      <c r="C64" s="25" t="n">
+      <c r="C64" s="24" t="n">
         <v>-0.96</v>
       </c>
-      <c r="D64" s="25" t="n">
+      <c r="D64" s="24" t="n">
         <v>-0.83</v>
       </c>
-      <c r="E64" s="25" t="n">
-        <v>0</v>
-      </c>
-      <c r="F64" s="26" t="n">
-        <v>0</v>
-      </c>
-      <c r="G64" s="26" t="n">
+      <c r="E64" s="24" t="n">
+        <v>0</v>
+      </c>
+      <c r="F64" s="25" t="n">
+        <v>0</v>
+      </c>
+      <c r="G64" s="25" t="n">
         <v>0</v>
       </c>
     </row>
     <row r="65" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A65" s="23" t="s">
+      <c r="A65" s="22" t="s">
         <v>68</v>
       </c>
-      <c r="B65" s="24" t="n">
+      <c r="B65" s="23" t="n">
         <v>64</v>
       </c>
-      <c r="C65" s="25" t="n">
+      <c r="C65" s="24" t="n">
         <v>-0.96</v>
       </c>
-      <c r="D65" s="25" t="n">
+      <c r="D65" s="24" t="n">
         <v>0.22</v>
       </c>
-      <c r="E65" s="25" t="n">
-        <v>0</v>
-      </c>
-      <c r="F65" s="26" t="n">
-        <v>0</v>
-      </c>
-      <c r="G65" s="26" t="n">
+      <c r="E65" s="24" t="n">
+        <v>0</v>
+      </c>
+      <c r="F65" s="25" t="n">
+        <v>0</v>
+      </c>
+      <c r="G65" s="25" t="n">
         <v>0</v>
       </c>
     </row>
     <row r="66" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A66" s="31" t="s">
+      <c r="A66" s="30" t="s">
         <v>69</v>
       </c>
-      <c r="B66" s="32" t="n">
+      <c r="B66" s="31" t="n">
         <v>65</v>
       </c>
-      <c r="C66" s="33" t="n">
+      <c r="C66" s="32" t="n">
         <v>-3.08</v>
       </c>
-      <c r="D66" s="33" t="n">
+      <c r="D66" s="32" t="n">
         <v>-0.16</v>
       </c>
-      <c r="E66" s="33" t="n">
-        <v>0</v>
-      </c>
-      <c r="F66" s="34" t="n">
-        <v>0</v>
-      </c>
-      <c r="G66" s="34" t="n">
+      <c r="E66" s="32" t="n">
+        <v>0</v>
+      </c>
+      <c r="F66" s="33" t="n">
+        <v>0</v>
+      </c>
+      <c r="G66" s="33" t="n">
         <v>0</v>
       </c>
     </row>
     <row r="67" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A67" s="31" t="s">
+      <c r="A67" s="30" t="s">
         <v>70</v>
       </c>
-      <c r="B67" s="32" t="n">
+      <c r="B67" s="31" t="n">
         <v>66</v>
       </c>
-      <c r="C67" s="33" t="n">
+      <c r="C67" s="32" t="n">
         <f aca="false">C68-0.83</f>
         <v>-3.08</v>
       </c>
-      <c r="D67" s="33" t="n">
+      <c r="D67" s="32" t="n">
         <v>-1.67</v>
       </c>
-      <c r="E67" s="33" t="n">
-        <v>0</v>
-      </c>
-      <c r="F67" s="34" t="n">
-        <v>0</v>
-      </c>
-      <c r="G67" s="34" t="n">
+      <c r="E67" s="32" t="n">
+        <v>0</v>
+      </c>
+      <c r="F67" s="33" t="n">
+        <v>0</v>
+      </c>
+      <c r="G67" s="33" t="n">
         <v>0</v>
       </c>
     </row>
     <row r="68" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A68" s="31" t="s">
+      <c r="A68" s="30" t="s">
         <v>71</v>
       </c>
-      <c r="B68" s="32" t="n">
+      <c r="B68" s="31" t="n">
         <v>67</v>
       </c>
-      <c r="C68" s="33" t="n">
+      <c r="C68" s="32" t="n">
         <v>-2.25</v>
       </c>
-      <c r="D68" s="33" t="n">
+      <c r="D68" s="32" t="n">
         <f aca="false">D69-1.51</f>
         <v>-1.67</v>
       </c>
-      <c r="E68" s="33" t="n">
-        <v>0</v>
-      </c>
-      <c r="F68" s="34" t="n">
-        <v>0</v>
-      </c>
-      <c r="G68" s="34" t="n">
+      <c r="E68" s="32" t="n">
+        <v>0</v>
+      </c>
+      <c r="F68" s="33" t="n">
+        <v>0</v>
+      </c>
+      <c r="G68" s="33" t="n">
         <v>0</v>
       </c>
     </row>
     <row r="69" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A69" s="31" t="s">
+      <c r="A69" s="30" t="s">
         <v>72</v>
       </c>
-      <c r="B69" s="32" t="n">
+      <c r="B69" s="31" t="n">
         <v>68</v>
       </c>
-      <c r="C69" s="33" t="n">
+      <c r="C69" s="32" t="n">
         <v>-2.25</v>
       </c>
-      <c r="D69" s="33" t="n">
+      <c r="D69" s="32" t="n">
         <v>-0.16</v>
       </c>
-      <c r="E69" s="33" t="n">
-        <v>0</v>
-      </c>
-      <c r="F69" s="34" t="n">
-        <v>0</v>
-      </c>
-      <c r="G69" s="34" t="n">
+      <c r="E69" s="32" t="n">
+        <v>0</v>
+      </c>
+      <c r="F69" s="33" t="n">
+        <v>0</v>
+      </c>
+      <c r="G69" s="33" t="n">
         <v>0</v>
       </c>
     </row>
     <row r="70" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A70" s="63" t="s">
+      <c r="A70" s="62" t="s">
         <v>73</v>
       </c>
-      <c r="B70" s="64" t="n">
+      <c r="B70" s="63" t="n">
         <v>69</v>
       </c>
-      <c r="C70" s="65" t="n">
+      <c r="C70" s="64" t="n">
         <v>-1.93</v>
       </c>
-      <c r="D70" s="65" t="n">
+      <c r="D70" s="64" t="n">
         <v>-1.64</v>
       </c>
-      <c r="E70" s="65" t="n">
-        <v>0</v>
-      </c>
-      <c r="F70" s="66" t="n">
-        <v>0</v>
-      </c>
-      <c r="G70" s="66" t="n">
+      <c r="E70" s="64" t="n">
+        <v>0</v>
+      </c>
+      <c r="F70" s="65" t="n">
+        <v>0</v>
+      </c>
+      <c r="G70" s="65" t="n">
         <v>0</v>
       </c>
     </row>
     <row r="71" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A71" s="63" t="s">
+      <c r="A71" s="62" t="s">
         <v>74</v>
       </c>
-      <c r="B71" s="64" t="n">
+      <c r="B71" s="63" t="n">
         <v>70</v>
       </c>
-      <c r="C71" s="65" t="n">
+      <c r="C71" s="64" t="n">
         <v>-1.93</v>
       </c>
-      <c r="D71" s="65" t="n">
+      <c r="D71" s="64" t="n">
         <v>-2.73</v>
       </c>
-      <c r="E71" s="65" t="n">
-        <v>0</v>
-      </c>
-      <c r="F71" s="66" t="n">
-        <v>0</v>
-      </c>
-      <c r="G71" s="66" t="n">
+      <c r="E71" s="64" t="n">
+        <v>0</v>
+      </c>
+      <c r="F71" s="65" t="n">
+        <v>0</v>
+      </c>
+      <c r="G71" s="65" t="n">
         <v>0</v>
       </c>
     </row>
     <row r="72" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A72" s="63" t="s">
+      <c r="A72" s="62" t="s">
         <v>75</v>
       </c>
-      <c r="B72" s="64" t="n">
+      <c r="B72" s="63" t="n">
         <v>71</v>
       </c>
-      <c r="C72" s="65" t="n">
+      <c r="C72" s="64" t="n">
         <v>-1</v>
       </c>
-      <c r="D72" s="65" t="n">
+      <c r="D72" s="64" t="n">
         <f aca="false">D73-1.09</f>
         <v>-2.73</v>
       </c>
-      <c r="E72" s="65" t="n">
-        <v>0</v>
-      </c>
-      <c r="F72" s="66" t="n">
-        <v>0</v>
-      </c>
-      <c r="G72" s="66" t="n">
+      <c r="E72" s="64" t="n">
+        <v>0</v>
+      </c>
+      <c r="F72" s="65" t="n">
+        <v>0</v>
+      </c>
+      <c r="G72" s="65" t="n">
         <v>0</v>
       </c>
     </row>
     <row r="73" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A73" s="63" t="s">
+      <c r="A73" s="62" t="s">
         <v>76</v>
       </c>
-      <c r="B73" s="64" t="n">
+      <c r="B73" s="63" t="n">
         <v>72</v>
       </c>
-      <c r="C73" s="65" t="n">
+      <c r="C73" s="64" t="n">
         <v>-1</v>
       </c>
-      <c r="D73" s="65" t="n">
+      <c r="D73" s="64" t="n">
         <v>-1.64</v>
       </c>
-      <c r="E73" s="65" t="n">
-        <v>0</v>
-      </c>
-      <c r="F73" s="66" t="n">
-        <v>0</v>
-      </c>
-      <c r="G73" s="66" t="n">
+      <c r="E73" s="64" t="n">
+        <v>0</v>
+      </c>
+      <c r="F73" s="65" t="n">
+        <v>0</v>
+      </c>
+      <c r="G73" s="65" t="n">
         <v>0</v>
       </c>
     </row>
     <row r="74" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A74" s="67" t="s">
+      <c r="A74" s="66" t="s">
         <v>77</v>
       </c>
-      <c r="B74" s="68" t="n">
+      <c r="B74" s="67" t="n">
         <v>73</v>
       </c>
-      <c r="C74" s="69" t="n">
+      <c r="C74" s="68" t="n">
         <v>2.26</v>
       </c>
-      <c r="D74" s="69" t="n">
+      <c r="D74" s="68" t="n">
         <v>-0.16</v>
       </c>
-      <c r="E74" s="69" t="n">
-        <v>0</v>
-      </c>
-      <c r="F74" s="70" t="n">
-        <v>0</v>
-      </c>
-      <c r="G74" s="70" t="n">
+      <c r="E74" s="68" t="n">
+        <v>0</v>
+      </c>
+      <c r="F74" s="69" t="n">
+        <v>0</v>
+      </c>
+      <c r="G74" s="69" t="n">
         <v>0</v>
       </c>
     </row>
     <row r="75" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A75" s="67" t="s">
+      <c r="A75" s="66" t="s">
         <v>78</v>
       </c>
-      <c r="B75" s="68" t="n">
+      <c r="B75" s="67" t="n">
         <v>74</v>
       </c>
-      <c r="C75" s="69" t="n">
+      <c r="C75" s="68" t="n">
         <v>2.26</v>
       </c>
-      <c r="D75" s="69" t="n">
+      <c r="D75" s="68" t="n">
         <f aca="false">D74-1.49</f>
         <v>-1.65</v>
       </c>
-      <c r="E75" s="69" t="n">
-        <v>0</v>
-      </c>
-      <c r="F75" s="70" t="n">
-        <v>0</v>
-      </c>
-      <c r="G75" s="70" t="n">
+      <c r="E75" s="68" t="n">
+        <v>0</v>
+      </c>
+      <c r="F75" s="69" t="n">
+        <v>0</v>
+      </c>
+      <c r="G75" s="69" t="n">
         <v>0</v>
       </c>
     </row>
     <row r="76" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A76" s="67" t="s">
+      <c r="A76" s="66" t="s">
         <v>79</v>
       </c>
-      <c r="B76" s="68" t="n">
+      <c r="B76" s="67" t="n">
         <v>75</v>
       </c>
-      <c r="C76" s="69" t="n">
+      <c r="C76" s="68" t="n">
         <f aca="false">2.26+0.83</f>
         <v>3.09</v>
       </c>
-      <c r="D76" s="69" t="n">
+      <c r="D76" s="68" t="n">
         <f aca="false">D75</f>
         <v>-1.65</v>
       </c>
-      <c r="E76" s="69" t="n">
-        <v>0</v>
-      </c>
-      <c r="F76" s="70" t="n">
-        <v>0</v>
-      </c>
-      <c r="G76" s="70" t="n">
+      <c r="E76" s="68" t="n">
+        <v>0</v>
+      </c>
+      <c r="F76" s="69" t="n">
+        <v>0</v>
+      </c>
+      <c r="G76" s="69" t="n">
         <v>0</v>
       </c>
     </row>
     <row r="77" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A77" s="67" t="s">
+      <c r="A77" s="66" t="s">
         <v>80</v>
       </c>
-      <c r="B77" s="68" t="n">
+      <c r="B77" s="67" t="n">
         <v>76</v>
       </c>
-      <c r="C77" s="69" t="n">
+      <c r="C77" s="68" t="n">
         <f aca="false">2.26+0.83</f>
         <v>3.09</v>
       </c>
-      <c r="D77" s="69" t="n">
+      <c r="D77" s="68" t="n">
         <v>-0.16</v>
       </c>
-      <c r="E77" s="69" t="n">
-        <v>0</v>
-      </c>
-      <c r="F77" s="70" t="n">
-        <v>0</v>
-      </c>
-      <c r="G77" s="70" t="n">
+      <c r="E77" s="68" t="n">
+        <v>0</v>
+      </c>
+      <c r="F77" s="69" t="n">
+        <v>0</v>
+      </c>
+      <c r="G77" s="69" t="n">
         <v>0</v>
       </c>
     </row>
     <row r="78" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A78" s="51" t="s">
+      <c r="A78" s="50" t="s">
         <v>81</v>
       </c>
-      <c r="B78" s="52" t="n">
+      <c r="B78" s="51" t="n">
         <v>77</v>
       </c>
-      <c r="C78" s="53" t="n">
-        <v>0</v>
-      </c>
-      <c r="D78" s="53" t="n">
+      <c r="C78" s="52" t="n">
+        <v>0</v>
+      </c>
+      <c r="D78" s="52" t="n">
         <v>-2.9217</v>
       </c>
-      <c r="E78" s="53" t="n">
+      <c r="E78" s="52" t="n">
         <v>-0.546</v>
       </c>
-      <c r="F78" s="54" t="n">
-        <v>0</v>
-      </c>
-      <c r="G78" s="54" t="n">
+      <c r="F78" s="53" t="n">
+        <v>0</v>
+      </c>
+      <c r="G78" s="53" t="n">
         <v>0</v>
       </c>
     </row>
     <row r="79" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A79" s="47" t="s">
+      <c r="A79" s="46" t="s">
         <v>82</v>
       </c>
-      <c r="B79" s="48" t="n">
+      <c r="B79" s="47" t="n">
         <v>78</v>
       </c>
-      <c r="C79" s="49" t="n">
+      <c r="C79" s="48" t="n">
         <v>-3.1634</v>
       </c>
-      <c r="D79" s="49" t="n">
+      <c r="D79" s="48" t="n">
         <v>-2.9565</v>
       </c>
-      <c r="E79" s="49" t="n">
+      <c r="E79" s="48" t="n">
         <v>-0.9233</v>
       </c>
-      <c r="F79" s="50" t="n">
-        <v>0</v>
-      </c>
-      <c r="G79" s="50" t="n">
+      <c r="F79" s="49" t="n">
+        <v>0</v>
+      </c>
+      <c r="G79" s="49" t="n">
         <v>0</v>
       </c>
     </row>
     <row r="80" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A80" s="47" t="s">
+      <c r="A80" s="46" t="s">
         <v>83</v>
       </c>
-      <c r="B80" s="48" t="n">
+      <c r="B80" s="47" t="n">
         <v>79</v>
       </c>
-      <c r="C80" s="49" t="n">
+      <c r="C80" s="48" t="n">
         <v>-3.0852</v>
       </c>
-      <c r="D80" s="49" t="n">
+      <c r="D80" s="48" t="n">
         <v>-2.7843</v>
       </c>
-      <c r="E80" s="49" t="n">
+      <c r="E80" s="48" t="n">
         <v>-2.0292</v>
       </c>
-      <c r="F80" s="50" t="n">
-        <v>0</v>
-      </c>
-      <c r="G80" s="50" t="n">
+      <c r="F80" s="49" t="n">
+        <v>0</v>
+      </c>
+      <c r="G80" s="49" t="n">
         <v>0</v>
       </c>
     </row>
     <row r="81" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A81" s="47" t="s">
+      <c r="A81" s="46" t="s">
         <v>84</v>
       </c>
-      <c r="B81" s="48" t="n">
+      <c r="B81" s="47" t="n">
         <v>80</v>
       </c>
-      <c r="C81" s="49" t="n">
+      <c r="C81" s="48" t="n">
         <v>3.085</v>
       </c>
-      <c r="D81" s="49" t="n">
+      <c r="D81" s="48" t="n">
         <v>-2.784</v>
       </c>
-      <c r="E81" s="49" t="n">
+      <c r="E81" s="48" t="n">
         <v>-2.029</v>
       </c>
-      <c r="F81" s="50" t="n">
-        <v>0</v>
-      </c>
-      <c r="G81" s="50" t="n">
+      <c r="F81" s="49" t="n">
+        <v>0</v>
+      </c>
+      <c r="G81" s="49" t="n">
         <v>0</v>
       </c>
     </row>
     <row r="82" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A82" s="47" t="s">
+      <c r="A82" s="46" t="s">
         <v>85</v>
       </c>
-      <c r="B82" s="48" t="n">
+      <c r="B82" s="47" t="n">
         <v>81</v>
       </c>
-      <c r="C82" s="49" t="n">
+      <c r="C82" s="48" t="n">
         <v>3.163</v>
       </c>
-      <c r="D82" s="49" t="n">
+      <c r="D82" s="48" t="n">
         <v>-2.957</v>
       </c>
-      <c r="E82" s="49" t="n">
+      <c r="E82" s="48" t="n">
         <v>0.923</v>
       </c>
-      <c r="F82" s="50" t="n">
-        <v>0</v>
-      </c>
-      <c r="G82" s="50" t="n">
+      <c r="F82" s="49" t="n">
+        <v>0</v>
+      </c>
+      <c r="G82" s="49" t="n">
         <v>0</v>
       </c>
     </row>
     <row r="83" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A83" s="71"/>
-      <c r="B83" s="72"/>
-      <c r="C83" s="73"/>
-      <c r="D83" s="73"/>
-      <c r="E83" s="73"/>
-      <c r="F83" s="74"/>
-      <c r="G83" s="74"/>
+      <c r="A83" s="70"/>
+      <c r="B83" s="71"/>
+      <c r="C83" s="72"/>
+      <c r="D83" s="72"/>
+      <c r="E83" s="72"/>
+      <c r="F83" s="73"/>
+      <c r="G83" s="73"/>
     </row>
     <row r="84" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A84" s="71"/>
-      <c r="B84" s="72"/>
-      <c r="C84" s="73"/>
-      <c r="D84" s="73"/>
-      <c r="E84" s="73"/>
-      <c r="F84" s="74"/>
-      <c r="G84" s="74"/>
+      <c r="A84" s="70"/>
+      <c r="B84" s="71"/>
+      <c r="C84" s="72"/>
+      <c r="D84" s="72"/>
+      <c r="E84" s="72"/>
+      <c r="F84" s="73"/>
+      <c r="G84" s="73"/>
     </row>
     <row r="85" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A85" s="71"/>
-      <c r="B85" s="72"/>
-      <c r="C85" s="73"/>
-      <c r="D85" s="73"/>
-      <c r="E85" s="73"/>
-      <c r="F85" s="74"/>
-      <c r="G85" s="74"/>
+      <c r="A85" s="70"/>
+      <c r="B85" s="71"/>
+      <c r="C85" s="72"/>
+      <c r="D85" s="72"/>
+      <c r="E85" s="72"/>
+      <c r="F85" s="73"/>
+      <c r="G85" s="73"/>
     </row>
     <row r="86" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A86" s="71"/>
-      <c r="B86" s="72"/>
-      <c r="C86" s="73"/>
-      <c r="D86" s="73"/>
-      <c r="E86" s="73"/>
-      <c r="F86" s="74"/>
-      <c r="G86" s="74"/>
+      <c r="A86" s="70"/>
+      <c r="B86" s="71"/>
+      <c r="C86" s="72"/>
+      <c r="D86" s="72"/>
+      <c r="E86" s="72"/>
+      <c r="F86" s="73"/>
+      <c r="G86" s="73"/>
     </row>
     <row r="87" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A87" s="71"/>
-      <c r="B87" s="72"/>
-      <c r="C87" s="73"/>
-      <c r="D87" s="73"/>
-      <c r="E87" s="73"/>
-      <c r="F87" s="74"/>
-      <c r="G87" s="74"/>
+      <c r="A87" s="70"/>
+      <c r="B87" s="71"/>
+      <c r="C87" s="72"/>
+      <c r="D87" s="72"/>
+      <c r="E87" s="72"/>
+      <c r="F87" s="73"/>
+      <c r="G87" s="73"/>
     </row>
     <row r="88" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A88" s="71"/>
-      <c r="B88" s="72"/>
-      <c r="C88" s="73"/>
-      <c r="D88" s="73"/>
-      <c r="E88" s="73"/>
-      <c r="F88" s="74"/>
-      <c r="G88" s="74"/>
+      <c r="A88" s="70"/>
+      <c r="B88" s="71"/>
+      <c r="C88" s="72"/>
+      <c r="D88" s="72"/>
+      <c r="E88" s="72"/>
+      <c r="F88" s="73"/>
+      <c r="G88" s="73"/>
     </row>
     <row r="89" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A89" s="71"/>
-      <c r="B89" s="72"/>
-      <c r="C89" s="73"/>
-      <c r="D89" s="73"/>
-      <c r="E89" s="73"/>
-      <c r="F89" s="74"/>
-      <c r="G89" s="74"/>
+      <c r="A89" s="70"/>
+      <c r="B89" s="71"/>
+      <c r="C89" s="72"/>
+      <c r="D89" s="72"/>
+      <c r="E89" s="72"/>
+      <c r="F89" s="73"/>
+      <c r="G89" s="73"/>
     </row>
     <row r="90" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A90" s="71"/>
-      <c r="B90" s="72"/>
-      <c r="C90" s="73"/>
-      <c r="D90" s="73"/>
-      <c r="E90" s="73"/>
-      <c r="F90" s="74"/>
-      <c r="G90" s="74"/>
+      <c r="A90" s="70"/>
+      <c r="B90" s="71"/>
+      <c r="C90" s="72"/>
+      <c r="D90" s="72"/>
+      <c r="E90" s="72"/>
+      <c r="F90" s="73"/>
+      <c r="G90" s="73"/>
     </row>
     <row r="91" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A91" s="71"/>
-      <c r="B91" s="72"/>
-      <c r="C91" s="73"/>
-      <c r="D91" s="73"/>
-      <c r="E91" s="73"/>
-      <c r="F91" s="74"/>
-      <c r="G91" s="74"/>
+      <c r="A91" s="70"/>
+      <c r="B91" s="71"/>
+      <c r="C91" s="72"/>
+      <c r="D91" s="72"/>
+      <c r="E91" s="72"/>
+      <c r="F91" s="73"/>
+      <c r="G91" s="73"/>
     </row>
     <row r="92" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A92" s="71"/>
-      <c r="B92" s="72"/>
-      <c r="C92" s="73"/>
-      <c r="D92" s="73"/>
-      <c r="E92" s="73"/>
-      <c r="F92" s="74"/>
-      <c r="G92" s="74"/>
+      <c r="A92" s="70"/>
+      <c r="B92" s="71"/>
+      <c r="C92" s="72"/>
+      <c r="D92" s="72"/>
+      <c r="E92" s="72"/>
+      <c r="F92" s="73"/>
+      <c r="G92" s="73"/>
     </row>
     <row r="93" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A93" s="71"/>
-      <c r="B93" s="72"/>
-      <c r="C93" s="73"/>
-      <c r="D93" s="73"/>
-      <c r="E93" s="73"/>
-      <c r="F93" s="74"/>
-      <c r="G93" s="74"/>
+      <c r="A93" s="70"/>
+      <c r="B93" s="71"/>
+      <c r="C93" s="72"/>
+      <c r="D93" s="72"/>
+      <c r="E93" s="72"/>
+      <c r="F93" s="73"/>
+      <c r="G93" s="73"/>
     </row>
     <row r="94" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A94" s="71"/>
-      <c r="B94" s="72"/>
-      <c r="C94" s="73"/>
-      <c r="D94" s="73"/>
-      <c r="E94" s="73"/>
-      <c r="F94" s="74"/>
-      <c r="G94" s="74"/>
+      <c r="A94" s="70"/>
+      <c r="B94" s="71"/>
+      <c r="C94" s="72"/>
+      <c r="D94" s="72"/>
+      <c r="E94" s="72"/>
+      <c r="F94" s="73"/>
+      <c r="G94" s="73"/>
     </row>
     <row r="95" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A95" s="71"/>
-      <c r="B95" s="72"/>
-      <c r="C95" s="73"/>
-      <c r="D95" s="73"/>
-      <c r="E95" s="73"/>
-      <c r="F95" s="74"/>
-      <c r="G95" s="74"/>
+      <c r="A95" s="70"/>
+      <c r="B95" s="71"/>
+      <c r="C95" s="72"/>
+      <c r="D95" s="72"/>
+      <c r="E95" s="72"/>
+      <c r="F95" s="73"/>
+      <c r="G95" s="73"/>
     </row>
     <row r="96" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A96" s="71"/>
-      <c r="B96" s="72"/>
-      <c r="C96" s="73"/>
-      <c r="D96" s="73"/>
-      <c r="E96" s="73"/>
-      <c r="F96" s="74"/>
-      <c r="G96" s="74"/>
+      <c r="A96" s="70"/>
+      <c r="B96" s="71"/>
+      <c r="C96" s="72"/>
+      <c r="D96" s="72"/>
+      <c r="E96" s="72"/>
+      <c r="F96" s="73"/>
+      <c r="G96" s="73"/>
     </row>
     <row r="97" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A97" s="71"/>
-      <c r="B97" s="72"/>
-      <c r="C97" s="73"/>
-      <c r="D97" s="73"/>
-      <c r="E97" s="73"/>
-      <c r="F97" s="74"/>
-      <c r="G97" s="74"/>
+      <c r="A97" s="70"/>
+      <c r="B97" s="71"/>
+      <c r="C97" s="72"/>
+      <c r="D97" s="72"/>
+      <c r="E97" s="72"/>
+      <c r="F97" s="73"/>
+      <c r="G97" s="73"/>
     </row>
     <row r="98" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A98" s="71"/>
-      <c r="B98" s="72"/>
-      <c r="C98" s="73"/>
-      <c r="D98" s="73"/>
-      <c r="E98" s="73"/>
-      <c r="F98" s="74"/>
-      <c r="G98" s="74"/>
+      <c r="A98" s="70"/>
+      <c r="B98" s="71"/>
+      <c r="C98" s="72"/>
+      <c r="D98" s="72"/>
+      <c r="E98" s="72"/>
+      <c r="F98" s="73"/>
+      <c r="G98" s="73"/>
     </row>
     <row r="99" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A99" s="71"/>
-      <c r="B99" s="72"/>
-      <c r="C99" s="73"/>
-      <c r="D99" s="73"/>
-      <c r="E99" s="73"/>
-      <c r="F99" s="74"/>
-      <c r="G99" s="74"/>
+      <c r="A99" s="70"/>
+      <c r="B99" s="71"/>
+      <c r="C99" s="72"/>
+      <c r="D99" s="72"/>
+      <c r="E99" s="72"/>
+      <c r="F99" s="73"/>
+      <c r="G99" s="73"/>
     </row>
     <row r="100" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A100" s="71"/>
-      <c r="B100" s="72"/>
-      <c r="C100" s="73"/>
-      <c r="D100" s="73"/>
-      <c r="E100" s="73"/>
-      <c r="F100" s="74"/>
-      <c r="G100" s="74"/>
+      <c r="A100" s="70"/>
+      <c r="B100" s="71"/>
+      <c r="C100" s="72"/>
+      <c r="D100" s="72"/>
+      <c r="E100" s="72"/>
+      <c r="F100" s="73"/>
+      <c r="G100" s="73"/>
     </row>
     <row r="101" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A101" s="71"/>
-      <c r="B101" s="72"/>
-      <c r="C101" s="73"/>
-      <c r="D101" s="73"/>
-      <c r="E101" s="73"/>
-      <c r="F101" s="74"/>
-      <c r="G101" s="74"/>
+      <c r="A101" s="70"/>
+      <c r="B101" s="71"/>
+      <c r="C101" s="72"/>
+      <c r="D101" s="72"/>
+      <c r="E101" s="72"/>
+      <c r="F101" s="73"/>
+      <c r="G101" s="73"/>
     </row>
     <row r="102" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A102" s="71"/>
-      <c r="B102" s="72"/>
-      <c r="C102" s="73"/>
-      <c r="D102" s="73"/>
-      <c r="E102" s="73"/>
-      <c r="F102" s="74"/>
-      <c r="G102" s="74"/>
+      <c r="A102" s="70"/>
+      <c r="B102" s="71"/>
+      <c r="C102" s="72"/>
+      <c r="D102" s="72"/>
+      <c r="E102" s="72"/>
+      <c r="F102" s="73"/>
+      <c r="G102" s="73"/>
     </row>
     <row r="103" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A103" s="71"/>
-      <c r="B103" s="72"/>
-      <c r="C103" s="73"/>
-      <c r="D103" s="73"/>
-      <c r="E103" s="73"/>
-      <c r="F103" s="74"/>
-      <c r="G103" s="74"/>
+      <c r="A103" s="70"/>
+      <c r="B103" s="71"/>
+      <c r="C103" s="72"/>
+      <c r="D103" s="72"/>
+      <c r="E103" s="72"/>
+      <c r="F103" s="73"/>
+      <c r="G103" s="73"/>
     </row>
     <row r="104" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A104" s="71"/>
-      <c r="B104" s="72"/>
-      <c r="C104" s="73"/>
-      <c r="D104" s="73"/>
-      <c r="E104" s="73"/>
-      <c r="F104" s="74"/>
-      <c r="G104" s="74"/>
+      <c r="A104" s="70"/>
+      <c r="B104" s="71"/>
+      <c r="C104" s="72"/>
+      <c r="D104" s="72"/>
+      <c r="E104" s="72"/>
+      <c r="F104" s="73"/>
+      <c r="G104" s="73"/>
     </row>
     <row r="105" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A105" s="71"/>
-      <c r="B105" s="72"/>
-      <c r="C105" s="73"/>
-      <c r="D105" s="73"/>
-      <c r="E105" s="73"/>
-      <c r="F105" s="74"/>
-      <c r="G105" s="74"/>
+      <c r="A105" s="70"/>
+      <c r="B105" s="71"/>
+      <c r="C105" s="72"/>
+      <c r="D105" s="72"/>
+      <c r="E105" s="72"/>
+      <c r="F105" s="73"/>
+      <c r="G105" s="73"/>
     </row>
     <row r="106" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A106" s="71"/>
-      <c r="B106" s="72"/>
-      <c r="C106" s="73"/>
-      <c r="D106" s="73"/>
-      <c r="E106" s="73"/>
-      <c r="F106" s="74"/>
-      <c r="G106" s="74"/>
+      <c r="A106" s="70"/>
+      <c r="B106" s="71"/>
+      <c r="C106" s="72"/>
+      <c r="D106" s="72"/>
+      <c r="E106" s="72"/>
+      <c r="F106" s="73"/>
+      <c r="G106" s="73"/>
     </row>
     <row r="107" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A107" s="71"/>
-      <c r="B107" s="72"/>
-      <c r="C107" s="73"/>
-      <c r="D107" s="73"/>
-      <c r="E107" s="73"/>
-      <c r="F107" s="74"/>
-      <c r="G107" s="74"/>
+      <c r="A107" s="70"/>
+      <c r="B107" s="71"/>
+      <c r="C107" s="72"/>
+      <c r="D107" s="72"/>
+      <c r="E107" s="72"/>
+      <c r="F107" s="73"/>
+      <c r="G107" s="73"/>
     </row>
     <row r="108" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A108" s="71"/>
-      <c r="B108" s="72"/>
-      <c r="C108" s="73"/>
-      <c r="D108" s="73"/>
-      <c r="E108" s="73"/>
-      <c r="F108" s="74"/>
-      <c r="G108" s="74"/>
+      <c r="A108" s="70"/>
+      <c r="B108" s="71"/>
+      <c r="C108" s="72"/>
+      <c r="D108" s="72"/>
+      <c r="E108" s="72"/>
+      <c r="F108" s="73"/>
+      <c r="G108" s="73"/>
     </row>
     <row r="109" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A109" s="71"/>
-      <c r="B109" s="72"/>
-      <c r="C109" s="73"/>
-      <c r="D109" s="73"/>
-      <c r="E109" s="73"/>
-      <c r="F109" s="74"/>
-      <c r="G109" s="74"/>
+      <c r="A109" s="70"/>
+      <c r="B109" s="71"/>
+      <c r="C109" s="72"/>
+      <c r="D109" s="72"/>
+      <c r="E109" s="72"/>
+      <c r="F109" s="73"/>
+      <c r="G109" s="73"/>
     </row>
     <row r="110" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A110" s="71"/>
-      <c r="B110" s="72"/>
-      <c r="C110" s="73"/>
-      <c r="D110" s="73"/>
-      <c r="E110" s="73"/>
-      <c r="F110" s="74"/>
-      <c r="G110" s="74"/>
+      <c r="A110" s="70"/>
+      <c r="B110" s="71"/>
+      <c r="C110" s="72"/>
+      <c r="D110" s="72"/>
+      <c r="E110" s="72"/>
+      <c r="F110" s="73"/>
+      <c r="G110" s="73"/>
     </row>
     <row r="111" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A111" s="71"/>
-      <c r="B111" s="72"/>
-      <c r="C111" s="73"/>
-      <c r="D111" s="73"/>
-      <c r="E111" s="73"/>
-      <c r="F111" s="74"/>
-      <c r="G111" s="74"/>
+      <c r="A111" s="70"/>
+      <c r="B111" s="71"/>
+      <c r="C111" s="72"/>
+      <c r="D111" s="72"/>
+      <c r="E111" s="72"/>
+      <c r="F111" s="73"/>
+      <c r="G111" s="73"/>
     </row>
     <row r="112" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A112" s="71"/>
-      <c r="B112" s="72"/>
-      <c r="C112" s="73"/>
-      <c r="D112" s="73"/>
-      <c r="E112" s="73"/>
-      <c r="F112" s="74"/>
-      <c r="G112" s="74"/>
+      <c r="A112" s="70"/>
+      <c r="B112" s="71"/>
+      <c r="C112" s="72"/>
+      <c r="D112" s="72"/>
+      <c r="E112" s="72"/>
+      <c r="F112" s="73"/>
+      <c r="G112" s="73"/>
     </row>
     <row r="113" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A113" s="71"/>
-      <c r="B113" s="72"/>
-      <c r="C113" s="73"/>
-      <c r="D113" s="73"/>
-      <c r="E113" s="73"/>
-      <c r="F113" s="74"/>
-      <c r="G113" s="74"/>
+      <c r="A113" s="70"/>
+      <c r="B113" s="71"/>
+      <c r="C113" s="72"/>
+      <c r="D113" s="72"/>
+      <c r="E113" s="72"/>
+      <c r="F113" s="73"/>
+      <c r="G113" s="73"/>
     </row>
     <row r="114" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A114" s="71"/>
-      <c r="B114" s="72"/>
-      <c r="C114" s="73"/>
-      <c r="D114" s="73"/>
-      <c r="E114" s="73"/>
-      <c r="F114" s="74"/>
-      <c r="G114" s="74"/>
+      <c r="A114" s="70"/>
+      <c r="B114" s="71"/>
+      <c r="C114" s="72"/>
+      <c r="D114" s="72"/>
+      <c r="E114" s="72"/>
+      <c r="F114" s="73"/>
+      <c r="G114" s="73"/>
     </row>
     <row r="115" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A115" s="71"/>
-      <c r="B115" s="72"/>
-      <c r="C115" s="73"/>
-      <c r="D115" s="73"/>
-      <c r="E115" s="73"/>
-      <c r="F115" s="74"/>
-      <c r="G115" s="74"/>
+      <c r="A115" s="70"/>
+      <c r="B115" s="71"/>
+      <c r="C115" s="72"/>
+      <c r="D115" s="72"/>
+      <c r="E115" s="72"/>
+      <c r="F115" s="73"/>
+      <c r="G115" s="73"/>
     </row>
     <row r="116" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A116" s="71"/>
-      <c r="B116" s="72"/>
-      <c r="C116" s="73"/>
-      <c r="D116" s="73"/>
-      <c r="E116" s="73"/>
-      <c r="F116" s="74"/>
-      <c r="G116" s="74"/>
+      <c r="A116" s="70"/>
+      <c r="B116" s="71"/>
+      <c r="C116" s="72"/>
+      <c r="D116" s="72"/>
+      <c r="E116" s="72"/>
+      <c r="F116" s="73"/>
+      <c r="G116" s="73"/>
     </row>
     <row r="117" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A117" s="71"/>
-      <c r="B117" s="72"/>
-      <c r="C117" s="73"/>
-      <c r="D117" s="73"/>
-      <c r="E117" s="73"/>
-      <c r="F117" s="74"/>
-      <c r="G117" s="74"/>
+      <c r="A117" s="70"/>
+      <c r="B117" s="71"/>
+      <c r="C117" s="72"/>
+      <c r="D117" s="72"/>
+      <c r="E117" s="72"/>
+      <c r="F117" s="73"/>
+      <c r="G117" s="73"/>
     </row>
     <row r="118" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A118" s="71"/>
-      <c r="B118" s="72"/>
-      <c r="C118" s="73"/>
-      <c r="D118" s="73"/>
-      <c r="E118" s="73"/>
-      <c r="F118" s="74"/>
-      <c r="G118" s="74"/>
+      <c r="A118" s="70"/>
+      <c r="B118" s="71"/>
+      <c r="C118" s="72"/>
+      <c r="D118" s="72"/>
+      <c r="E118" s="72"/>
+      <c r="F118" s="73"/>
+      <c r="G118" s="73"/>
     </row>
     <row r="119" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A119" s="71"/>
-      <c r="B119" s="72"/>
-      <c r="C119" s="73"/>
-      <c r="D119" s="73"/>
-      <c r="E119" s="73"/>
-      <c r="F119" s="74"/>
-      <c r="G119" s="74"/>
+      <c r="A119" s="70"/>
+      <c r="B119" s="71"/>
+      <c r="C119" s="72"/>
+      <c r="D119" s="72"/>
+      <c r="E119" s="72"/>
+      <c r="F119" s="73"/>
+      <c r="G119" s="73"/>
     </row>
     <row r="120" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A120" s="71"/>
-      <c r="B120" s="72"/>
-      <c r="C120" s="73"/>
-      <c r="D120" s="73"/>
-      <c r="E120" s="73"/>
-      <c r="F120" s="74"/>
-      <c r="G120" s="74"/>
+      <c r="A120" s="70"/>
+      <c r="B120" s="71"/>
+      <c r="C120" s="72"/>
+      <c r="D120" s="72"/>
+      <c r="E120" s="72"/>
+      <c r="F120" s="73"/>
+      <c r="G120" s="73"/>
     </row>
     <row r="121" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A121" s="71"/>
-      <c r="B121" s="72"/>
-      <c r="C121" s="73"/>
-      <c r="D121" s="73"/>
-      <c r="E121" s="73"/>
-      <c r="F121" s="74"/>
-      <c r="G121" s="74"/>
+      <c r="A121" s="70"/>
+      <c r="B121" s="71"/>
+      <c r="C121" s="72"/>
+      <c r="D121" s="72"/>
+      <c r="E121" s="72"/>
+      <c r="F121" s="73"/>
+      <c r="G121" s="73"/>
     </row>
     <row r="122" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A122" s="71"/>
-      <c r="B122" s="72"/>
-      <c r="C122" s="73"/>
-      <c r="D122" s="73"/>
-      <c r="E122" s="73"/>
-      <c r="F122" s="74"/>
-      <c r="G122" s="74"/>
+      <c r="A122" s="70"/>
+      <c r="B122" s="71"/>
+      <c r="C122" s="72"/>
+      <c r="D122" s="72"/>
+      <c r="E122" s="72"/>
+      <c r="F122" s="73"/>
+      <c r="G122" s="73"/>
     </row>
     <row r="123" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A123" s="71"/>
-      <c r="B123" s="72"/>
-      <c r="C123" s="73"/>
-      <c r="D123" s="73"/>
-      <c r="E123" s="73"/>
-      <c r="F123" s="74"/>
-      <c r="G123" s="74"/>
+      <c r="A123" s="70"/>
+      <c r="B123" s="71"/>
+      <c r="C123" s="72"/>
+      <c r="D123" s="72"/>
+      <c r="E123" s="72"/>
+      <c r="F123" s="73"/>
+      <c r="G123" s="73"/>
     </row>
     <row r="124" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A124" s="71"/>
-      <c r="B124" s="72"/>
-      <c r="C124" s="73"/>
-      <c r="D124" s="73"/>
-      <c r="E124" s="73"/>
-      <c r="F124" s="74"/>
-      <c r="G124" s="74"/>
+      <c r="A124" s="70"/>
+      <c r="B124" s="71"/>
+      <c r="C124" s="72"/>
+      <c r="D124" s="72"/>
+      <c r="E124" s="72"/>
+      <c r="F124" s="73"/>
+      <c r="G124" s="73"/>
     </row>
     <row r="125" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A125" s="71"/>
-      <c r="B125" s="72"/>
-      <c r="C125" s="73"/>
-      <c r="D125" s="73"/>
-      <c r="E125" s="73"/>
-      <c r="F125" s="74"/>
-      <c r="G125" s="74"/>
+      <c r="A125" s="70"/>
+      <c r="B125" s="71"/>
+      <c r="C125" s="72"/>
+      <c r="D125" s="72"/>
+      <c r="E125" s="72"/>
+      <c r="F125" s="73"/>
+      <c r="G125" s="73"/>
     </row>
     <row r="126" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A126" s="71"/>
-      <c r="B126" s="72"/>
-      <c r="C126" s="73"/>
-      <c r="D126" s="73"/>
-      <c r="E126" s="73"/>
-      <c r="F126" s="74"/>
-      <c r="G126" s="74"/>
+      <c r="A126" s="70"/>
+      <c r="B126" s="71"/>
+      <c r="C126" s="72"/>
+      <c r="D126" s="72"/>
+      <c r="E126" s="72"/>
+      <c r="F126" s="73"/>
+      <c r="G126" s="73"/>
     </row>
     <row r="127" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A127" s="71"/>
-      <c r="B127" s="72"/>
-      <c r="C127" s="73"/>
-      <c r="D127" s="73"/>
-      <c r="E127" s="73"/>
-      <c r="F127" s="74"/>
-      <c r="G127" s="74"/>
+      <c r="A127" s="70"/>
+      <c r="B127" s="71"/>
+      <c r="C127" s="72"/>
+      <c r="D127" s="72"/>
+      <c r="E127" s="72"/>
+      <c r="F127" s="73"/>
+      <c r="G127" s="73"/>
     </row>
     <row r="128" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A128" s="71"/>
-      <c r="B128" s="72"/>
-      <c r="C128" s="73"/>
-      <c r="D128" s="73"/>
-      <c r="E128" s="73"/>
-      <c r="F128" s="74"/>
-      <c r="G128" s="74"/>
+      <c r="A128" s="70"/>
+      <c r="B128" s="71"/>
+      <c r="C128" s="72"/>
+      <c r="D128" s="72"/>
+      <c r="E128" s="72"/>
+      <c r="F128" s="73"/>
+      <c r="G128" s="73"/>
     </row>
     <row r="129" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A129" s="71"/>
-      <c r="B129" s="72"/>
-      <c r="C129" s="73"/>
-      <c r="D129" s="73"/>
-      <c r="E129" s="73"/>
-      <c r="F129" s="74"/>
-      <c r="G129" s="74"/>
+      <c r="A129" s="70"/>
+      <c r="B129" s="71"/>
+      <c r="C129" s="72"/>
+      <c r="D129" s="72"/>
+      <c r="E129" s="72"/>
+      <c r="F129" s="73"/>
+      <c r="G129" s="73"/>
     </row>
     <row r="130" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A130" s="71"/>
-      <c r="B130" s="72"/>
-      <c r="C130" s="73"/>
-      <c r="D130" s="73"/>
-      <c r="E130" s="73"/>
-      <c r="F130" s="74"/>
-      <c r="G130" s="74"/>
+      <c r="A130" s="70"/>
+      <c r="B130" s="71"/>
+      <c r="C130" s="72"/>
+      <c r="D130" s="72"/>
+      <c r="E130" s="72"/>
+      <c r="F130" s="73"/>
+      <c r="G130" s="73"/>
     </row>
     <row r="131" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A131" s="71"/>
-      <c r="B131" s="72"/>
-      <c r="C131" s="73"/>
-      <c r="D131" s="73"/>
-      <c r="E131" s="73"/>
-      <c r="F131" s="74"/>
-      <c r="G131" s="74"/>
+      <c r="A131" s="70"/>
+      <c r="B131" s="71"/>
+      <c r="C131" s="72"/>
+      <c r="D131" s="72"/>
+      <c r="E131" s="72"/>
+      <c r="F131" s="73"/>
+      <c r="G131" s="73"/>
     </row>
     <row r="132" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A132" s="71"/>
-      <c r="B132" s="72"/>
-      <c r="C132" s="73"/>
-      <c r="D132" s="73"/>
-      <c r="E132" s="73"/>
-      <c r="F132" s="74"/>
-      <c r="G132" s="74"/>
+      <c r="A132" s="70"/>
+      <c r="B132" s="71"/>
+      <c r="C132" s="72"/>
+      <c r="D132" s="72"/>
+      <c r="E132" s="72"/>
+      <c r="F132" s="73"/>
+      <c r="G132" s="73"/>
     </row>
     <row r="133" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A133" s="71"/>
-      <c r="B133" s="72"/>
-      <c r="C133" s="73"/>
-      <c r="D133" s="73"/>
-      <c r="E133" s="73"/>
-      <c r="F133" s="74"/>
-      <c r="G133" s="74"/>
+      <c r="A133" s="70"/>
+      <c r="B133" s="71"/>
+      <c r="C133" s="72"/>
+      <c r="D133" s="72"/>
+      <c r="E133" s="72"/>
+      <c r="F133" s="73"/>
+      <c r="G133" s="73"/>
     </row>
     <row r="134" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A134" s="71"/>
-      <c r="B134" s="72"/>
-      <c r="C134" s="73"/>
-      <c r="D134" s="73"/>
-      <c r="E134" s="73"/>
-      <c r="F134" s="74"/>
-      <c r="G134" s="74"/>
+      <c r="A134" s="70"/>
+      <c r="B134" s="71"/>
+      <c r="C134" s="72"/>
+      <c r="D134" s="72"/>
+      <c r="E134" s="72"/>
+      <c r="F134" s="73"/>
+      <c r="G134" s="73"/>
     </row>
     <row r="135" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A135" s="71"/>
-      <c r="B135" s="72"/>
-      <c r="C135" s="73"/>
-      <c r="D135" s="73"/>
-      <c r="E135" s="73"/>
-      <c r="F135" s="74"/>
-      <c r="G135" s="74"/>
+      <c r="A135" s="70"/>
+      <c r="B135" s="71"/>
+      <c r="C135" s="72"/>
+      <c r="D135" s="72"/>
+      <c r="E135" s="72"/>
+      <c r="F135" s="73"/>
+      <c r="G135" s="73"/>
     </row>
     <row r="136" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A136" s="71"/>
-      <c r="B136" s="72"/>
-      <c r="C136" s="73"/>
-      <c r="D136" s="73"/>
-      <c r="E136" s="73"/>
-      <c r="F136" s="74"/>
-      <c r="G136" s="74"/>
+      <c r="A136" s="70"/>
+      <c r="B136" s="71"/>
+      <c r="C136" s="72"/>
+      <c r="D136" s="72"/>
+      <c r="E136" s="72"/>
+      <c r="F136" s="73"/>
+      <c r="G136" s="73"/>
     </row>
     <row r="137" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A137" s="71"/>
-      <c r="B137" s="72"/>
-      <c r="C137" s="73"/>
-      <c r="D137" s="73"/>
-      <c r="E137" s="73"/>
-      <c r="F137" s="74"/>
-      <c r="G137" s="74"/>
+      <c r="A137" s="70"/>
+      <c r="B137" s="71"/>
+      <c r="C137" s="72"/>
+      <c r="D137" s="72"/>
+      <c r="E137" s="72"/>
+      <c r="F137" s="73"/>
+      <c r="G137" s="73"/>
     </row>
     <row r="138" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A138" s="71"/>
-      <c r="B138" s="72"/>
-      <c r="C138" s="73"/>
-      <c r="D138" s="73"/>
-      <c r="E138" s="73"/>
-      <c r="F138" s="74"/>
-      <c r="G138" s="74"/>
+      <c r="A138" s="70"/>
+      <c r="B138" s="71"/>
+      <c r="C138" s="72"/>
+      <c r="D138" s="72"/>
+      <c r="E138" s="72"/>
+      <c r="F138" s="73"/>
+      <c r="G138" s="73"/>
     </row>
     <row r="139" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A139" s="71"/>
-      <c r="B139" s="72"/>
-      <c r="C139" s="73"/>
-      <c r="D139" s="73"/>
-      <c r="E139" s="73"/>
-      <c r="F139" s="74"/>
-      <c r="G139" s="74"/>
+      <c r="A139" s="70"/>
+      <c r="B139" s="71"/>
+      <c r="C139" s="72"/>
+      <c r="D139" s="72"/>
+      <c r="E139" s="72"/>
+      <c r="F139" s="73"/>
+      <c r="G139" s="73"/>
     </row>
     <row r="140" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A140" s="71"/>
-      <c r="B140" s="72"/>
-      <c r="C140" s="73"/>
-      <c r="D140" s="73"/>
-      <c r="E140" s="73"/>
-      <c r="F140" s="74"/>
-      <c r="G140" s="74"/>
+      <c r="A140" s="70"/>
+      <c r="B140" s="71"/>
+      <c r="C140" s="72"/>
+      <c r="D140" s="72"/>
+      <c r="E140" s="72"/>
+      <c r="F140" s="73"/>
+      <c r="G140" s="73"/>
     </row>
     <row r="141" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A141" s="71"/>
-      <c r="B141" s="72"/>
-      <c r="C141" s="73"/>
-      <c r="D141" s="73"/>
-      <c r="E141" s="73"/>
-      <c r="F141" s="74"/>
-      <c r="G141" s="74"/>
+      <c r="A141" s="70"/>
+      <c r="B141" s="71"/>
+      <c r="C141" s="72"/>
+      <c r="D141" s="72"/>
+      <c r="E141" s="72"/>
+      <c r="F141" s="73"/>
+      <c r="G141" s="73"/>
     </row>
     <row r="142" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A142" s="71"/>
-      <c r="B142" s="72"/>
-      <c r="C142" s="73"/>
-      <c r="D142" s="73"/>
-      <c r="E142" s="73"/>
-      <c r="F142" s="74"/>
-      <c r="G142" s="74"/>
+      <c r="A142" s="70"/>
+      <c r="B142" s="71"/>
+      <c r="C142" s="72"/>
+      <c r="D142" s="72"/>
+      <c r="E142" s="72"/>
+      <c r="F142" s="73"/>
+      <c r="G142" s="73"/>
     </row>
     <row r="143" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A143" s="71"/>
-      <c r="B143" s="72"/>
-      <c r="C143" s="73"/>
-      <c r="D143" s="73"/>
-      <c r="E143" s="73"/>
-      <c r="F143" s="74"/>
-      <c r="G143" s="74"/>
+      <c r="A143" s="70"/>
+      <c r="B143" s="71"/>
+      <c r="C143" s="72"/>
+      <c r="D143" s="72"/>
+      <c r="E143" s="72"/>
+      <c r="F143" s="73"/>
+      <c r="G143" s="73"/>
     </row>
     <row r="144" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A144" s="71"/>
-      <c r="B144" s="72"/>
-      <c r="C144" s="73"/>
-      <c r="D144" s="73"/>
-      <c r="E144" s="73"/>
-      <c r="F144" s="74"/>
-      <c r="G144" s="74"/>
+      <c r="A144" s="70"/>
+      <c r="B144" s="71"/>
+      <c r="C144" s="72"/>
+      <c r="D144" s="72"/>
+      <c r="E144" s="72"/>
+      <c r="F144" s="73"/>
+      <c r="G144" s="73"/>
     </row>
     <row r="145" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A145" s="71"/>
-      <c r="B145" s="72"/>
-      <c r="C145" s="73"/>
-      <c r="D145" s="73"/>
-      <c r="E145" s="73"/>
-      <c r="F145" s="74"/>
-      <c r="G145" s="74"/>
+      <c r="A145" s="70"/>
+      <c r="B145" s="71"/>
+      <c r="C145" s="72"/>
+      <c r="D145" s="72"/>
+      <c r="E145" s="72"/>
+      <c r="F145" s="73"/>
+      <c r="G145" s="73"/>
     </row>
     <row r="146" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A146" s="71"/>
-      <c r="B146" s="72"/>
-      <c r="C146" s="73"/>
-      <c r="D146" s="73"/>
-      <c r="E146" s="73"/>
-      <c r="F146" s="74"/>
-      <c r="G146" s="74"/>
+      <c r="A146" s="70"/>
+      <c r="B146" s="71"/>
+      <c r="C146" s="72"/>
+      <c r="D146" s="72"/>
+      <c r="E146" s="72"/>
+      <c r="F146" s="73"/>
+      <c r="G146" s="73"/>
     </row>
     <row r="147" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A147" s="71"/>
-      <c r="B147" s="72"/>
-      <c r="C147" s="73"/>
-      <c r="D147" s="73"/>
-      <c r="E147" s="73"/>
-      <c r="F147" s="74"/>
-      <c r="G147" s="74"/>
+      <c r="A147" s="70"/>
+      <c r="B147" s="71"/>
+      <c r="C147" s="72"/>
+      <c r="D147" s="72"/>
+      <c r="E147" s="72"/>
+      <c r="F147" s="73"/>
+      <c r="G147" s="73"/>
     </row>
     <row r="148" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A148" s="71"/>
-      <c r="B148" s="72"/>
-      <c r="C148" s="72"/>
-      <c r="D148" s="72"/>
-      <c r="E148" s="72"/>
-      <c r="F148" s="74"/>
-      <c r="G148" s="74"/>
+      <c r="A148" s="70"/>
+      <c r="B148" s="71"/>
+      <c r="C148" s="71"/>
+      <c r="D148" s="71"/>
+      <c r="E148" s="71"/>
+      <c r="F148" s="73"/>
+      <c r="G148" s="73"/>
     </row>
     <row r="149" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A149" s="71"/>
-      <c r="B149" s="72"/>
-      <c r="C149" s="72"/>
-      <c r="D149" s="72"/>
-      <c r="E149" s="72"/>
-      <c r="F149" s="74"/>
-      <c r="G149" s="74"/>
+      <c r="A149" s="70"/>
+      <c r="B149" s="71"/>
+      <c r="C149" s="71"/>
+      <c r="D149" s="71"/>
+      <c r="E149" s="71"/>
+      <c r="F149" s="73"/>
+      <c r="G149" s="73"/>
     </row>
     <row r="150" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A150" s="71"/>
-      <c r="B150" s="72"/>
-      <c r="C150" s="72"/>
-      <c r="D150" s="72"/>
-      <c r="E150" s="72"/>
-      <c r="F150" s="74"/>
-      <c r="G150" s="74"/>
+      <c r="A150" s="70"/>
+      <c r="B150" s="71"/>
+      <c r="C150" s="71"/>
+      <c r="D150" s="71"/>
+      <c r="E150" s="71"/>
+      <c r="F150" s="73"/>
+      <c r="G150" s="73"/>
     </row>
     <row r="151" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A151" s="71"/>
-      <c r="B151" s="72"/>
-      <c r="C151" s="72"/>
-      <c r="D151" s="72"/>
-      <c r="E151" s="72"/>
-      <c r="F151" s="74"/>
-      <c r="G151" s="74"/>
+      <c r="A151" s="70"/>
+      <c r="B151" s="71"/>
+      <c r="C151" s="71"/>
+      <c r="D151" s="71"/>
+      <c r="E151" s="71"/>
+      <c r="F151" s="73"/>
+      <c r="G151" s="73"/>
     </row>
     <row r="152" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A152" s="71"/>
-      <c r="B152" s="72"/>
-      <c r="C152" s="72"/>
-      <c r="D152" s="72"/>
-      <c r="E152" s="72"/>
-      <c r="F152" s="74"/>
-      <c r="G152" s="74"/>
+      <c r="A152" s="70"/>
+      <c r="B152" s="71"/>
+      <c r="C152" s="71"/>
+      <c r="D152" s="71"/>
+      <c r="E152" s="71"/>
+      <c r="F152" s="73"/>
+      <c r="G152" s="73"/>
     </row>
     <row r="153" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A153" s="71"/>
-      <c r="B153" s="72"/>
-      <c r="C153" s="72"/>
-      <c r="D153" s="72"/>
-      <c r="E153" s="72"/>
-      <c r="F153" s="74"/>
-      <c r="G153" s="74"/>
+      <c r="A153" s="70"/>
+      <c r="B153" s="71"/>
+      <c r="C153" s="71"/>
+      <c r="D153" s="71"/>
+      <c r="E153" s="71"/>
+      <c r="F153" s="73"/>
+      <c r="G153" s="73"/>
     </row>
     <row r="154" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A154" s="71"/>
-      <c r="B154" s="72"/>
-      <c r="C154" s="72"/>
-      <c r="D154" s="72"/>
-      <c r="E154" s="72"/>
-      <c r="F154" s="74"/>
-      <c r="G154" s="74"/>
+      <c r="A154" s="70"/>
+      <c r="B154" s="71"/>
+      <c r="C154" s="71"/>
+      <c r="D154" s="71"/>
+      <c r="E154" s="71"/>
+      <c r="F154" s="73"/>
+      <c r="G154" s="73"/>
     </row>
     <row r="155" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A155" s="71"/>
-      <c r="B155" s="72"/>
-      <c r="C155" s="72"/>
-      <c r="D155" s="72"/>
-      <c r="E155" s="72"/>
-      <c r="F155" s="74"/>
-      <c r="G155" s="74"/>
+      <c r="A155" s="70"/>
+      <c r="B155" s="71"/>
+      <c r="C155" s="71"/>
+      <c r="D155" s="71"/>
+      <c r="E155" s="71"/>
+      <c r="F155" s="73"/>
+      <c r="G155" s="73"/>
     </row>
     <row r="156" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A156" s="71"/>
-      <c r="B156" s="72"/>
-      <c r="C156" s="72"/>
-      <c r="D156" s="72"/>
-      <c r="E156" s="72"/>
-      <c r="F156" s="74"/>
-      <c r="G156" s="74"/>
+      <c r="A156" s="70"/>
+      <c r="B156" s="71"/>
+      <c r="C156" s="71"/>
+      <c r="D156" s="71"/>
+      <c r="E156" s="71"/>
+      <c r="F156" s="73"/>
+      <c r="G156" s="73"/>
     </row>
     <row r="157" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A157" s="71"/>
-      <c r="B157" s="72"/>
-      <c r="C157" s="72"/>
-      <c r="D157" s="72"/>
-      <c r="E157" s="72"/>
-      <c r="F157" s="74"/>
-      <c r="G157" s="74"/>
+      <c r="A157" s="70"/>
+      <c r="B157" s="71"/>
+      <c r="C157" s="71"/>
+      <c r="D157" s="71"/>
+      <c r="E157" s="71"/>
+      <c r="F157" s="73"/>
+      <c r="G157" s="73"/>
     </row>
     <row r="158" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A158" s="71"/>
-      <c r="B158" s="72"/>
-      <c r="C158" s="72"/>
-      <c r="D158" s="72"/>
-      <c r="E158" s="72"/>
-      <c r="F158" s="74"/>
-      <c r="G158" s="74"/>
+      <c r="A158" s="70"/>
+      <c r="B158" s="71"/>
+      <c r="C158" s="71"/>
+      <c r="D158" s="71"/>
+      <c r="E158" s="71"/>
+      <c r="F158" s="73"/>
+      <c r="G158" s="73"/>
     </row>
     <row r="159" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="B159" s="2"/>
-      <c r="G159" s="74"/>
+      <c r="G159" s="73"/>
     </row>
     <row r="160" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="B160" s="2"/>
-      <c r="G160" s="74"/>
+      <c r="G160" s="73"/>
     </row>
     <row r="161" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="B161" s="2"/>

--- a/pw.xlsx
+++ b/pw.xlsx
@@ -901,10 +901,10 @@
   <dimension ref="A1:I1158"/>
   <sheetViews>
     <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="true" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A1" colorId="64" zoomScale="100" zoomScaleNormal="100" zoomScalePageLayoutView="100" workbookViewId="0">
-      <selection pane="topLeft" activeCell="C43" activeCellId="0" sqref="C43"/>
+      <selection pane="topLeft" activeCell="H7" activeCellId="0" sqref="H7"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="8.78515625" defaultRowHeight="13.8" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
+  <sheetFormatPr defaultColWidth="8.796875" defaultRowHeight="13.8" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
   <cols>
     <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="1" min="1" style="0" width="34.73"/>
     <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="2" min="2" style="1" width="11.11"/>
@@ -935,6 +935,10 @@
       <c r="G1" s="8" t="s">
         <v>6</v>
       </c>
+      <c r="H1" s="0" t="n">
+        <f aca="false">SUM(F2:F82)</f>
+        <v>17</v>
+      </c>
     </row>
     <row r="2" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A2" s="9" t="s">
@@ -1496,7 +1500,7 @@
         <v>1</v>
       </c>
       <c r="G25" s="25" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="26" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -1516,10 +1520,10 @@
         <v>0</v>
       </c>
       <c r="F26" s="37" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="G26" s="37" t="n">
-        <v>0</v>
+        <v>3</v>
       </c>
     </row>
     <row r="27" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -1631,10 +1635,10 @@
         <v>0</v>
       </c>
       <c r="F31" s="37" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="G31" s="37" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="32" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -1815,7 +1819,7 @@
         <v>0</v>
       </c>
       <c r="F39" s="45" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="G39" s="45" t="n">
         <v>0</v>
@@ -1838,7 +1842,7 @@
         <v>0</v>
       </c>
       <c r="F40" s="45" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="G40" s="45" t="n">
         <v>0</v>

--- a/pw.xlsx
+++ b/pw.xlsx
@@ -20,7 +20,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="88" uniqueCount="86">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="89" uniqueCount="87">
   <si>
     <t xml:space="preserve">Label</t>
   </si>
@@ -41,6 +41,9 @@
   </si>
   <si>
     <t xml:space="preserve">New_Keys_Order*</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Total</t>
   </si>
   <si>
     <t xml:space="preserve">door point 1 Left bottom</t>
@@ -284,11 +287,12 @@
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
-  <numFmts count="2">
+  <numFmts count="3">
     <numFmt numFmtId="164" formatCode="General"/>
     <numFmt numFmtId="165" formatCode="0.000"/>
+    <numFmt numFmtId="166" formatCode="General"/>
   </numFmts>
-  <fonts count="6">
+  <fonts count="7">
     <font>
       <sz val="11"/>
       <color rgb="FF000000"/>
@@ -325,6 +329,12 @@
       <name val="Calibri"/>
       <family val="2"/>
       <charset val="1"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF000000"/>
+      <name val="Calibri"/>
+      <family val="2"/>
     </font>
   </fonts>
   <fills count="22">
@@ -505,7 +515,7 @@
       <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
     </xf>
   </cellStyleXfs>
-  <cellXfs count="74">
+  <cellXfs count="75">
     <xf numFmtId="164" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="false" applyBorder="false" applyAlignment="false" applyProtection="false">
       <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
@@ -556,6 +566,10 @@
     </xf>
     <xf numFmtId="164" fontId="0" fillId="7" borderId="1" xfId="0" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="false">
       <alignment horizontal="center" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
+      <protection locked="true" hidden="false"/>
+    </xf>
+    <xf numFmtId="166" fontId="6" fillId="0" borderId="0" xfId="0" applyFont="true" applyBorder="false" applyAlignment="false" applyProtection="false">
+      <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
     </xf>
     <xf numFmtId="164" fontId="5" fillId="8" borderId="1" xfId="0" applyFont="true" applyBorder="true" applyAlignment="false" applyProtection="false">
@@ -901,10 +915,10 @@
   <dimension ref="A1:I1158"/>
   <sheetViews>
     <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="true" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A1" colorId="64" zoomScale="100" zoomScaleNormal="100" zoomScalePageLayoutView="100" workbookViewId="0">
-      <selection pane="topLeft" activeCell="H7" activeCellId="0" sqref="H7"/>
+      <selection pane="topLeft" activeCell="G16" activeCellId="0" sqref="G16"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="8.796875" defaultRowHeight="13.8" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
+  <sheetFormatPr defaultColWidth="8.82421875" defaultRowHeight="13.8" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
   <cols>
     <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="1" min="1" style="0" width="34.73"/>
     <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="2" min="2" style="1" width="11.11"/>
@@ -935,14 +949,13 @@
       <c r="G1" s="8" t="s">
         <v>6</v>
       </c>
-      <c r="H1" s="0" t="n">
-        <f aca="false">SUM(F2:F82)</f>
-        <v>17</v>
+      <c r="H1" s="8" t="s">
+        <v>7</v>
       </c>
     </row>
     <row r="2" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A2" s="9" t="s">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="B2" s="10" t="n">
         <v>1</v>
@@ -962,82 +975,86 @@
       <c r="G2" s="12" t="n">
         <v>0</v>
       </c>
+      <c r="H2" s="13" t="n">
+        <f aca="false">SUM(F2:F82)</f>
+        <v>28</v>
+      </c>
     </row>
     <row r="3" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A3" s="13" t="s">
-        <v>8</v>
-      </c>
-      <c r="B3" s="14" t="n">
+      <c r="A3" s="14" t="s">
+        <v>9</v>
+      </c>
+      <c r="B3" s="15" t="n">
         <v>2</v>
       </c>
-      <c r="C3" s="15" t="n">
+      <c r="C3" s="16" t="n">
         <v>-1.83</v>
       </c>
-      <c r="D3" s="15" t="n">
+      <c r="D3" s="16" t="n">
         <v>2.775</v>
       </c>
-      <c r="E3" s="15" t="n">
+      <c r="E3" s="16" t="n">
         <v>0.365</v>
       </c>
-      <c r="F3" s="16" t="n">
-        <v>0</v>
-      </c>
-      <c r="G3" s="16" t="n">
-        <v>0</v>
-      </c>
-      <c r="I3" s="17"/>
+      <c r="F3" s="17" t="n">
+        <v>1</v>
+      </c>
+      <c r="G3" s="17" t="n">
+        <v>0</v>
+      </c>
+      <c r="I3" s="18"/>
     </row>
     <row r="4" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A4" s="13" t="s">
-        <v>9</v>
-      </c>
-      <c r="B4" s="14" t="n">
+      <c r="A4" s="14" t="s">
+        <v>10</v>
+      </c>
+      <c r="B4" s="15" t="n">
         <v>3</v>
       </c>
-      <c r="C4" s="15" t="n">
+      <c r="C4" s="16" t="n">
         <v>-1.83</v>
       </c>
-      <c r="D4" s="15" t="n">
+      <c r="D4" s="16" t="n">
         <v>2.775</v>
       </c>
-      <c r="E4" s="15" t="n">
+      <c r="E4" s="16" t="n">
         <f aca="false">E3+0.36</f>
         <v>0.725</v>
       </c>
-      <c r="F4" s="16" t="n">
-        <v>0</v>
-      </c>
-      <c r="G4" s="16" t="n">
+      <c r="F4" s="17" t="n">
+        <v>1</v>
+      </c>
+      <c r="G4" s="17" t="n">
         <v>0</v>
       </c>
     </row>
     <row r="5" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A5" s="13" t="s">
-        <v>10</v>
-      </c>
-      <c r="B5" s="14" t="n">
+      <c r="A5" s="14" t="s">
+        <v>11</v>
+      </c>
+      <c r="B5" s="15" t="n">
         <v>4</v>
       </c>
-      <c r="C5" s="15" t="n">
+      <c r="C5" s="16" t="n">
         <v>-1.83</v>
       </c>
-      <c r="D5" s="15" t="n">
+      <c r="D5" s="16" t="n">
         <v>2.775</v>
       </c>
-      <c r="E5" s="15" t="n">
+      <c r="E5" s="16" t="n">
         <f aca="false">E4+0.36</f>
         <v>1.085</v>
       </c>
-      <c r="F5" s="16" t="n">
-        <v>0</v>
-      </c>
-      <c r="G5" s="16" t="n">
+      <c r="F5" s="17" t="n">
+        <v>0</v>
+      </c>
+      <c r="G5" s="17" t="n">
         <v>0</v>
       </c>
     </row>
     <row r="6" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A6" s="9" t="s">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="B6" s="10" t="n">
         <v>5</v>
@@ -1060,102 +1077,102 @@
       </c>
     </row>
     <row r="7" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A7" s="13" t="s">
-        <v>12</v>
-      </c>
-      <c r="B7" s="14" t="n">
+      <c r="A7" s="14" t="s">
+        <v>13</v>
+      </c>
+      <c r="B7" s="15" t="n">
         <v>6</v>
       </c>
-      <c r="C7" s="15" t="n">
+      <c r="C7" s="16" t="n">
         <f aca="false">C6+0.195</f>
         <v>-1.635</v>
       </c>
-      <c r="D7" s="15" t="n">
+      <c r="D7" s="16" t="n">
         <v>2.775</v>
       </c>
-      <c r="E7" s="15" t="n">
+      <c r="E7" s="16" t="n">
         <v>1.43</v>
       </c>
-      <c r="F7" s="16" t="n">
-        <v>0</v>
-      </c>
-      <c r="G7" s="16" t="n">
+      <c r="F7" s="17" t="n">
+        <v>1</v>
+      </c>
+      <c r="G7" s="17" t="n">
         <v>0</v>
       </c>
     </row>
     <row r="8" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A8" s="13" t="s">
-        <v>13</v>
-      </c>
-      <c r="B8" s="14" t="n">
+      <c r="A8" s="14" t="s">
+        <v>14</v>
+      </c>
+      <c r="B8" s="15" t="n">
         <v>7</v>
       </c>
-      <c r="C8" s="15" t="n">
+      <c r="C8" s="16" t="n">
         <f aca="false">C7+0.205</f>
         <v>-1.43</v>
       </c>
-      <c r="D8" s="15" t="n">
+      <c r="D8" s="16" t="n">
         <v>2.775</v>
       </c>
-      <c r="E8" s="15" t="n">
+      <c r="E8" s="16" t="n">
         <v>1.43</v>
       </c>
-      <c r="F8" s="16" t="n">
-        <v>0</v>
-      </c>
-      <c r="G8" s="16" t="n">
+      <c r="F8" s="17" t="n">
+        <v>1</v>
+      </c>
+      <c r="G8" s="17" t="n">
         <v>0</v>
       </c>
     </row>
     <row r="9" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A9" s="13" t="s">
-        <v>14</v>
-      </c>
-      <c r="B9" s="14" t="n">
+      <c r="A9" s="14" t="s">
+        <v>15</v>
+      </c>
+      <c r="B9" s="15" t="n">
         <v>8</v>
       </c>
-      <c r="C9" s="15" t="n">
+      <c r="C9" s="16" t="n">
         <v>-1.43</v>
       </c>
-      <c r="D9" s="15" t="n">
+      <c r="D9" s="16" t="n">
         <v>2.775</v>
       </c>
-      <c r="E9" s="15" t="n">
+      <c r="E9" s="16" t="n">
         <v>1.53</v>
       </c>
-      <c r="F9" s="16" t="n">
-        <v>0</v>
-      </c>
-      <c r="G9" s="16" t="n">
+      <c r="F9" s="17" t="n">
+        <v>1</v>
+      </c>
+      <c r="G9" s="17" t="n">
         <v>0</v>
       </c>
     </row>
     <row r="10" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A10" s="13" t="s">
-        <v>15</v>
-      </c>
-      <c r="B10" s="14" t="n">
+      <c r="A10" s="14" t="s">
+        <v>16</v>
+      </c>
+      <c r="B10" s="15" t="n">
         <v>9</v>
       </c>
-      <c r="C10" s="15" t="n">
+      <c r="C10" s="16" t="n">
         <v>-1.22</v>
       </c>
-      <c r="D10" s="15" t="n">
+      <c r="D10" s="16" t="n">
         <v>2.775</v>
       </c>
-      <c r="E10" s="15" t="n">
+      <c r="E10" s="16" t="n">
         <v>1.43</v>
       </c>
-      <c r="F10" s="16" t="n">
-        <v>0</v>
-      </c>
-      <c r="G10" s="16" t="n">
+      <c r="F10" s="17" t="n">
+        <v>1</v>
+      </c>
+      <c r="G10" s="17" t="n">
         <v>0</v>
       </c>
     </row>
     <row r="11" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A11" s="9" t="s">
-        <v>16</v>
+        <v>17</v>
       </c>
       <c r="B11" s="10" t="n">
         <v>10</v>
@@ -1177,80 +1194,80 @@
       </c>
     </row>
     <row r="12" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A12" s="13" t="s">
-        <v>17</v>
-      </c>
-      <c r="B12" s="14" t="n">
+      <c r="A12" s="14" t="s">
+        <v>18</v>
+      </c>
+      <c r="B12" s="15" t="n">
         <v>11</v>
       </c>
-      <c r="C12" s="15" t="n">
+      <c r="C12" s="16" t="n">
         <v>-1.015</v>
       </c>
-      <c r="D12" s="15" t="n">
+      <c r="D12" s="16" t="n">
         <v>2.775</v>
       </c>
-      <c r="E12" s="15" t="n">
+      <c r="E12" s="16" t="n">
         <f aca="false">E11-0.34</f>
         <v>1.09</v>
       </c>
-      <c r="F12" s="16" t="n">
-        <v>0</v>
-      </c>
-      <c r="G12" s="16" t="n">
+      <c r="F12" s="17" t="n">
+        <v>0</v>
+      </c>
+      <c r="G12" s="17" t="n">
         <v>0</v>
       </c>
     </row>
     <row r="13" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A13" s="13" t="s">
-        <v>17</v>
-      </c>
-      <c r="B13" s="14" t="n">
+      <c r="A13" s="14" t="s">
+        <v>18</v>
+      </c>
+      <c r="B13" s="15" t="n">
         <v>12</v>
       </c>
-      <c r="C13" s="15" t="n">
+      <c r="C13" s="16" t="n">
         <v>-1.015</v>
       </c>
-      <c r="D13" s="15" t="n">
+      <c r="D13" s="16" t="n">
         <v>2.775</v>
       </c>
-      <c r="E13" s="15" t="n">
+      <c r="E13" s="16" t="n">
         <f aca="false">E12-0.36</f>
         <v>0.73</v>
       </c>
-      <c r="F13" s="16" t="n">
-        <v>0</v>
-      </c>
-      <c r="G13" s="16" t="n">
+      <c r="F13" s="17" t="n">
+        <v>0</v>
+      </c>
+      <c r="G13" s="17" t="n">
         <v>0</v>
       </c>
     </row>
     <row r="14" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A14" s="13" t="s">
-        <v>17</v>
-      </c>
-      <c r="B14" s="14" t="n">
+      <c r="A14" s="14" t="s">
+        <v>18</v>
+      </c>
+      <c r="B14" s="15" t="n">
         <v>13</v>
       </c>
-      <c r="C14" s="15" t="n">
+      <c r="C14" s="16" t="n">
         <v>-1.015</v>
       </c>
-      <c r="D14" s="15" t="n">
+      <c r="D14" s="16" t="n">
         <v>2.775</v>
       </c>
-      <c r="E14" s="15" t="n">
+      <c r="E14" s="16" t="n">
         <f aca="false">E13-0.36</f>
         <v>0.37</v>
       </c>
-      <c r="F14" s="16" t="n">
-        <v>0</v>
-      </c>
-      <c r="G14" s="16" t="n">
+      <c r="F14" s="17" t="n">
+        <v>0</v>
+      </c>
+      <c r="G14" s="17" t="n">
         <v>0</v>
       </c>
     </row>
     <row r="15" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A15" s="9" t="s">
-        <v>18</v>
+        <v>19</v>
       </c>
       <c r="B15" s="10" t="n">
         <v>14</v>
@@ -1272,2248 +1289,2248 @@
       </c>
     </row>
     <row r="16" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A16" s="18" t="s">
+      <c r="A16" s="19" t="s">
+        <v>20</v>
+      </c>
+      <c r="B16" s="20" t="n">
+        <v>15</v>
+      </c>
+      <c r="C16" s="21" t="n">
+        <v>-0.302</v>
+      </c>
+      <c r="D16" s="21" t="n">
+        <v>2.775</v>
+      </c>
+      <c r="E16" s="21" t="n">
+        <v>0.675</v>
+      </c>
+      <c r="F16" s="22" t="n">
+        <v>1</v>
+      </c>
+      <c r="G16" s="22" t="n">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="17" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A17" s="19" t="s">
+        <v>21</v>
+      </c>
+      <c r="B17" s="20" t="n">
+        <v>16</v>
+      </c>
+      <c r="C17" s="21" t="n">
+        <v>-0.302</v>
+      </c>
+      <c r="D17" s="21" t="n">
+        <v>2.775</v>
+      </c>
+      <c r="E17" s="21" t="n">
+        <v>1.325</v>
+      </c>
+      <c r="F17" s="22" t="n">
+        <v>1</v>
+      </c>
+      <c r="G17" s="22" t="n">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="18" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A18" s="19" t="s">
+        <v>22</v>
+      </c>
+      <c r="B18" s="20" t="n">
+        <v>17</v>
+      </c>
+      <c r="C18" s="21" t="n">
+        <v>0.357</v>
+      </c>
+      <c r="D18" s="21" t="n">
+        <v>2.775</v>
+      </c>
+      <c r="E18" s="21" t="n">
+        <v>1.325</v>
+      </c>
+      <c r="F18" s="22" t="n">
+        <v>1</v>
+      </c>
+      <c r="G18" s="22" t="n">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="19" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A19" s="19" t="s">
+        <v>23</v>
+      </c>
+      <c r="B19" s="20" t="n">
+        <v>18</v>
+      </c>
+      <c r="C19" s="21" t="n">
+        <v>0.357</v>
+      </c>
+      <c r="D19" s="21" t="n">
+        <v>2.775</v>
+      </c>
+      <c r="E19" s="21" t="n">
+        <v>0.675</v>
+      </c>
+      <c r="F19" s="22" t="n">
+        <v>1</v>
+      </c>
+      <c r="G19" s="22" t="n">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="20" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A20" s="23" t="s">
+        <v>24</v>
+      </c>
+      <c r="B20" s="24" t="n">
         <v>19</v>
       </c>
-      <c r="B16" s="19" t="n">
-        <v>15</v>
-      </c>
-      <c r="C16" s="20" t="n">
-        <v>-0.302</v>
-      </c>
-      <c r="D16" s="20" t="n">
+      <c r="C20" s="25" t="n">
+        <v>-2.1079</v>
+      </c>
+      <c r="D20" s="25" t="n">
         <v>2.775</v>
       </c>
-      <c r="E16" s="20" t="n">
-        <v>0.675</v>
-      </c>
-      <c r="F16" s="21" t="n">
-        <v>0</v>
-      </c>
-      <c r="G16" s="21" t="n">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="17" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A17" s="18" t="s">
+      <c r="E20" s="25" t="n">
+        <v>0</v>
+      </c>
+      <c r="F20" s="26" t="n">
+        <v>0</v>
+      </c>
+      <c r="G20" s="26" t="n">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="21" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A21" s="23" t="s">
+        <v>25</v>
+      </c>
+      <c r="B21" s="24" t="n">
         <v>20</v>
       </c>
-      <c r="B17" s="19" t="n">
-        <v>16</v>
-      </c>
-      <c r="C17" s="20" t="n">
-        <v>-0.302</v>
-      </c>
-      <c r="D17" s="20" t="n">
+      <c r="C21" s="25" t="n">
+        <v>-1.9484</v>
+      </c>
+      <c r="D21" s="25" t="n">
         <v>2.775</v>
       </c>
-      <c r="E17" s="20" t="n">
-        <v>1.325</v>
-      </c>
-      <c r="F17" s="21" t="n">
-        <v>0</v>
-      </c>
-      <c r="G17" s="21" t="n">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="18" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A18" s="18" t="s">
+      <c r="E21" s="25" t="n">
+        <v>1.56</v>
+      </c>
+      <c r="F21" s="26" t="n">
+        <v>0</v>
+      </c>
+      <c r="G21" s="26" t="n">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="22" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A22" s="27" t="s">
+        <v>26</v>
+      </c>
+      <c r="B22" s="28" t="n">
         <v>21</v>
       </c>
-      <c r="B18" s="19" t="n">
-        <v>17</v>
-      </c>
-      <c r="C18" s="20" t="n">
-        <v>0.357</v>
-      </c>
-      <c r="D18" s="20" t="n">
+      <c r="C22" s="29" t="n">
+        <v>0</v>
+      </c>
+      <c r="D22" s="29" t="n">
         <v>2.775</v>
       </c>
-      <c r="E18" s="20" t="n">
-        <v>1.325</v>
-      </c>
-      <c r="F18" s="21" t="n">
+      <c r="E22" s="29" t="n">
+        <v>1.6043</v>
+      </c>
+      <c r="F22" s="30" t="n">
         <v>1</v>
       </c>
-      <c r="G18" s="21" t="n">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="19" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A19" s="18" t="s">
+      <c r="G22" s="30" t="n">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="23" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A23" s="31" t="s">
+        <v>27</v>
+      </c>
+      <c r="B23" s="32" t="n">
         <v>22</v>
       </c>
-      <c r="B19" s="19" t="n">
-        <v>18</v>
-      </c>
-      <c r="C19" s="20" t="n">
-        <v>0.357</v>
-      </c>
-      <c r="D19" s="20" t="n">
-        <v>2.775</v>
-      </c>
-      <c r="E19" s="20" t="n">
-        <v>0.675</v>
-      </c>
-      <c r="F19" s="21" t="n">
-        <v>1</v>
-      </c>
-      <c r="G19" s="21" t="n">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="20" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A20" s="22" t="s">
-        <v>23</v>
-      </c>
-      <c r="B20" s="23" t="n">
-        <v>19</v>
-      </c>
-      <c r="C20" s="24" t="n">
-        <v>-2.1079</v>
-      </c>
-      <c r="D20" s="24" t="n">
-        <v>2.775</v>
-      </c>
-      <c r="E20" s="24" t="n">
-        <v>0</v>
-      </c>
-      <c r="F20" s="25" t="n">
-        <v>0</v>
-      </c>
-      <c r="G20" s="25" t="n">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="21" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A21" s="22" t="s">
-        <v>24</v>
-      </c>
-      <c r="B21" s="23" t="n">
-        <v>20</v>
-      </c>
-      <c r="C21" s="24" t="n">
-        <v>-1.9484</v>
-      </c>
-      <c r="D21" s="24" t="n">
-        <v>2.775</v>
-      </c>
-      <c r="E21" s="24" t="n">
-        <v>1.56</v>
-      </c>
-      <c r="F21" s="25" t="n">
-        <v>0</v>
-      </c>
-      <c r="G21" s="25" t="n">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="22" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A22" s="26" t="s">
-        <v>25</v>
-      </c>
-      <c r="B22" s="27" t="n">
-        <v>21</v>
-      </c>
-      <c r="C22" s="28" t="n">
-        <v>0</v>
-      </c>
-      <c r="D22" s="28" t="n">
-        <v>2.775</v>
-      </c>
-      <c r="E22" s="28" t="n">
-        <v>1.6043</v>
-      </c>
-      <c r="F22" s="29" t="n">
-        <v>0</v>
-      </c>
-      <c r="G22" s="29" t="n">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="23" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A23" s="30" t="s">
-        <v>26</v>
-      </c>
-      <c r="B23" s="31" t="n">
-        <v>22</v>
-      </c>
-      <c r="C23" s="32" t="n">
-        <v>0</v>
-      </c>
-      <c r="D23" s="32" t="n">
+      <c r="C23" s="33" t="n">
+        <v>0</v>
+      </c>
+      <c r="D23" s="33" t="n">
         <f aca="false">2.775+1</f>
         <v>3.775</v>
       </c>
-      <c r="E23" s="32" t="n">
+      <c r="E23" s="33" t="n">
         <f aca="false">E22+0.7</f>
         <v>2.3043</v>
       </c>
-      <c r="F23" s="33" t="n">
-        <v>0</v>
-      </c>
-      <c r="G23" s="33" t="n">
+      <c r="F23" s="34" t="n">
+        <v>0</v>
+      </c>
+      <c r="G23" s="34" t="n">
         <v>0</v>
       </c>
     </row>
     <row r="24" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A24" s="22" t="s">
+      <c r="A24" s="23" t="s">
+        <v>28</v>
+      </c>
+      <c r="B24" s="24" t="n">
+        <v>23</v>
+      </c>
+      <c r="C24" s="25" t="n">
+        <v>1.9484</v>
+      </c>
+      <c r="D24" s="25" t="n">
+        <v>2.775</v>
+      </c>
+      <c r="E24" s="25" t="n">
+        <v>1.56</v>
+      </c>
+      <c r="F24" s="26" t="n">
+        <v>1</v>
+      </c>
+      <c r="G24" s="26" t="n">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="25" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A25" s="23" t="s">
+        <v>29</v>
+      </c>
+      <c r="B25" s="24" t="n">
+        <v>24</v>
+      </c>
+      <c r="C25" s="25" t="n">
+        <v>2.1079</v>
+      </c>
+      <c r="D25" s="25" t="n">
+        <v>2.775</v>
+      </c>
+      <c r="E25" s="25" t="n">
+        <v>0</v>
+      </c>
+      <c r="F25" s="26" t="n">
+        <v>1</v>
+      </c>
+      <c r="G25" s="26" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="26" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A26" s="35" t="s">
+        <v>30</v>
+      </c>
+      <c r="B26" s="36" t="n">
+        <v>25</v>
+      </c>
+      <c r="C26" s="37" t="n">
+        <v>1</v>
+      </c>
+      <c r="D26" s="37" t="n">
+        <v>2.78</v>
+      </c>
+      <c r="E26" s="37" t="n">
+        <v>0</v>
+      </c>
+      <c r="F26" s="38" t="n">
+        <v>1</v>
+      </c>
+      <c r="G26" s="38" t="n">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="27" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A27" s="35" t="s">
+        <v>31</v>
+      </c>
+      <c r="B27" s="36" t="n">
+        <v>26</v>
+      </c>
+      <c r="C27" s="37" t="n">
+        <v>1</v>
+      </c>
+      <c r="D27" s="37" t="n">
+        <v>2.78</v>
+      </c>
+      <c r="E27" s="37" t="n">
+        <v>0.6</v>
+      </c>
+      <c r="F27" s="38" t="n">
+        <v>1</v>
+      </c>
+      <c r="G27" s="38" t="n">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="28" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A28" s="35" t="s">
+        <v>32</v>
+      </c>
+      <c r="B28" s="36" t="n">
         <v>27</v>
       </c>
-      <c r="B24" s="23" t="n">
-        <v>23</v>
-      </c>
-      <c r="C24" s="24" t="n">
-        <v>1.9484</v>
-      </c>
-      <c r="D24" s="24" t="n">
-        <v>2.775</v>
-      </c>
-      <c r="E24" s="24" t="n">
-        <v>1.56</v>
-      </c>
-      <c r="F24" s="25" t="n">
+      <c r="C28" s="37" t="n">
         <v>1</v>
       </c>
-      <c r="G24" s="25" t="n">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="25" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A25" s="22" t="s">
+      <c r="D28" s="37" t="n">
+        <v>2.78</v>
+      </c>
+      <c r="E28" s="37" t="n">
+        <v>1.2</v>
+      </c>
+      <c r="F28" s="38" t="n">
+        <v>1</v>
+      </c>
+      <c r="G28" s="38" t="n">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="29" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A29" s="35" t="s">
+        <v>33</v>
+      </c>
+      <c r="B29" s="36" t="n">
         <v>28</v>
       </c>
-      <c r="B25" s="23" t="n">
-        <v>24</v>
-      </c>
-      <c r="C25" s="24" t="n">
-        <v>2.1079</v>
-      </c>
-      <c r="D25" s="24" t="n">
-        <v>2.775</v>
-      </c>
-      <c r="E25" s="24" t="n">
-        <v>0</v>
-      </c>
-      <c r="F25" s="25" t="n">
+      <c r="C29" s="37" t="n">
+        <v>1.6</v>
+      </c>
+      <c r="D29" s="37" t="n">
+        <v>2.78</v>
+      </c>
+      <c r="E29" s="37" t="n">
+        <v>1.2</v>
+      </c>
+      <c r="F29" s="38" t="n">
         <v>1</v>
       </c>
-      <c r="G25" s="25" t="n">
+      <c r="G29" s="38" t="n">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="30" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A30" s="35" t="s">
+        <v>34</v>
+      </c>
+      <c r="B30" s="36" t="n">
+        <v>29</v>
+      </c>
+      <c r="C30" s="37" t="n">
+        <v>1.6</v>
+      </c>
+      <c r="D30" s="37" t="n">
+        <v>2.78</v>
+      </c>
+      <c r="E30" s="37" t="n">
+        <v>0.6</v>
+      </c>
+      <c r="F30" s="38" t="n">
         <v>1</v>
       </c>
-    </row>
-    <row r="26" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A26" s="34" t="s">
-        <v>29</v>
-      </c>
-      <c r="B26" s="35" t="n">
-        <v>25</v>
-      </c>
-      <c r="C26" s="36" t="n">
+      <c r="G30" s="38" t="n">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="31" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A31" s="35" t="s">
+        <v>35</v>
+      </c>
+      <c r="B31" s="36" t="n">
+        <v>30</v>
+      </c>
+      <c r="C31" s="37" t="n">
+        <v>1.6</v>
+      </c>
+      <c r="D31" s="37" t="n">
+        <v>2.78</v>
+      </c>
+      <c r="E31" s="37" t="n">
+        <v>0</v>
+      </c>
+      <c r="F31" s="38" t="n">
         <v>1</v>
       </c>
-      <c r="D26" s="36" t="n">
+      <c r="G31" s="38" t="n">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="32" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A32" s="39" t="s">
+        <v>36</v>
+      </c>
+      <c r="B32" s="40" t="n">
+        <v>31</v>
+      </c>
+      <c r="C32" s="41" t="n">
+        <v>-0.88</v>
+      </c>
+      <c r="D32" s="41" t="n">
+        <v>2.04</v>
+      </c>
+      <c r="E32" s="41" t="n">
+        <v>0</v>
+      </c>
+      <c r="F32" s="42" t="n">
+        <v>1</v>
+      </c>
+      <c r="G32" s="42" t="n">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="33" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A33" s="39" t="s">
+        <v>37</v>
+      </c>
+      <c r="B33" s="40" t="n">
+        <v>32</v>
+      </c>
+      <c r="C33" s="41" t="n">
+        <v>0</v>
+      </c>
+      <c r="D33" s="41" t="n">
+        <v>0</v>
+      </c>
+      <c r="E33" s="41" t="n">
+        <v>0</v>
+      </c>
+      <c r="F33" s="42" t="n">
+        <v>0</v>
+      </c>
+      <c r="G33" s="42" t="n">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="34" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A34" s="39" t="s">
+        <v>38</v>
+      </c>
+      <c r="B34" s="40" t="n">
+        <v>33</v>
+      </c>
+      <c r="C34" s="41" t="n">
+        <v>0</v>
+      </c>
+      <c r="D34" s="41" t="n">
+        <v>0</v>
+      </c>
+      <c r="E34" s="41" t="n">
+        <v>0</v>
+      </c>
+      <c r="F34" s="42" t="n">
+        <v>0</v>
+      </c>
+      <c r="G34" s="42" t="n">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="35" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A35" s="39" t="s">
+        <v>39</v>
+      </c>
+      <c r="B35" s="40" t="n">
+        <v>34</v>
+      </c>
+      <c r="C35" s="41" t="n">
+        <v>0</v>
+      </c>
+      <c r="D35" s="41" t="n">
+        <v>0</v>
+      </c>
+      <c r="E35" s="41" t="n">
+        <v>0</v>
+      </c>
+      <c r="F35" s="42" t="n">
+        <v>0</v>
+      </c>
+      <c r="G35" s="42" t="n">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="36" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A36" s="39" t="s">
+        <v>40</v>
+      </c>
+      <c r="B36" s="40" t="n">
+        <v>35</v>
+      </c>
+      <c r="C36" s="41" t="n">
+        <v>0</v>
+      </c>
+      <c r="D36" s="41" t="n">
+        <v>0</v>
+      </c>
+      <c r="E36" s="41" t="n">
+        <v>0</v>
+      </c>
+      <c r="F36" s="42" t="n">
+        <v>0</v>
+      </c>
+      <c r="G36" s="42" t="n">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="37" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A37" s="39" t="s">
+        <v>41</v>
+      </c>
+      <c r="B37" s="40" t="n">
+        <v>36</v>
+      </c>
+      <c r="C37" s="41" t="n">
+        <v>0.76</v>
+      </c>
+      <c r="D37" s="41" t="n">
+        <v>2.07</v>
+      </c>
+      <c r="E37" s="41" t="n">
+        <v>0</v>
+      </c>
+      <c r="F37" s="42" t="n">
+        <v>1</v>
+      </c>
+      <c r="G37" s="42" t="n">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="38" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A38" s="43" t="s">
+        <v>42</v>
+      </c>
+      <c r="B38" s="44" t="n">
+        <v>37</v>
+      </c>
+      <c r="C38" s="45" t="n">
+        <v>-0.085</v>
+      </c>
+      <c r="D38" s="45" t="n">
+        <v>2.431</v>
+      </c>
+      <c r="E38" s="45" t="n">
+        <v>0</v>
+      </c>
+      <c r="F38" s="46" t="n">
+        <v>1</v>
+      </c>
+      <c r="G38" s="46" t="n">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="39" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A39" s="43" t="s">
+        <v>43</v>
+      </c>
+      <c r="B39" s="44" t="n">
+        <v>38</v>
+      </c>
+      <c r="C39" s="45" t="n">
+        <v>-0.085</v>
+      </c>
+      <c r="D39" s="45" t="n">
+        <v>0.938</v>
+      </c>
+      <c r="E39" s="45" t="n">
+        <v>0</v>
+      </c>
+      <c r="F39" s="46" t="n">
+        <v>1</v>
+      </c>
+      <c r="G39" s="46" t="n">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="40" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A40" s="43" t="s">
+        <v>44</v>
+      </c>
+      <c r="B40" s="44" t="n">
+        <v>39</v>
+      </c>
+      <c r="C40" s="45" t="n">
+        <v>0.085</v>
+      </c>
+      <c r="D40" s="45" t="n">
+        <v>0.938</v>
+      </c>
+      <c r="E40" s="45" t="n">
+        <v>0</v>
+      </c>
+      <c r="F40" s="46" t="n">
+        <v>1</v>
+      </c>
+      <c r="G40" s="46" t="n">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="41" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A41" s="43" t="s">
+        <v>45</v>
+      </c>
+      <c r="B41" s="44" t="n">
+        <v>40</v>
+      </c>
+      <c r="C41" s="45" t="n">
+        <v>0.085</v>
+      </c>
+      <c r="D41" s="45" t="n">
+        <v>2.431</v>
+      </c>
+      <c r="E41" s="45" t="n">
+        <v>0</v>
+      </c>
+      <c r="F41" s="46" t="n">
+        <v>1</v>
+      </c>
+      <c r="G41" s="46" t="n">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="42" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A42" s="47" t="s">
+        <v>46</v>
+      </c>
+      <c r="B42" s="48" t="n">
+        <v>41</v>
+      </c>
+      <c r="C42" s="49" t="n">
+        <v>-0.085</v>
+      </c>
+      <c r="D42" s="49" t="n">
+        <v>0.778</v>
+      </c>
+      <c r="E42" s="49" t="n">
+        <v>0</v>
+      </c>
+      <c r="F42" s="50" t="n">
+        <v>0</v>
+      </c>
+      <c r="G42" s="50" t="n">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="43" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A43" s="47" t="s">
+        <v>47</v>
+      </c>
+      <c r="B43" s="48" t="n">
+        <v>42</v>
+      </c>
+      <c r="C43" s="49" t="n">
+        <v>-0.085</v>
+      </c>
+      <c r="D43" s="49" t="n">
+        <v>-0.778</v>
+      </c>
+      <c r="E43" s="49" t="n">
+        <v>0</v>
+      </c>
+      <c r="F43" s="50" t="n">
+        <v>0</v>
+      </c>
+      <c r="G43" s="50" t="n">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="44" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A44" s="47" t="s">
+        <v>48</v>
+      </c>
+      <c r="B44" s="48" t="n">
+        <v>43</v>
+      </c>
+      <c r="C44" s="49" t="n">
+        <v>0.085</v>
+      </c>
+      <c r="D44" s="49" t="n">
+        <v>-0.778</v>
+      </c>
+      <c r="E44" s="49" t="n">
+        <v>0</v>
+      </c>
+      <c r="F44" s="50" t="n">
+        <v>0</v>
+      </c>
+      <c r="G44" s="50" t="n">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="45" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A45" s="47" t="s">
+        <v>49</v>
+      </c>
+      <c r="B45" s="48" t="n">
+        <v>44</v>
+      </c>
+      <c r="C45" s="49" t="n">
+        <v>0.085</v>
+      </c>
+      <c r="D45" s="49" t="n">
+        <v>0.778</v>
+      </c>
+      <c r="E45" s="49" t="n">
+        <v>0</v>
+      </c>
+      <c r="F45" s="50" t="n">
+        <v>0</v>
+      </c>
+      <c r="G45" s="50" t="n">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="46" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A46" s="51" t="s">
+        <v>50</v>
+      </c>
+      <c r="B46" s="52" t="n">
+        <v>45</v>
+      </c>
+      <c r="C46" s="53" t="n">
+        <v>-0.085</v>
+      </c>
+      <c r="D46" s="53" t="n">
+        <v>-0.938</v>
+      </c>
+      <c r="E46" s="53" t="n">
+        <v>0</v>
+      </c>
+      <c r="F46" s="54" t="n">
+        <v>0</v>
+      </c>
+      <c r="G46" s="54" t="n">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="47" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A47" s="51" t="s">
+        <v>51</v>
+      </c>
+      <c r="B47" s="52" t="n">
+        <v>46</v>
+      </c>
+      <c r="C47" s="53" t="n">
+        <v>-0.085</v>
+      </c>
+      <c r="D47" s="53" t="n">
+        <v>-2.408</v>
+      </c>
+      <c r="E47" s="53" t="n">
+        <v>0</v>
+      </c>
+      <c r="F47" s="54" t="n">
+        <v>0</v>
+      </c>
+      <c r="G47" s="54" t="n">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="48" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A48" s="51" t="s">
+        <v>52</v>
+      </c>
+      <c r="B48" s="52" t="n">
+        <v>47</v>
+      </c>
+      <c r="C48" s="53" t="n">
+        <v>0.085</v>
+      </c>
+      <c r="D48" s="53" t="n">
+        <v>-2.408</v>
+      </c>
+      <c r="E48" s="53" t="n">
+        <v>0</v>
+      </c>
+      <c r="F48" s="54" t="n">
+        <v>0</v>
+      </c>
+      <c r="G48" s="54" t="n">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="49" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A49" s="51" t="s">
+        <v>53</v>
+      </c>
+      <c r="B49" s="52" t="n">
+        <v>48</v>
+      </c>
+      <c r="C49" s="53" t="n">
+        <v>0.085</v>
+      </c>
+      <c r="D49" s="53" t="n">
+        <v>-0.938</v>
+      </c>
+      <c r="E49" s="53" t="n">
+        <v>0</v>
+      </c>
+      <c r="F49" s="54" t="n">
+        <v>0</v>
+      </c>
+      <c r="G49" s="54" t="n">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="50" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A50" s="55" t="s">
+        <v>54</v>
+      </c>
+      <c r="B50" s="56" t="n">
+        <v>49</v>
+      </c>
+      <c r="C50" s="57" t="n">
+        <v>-2.84569</v>
+      </c>
+      <c r="D50" s="57" t="n">
+        <v>2.4546</v>
+      </c>
+      <c r="E50" s="57" t="n">
+        <v>0</v>
+      </c>
+      <c r="F50" s="58" t="n">
+        <v>0</v>
+      </c>
+      <c r="G50" s="58" t="n">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="51" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A51" s="55" t="s">
+        <v>55</v>
+      </c>
+      <c r="B51" s="56" t="n">
+        <v>50</v>
+      </c>
+      <c r="C51" s="57" t="n">
+        <v>-2.7608</v>
+      </c>
+      <c r="D51" s="57" t="n">
+        <v>-2.3894</v>
+      </c>
+      <c r="E51" s="57" t="n">
+        <v>0</v>
+      </c>
+      <c r="F51" s="58" t="n">
+        <v>0</v>
+      </c>
+      <c r="G51" s="58" t="n">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="52" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A52" s="55" t="s">
+        <v>56</v>
+      </c>
+      <c r="B52" s="56" t="n">
+        <v>51</v>
+      </c>
+      <c r="C52" s="57" t="n">
+        <v>2.7015</v>
+      </c>
+      <c r="D52" s="57" t="n">
+        <v>-2.4284</v>
+      </c>
+      <c r="E52" s="57" t="n">
+        <v>0</v>
+      </c>
+      <c r="F52" s="58" t="n">
+        <v>0</v>
+      </c>
+      <c r="G52" s="58" t="n">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="53" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A53" s="55" t="s">
+        <v>57</v>
+      </c>
+      <c r="B53" s="56" t="n">
+        <v>52</v>
+      </c>
+      <c r="C53" s="57" t="n">
+        <v>2.7949</v>
+      </c>
+      <c r="D53" s="57" t="n">
+        <v>2.4546</v>
+      </c>
+      <c r="E53" s="57" t="n">
+        <v>0</v>
+      </c>
+      <c r="F53" s="58" t="n">
+        <v>0</v>
+      </c>
+      <c r="G53" s="58" t="n">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="54" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A54" s="35" t="s">
+        <v>58</v>
+      </c>
+      <c r="B54" s="36" t="n">
+        <v>53</v>
+      </c>
+      <c r="C54" s="37" t="n">
+        <v>-3.022</v>
+      </c>
+      <c r="D54" s="37" t="n">
+        <v>2.6015</v>
+      </c>
+      <c r="E54" s="37" t="n">
+        <v>0</v>
+      </c>
+      <c r="F54" s="38" t="n">
+        <v>0</v>
+      </c>
+      <c r="G54" s="38" t="n">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="55" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A55" s="35" t="s">
+        <v>59</v>
+      </c>
+      <c r="B55" s="36" t="n">
+        <v>54</v>
+      </c>
+      <c r="C55" s="37" t="n">
+        <v>-2.915</v>
+      </c>
+      <c r="D55" s="37" t="n">
+        <v>-2.5146</v>
+      </c>
+      <c r="E55" s="37" t="n">
+        <v>0</v>
+      </c>
+      <c r="F55" s="38" t="n">
+        <v>0</v>
+      </c>
+      <c r="G55" s="38" t="n">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="56" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A56" s="35" t="s">
+        <v>60</v>
+      </c>
+      <c r="B56" s="36" t="n">
+        <v>55</v>
+      </c>
+      <c r="C56" s="37" t="n">
+        <v>2.8496</v>
+      </c>
+      <c r="D56" s="37" t="n">
+        <v>-2.5146</v>
+      </c>
+      <c r="E56" s="37" t="n">
+        <v>0</v>
+      </c>
+      <c r="F56" s="38" t="n">
+        <v>0</v>
+      </c>
+      <c r="G56" s="38" t="n">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="57" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A57" s="35" t="s">
+        <v>61</v>
+      </c>
+      <c r="B57" s="36" t="n">
+        <v>56</v>
+      </c>
+      <c r="C57" s="37" t="n">
+        <v>2.971</v>
+      </c>
+      <c r="D57" s="37" t="n">
+        <v>2.6015</v>
+      </c>
+      <c r="E57" s="37" t="n">
+        <v>0</v>
+      </c>
+      <c r="F57" s="38" t="n">
+        <v>0</v>
+      </c>
+      <c r="G57" s="38" t="n">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="58" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A58" s="59" t="s">
+        <v>62</v>
+      </c>
+      <c r="B58" s="60" t="n">
+        <v>57</v>
+      </c>
+      <c r="C58" s="61" t="n">
+        <v>-3.3343</v>
+      </c>
+      <c r="D58" s="61" t="n">
         <v>2.78</v>
       </c>
-      <c r="E26" s="36" t="n">
-        <v>0</v>
-      </c>
-      <c r="F26" s="37" t="n">
-        <v>1</v>
-      </c>
-      <c r="G26" s="37" t="n">
-        <v>3</v>
-      </c>
-    </row>
-    <row r="27" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A27" s="34" t="s">
-        <v>30</v>
-      </c>
-      <c r="B27" s="35" t="n">
-        <v>26</v>
-      </c>
-      <c r="C27" s="36" t="n">
-        <v>1</v>
-      </c>
-      <c r="D27" s="36" t="n">
+      <c r="E58" s="61" t="n">
+        <v>0</v>
+      </c>
+      <c r="F58" s="62" t="n">
+        <v>0</v>
+      </c>
+      <c r="G58" s="62" t="n">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="59" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A59" s="59" t="s">
+        <v>63</v>
+      </c>
+      <c r="B59" s="60" t="n">
+        <v>58</v>
+      </c>
+      <c r="C59" s="61" t="n">
+        <v>-3.1388</v>
+      </c>
+      <c r="D59" s="61" t="n">
+        <v>-2.9209</v>
+      </c>
+      <c r="E59" s="61" t="n">
+        <v>0</v>
+      </c>
+      <c r="F59" s="62" t="n">
+        <v>0</v>
+      </c>
+      <c r="G59" s="62" t="n">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="60" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A60" s="59" t="s">
+        <v>64</v>
+      </c>
+      <c r="B60" s="60" t="n">
+        <v>59</v>
+      </c>
+      <c r="C60" s="61" t="n">
+        <v>3.1388</v>
+      </c>
+      <c r="D60" s="61" t="n">
+        <v>-2.9209</v>
+      </c>
+      <c r="E60" s="61" t="n">
+        <v>0</v>
+      </c>
+      <c r="F60" s="62" t="n">
+        <v>0</v>
+      </c>
+      <c r="G60" s="62" t="n">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="61" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A61" s="59" t="s">
+        <v>65</v>
+      </c>
+      <c r="B61" s="60" t="n">
+        <v>60</v>
+      </c>
+      <c r="C61" s="61" t="n">
+        <v>3.3343</v>
+      </c>
+      <c r="D61" s="61" t="n">
         <v>2.78</v>
       </c>
-      <c r="E27" s="36" t="n">
-        <v>0.6</v>
-      </c>
-      <c r="F27" s="37" t="n">
-        <v>1</v>
-      </c>
-      <c r="G27" s="37" t="n">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="28" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A28" s="34" t="s">
-        <v>31</v>
-      </c>
-      <c r="B28" s="35" t="n">
-        <v>27</v>
-      </c>
-      <c r="C28" s="36" t="n">
-        <v>1</v>
-      </c>
-      <c r="D28" s="36" t="n">
-        <v>2.78</v>
-      </c>
-      <c r="E28" s="36" t="n">
-        <v>1.2</v>
-      </c>
-      <c r="F28" s="37" t="n">
-        <v>1</v>
-      </c>
-      <c r="G28" s="37" t="n">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="29" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A29" s="34" t="s">
-        <v>32</v>
-      </c>
-      <c r="B29" s="35" t="n">
-        <v>28</v>
-      </c>
-      <c r="C29" s="36" t="n">
-        <v>1.6</v>
-      </c>
-      <c r="D29" s="36" t="n">
-        <v>2.78</v>
-      </c>
-      <c r="E29" s="36" t="n">
-        <v>1.2</v>
-      </c>
-      <c r="F29" s="37" t="n">
-        <v>1</v>
-      </c>
-      <c r="G29" s="37" t="n">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="30" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A30" s="34" t="s">
-        <v>33</v>
-      </c>
-      <c r="B30" s="35" t="n">
-        <v>29</v>
-      </c>
-      <c r="C30" s="36" t="n">
-        <v>1.6</v>
-      </c>
-      <c r="D30" s="36" t="n">
-        <v>2.78</v>
-      </c>
-      <c r="E30" s="36" t="n">
-        <v>0.6</v>
-      </c>
-      <c r="F30" s="37" t="n">
-        <v>1</v>
-      </c>
-      <c r="G30" s="37" t="n">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="31" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A31" s="34" t="s">
-        <v>34</v>
-      </c>
-      <c r="B31" s="35" t="n">
-        <v>30</v>
-      </c>
-      <c r="C31" s="36" t="n">
-        <v>1.6</v>
-      </c>
-      <c r="D31" s="36" t="n">
-        <v>2.78</v>
-      </c>
-      <c r="E31" s="36" t="n">
-        <v>0</v>
-      </c>
-      <c r="F31" s="37" t="n">
-        <v>1</v>
-      </c>
-      <c r="G31" s="37" t="n">
-        <v>2</v>
-      </c>
-    </row>
-    <row r="32" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A32" s="38" t="s">
-        <v>35</v>
-      </c>
-      <c r="B32" s="39" t="n">
-        <v>31</v>
-      </c>
-      <c r="C32" s="40" t="n">
-        <v>-0.88</v>
-      </c>
-      <c r="D32" s="40" t="n">
-        <v>2.04</v>
-      </c>
-      <c r="E32" s="40" t="n">
-        <v>0</v>
-      </c>
-      <c r="F32" s="41" t="n">
-        <v>1</v>
-      </c>
-      <c r="G32" s="41" t="n">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="33" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A33" s="38" t="s">
-        <v>36</v>
-      </c>
-      <c r="B33" s="39" t="n">
-        <v>32</v>
-      </c>
-      <c r="C33" s="40" t="n">
-        <v>0</v>
-      </c>
-      <c r="D33" s="40" t="n">
-        <v>0</v>
-      </c>
-      <c r="E33" s="40" t="n">
-        <v>0</v>
-      </c>
-      <c r="F33" s="41" t="n">
-        <v>0</v>
-      </c>
-      <c r="G33" s="41" t="n">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="34" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A34" s="38" t="s">
-        <v>37</v>
-      </c>
-      <c r="B34" s="39" t="n">
-        <v>33</v>
-      </c>
-      <c r="C34" s="40" t="n">
-        <v>0</v>
-      </c>
-      <c r="D34" s="40" t="n">
-        <v>0</v>
-      </c>
-      <c r="E34" s="40" t="n">
-        <v>0</v>
-      </c>
-      <c r="F34" s="41" t="n">
-        <v>0</v>
-      </c>
-      <c r="G34" s="41" t="n">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="35" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A35" s="38" t="s">
-        <v>38</v>
-      </c>
-      <c r="B35" s="39" t="n">
-        <v>34</v>
-      </c>
-      <c r="C35" s="40" t="n">
-        <v>0</v>
-      </c>
-      <c r="D35" s="40" t="n">
-        <v>0</v>
-      </c>
-      <c r="E35" s="40" t="n">
-        <v>0</v>
-      </c>
-      <c r="F35" s="41" t="n">
-        <v>0</v>
-      </c>
-      <c r="G35" s="41" t="n">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="36" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A36" s="38" t="s">
-        <v>39</v>
-      </c>
-      <c r="B36" s="39" t="n">
-        <v>35</v>
-      </c>
-      <c r="C36" s="40" t="n">
-        <v>0</v>
-      </c>
-      <c r="D36" s="40" t="n">
-        <v>0</v>
-      </c>
-      <c r="E36" s="40" t="n">
-        <v>0</v>
-      </c>
-      <c r="F36" s="41" t="n">
-        <v>0</v>
-      </c>
-      <c r="G36" s="41" t="n">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="37" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A37" s="38" t="s">
-        <v>40</v>
-      </c>
-      <c r="B37" s="39" t="n">
-        <v>36</v>
-      </c>
-      <c r="C37" s="40" t="n">
-        <v>0.76</v>
-      </c>
-      <c r="D37" s="40" t="n">
-        <v>2.07</v>
-      </c>
-      <c r="E37" s="40" t="n">
-        <v>0</v>
-      </c>
-      <c r="F37" s="41" t="n">
-        <v>1</v>
-      </c>
-      <c r="G37" s="41" t="n">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="38" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A38" s="42" t="s">
-        <v>41</v>
-      </c>
-      <c r="B38" s="43" t="n">
-        <v>37</v>
-      </c>
-      <c r="C38" s="44" t="n">
-        <v>-0.085</v>
-      </c>
-      <c r="D38" s="44" t="n">
-        <v>2.431</v>
-      </c>
-      <c r="E38" s="44" t="n">
-        <v>0</v>
-      </c>
-      <c r="F38" s="45" t="n">
-        <v>1</v>
-      </c>
-      <c r="G38" s="45" t="n">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="39" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A39" s="42" t="s">
-        <v>42</v>
-      </c>
-      <c r="B39" s="43" t="n">
-        <v>38</v>
-      </c>
-      <c r="C39" s="44" t="n">
-        <v>-0.085</v>
-      </c>
-      <c r="D39" s="44" t="n">
-        <v>0.938</v>
-      </c>
-      <c r="E39" s="44" t="n">
-        <v>0</v>
-      </c>
-      <c r="F39" s="45" t="n">
-        <v>0</v>
-      </c>
-      <c r="G39" s="45" t="n">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="40" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A40" s="42" t="s">
-        <v>43</v>
-      </c>
-      <c r="B40" s="43" t="n">
-        <v>39</v>
-      </c>
-      <c r="C40" s="44" t="n">
-        <v>0.085</v>
-      </c>
-      <c r="D40" s="44" t="n">
-        <v>0.938</v>
-      </c>
-      <c r="E40" s="44" t="n">
-        <v>0</v>
-      </c>
-      <c r="F40" s="45" t="n">
-        <v>0</v>
-      </c>
-      <c r="G40" s="45" t="n">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="41" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A41" s="42" t="s">
-        <v>44</v>
-      </c>
-      <c r="B41" s="43" t="n">
-        <v>40</v>
-      </c>
-      <c r="C41" s="44" t="n">
-        <v>0.085</v>
-      </c>
-      <c r="D41" s="44" t="n">
-        <v>2.431</v>
-      </c>
-      <c r="E41" s="44" t="n">
-        <v>0</v>
-      </c>
-      <c r="F41" s="45" t="n">
-        <v>1</v>
-      </c>
-      <c r="G41" s="45" t="n">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="42" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A42" s="46" t="s">
-        <v>45</v>
-      </c>
-      <c r="B42" s="47" t="n">
-        <v>41</v>
-      </c>
-      <c r="C42" s="48" t="n">
-        <v>-0.085</v>
-      </c>
-      <c r="D42" s="48" t="n">
-        <v>0.778</v>
-      </c>
-      <c r="E42" s="48" t="n">
-        <v>0</v>
-      </c>
-      <c r="F42" s="49" t="n">
-        <v>0</v>
-      </c>
-      <c r="G42" s="49" t="n">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="43" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A43" s="46" t="s">
-        <v>46</v>
-      </c>
-      <c r="B43" s="47" t="n">
-        <v>42</v>
-      </c>
-      <c r="C43" s="48" t="n">
-        <v>-0.085</v>
-      </c>
-      <c r="D43" s="48" t="n">
-        <v>-0.778</v>
-      </c>
-      <c r="E43" s="48" t="n">
-        <v>0</v>
-      </c>
-      <c r="F43" s="49" t="n">
-        <v>0</v>
-      </c>
-      <c r="G43" s="49" t="n">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="44" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A44" s="46" t="s">
-        <v>47</v>
-      </c>
-      <c r="B44" s="47" t="n">
-        <v>43</v>
-      </c>
-      <c r="C44" s="48" t="n">
-        <v>0.085</v>
-      </c>
-      <c r="D44" s="48" t="n">
-        <v>-0.778</v>
-      </c>
-      <c r="E44" s="48" t="n">
-        <v>0</v>
-      </c>
-      <c r="F44" s="49" t="n">
-        <v>0</v>
-      </c>
-      <c r="G44" s="49" t="n">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="45" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A45" s="46" t="s">
-        <v>48</v>
-      </c>
-      <c r="B45" s="47" t="n">
-        <v>44</v>
-      </c>
-      <c r="C45" s="48" t="n">
-        <v>0.085</v>
-      </c>
-      <c r="D45" s="48" t="n">
-        <v>0.778</v>
-      </c>
-      <c r="E45" s="48" t="n">
-        <v>0</v>
-      </c>
-      <c r="F45" s="49" t="n">
-        <v>0</v>
-      </c>
-      <c r="G45" s="49" t="n">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="46" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A46" s="50" t="s">
-        <v>49</v>
-      </c>
-      <c r="B46" s="51" t="n">
-        <v>45</v>
-      </c>
-      <c r="C46" s="52" t="n">
-        <v>-0.085</v>
-      </c>
-      <c r="D46" s="52" t="n">
-        <v>-0.938</v>
-      </c>
-      <c r="E46" s="52" t="n">
-        <v>0</v>
-      </c>
-      <c r="F46" s="53" t="n">
-        <v>0</v>
-      </c>
-      <c r="G46" s="53" t="n">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="47" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A47" s="50" t="s">
-        <v>50</v>
-      </c>
-      <c r="B47" s="51" t="n">
-        <v>46</v>
-      </c>
-      <c r="C47" s="52" t="n">
-        <v>-0.085</v>
-      </c>
-      <c r="D47" s="52" t="n">
-        <v>-2.408</v>
-      </c>
-      <c r="E47" s="52" t="n">
-        <v>0</v>
-      </c>
-      <c r="F47" s="53" t="n">
-        <v>0</v>
-      </c>
-      <c r="G47" s="53" t="n">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="48" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A48" s="50" t="s">
-        <v>51</v>
-      </c>
-      <c r="B48" s="51" t="n">
-        <v>47</v>
-      </c>
-      <c r="C48" s="52" t="n">
-        <v>0.085</v>
-      </c>
-      <c r="D48" s="52" t="n">
-        <v>-2.408</v>
-      </c>
-      <c r="E48" s="52" t="n">
-        <v>0</v>
-      </c>
-      <c r="F48" s="53" t="n">
-        <v>0</v>
-      </c>
-      <c r="G48" s="53" t="n">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="49" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A49" s="50" t="s">
-        <v>52</v>
-      </c>
-      <c r="B49" s="51" t="n">
-        <v>48</v>
-      </c>
-      <c r="C49" s="52" t="n">
-        <v>0.085</v>
-      </c>
-      <c r="D49" s="52" t="n">
-        <v>-0.938</v>
-      </c>
-      <c r="E49" s="52" t="n">
-        <v>0</v>
-      </c>
-      <c r="F49" s="53" t="n">
-        <v>0</v>
-      </c>
-      <c r="G49" s="53" t="n">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="50" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A50" s="54" t="s">
-        <v>53</v>
-      </c>
-      <c r="B50" s="55" t="n">
-        <v>49</v>
-      </c>
-      <c r="C50" s="56" t="n">
-        <v>-2.84569</v>
-      </c>
-      <c r="D50" s="56" t="n">
-        <v>2.4546</v>
-      </c>
-      <c r="E50" s="56" t="n">
-        <v>0</v>
-      </c>
-      <c r="F50" s="57" t="n">
-        <v>0</v>
-      </c>
-      <c r="G50" s="57" t="n">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="51" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A51" s="54" t="s">
-        <v>54</v>
-      </c>
-      <c r="B51" s="55" t="n">
-        <v>50</v>
-      </c>
-      <c r="C51" s="56" t="n">
-        <v>-2.7608</v>
-      </c>
-      <c r="D51" s="56" t="n">
-        <v>-2.3894</v>
-      </c>
-      <c r="E51" s="56" t="n">
-        <v>0</v>
-      </c>
-      <c r="F51" s="57" t="n">
-        <v>0</v>
-      </c>
-      <c r="G51" s="57" t="n">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="52" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A52" s="54" t="s">
-        <v>55</v>
-      </c>
-      <c r="B52" s="55" t="n">
-        <v>51</v>
-      </c>
-      <c r="C52" s="56" t="n">
-        <v>2.7015</v>
-      </c>
-      <c r="D52" s="56" t="n">
-        <v>-2.4284</v>
-      </c>
-      <c r="E52" s="56" t="n">
-        <v>0</v>
-      </c>
-      <c r="F52" s="57" t="n">
-        <v>0</v>
-      </c>
-      <c r="G52" s="57" t="n">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="53" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A53" s="54" t="s">
-        <v>56</v>
-      </c>
-      <c r="B53" s="55" t="n">
-        <v>52</v>
-      </c>
-      <c r="C53" s="56" t="n">
-        <v>2.7949</v>
-      </c>
-      <c r="D53" s="56" t="n">
-        <v>2.4546</v>
-      </c>
-      <c r="E53" s="56" t="n">
-        <v>0</v>
-      </c>
-      <c r="F53" s="57" t="n">
-        <v>0</v>
-      </c>
-      <c r="G53" s="57" t="n">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="54" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A54" s="34" t="s">
-        <v>57</v>
-      </c>
-      <c r="B54" s="35" t="n">
-        <v>53</v>
-      </c>
-      <c r="C54" s="36" t="n">
-        <v>-3.022</v>
-      </c>
-      <c r="D54" s="36" t="n">
-        <v>2.6015</v>
-      </c>
-      <c r="E54" s="36" t="n">
-        <v>0</v>
-      </c>
-      <c r="F54" s="37" t="n">
-        <v>0</v>
-      </c>
-      <c r="G54" s="37" t="n">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="55" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A55" s="34" t="s">
-        <v>58</v>
-      </c>
-      <c r="B55" s="35" t="n">
-        <v>54</v>
-      </c>
-      <c r="C55" s="36" t="n">
-        <v>-2.915</v>
-      </c>
-      <c r="D55" s="36" t="n">
-        <v>-2.5146</v>
-      </c>
-      <c r="E55" s="36" t="n">
-        <v>0</v>
-      </c>
-      <c r="F55" s="37" t="n">
-        <v>0</v>
-      </c>
-      <c r="G55" s="37" t="n">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="56" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A56" s="34" t="s">
-        <v>59</v>
-      </c>
-      <c r="B56" s="35" t="n">
-        <v>55</v>
-      </c>
-      <c r="C56" s="36" t="n">
-        <v>2.8496</v>
-      </c>
-      <c r="D56" s="36" t="n">
-        <v>-2.5146</v>
-      </c>
-      <c r="E56" s="36" t="n">
-        <v>0</v>
-      </c>
-      <c r="F56" s="37" t="n">
-        <v>0</v>
-      </c>
-      <c r="G56" s="37" t="n">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="57" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A57" s="34" t="s">
-        <v>60</v>
-      </c>
-      <c r="B57" s="35" t="n">
-        <v>56</v>
-      </c>
-      <c r="C57" s="36" t="n">
-        <v>2.971</v>
-      </c>
-      <c r="D57" s="36" t="n">
-        <v>2.6015</v>
-      </c>
-      <c r="E57" s="36" t="n">
-        <v>0</v>
-      </c>
-      <c r="F57" s="37" t="n">
-        <v>0</v>
-      </c>
-      <c r="G57" s="37" t="n">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="58" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A58" s="58" t="s">
+      <c r="E61" s="61" t="n">
+        <v>0</v>
+      </c>
+      <c r="F61" s="62" t="n">
+        <v>0</v>
+      </c>
+      <c r="G61" s="62" t="n">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="62" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A62" s="23" t="s">
+        <v>66</v>
+      </c>
+      <c r="B62" s="24" t="n">
         <v>61</v>
       </c>
-      <c r="B58" s="59" t="n">
-        <v>57</v>
-      </c>
-      <c r="C58" s="60" t="n">
-        <v>-3.3343</v>
-      </c>
-      <c r="D58" s="60" t="n">
-        <v>2.78</v>
-      </c>
-      <c r="E58" s="60" t="n">
-        <v>0</v>
-      </c>
-      <c r="F58" s="61" t="n">
-        <v>0</v>
-      </c>
-      <c r="G58" s="61" t="n">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="59" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A59" s="58" t="s">
-        <v>62</v>
-      </c>
-      <c r="B59" s="59" t="n">
-        <v>58</v>
-      </c>
-      <c r="C59" s="60" t="n">
-        <v>-3.1388</v>
-      </c>
-      <c r="D59" s="60" t="n">
-        <v>-2.9209</v>
-      </c>
-      <c r="E59" s="60" t="n">
-        <v>0</v>
-      </c>
-      <c r="F59" s="61" t="n">
-        <v>0</v>
-      </c>
-      <c r="G59" s="61" t="n">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="60" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A60" s="58" t="s">
-        <v>63</v>
-      </c>
-      <c r="B60" s="59" t="n">
-        <v>59</v>
-      </c>
-      <c r="C60" s="60" t="n">
-        <v>3.1388</v>
-      </c>
-      <c r="D60" s="60" t="n">
-        <v>-2.9209</v>
-      </c>
-      <c r="E60" s="60" t="n">
-        <v>0</v>
-      </c>
-      <c r="F60" s="61" t="n">
-        <v>0</v>
-      </c>
-      <c r="G60" s="61" t="n">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="61" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A61" s="58" t="s">
-        <v>64</v>
-      </c>
-      <c r="B61" s="59" t="n">
-        <v>60</v>
-      </c>
-      <c r="C61" s="60" t="n">
-        <v>3.3343</v>
-      </c>
-      <c r="D61" s="60" t="n">
-        <v>2.78</v>
-      </c>
-      <c r="E61" s="60" t="n">
-        <v>0</v>
-      </c>
-      <c r="F61" s="61" t="n">
-        <v>0</v>
-      </c>
-      <c r="G61" s="61" t="n">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="62" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A62" s="22" t="s">
-        <v>65</v>
-      </c>
-      <c r="B62" s="23" t="n">
-        <v>61</v>
-      </c>
-      <c r="C62" s="24" t="n">
+      <c r="C62" s="25" t="n">
         <f aca="false">C64-1</f>
         <v>-1.96</v>
       </c>
-      <c r="D62" s="24" t="n">
+      <c r="D62" s="25" t="n">
         <v>0.22</v>
       </c>
-      <c r="E62" s="24" t="n">
-        <v>0</v>
-      </c>
-      <c r="F62" s="25" t="n">
-        <v>0</v>
-      </c>
-      <c r="G62" s="25" t="n">
+      <c r="E62" s="25" t="n">
+        <v>0</v>
+      </c>
+      <c r="F62" s="26" t="n">
+        <v>0</v>
+      </c>
+      <c r="G62" s="26" t="n">
         <v>0</v>
       </c>
     </row>
     <row r="63" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A63" s="22" t="s">
-        <v>66</v>
-      </c>
-      <c r="B63" s="23" t="n">
+      <c r="A63" s="23" t="s">
+        <v>67</v>
+      </c>
+      <c r="B63" s="24" t="n">
         <v>62</v>
       </c>
-      <c r="C63" s="24" t="n">
+      <c r="C63" s="25" t="n">
         <v>-1.96</v>
       </c>
-      <c r="D63" s="24" t="n">
+      <c r="D63" s="25" t="n">
         <f aca="false">D62-1.05</f>
         <v>-0.83</v>
       </c>
-      <c r="E63" s="24" t="n">
-        <v>0</v>
-      </c>
-      <c r="F63" s="25" t="n">
-        <v>0</v>
-      </c>
-      <c r="G63" s="25" t="n">
+      <c r="E63" s="25" t="n">
+        <v>0</v>
+      </c>
+      <c r="F63" s="26" t="n">
+        <v>0</v>
+      </c>
+      <c r="G63" s="26" t="n">
         <v>0</v>
       </c>
     </row>
     <row r="64" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A64" s="22" t="s">
-        <v>67</v>
-      </c>
-      <c r="B64" s="23" t="n">
+      <c r="A64" s="23" t="s">
+        <v>68</v>
+      </c>
+      <c r="B64" s="24" t="n">
         <v>63</v>
       </c>
-      <c r="C64" s="24" t="n">
+      <c r="C64" s="25" t="n">
         <v>-0.96</v>
       </c>
-      <c r="D64" s="24" t="n">
+      <c r="D64" s="25" t="n">
         <v>-0.83</v>
       </c>
-      <c r="E64" s="24" t="n">
-        <v>0</v>
-      </c>
-      <c r="F64" s="25" t="n">
-        <v>0</v>
-      </c>
-      <c r="G64" s="25" t="n">
+      <c r="E64" s="25" t="n">
+        <v>0</v>
+      </c>
+      <c r="F64" s="26" t="n">
+        <v>0</v>
+      </c>
+      <c r="G64" s="26" t="n">
         <v>0</v>
       </c>
     </row>
     <row r="65" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A65" s="22" t="s">
-        <v>68</v>
-      </c>
-      <c r="B65" s="23" t="n">
+      <c r="A65" s="23" t="s">
+        <v>69</v>
+      </c>
+      <c r="B65" s="24" t="n">
         <v>64</v>
       </c>
-      <c r="C65" s="24" t="n">
+      <c r="C65" s="25" t="n">
         <v>-0.96</v>
       </c>
-      <c r="D65" s="24" t="n">
+      <c r="D65" s="25" t="n">
         <v>0.22</v>
       </c>
-      <c r="E65" s="24" t="n">
-        <v>0</v>
-      </c>
-      <c r="F65" s="25" t="n">
-        <v>0</v>
-      </c>
-      <c r="G65" s="25" t="n">
+      <c r="E65" s="25" t="n">
+        <v>0</v>
+      </c>
+      <c r="F65" s="26" t="n">
+        <v>0</v>
+      </c>
+      <c r="G65" s="26" t="n">
         <v>0</v>
       </c>
     </row>
     <row r="66" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A66" s="30" t="s">
-        <v>69</v>
-      </c>
-      <c r="B66" s="31" t="n">
+      <c r="A66" s="31" t="s">
+        <v>70</v>
+      </c>
+      <c r="B66" s="32" t="n">
         <v>65</v>
       </c>
-      <c r="C66" s="32" t="n">
+      <c r="C66" s="33" t="n">
         <v>-3.08</v>
       </c>
-      <c r="D66" s="32" t="n">
+      <c r="D66" s="33" t="n">
         <v>-0.16</v>
       </c>
-      <c r="E66" s="32" t="n">
-        <v>0</v>
-      </c>
-      <c r="F66" s="33" t="n">
-        <v>0</v>
-      </c>
-      <c r="G66" s="33" t="n">
+      <c r="E66" s="33" t="n">
+        <v>0</v>
+      </c>
+      <c r="F66" s="34" t="n">
+        <v>0</v>
+      </c>
+      <c r="G66" s="34" t="n">
         <v>0</v>
       </c>
     </row>
     <row r="67" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A67" s="30" t="s">
-        <v>70</v>
-      </c>
-      <c r="B67" s="31" t="n">
+      <c r="A67" s="31" t="s">
+        <v>71</v>
+      </c>
+      <c r="B67" s="32" t="n">
         <v>66</v>
       </c>
-      <c r="C67" s="32" t="n">
+      <c r="C67" s="33" t="n">
         <f aca="false">C68-0.83</f>
         <v>-3.08</v>
       </c>
-      <c r="D67" s="32" t="n">
+      <c r="D67" s="33" t="n">
         <v>-1.67</v>
       </c>
-      <c r="E67" s="32" t="n">
-        <v>0</v>
-      </c>
-      <c r="F67" s="33" t="n">
-        <v>0</v>
-      </c>
-      <c r="G67" s="33" t="n">
+      <c r="E67" s="33" t="n">
+        <v>0</v>
+      </c>
+      <c r="F67" s="34" t="n">
+        <v>0</v>
+      </c>
+      <c r="G67" s="34" t="n">
         <v>0</v>
       </c>
     </row>
     <row r="68" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A68" s="30" t="s">
-        <v>71</v>
-      </c>
-      <c r="B68" s="31" t="n">
+      <c r="A68" s="31" t="s">
+        <v>72</v>
+      </c>
+      <c r="B68" s="32" t="n">
         <v>67</v>
       </c>
-      <c r="C68" s="32" t="n">
+      <c r="C68" s="33" t="n">
         <v>-2.25</v>
       </c>
-      <c r="D68" s="32" t="n">
+      <c r="D68" s="33" t="n">
         <f aca="false">D69-1.51</f>
         <v>-1.67</v>
       </c>
-      <c r="E68" s="32" t="n">
-        <v>0</v>
-      </c>
-      <c r="F68" s="33" t="n">
-        <v>0</v>
-      </c>
-      <c r="G68" s="33" t="n">
+      <c r="E68" s="33" t="n">
+        <v>0</v>
+      </c>
+      <c r="F68" s="34" t="n">
+        <v>0</v>
+      </c>
+      <c r="G68" s="34" t="n">
         <v>0</v>
       </c>
     </row>
     <row r="69" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A69" s="30" t="s">
-        <v>72</v>
-      </c>
-      <c r="B69" s="31" t="n">
+      <c r="A69" s="31" t="s">
+        <v>73</v>
+      </c>
+      <c r="B69" s="32" t="n">
         <v>68</v>
       </c>
-      <c r="C69" s="32" t="n">
+      <c r="C69" s="33" t="n">
         <v>-2.25</v>
       </c>
-      <c r="D69" s="32" t="n">
+      <c r="D69" s="33" t="n">
         <v>-0.16</v>
       </c>
-      <c r="E69" s="32" t="n">
-        <v>0</v>
-      </c>
-      <c r="F69" s="33" t="n">
-        <v>0</v>
-      </c>
-      <c r="G69" s="33" t="n">
+      <c r="E69" s="33" t="n">
+        <v>0</v>
+      </c>
+      <c r="F69" s="34" t="n">
+        <v>0</v>
+      </c>
+      <c r="G69" s="34" t="n">
         <v>0</v>
       </c>
     </row>
     <row r="70" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A70" s="62" t="s">
-        <v>73</v>
-      </c>
-      <c r="B70" s="63" t="n">
+      <c r="A70" s="63" t="s">
+        <v>74</v>
+      </c>
+      <c r="B70" s="64" t="n">
         <v>69</v>
       </c>
-      <c r="C70" s="64" t="n">
+      <c r="C70" s="65" t="n">
         <v>-1.93</v>
       </c>
-      <c r="D70" s="64" t="n">
+      <c r="D70" s="65" t="n">
         <v>-1.64</v>
       </c>
-      <c r="E70" s="64" t="n">
-        <v>0</v>
-      </c>
-      <c r="F70" s="65" t="n">
-        <v>0</v>
-      </c>
-      <c r="G70" s="65" t="n">
+      <c r="E70" s="65" t="n">
+        <v>0</v>
+      </c>
+      <c r="F70" s="66" t="n">
+        <v>0</v>
+      </c>
+      <c r="G70" s="66" t="n">
         <v>0</v>
       </c>
     </row>
     <row r="71" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A71" s="62" t="s">
-        <v>74</v>
-      </c>
-      <c r="B71" s="63" t="n">
+      <c r="A71" s="63" t="s">
+        <v>75</v>
+      </c>
+      <c r="B71" s="64" t="n">
         <v>70</v>
       </c>
-      <c r="C71" s="64" t="n">
+      <c r="C71" s="65" t="n">
         <v>-1.93</v>
       </c>
-      <c r="D71" s="64" t="n">
+      <c r="D71" s="65" t="n">
         <v>-2.73</v>
       </c>
-      <c r="E71" s="64" t="n">
-        <v>0</v>
-      </c>
-      <c r="F71" s="65" t="n">
-        <v>0</v>
-      </c>
-      <c r="G71" s="65" t="n">
+      <c r="E71" s="65" t="n">
+        <v>0</v>
+      </c>
+      <c r="F71" s="66" t="n">
+        <v>0</v>
+      </c>
+      <c r="G71" s="66" t="n">
         <v>0</v>
       </c>
     </row>
     <row r="72" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A72" s="62" t="s">
-        <v>75</v>
-      </c>
-      <c r="B72" s="63" t="n">
+      <c r="A72" s="63" t="s">
+        <v>76</v>
+      </c>
+      <c r="B72" s="64" t="n">
         <v>71</v>
       </c>
-      <c r="C72" s="64" t="n">
+      <c r="C72" s="65" t="n">
         <v>-1</v>
       </c>
-      <c r="D72" s="64" t="n">
+      <c r="D72" s="65" t="n">
         <f aca="false">D73-1.09</f>
         <v>-2.73</v>
       </c>
-      <c r="E72" s="64" t="n">
-        <v>0</v>
-      </c>
-      <c r="F72" s="65" t="n">
-        <v>0</v>
-      </c>
-      <c r="G72" s="65" t="n">
+      <c r="E72" s="65" t="n">
+        <v>0</v>
+      </c>
+      <c r="F72" s="66" t="n">
+        <v>0</v>
+      </c>
+      <c r="G72" s="66" t="n">
         <v>0</v>
       </c>
     </row>
     <row r="73" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A73" s="62" t="s">
-        <v>76</v>
-      </c>
-      <c r="B73" s="63" t="n">
+      <c r="A73" s="63" t="s">
+        <v>77</v>
+      </c>
+      <c r="B73" s="64" t="n">
         <v>72</v>
       </c>
-      <c r="C73" s="64" t="n">
+      <c r="C73" s="65" t="n">
         <v>-1</v>
       </c>
-      <c r="D73" s="64" t="n">
+      <c r="D73" s="65" t="n">
         <v>-1.64</v>
       </c>
-      <c r="E73" s="64" t="n">
-        <v>0</v>
-      </c>
-      <c r="F73" s="65" t="n">
-        <v>0</v>
-      </c>
-      <c r="G73" s="65" t="n">
+      <c r="E73" s="65" t="n">
+        <v>0</v>
+      </c>
+      <c r="F73" s="66" t="n">
+        <v>0</v>
+      </c>
+      <c r="G73" s="66" t="n">
         <v>0</v>
       </c>
     </row>
     <row r="74" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A74" s="66" t="s">
-        <v>77</v>
-      </c>
-      <c r="B74" s="67" t="n">
+      <c r="A74" s="67" t="s">
+        <v>78</v>
+      </c>
+      <c r="B74" s="68" t="n">
         <v>73</v>
       </c>
-      <c r="C74" s="68" t="n">
+      <c r="C74" s="69" t="n">
         <v>2.26</v>
       </c>
-      <c r="D74" s="68" t="n">
+      <c r="D74" s="69" t="n">
         <v>-0.16</v>
       </c>
-      <c r="E74" s="68" t="n">
-        <v>0</v>
-      </c>
-      <c r="F74" s="69" t="n">
-        <v>0</v>
-      </c>
-      <c r="G74" s="69" t="n">
+      <c r="E74" s="69" t="n">
+        <v>0</v>
+      </c>
+      <c r="F74" s="70" t="n">
+        <v>0</v>
+      </c>
+      <c r="G74" s="70" t="n">
         <v>0</v>
       </c>
     </row>
     <row r="75" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A75" s="66" t="s">
-        <v>78</v>
-      </c>
-      <c r="B75" s="67" t="n">
+      <c r="A75" s="67" t="s">
+        <v>79</v>
+      </c>
+      <c r="B75" s="68" t="n">
         <v>74</v>
       </c>
-      <c r="C75" s="68" t="n">
+      <c r="C75" s="69" t="n">
         <v>2.26</v>
       </c>
-      <c r="D75" s="68" t="n">
+      <c r="D75" s="69" t="n">
         <f aca="false">D74-1.49</f>
         <v>-1.65</v>
       </c>
-      <c r="E75" s="68" t="n">
-        <v>0</v>
-      </c>
-      <c r="F75" s="69" t="n">
-        <v>0</v>
-      </c>
-      <c r="G75" s="69" t="n">
+      <c r="E75" s="69" t="n">
+        <v>0</v>
+      </c>
+      <c r="F75" s="70" t="n">
+        <v>0</v>
+      </c>
+      <c r="G75" s="70" t="n">
         <v>0</v>
       </c>
     </row>
     <row r="76" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A76" s="66" t="s">
-        <v>79</v>
-      </c>
-      <c r="B76" s="67" t="n">
+      <c r="A76" s="67" t="s">
+        <v>80</v>
+      </c>
+      <c r="B76" s="68" t="n">
         <v>75</v>
       </c>
-      <c r="C76" s="68" t="n">
+      <c r="C76" s="69" t="n">
         <f aca="false">2.26+0.83</f>
         <v>3.09</v>
       </c>
-      <c r="D76" s="68" t="n">
+      <c r="D76" s="69" t="n">
         <f aca="false">D75</f>
         <v>-1.65</v>
       </c>
-      <c r="E76" s="68" t="n">
-        <v>0</v>
-      </c>
-      <c r="F76" s="69" t="n">
-        <v>0</v>
-      </c>
-      <c r="G76" s="69" t="n">
+      <c r="E76" s="69" t="n">
+        <v>0</v>
+      </c>
+      <c r="F76" s="70" t="n">
+        <v>0</v>
+      </c>
+      <c r="G76" s="70" t="n">
         <v>0</v>
       </c>
     </row>
     <row r="77" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A77" s="66" t="s">
-        <v>80</v>
-      </c>
-      <c r="B77" s="67" t="n">
+      <c r="A77" s="67" t="s">
+        <v>81</v>
+      </c>
+      <c r="B77" s="68" t="n">
         <v>76</v>
       </c>
-      <c r="C77" s="68" t="n">
+      <c r="C77" s="69" t="n">
         <f aca="false">2.26+0.83</f>
         <v>3.09</v>
       </c>
-      <c r="D77" s="68" t="n">
+      <c r="D77" s="69" t="n">
         <v>-0.16</v>
       </c>
-      <c r="E77" s="68" t="n">
-        <v>0</v>
-      </c>
-      <c r="F77" s="69" t="n">
-        <v>0</v>
-      </c>
-      <c r="G77" s="69" t="n">
+      <c r="E77" s="69" t="n">
+        <v>0</v>
+      </c>
+      <c r="F77" s="70" t="n">
+        <v>0</v>
+      </c>
+      <c r="G77" s="70" t="n">
         <v>0</v>
       </c>
     </row>
     <row r="78" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A78" s="50" t="s">
+      <c r="A78" s="51" t="s">
+        <v>82</v>
+      </c>
+      <c r="B78" s="52" t="n">
+        <v>77</v>
+      </c>
+      <c r="C78" s="53" t="n">
+        <v>0</v>
+      </c>
+      <c r="D78" s="53" t="n">
+        <v>-2.9217</v>
+      </c>
+      <c r="E78" s="53" t="n">
+        <v>-0.546</v>
+      </c>
+      <c r="F78" s="54" t="n">
+        <v>0</v>
+      </c>
+      <c r="G78" s="54" t="n">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="79" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A79" s="47" t="s">
+        <v>83</v>
+      </c>
+      <c r="B79" s="48" t="n">
+        <v>78</v>
+      </c>
+      <c r="C79" s="49" t="n">
+        <v>-3.1634</v>
+      </c>
+      <c r="D79" s="49" t="n">
+        <v>-2.9565</v>
+      </c>
+      <c r="E79" s="49" t="n">
+        <v>-0.9233</v>
+      </c>
+      <c r="F79" s="50" t="n">
+        <v>0</v>
+      </c>
+      <c r="G79" s="50" t="n">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="80" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A80" s="47" t="s">
+        <v>84</v>
+      </c>
+      <c r="B80" s="48" t="n">
+        <v>79</v>
+      </c>
+      <c r="C80" s="49" t="n">
+        <v>-3.0852</v>
+      </c>
+      <c r="D80" s="49" t="n">
+        <v>-2.7843</v>
+      </c>
+      <c r="E80" s="49" t="n">
+        <v>-2.0292</v>
+      </c>
+      <c r="F80" s="50" t="n">
+        <v>0</v>
+      </c>
+      <c r="G80" s="50" t="n">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="81" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A81" s="47" t="s">
+        <v>85</v>
+      </c>
+      <c r="B81" s="48" t="n">
+        <v>80</v>
+      </c>
+      <c r="C81" s="49" t="n">
+        <v>3.085</v>
+      </c>
+      <c r="D81" s="49" t="n">
+        <v>-2.784</v>
+      </c>
+      <c r="E81" s="49" t="n">
+        <v>-2.029</v>
+      </c>
+      <c r="F81" s="50" t="n">
+        <v>0</v>
+      </c>
+      <c r="G81" s="50" t="n">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="82" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A82" s="47" t="s">
+        <v>86</v>
+      </c>
+      <c r="B82" s="48" t="n">
         <v>81</v>
       </c>
-      <c r="B78" s="51" t="n">
-        <v>77</v>
-      </c>
-      <c r="C78" s="52" t="n">
-        <v>0</v>
-      </c>
-      <c r="D78" s="52" t="n">
-        <v>-2.9217</v>
-      </c>
-      <c r="E78" s="52" t="n">
-        <v>-0.546</v>
-      </c>
-      <c r="F78" s="53" t="n">
-        <v>0</v>
-      </c>
-      <c r="G78" s="53" t="n">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="79" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A79" s="46" t="s">
-        <v>82</v>
-      </c>
-      <c r="B79" s="47" t="n">
-        <v>78</v>
-      </c>
-      <c r="C79" s="48" t="n">
-        <v>-3.1634</v>
-      </c>
-      <c r="D79" s="48" t="n">
-        <v>-2.9565</v>
-      </c>
-      <c r="E79" s="48" t="n">
-        <v>-0.9233</v>
-      </c>
-      <c r="F79" s="49" t="n">
-        <v>0</v>
-      </c>
-      <c r="G79" s="49" t="n">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="80" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A80" s="46" t="s">
-        <v>83</v>
-      </c>
-      <c r="B80" s="47" t="n">
-        <v>79</v>
-      </c>
-      <c r="C80" s="48" t="n">
-        <v>-3.0852</v>
-      </c>
-      <c r="D80" s="48" t="n">
-        <v>-2.7843</v>
-      </c>
-      <c r="E80" s="48" t="n">
-        <v>-2.0292</v>
-      </c>
-      <c r="F80" s="49" t="n">
-        <v>0</v>
-      </c>
-      <c r="G80" s="49" t="n">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="81" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A81" s="46" t="s">
-        <v>84</v>
-      </c>
-      <c r="B81" s="47" t="n">
-        <v>80</v>
-      </c>
-      <c r="C81" s="48" t="n">
-        <v>3.085</v>
-      </c>
-      <c r="D81" s="48" t="n">
-        <v>-2.784</v>
-      </c>
-      <c r="E81" s="48" t="n">
-        <v>-2.029</v>
-      </c>
-      <c r="F81" s="49" t="n">
-        <v>0</v>
-      </c>
-      <c r="G81" s="49" t="n">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="82" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A82" s="46" t="s">
-        <v>85</v>
-      </c>
-      <c r="B82" s="47" t="n">
-        <v>81</v>
-      </c>
-      <c r="C82" s="48" t="n">
+      <c r="C82" s="49" t="n">
         <v>3.163</v>
       </c>
-      <c r="D82" s="48" t="n">
+      <c r="D82" s="49" t="n">
         <v>-2.957</v>
       </c>
-      <c r="E82" s="48" t="n">
+      <c r="E82" s="49" t="n">
         <v>0.923</v>
       </c>
-      <c r="F82" s="49" t="n">
-        <v>0</v>
-      </c>
-      <c r="G82" s="49" t="n">
+      <c r="F82" s="50" t="n">
+        <v>0</v>
+      </c>
+      <c r="G82" s="50" t="n">
         <v>0</v>
       </c>
     </row>
     <row r="83" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A83" s="70"/>
-      <c r="B83" s="71"/>
-      <c r="C83" s="72"/>
-      <c r="D83" s="72"/>
-      <c r="E83" s="72"/>
-      <c r="F83" s="73"/>
-      <c r="G83" s="73"/>
+      <c r="A83" s="71"/>
+      <c r="B83" s="72"/>
+      <c r="C83" s="73"/>
+      <c r="D83" s="73"/>
+      <c r="E83" s="73"/>
+      <c r="F83" s="74"/>
+      <c r="G83" s="74"/>
     </row>
     <row r="84" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A84" s="70"/>
-      <c r="B84" s="71"/>
-      <c r="C84" s="72"/>
-      <c r="D84" s="72"/>
-      <c r="E84" s="72"/>
-      <c r="F84" s="73"/>
-      <c r="G84" s="73"/>
+      <c r="A84" s="71"/>
+      <c r="B84" s="72"/>
+      <c r="C84" s="73"/>
+      <c r="D84" s="73"/>
+      <c r="E84" s="73"/>
+      <c r="F84" s="74"/>
+      <c r="G84" s="74"/>
     </row>
     <row r="85" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A85" s="70"/>
-      <c r="B85" s="71"/>
-      <c r="C85" s="72"/>
-      <c r="D85" s="72"/>
-      <c r="E85" s="72"/>
-      <c r="F85" s="73"/>
-      <c r="G85" s="73"/>
+      <c r="A85" s="71"/>
+      <c r="B85" s="72"/>
+      <c r="C85" s="73"/>
+      <c r="D85" s="73"/>
+      <c r="E85" s="73"/>
+      <c r="F85" s="74"/>
+      <c r="G85" s="74"/>
     </row>
     <row r="86" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A86" s="70"/>
-      <c r="B86" s="71"/>
-      <c r="C86" s="72"/>
-      <c r="D86" s="72"/>
-      <c r="E86" s="72"/>
-      <c r="F86" s="73"/>
-      <c r="G86" s="73"/>
+      <c r="A86" s="71"/>
+      <c r="B86" s="72"/>
+      <c r="C86" s="73"/>
+      <c r="D86" s="73"/>
+      <c r="E86" s="73"/>
+      <c r="F86" s="74"/>
+      <c r="G86" s="74"/>
     </row>
     <row r="87" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A87" s="70"/>
-      <c r="B87" s="71"/>
-      <c r="C87" s="72"/>
-      <c r="D87" s="72"/>
-      <c r="E87" s="72"/>
-      <c r="F87" s="73"/>
-      <c r="G87" s="73"/>
+      <c r="A87" s="71"/>
+      <c r="B87" s="72"/>
+      <c r="C87" s="73"/>
+      <c r="D87" s="73"/>
+      <c r="E87" s="73"/>
+      <c r="F87" s="74"/>
+      <c r="G87" s="74"/>
     </row>
     <row r="88" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A88" s="70"/>
-      <c r="B88" s="71"/>
-      <c r="C88" s="72"/>
-      <c r="D88" s="72"/>
-      <c r="E88" s="72"/>
-      <c r="F88" s="73"/>
-      <c r="G88" s="73"/>
+      <c r="A88" s="71"/>
+      <c r="B88" s="72"/>
+      <c r="C88" s="73"/>
+      <c r="D88" s="73"/>
+      <c r="E88" s="73"/>
+      <c r="F88" s="74"/>
+      <c r="G88" s="74"/>
     </row>
     <row r="89" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A89" s="70"/>
-      <c r="B89" s="71"/>
-      <c r="C89" s="72"/>
-      <c r="D89" s="72"/>
-      <c r="E89" s="72"/>
-      <c r="F89" s="73"/>
-      <c r="G89" s="73"/>
+      <c r="A89" s="71"/>
+      <c r="B89" s="72"/>
+      <c r="C89" s="73"/>
+      <c r="D89" s="73"/>
+      <c r="E89" s="73"/>
+      <c r="F89" s="74"/>
+      <c r="G89" s="74"/>
     </row>
     <row r="90" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A90" s="70"/>
-      <c r="B90" s="71"/>
-      <c r="C90" s="72"/>
-      <c r="D90" s="72"/>
-      <c r="E90" s="72"/>
-      <c r="F90" s="73"/>
-      <c r="G90" s="73"/>
+      <c r="A90" s="71"/>
+      <c r="B90" s="72"/>
+      <c r="C90" s="73"/>
+      <c r="D90" s="73"/>
+      <c r="E90" s="73"/>
+      <c r="F90" s="74"/>
+      <c r="G90" s="74"/>
     </row>
     <row r="91" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A91" s="70"/>
-      <c r="B91" s="71"/>
-      <c r="C91" s="72"/>
-      <c r="D91" s="72"/>
-      <c r="E91" s="72"/>
-      <c r="F91" s="73"/>
-      <c r="G91" s="73"/>
+      <c r="A91" s="71"/>
+      <c r="B91" s="72"/>
+      <c r="C91" s="73"/>
+      <c r="D91" s="73"/>
+      <c r="E91" s="73"/>
+      <c r="F91" s="74"/>
+      <c r="G91" s="74"/>
     </row>
     <row r="92" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A92" s="70"/>
-      <c r="B92" s="71"/>
-      <c r="C92" s="72"/>
-      <c r="D92" s="72"/>
-      <c r="E92" s="72"/>
-      <c r="F92" s="73"/>
-      <c r="G92" s="73"/>
+      <c r="A92" s="71"/>
+      <c r="B92" s="72"/>
+      <c r="C92" s="73"/>
+      <c r="D92" s="73"/>
+      <c r="E92" s="73"/>
+      <c r="F92" s="74"/>
+      <c r="G92" s="74"/>
     </row>
     <row r="93" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A93" s="70"/>
-      <c r="B93" s="71"/>
-      <c r="C93" s="72"/>
-      <c r="D93" s="72"/>
-      <c r="E93" s="72"/>
-      <c r="F93" s="73"/>
-      <c r="G93" s="73"/>
+      <c r="A93" s="71"/>
+      <c r="B93" s="72"/>
+      <c r="C93" s="73"/>
+      <c r="D93" s="73"/>
+      <c r="E93" s="73"/>
+      <c r="F93" s="74"/>
+      <c r="G93" s="74"/>
     </row>
     <row r="94" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A94" s="70"/>
-      <c r="B94" s="71"/>
-      <c r="C94" s="72"/>
-      <c r="D94" s="72"/>
-      <c r="E94" s="72"/>
-      <c r="F94" s="73"/>
-      <c r="G94" s="73"/>
+      <c r="A94" s="71"/>
+      <c r="B94" s="72"/>
+      <c r="C94" s="73"/>
+      <c r="D94" s="73"/>
+      <c r="E94" s="73"/>
+      <c r="F94" s="74"/>
+      <c r="G94" s="74"/>
     </row>
     <row r="95" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A95" s="70"/>
-      <c r="B95" s="71"/>
-      <c r="C95" s="72"/>
-      <c r="D95" s="72"/>
-      <c r="E95" s="72"/>
-      <c r="F95" s="73"/>
-      <c r="G95" s="73"/>
+      <c r="A95" s="71"/>
+      <c r="B95" s="72"/>
+      <c r="C95" s="73"/>
+      <c r="D95" s="73"/>
+      <c r="E95" s="73"/>
+      <c r="F95" s="74"/>
+      <c r="G95" s="74"/>
     </row>
     <row r="96" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A96" s="70"/>
-      <c r="B96" s="71"/>
-      <c r="C96" s="72"/>
-      <c r="D96" s="72"/>
-      <c r="E96" s="72"/>
-      <c r="F96" s="73"/>
-      <c r="G96" s="73"/>
+      <c r="A96" s="71"/>
+      <c r="B96" s="72"/>
+      <c r="C96" s="73"/>
+      <c r="D96" s="73"/>
+      <c r="E96" s="73"/>
+      <c r="F96" s="74"/>
+      <c r="G96" s="74"/>
     </row>
     <row r="97" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A97" s="70"/>
-      <c r="B97" s="71"/>
-      <c r="C97" s="72"/>
-      <c r="D97" s="72"/>
-      <c r="E97" s="72"/>
-      <c r="F97" s="73"/>
-      <c r="G97" s="73"/>
+      <c r="A97" s="71"/>
+      <c r="B97" s="72"/>
+      <c r="C97" s="73"/>
+      <c r="D97" s="73"/>
+      <c r="E97" s="73"/>
+      <c r="F97" s="74"/>
+      <c r="G97" s="74"/>
     </row>
     <row r="98" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A98" s="70"/>
-      <c r="B98" s="71"/>
-      <c r="C98" s="72"/>
-      <c r="D98" s="72"/>
-      <c r="E98" s="72"/>
-      <c r="F98" s="73"/>
-      <c r="G98" s="73"/>
+      <c r="A98" s="71"/>
+      <c r="B98" s="72"/>
+      <c r="C98" s="73"/>
+      <c r="D98" s="73"/>
+      <c r="E98" s="73"/>
+      <c r="F98" s="74"/>
+      <c r="G98" s="74"/>
     </row>
     <row r="99" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A99" s="70"/>
-      <c r="B99" s="71"/>
-      <c r="C99" s="72"/>
-      <c r="D99" s="72"/>
-      <c r="E99" s="72"/>
-      <c r="F99" s="73"/>
-      <c r="G99" s="73"/>
+      <c r="A99" s="71"/>
+      <c r="B99" s="72"/>
+      <c r="C99" s="73"/>
+      <c r="D99" s="73"/>
+      <c r="E99" s="73"/>
+      <c r="F99" s="74"/>
+      <c r="G99" s="74"/>
     </row>
     <row r="100" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A100" s="70"/>
-      <c r="B100" s="71"/>
-      <c r="C100" s="72"/>
-      <c r="D100" s="72"/>
-      <c r="E100" s="72"/>
-      <c r="F100" s="73"/>
-      <c r="G100" s="73"/>
+      <c r="A100" s="71"/>
+      <c r="B100" s="72"/>
+      <c r="C100" s="73"/>
+      <c r="D100" s="73"/>
+      <c r="E100" s="73"/>
+      <c r="F100" s="74"/>
+      <c r="G100" s="74"/>
     </row>
     <row r="101" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A101" s="70"/>
-      <c r="B101" s="71"/>
-      <c r="C101" s="72"/>
-      <c r="D101" s="72"/>
-      <c r="E101" s="72"/>
-      <c r="F101" s="73"/>
-      <c r="G101" s="73"/>
+      <c r="A101" s="71"/>
+      <c r="B101" s="72"/>
+      <c r="C101" s="73"/>
+      <c r="D101" s="73"/>
+      <c r="E101" s="73"/>
+      <c r="F101" s="74"/>
+      <c r="G101" s="74"/>
     </row>
     <row r="102" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A102" s="70"/>
-      <c r="B102" s="71"/>
-      <c r="C102" s="72"/>
-      <c r="D102" s="72"/>
-      <c r="E102" s="72"/>
-      <c r="F102" s="73"/>
-      <c r="G102" s="73"/>
+      <c r="A102" s="71"/>
+      <c r="B102" s="72"/>
+      <c r="C102" s="73"/>
+      <c r="D102" s="73"/>
+      <c r="E102" s="73"/>
+      <c r="F102" s="74"/>
+      <c r="G102" s="74"/>
     </row>
     <row r="103" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A103" s="70"/>
-      <c r="B103" s="71"/>
-      <c r="C103" s="72"/>
-      <c r="D103" s="72"/>
-      <c r="E103" s="72"/>
-      <c r="F103" s="73"/>
-      <c r="G103" s="73"/>
+      <c r="A103" s="71"/>
+      <c r="B103" s="72"/>
+      <c r="C103" s="73"/>
+      <c r="D103" s="73"/>
+      <c r="E103" s="73"/>
+      <c r="F103" s="74"/>
+      <c r="G103" s="74"/>
     </row>
     <row r="104" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A104" s="70"/>
-      <c r="B104" s="71"/>
-      <c r="C104" s="72"/>
-      <c r="D104" s="72"/>
-      <c r="E104" s="72"/>
-      <c r="F104" s="73"/>
-      <c r="G104" s="73"/>
+      <c r="A104" s="71"/>
+      <c r="B104" s="72"/>
+      <c r="C104" s="73"/>
+      <c r="D104" s="73"/>
+      <c r="E104" s="73"/>
+      <c r="F104" s="74"/>
+      <c r="G104" s="74"/>
     </row>
     <row r="105" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A105" s="70"/>
-      <c r="B105" s="71"/>
-      <c r="C105" s="72"/>
-      <c r="D105" s="72"/>
-      <c r="E105" s="72"/>
-      <c r="F105" s="73"/>
-      <c r="G105" s="73"/>
+      <c r="A105" s="71"/>
+      <c r="B105" s="72"/>
+      <c r="C105" s="73"/>
+      <c r="D105" s="73"/>
+      <c r="E105" s="73"/>
+      <c r="F105" s="74"/>
+      <c r="G105" s="74"/>
     </row>
     <row r="106" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A106" s="70"/>
-      <c r="B106" s="71"/>
-      <c r="C106" s="72"/>
-      <c r="D106" s="72"/>
-      <c r="E106" s="72"/>
-      <c r="F106" s="73"/>
-      <c r="G106" s="73"/>
+      <c r="A106" s="71"/>
+      <c r="B106" s="72"/>
+      <c r="C106" s="73"/>
+      <c r="D106" s="73"/>
+      <c r="E106" s="73"/>
+      <c r="F106" s="74"/>
+      <c r="G106" s="74"/>
     </row>
     <row r="107" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A107" s="70"/>
-      <c r="B107" s="71"/>
-      <c r="C107" s="72"/>
-      <c r="D107" s="72"/>
-      <c r="E107" s="72"/>
-      <c r="F107" s="73"/>
-      <c r="G107" s="73"/>
+      <c r="A107" s="71"/>
+      <c r="B107" s="72"/>
+      <c r="C107" s="73"/>
+      <c r="D107" s="73"/>
+      <c r="E107" s="73"/>
+      <c r="F107" s="74"/>
+      <c r="G107" s="74"/>
     </row>
     <row r="108" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A108" s="70"/>
-      <c r="B108" s="71"/>
-      <c r="C108" s="72"/>
-      <c r="D108" s="72"/>
-      <c r="E108" s="72"/>
-      <c r="F108" s="73"/>
-      <c r="G108" s="73"/>
+      <c r="A108" s="71"/>
+      <c r="B108" s="72"/>
+      <c r="C108" s="73"/>
+      <c r="D108" s="73"/>
+      <c r="E108" s="73"/>
+      <c r="F108" s="74"/>
+      <c r="G108" s="74"/>
     </row>
     <row r="109" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A109" s="70"/>
-      <c r="B109" s="71"/>
-      <c r="C109" s="72"/>
-      <c r="D109" s="72"/>
-      <c r="E109" s="72"/>
-      <c r="F109" s="73"/>
-      <c r="G109" s="73"/>
+      <c r="A109" s="71"/>
+      <c r="B109" s="72"/>
+      <c r="C109" s="73"/>
+      <c r="D109" s="73"/>
+      <c r="E109" s="73"/>
+      <c r="F109" s="74"/>
+      <c r="G109" s="74"/>
     </row>
     <row r="110" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A110" s="70"/>
-      <c r="B110" s="71"/>
-      <c r="C110" s="72"/>
-      <c r="D110" s="72"/>
-      <c r="E110" s="72"/>
-      <c r="F110" s="73"/>
-      <c r="G110" s="73"/>
+      <c r="A110" s="71"/>
+      <c r="B110" s="72"/>
+      <c r="C110" s="73"/>
+      <c r="D110" s="73"/>
+      <c r="E110" s="73"/>
+      <c r="F110" s="74"/>
+      <c r="G110" s="74"/>
     </row>
     <row r="111" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A111" s="70"/>
-      <c r="B111" s="71"/>
-      <c r="C111" s="72"/>
-      <c r="D111" s="72"/>
-      <c r="E111" s="72"/>
-      <c r="F111" s="73"/>
-      <c r="G111" s="73"/>
+      <c r="A111" s="71"/>
+      <c r="B111" s="72"/>
+      <c r="C111" s="73"/>
+      <c r="D111" s="73"/>
+      <c r="E111" s="73"/>
+      <c r="F111" s="74"/>
+      <c r="G111" s="74"/>
     </row>
     <row r="112" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A112" s="70"/>
-      <c r="B112" s="71"/>
-      <c r="C112" s="72"/>
-      <c r="D112" s="72"/>
-      <c r="E112" s="72"/>
-      <c r="F112" s="73"/>
-      <c r="G112" s="73"/>
+      <c r="A112" s="71"/>
+      <c r="B112" s="72"/>
+      <c r="C112" s="73"/>
+      <c r="D112" s="73"/>
+      <c r="E112" s="73"/>
+      <c r="F112" s="74"/>
+      <c r="G112" s="74"/>
     </row>
     <row r="113" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A113" s="70"/>
-      <c r="B113" s="71"/>
-      <c r="C113" s="72"/>
-      <c r="D113" s="72"/>
-      <c r="E113" s="72"/>
-      <c r="F113" s="73"/>
-      <c r="G113" s="73"/>
+      <c r="A113" s="71"/>
+      <c r="B113" s="72"/>
+      <c r="C113" s="73"/>
+      <c r="D113" s="73"/>
+      <c r="E113" s="73"/>
+      <c r="F113" s="74"/>
+      <c r="G113" s="74"/>
     </row>
     <row r="114" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A114" s="70"/>
-      <c r="B114" s="71"/>
-      <c r="C114" s="72"/>
-      <c r="D114" s="72"/>
-      <c r="E114" s="72"/>
-      <c r="F114" s="73"/>
-      <c r="G114" s="73"/>
+      <c r="A114" s="71"/>
+      <c r="B114" s="72"/>
+      <c r="C114" s="73"/>
+      <c r="D114" s="73"/>
+      <c r="E114" s="73"/>
+      <c r="F114" s="74"/>
+      <c r="G114" s="74"/>
     </row>
     <row r="115" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A115" s="70"/>
-      <c r="B115" s="71"/>
-      <c r="C115" s="72"/>
-      <c r="D115" s="72"/>
-      <c r="E115" s="72"/>
-      <c r="F115" s="73"/>
-      <c r="G115" s="73"/>
+      <c r="A115" s="71"/>
+      <c r="B115" s="72"/>
+      <c r="C115" s="73"/>
+      <c r="D115" s="73"/>
+      <c r="E115" s="73"/>
+      <c r="F115" s="74"/>
+      <c r="G115" s="74"/>
     </row>
     <row r="116" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A116" s="70"/>
-      <c r="B116" s="71"/>
-      <c r="C116" s="72"/>
-      <c r="D116" s="72"/>
-      <c r="E116" s="72"/>
-      <c r="F116" s="73"/>
-      <c r="G116" s="73"/>
+      <c r="A116" s="71"/>
+      <c r="B116" s="72"/>
+      <c r="C116" s="73"/>
+      <c r="D116" s="73"/>
+      <c r="E116" s="73"/>
+      <c r="F116" s="74"/>
+      <c r="G116" s="74"/>
     </row>
     <row r="117" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A117" s="70"/>
-      <c r="B117" s="71"/>
-      <c r="C117" s="72"/>
-      <c r="D117" s="72"/>
-      <c r="E117" s="72"/>
-      <c r="F117" s="73"/>
-      <c r="G117" s="73"/>
+      <c r="A117" s="71"/>
+      <c r="B117" s="72"/>
+      <c r="C117" s="73"/>
+      <c r="D117" s="73"/>
+      <c r="E117" s="73"/>
+      <c r="F117" s="74"/>
+      <c r="G117" s="74"/>
     </row>
     <row r="118" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A118" s="70"/>
-      <c r="B118" s="71"/>
-      <c r="C118" s="72"/>
-      <c r="D118" s="72"/>
-      <c r="E118" s="72"/>
-      <c r="F118" s="73"/>
-      <c r="G118" s="73"/>
+      <c r="A118" s="71"/>
+      <c r="B118" s="72"/>
+      <c r="C118" s="73"/>
+      <c r="D118" s="73"/>
+      <c r="E118" s="73"/>
+      <c r="F118" s="74"/>
+      <c r="G118" s="74"/>
     </row>
     <row r="119" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A119" s="70"/>
-      <c r="B119" s="71"/>
-      <c r="C119" s="72"/>
-      <c r="D119" s="72"/>
-      <c r="E119" s="72"/>
-      <c r="F119" s="73"/>
-      <c r="G119" s="73"/>
+      <c r="A119" s="71"/>
+      <c r="B119" s="72"/>
+      <c r="C119" s="73"/>
+      <c r="D119" s="73"/>
+      <c r="E119" s="73"/>
+      <c r="F119" s="74"/>
+      <c r="G119" s="74"/>
     </row>
     <row r="120" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A120" s="70"/>
-      <c r="B120" s="71"/>
-      <c r="C120" s="72"/>
-      <c r="D120" s="72"/>
-      <c r="E120" s="72"/>
-      <c r="F120" s="73"/>
-      <c r="G120" s="73"/>
+      <c r="A120" s="71"/>
+      <c r="B120" s="72"/>
+      <c r="C120" s="73"/>
+      <c r="D120" s="73"/>
+      <c r="E120" s="73"/>
+      <c r="F120" s="74"/>
+      <c r="G120" s="74"/>
     </row>
     <row r="121" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A121" s="70"/>
-      <c r="B121" s="71"/>
-      <c r="C121" s="72"/>
-      <c r="D121" s="72"/>
-      <c r="E121" s="72"/>
-      <c r="F121" s="73"/>
-      <c r="G121" s="73"/>
+      <c r="A121" s="71"/>
+      <c r="B121" s="72"/>
+      <c r="C121" s="73"/>
+      <c r="D121" s="73"/>
+      <c r="E121" s="73"/>
+      <c r="F121" s="74"/>
+      <c r="G121" s="74"/>
     </row>
     <row r="122" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A122" s="70"/>
-      <c r="B122" s="71"/>
-      <c r="C122" s="72"/>
-      <c r="D122" s="72"/>
-      <c r="E122" s="72"/>
-      <c r="F122" s="73"/>
-      <c r="G122" s="73"/>
+      <c r="A122" s="71"/>
+      <c r="B122" s="72"/>
+      <c r="C122" s="73"/>
+      <c r="D122" s="73"/>
+      <c r="E122" s="73"/>
+      <c r="F122" s="74"/>
+      <c r="G122" s="74"/>
     </row>
     <row r="123" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A123" s="70"/>
-      <c r="B123" s="71"/>
-      <c r="C123" s="72"/>
-      <c r="D123" s="72"/>
-      <c r="E123" s="72"/>
-      <c r="F123" s="73"/>
-      <c r="G123" s="73"/>
+      <c r="A123" s="71"/>
+      <c r="B123" s="72"/>
+      <c r="C123" s="73"/>
+      <c r="D123" s="73"/>
+      <c r="E123" s="73"/>
+      <c r="F123" s="74"/>
+      <c r="G123" s="74"/>
     </row>
     <row r="124" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A124" s="70"/>
-      <c r="B124" s="71"/>
-      <c r="C124" s="72"/>
-      <c r="D124" s="72"/>
-      <c r="E124" s="72"/>
-      <c r="F124" s="73"/>
-      <c r="G124" s="73"/>
+      <c r="A124" s="71"/>
+      <c r="B124" s="72"/>
+      <c r="C124" s="73"/>
+      <c r="D124" s="73"/>
+      <c r="E124" s="73"/>
+      <c r="F124" s="74"/>
+      <c r="G124" s="74"/>
     </row>
     <row r="125" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A125" s="70"/>
-      <c r="B125" s="71"/>
-      <c r="C125" s="72"/>
-      <c r="D125" s="72"/>
-      <c r="E125" s="72"/>
-      <c r="F125" s="73"/>
-      <c r="G125" s="73"/>
+      <c r="A125" s="71"/>
+      <c r="B125" s="72"/>
+      <c r="C125" s="73"/>
+      <c r="D125" s="73"/>
+      <c r="E125" s="73"/>
+      <c r="F125" s="74"/>
+      <c r="G125" s="74"/>
     </row>
     <row r="126" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A126" s="70"/>
-      <c r="B126" s="71"/>
-      <c r="C126" s="72"/>
-      <c r="D126" s="72"/>
-      <c r="E126" s="72"/>
-      <c r="F126" s="73"/>
-      <c r="G126" s="73"/>
+      <c r="A126" s="71"/>
+      <c r="B126" s="72"/>
+      <c r="C126" s="73"/>
+      <c r="D126" s="73"/>
+      <c r="E126" s="73"/>
+      <c r="F126" s="74"/>
+      <c r="G126" s="74"/>
     </row>
     <row r="127" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A127" s="70"/>
-      <c r="B127" s="71"/>
-      <c r="C127" s="72"/>
-      <c r="D127" s="72"/>
-      <c r="E127" s="72"/>
-      <c r="F127" s="73"/>
-      <c r="G127" s="73"/>
+      <c r="A127" s="71"/>
+      <c r="B127" s="72"/>
+      <c r="C127" s="73"/>
+      <c r="D127" s="73"/>
+      <c r="E127" s="73"/>
+      <c r="F127" s="74"/>
+      <c r="G127" s="74"/>
     </row>
     <row r="128" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A128" s="70"/>
-      <c r="B128" s="71"/>
-      <c r="C128" s="72"/>
-      <c r="D128" s="72"/>
-      <c r="E128" s="72"/>
-      <c r="F128" s="73"/>
-      <c r="G128" s="73"/>
+      <c r="A128" s="71"/>
+      <c r="B128" s="72"/>
+      <c r="C128" s="73"/>
+      <c r="D128" s="73"/>
+      <c r="E128" s="73"/>
+      <c r="F128" s="74"/>
+      <c r="G128" s="74"/>
     </row>
     <row r="129" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A129" s="70"/>
-      <c r="B129" s="71"/>
-      <c r="C129" s="72"/>
-      <c r="D129" s="72"/>
-      <c r="E129" s="72"/>
-      <c r="F129" s="73"/>
-      <c r="G129" s="73"/>
+      <c r="A129" s="71"/>
+      <c r="B129" s="72"/>
+      <c r="C129" s="73"/>
+      <c r="D129" s="73"/>
+      <c r="E129" s="73"/>
+      <c r="F129" s="74"/>
+      <c r="G129" s="74"/>
     </row>
     <row r="130" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A130" s="70"/>
-      <c r="B130" s="71"/>
-      <c r="C130" s="72"/>
-      <c r="D130" s="72"/>
-      <c r="E130" s="72"/>
-      <c r="F130" s="73"/>
-      <c r="G130" s="73"/>
+      <c r="A130" s="71"/>
+      <c r="B130" s="72"/>
+      <c r="C130" s="73"/>
+      <c r="D130" s="73"/>
+      <c r="E130" s="73"/>
+      <c r="F130" s="74"/>
+      <c r="G130" s="74"/>
     </row>
     <row r="131" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A131" s="70"/>
-      <c r="B131" s="71"/>
-      <c r="C131" s="72"/>
-      <c r="D131" s="72"/>
-      <c r="E131" s="72"/>
-      <c r="F131" s="73"/>
-      <c r="G131" s="73"/>
+      <c r="A131" s="71"/>
+      <c r="B131" s="72"/>
+      <c r="C131" s="73"/>
+      <c r="D131" s="73"/>
+      <c r="E131" s="73"/>
+      <c r="F131" s="74"/>
+      <c r="G131" s="74"/>
     </row>
     <row r="132" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A132" s="70"/>
-      <c r="B132" s="71"/>
-      <c r="C132" s="72"/>
-      <c r="D132" s="72"/>
-      <c r="E132" s="72"/>
-      <c r="F132" s="73"/>
-      <c r="G132" s="73"/>
+      <c r="A132" s="71"/>
+      <c r="B132" s="72"/>
+      <c r="C132" s="73"/>
+      <c r="D132" s="73"/>
+      <c r="E132" s="73"/>
+      <c r="F132" s="74"/>
+      <c r="G132" s="74"/>
     </row>
     <row r="133" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A133" s="70"/>
-      <c r="B133" s="71"/>
-      <c r="C133" s="72"/>
-      <c r="D133" s="72"/>
-      <c r="E133" s="72"/>
-      <c r="F133" s="73"/>
-      <c r="G133" s="73"/>
+      <c r="A133" s="71"/>
+      <c r="B133" s="72"/>
+      <c r="C133" s="73"/>
+      <c r="D133" s="73"/>
+      <c r="E133" s="73"/>
+      <c r="F133" s="74"/>
+      <c r="G133" s="74"/>
     </row>
     <row r="134" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A134" s="70"/>
-      <c r="B134" s="71"/>
-      <c r="C134" s="72"/>
-      <c r="D134" s="72"/>
-      <c r="E134" s="72"/>
-      <c r="F134" s="73"/>
-      <c r="G134" s="73"/>
+      <c r="A134" s="71"/>
+      <c r="B134" s="72"/>
+      <c r="C134" s="73"/>
+      <c r="D134" s="73"/>
+      <c r="E134" s="73"/>
+      <c r="F134" s="74"/>
+      <c r="G134" s="74"/>
     </row>
     <row r="135" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A135" s="70"/>
-      <c r="B135" s="71"/>
-      <c r="C135" s="72"/>
-      <c r="D135" s="72"/>
-      <c r="E135" s="72"/>
-      <c r="F135" s="73"/>
-      <c r="G135" s="73"/>
+      <c r="A135" s="71"/>
+      <c r="B135" s="72"/>
+      <c r="C135" s="73"/>
+      <c r="D135" s="73"/>
+      <c r="E135" s="73"/>
+      <c r="F135" s="74"/>
+      <c r="G135" s="74"/>
     </row>
     <row r="136" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A136" s="70"/>
-      <c r="B136" s="71"/>
-      <c r="C136" s="72"/>
-      <c r="D136" s="72"/>
-      <c r="E136" s="72"/>
-      <c r="F136" s="73"/>
-      <c r="G136" s="73"/>
+      <c r="A136" s="71"/>
+      <c r="B136" s="72"/>
+      <c r="C136" s="73"/>
+      <c r="D136" s="73"/>
+      <c r="E136" s="73"/>
+      <c r="F136" s="74"/>
+      <c r="G136" s="74"/>
     </row>
     <row r="137" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A137" s="70"/>
-      <c r="B137" s="71"/>
-      <c r="C137" s="72"/>
-      <c r="D137" s="72"/>
-      <c r="E137" s="72"/>
-      <c r="F137" s="73"/>
-      <c r="G137" s="73"/>
+      <c r="A137" s="71"/>
+      <c r="B137" s="72"/>
+      <c r="C137" s="73"/>
+      <c r="D137" s="73"/>
+      <c r="E137" s="73"/>
+      <c r="F137" s="74"/>
+      <c r="G137" s="74"/>
     </row>
     <row r="138" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A138" s="70"/>
-      <c r="B138" s="71"/>
-      <c r="C138" s="72"/>
-      <c r="D138" s="72"/>
-      <c r="E138" s="72"/>
-      <c r="F138" s="73"/>
-      <c r="G138" s="73"/>
+      <c r="A138" s="71"/>
+      <c r="B138" s="72"/>
+      <c r="C138" s="73"/>
+      <c r="D138" s="73"/>
+      <c r="E138" s="73"/>
+      <c r="F138" s="74"/>
+      <c r="G138" s="74"/>
     </row>
     <row r="139" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A139" s="70"/>
-      <c r="B139" s="71"/>
-      <c r="C139" s="72"/>
-      <c r="D139" s="72"/>
-      <c r="E139" s="72"/>
-      <c r="F139" s="73"/>
-      <c r="G139" s="73"/>
+      <c r="A139" s="71"/>
+      <c r="B139" s="72"/>
+      <c r="C139" s="73"/>
+      <c r="D139" s="73"/>
+      <c r="E139" s="73"/>
+      <c r="F139" s="74"/>
+      <c r="G139" s="74"/>
     </row>
     <row r="140" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A140" s="70"/>
-      <c r="B140" s="71"/>
-      <c r="C140" s="72"/>
-      <c r="D140" s="72"/>
-      <c r="E140" s="72"/>
-      <c r="F140" s="73"/>
-      <c r="G140" s="73"/>
+      <c r="A140" s="71"/>
+      <c r="B140" s="72"/>
+      <c r="C140" s="73"/>
+      <c r="D140" s="73"/>
+      <c r="E140" s="73"/>
+      <c r="F140" s="74"/>
+      <c r="G140" s="74"/>
     </row>
     <row r="141" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A141" s="70"/>
-      <c r="B141" s="71"/>
-      <c r="C141" s="72"/>
-      <c r="D141" s="72"/>
-      <c r="E141" s="72"/>
-      <c r="F141" s="73"/>
-      <c r="G141" s="73"/>
+      <c r="A141" s="71"/>
+      <c r="B141" s="72"/>
+      <c r="C141" s="73"/>
+      <c r="D141" s="73"/>
+      <c r="E141" s="73"/>
+      <c r="F141" s="74"/>
+      <c r="G141" s="74"/>
     </row>
     <row r="142" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A142" s="70"/>
-      <c r="B142" s="71"/>
-      <c r="C142" s="72"/>
-      <c r="D142" s="72"/>
-      <c r="E142" s="72"/>
-      <c r="F142" s="73"/>
-      <c r="G142" s="73"/>
+      <c r="A142" s="71"/>
+      <c r="B142" s="72"/>
+      <c r="C142" s="73"/>
+      <c r="D142" s="73"/>
+      <c r="E142" s="73"/>
+      <c r="F142" s="74"/>
+      <c r="G142" s="74"/>
     </row>
     <row r="143" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A143" s="70"/>
-      <c r="B143" s="71"/>
-      <c r="C143" s="72"/>
-      <c r="D143" s="72"/>
-      <c r="E143" s="72"/>
-      <c r="F143" s="73"/>
-      <c r="G143" s="73"/>
+      <c r="A143" s="71"/>
+      <c r="B143" s="72"/>
+      <c r="C143" s="73"/>
+      <c r="D143" s="73"/>
+      <c r="E143" s="73"/>
+      <c r="F143" s="74"/>
+      <c r="G143" s="74"/>
     </row>
     <row r="144" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A144" s="70"/>
-      <c r="B144" s="71"/>
-      <c r="C144" s="72"/>
-      <c r="D144" s="72"/>
-      <c r="E144" s="72"/>
-      <c r="F144" s="73"/>
-      <c r="G144" s="73"/>
+      <c r="A144" s="71"/>
+      <c r="B144" s="72"/>
+      <c r="C144" s="73"/>
+      <c r="D144" s="73"/>
+      <c r="E144" s="73"/>
+      <c r="F144" s="74"/>
+      <c r="G144" s="74"/>
     </row>
     <row r="145" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A145" s="70"/>
-      <c r="B145" s="71"/>
-      <c r="C145" s="72"/>
-      <c r="D145" s="72"/>
-      <c r="E145" s="72"/>
-      <c r="F145" s="73"/>
-      <c r="G145" s="73"/>
+      <c r="A145" s="71"/>
+      <c r="B145" s="72"/>
+      <c r="C145" s="73"/>
+      <c r="D145" s="73"/>
+      <c r="E145" s="73"/>
+      <c r="F145" s="74"/>
+      <c r="G145" s="74"/>
     </row>
     <row r="146" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A146" s="70"/>
-      <c r="B146" s="71"/>
-      <c r="C146" s="72"/>
-      <c r="D146" s="72"/>
-      <c r="E146" s="72"/>
-      <c r="F146" s="73"/>
-      <c r="G146" s="73"/>
+      <c r="A146" s="71"/>
+      <c r="B146" s="72"/>
+      <c r="C146" s="73"/>
+      <c r="D146" s="73"/>
+      <c r="E146" s="73"/>
+      <c r="F146" s="74"/>
+      <c r="G146" s="74"/>
     </row>
     <row r="147" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A147" s="70"/>
-      <c r="B147" s="71"/>
-      <c r="C147" s="72"/>
-      <c r="D147" s="72"/>
-      <c r="E147" s="72"/>
-      <c r="F147" s="73"/>
-      <c r="G147" s="73"/>
+      <c r="A147" s="71"/>
+      <c r="B147" s="72"/>
+      <c r="C147" s="73"/>
+      <c r="D147" s="73"/>
+      <c r="E147" s="73"/>
+      <c r="F147" s="74"/>
+      <c r="G147" s="74"/>
     </row>
     <row r="148" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A148" s="70"/>
-      <c r="B148" s="71"/>
-      <c r="C148" s="71"/>
-      <c r="D148" s="71"/>
-      <c r="E148" s="71"/>
-      <c r="F148" s="73"/>
-      <c r="G148" s="73"/>
+      <c r="A148" s="71"/>
+      <c r="B148" s="72"/>
+      <c r="C148" s="72"/>
+      <c r="D148" s="72"/>
+      <c r="E148" s="72"/>
+      <c r="F148" s="74"/>
+      <c r="G148" s="74"/>
     </row>
     <row r="149" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A149" s="70"/>
-      <c r="B149" s="71"/>
-      <c r="C149" s="71"/>
-      <c r="D149" s="71"/>
-      <c r="E149" s="71"/>
-      <c r="F149" s="73"/>
-      <c r="G149" s="73"/>
+      <c r="A149" s="71"/>
+      <c r="B149" s="72"/>
+      <c r="C149" s="72"/>
+      <c r="D149" s="72"/>
+      <c r="E149" s="72"/>
+      <c r="F149" s="74"/>
+      <c r="G149" s="74"/>
     </row>
     <row r="150" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A150" s="70"/>
-      <c r="B150" s="71"/>
-      <c r="C150" s="71"/>
-      <c r="D150" s="71"/>
-      <c r="E150" s="71"/>
-      <c r="F150" s="73"/>
-      <c r="G150" s="73"/>
+      <c r="A150" s="71"/>
+      <c r="B150" s="72"/>
+      <c r="C150" s="72"/>
+      <c r="D150" s="72"/>
+      <c r="E150" s="72"/>
+      <c r="F150" s="74"/>
+      <c r="G150" s="74"/>
     </row>
     <row r="151" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A151" s="70"/>
-      <c r="B151" s="71"/>
-      <c r="C151" s="71"/>
-      <c r="D151" s="71"/>
-      <c r="E151" s="71"/>
-      <c r="F151" s="73"/>
-      <c r="G151" s="73"/>
+      <c r="A151" s="71"/>
+      <c r="B151" s="72"/>
+      <c r="C151" s="72"/>
+      <c r="D151" s="72"/>
+      <c r="E151" s="72"/>
+      <c r="F151" s="74"/>
+      <c r="G151" s="74"/>
     </row>
     <row r="152" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A152" s="70"/>
-      <c r="B152" s="71"/>
-      <c r="C152" s="71"/>
-      <c r="D152" s="71"/>
-      <c r="E152" s="71"/>
-      <c r="F152" s="73"/>
-      <c r="G152" s="73"/>
+      <c r="A152" s="71"/>
+      <c r="B152" s="72"/>
+      <c r="C152" s="72"/>
+      <c r="D152" s="72"/>
+      <c r="E152" s="72"/>
+      <c r="F152" s="74"/>
+      <c r="G152" s="74"/>
     </row>
     <row r="153" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A153" s="70"/>
-      <c r="B153" s="71"/>
-      <c r="C153" s="71"/>
-      <c r="D153" s="71"/>
-      <c r="E153" s="71"/>
-      <c r="F153" s="73"/>
-      <c r="G153" s="73"/>
+      <c r="A153" s="71"/>
+      <c r="B153" s="72"/>
+      <c r="C153" s="72"/>
+      <c r="D153" s="72"/>
+      <c r="E153" s="72"/>
+      <c r="F153" s="74"/>
+      <c r="G153" s="74"/>
     </row>
     <row r="154" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A154" s="70"/>
-      <c r="B154" s="71"/>
-      <c r="C154" s="71"/>
-      <c r="D154" s="71"/>
-      <c r="E154" s="71"/>
-      <c r="F154" s="73"/>
-      <c r="G154" s="73"/>
+      <c r="A154" s="71"/>
+      <c r="B154" s="72"/>
+      <c r="C154" s="72"/>
+      <c r="D154" s="72"/>
+      <c r="E154" s="72"/>
+      <c r="F154" s="74"/>
+      <c r="G154" s="74"/>
     </row>
     <row r="155" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A155" s="70"/>
-      <c r="B155" s="71"/>
-      <c r="C155" s="71"/>
-      <c r="D155" s="71"/>
-      <c r="E155" s="71"/>
-      <c r="F155" s="73"/>
-      <c r="G155" s="73"/>
+      <c r="A155" s="71"/>
+      <c r="B155" s="72"/>
+      <c r="C155" s="72"/>
+      <c r="D155" s="72"/>
+      <c r="E155" s="72"/>
+      <c r="F155" s="74"/>
+      <c r="G155" s="74"/>
     </row>
     <row r="156" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A156" s="70"/>
-      <c r="B156" s="71"/>
-      <c r="C156" s="71"/>
-      <c r="D156" s="71"/>
-      <c r="E156" s="71"/>
-      <c r="F156" s="73"/>
-      <c r="G156" s="73"/>
+      <c r="A156" s="71"/>
+      <c r="B156" s="72"/>
+      <c r="C156" s="72"/>
+      <c r="D156" s="72"/>
+      <c r="E156" s="72"/>
+      <c r="F156" s="74"/>
+      <c r="G156" s="74"/>
     </row>
     <row r="157" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A157" s="70"/>
-      <c r="B157" s="71"/>
-      <c r="C157" s="71"/>
-      <c r="D157" s="71"/>
-      <c r="E157" s="71"/>
-      <c r="F157" s="73"/>
-      <c r="G157" s="73"/>
+      <c r="A157" s="71"/>
+      <c r="B157" s="72"/>
+      <c r="C157" s="72"/>
+      <c r="D157" s="72"/>
+      <c r="E157" s="72"/>
+      <c r="F157" s="74"/>
+      <c r="G157" s="74"/>
     </row>
     <row r="158" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A158" s="70"/>
-      <c r="B158" s="71"/>
-      <c r="C158" s="71"/>
-      <c r="D158" s="71"/>
-      <c r="E158" s="71"/>
-      <c r="F158" s="73"/>
-      <c r="G158" s="73"/>
+      <c r="A158" s="71"/>
+      <c r="B158" s="72"/>
+      <c r="C158" s="72"/>
+      <c r="D158" s="72"/>
+      <c r="E158" s="72"/>
+      <c r="F158" s="74"/>
+      <c r="G158" s="74"/>
     </row>
     <row r="159" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="B159" s="2"/>
-      <c r="G159" s="73"/>
+      <c r="G159" s="74"/>
     </row>
     <row r="160" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="B160" s="2"/>
-      <c r="G160" s="73"/>
+      <c r="G160" s="74"/>
     </row>
     <row r="161" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="B161" s="2"/>

--- a/pw.xlsx
+++ b/pw.xlsx
@@ -20,7 +20,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="89" uniqueCount="87">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="92" uniqueCount="90">
   <si>
     <t xml:space="preserve">Label</t>
   </si>
@@ -46,6 +46,9 @@
     <t xml:space="preserve">Total</t>
   </si>
   <si>
+    <t xml:space="preserve">Modified</t>
+  </si>
+  <si>
     <t xml:space="preserve">door point 1 Left bottom</t>
   </si>
   <si>
@@ -218,6 +221,12 @@
   </si>
   <si>
     <t xml:space="preserve">Landing Pad Right Forward</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Landing Pad Hatch opening door corner left</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Landing Pad Hatch opening door corner right</t>
   </si>
   <si>
     <t xml:space="preserve">A Square LF</t>
@@ -292,7 +301,7 @@
     <numFmt numFmtId="165" formatCode="0.000"/>
     <numFmt numFmtId="166" formatCode="General"/>
   </numFmts>
-  <fonts count="7">
+  <fonts count="6">
     <font>
       <sz val="11"/>
       <color rgb="FF000000"/>
@@ -330,14 +339,8 @@
       <family val="2"/>
       <charset val="1"/>
     </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FF000000"/>
-      <name val="Calibri"/>
-      <family val="2"/>
-    </font>
   </fonts>
-  <fills count="22">
+  <fills count="23">
     <fill>
       <patternFill patternType="none"/>
     </fill>
@@ -454,6 +457,12 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
+        <fgColor rgb="FFFFFF38"/>
+        <bgColor rgb="FFD4EA6B"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
         <fgColor rgb="FFFFA6A6"/>
         <bgColor rgb="FFFFB66C"/>
       </patternFill>
@@ -515,7 +524,7 @@
       <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
     </xf>
   </cellStyleXfs>
-  <cellXfs count="75">
+  <cellXfs count="79">
     <xf numFmtId="164" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="false" applyBorder="false" applyAlignment="false" applyProtection="false">
       <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
@@ -552,6 +561,10 @@
       <alignment horizontal="center" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
     </xf>
+    <xf numFmtId="164" fontId="4" fillId="0" borderId="0" xfId="0" applyFont="true" applyBorder="false" applyAlignment="false" applyProtection="false">
+      <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
+      <protection locked="true" hidden="false"/>
+    </xf>
     <xf numFmtId="164" fontId="5" fillId="7" borderId="1" xfId="0" applyFont="true" applyBorder="true" applyAlignment="false" applyProtection="false">
       <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
@@ -568,7 +581,7 @@
       <alignment horizontal="center" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
     </xf>
-    <xf numFmtId="166" fontId="6" fillId="0" borderId="0" xfId="0" applyFont="true" applyBorder="false" applyAlignment="false" applyProtection="false">
+    <xf numFmtId="166" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="true" applyBorder="false" applyAlignment="false" applyProtection="false">
       <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
     </xf>
@@ -780,10 +793,6 @@
       <alignment horizontal="center" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
     </xf>
-    <xf numFmtId="164" fontId="0" fillId="20" borderId="1" xfId="0" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="false">
-      <alignment horizontal="center" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
-      <protection locked="true" hidden="false"/>
-    </xf>
     <xf numFmtId="164" fontId="5" fillId="21" borderId="1" xfId="0" applyFont="true" applyBorder="true" applyAlignment="false" applyProtection="false">
       <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
@@ -797,6 +806,22 @@
       <protection locked="true" hidden="false"/>
     </xf>
     <xf numFmtId="164" fontId="0" fillId="21" borderId="1" xfId="0" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="false">
+      <alignment horizontal="center" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
+      <protection locked="true" hidden="false"/>
+    </xf>
+    <xf numFmtId="164" fontId="5" fillId="22" borderId="1" xfId="0" applyFont="true" applyBorder="true" applyAlignment="false" applyProtection="false">
+      <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
+      <protection locked="true" hidden="false"/>
+    </xf>
+    <xf numFmtId="164" fontId="5" fillId="22" borderId="1" xfId="0" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="false">
+      <alignment horizontal="center" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
+      <protection locked="true" hidden="false"/>
+    </xf>
+    <xf numFmtId="165" fontId="5" fillId="22" borderId="1" xfId="0" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="false">
+      <alignment horizontal="center" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
+      <protection locked="true" hidden="false"/>
+    </xf>
+    <xf numFmtId="164" fontId="0" fillId="22" borderId="1" xfId="0" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="false">
       <alignment horizontal="center" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
     </xf>
@@ -851,7 +876,7 @@
       <rgbColor rgb="FFFF0000"/>
       <rgbColor rgb="FF00FF00"/>
       <rgbColor rgb="FF0000FF"/>
-      <rgbColor rgb="FFD4EA6B"/>
+      <rgbColor rgb="FFFFFF38"/>
       <rgbColor rgb="FFFF00FF"/>
       <rgbColor rgb="FF00FFFF"/>
       <rgbColor rgb="FF800000"/>
@@ -872,7 +897,7 @@
       <rgbColor rgb="FFB4C7DC"/>
       <rgbColor rgb="FF000080"/>
       <rgbColor rgb="FFFF00FF"/>
-      <rgbColor rgb="FFFFFF00"/>
+      <rgbColor rgb="FFD4EA6B"/>
       <rgbColor rgb="FF00FFFF"/>
       <rgbColor rgb="FF800080"/>
       <rgbColor rgb="FF800000"/>
@@ -912,13 +937,13 @@
   <sheetPr filterMode="false">
     <pageSetUpPr fitToPage="false"/>
   </sheetPr>
-  <dimension ref="A1:I1158"/>
+  <dimension ref="A1:I1160"/>
   <sheetViews>
-    <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="true" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A1" colorId="64" zoomScale="100" zoomScaleNormal="100" zoomScalePageLayoutView="100" workbookViewId="0">
-      <selection pane="topLeft" activeCell="G16" activeCellId="0" sqref="G16"/>
+    <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="true" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A28" colorId="64" zoomScale="100" zoomScaleNormal="100" zoomScalePageLayoutView="100" workbookViewId="0">
+      <selection pane="topLeft" activeCell="M57" activeCellId="0" sqref="M57"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="8.82421875" defaultRowHeight="13.8" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
+  <sheetFormatPr defaultColWidth="8.859375" defaultRowHeight="13.8" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
   <cols>
     <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="1" min="1" style="0" width="34.73"/>
     <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="2" min="2" style="1" width="11.11"/>
@@ -952,1695 +977,1692 @@
       <c r="H1" s="8" t="s">
         <v>7</v>
       </c>
+      <c r="I1" s="9" t="s">
+        <v>8</v>
+      </c>
     </row>
     <row r="2" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A2" s="9" t="s">
-        <v>8</v>
-      </c>
-      <c r="B2" s="10" t="n">
+      <c r="A2" s="10" t="s">
+        <v>9</v>
+      </c>
+      <c r="B2" s="11" t="n">
         <v>1</v>
       </c>
-      <c r="C2" s="11" t="n">
+      <c r="C2" s="12" t="n">
         <v>-1.83</v>
       </c>
-      <c r="D2" s="11" t="n">
+      <c r="D2" s="12" t="n">
         <v>2.775</v>
       </c>
-      <c r="E2" s="11" t="n">
-        <v>0</v>
-      </c>
-      <c r="F2" s="12" t="n">
+      <c r="E2" s="12" t="n">
+        <v>0</v>
+      </c>
+      <c r="F2" s="13" t="n">
         <v>1</v>
       </c>
-      <c r="G2" s="12" t="n">
-        <v>0</v>
-      </c>
-      <c r="H2" s="13" t="n">
-        <f aca="false">SUM(F2:F82)</f>
-        <v>28</v>
+      <c r="G2" s="13" t="n">
+        <v>0</v>
+      </c>
+      <c r="H2" s="14" t="n">
+        <f aca="false">SUM(F2:F84)</f>
+        <v>19</v>
+      </c>
+      <c r="I2" s="0" t="n">
+        <f aca="false">MAX(G2:G162)</f>
+        <v>0</v>
       </c>
     </row>
     <row r="3" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A3" s="14" t="s">
-        <v>9</v>
-      </c>
-      <c r="B3" s="15" t="n">
+      <c r="A3" s="15" t="s">
+        <v>10</v>
+      </c>
+      <c r="B3" s="16" t="n">
         <v>2</v>
       </c>
-      <c r="C3" s="16" t="n">
+      <c r="C3" s="17" t="n">
         <v>-1.83</v>
       </c>
-      <c r="D3" s="16" t="n">
+      <c r="D3" s="17" t="n">
         <v>2.775</v>
       </c>
-      <c r="E3" s="16" t="n">
+      <c r="E3" s="17" t="n">
         <v>0.365</v>
       </c>
-      <c r="F3" s="17" t="n">
-        <v>1</v>
-      </c>
-      <c r="G3" s="17" t="n">
-        <v>0</v>
-      </c>
-      <c r="I3" s="18"/>
+      <c r="F3" s="18" t="n">
+        <v>0</v>
+      </c>
+      <c r="G3" s="18" t="n">
+        <v>0</v>
+      </c>
+      <c r="I3" s="19"/>
     </row>
     <row r="4" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A4" s="14" t="s">
-        <v>10</v>
-      </c>
-      <c r="B4" s="15" t="n">
+      <c r="A4" s="15" t="s">
+        <v>11</v>
+      </c>
+      <c r="B4" s="16" t="n">
         <v>3</v>
       </c>
-      <c r="C4" s="16" t="n">
+      <c r="C4" s="17" t="n">
         <v>-1.83</v>
       </c>
-      <c r="D4" s="16" t="n">
+      <c r="D4" s="17" t="n">
         <v>2.775</v>
       </c>
-      <c r="E4" s="16" t="n">
+      <c r="E4" s="17" t="n">
         <f aca="false">E3+0.36</f>
         <v>0.725</v>
       </c>
-      <c r="F4" s="17" t="n">
-        <v>1</v>
-      </c>
-      <c r="G4" s="17" t="n">
+      <c r="F4" s="18" t="n">
+        <v>0</v>
+      </c>
+      <c r="G4" s="18" t="n">
         <v>0</v>
       </c>
     </row>
     <row r="5" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A5" s="14" t="s">
-        <v>11</v>
-      </c>
-      <c r="B5" s="15" t="n">
+      <c r="A5" s="15" t="s">
+        <v>12</v>
+      </c>
+      <c r="B5" s="16" t="n">
         <v>4</v>
       </c>
-      <c r="C5" s="16" t="n">
+      <c r="C5" s="17" t="n">
         <v>-1.83</v>
       </c>
-      <c r="D5" s="16" t="n">
+      <c r="D5" s="17" t="n">
         <v>2.775</v>
       </c>
-      <c r="E5" s="16" t="n">
+      <c r="E5" s="17" t="n">
         <f aca="false">E4+0.36</f>
         <v>1.085</v>
       </c>
-      <c r="F5" s="17" t="n">
-        <v>0</v>
-      </c>
-      <c r="G5" s="17" t="n">
+      <c r="F5" s="18" t="n">
+        <v>0</v>
+      </c>
+      <c r="G5" s="18" t="n">
         <v>0</v>
       </c>
     </row>
     <row r="6" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A6" s="9" t="s">
-        <v>12</v>
-      </c>
-      <c r="B6" s="10" t="n">
+      <c r="A6" s="10" t="s">
+        <v>13</v>
+      </c>
+      <c r="B6" s="11" t="n">
         <v>5</v>
       </c>
-      <c r="C6" s="11" t="n">
+      <c r="C6" s="12" t="n">
         <v>-1.83</v>
       </c>
-      <c r="D6" s="11" t="n">
+      <c r="D6" s="12" t="n">
         <v>2.775</v>
       </c>
-      <c r="E6" s="11" t="n">
+      <c r="E6" s="12" t="n">
         <f aca="false">E5+0.345</f>
         <v>1.43</v>
       </c>
-      <c r="F6" s="12" t="n">
-        <v>0</v>
-      </c>
-      <c r="G6" s="12" t="n">
+      <c r="F6" s="13" t="n">
+        <v>0</v>
+      </c>
+      <c r="G6" s="13" t="n">
         <v>0</v>
       </c>
     </row>
     <row r="7" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A7" s="14" t="s">
-        <v>13</v>
-      </c>
-      <c r="B7" s="15" t="n">
+      <c r="A7" s="15" t="s">
+        <v>14</v>
+      </c>
+      <c r="B7" s="16" t="n">
         <v>6</v>
       </c>
-      <c r="C7" s="16" t="n">
+      <c r="C7" s="17" t="n">
         <f aca="false">C6+0.195</f>
         <v>-1.635</v>
       </c>
-      <c r="D7" s="16" t="n">
+      <c r="D7" s="17" t="n">
         <v>2.775</v>
       </c>
-      <c r="E7" s="16" t="n">
+      <c r="E7" s="17" t="n">
         <v>1.43</v>
       </c>
-      <c r="F7" s="17" t="n">
-        <v>1</v>
-      </c>
-      <c r="G7" s="17" t="n">
+      <c r="F7" s="18" t="n">
+        <v>0</v>
+      </c>
+      <c r="G7" s="18" t="n">
         <v>0</v>
       </c>
     </row>
     <row r="8" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A8" s="14" t="s">
-        <v>14</v>
-      </c>
-      <c r="B8" s="15" t="n">
+      <c r="A8" s="15" t="s">
+        <v>15</v>
+      </c>
+      <c r="B8" s="16" t="n">
         <v>7</v>
       </c>
-      <c r="C8" s="16" t="n">
+      <c r="C8" s="17" t="n">
         <f aca="false">C7+0.205</f>
         <v>-1.43</v>
       </c>
-      <c r="D8" s="16" t="n">
+      <c r="D8" s="17" t="n">
         <v>2.775</v>
       </c>
-      <c r="E8" s="16" t="n">
+      <c r="E8" s="17" t="n">
         <v>1.43</v>
       </c>
-      <c r="F8" s="17" t="n">
+      <c r="F8" s="18" t="n">
+        <v>0</v>
+      </c>
+      <c r="G8" s="18" t="n">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="9" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A9" s="15" t="s">
+        <v>16</v>
+      </c>
+      <c r="B9" s="16" t="n">
+        <v>8</v>
+      </c>
+      <c r="C9" s="17" t="n">
+        <v>-1.43</v>
+      </c>
+      <c r="D9" s="17" t="n">
+        <v>2.775</v>
+      </c>
+      <c r="E9" s="17" t="n">
+        <v>1.53</v>
+      </c>
+      <c r="F9" s="18" t="n">
+        <v>0</v>
+      </c>
+      <c r="G9" s="18" t="n">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="10" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A10" s="15" t="s">
+        <v>17</v>
+      </c>
+      <c r="B10" s="16" t="n">
+        <v>9</v>
+      </c>
+      <c r="C10" s="17" t="n">
+        <v>-1.22</v>
+      </c>
+      <c r="D10" s="17" t="n">
+        <v>2.775</v>
+      </c>
+      <c r="E10" s="17" t="n">
+        <v>1.43</v>
+      </c>
+      <c r="F10" s="18" t="n">
+        <v>0</v>
+      </c>
+      <c r="G10" s="18" t="n">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="11" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A11" s="10" t="s">
+        <v>18</v>
+      </c>
+      <c r="B11" s="11" t="n">
+        <v>10</v>
+      </c>
+      <c r="C11" s="12" t="n">
+        <v>-1.015</v>
+      </c>
+      <c r="D11" s="12" t="n">
+        <v>2.775</v>
+      </c>
+      <c r="E11" s="12" t="n">
+        <v>1.43</v>
+      </c>
+      <c r="F11" s="13" t="n">
         <v>1</v>
       </c>
-      <c r="G8" s="17" t="n">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="9" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A9" s="14" t="s">
-        <v>15</v>
-      </c>
-      <c r="B9" s="15" t="n">
-        <v>8</v>
-      </c>
-      <c r="C9" s="16" t="n">
-        <v>-1.43</v>
-      </c>
-      <c r="D9" s="16" t="n">
+      <c r="G11" s="13" t="n">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="12" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A12" s="15" t="s">
+        <v>19</v>
+      </c>
+      <c r="B12" s="16" t="n">
+        <v>11</v>
+      </c>
+      <c r="C12" s="17" t="n">
+        <v>-1.015</v>
+      </c>
+      <c r="D12" s="17" t="n">
         <v>2.775</v>
       </c>
-      <c r="E9" s="16" t="n">
-        <v>1.53</v>
-      </c>
-      <c r="F9" s="17" t="n">
-        <v>1</v>
-      </c>
-      <c r="G9" s="17" t="n">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="10" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A10" s="14" t="s">
-        <v>16</v>
-      </c>
-      <c r="B10" s="15" t="n">
-        <v>9</v>
-      </c>
-      <c r="C10" s="16" t="n">
-        <v>-1.22</v>
-      </c>
-      <c r="D10" s="16" t="n">
-        <v>2.775</v>
-      </c>
-      <c r="E10" s="16" t="n">
-        <v>1.43</v>
-      </c>
-      <c r="F10" s="17" t="n">
-        <v>1</v>
-      </c>
-      <c r="G10" s="17" t="n">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="11" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A11" s="9" t="s">
-        <v>17</v>
-      </c>
-      <c r="B11" s="10" t="n">
-        <v>10</v>
-      </c>
-      <c r="C11" s="11" t="n">
-        <v>-1.015</v>
-      </c>
-      <c r="D11" s="11" t="n">
-        <v>2.775</v>
-      </c>
-      <c r="E11" s="11" t="n">
-        <v>1.43</v>
-      </c>
-      <c r="F11" s="12" t="n">
-        <v>1</v>
-      </c>
-      <c r="G11" s="12" t="n">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="12" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A12" s="14" t="s">
-        <v>18</v>
-      </c>
-      <c r="B12" s="15" t="n">
-        <v>11</v>
-      </c>
-      <c r="C12" s="16" t="n">
-        <v>-1.015</v>
-      </c>
-      <c r="D12" s="16" t="n">
-        <v>2.775</v>
-      </c>
-      <c r="E12" s="16" t="n">
+      <c r="E12" s="17" t="n">
         <f aca="false">E11-0.34</f>
         <v>1.09</v>
       </c>
-      <c r="F12" s="17" t="n">
-        <v>0</v>
-      </c>
-      <c r="G12" s="17" t="n">
+      <c r="F12" s="18" t="n">
+        <v>0</v>
+      </c>
+      <c r="G12" s="18" t="n">
         <v>0</v>
       </c>
     </row>
     <row r="13" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A13" s="14" t="s">
-        <v>18</v>
-      </c>
-      <c r="B13" s="15" t="n">
+      <c r="A13" s="15" t="s">
+        <v>19</v>
+      </c>
+      <c r="B13" s="16" t="n">
         <v>12</v>
       </c>
-      <c r="C13" s="16" t="n">
+      <c r="C13" s="17" t="n">
         <v>-1.015</v>
       </c>
-      <c r="D13" s="16" t="n">
+      <c r="D13" s="17" t="n">
         <v>2.775</v>
       </c>
-      <c r="E13" s="16" t="n">
+      <c r="E13" s="17" t="n">
         <f aca="false">E12-0.36</f>
         <v>0.73</v>
       </c>
-      <c r="F13" s="17" t="n">
-        <v>0</v>
-      </c>
-      <c r="G13" s="17" t="n">
+      <c r="F13" s="18" t="n">
+        <v>0</v>
+      </c>
+      <c r="G13" s="18" t="n">
         <v>0</v>
       </c>
     </row>
     <row r="14" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A14" s="14" t="s">
-        <v>18</v>
-      </c>
-      <c r="B14" s="15" t="n">
+      <c r="A14" s="15" t="s">
+        <v>19</v>
+      </c>
+      <c r="B14" s="16" t="n">
         <v>13</v>
       </c>
-      <c r="C14" s="16" t="n">
+      <c r="C14" s="17" t="n">
         <v>-1.015</v>
       </c>
-      <c r="D14" s="16" t="n">
+      <c r="D14" s="17" t="n">
         <v>2.775</v>
       </c>
-      <c r="E14" s="16" t="n">
+      <c r="E14" s="17" t="n">
         <f aca="false">E13-0.36</f>
         <v>0.37</v>
       </c>
-      <c r="F14" s="17" t="n">
-        <v>0</v>
-      </c>
-      <c r="G14" s="17" t="n">
+      <c r="F14" s="18" t="n">
+        <v>0</v>
+      </c>
+      <c r="G14" s="18" t="n">
         <v>0</v>
       </c>
     </row>
     <row r="15" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A15" s="9" t="s">
+      <c r="A15" s="10" t="s">
+        <v>20</v>
+      </c>
+      <c r="B15" s="11" t="n">
+        <v>14</v>
+      </c>
+      <c r="C15" s="12" t="n">
+        <v>-1.015</v>
+      </c>
+      <c r="D15" s="12" t="n">
+        <v>2.775</v>
+      </c>
+      <c r="E15" s="12" t="n">
+        <v>0</v>
+      </c>
+      <c r="F15" s="13" t="n">
+        <v>1</v>
+      </c>
+      <c r="G15" s="13" t="n">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="16" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A16" s="20" t="s">
+        <v>21</v>
+      </c>
+      <c r="B16" s="21" t="n">
+        <v>15</v>
+      </c>
+      <c r="C16" s="22" t="n">
+        <v>-0.302</v>
+      </c>
+      <c r="D16" s="22" t="n">
+        <v>2.775</v>
+      </c>
+      <c r="E16" s="22" t="n">
+        <v>0.675</v>
+      </c>
+      <c r="F16" s="23" t="n">
+        <v>0</v>
+      </c>
+      <c r="G16" s="23" t="n">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="17" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A17" s="20" t="s">
+        <v>22</v>
+      </c>
+      <c r="B17" s="21" t="n">
+        <v>16</v>
+      </c>
+      <c r="C17" s="22" t="n">
+        <v>-0.302</v>
+      </c>
+      <c r="D17" s="22" t="n">
+        <v>2.775</v>
+      </c>
+      <c r="E17" s="22" t="n">
+        <v>1.325</v>
+      </c>
+      <c r="F17" s="23" t="n">
+        <v>0</v>
+      </c>
+      <c r="G17" s="23" t="n">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="18" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A18" s="20" t="s">
+        <v>23</v>
+      </c>
+      <c r="B18" s="21" t="n">
+        <v>17</v>
+      </c>
+      <c r="C18" s="22" t="n">
+        <v>0.357</v>
+      </c>
+      <c r="D18" s="22" t="n">
+        <v>2.775</v>
+      </c>
+      <c r="E18" s="22" t="n">
+        <v>1.325</v>
+      </c>
+      <c r="F18" s="23" t="n">
+        <v>1</v>
+      </c>
+      <c r="G18" s="23" t="n">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="19" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A19" s="20" t="s">
+        <v>24</v>
+      </c>
+      <c r="B19" s="21" t="n">
+        <v>18</v>
+      </c>
+      <c r="C19" s="22" t="n">
+        <v>0.357</v>
+      </c>
+      <c r="D19" s="22" t="n">
+        <v>2.775</v>
+      </c>
+      <c r="E19" s="22" t="n">
+        <v>0.675</v>
+      </c>
+      <c r="F19" s="23" t="n">
+        <v>1</v>
+      </c>
+      <c r="G19" s="23" t="n">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="20" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A20" s="24" t="s">
+        <v>25</v>
+      </c>
+      <c r="B20" s="25" t="n">
         <v>19</v>
       </c>
-      <c r="B15" s="10" t="n">
-        <v>14</v>
-      </c>
-      <c r="C15" s="11" t="n">
-        <v>-1.015</v>
-      </c>
-      <c r="D15" s="11" t="n">
+      <c r="C20" s="26" t="n">
+        <v>-2.1079</v>
+      </c>
+      <c r="D20" s="26" t="n">
         <v>2.775</v>
       </c>
-      <c r="E15" s="11" t="n">
-        <v>0</v>
-      </c>
-      <c r="F15" s="12" t="n">
-        <v>1</v>
-      </c>
-      <c r="G15" s="12" t="n">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="16" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A16" s="19" t="s">
+      <c r="E20" s="26" t="n">
+        <v>0</v>
+      </c>
+      <c r="F20" s="27" t="n">
+        <v>0</v>
+      </c>
+      <c r="G20" s="27" t="n">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="21" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A21" s="24" t="s">
+        <v>26</v>
+      </c>
+      <c r="B21" s="25" t="n">
         <v>20</v>
       </c>
-      <c r="B16" s="20" t="n">
-        <v>15</v>
-      </c>
-      <c r="C16" s="21" t="n">
-        <v>-0.302</v>
-      </c>
-      <c r="D16" s="21" t="n">
+      <c r="C21" s="26" t="n">
+        <v>-1.9484</v>
+      </c>
+      <c r="D21" s="26" t="n">
         <v>2.775</v>
       </c>
-      <c r="E16" s="21" t="n">
-        <v>0.675</v>
-      </c>
-      <c r="F16" s="22" t="n">
-        <v>1</v>
-      </c>
-      <c r="G16" s="22" t="n">
-        <v>2</v>
-      </c>
-    </row>
-    <row r="17" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A17" s="19" t="s">
+      <c r="E21" s="26" t="n">
+        <v>1.56</v>
+      </c>
+      <c r="F21" s="27" t="n">
+        <v>0</v>
+      </c>
+      <c r="G21" s="27" t="n">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="22" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A22" s="28" t="s">
+        <v>27</v>
+      </c>
+      <c r="B22" s="29" t="n">
         <v>21</v>
       </c>
-      <c r="B17" s="20" t="n">
-        <v>16</v>
-      </c>
-      <c r="C17" s="21" t="n">
-        <v>-0.302</v>
-      </c>
-      <c r="D17" s="21" t="n">
+      <c r="C22" s="30" t="n">
+        <v>0</v>
+      </c>
+      <c r="D22" s="30" t="n">
         <v>2.775</v>
       </c>
-      <c r="E17" s="21" t="n">
-        <v>1.325</v>
-      </c>
-      <c r="F17" s="22" t="n">
-        <v>1</v>
-      </c>
-      <c r="G17" s="22" t="n">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="18" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A18" s="19" t="s">
+      <c r="E22" s="30" t="n">
+        <v>1.6043</v>
+      </c>
+      <c r="F22" s="31" t="n">
+        <v>0</v>
+      </c>
+      <c r="G22" s="31" t="n">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="23" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A23" s="32" t="s">
+        <v>28</v>
+      </c>
+      <c r="B23" s="33" t="n">
         <v>22</v>
       </c>
-      <c r="B18" s="20" t="n">
-        <v>17</v>
-      </c>
-      <c r="C18" s="21" t="n">
-        <v>0.357</v>
-      </c>
-      <c r="D18" s="21" t="n">
-        <v>2.775</v>
-      </c>
-      <c r="E18" s="21" t="n">
-        <v>1.325</v>
-      </c>
-      <c r="F18" s="22" t="n">
-        <v>1</v>
-      </c>
-      <c r="G18" s="22" t="n">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="19" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A19" s="19" t="s">
-        <v>23</v>
-      </c>
-      <c r="B19" s="20" t="n">
-        <v>18</v>
-      </c>
-      <c r="C19" s="21" t="n">
-        <v>0.357</v>
-      </c>
-      <c r="D19" s="21" t="n">
-        <v>2.775</v>
-      </c>
-      <c r="E19" s="21" t="n">
-        <v>0.675</v>
-      </c>
-      <c r="F19" s="22" t="n">
-        <v>1</v>
-      </c>
-      <c r="G19" s="22" t="n">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="20" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A20" s="23" t="s">
-        <v>24</v>
-      </c>
-      <c r="B20" s="24" t="n">
-        <v>19</v>
-      </c>
-      <c r="C20" s="25" t="n">
-        <v>-2.1079</v>
-      </c>
-      <c r="D20" s="25" t="n">
-        <v>2.775</v>
-      </c>
-      <c r="E20" s="25" t="n">
-        <v>0</v>
-      </c>
-      <c r="F20" s="26" t="n">
-        <v>0</v>
-      </c>
-      <c r="G20" s="26" t="n">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="21" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A21" s="23" t="s">
-        <v>25</v>
-      </c>
-      <c r="B21" s="24" t="n">
-        <v>20</v>
-      </c>
-      <c r="C21" s="25" t="n">
-        <v>-1.9484</v>
-      </c>
-      <c r="D21" s="25" t="n">
-        <v>2.775</v>
-      </c>
-      <c r="E21" s="25" t="n">
-        <v>1.56</v>
-      </c>
-      <c r="F21" s="26" t="n">
-        <v>0</v>
-      </c>
-      <c r="G21" s="26" t="n">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="22" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A22" s="27" t="s">
-        <v>26</v>
-      </c>
-      <c r="B22" s="28" t="n">
-        <v>21</v>
-      </c>
-      <c r="C22" s="29" t="n">
-        <v>0</v>
-      </c>
-      <c r="D22" s="29" t="n">
-        <v>2.775</v>
-      </c>
-      <c r="E22" s="29" t="n">
-        <v>1.6043</v>
-      </c>
-      <c r="F22" s="30" t="n">
-        <v>1</v>
-      </c>
-      <c r="G22" s="30" t="n">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="23" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A23" s="31" t="s">
-        <v>27</v>
-      </c>
-      <c r="B23" s="32" t="n">
-        <v>22</v>
-      </c>
-      <c r="C23" s="33" t="n">
-        <v>0</v>
-      </c>
-      <c r="D23" s="33" t="n">
+      <c r="C23" s="34" t="n">
+        <v>0</v>
+      </c>
+      <c r="D23" s="34" t="n">
         <f aca="false">2.775+1</f>
         <v>3.775</v>
       </c>
-      <c r="E23" s="33" t="n">
+      <c r="E23" s="34" t="n">
         <f aca="false">E22+0.7</f>
         <v>2.3043</v>
       </c>
-      <c r="F23" s="34" t="n">
-        <v>0</v>
-      </c>
-      <c r="G23" s="34" t="n">
+      <c r="F23" s="35" t="n">
+        <v>0</v>
+      </c>
+      <c r="G23" s="35" t="n">
         <v>0</v>
       </c>
     </row>
     <row r="24" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A24" s="23" t="s">
+      <c r="A24" s="24" t="s">
+        <v>29</v>
+      </c>
+      <c r="B24" s="25" t="n">
+        <v>23</v>
+      </c>
+      <c r="C24" s="26" t="n">
+        <v>1.9484</v>
+      </c>
+      <c r="D24" s="26" t="n">
+        <v>2.775</v>
+      </c>
+      <c r="E24" s="26" t="n">
+        <v>1.56</v>
+      </c>
+      <c r="F24" s="27" t="n">
+        <v>1</v>
+      </c>
+      <c r="G24" s="27" t="n">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="25" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A25" s="24" t="s">
+        <v>30</v>
+      </c>
+      <c r="B25" s="25" t="n">
+        <v>24</v>
+      </c>
+      <c r="C25" s="26" t="n">
+        <v>2.1079</v>
+      </c>
+      <c r="D25" s="26" t="n">
+        <v>2.775</v>
+      </c>
+      <c r="E25" s="26" t="n">
+        <v>0</v>
+      </c>
+      <c r="F25" s="27" t="n">
+        <v>1</v>
+      </c>
+      <c r="G25" s="27" t="n">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="26" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A26" s="36" t="s">
+        <v>31</v>
+      </c>
+      <c r="B26" s="37" t="n">
+        <v>25</v>
+      </c>
+      <c r="C26" s="38" t="n">
+        <v>1</v>
+      </c>
+      <c r="D26" s="38" t="n">
+        <v>2.78</v>
+      </c>
+      <c r="E26" s="38" t="n">
+        <v>0</v>
+      </c>
+      <c r="F26" s="39" t="n">
+        <v>1</v>
+      </c>
+      <c r="G26" s="39" t="n">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="27" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A27" s="36" t="s">
+        <v>32</v>
+      </c>
+      <c r="B27" s="37" t="n">
+        <v>26</v>
+      </c>
+      <c r="C27" s="38" t="n">
+        <v>1</v>
+      </c>
+      <c r="D27" s="38" t="n">
+        <v>2.78</v>
+      </c>
+      <c r="E27" s="38" t="n">
+        <v>0.6</v>
+      </c>
+      <c r="F27" s="39" t="n">
+        <v>1</v>
+      </c>
+      <c r="G27" s="39" t="n">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="28" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A28" s="36" t="s">
+        <v>33</v>
+      </c>
+      <c r="B28" s="37" t="n">
+        <v>27</v>
+      </c>
+      <c r="C28" s="38" t="n">
+        <v>1</v>
+      </c>
+      <c r="D28" s="38" t="n">
+        <v>2.78</v>
+      </c>
+      <c r="E28" s="38" t="n">
+        <v>1.2</v>
+      </c>
+      <c r="F28" s="39" t="n">
+        <v>1</v>
+      </c>
+      <c r="G28" s="39" t="n">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="29" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A29" s="36" t="s">
+        <v>34</v>
+      </c>
+      <c r="B29" s="37" t="n">
         <v>28</v>
       </c>
-      <c r="B24" s="24" t="n">
-        <v>23</v>
-      </c>
-      <c r="C24" s="25" t="n">
-        <v>1.9484</v>
-      </c>
-      <c r="D24" s="25" t="n">
-        <v>2.775</v>
-      </c>
-      <c r="E24" s="25" t="n">
-        <v>1.56</v>
-      </c>
-      <c r="F24" s="26" t="n">
+      <c r="C29" s="38" t="n">
+        <v>1.6</v>
+      </c>
+      <c r="D29" s="38" t="n">
+        <v>2.78</v>
+      </c>
+      <c r="E29" s="38" t="n">
+        <v>1.2</v>
+      </c>
+      <c r="F29" s="39" t="n">
         <v>1</v>
       </c>
-      <c r="G24" s="26" t="n">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="25" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A25" s="23" t="s">
+      <c r="G29" s="39" t="n">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="30" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A30" s="36" t="s">
+        <v>35</v>
+      </c>
+      <c r="B30" s="37" t="n">
         <v>29</v>
       </c>
-      <c r="B25" s="24" t="n">
-        <v>24</v>
-      </c>
-      <c r="C25" s="25" t="n">
-        <v>2.1079</v>
-      </c>
-      <c r="D25" s="25" t="n">
-        <v>2.775</v>
-      </c>
-      <c r="E25" s="25" t="n">
-        <v>0</v>
-      </c>
-      <c r="F25" s="26" t="n">
+      <c r="C30" s="38" t="n">
+        <v>1.6</v>
+      </c>
+      <c r="D30" s="38" t="n">
+        <v>2.78</v>
+      </c>
+      <c r="E30" s="38" t="n">
+        <v>0.6</v>
+      </c>
+      <c r="F30" s="39" t="n">
         <v>1</v>
       </c>
-      <c r="G25" s="26" t="n">
+      <c r="G30" s="39" t="n">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="31" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A31" s="36" t="s">
+        <v>36</v>
+      </c>
+      <c r="B31" s="37" t="n">
+        <v>30</v>
+      </c>
+      <c r="C31" s="38" t="n">
+        <v>1.6</v>
+      </c>
+      <c r="D31" s="38" t="n">
+        <v>2.78</v>
+      </c>
+      <c r="E31" s="38" t="n">
+        <v>0</v>
+      </c>
+      <c r="F31" s="39" t="n">
         <v>1</v>
       </c>
-    </row>
-    <row r="26" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A26" s="35" t="s">
-        <v>30</v>
-      </c>
-      <c r="B26" s="36" t="n">
-        <v>25</v>
-      </c>
-      <c r="C26" s="37" t="n">
+      <c r="G31" s="39" t="n">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="32" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A32" s="40" t="s">
+        <v>37</v>
+      </c>
+      <c r="B32" s="41" t="n">
+        <v>31</v>
+      </c>
+      <c r="C32" s="42" t="n">
+        <v>-0.8</v>
+      </c>
+      <c r="D32" s="42" t="n">
+        <v>2.04</v>
+      </c>
+      <c r="E32" s="42" t="n">
+        <v>0</v>
+      </c>
+      <c r="F32" s="43" t="n">
         <v>1</v>
       </c>
-      <c r="D26" s="37" t="n">
+      <c r="G32" s="43" t="n">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="33" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A33" s="40" t="s">
+        <v>38</v>
+      </c>
+      <c r="B33" s="41" t="n">
+        <v>32</v>
+      </c>
+      <c r="C33" s="42" t="n">
+        <v>-0.75</v>
+      </c>
+      <c r="D33" s="42" t="n">
+        <v>0.4</v>
+      </c>
+      <c r="E33" s="42" t="n">
+        <v>0</v>
+      </c>
+      <c r="F33" s="43" t="n">
+        <v>0</v>
+      </c>
+      <c r="G33" s="43" t="n">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="34" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A34" s="40" t="s">
+        <v>39</v>
+      </c>
+      <c r="B34" s="41" t="n">
+        <v>33</v>
+      </c>
+      <c r="C34" s="42" t="n">
+        <v>-0.8</v>
+      </c>
+      <c r="D34" s="42" t="n">
+        <v>-0.13</v>
+      </c>
+      <c r="E34" s="42" t="n">
+        <v>0</v>
+      </c>
+      <c r="F34" s="43" t="n">
+        <v>0</v>
+      </c>
+      <c r="G34" s="43" t="n">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="35" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A35" s="40" t="s">
+        <v>40</v>
+      </c>
+      <c r="B35" s="41" t="n">
+        <v>34</v>
+      </c>
+      <c r="C35" s="42" t="n">
+        <v>0.8</v>
+      </c>
+      <c r="D35" s="42" t="n">
+        <v>0.13</v>
+      </c>
+      <c r="E35" s="42" t="n">
+        <v>0</v>
+      </c>
+      <c r="F35" s="43" t="n">
+        <v>0</v>
+      </c>
+      <c r="G35" s="43" t="n">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="36" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A36" s="40" t="s">
+        <v>41</v>
+      </c>
+      <c r="B36" s="41" t="n">
+        <v>35</v>
+      </c>
+      <c r="C36" s="42" t="n">
+        <v>0.83</v>
+      </c>
+      <c r="D36" s="42" t="n">
+        <v>0.4</v>
+      </c>
+      <c r="E36" s="42" t="n">
+        <v>0</v>
+      </c>
+      <c r="F36" s="43" t="n">
+        <v>0</v>
+      </c>
+      <c r="G36" s="43" t="n">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="37" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A37" s="40" t="s">
+        <v>42</v>
+      </c>
+      <c r="B37" s="41" t="n">
+        <v>36</v>
+      </c>
+      <c r="C37" s="42" t="n">
+        <v>0.76</v>
+      </c>
+      <c r="D37" s="42" t="n">
+        <v>2.07</v>
+      </c>
+      <c r="E37" s="42" t="n">
+        <v>0</v>
+      </c>
+      <c r="F37" s="43" t="n">
+        <v>1</v>
+      </c>
+      <c r="G37" s="43" t="n">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="38" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A38" s="44" t="s">
+        <v>43</v>
+      </c>
+      <c r="B38" s="45" t="n">
+        <v>37</v>
+      </c>
+      <c r="C38" s="46" t="n">
+        <v>-0.085</v>
+      </c>
+      <c r="D38" s="46" t="n">
+        <v>2.431</v>
+      </c>
+      <c r="E38" s="46" t="n">
+        <v>0</v>
+      </c>
+      <c r="F38" s="47" t="n">
+        <v>1</v>
+      </c>
+      <c r="G38" s="47" t="n">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="39" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A39" s="44" t="s">
+        <v>44</v>
+      </c>
+      <c r="B39" s="45" t="n">
+        <v>38</v>
+      </c>
+      <c r="C39" s="46" t="n">
+        <v>-0.085</v>
+      </c>
+      <c r="D39" s="46" t="n">
+        <v>0.938</v>
+      </c>
+      <c r="E39" s="46" t="n">
+        <v>0</v>
+      </c>
+      <c r="F39" s="47" t="n">
+        <v>1</v>
+      </c>
+      <c r="G39" s="47" t="n">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="40" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A40" s="44" t="s">
+        <v>45</v>
+      </c>
+      <c r="B40" s="45" t="n">
+        <v>39</v>
+      </c>
+      <c r="C40" s="46" t="n">
+        <v>0.085</v>
+      </c>
+      <c r="D40" s="46" t="n">
+        <v>0.938</v>
+      </c>
+      <c r="E40" s="46" t="n">
+        <v>0</v>
+      </c>
+      <c r="F40" s="47" t="n">
+        <v>1</v>
+      </c>
+      <c r="G40" s="47" t="n">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="41" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A41" s="44" t="s">
+        <v>46</v>
+      </c>
+      <c r="B41" s="45" t="n">
+        <v>40</v>
+      </c>
+      <c r="C41" s="46" t="n">
+        <v>0.085</v>
+      </c>
+      <c r="D41" s="46" t="n">
+        <v>2.431</v>
+      </c>
+      <c r="E41" s="46" t="n">
+        <v>0</v>
+      </c>
+      <c r="F41" s="47" t="n">
+        <v>1</v>
+      </c>
+      <c r="G41" s="47" t="n">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="42" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A42" s="48" t="s">
+        <v>47</v>
+      </c>
+      <c r="B42" s="49" t="n">
+        <v>41</v>
+      </c>
+      <c r="C42" s="50" t="n">
+        <v>-0.085</v>
+      </c>
+      <c r="D42" s="50" t="n">
+        <v>0.778</v>
+      </c>
+      <c r="E42" s="50" t="n">
+        <v>0</v>
+      </c>
+      <c r="F42" s="51" t="n">
+        <v>0</v>
+      </c>
+      <c r="G42" s="51" t="n">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="43" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A43" s="48" t="s">
+        <v>48</v>
+      </c>
+      <c r="B43" s="49" t="n">
+        <v>42</v>
+      </c>
+      <c r="C43" s="50" t="n">
+        <v>-0.085</v>
+      </c>
+      <c r="D43" s="50" t="n">
+        <v>-0.778</v>
+      </c>
+      <c r="E43" s="50" t="n">
+        <v>0</v>
+      </c>
+      <c r="F43" s="51" t="n">
+        <v>0</v>
+      </c>
+      <c r="G43" s="51" t="n">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="44" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A44" s="48" t="s">
+        <v>49</v>
+      </c>
+      <c r="B44" s="49" t="n">
+        <v>43</v>
+      </c>
+      <c r="C44" s="50" t="n">
+        <v>0.085</v>
+      </c>
+      <c r="D44" s="50" t="n">
+        <v>-0.778</v>
+      </c>
+      <c r="E44" s="50" t="n">
+        <v>0</v>
+      </c>
+      <c r="F44" s="51" t="n">
+        <v>0</v>
+      </c>
+      <c r="G44" s="51" t="n">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="45" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A45" s="48" t="s">
+        <v>50</v>
+      </c>
+      <c r="B45" s="49" t="n">
+        <v>44</v>
+      </c>
+      <c r="C45" s="50" t="n">
+        <v>0.085</v>
+      </c>
+      <c r="D45" s="50" t="n">
+        <v>0.778</v>
+      </c>
+      <c r="E45" s="50" t="n">
+        <v>0</v>
+      </c>
+      <c r="F45" s="51" t="n">
+        <v>0</v>
+      </c>
+      <c r="G45" s="51" t="n">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="46" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A46" s="52" t="s">
+        <v>51</v>
+      </c>
+      <c r="B46" s="53" t="n">
+        <v>45</v>
+      </c>
+      <c r="C46" s="54" t="n">
+        <v>-0.085</v>
+      </c>
+      <c r="D46" s="54" t="n">
+        <v>-0.938</v>
+      </c>
+      <c r="E46" s="54" t="n">
+        <v>0</v>
+      </c>
+      <c r="F46" s="55" t="n">
+        <v>0</v>
+      </c>
+      <c r="G46" s="55" t="n">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="47" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A47" s="52" t="s">
+        <v>52</v>
+      </c>
+      <c r="B47" s="53" t="n">
+        <v>46</v>
+      </c>
+      <c r="C47" s="54" t="n">
+        <v>-0.085</v>
+      </c>
+      <c r="D47" s="54" t="n">
+        <v>-2.408</v>
+      </c>
+      <c r="E47" s="54" t="n">
+        <v>0</v>
+      </c>
+      <c r="F47" s="55" t="n">
+        <v>0</v>
+      </c>
+      <c r="G47" s="55" t="n">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="48" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A48" s="52" t="s">
+        <v>53</v>
+      </c>
+      <c r="B48" s="53" t="n">
+        <v>47</v>
+      </c>
+      <c r="C48" s="54" t="n">
+        <v>0.085</v>
+      </c>
+      <c r="D48" s="54" t="n">
+        <v>-2.408</v>
+      </c>
+      <c r="E48" s="54" t="n">
+        <v>0</v>
+      </c>
+      <c r="F48" s="55" t="n">
+        <v>0</v>
+      </c>
+      <c r="G48" s="55" t="n">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="49" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A49" s="52" t="s">
+        <v>54</v>
+      </c>
+      <c r="B49" s="53" t="n">
+        <v>48</v>
+      </c>
+      <c r="C49" s="54" t="n">
+        <v>0.085</v>
+      </c>
+      <c r="D49" s="54" t="n">
+        <v>-0.938</v>
+      </c>
+      <c r="E49" s="54" t="n">
+        <v>0</v>
+      </c>
+      <c r="F49" s="55" t="n">
+        <v>0</v>
+      </c>
+      <c r="G49" s="55" t="n">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="50" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A50" s="56" t="s">
+        <v>55</v>
+      </c>
+      <c r="B50" s="57" t="n">
+        <v>49</v>
+      </c>
+      <c r="C50" s="58" t="n">
+        <v>-2.84569</v>
+      </c>
+      <c r="D50" s="58" t="n">
+        <v>2.4546</v>
+      </c>
+      <c r="E50" s="58" t="n">
+        <v>0</v>
+      </c>
+      <c r="F50" s="59" t="n">
+        <v>0</v>
+      </c>
+      <c r="G50" s="59" t="n">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="51" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A51" s="56" t="s">
+        <v>56</v>
+      </c>
+      <c r="B51" s="57" t="n">
+        <v>50</v>
+      </c>
+      <c r="C51" s="58" t="n">
+        <v>-2.7608</v>
+      </c>
+      <c r="D51" s="58" t="n">
+        <v>-2.3894</v>
+      </c>
+      <c r="E51" s="58" t="n">
+        <v>0</v>
+      </c>
+      <c r="F51" s="59" t="n">
+        <v>0</v>
+      </c>
+      <c r="G51" s="59" t="n">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="52" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A52" s="56" t="s">
+        <v>57</v>
+      </c>
+      <c r="B52" s="57" t="n">
+        <v>51</v>
+      </c>
+      <c r="C52" s="58" t="n">
+        <v>2.7015</v>
+      </c>
+      <c r="D52" s="58" t="n">
+        <v>-2.4284</v>
+      </c>
+      <c r="E52" s="58" t="n">
+        <v>0</v>
+      </c>
+      <c r="F52" s="59" t="n">
+        <v>0</v>
+      </c>
+      <c r="G52" s="59" t="n">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="53" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A53" s="56" t="s">
+        <v>58</v>
+      </c>
+      <c r="B53" s="57" t="n">
+        <v>52</v>
+      </c>
+      <c r="C53" s="58" t="n">
+        <v>2.7949</v>
+      </c>
+      <c r="D53" s="58" t="n">
+        <v>2.4546</v>
+      </c>
+      <c r="E53" s="58" t="n">
+        <v>0</v>
+      </c>
+      <c r="F53" s="59" t="n">
+        <v>0</v>
+      </c>
+      <c r="G53" s="59" t="n">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="54" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A54" s="36" t="s">
+        <v>59</v>
+      </c>
+      <c r="B54" s="37" t="n">
+        <v>53</v>
+      </c>
+      <c r="C54" s="38" t="n">
+        <v>-3.022</v>
+      </c>
+      <c r="D54" s="38" t="n">
+        <v>2.6015</v>
+      </c>
+      <c r="E54" s="38" t="n">
+        <v>0</v>
+      </c>
+      <c r="F54" s="39" t="n">
+        <v>0</v>
+      </c>
+      <c r="G54" s="39" t="n">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="55" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A55" s="36" t="s">
+        <v>60</v>
+      </c>
+      <c r="B55" s="37" t="n">
+        <v>54</v>
+      </c>
+      <c r="C55" s="38" t="n">
+        <v>-2.915</v>
+      </c>
+      <c r="D55" s="38" t="n">
+        <v>-2.5146</v>
+      </c>
+      <c r="E55" s="38" t="n">
+        <v>0</v>
+      </c>
+      <c r="F55" s="39" t="n">
+        <v>0</v>
+      </c>
+      <c r="G55" s="39" t="n">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="56" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A56" s="36" t="s">
+        <v>61</v>
+      </c>
+      <c r="B56" s="37" t="n">
+        <v>55</v>
+      </c>
+      <c r="C56" s="38" t="n">
+        <v>2.8496</v>
+      </c>
+      <c r="D56" s="38" t="n">
+        <v>-2.5146</v>
+      </c>
+      <c r="E56" s="38" t="n">
+        <v>0</v>
+      </c>
+      <c r="F56" s="39" t="n">
+        <v>0</v>
+      </c>
+      <c r="G56" s="39" t="n">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="57" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A57" s="36" t="s">
+        <v>62</v>
+      </c>
+      <c r="B57" s="37" t="n">
+        <v>56</v>
+      </c>
+      <c r="C57" s="38" t="n">
+        <v>2.971</v>
+      </c>
+      <c r="D57" s="38" t="n">
+        <v>2.6015</v>
+      </c>
+      <c r="E57" s="38" t="n">
+        <v>0</v>
+      </c>
+      <c r="F57" s="39" t="n">
+        <v>0</v>
+      </c>
+      <c r="G57" s="39" t="n">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="58" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A58" s="60" t="s">
+        <v>63</v>
+      </c>
+      <c r="B58" s="61" t="n">
+        <v>57</v>
+      </c>
+      <c r="C58" s="62" t="n">
+        <v>-3.3343</v>
+      </c>
+      <c r="D58" s="62" t="n">
         <v>2.78</v>
       </c>
-      <c r="E26" s="37" t="n">
-        <v>0</v>
-      </c>
-      <c r="F26" s="38" t="n">
-        <v>1</v>
-      </c>
-      <c r="G26" s="38" t="n">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="27" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A27" s="35" t="s">
-        <v>31</v>
-      </c>
-      <c r="B27" s="36" t="n">
-        <v>26</v>
-      </c>
-      <c r="C27" s="37" t="n">
-        <v>1</v>
-      </c>
-      <c r="D27" s="37" t="n">
+      <c r="E58" s="62" t="n">
+        <v>0</v>
+      </c>
+      <c r="F58" s="63" t="n">
+        <v>0</v>
+      </c>
+      <c r="G58" s="63" t="n">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="59" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A59" s="60" t="s">
+        <v>64</v>
+      </c>
+      <c r="B59" s="61" t="n">
+        <v>58</v>
+      </c>
+      <c r="C59" s="62" t="n">
+        <v>-3.1388</v>
+      </c>
+      <c r="D59" s="62" t="n">
+        <v>-2.9209</v>
+      </c>
+      <c r="E59" s="62" t="n">
+        <v>0</v>
+      </c>
+      <c r="F59" s="63" t="n">
+        <v>0</v>
+      </c>
+      <c r="G59" s="63" t="n">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="60" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A60" s="60" t="s">
+        <v>65</v>
+      </c>
+      <c r="B60" s="61" t="n">
+        <v>59</v>
+      </c>
+      <c r="C60" s="62" t="n">
+        <v>3.1388</v>
+      </c>
+      <c r="D60" s="62" t="n">
+        <v>-2.9209</v>
+      </c>
+      <c r="E60" s="62" t="n">
+        <v>0</v>
+      </c>
+      <c r="F60" s="63" t="n">
+        <v>0</v>
+      </c>
+      <c r="G60" s="63" t="n">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="61" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A61" s="60" t="s">
+        <v>66</v>
+      </c>
+      <c r="B61" s="61" t="n">
+        <v>60</v>
+      </c>
+      <c r="C61" s="62" t="n">
+        <v>3.3343</v>
+      </c>
+      <c r="D61" s="62" t="n">
         <v>2.78</v>
       </c>
-      <c r="E27" s="37" t="n">
-        <v>0.6</v>
-      </c>
-      <c r="F27" s="38" t="n">
-        <v>1</v>
-      </c>
-      <c r="G27" s="38" t="n">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="28" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A28" s="35" t="s">
-        <v>32</v>
-      </c>
-      <c r="B28" s="36" t="n">
-        <v>27</v>
-      </c>
-      <c r="C28" s="37" t="n">
-        <v>1</v>
-      </c>
-      <c r="D28" s="37" t="n">
-        <v>2.78</v>
-      </c>
-      <c r="E28" s="37" t="n">
-        <v>1.2</v>
-      </c>
-      <c r="F28" s="38" t="n">
-        <v>1</v>
-      </c>
-      <c r="G28" s="38" t="n">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="29" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A29" s="35" t="s">
-        <v>33</v>
-      </c>
-      <c r="B29" s="36" t="n">
-        <v>28</v>
-      </c>
-      <c r="C29" s="37" t="n">
-        <v>1.6</v>
-      </c>
-      <c r="D29" s="37" t="n">
-        <v>2.78</v>
-      </c>
-      <c r="E29" s="37" t="n">
-        <v>1.2</v>
-      </c>
-      <c r="F29" s="38" t="n">
-        <v>1</v>
-      </c>
-      <c r="G29" s="38" t="n">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="30" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A30" s="35" t="s">
-        <v>34</v>
-      </c>
-      <c r="B30" s="36" t="n">
-        <v>29</v>
-      </c>
-      <c r="C30" s="37" t="n">
-        <v>1.6</v>
-      </c>
-      <c r="D30" s="37" t="n">
-        <v>2.78</v>
-      </c>
-      <c r="E30" s="37" t="n">
-        <v>0.6</v>
-      </c>
-      <c r="F30" s="38" t="n">
-        <v>1</v>
-      </c>
-      <c r="G30" s="38" t="n">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="31" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A31" s="35" t="s">
-        <v>35</v>
-      </c>
-      <c r="B31" s="36" t="n">
-        <v>30</v>
-      </c>
-      <c r="C31" s="37" t="n">
-        <v>1.6</v>
-      </c>
-      <c r="D31" s="37" t="n">
-        <v>2.78</v>
-      </c>
-      <c r="E31" s="37" t="n">
-        <v>0</v>
-      </c>
-      <c r="F31" s="38" t="n">
-        <v>1</v>
-      </c>
-      <c r="G31" s="38" t="n">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="32" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A32" s="39" t="s">
-        <v>36</v>
-      </c>
-      <c r="B32" s="40" t="n">
-        <v>31</v>
-      </c>
-      <c r="C32" s="41" t="n">
-        <v>-0.88</v>
-      </c>
-      <c r="D32" s="41" t="n">
-        <v>2.04</v>
-      </c>
-      <c r="E32" s="41" t="n">
-        <v>0</v>
-      </c>
-      <c r="F32" s="42" t="n">
-        <v>1</v>
-      </c>
-      <c r="G32" s="42" t="n">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="33" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A33" s="39" t="s">
-        <v>37</v>
-      </c>
-      <c r="B33" s="40" t="n">
-        <v>32</v>
-      </c>
-      <c r="C33" s="41" t="n">
-        <v>0</v>
-      </c>
-      <c r="D33" s="41" t="n">
-        <v>0</v>
-      </c>
-      <c r="E33" s="41" t="n">
-        <v>0</v>
-      </c>
-      <c r="F33" s="42" t="n">
-        <v>0</v>
-      </c>
-      <c r="G33" s="42" t="n">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="34" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A34" s="39" t="s">
-        <v>38</v>
-      </c>
-      <c r="B34" s="40" t="n">
-        <v>33</v>
-      </c>
-      <c r="C34" s="41" t="n">
-        <v>0</v>
-      </c>
-      <c r="D34" s="41" t="n">
-        <v>0</v>
-      </c>
-      <c r="E34" s="41" t="n">
-        <v>0</v>
-      </c>
-      <c r="F34" s="42" t="n">
-        <v>0</v>
-      </c>
-      <c r="G34" s="42" t="n">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="35" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A35" s="39" t="s">
-        <v>39</v>
-      </c>
-      <c r="B35" s="40" t="n">
-        <v>34</v>
-      </c>
-      <c r="C35" s="41" t="n">
-        <v>0</v>
-      </c>
-      <c r="D35" s="41" t="n">
-        <v>0</v>
-      </c>
-      <c r="E35" s="41" t="n">
-        <v>0</v>
-      </c>
-      <c r="F35" s="42" t="n">
-        <v>0</v>
-      </c>
-      <c r="G35" s="42" t="n">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="36" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A36" s="39" t="s">
-        <v>40</v>
-      </c>
-      <c r="B36" s="40" t="n">
-        <v>35</v>
-      </c>
-      <c r="C36" s="41" t="n">
-        <v>0</v>
-      </c>
-      <c r="D36" s="41" t="n">
-        <v>0</v>
-      </c>
-      <c r="E36" s="41" t="n">
-        <v>0</v>
-      </c>
-      <c r="F36" s="42" t="n">
-        <v>0</v>
-      </c>
-      <c r="G36" s="42" t="n">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="37" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A37" s="39" t="s">
-        <v>41</v>
-      </c>
-      <c r="B37" s="40" t="n">
-        <v>36</v>
-      </c>
-      <c r="C37" s="41" t="n">
-        <v>0.76</v>
-      </c>
-      <c r="D37" s="41" t="n">
-        <v>2.07</v>
-      </c>
-      <c r="E37" s="41" t="n">
-        <v>0</v>
-      </c>
-      <c r="F37" s="42" t="n">
-        <v>1</v>
-      </c>
-      <c r="G37" s="42" t="n">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="38" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A38" s="43" t="s">
-        <v>42</v>
-      </c>
-      <c r="B38" s="44" t="n">
-        <v>37</v>
-      </c>
-      <c r="C38" s="45" t="n">
-        <v>-0.085</v>
-      </c>
-      <c r="D38" s="45" t="n">
-        <v>2.431</v>
-      </c>
-      <c r="E38" s="45" t="n">
-        <v>0</v>
-      </c>
-      <c r="F38" s="46" t="n">
-        <v>1</v>
-      </c>
-      <c r="G38" s="46" t="n">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="39" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A39" s="43" t="s">
-        <v>43</v>
-      </c>
-      <c r="B39" s="44" t="n">
-        <v>38</v>
-      </c>
-      <c r="C39" s="45" t="n">
-        <v>-0.085</v>
-      </c>
-      <c r="D39" s="45" t="n">
-        <v>0.938</v>
-      </c>
-      <c r="E39" s="45" t="n">
-        <v>0</v>
-      </c>
-      <c r="F39" s="46" t="n">
-        <v>1</v>
-      </c>
-      <c r="G39" s="46" t="n">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="40" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A40" s="43" t="s">
-        <v>44</v>
-      </c>
-      <c r="B40" s="44" t="n">
-        <v>39</v>
-      </c>
-      <c r="C40" s="45" t="n">
-        <v>0.085</v>
-      </c>
-      <c r="D40" s="45" t="n">
-        <v>0.938</v>
-      </c>
-      <c r="E40" s="45" t="n">
-        <v>0</v>
-      </c>
-      <c r="F40" s="46" t="n">
-        <v>1</v>
-      </c>
-      <c r="G40" s="46" t="n">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="41" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A41" s="43" t="s">
-        <v>45</v>
-      </c>
-      <c r="B41" s="44" t="n">
-        <v>40</v>
-      </c>
-      <c r="C41" s="45" t="n">
-        <v>0.085</v>
-      </c>
-      <c r="D41" s="45" t="n">
-        <v>2.431</v>
-      </c>
-      <c r="E41" s="45" t="n">
-        <v>0</v>
-      </c>
-      <c r="F41" s="46" t="n">
-        <v>1</v>
-      </c>
-      <c r="G41" s="46" t="n">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="42" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A42" s="47" t="s">
-        <v>46</v>
-      </c>
-      <c r="B42" s="48" t="n">
-        <v>41</v>
-      </c>
-      <c r="C42" s="49" t="n">
-        <v>-0.085</v>
-      </c>
-      <c r="D42" s="49" t="n">
-        <v>0.778</v>
-      </c>
-      <c r="E42" s="49" t="n">
-        <v>0</v>
-      </c>
-      <c r="F42" s="50" t="n">
-        <v>0</v>
-      </c>
-      <c r="G42" s="50" t="n">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="43" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A43" s="47" t="s">
-        <v>47</v>
-      </c>
-      <c r="B43" s="48" t="n">
-        <v>42</v>
-      </c>
-      <c r="C43" s="49" t="n">
-        <v>-0.085</v>
-      </c>
-      <c r="D43" s="49" t="n">
-        <v>-0.778</v>
-      </c>
-      <c r="E43" s="49" t="n">
-        <v>0</v>
-      </c>
-      <c r="F43" s="50" t="n">
-        <v>0</v>
-      </c>
-      <c r="G43" s="50" t="n">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="44" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A44" s="47" t="s">
-        <v>48</v>
-      </c>
-      <c r="B44" s="48" t="n">
-        <v>43</v>
-      </c>
-      <c r="C44" s="49" t="n">
-        <v>0.085</v>
-      </c>
-      <c r="D44" s="49" t="n">
-        <v>-0.778</v>
-      </c>
-      <c r="E44" s="49" t="n">
-        <v>0</v>
-      </c>
-      <c r="F44" s="50" t="n">
-        <v>0</v>
-      </c>
-      <c r="G44" s="50" t="n">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="45" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A45" s="47" t="s">
-        <v>49</v>
-      </c>
-      <c r="B45" s="48" t="n">
-        <v>44</v>
-      </c>
-      <c r="C45" s="49" t="n">
-        <v>0.085</v>
-      </c>
-      <c r="D45" s="49" t="n">
-        <v>0.778</v>
-      </c>
-      <c r="E45" s="49" t="n">
-        <v>0</v>
-      </c>
-      <c r="F45" s="50" t="n">
-        <v>0</v>
-      </c>
-      <c r="G45" s="50" t="n">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="46" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A46" s="51" t="s">
-        <v>50</v>
-      </c>
-      <c r="B46" s="52" t="n">
-        <v>45</v>
-      </c>
-      <c r="C46" s="53" t="n">
-        <v>-0.085</v>
-      </c>
-      <c r="D46" s="53" t="n">
-        <v>-0.938</v>
-      </c>
-      <c r="E46" s="53" t="n">
-        <v>0</v>
-      </c>
-      <c r="F46" s="54" t="n">
-        <v>0</v>
-      </c>
-      <c r="G46" s="54" t="n">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="47" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A47" s="51" t="s">
-        <v>51</v>
-      </c>
-      <c r="B47" s="52" t="n">
-        <v>46</v>
-      </c>
-      <c r="C47" s="53" t="n">
-        <v>-0.085</v>
-      </c>
-      <c r="D47" s="53" t="n">
-        <v>-2.408</v>
-      </c>
-      <c r="E47" s="53" t="n">
-        <v>0</v>
-      </c>
-      <c r="F47" s="54" t="n">
-        <v>0</v>
-      </c>
-      <c r="G47" s="54" t="n">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="48" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A48" s="51" t="s">
-        <v>52</v>
-      </c>
-      <c r="B48" s="52" t="n">
-        <v>47</v>
-      </c>
-      <c r="C48" s="53" t="n">
-        <v>0.085</v>
-      </c>
-      <c r="D48" s="53" t="n">
-        <v>-2.408</v>
-      </c>
-      <c r="E48" s="53" t="n">
-        <v>0</v>
-      </c>
-      <c r="F48" s="54" t="n">
-        <v>0</v>
-      </c>
-      <c r="G48" s="54" t="n">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="49" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A49" s="51" t="s">
-        <v>53</v>
-      </c>
-      <c r="B49" s="52" t="n">
-        <v>48</v>
-      </c>
-      <c r="C49" s="53" t="n">
-        <v>0.085</v>
-      </c>
-      <c r="D49" s="53" t="n">
-        <v>-0.938</v>
-      </c>
-      <c r="E49" s="53" t="n">
-        <v>0</v>
-      </c>
-      <c r="F49" s="54" t="n">
-        <v>0</v>
-      </c>
-      <c r="G49" s="54" t="n">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="50" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A50" s="55" t="s">
-        <v>54</v>
-      </c>
-      <c r="B50" s="56" t="n">
-        <v>49</v>
-      </c>
-      <c r="C50" s="57" t="n">
-        <v>-2.84569</v>
-      </c>
-      <c r="D50" s="57" t="n">
-        <v>2.4546</v>
-      </c>
-      <c r="E50" s="57" t="n">
-        <v>0</v>
-      </c>
-      <c r="F50" s="58" t="n">
-        <v>0</v>
-      </c>
-      <c r="G50" s="58" t="n">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="51" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A51" s="55" t="s">
-        <v>55</v>
-      </c>
-      <c r="B51" s="56" t="n">
-        <v>50</v>
-      </c>
-      <c r="C51" s="57" t="n">
-        <v>-2.7608</v>
-      </c>
-      <c r="D51" s="57" t="n">
-        <v>-2.3894</v>
-      </c>
-      <c r="E51" s="57" t="n">
-        <v>0</v>
-      </c>
-      <c r="F51" s="58" t="n">
-        <v>0</v>
-      </c>
-      <c r="G51" s="58" t="n">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="52" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A52" s="55" t="s">
-        <v>56</v>
-      </c>
-      <c r="B52" s="56" t="n">
-        <v>51</v>
-      </c>
-      <c r="C52" s="57" t="n">
-        <v>2.7015</v>
-      </c>
-      <c r="D52" s="57" t="n">
-        <v>-2.4284</v>
-      </c>
-      <c r="E52" s="57" t="n">
-        <v>0</v>
-      </c>
-      <c r="F52" s="58" t="n">
-        <v>0</v>
-      </c>
-      <c r="G52" s="58" t="n">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="53" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A53" s="55" t="s">
-        <v>57</v>
-      </c>
-      <c r="B53" s="56" t="n">
-        <v>52</v>
-      </c>
-      <c r="C53" s="57" t="n">
-        <v>2.7949</v>
-      </c>
-      <c r="D53" s="57" t="n">
-        <v>2.4546</v>
-      </c>
-      <c r="E53" s="57" t="n">
-        <v>0</v>
-      </c>
-      <c r="F53" s="58" t="n">
-        <v>0</v>
-      </c>
-      <c r="G53" s="58" t="n">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="54" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A54" s="35" t="s">
-        <v>58</v>
-      </c>
-      <c r="B54" s="36" t="n">
-        <v>53</v>
-      </c>
-      <c r="C54" s="37" t="n">
-        <v>-3.022</v>
-      </c>
-      <c r="D54" s="37" t="n">
-        <v>2.6015</v>
-      </c>
-      <c r="E54" s="37" t="n">
-        <v>0</v>
-      </c>
-      <c r="F54" s="38" t="n">
-        <v>0</v>
-      </c>
-      <c r="G54" s="38" t="n">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="55" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A55" s="35" t="s">
-        <v>59</v>
-      </c>
-      <c r="B55" s="36" t="n">
-        <v>54</v>
-      </c>
-      <c r="C55" s="37" t="n">
-        <v>-2.915</v>
-      </c>
-      <c r="D55" s="37" t="n">
-        <v>-2.5146</v>
-      </c>
-      <c r="E55" s="37" t="n">
-        <v>0</v>
-      </c>
-      <c r="F55" s="38" t="n">
-        <v>0</v>
-      </c>
-      <c r="G55" s="38" t="n">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="56" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A56" s="35" t="s">
-        <v>60</v>
-      </c>
-      <c r="B56" s="36" t="n">
-        <v>55</v>
-      </c>
-      <c r="C56" s="37" t="n">
-        <v>2.8496</v>
-      </c>
-      <c r="D56" s="37" t="n">
-        <v>-2.5146</v>
-      </c>
-      <c r="E56" s="37" t="n">
-        <v>0</v>
-      </c>
-      <c r="F56" s="38" t="n">
-        <v>0</v>
-      </c>
-      <c r="G56" s="38" t="n">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="57" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A57" s="35" t="s">
+      <c r="E61" s="62" t="n">
+        <v>0</v>
+      </c>
+      <c r="F61" s="63" t="n">
+        <v>0</v>
+      </c>
+      <c r="G61" s="63" t="n">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="62" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A62" s="64" t="s">
+        <v>67</v>
+      </c>
+      <c r="B62" s="65" t="n">
         <v>61</v>
       </c>
-      <c r="B57" s="36" t="n">
-        <v>56</v>
-      </c>
-      <c r="C57" s="37" t="n">
-        <v>2.971</v>
-      </c>
-      <c r="D57" s="37" t="n">
-        <v>2.6015</v>
-      </c>
-      <c r="E57" s="37" t="n">
-        <v>0</v>
-      </c>
-      <c r="F57" s="38" t="n">
-        <v>0</v>
-      </c>
-      <c r="G57" s="38" t="n">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="58" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A58" s="59" t="s">
+      <c r="C62" s="66" t="n">
+        <v>-2.2</v>
+      </c>
+      <c r="D62" s="66" t="n">
+        <v>1.94</v>
+      </c>
+      <c r="E62" s="66" t="n">
+        <v>0</v>
+      </c>
+      <c r="F62" s="63"/>
+      <c r="G62" s="63"/>
+    </row>
+    <row r="63" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A63" s="64" t="s">
+        <v>68</v>
+      </c>
+      <c r="B63" s="65" t="n">
         <v>62</v>
       </c>
-      <c r="B58" s="60" t="n">
-        <v>57</v>
-      </c>
-      <c r="C58" s="61" t="n">
-        <v>-3.3343</v>
-      </c>
-      <c r="D58" s="61" t="n">
-        <v>2.78</v>
-      </c>
-      <c r="E58" s="61" t="n">
-        <v>0</v>
-      </c>
-      <c r="F58" s="62" t="n">
-        <v>0</v>
-      </c>
-      <c r="G58" s="62" t="n">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="59" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A59" s="59" t="s">
+      <c r="C63" s="66" t="n">
+        <v>2.18</v>
+      </c>
+      <c r="D63" s="66" t="n">
+        <v>1.94</v>
+      </c>
+      <c r="E63" s="66"/>
+      <c r="F63" s="63"/>
+      <c r="G63" s="63"/>
+    </row>
+    <row r="64" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A64" s="24" t="s">
+        <v>69</v>
+      </c>
+      <c r="B64" s="25" t="n">
+        <v>62</v>
+      </c>
+      <c r="C64" s="26" t="n">
+        <f aca="false">C66-1</f>
+        <v>-1.96</v>
+      </c>
+      <c r="D64" s="26" t="n">
+        <v>0.22</v>
+      </c>
+      <c r="E64" s="26" t="n">
+        <v>0</v>
+      </c>
+      <c r="F64" s="27" t="n">
+        <v>0</v>
+      </c>
+      <c r="G64" s="27" t="n">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="65" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A65" s="24" t="s">
+        <v>70</v>
+      </c>
+      <c r="B65" s="25" t="n">
         <v>63</v>
       </c>
-      <c r="B59" s="60" t="n">
-        <v>58</v>
-      </c>
-      <c r="C59" s="61" t="n">
-        <v>-3.1388</v>
-      </c>
-      <c r="D59" s="61" t="n">
-        <v>-2.9209</v>
-      </c>
-      <c r="E59" s="61" t="n">
-        <v>0</v>
-      </c>
-      <c r="F59" s="62" t="n">
-        <v>0</v>
-      </c>
-      <c r="G59" s="62" t="n">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="60" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A60" s="59" t="s">
+      <c r="C65" s="26" t="n">
+        <v>-1.96</v>
+      </c>
+      <c r="D65" s="26" t="n">
+        <f aca="false">D64-1.05</f>
+        <v>-0.83</v>
+      </c>
+      <c r="E65" s="26" t="n">
+        <v>0</v>
+      </c>
+      <c r="F65" s="27" t="n">
+        <v>0</v>
+      </c>
+      <c r="G65" s="27" t="n">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="66" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A66" s="24" t="s">
+        <v>71</v>
+      </c>
+      <c r="B66" s="25" t="n">
         <v>64</v>
       </c>
-      <c r="B60" s="60" t="n">
-        <v>59</v>
-      </c>
-      <c r="C60" s="61" t="n">
-        <v>3.1388</v>
-      </c>
-      <c r="D60" s="61" t="n">
-        <v>-2.9209</v>
-      </c>
-      <c r="E60" s="61" t="n">
-        <v>0</v>
-      </c>
-      <c r="F60" s="62" t="n">
-        <v>0</v>
-      </c>
-      <c r="G60" s="62" t="n">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="61" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A61" s="59" t="s">
+      <c r="C66" s="26" t="n">
+        <v>-0.96</v>
+      </c>
+      <c r="D66" s="26" t="n">
+        <v>-0.83</v>
+      </c>
+      <c r="E66" s="26" t="n">
+        <v>0</v>
+      </c>
+      <c r="F66" s="27" t="n">
+        <v>0</v>
+      </c>
+      <c r="G66" s="27" t="n">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="67" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A67" s="24" t="s">
+        <v>72</v>
+      </c>
+      <c r="B67" s="25" t="n">
         <v>65</v>
       </c>
-      <c r="B61" s="60" t="n">
-        <v>60</v>
-      </c>
-      <c r="C61" s="61" t="n">
-        <v>3.3343</v>
-      </c>
-      <c r="D61" s="61" t="n">
-        <v>2.78</v>
-      </c>
-      <c r="E61" s="61" t="n">
-        <v>0</v>
-      </c>
-      <c r="F61" s="62" t="n">
-        <v>0</v>
-      </c>
-      <c r="G61" s="62" t="n">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="62" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A62" s="23" t="s">
+      <c r="C67" s="26" t="n">
+        <v>-0.96</v>
+      </c>
+      <c r="D67" s="26" t="n">
+        <v>0.22</v>
+      </c>
+      <c r="E67" s="26" t="n">
+        <v>0</v>
+      </c>
+      <c r="F67" s="27" t="n">
+        <v>0</v>
+      </c>
+      <c r="G67" s="27" t="n">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="68" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A68" s="32" t="s">
+        <v>73</v>
+      </c>
+      <c r="B68" s="33" t="n">
         <v>66</v>
       </c>
-      <c r="B62" s="24" t="n">
-        <v>61</v>
-      </c>
-      <c r="C62" s="25" t="n">
-        <f aca="false">C64-1</f>
-        <v>-1.96</v>
-      </c>
-      <c r="D62" s="25" t="n">
-        <v>0.22</v>
-      </c>
-      <c r="E62" s="25" t="n">
-        <v>0</v>
-      </c>
-      <c r="F62" s="26" t="n">
-        <v>0</v>
-      </c>
-      <c r="G62" s="26" t="n">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="63" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A63" s="23" t="s">
+      <c r="C68" s="34" t="n">
+        <v>-3.08</v>
+      </c>
+      <c r="D68" s="34" t="n">
+        <v>-0.16</v>
+      </c>
+      <c r="E68" s="34" t="n">
+        <v>0</v>
+      </c>
+      <c r="F68" s="35" t="n">
+        <v>0</v>
+      </c>
+      <c r="G68" s="35" t="n">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="69" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A69" s="32" t="s">
+        <v>74</v>
+      </c>
+      <c r="B69" s="33" t="n">
         <v>67</v>
       </c>
-      <c r="B63" s="24" t="n">
-        <v>62</v>
-      </c>
-      <c r="C63" s="25" t="n">
-        <v>-1.96</v>
-      </c>
-      <c r="D63" s="25" t="n">
-        <f aca="false">D62-1.05</f>
-        <v>-0.83</v>
-      </c>
-      <c r="E63" s="25" t="n">
-        <v>0</v>
-      </c>
-      <c r="F63" s="26" t="n">
-        <v>0</v>
-      </c>
-      <c r="G63" s="26" t="n">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="64" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A64" s="23" t="s">
+      <c r="C69" s="34" t="n">
+        <f aca="false">C70-0.83</f>
+        <v>-3.08</v>
+      </c>
+      <c r="D69" s="34" t="n">
+        <v>-1.67</v>
+      </c>
+      <c r="E69" s="34" t="n">
+        <v>0</v>
+      </c>
+      <c r="F69" s="35" t="n">
+        <v>0</v>
+      </c>
+      <c r="G69" s="35" t="n">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="70" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A70" s="32" t="s">
+        <v>75</v>
+      </c>
+      <c r="B70" s="33" t="n">
         <v>68</v>
       </c>
-      <c r="B64" s="24" t="n">
-        <v>63</v>
-      </c>
-      <c r="C64" s="25" t="n">
-        <v>-0.96</v>
-      </c>
-      <c r="D64" s="25" t="n">
-        <v>-0.83</v>
-      </c>
-      <c r="E64" s="25" t="n">
-        <v>0</v>
-      </c>
-      <c r="F64" s="26" t="n">
-        <v>0</v>
-      </c>
-      <c r="G64" s="26" t="n">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="65" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A65" s="23" t="s">
+      <c r="C70" s="34" t="n">
+        <v>-2.25</v>
+      </c>
+      <c r="D70" s="34" t="n">
+        <f aca="false">D71-1.51</f>
+        <v>-1.67</v>
+      </c>
+      <c r="E70" s="34" t="n">
+        <v>0</v>
+      </c>
+      <c r="F70" s="35" t="n">
+        <v>0</v>
+      </c>
+      <c r="G70" s="35" t="n">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="71" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A71" s="32" t="s">
+        <v>76</v>
+      </c>
+      <c r="B71" s="33" t="n">
         <v>69</v>
       </c>
-      <c r="B65" s="24" t="n">
-        <v>64</v>
-      </c>
-      <c r="C65" s="25" t="n">
-        <v>-0.96</v>
-      </c>
-      <c r="D65" s="25" t="n">
-        <v>0.22</v>
-      </c>
-      <c r="E65" s="25" t="n">
-        <v>0</v>
-      </c>
-      <c r="F65" s="26" t="n">
-        <v>0</v>
-      </c>
-      <c r="G65" s="26" t="n">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="66" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A66" s="31" t="s">
+      <c r="C71" s="34" t="n">
+        <v>-2.25</v>
+      </c>
+      <c r="D71" s="34" t="n">
+        <v>-0.16</v>
+      </c>
+      <c r="E71" s="34" t="n">
+        <v>0</v>
+      </c>
+      <c r="F71" s="35" t="n">
+        <v>0</v>
+      </c>
+      <c r="G71" s="35" t="n">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="72" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A72" s="67" t="s">
+        <v>77</v>
+      </c>
+      <c r="B72" s="68" t="n">
         <v>70</v>
       </c>
-      <c r="B66" s="32" t="n">
-        <v>65</v>
-      </c>
-      <c r="C66" s="33" t="n">
-        <v>-3.08</v>
-      </c>
-      <c r="D66" s="33" t="n">
-        <v>-0.16</v>
-      </c>
-      <c r="E66" s="33" t="n">
-        <v>0</v>
-      </c>
-      <c r="F66" s="34" t="n">
-        <v>0</v>
-      </c>
-      <c r="G66" s="34" t="n">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="67" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A67" s="31" t="s">
+      <c r="C72" s="69" t="n">
+        <v>-1.93</v>
+      </c>
+      <c r="D72" s="69" t="n">
+        <v>-1.64</v>
+      </c>
+      <c r="E72" s="69" t="n">
+        <v>0</v>
+      </c>
+      <c r="F72" s="70" t="n">
+        <v>0</v>
+      </c>
+      <c r="G72" s="70" t="n">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="73" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A73" s="67" t="s">
+        <v>78</v>
+      </c>
+      <c r="B73" s="68" t="n">
         <v>71</v>
       </c>
-      <c r="B67" s="32" t="n">
-        <v>66</v>
-      </c>
-      <c r="C67" s="33" t="n">
-        <f aca="false">C68-0.83</f>
-        <v>-3.08</v>
-      </c>
-      <c r="D67" s="33" t="n">
-        <v>-1.67</v>
-      </c>
-      <c r="E67" s="33" t="n">
-        <v>0</v>
-      </c>
-      <c r="F67" s="34" t="n">
-        <v>0</v>
-      </c>
-      <c r="G67" s="34" t="n">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="68" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A68" s="31" t="s">
-        <v>72</v>
-      </c>
-      <c r="B68" s="32" t="n">
-        <v>67</v>
-      </c>
-      <c r="C68" s="33" t="n">
-        <v>-2.25</v>
-      </c>
-      <c r="D68" s="33" t="n">
-        <f aca="false">D69-1.51</f>
-        <v>-1.67</v>
-      </c>
-      <c r="E68" s="33" t="n">
-        <v>0</v>
-      </c>
-      <c r="F68" s="34" t="n">
-        <v>0</v>
-      </c>
-      <c r="G68" s="34" t="n">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="69" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A69" s="31" t="s">
-        <v>73</v>
-      </c>
-      <c r="B69" s="32" t="n">
-        <v>68</v>
-      </c>
-      <c r="C69" s="33" t="n">
-        <v>-2.25</v>
-      </c>
-      <c r="D69" s="33" t="n">
-        <v>-0.16</v>
-      </c>
-      <c r="E69" s="33" t="n">
-        <v>0</v>
-      </c>
-      <c r="F69" s="34" t="n">
-        <v>0</v>
-      </c>
-      <c r="G69" s="34" t="n">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="70" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A70" s="63" t="s">
-        <v>74</v>
-      </c>
-      <c r="B70" s="64" t="n">
-        <v>69</v>
-      </c>
-      <c r="C70" s="65" t="n">
+      <c r="C73" s="69" t="n">
         <v>-1.93</v>
       </c>
-      <c r="D70" s="65" t="n">
-        <v>-1.64</v>
-      </c>
-      <c r="E70" s="65" t="n">
-        <v>0</v>
-      </c>
-      <c r="F70" s="66" t="n">
-        <v>0</v>
-      </c>
-      <c r="G70" s="66" t="n">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="71" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A71" s="63" t="s">
-        <v>75</v>
-      </c>
-      <c r="B71" s="64" t="n">
-        <v>70</v>
-      </c>
-      <c r="C71" s="65" t="n">
-        <v>-1.93</v>
-      </c>
-      <c r="D71" s="65" t="n">
+      <c r="D73" s="69" t="n">
         <v>-2.73</v>
       </c>
-      <c r="E71" s="65" t="n">
-        <v>0</v>
-      </c>
-      <c r="F71" s="66" t="n">
-        <v>0</v>
-      </c>
-      <c r="G71" s="66" t="n">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="72" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A72" s="63" t="s">
-        <v>76</v>
-      </c>
-      <c r="B72" s="64" t="n">
-        <v>71</v>
-      </c>
-      <c r="C72" s="65" t="n">
-        <v>-1</v>
-      </c>
-      <c r="D72" s="65" t="n">
-        <f aca="false">D73-1.09</f>
-        <v>-2.73</v>
-      </c>
-      <c r="E72" s="65" t="n">
-        <v>0</v>
-      </c>
-      <c r="F72" s="66" t="n">
-        <v>0</v>
-      </c>
-      <c r="G72" s="66" t="n">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="73" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A73" s="63" t="s">
-        <v>77</v>
-      </c>
-      <c r="B73" s="64" t="n">
-        <v>72</v>
-      </c>
-      <c r="C73" s="65" t="n">
-        <v>-1</v>
-      </c>
-      <c r="D73" s="65" t="n">
-        <v>-1.64</v>
-      </c>
-      <c r="E73" s="65" t="n">
-        <v>0</v>
-      </c>
-      <c r="F73" s="66" t="n">
-        <v>0</v>
-      </c>
-      <c r="G73" s="66" t="n">
+      <c r="E73" s="69" t="n">
+        <v>0</v>
+      </c>
+      <c r="F73" s="70" t="n">
+        <v>0</v>
+      </c>
+      <c r="G73" s="70" t="n">
         <v>0</v>
       </c>
     </row>
     <row r="74" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A74" s="67" t="s">
-        <v>78</v>
+        <v>79</v>
       </c>
       <c r="B74" s="68" t="n">
-        <v>73</v>
+        <v>72</v>
       </c>
       <c r="C74" s="69" t="n">
-        <v>2.26</v>
+        <v>-1</v>
       </c>
       <c r="D74" s="69" t="n">
-        <v>-0.16</v>
+        <f aca="false">D75-1.09</f>
+        <v>-2.73</v>
       </c>
       <c r="E74" s="69" t="n">
         <v>0</v>
@@ -2654,889 +2676,929 @@
     </row>
     <row r="75" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A75" s="67" t="s">
-        <v>79</v>
+        <v>80</v>
       </c>
       <c r="B75" s="68" t="n">
+        <v>73</v>
+      </c>
+      <c r="C75" s="69" t="n">
+        <v>-1</v>
+      </c>
+      <c r="D75" s="69" t="n">
+        <v>-1.64</v>
+      </c>
+      <c r="E75" s="69" t="n">
+        <v>0</v>
+      </c>
+      <c r="F75" s="70" t="n">
+        <v>0</v>
+      </c>
+      <c r="G75" s="70" t="n">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="76" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A76" s="71" t="s">
+        <v>81</v>
+      </c>
+      <c r="B76" s="72" t="n">
         <v>74</v>
       </c>
-      <c r="C75" s="69" t="n">
+      <c r="C76" s="73" t="n">
         <v>2.26</v>
       </c>
-      <c r="D75" s="69" t="n">
-        <f aca="false">D74-1.49</f>
+      <c r="D76" s="73" t="n">
+        <v>-0.16</v>
+      </c>
+      <c r="E76" s="73" t="n">
+        <v>0</v>
+      </c>
+      <c r="F76" s="74" t="n">
+        <v>0</v>
+      </c>
+      <c r="G76" s="74" t="n">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="77" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A77" s="71" t="s">
+        <v>82</v>
+      </c>
+      <c r="B77" s="72" t="n">
+        <v>75</v>
+      </c>
+      <c r="C77" s="73" t="n">
+        <v>2.26</v>
+      </c>
+      <c r="D77" s="73" t="n">
+        <f aca="false">D76-1.49</f>
         <v>-1.65</v>
       </c>
-      <c r="E75" s="69" t="n">
-        <v>0</v>
-      </c>
-      <c r="F75" s="70" t="n">
-        <v>0</v>
-      </c>
-      <c r="G75" s="70" t="n">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="76" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A76" s="67" t="s">
-        <v>80</v>
-      </c>
-      <c r="B76" s="68" t="n">
-        <v>75</v>
-      </c>
-      <c r="C76" s="69" t="n">
+      <c r="E77" s="73" t="n">
+        <v>0</v>
+      </c>
+      <c r="F77" s="74" t="n">
+        <v>0</v>
+      </c>
+      <c r="G77" s="74" t="n">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="78" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A78" s="71" t="s">
+        <v>83</v>
+      </c>
+      <c r="B78" s="72" t="n">
+        <v>76</v>
+      </c>
+      <c r="C78" s="73" t="n">
         <f aca="false">2.26+0.83</f>
         <v>3.09</v>
       </c>
-      <c r="D76" s="69" t="n">
-        <f aca="false">D75</f>
+      <c r="D78" s="73" t="n">
+        <f aca="false">D77</f>
         <v>-1.65</v>
       </c>
-      <c r="E76" s="69" t="n">
-        <v>0</v>
-      </c>
-      <c r="F76" s="70" t="n">
-        <v>0</v>
-      </c>
-      <c r="G76" s="70" t="n">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="77" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A77" s="67" t="s">
-        <v>81</v>
-      </c>
-      <c r="B77" s="68" t="n">
-        <v>76</v>
-      </c>
-      <c r="C77" s="69" t="n">
+      <c r="E78" s="73" t="n">
+        <v>0</v>
+      </c>
+      <c r="F78" s="74" t="n">
+        <v>0</v>
+      </c>
+      <c r="G78" s="74" t="n">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="79" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A79" s="71" t="s">
+        <v>84</v>
+      </c>
+      <c r="B79" s="72" t="n">
+        <v>77</v>
+      </c>
+      <c r="C79" s="73" t="n">
         <f aca="false">2.26+0.83</f>
         <v>3.09</v>
       </c>
-      <c r="D77" s="69" t="n">
+      <c r="D79" s="73" t="n">
         <v>-0.16</v>
       </c>
-      <c r="E77" s="69" t="n">
-        <v>0</v>
-      </c>
-      <c r="F77" s="70" t="n">
-        <v>0</v>
-      </c>
-      <c r="G77" s="70" t="n">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="78" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A78" s="51" t="s">
+      <c r="E79" s="73" t="n">
+        <v>0</v>
+      </c>
+      <c r="F79" s="74" t="n">
+        <v>0</v>
+      </c>
+      <c r="G79" s="74" t="n">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="80" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A80" s="52" t="s">
+        <v>85</v>
+      </c>
+      <c r="B80" s="53" t="n">
+        <v>78</v>
+      </c>
+      <c r="C80" s="54" t="n">
+        <v>0</v>
+      </c>
+      <c r="D80" s="54" t="n">
+        <v>-2.9217</v>
+      </c>
+      <c r="E80" s="54" t="n">
+        <v>-0.546</v>
+      </c>
+      <c r="F80" s="55" t="n">
+        <v>0</v>
+      </c>
+      <c r="G80" s="55" t="n">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="81" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A81" s="48" t="s">
+        <v>86</v>
+      </c>
+      <c r="B81" s="53" t="n">
+        <v>79</v>
+      </c>
+      <c r="C81" s="50" t="n">
+        <v>-3.1634</v>
+      </c>
+      <c r="D81" s="50" t="n">
+        <v>-2.9565</v>
+      </c>
+      <c r="E81" s="50" t="n">
+        <v>-0.9233</v>
+      </c>
+      <c r="F81" s="51" t="n">
+        <v>0</v>
+      </c>
+      <c r="G81" s="51" t="n">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="82" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A82" s="48" t="s">
+        <v>87</v>
+      </c>
+      <c r="B82" s="53" t="n">
+        <v>80</v>
+      </c>
+      <c r="C82" s="50" t="n">
+        <v>-3.0852</v>
+      </c>
+      <c r="D82" s="50" t="n">
+        <v>-2.7843</v>
+      </c>
+      <c r="E82" s="50" t="n">
+        <v>-2.0292</v>
+      </c>
+      <c r="F82" s="51" t="n">
+        <v>0</v>
+      </c>
+      <c r="G82" s="51" t="n">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="83" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A83" s="48" t="s">
+        <v>88</v>
+      </c>
+      <c r="B83" s="53" t="n">
+        <v>81</v>
+      </c>
+      <c r="C83" s="50" t="n">
+        <v>3.085</v>
+      </c>
+      <c r="D83" s="50" t="n">
+        <v>-2.784</v>
+      </c>
+      <c r="E83" s="50" t="n">
+        <v>-2.029</v>
+      </c>
+      <c r="F83" s="51" t="n">
+        <v>0</v>
+      </c>
+      <c r="G83" s="51" t="n">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="84" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A84" s="48" t="s">
+        <v>89</v>
+      </c>
+      <c r="B84" s="53" t="n">
         <v>82</v>
       </c>
-      <c r="B78" s="52" t="n">
-        <v>77</v>
-      </c>
-      <c r="C78" s="53" t="n">
-        <v>0</v>
-      </c>
-      <c r="D78" s="53" t="n">
-        <v>-2.9217</v>
-      </c>
-      <c r="E78" s="53" t="n">
-        <v>-0.546</v>
-      </c>
-      <c r="F78" s="54" t="n">
-        <v>0</v>
-      </c>
-      <c r="G78" s="54" t="n">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="79" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A79" s="47" t="s">
-        <v>83</v>
-      </c>
-      <c r="B79" s="48" t="n">
-        <v>78</v>
-      </c>
-      <c r="C79" s="49" t="n">
-        <v>-3.1634</v>
-      </c>
-      <c r="D79" s="49" t="n">
-        <v>-2.9565</v>
-      </c>
-      <c r="E79" s="49" t="n">
-        <v>-0.9233</v>
-      </c>
-      <c r="F79" s="50" t="n">
-        <v>0</v>
-      </c>
-      <c r="G79" s="50" t="n">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="80" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A80" s="47" t="s">
-        <v>84</v>
-      </c>
-      <c r="B80" s="48" t="n">
-        <v>79</v>
-      </c>
-      <c r="C80" s="49" t="n">
-        <v>-3.0852</v>
-      </c>
-      <c r="D80" s="49" t="n">
-        <v>-2.7843</v>
-      </c>
-      <c r="E80" s="49" t="n">
-        <v>-2.0292</v>
-      </c>
-      <c r="F80" s="50" t="n">
-        <v>0</v>
-      </c>
-      <c r="G80" s="50" t="n">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="81" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A81" s="47" t="s">
-        <v>85</v>
-      </c>
-      <c r="B81" s="48" t="n">
-        <v>80</v>
-      </c>
-      <c r="C81" s="49" t="n">
-        <v>3.085</v>
-      </c>
-      <c r="D81" s="49" t="n">
-        <v>-2.784</v>
-      </c>
-      <c r="E81" s="49" t="n">
-        <v>-2.029</v>
-      </c>
-      <c r="F81" s="50" t="n">
-        <v>0</v>
-      </c>
-      <c r="G81" s="50" t="n">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="82" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A82" s="47" t="s">
-        <v>86</v>
-      </c>
-      <c r="B82" s="48" t="n">
-        <v>81</v>
-      </c>
-      <c r="C82" s="49" t="n">
+      <c r="C84" s="50" t="n">
         <v>3.163</v>
       </c>
-      <c r="D82" s="49" t="n">
+      <c r="D84" s="50" t="n">
         <v>-2.957</v>
       </c>
-      <c r="E82" s="49" t="n">
+      <c r="E84" s="50" t="n">
         <v>0.923</v>
       </c>
-      <c r="F82" s="50" t="n">
-        <v>0</v>
-      </c>
-      <c r="G82" s="50" t="n">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="83" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A83" s="71"/>
-      <c r="B83" s="72"/>
-      <c r="C83" s="73"/>
-      <c r="D83" s="73"/>
-      <c r="E83" s="73"/>
-      <c r="F83" s="74"/>
-      <c r="G83" s="74"/>
-    </row>
-    <row r="84" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A84" s="71"/>
-      <c r="B84" s="72"/>
-      <c r="C84" s="73"/>
-      <c r="D84" s="73"/>
-      <c r="E84" s="73"/>
-      <c r="F84" s="74"/>
-      <c r="G84" s="74"/>
+      <c r="F84" s="51" t="n">
+        <v>0</v>
+      </c>
+      <c r="G84" s="51" t="n">
+        <v>0</v>
+      </c>
     </row>
     <row r="85" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A85" s="71"/>
-      <c r="B85" s="72"/>
-      <c r="C85" s="73"/>
-      <c r="D85" s="73"/>
-      <c r="E85" s="73"/>
-      <c r="F85" s="74"/>
-      <c r="G85" s="74"/>
+      <c r="A85" s="75"/>
+      <c r="B85" s="76"/>
+      <c r="C85" s="77"/>
+      <c r="D85" s="77"/>
+      <c r="E85" s="77"/>
+      <c r="F85" s="78"/>
+      <c r="G85" s="78"/>
     </row>
     <row r="86" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A86" s="71"/>
-      <c r="B86" s="72"/>
-      <c r="C86" s="73"/>
-      <c r="D86" s="73"/>
-      <c r="E86" s="73"/>
-      <c r="F86" s="74"/>
-      <c r="G86" s="74"/>
+      <c r="A86" s="75"/>
+      <c r="B86" s="76"/>
+      <c r="C86" s="77"/>
+      <c r="D86" s="77"/>
+      <c r="E86" s="77"/>
+      <c r="F86" s="78"/>
+      <c r="G86" s="78"/>
     </row>
     <row r="87" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A87" s="71"/>
-      <c r="B87" s="72"/>
-      <c r="C87" s="73"/>
-      <c r="D87" s="73"/>
-      <c r="E87" s="73"/>
-      <c r="F87" s="74"/>
-      <c r="G87" s="74"/>
+      <c r="A87" s="75"/>
+      <c r="B87" s="76"/>
+      <c r="C87" s="77"/>
+      <c r="D87" s="77"/>
+      <c r="E87" s="77"/>
+      <c r="F87" s="78"/>
+      <c r="G87" s="78"/>
     </row>
     <row r="88" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A88" s="71"/>
-      <c r="B88" s="72"/>
-      <c r="C88" s="73"/>
-      <c r="D88" s="73"/>
-      <c r="E88" s="73"/>
-      <c r="F88" s="74"/>
-      <c r="G88" s="74"/>
+      <c r="A88" s="75"/>
+      <c r="B88" s="76"/>
+      <c r="C88" s="77"/>
+      <c r="D88" s="77"/>
+      <c r="E88" s="77"/>
+      <c r="F88" s="78"/>
+      <c r="G88" s="78"/>
     </row>
     <row r="89" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A89" s="71"/>
-      <c r="B89" s="72"/>
-      <c r="C89" s="73"/>
-      <c r="D89" s="73"/>
-      <c r="E89" s="73"/>
-      <c r="F89" s="74"/>
-      <c r="G89" s="74"/>
+      <c r="A89" s="75"/>
+      <c r="B89" s="76"/>
+      <c r="C89" s="77"/>
+      <c r="D89" s="77"/>
+      <c r="E89" s="77"/>
+      <c r="F89" s="78"/>
+      <c r="G89" s="78"/>
     </row>
     <row r="90" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A90" s="71"/>
-      <c r="B90" s="72"/>
-      <c r="C90" s="73"/>
-      <c r="D90" s="73"/>
-      <c r="E90" s="73"/>
-      <c r="F90" s="74"/>
-      <c r="G90" s="74"/>
+      <c r="A90" s="75"/>
+      <c r="B90" s="76"/>
+      <c r="C90" s="77"/>
+      <c r="D90" s="77"/>
+      <c r="E90" s="77"/>
+      <c r="F90" s="78"/>
+      <c r="G90" s="78"/>
     </row>
     <row r="91" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A91" s="71"/>
-      <c r="B91" s="72"/>
-      <c r="C91" s="73"/>
-      <c r="D91" s="73"/>
-      <c r="E91" s="73"/>
-      <c r="F91" s="74"/>
-      <c r="G91" s="74"/>
+      <c r="A91" s="75"/>
+      <c r="B91" s="76"/>
+      <c r="C91" s="77"/>
+      <c r="D91" s="77"/>
+      <c r="E91" s="77"/>
+      <c r="F91" s="78"/>
+      <c r="G91" s="78"/>
     </row>
     <row r="92" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A92" s="71"/>
-      <c r="B92" s="72"/>
-      <c r="C92" s="73"/>
-      <c r="D92" s="73"/>
-      <c r="E92" s="73"/>
-      <c r="F92" s="74"/>
-      <c r="G92" s="74"/>
+      <c r="A92" s="75"/>
+      <c r="B92" s="76"/>
+      <c r="C92" s="77"/>
+      <c r="D92" s="77"/>
+      <c r="E92" s="77"/>
+      <c r="F92" s="78"/>
+      <c r="G92" s="78"/>
     </row>
     <row r="93" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A93" s="71"/>
-      <c r="B93" s="72"/>
-      <c r="C93" s="73"/>
-      <c r="D93" s="73"/>
-      <c r="E93" s="73"/>
-      <c r="F93" s="74"/>
-      <c r="G93" s="74"/>
+      <c r="A93" s="75"/>
+      <c r="B93" s="76"/>
+      <c r="C93" s="77"/>
+      <c r="D93" s="77"/>
+      <c r="E93" s="77"/>
+      <c r="F93" s="78"/>
+      <c r="G93" s="78"/>
     </row>
     <row r="94" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A94" s="71"/>
-      <c r="B94" s="72"/>
-      <c r="C94" s="73"/>
-      <c r="D94" s="73"/>
-      <c r="E94" s="73"/>
-      <c r="F94" s="74"/>
-      <c r="G94" s="74"/>
+      <c r="A94" s="75"/>
+      <c r="B94" s="76"/>
+      <c r="C94" s="77"/>
+      <c r="D94" s="77"/>
+      <c r="E94" s="77"/>
+      <c r="F94" s="78"/>
+      <c r="G94" s="78"/>
     </row>
     <row r="95" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A95" s="71"/>
-      <c r="B95" s="72"/>
-      <c r="C95" s="73"/>
-      <c r="D95" s="73"/>
-      <c r="E95" s="73"/>
-      <c r="F95" s="74"/>
-      <c r="G95" s="74"/>
+      <c r="A95" s="75"/>
+      <c r="B95" s="76"/>
+      <c r="C95" s="77"/>
+      <c r="D95" s="77"/>
+      <c r="E95" s="77"/>
+      <c r="F95" s="78"/>
+      <c r="G95" s="78"/>
     </row>
     <row r="96" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A96" s="71"/>
-      <c r="B96" s="72"/>
-      <c r="C96" s="73"/>
-      <c r="D96" s="73"/>
-      <c r="E96" s="73"/>
-      <c r="F96" s="74"/>
-      <c r="G96" s="74"/>
+      <c r="A96" s="75"/>
+      <c r="B96" s="76"/>
+      <c r="C96" s="77"/>
+      <c r="D96" s="77"/>
+      <c r="E96" s="77"/>
+      <c r="F96" s="78"/>
+      <c r="G96" s="78"/>
     </row>
     <row r="97" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A97" s="71"/>
-      <c r="B97" s="72"/>
-      <c r="C97" s="73"/>
-      <c r="D97" s="73"/>
-      <c r="E97" s="73"/>
-      <c r="F97" s="74"/>
-      <c r="G97" s="74"/>
+      <c r="A97" s="75"/>
+      <c r="B97" s="76"/>
+      <c r="C97" s="77"/>
+      <c r="D97" s="77"/>
+      <c r="E97" s="77"/>
+      <c r="F97" s="78"/>
+      <c r="G97" s="78"/>
     </row>
     <row r="98" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A98" s="71"/>
-      <c r="B98" s="72"/>
-      <c r="C98" s="73"/>
-      <c r="D98" s="73"/>
-      <c r="E98" s="73"/>
-      <c r="F98" s="74"/>
-      <c r="G98" s="74"/>
+      <c r="A98" s="75"/>
+      <c r="B98" s="76"/>
+      <c r="C98" s="77"/>
+      <c r="D98" s="77"/>
+      <c r="E98" s="77"/>
+      <c r="F98" s="78"/>
+      <c r="G98" s="78"/>
     </row>
     <row r="99" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A99" s="71"/>
-      <c r="B99" s="72"/>
-      <c r="C99" s="73"/>
-      <c r="D99" s="73"/>
-      <c r="E99" s="73"/>
-      <c r="F99" s="74"/>
-      <c r="G99" s="74"/>
+      <c r="A99" s="75"/>
+      <c r="B99" s="76"/>
+      <c r="C99" s="77"/>
+      <c r="D99" s="77"/>
+      <c r="E99" s="77"/>
+      <c r="F99" s="78"/>
+      <c r="G99" s="78"/>
     </row>
     <row r="100" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A100" s="71"/>
-      <c r="B100" s="72"/>
-      <c r="C100" s="73"/>
-      <c r="D100" s="73"/>
-      <c r="E100" s="73"/>
-      <c r="F100" s="74"/>
-      <c r="G100" s="74"/>
+      <c r="A100" s="75"/>
+      <c r="B100" s="76"/>
+      <c r="C100" s="77"/>
+      <c r="D100" s="77"/>
+      <c r="E100" s="77"/>
+      <c r="F100" s="78"/>
+      <c r="G100" s="78"/>
     </row>
     <row r="101" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A101" s="71"/>
-      <c r="B101" s="72"/>
-      <c r="C101" s="73"/>
-      <c r="D101" s="73"/>
-      <c r="E101" s="73"/>
-      <c r="F101" s="74"/>
-      <c r="G101" s="74"/>
+      <c r="A101" s="75"/>
+      <c r="B101" s="76"/>
+      <c r="C101" s="77"/>
+      <c r="D101" s="77"/>
+      <c r="E101" s="77"/>
+      <c r="F101" s="78"/>
+      <c r="G101" s="78"/>
     </row>
     <row r="102" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A102" s="71"/>
-      <c r="B102" s="72"/>
-      <c r="C102" s="73"/>
-      <c r="D102" s="73"/>
-      <c r="E102" s="73"/>
-      <c r="F102" s="74"/>
-      <c r="G102" s="74"/>
+      <c r="A102" s="75"/>
+      <c r="B102" s="76"/>
+      <c r="C102" s="77"/>
+      <c r="D102" s="77"/>
+      <c r="E102" s="77"/>
+      <c r="F102" s="78"/>
+      <c r="G102" s="78"/>
     </row>
     <row r="103" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A103" s="71"/>
-      <c r="B103" s="72"/>
-      <c r="C103" s="73"/>
-      <c r="D103" s="73"/>
-      <c r="E103" s="73"/>
-      <c r="F103" s="74"/>
-      <c r="G103" s="74"/>
+      <c r="A103" s="75"/>
+      <c r="B103" s="76"/>
+      <c r="C103" s="77"/>
+      <c r="D103" s="77"/>
+      <c r="E103" s="77"/>
+      <c r="F103" s="78"/>
+      <c r="G103" s="78"/>
     </row>
     <row r="104" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A104" s="71"/>
-      <c r="B104" s="72"/>
-      <c r="C104" s="73"/>
-      <c r="D104" s="73"/>
-      <c r="E104" s="73"/>
-      <c r="F104" s="74"/>
-      <c r="G104" s="74"/>
+      <c r="A104" s="75"/>
+      <c r="B104" s="76"/>
+      <c r="C104" s="77"/>
+      <c r="D104" s="77"/>
+      <c r="E104" s="77"/>
+      <c r="F104" s="78"/>
+      <c r="G104" s="78"/>
     </row>
     <row r="105" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A105" s="71"/>
-      <c r="B105" s="72"/>
-      <c r="C105" s="73"/>
-      <c r="D105" s="73"/>
-      <c r="E105" s="73"/>
-      <c r="F105" s="74"/>
-      <c r="G105" s="74"/>
+      <c r="A105" s="75"/>
+      <c r="B105" s="76"/>
+      <c r="C105" s="77"/>
+      <c r="D105" s="77"/>
+      <c r="E105" s="77"/>
+      <c r="F105" s="78"/>
+      <c r="G105" s="78"/>
     </row>
     <row r="106" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A106" s="71"/>
-      <c r="B106" s="72"/>
-      <c r="C106" s="73"/>
-      <c r="D106" s="73"/>
-      <c r="E106" s="73"/>
-      <c r="F106" s="74"/>
-      <c r="G106" s="74"/>
+      <c r="A106" s="75"/>
+      <c r="B106" s="76"/>
+      <c r="C106" s="77"/>
+      <c r="D106" s="77"/>
+      <c r="E106" s="77"/>
+      <c r="F106" s="78"/>
+      <c r="G106" s="78"/>
     </row>
     <row r="107" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A107" s="71"/>
-      <c r="B107" s="72"/>
-      <c r="C107" s="73"/>
-      <c r="D107" s="73"/>
-      <c r="E107" s="73"/>
-      <c r="F107" s="74"/>
-      <c r="G107" s="74"/>
+      <c r="A107" s="75"/>
+      <c r="B107" s="76"/>
+      <c r="C107" s="77"/>
+      <c r="D107" s="77"/>
+      <c r="E107" s="77"/>
+      <c r="F107" s="78"/>
+      <c r="G107" s="78"/>
     </row>
     <row r="108" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A108" s="71"/>
-      <c r="B108" s="72"/>
-      <c r="C108" s="73"/>
-      <c r="D108" s="73"/>
-      <c r="E108" s="73"/>
-      <c r="F108" s="74"/>
-      <c r="G108" s="74"/>
+      <c r="A108" s="75"/>
+      <c r="B108" s="76"/>
+      <c r="C108" s="77"/>
+      <c r="D108" s="77"/>
+      <c r="E108" s="77"/>
+      <c r="F108" s="78"/>
+      <c r="G108" s="78"/>
     </row>
     <row r="109" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A109" s="71"/>
-      <c r="B109" s="72"/>
-      <c r="C109" s="73"/>
-      <c r="D109" s="73"/>
-      <c r="E109" s="73"/>
-      <c r="F109" s="74"/>
-      <c r="G109" s="74"/>
+      <c r="A109" s="75"/>
+      <c r="B109" s="76"/>
+      <c r="C109" s="77"/>
+      <c r="D109" s="77"/>
+      <c r="E109" s="77"/>
+      <c r="F109" s="78"/>
+      <c r="G109" s="78"/>
     </row>
     <row r="110" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A110" s="71"/>
-      <c r="B110" s="72"/>
-      <c r="C110" s="73"/>
-      <c r="D110" s="73"/>
-      <c r="E110" s="73"/>
-      <c r="F110" s="74"/>
-      <c r="G110" s="74"/>
+      <c r="A110" s="75"/>
+      <c r="B110" s="76"/>
+      <c r="C110" s="77"/>
+      <c r="D110" s="77"/>
+      <c r="E110" s="77"/>
+      <c r="F110" s="78"/>
+      <c r="G110" s="78"/>
     </row>
     <row r="111" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A111" s="71"/>
-      <c r="B111" s="72"/>
-      <c r="C111" s="73"/>
-      <c r="D111" s="73"/>
-      <c r="E111" s="73"/>
-      <c r="F111" s="74"/>
-      <c r="G111" s="74"/>
+      <c r="A111" s="75"/>
+      <c r="B111" s="76"/>
+      <c r="C111" s="77"/>
+      <c r="D111" s="77"/>
+      <c r="E111" s="77"/>
+      <c r="F111" s="78"/>
+      <c r="G111" s="78"/>
     </row>
     <row r="112" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A112" s="71"/>
-      <c r="B112" s="72"/>
-      <c r="C112" s="73"/>
-      <c r="D112" s="73"/>
-      <c r="E112" s="73"/>
-      <c r="F112" s="74"/>
-      <c r="G112" s="74"/>
+      <c r="A112" s="75"/>
+      <c r="B112" s="76"/>
+      <c r="C112" s="77"/>
+      <c r="D112" s="77"/>
+      <c r="E112" s="77"/>
+      <c r="F112" s="78"/>
+      <c r="G112" s="78"/>
     </row>
     <row r="113" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A113" s="71"/>
-      <c r="B113" s="72"/>
-      <c r="C113" s="73"/>
-      <c r="D113" s="73"/>
-      <c r="E113" s="73"/>
-      <c r="F113" s="74"/>
-      <c r="G113" s="74"/>
+      <c r="A113" s="75"/>
+      <c r="B113" s="76"/>
+      <c r="C113" s="77"/>
+      <c r="D113" s="77"/>
+      <c r="E113" s="77"/>
+      <c r="F113" s="78"/>
+      <c r="G113" s="78"/>
     </row>
     <row r="114" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A114" s="71"/>
-      <c r="B114" s="72"/>
-      <c r="C114" s="73"/>
-      <c r="D114" s="73"/>
-      <c r="E114" s="73"/>
-      <c r="F114" s="74"/>
-      <c r="G114" s="74"/>
+      <c r="A114" s="75"/>
+      <c r="B114" s="76"/>
+      <c r="C114" s="77"/>
+      <c r="D114" s="77"/>
+      <c r="E114" s="77"/>
+      <c r="F114" s="78"/>
+      <c r="G114" s="78"/>
     </row>
     <row r="115" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A115" s="71"/>
-      <c r="B115" s="72"/>
-      <c r="C115" s="73"/>
-      <c r="D115" s="73"/>
-      <c r="E115" s="73"/>
-      <c r="F115" s="74"/>
-      <c r="G115" s="74"/>
+      <c r="A115" s="75"/>
+      <c r="B115" s="76"/>
+      <c r="C115" s="77"/>
+      <c r="D115" s="77"/>
+      <c r="E115" s="77"/>
+      <c r="F115" s="78"/>
+      <c r="G115" s="78"/>
     </row>
     <row r="116" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A116" s="71"/>
-      <c r="B116" s="72"/>
-      <c r="C116" s="73"/>
-      <c r="D116" s="73"/>
-      <c r="E116" s="73"/>
-      <c r="F116" s="74"/>
-      <c r="G116" s="74"/>
+      <c r="A116" s="75"/>
+      <c r="B116" s="76"/>
+      <c r="C116" s="77"/>
+      <c r="D116" s="77"/>
+      <c r="E116" s="77"/>
+      <c r="F116" s="78"/>
+      <c r="G116" s="78"/>
     </row>
     <row r="117" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A117" s="71"/>
-      <c r="B117" s="72"/>
-      <c r="C117" s="73"/>
-      <c r="D117" s="73"/>
-      <c r="E117" s="73"/>
-      <c r="F117" s="74"/>
-      <c r="G117" s="74"/>
+      <c r="A117" s="75"/>
+      <c r="B117" s="76"/>
+      <c r="C117" s="77"/>
+      <c r="D117" s="77"/>
+      <c r="E117" s="77"/>
+      <c r="F117" s="78"/>
+      <c r="G117" s="78"/>
     </row>
     <row r="118" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A118" s="71"/>
-      <c r="B118" s="72"/>
-      <c r="C118" s="73"/>
-      <c r="D118" s="73"/>
-      <c r="E118" s="73"/>
-      <c r="F118" s="74"/>
-      <c r="G118" s="74"/>
+      <c r="A118" s="75"/>
+      <c r="B118" s="76"/>
+      <c r="C118" s="77"/>
+      <c r="D118" s="77"/>
+      <c r="E118" s="77"/>
+      <c r="F118" s="78"/>
+      <c r="G118" s="78"/>
     </row>
     <row r="119" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A119" s="71"/>
-      <c r="B119" s="72"/>
-      <c r="C119" s="73"/>
-      <c r="D119" s="73"/>
-      <c r="E119" s="73"/>
-      <c r="F119" s="74"/>
-      <c r="G119" s="74"/>
+      <c r="A119" s="75"/>
+      <c r="B119" s="76"/>
+      <c r="C119" s="77"/>
+      <c r="D119" s="77"/>
+      <c r="E119" s="77"/>
+      <c r="F119" s="78"/>
+      <c r="G119" s="78"/>
     </row>
     <row r="120" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A120" s="71"/>
-      <c r="B120" s="72"/>
-      <c r="C120" s="73"/>
-      <c r="D120" s="73"/>
-      <c r="E120" s="73"/>
-      <c r="F120" s="74"/>
-      <c r="G120" s="74"/>
+      <c r="A120" s="75"/>
+      <c r="B120" s="76"/>
+      <c r="C120" s="77"/>
+      <c r="D120" s="77"/>
+      <c r="E120" s="77"/>
+      <c r="F120" s="78"/>
+      <c r="G120" s="78"/>
     </row>
     <row r="121" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A121" s="71"/>
-      <c r="B121" s="72"/>
-      <c r="C121" s="73"/>
-      <c r="D121" s="73"/>
-      <c r="E121" s="73"/>
-      <c r="F121" s="74"/>
-      <c r="G121" s="74"/>
+      <c r="A121" s="75"/>
+      <c r="B121" s="76"/>
+      <c r="C121" s="77"/>
+      <c r="D121" s="77"/>
+      <c r="E121" s="77"/>
+      <c r="F121" s="78"/>
+      <c r="G121" s="78"/>
     </row>
     <row r="122" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A122" s="71"/>
-      <c r="B122" s="72"/>
-      <c r="C122" s="73"/>
-      <c r="D122" s="73"/>
-      <c r="E122" s="73"/>
-      <c r="F122" s="74"/>
-      <c r="G122" s="74"/>
+      <c r="A122" s="75"/>
+      <c r="B122" s="76"/>
+      <c r="C122" s="77"/>
+      <c r="D122" s="77"/>
+      <c r="E122" s="77"/>
+      <c r="F122" s="78"/>
+      <c r="G122" s="78"/>
     </row>
     <row r="123" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A123" s="71"/>
-      <c r="B123" s="72"/>
-      <c r="C123" s="73"/>
-      <c r="D123" s="73"/>
-      <c r="E123" s="73"/>
-      <c r="F123" s="74"/>
-      <c r="G123" s="74"/>
+      <c r="A123" s="75"/>
+      <c r="B123" s="76"/>
+      <c r="C123" s="77"/>
+      <c r="D123" s="77"/>
+      <c r="E123" s="77"/>
+      <c r="F123" s="78"/>
+      <c r="G123" s="78"/>
     </row>
     <row r="124" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A124" s="71"/>
-      <c r="B124" s="72"/>
-      <c r="C124" s="73"/>
-      <c r="D124" s="73"/>
-      <c r="E124" s="73"/>
-      <c r="F124" s="74"/>
-      <c r="G124" s="74"/>
+      <c r="A124" s="75"/>
+      <c r="B124" s="76"/>
+      <c r="C124" s="77"/>
+      <c r="D124" s="77"/>
+      <c r="E124" s="77"/>
+      <c r="F124" s="78"/>
+      <c r="G124" s="78"/>
     </row>
     <row r="125" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A125" s="71"/>
-      <c r="B125" s="72"/>
-      <c r="C125" s="73"/>
-      <c r="D125" s="73"/>
-      <c r="E125" s="73"/>
-      <c r="F125" s="74"/>
-      <c r="G125" s="74"/>
+      <c r="A125" s="75"/>
+      <c r="B125" s="76"/>
+      <c r="C125" s="77"/>
+      <c r="D125" s="77"/>
+      <c r="E125" s="77"/>
+      <c r="F125" s="78"/>
+      <c r="G125" s="78"/>
     </row>
     <row r="126" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A126" s="71"/>
-      <c r="B126" s="72"/>
-      <c r="C126" s="73"/>
-      <c r="D126" s="73"/>
-      <c r="E126" s="73"/>
-      <c r="F126" s="74"/>
-      <c r="G126" s="74"/>
+      <c r="A126" s="75"/>
+      <c r="B126" s="76"/>
+      <c r="C126" s="77"/>
+      <c r="D126" s="77"/>
+      <c r="E126" s="77"/>
+      <c r="F126" s="78"/>
+      <c r="G126" s="78"/>
     </row>
     <row r="127" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A127" s="71"/>
-      <c r="B127" s="72"/>
-      <c r="C127" s="73"/>
-      <c r="D127" s="73"/>
-      <c r="E127" s="73"/>
-      <c r="F127" s="74"/>
-      <c r="G127" s="74"/>
+      <c r="A127" s="75"/>
+      <c r="B127" s="76"/>
+      <c r="C127" s="77"/>
+      <c r="D127" s="77"/>
+      <c r="E127" s="77"/>
+      <c r="F127" s="78"/>
+      <c r="G127" s="78"/>
     </row>
     <row r="128" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A128" s="71"/>
-      <c r="B128" s="72"/>
-      <c r="C128" s="73"/>
-      <c r="D128" s="73"/>
-      <c r="E128" s="73"/>
-      <c r="F128" s="74"/>
-      <c r="G128" s="74"/>
+      <c r="A128" s="75"/>
+      <c r="B128" s="76"/>
+      <c r="C128" s="77"/>
+      <c r="D128" s="77"/>
+      <c r="E128" s="77"/>
+      <c r="F128" s="78"/>
+      <c r="G128" s="78"/>
     </row>
     <row r="129" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A129" s="71"/>
-      <c r="B129" s="72"/>
-      <c r="C129" s="73"/>
-      <c r="D129" s="73"/>
-      <c r="E129" s="73"/>
-      <c r="F129" s="74"/>
-      <c r="G129" s="74"/>
+      <c r="A129" s="75"/>
+      <c r="B129" s="76"/>
+      <c r="C129" s="77"/>
+      <c r="D129" s="77"/>
+      <c r="E129" s="77"/>
+      <c r="F129" s="78"/>
+      <c r="G129" s="78"/>
     </row>
     <row r="130" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A130" s="71"/>
-      <c r="B130" s="72"/>
-      <c r="C130" s="73"/>
-      <c r="D130" s="73"/>
-      <c r="E130" s="73"/>
-      <c r="F130" s="74"/>
-      <c r="G130" s="74"/>
+      <c r="A130" s="75"/>
+      <c r="B130" s="76"/>
+      <c r="C130" s="77"/>
+      <c r="D130" s="77"/>
+      <c r="E130" s="77"/>
+      <c r="F130" s="78"/>
+      <c r="G130" s="78"/>
     </row>
     <row r="131" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A131" s="71"/>
-      <c r="B131" s="72"/>
-      <c r="C131" s="73"/>
-      <c r="D131" s="73"/>
-      <c r="E131" s="73"/>
-      <c r="F131" s="74"/>
-      <c r="G131" s="74"/>
+      <c r="A131" s="75"/>
+      <c r="B131" s="76"/>
+      <c r="C131" s="77"/>
+      <c r="D131" s="77"/>
+      <c r="E131" s="77"/>
+      <c r="F131" s="78"/>
+      <c r="G131" s="78"/>
     </row>
     <row r="132" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A132" s="71"/>
-      <c r="B132" s="72"/>
-      <c r="C132" s="73"/>
-      <c r="D132" s="73"/>
-      <c r="E132" s="73"/>
-      <c r="F132" s="74"/>
-      <c r="G132" s="74"/>
+      <c r="A132" s="75"/>
+      <c r="B132" s="76"/>
+      <c r="C132" s="77"/>
+      <c r="D132" s="77"/>
+      <c r="E132" s="77"/>
+      <c r="F132" s="78"/>
+      <c r="G132" s="78"/>
     </row>
     <row r="133" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A133" s="71"/>
-      <c r="B133" s="72"/>
-      <c r="C133" s="73"/>
-      <c r="D133" s="73"/>
-      <c r="E133" s="73"/>
-      <c r="F133" s="74"/>
-      <c r="G133" s="74"/>
+      <c r="A133" s="75"/>
+      <c r="B133" s="76"/>
+      <c r="C133" s="77"/>
+      <c r="D133" s="77"/>
+      <c r="E133" s="77"/>
+      <c r="F133" s="78"/>
+      <c r="G133" s="78"/>
     </row>
     <row r="134" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A134" s="71"/>
-      <c r="B134" s="72"/>
-      <c r="C134" s="73"/>
-      <c r="D134" s="73"/>
-      <c r="E134" s="73"/>
-      <c r="F134" s="74"/>
-      <c r="G134" s="74"/>
+      <c r="A134" s="75"/>
+      <c r="B134" s="76"/>
+      <c r="C134" s="77"/>
+      <c r="D134" s="77"/>
+      <c r="E134" s="77"/>
+      <c r="F134" s="78"/>
+      <c r="G134" s="78"/>
     </row>
     <row r="135" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A135" s="71"/>
-      <c r="B135" s="72"/>
-      <c r="C135" s="73"/>
-      <c r="D135" s="73"/>
-      <c r="E135" s="73"/>
-      <c r="F135" s="74"/>
-      <c r="G135" s="74"/>
+      <c r="A135" s="75"/>
+      <c r="B135" s="76"/>
+      <c r="C135" s="77"/>
+      <c r="D135" s="77"/>
+      <c r="E135" s="77"/>
+      <c r="F135" s="78"/>
+      <c r="G135" s="78"/>
     </row>
     <row r="136" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A136" s="71"/>
-      <c r="B136" s="72"/>
-      <c r="C136" s="73"/>
-      <c r="D136" s="73"/>
-      <c r="E136" s="73"/>
-      <c r="F136" s="74"/>
-      <c r="G136" s="74"/>
+      <c r="A136" s="75"/>
+      <c r="B136" s="76"/>
+      <c r="C136" s="77"/>
+      <c r="D136" s="77"/>
+      <c r="E136" s="77"/>
+      <c r="F136" s="78"/>
+      <c r="G136" s="78"/>
     </row>
     <row r="137" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A137" s="71"/>
-      <c r="B137" s="72"/>
-      <c r="C137" s="73"/>
-      <c r="D137" s="73"/>
-      <c r="E137" s="73"/>
-      <c r="F137" s="74"/>
-      <c r="G137" s="74"/>
+      <c r="A137" s="75"/>
+      <c r="B137" s="76"/>
+      <c r="C137" s="77"/>
+      <c r="D137" s="77"/>
+      <c r="E137" s="77"/>
+      <c r="F137" s="78"/>
+      <c r="G137" s="78"/>
     </row>
     <row r="138" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A138" s="71"/>
-      <c r="B138" s="72"/>
-      <c r="C138" s="73"/>
-      <c r="D138" s="73"/>
-      <c r="E138" s="73"/>
-      <c r="F138" s="74"/>
-      <c r="G138" s="74"/>
+      <c r="A138" s="75"/>
+      <c r="B138" s="76"/>
+      <c r="C138" s="77"/>
+      <c r="D138" s="77"/>
+      <c r="E138" s="77"/>
+      <c r="F138" s="78"/>
+      <c r="G138" s="78"/>
     </row>
     <row r="139" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A139" s="71"/>
-      <c r="B139" s="72"/>
-      <c r="C139" s="73"/>
-      <c r="D139" s="73"/>
-      <c r="E139" s="73"/>
-      <c r="F139" s="74"/>
-      <c r="G139" s="74"/>
+      <c r="A139" s="75"/>
+      <c r="B139" s="76"/>
+      <c r="C139" s="77"/>
+      <c r="D139" s="77"/>
+      <c r="E139" s="77"/>
+      <c r="F139" s="78"/>
+      <c r="G139" s="78"/>
     </row>
     <row r="140" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A140" s="71"/>
-      <c r="B140" s="72"/>
-      <c r="C140" s="73"/>
-      <c r="D140" s="73"/>
-      <c r="E140" s="73"/>
-      <c r="F140" s="74"/>
-      <c r="G140" s="74"/>
+      <c r="A140" s="75"/>
+      <c r="B140" s="76"/>
+      <c r="C140" s="77"/>
+      <c r="D140" s="77"/>
+      <c r="E140" s="77"/>
+      <c r="F140" s="78"/>
+      <c r="G140" s="78"/>
     </row>
     <row r="141" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A141" s="71"/>
-      <c r="B141" s="72"/>
-      <c r="C141" s="73"/>
-      <c r="D141" s="73"/>
-      <c r="E141" s="73"/>
-      <c r="F141" s="74"/>
-      <c r="G141" s="74"/>
+      <c r="A141" s="75"/>
+      <c r="B141" s="76"/>
+      <c r="C141" s="77"/>
+      <c r="D141" s="77"/>
+      <c r="E141" s="77"/>
+      <c r="F141" s="78"/>
+      <c r="G141" s="78"/>
     </row>
     <row r="142" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A142" s="71"/>
-      <c r="B142" s="72"/>
-      <c r="C142" s="73"/>
-      <c r="D142" s="73"/>
-      <c r="E142" s="73"/>
-      <c r="F142" s="74"/>
-      <c r="G142" s="74"/>
+      <c r="A142" s="75"/>
+      <c r="B142" s="76"/>
+      <c r="C142" s="77"/>
+      <c r="D142" s="77"/>
+      <c r="E142" s="77"/>
+      <c r="F142" s="78"/>
+      <c r="G142" s="78"/>
     </row>
     <row r="143" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A143" s="71"/>
-      <c r="B143" s="72"/>
-      <c r="C143" s="73"/>
-      <c r="D143" s="73"/>
-      <c r="E143" s="73"/>
-      <c r="F143" s="74"/>
-      <c r="G143" s="74"/>
+      <c r="A143" s="75"/>
+      <c r="B143" s="76"/>
+      <c r="C143" s="77"/>
+      <c r="D143" s="77"/>
+      <c r="E143" s="77"/>
+      <c r="F143" s="78"/>
+      <c r="G143" s="78"/>
     </row>
     <row r="144" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A144" s="71"/>
-      <c r="B144" s="72"/>
-      <c r="C144" s="73"/>
-      <c r="D144" s="73"/>
-      <c r="E144" s="73"/>
-      <c r="F144" s="74"/>
-      <c r="G144" s="74"/>
+      <c r="A144" s="75"/>
+      <c r="B144" s="76"/>
+      <c r="C144" s="77"/>
+      <c r="D144" s="77"/>
+      <c r="E144" s="77"/>
+      <c r="F144" s="78"/>
+      <c r="G144" s="78"/>
     </row>
     <row r="145" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A145" s="71"/>
-      <c r="B145" s="72"/>
-      <c r="C145" s="73"/>
-      <c r="D145" s="73"/>
-      <c r="E145" s="73"/>
-      <c r="F145" s="74"/>
-      <c r="G145" s="74"/>
+      <c r="A145" s="75"/>
+      <c r="B145" s="76"/>
+      <c r="C145" s="77"/>
+      <c r="D145" s="77"/>
+      <c r="E145" s="77"/>
+      <c r="F145" s="78"/>
+      <c r="G145" s="78"/>
     </row>
     <row r="146" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A146" s="71"/>
-      <c r="B146" s="72"/>
-      <c r="C146" s="73"/>
-      <c r="D146" s="73"/>
-      <c r="E146" s="73"/>
-      <c r="F146" s="74"/>
-      <c r="G146" s="74"/>
+      <c r="A146" s="75"/>
+      <c r="B146" s="76"/>
+      <c r="C146" s="77"/>
+      <c r="D146" s="77"/>
+      <c r="E146" s="77"/>
+      <c r="F146" s="78"/>
+      <c r="G146" s="78"/>
     </row>
     <row r="147" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A147" s="71"/>
-      <c r="B147" s="72"/>
-      <c r="C147" s="73"/>
-      <c r="D147" s="73"/>
-      <c r="E147" s="73"/>
-      <c r="F147" s="74"/>
-      <c r="G147" s="74"/>
+      <c r="A147" s="75"/>
+      <c r="B147" s="76"/>
+      <c r="C147" s="77"/>
+      <c r="D147" s="77"/>
+      <c r="E147" s="77"/>
+      <c r="F147" s="78"/>
+      <c r="G147" s="78"/>
     </row>
     <row r="148" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A148" s="71"/>
-      <c r="B148" s="72"/>
-      <c r="C148" s="72"/>
-      <c r="D148" s="72"/>
-      <c r="E148" s="72"/>
-      <c r="F148" s="74"/>
-      <c r="G148" s="74"/>
+      <c r="A148" s="75"/>
+      <c r="B148" s="76"/>
+      <c r="C148" s="77"/>
+      <c r="D148" s="77"/>
+      <c r="E148" s="77"/>
+      <c r="F148" s="78"/>
+      <c r="G148" s="78"/>
     </row>
     <row r="149" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A149" s="71"/>
-      <c r="B149" s="72"/>
-      <c r="C149" s="72"/>
-      <c r="D149" s="72"/>
-      <c r="E149" s="72"/>
-      <c r="F149" s="74"/>
-      <c r="G149" s="74"/>
+      <c r="A149" s="75"/>
+      <c r="B149" s="76"/>
+      <c r="C149" s="77"/>
+      <c r="D149" s="77"/>
+      <c r="E149" s="77"/>
+      <c r="F149" s="78"/>
+      <c r="G149" s="78"/>
     </row>
     <row r="150" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A150" s="71"/>
-      <c r="B150" s="72"/>
-      <c r="C150" s="72"/>
-      <c r="D150" s="72"/>
-      <c r="E150" s="72"/>
-      <c r="F150" s="74"/>
-      <c r="G150" s="74"/>
+      <c r="A150" s="75"/>
+      <c r="B150" s="76"/>
+      <c r="C150" s="76"/>
+      <c r="D150" s="76"/>
+      <c r="E150" s="76"/>
+      <c r="F150" s="78"/>
+      <c r="G150" s="78"/>
     </row>
     <row r="151" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A151" s="71"/>
-      <c r="B151" s="72"/>
-      <c r="C151" s="72"/>
-      <c r="D151" s="72"/>
-      <c r="E151" s="72"/>
-      <c r="F151" s="74"/>
-      <c r="G151" s="74"/>
+      <c r="A151" s="75"/>
+      <c r="B151" s="76"/>
+      <c r="C151" s="76"/>
+      <c r="D151" s="76"/>
+      <c r="E151" s="76"/>
+      <c r="F151" s="78"/>
+      <c r="G151" s="78"/>
     </row>
     <row r="152" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A152" s="71"/>
-      <c r="B152" s="72"/>
-      <c r="C152" s="72"/>
-      <c r="D152" s="72"/>
-      <c r="E152" s="72"/>
-      <c r="F152" s="74"/>
-      <c r="G152" s="74"/>
+      <c r="A152" s="75"/>
+      <c r="B152" s="76"/>
+      <c r="C152" s="76"/>
+      <c r="D152" s="76"/>
+      <c r="E152" s="76"/>
+      <c r="F152" s="78"/>
+      <c r="G152" s="78"/>
     </row>
     <row r="153" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A153" s="71"/>
-      <c r="B153" s="72"/>
-      <c r="C153" s="72"/>
-      <c r="D153" s="72"/>
-      <c r="E153" s="72"/>
-      <c r="F153" s="74"/>
-      <c r="G153" s="74"/>
+      <c r="A153" s="75"/>
+      <c r="B153" s="76"/>
+      <c r="C153" s="76"/>
+      <c r="D153" s="76"/>
+      <c r="E153" s="76"/>
+      <c r="F153" s="78"/>
+      <c r="G153" s="78"/>
     </row>
     <row r="154" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A154" s="71"/>
-      <c r="B154" s="72"/>
-      <c r="C154" s="72"/>
-      <c r="D154" s="72"/>
-      <c r="E154" s="72"/>
-      <c r="F154" s="74"/>
-      <c r="G154" s="74"/>
+      <c r="A154" s="75"/>
+      <c r="B154" s="76"/>
+      <c r="C154" s="76"/>
+      <c r="D154" s="76"/>
+      <c r="E154" s="76"/>
+      <c r="F154" s="78"/>
+      <c r="G154" s="78"/>
     </row>
     <row r="155" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A155" s="71"/>
-      <c r="B155" s="72"/>
-      <c r="C155" s="72"/>
-      <c r="D155" s="72"/>
-      <c r="E155" s="72"/>
-      <c r="F155" s="74"/>
-      <c r="G155" s="74"/>
+      <c r="A155" s="75"/>
+      <c r="B155" s="76"/>
+      <c r="C155" s="76"/>
+      <c r="D155" s="76"/>
+      <c r="E155" s="76"/>
+      <c r="F155" s="78"/>
+      <c r="G155" s="78"/>
     </row>
     <row r="156" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A156" s="71"/>
-      <c r="B156" s="72"/>
-      <c r="C156" s="72"/>
-      <c r="D156" s="72"/>
-      <c r="E156" s="72"/>
-      <c r="F156" s="74"/>
-      <c r="G156" s="74"/>
+      <c r="A156" s="75"/>
+      <c r="B156" s="76"/>
+      <c r="C156" s="76"/>
+      <c r="D156" s="76"/>
+      <c r="E156" s="76"/>
+      <c r="F156" s="78"/>
+      <c r="G156" s="78"/>
     </row>
     <row r="157" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A157" s="71"/>
-      <c r="B157" s="72"/>
-      <c r="C157" s="72"/>
-      <c r="D157" s="72"/>
-      <c r="E157" s="72"/>
-      <c r="F157" s="74"/>
-      <c r="G157" s="74"/>
+      <c r="A157" s="75"/>
+      <c r="B157" s="76"/>
+      <c r="C157" s="76"/>
+      <c r="D157" s="76"/>
+      <c r="E157" s="76"/>
+      <c r="F157" s="78"/>
+      <c r="G157" s="78"/>
     </row>
     <row r="158" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A158" s="71"/>
-      <c r="B158" s="72"/>
-      <c r="C158" s="72"/>
-      <c r="D158" s="72"/>
-      <c r="E158" s="72"/>
-      <c r="F158" s="74"/>
-      <c r="G158" s="74"/>
+      <c r="A158" s="75"/>
+      <c r="B158" s="76"/>
+      <c r="C158" s="76"/>
+      <c r="D158" s="76"/>
+      <c r="E158" s="76"/>
+      <c r="F158" s="78"/>
+      <c r="G158" s="78"/>
     </row>
     <row r="159" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="B159" s="2"/>
-      <c r="G159" s="74"/>
+      <c r="A159" s="75"/>
+      <c r="B159" s="76"/>
+      <c r="C159" s="76"/>
+      <c r="D159" s="76"/>
+      <c r="E159" s="76"/>
+      <c r="F159" s="78"/>
+      <c r="G159" s="78"/>
     </row>
     <row r="160" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="B160" s="2"/>
-      <c r="G160" s="74"/>
+      <c r="A160" s="75"/>
+      <c r="B160" s="76"/>
+      <c r="C160" s="76"/>
+      <c r="D160" s="76"/>
+      <c r="E160" s="76"/>
+      <c r="F160" s="78"/>
+      <c r="G160" s="78"/>
     </row>
     <row r="161" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="B161" s="2"/>
+      <c r="G161" s="78"/>
     </row>
     <row r="162" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="B162" s="2"/>
+      <c r="G162" s="78"/>
     </row>
     <row r="163" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="B163" s="2"/>
@@ -6526,8 +6588,14 @@
     <row r="1158" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="B1158" s="2"/>
     </row>
+    <row r="1159" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="B1159" s="2"/>
+    </row>
+    <row r="1160" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="B1160" s="2"/>
+    </row>
   </sheetData>
-  <conditionalFormatting sqref="F2:G142 G143:G160">
+  <conditionalFormatting sqref="F2:G144 G145:G162">
     <cfRule type="cellIs" priority="2" operator="equal" aboveAverage="0" equalAverage="0" bottom="0" percent="0" rank="0" text="" dxfId="0">
       <formula>0</formula>
     </cfRule>

--- a/pw.xlsx
+++ b/pw.xlsx
@@ -939,11 +939,11 @@
   </sheetPr>
   <dimension ref="A1:I1160"/>
   <sheetViews>
-    <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="true" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A28" colorId="64" zoomScale="100" zoomScaleNormal="100" zoomScalePageLayoutView="100" workbookViewId="0">
-      <selection pane="topLeft" activeCell="M57" activeCellId="0" sqref="M57"/>
+    <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="true" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A9" colorId="64" zoomScale="100" zoomScaleNormal="100" zoomScalePageLayoutView="100" workbookViewId="0">
+      <selection pane="topLeft" activeCell="G32" activeCellId="0" sqref="G32"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="8.859375" defaultRowHeight="13.8" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
+  <sheetFormatPr defaultColWidth="8.88671875" defaultRowHeight="13.8" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
   <cols>
     <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="1" min="1" style="0" width="34.73"/>
     <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="2" min="2" style="1" width="11.11"/>
@@ -1005,7 +1005,7 @@
       </c>
       <c r="H2" s="14" t="n">
         <f aca="false">SUM(F2:F84)</f>
-        <v>19</v>
+        <v>17</v>
       </c>
       <c r="I2" s="0" t="n">
         <f aca="false">MAX(G2:G162)</f>
@@ -1428,9 +1428,7 @@
       <c r="E20" s="26" t="n">
         <v>0</v>
       </c>
-      <c r="F20" s="27" t="n">
-        <v>0</v>
-      </c>
+      <c r="F20" s="27"/>
       <c r="G20" s="27" t="n">
         <v>0</v>
       </c>
@@ -1569,7 +1567,7 @@
         <v>0</v>
       </c>
       <c r="F26" s="39" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="G26" s="39" t="n">
         <v>0</v>
@@ -1684,7 +1682,7 @@
         <v>0</v>
       </c>
       <c r="F31" s="39" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="G31" s="39" t="n">
         <v>0</v>
@@ -2396,8 +2394,12 @@
       <c r="E62" s="66" t="n">
         <v>0</v>
       </c>
-      <c r="F62" s="63"/>
-      <c r="G62" s="63"/>
+      <c r="F62" s="63" t="n">
+        <v>0</v>
+      </c>
+      <c r="G62" s="63" t="n">
+        <v>0</v>
+      </c>
     </row>
     <row r="63" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A63" s="64" t="s">
@@ -2412,9 +2414,15 @@
       <c r="D63" s="66" t="n">
         <v>1.94</v>
       </c>
-      <c r="E63" s="66"/>
-      <c r="F63" s="63"/>
-      <c r="G63" s="63"/>
+      <c r="E63" s="66" t="n">
+        <v>0</v>
+      </c>
+      <c r="F63" s="63" t="n">
+        <v>0</v>
+      </c>
+      <c r="G63" s="63" t="n">
+        <v>0</v>
+      </c>
     </row>
     <row r="64" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A64" s="24" t="s">

--- a/pw.xlsx
+++ b/pw.xlsx
@@ -939,11 +939,11 @@
   </sheetPr>
   <dimension ref="A1:I1160"/>
   <sheetViews>
-    <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="true" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A9" colorId="64" zoomScale="100" zoomScaleNormal="100" zoomScalePageLayoutView="100" workbookViewId="0">
-      <selection pane="topLeft" activeCell="G32" activeCellId="0" sqref="G32"/>
+    <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="true" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A13" colorId="64" zoomScale="100" zoomScaleNormal="100" zoomScalePageLayoutView="100" workbookViewId="0">
+      <selection pane="topLeft" activeCell="F40" activeCellId="0" sqref="F40"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="8.88671875" defaultRowHeight="13.8" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
+  <sheetFormatPr defaultColWidth="8.9140625" defaultRowHeight="13.8" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
   <cols>
     <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="1" min="1" style="0" width="34.73"/>
     <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="2" min="2" style="1" width="11.11"/>
@@ -1009,7 +1009,7 @@
       </c>
       <c r="I2" s="0" t="n">
         <f aca="false">MAX(G2:G162)</f>
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="3" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -1524,7 +1524,7 @@
         <v>1</v>
       </c>
       <c r="G24" s="27" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="25" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -1547,7 +1547,7 @@
         <v>1</v>
       </c>
       <c r="G25" s="27" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="26" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">

--- a/pw.xlsx
+++ b/pw.xlsx
@@ -20,7 +20,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="92" uniqueCount="90">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="94" uniqueCount="92">
   <si>
     <t xml:space="preserve">Label</t>
   </si>
@@ -113,6 +113,12 @@
   </si>
   <si>
     <t xml:space="preserve">Dog House Right Bottom</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Ship Super Structure House Sturn Side Left</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Ship Super Structure House Sturn Side Right</t>
   </si>
   <si>
     <t xml:space="preserve">Wall Left Bottom </t>
@@ -301,7 +307,7 @@
     <numFmt numFmtId="165" formatCode="0.000"/>
     <numFmt numFmtId="166" formatCode="General"/>
   </numFmts>
-  <fonts count="6">
+  <fonts count="7">
     <font>
       <sz val="11"/>
       <color rgb="FF000000"/>
@@ -339,8 +345,14 @@
       <family val="2"/>
       <charset val="1"/>
     </font>
+    <font>
+      <sz val="8"/>
+      <color rgb="FF000000"/>
+      <name val="Calibri"/>
+      <family val="2"/>
+    </font>
   </fonts>
-  <fills count="23">
+  <fills count="24">
     <fill>
       <patternFill patternType="none"/>
     </fill>
@@ -404,13 +416,19 @@
     <fill>
       <patternFill patternType="solid">
         <fgColor rgb="FFFF7B59"/>
-        <bgColor rgb="FFFF6600"/>
+        <bgColor rgb="FFE16173"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
         <fgColor rgb="FFFFDBB6"/>
         <bgColor rgb="FFFFD7D7"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFE16173"/>
+        <bgColor rgb="FFFF7B59"/>
       </patternFill>
     </fill>
     <fill>
@@ -524,7 +542,7 @@
       <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
     </xf>
   </cellStyleXfs>
-  <cellXfs count="79">
+  <cellXfs count="84">
     <xf numFmtId="164" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="false" applyBorder="false" applyAlignment="false" applyProtection="false">
       <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
@@ -589,7 +607,7 @@
       <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
     </xf>
-    <xf numFmtId="164" fontId="5" fillId="8" borderId="1" xfId="0" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="false">
+    <xf numFmtId="166" fontId="5" fillId="8" borderId="1" xfId="0" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="false">
       <alignment horizontal="center" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
     </xf>
@@ -609,7 +627,7 @@
       <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
     </xf>
-    <xf numFmtId="164" fontId="5" fillId="9" borderId="1" xfId="0" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="false">
+    <xf numFmtId="166" fontId="5" fillId="9" borderId="1" xfId="0" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="false">
       <alignment horizontal="center" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
     </xf>
@@ -625,7 +643,7 @@
       <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
     </xf>
-    <xf numFmtId="164" fontId="5" fillId="10" borderId="1" xfId="0" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="false">
+    <xf numFmtId="166" fontId="5" fillId="10" borderId="1" xfId="0" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="false">
       <alignment horizontal="center" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
     </xf>
@@ -641,7 +659,7 @@
       <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
     </xf>
-    <xf numFmtId="164" fontId="5" fillId="11" borderId="1" xfId="0" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="false">
+    <xf numFmtId="166" fontId="5" fillId="11" borderId="1" xfId="0" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="false">
       <alignment horizontal="center" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
     </xf>
@@ -657,7 +675,7 @@
       <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
     </xf>
-    <xf numFmtId="164" fontId="5" fillId="12" borderId="1" xfId="0" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="false">
+    <xf numFmtId="166" fontId="5" fillId="12" borderId="1" xfId="0" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="false">
       <alignment horizontal="center" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
     </xf>
@@ -673,7 +691,7 @@
       <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
     </xf>
-    <xf numFmtId="164" fontId="5" fillId="13" borderId="1" xfId="0" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="false">
+    <xf numFmtId="166" fontId="5" fillId="13" borderId="1" xfId="0" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="false">
       <alignment horizontal="center" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
     </xf>
@@ -685,11 +703,15 @@
       <alignment horizontal="center" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
     </xf>
+    <xf numFmtId="164" fontId="6" fillId="13" borderId="1" xfId="0" applyFont="true" applyBorder="true" applyAlignment="false" applyProtection="false">
+      <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
+      <protection locked="true" hidden="false"/>
+    </xf>
     <xf numFmtId="164" fontId="5" fillId="14" borderId="1" xfId="0" applyFont="true" applyBorder="true" applyAlignment="false" applyProtection="false">
       <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
     </xf>
-    <xf numFmtId="164" fontId="5" fillId="14" borderId="1" xfId="0" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="false">
+    <xf numFmtId="166" fontId="5" fillId="14" borderId="1" xfId="0" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="false">
       <alignment horizontal="center" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
     </xf>
@@ -705,7 +727,7 @@
       <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
     </xf>
-    <xf numFmtId="164" fontId="5" fillId="15" borderId="1" xfId="0" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="false">
+    <xf numFmtId="166" fontId="5" fillId="15" borderId="1" xfId="0" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="false">
       <alignment horizontal="center" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
     </xf>
@@ -721,7 +743,7 @@
       <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
     </xf>
-    <xf numFmtId="164" fontId="5" fillId="16" borderId="1" xfId="0" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="false">
+    <xf numFmtId="166" fontId="5" fillId="16" borderId="1" xfId="0" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="false">
       <alignment horizontal="center" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
     </xf>
@@ -737,7 +759,7 @@
       <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
     </xf>
-    <xf numFmtId="164" fontId="5" fillId="17" borderId="1" xfId="0" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="false">
+    <xf numFmtId="166" fontId="5" fillId="17" borderId="1" xfId="0" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="false">
       <alignment horizontal="center" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
     </xf>
@@ -753,7 +775,7 @@
       <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
     </xf>
-    <xf numFmtId="164" fontId="5" fillId="18" borderId="1" xfId="0" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="false">
+    <xf numFmtId="166" fontId="5" fillId="18" borderId="1" xfId="0" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="false">
       <alignment horizontal="center" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
     </xf>
@@ -769,7 +791,7 @@
       <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
     </xf>
-    <xf numFmtId="164" fontId="5" fillId="19" borderId="1" xfId="0" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="false">
+    <xf numFmtId="166" fontId="5" fillId="19" borderId="1" xfId="0" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="false">
       <alignment horizontal="center" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
     </xf>
@@ -785,7 +807,7 @@
       <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
     </xf>
-    <xf numFmtId="164" fontId="5" fillId="20" borderId="1" xfId="0" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="false">
+    <xf numFmtId="166" fontId="5" fillId="20" borderId="1" xfId="0" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="false">
       <alignment horizontal="center" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
     </xf>
@@ -793,11 +815,15 @@
       <alignment horizontal="center" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
     </xf>
+    <xf numFmtId="164" fontId="0" fillId="20" borderId="1" xfId="0" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="false">
+      <alignment horizontal="center" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
+      <protection locked="true" hidden="false"/>
+    </xf>
     <xf numFmtId="164" fontId="5" fillId="21" borderId="1" xfId="0" applyFont="true" applyBorder="true" applyAlignment="false" applyProtection="false">
       <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
     </xf>
-    <xf numFmtId="164" fontId="5" fillId="21" borderId="1" xfId="0" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="false">
+    <xf numFmtId="166" fontId="5" fillId="21" borderId="1" xfId="0" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="false">
       <alignment horizontal="center" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
     </xf>
@@ -805,15 +831,11 @@
       <alignment horizontal="center" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
     </xf>
-    <xf numFmtId="164" fontId="0" fillId="21" borderId="1" xfId="0" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="false">
-      <alignment horizontal="center" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
-      <protection locked="true" hidden="false"/>
-    </xf>
     <xf numFmtId="164" fontId="5" fillId="22" borderId="1" xfId="0" applyFont="true" applyBorder="true" applyAlignment="false" applyProtection="false">
       <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
     </xf>
-    <xf numFmtId="164" fontId="5" fillId="22" borderId="1" xfId="0" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="false">
+    <xf numFmtId="166" fontId="5" fillId="22" borderId="1" xfId="0" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="false">
       <alignment horizontal="center" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
     </xf>
@@ -822,6 +844,22 @@
       <protection locked="true" hidden="false"/>
     </xf>
     <xf numFmtId="164" fontId="0" fillId="22" borderId="1" xfId="0" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="false">
+      <alignment horizontal="center" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
+      <protection locked="true" hidden="false"/>
+    </xf>
+    <xf numFmtId="164" fontId="5" fillId="23" borderId="1" xfId="0" applyFont="true" applyBorder="true" applyAlignment="false" applyProtection="false">
+      <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
+      <protection locked="true" hidden="false"/>
+    </xf>
+    <xf numFmtId="166" fontId="5" fillId="23" borderId="1" xfId="0" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="false">
+      <alignment horizontal="center" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
+      <protection locked="true" hidden="false"/>
+    </xf>
+    <xf numFmtId="165" fontId="5" fillId="23" borderId="1" xfId="0" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="false">
+      <alignment horizontal="center" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
+      <protection locked="true" hidden="false"/>
+    </xf>
+    <xf numFmtId="164" fontId="0" fillId="23" borderId="1" xfId="0" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="false">
       <alignment horizontal="center" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
     </xf>
@@ -916,7 +954,7 @@
       <rgbColor rgb="FF99CC00"/>
       <rgbColor rgb="FFFFB66C"/>
       <rgbColor rgb="FFFF9900"/>
-      <rgbColor rgb="FFFF6600"/>
+      <rgbColor rgb="FFE16173"/>
       <rgbColor rgb="FF666666"/>
       <rgbColor rgb="FF8E86AE"/>
       <rgbColor rgb="FF003366"/>
@@ -937,13 +975,13 @@
   <sheetPr filterMode="false">
     <pageSetUpPr fitToPage="false"/>
   </sheetPr>
-  <dimension ref="A1:I1160"/>
+  <dimension ref="A1:I1162"/>
   <sheetViews>
-    <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="true" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A13" colorId="64" zoomScale="100" zoomScaleNormal="100" zoomScalePageLayoutView="100" workbookViewId="0">
-      <selection pane="topLeft" activeCell="F40" activeCellId="0" sqref="F40"/>
+    <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="true" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A10" colorId="64" zoomScale="100" zoomScaleNormal="100" zoomScalePageLayoutView="100" workbookViewId="0">
+      <selection pane="topLeft" activeCell="J34" activeCellId="0" sqref="J34"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="8.9140625" defaultRowHeight="13.8" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
+  <sheetFormatPr defaultColWidth="8.94140625" defaultRowHeight="13.8" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
   <cols>
     <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="1" min="1" style="0" width="34.73"/>
     <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="2" min="2" style="1" width="11.11"/>
@@ -1004,12 +1042,12 @@
         <v>0</v>
       </c>
       <c r="H2" s="14" t="n">
-        <f aca="false">SUM(F2:F84)</f>
-        <v>17</v>
+        <f aca="false">SUM(F2:F86)</f>
+        <v>28</v>
       </c>
       <c r="I2" s="0" t="n">
-        <f aca="false">MAX(G2:G162)</f>
-        <v>2</v>
+        <f aca="false">MAX(G2:G164)</f>
+        <v>0</v>
       </c>
     </row>
     <row r="3" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -1017,6 +1055,7 @@
         <v>10</v>
       </c>
       <c r="B3" s="16" t="n">
+        <f aca="false">B2+1</f>
         <v>2</v>
       </c>
       <c r="C3" s="17" t="n">
@@ -1029,7 +1068,7 @@
         <v>0.365</v>
       </c>
       <c r="F3" s="18" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="G3" s="18" t="n">
         <v>0</v>
@@ -1041,6 +1080,7 @@
         <v>11</v>
       </c>
       <c r="B4" s="16" t="n">
+        <f aca="false">B3+1</f>
         <v>3</v>
       </c>
       <c r="C4" s="17" t="n">
@@ -1054,9 +1094,9 @@
         <v>0.725</v>
       </c>
       <c r="F4" s="18" t="n">
-        <v>0</v>
-      </c>
-      <c r="G4" s="18" t="n">
+        <v>1</v>
+      </c>
+      <c r="G4" s="13" t="n">
         <v>0</v>
       </c>
     </row>
@@ -1065,6 +1105,7 @@
         <v>12</v>
       </c>
       <c r="B5" s="16" t="n">
+        <f aca="false">B4+1</f>
         <v>4</v>
       </c>
       <c r="C5" s="17" t="n">
@@ -1089,6 +1130,7 @@
         <v>13</v>
       </c>
       <c r="B6" s="11" t="n">
+        <f aca="false">B5+1</f>
         <v>5</v>
       </c>
       <c r="C6" s="12" t="n">
@@ -1113,6 +1155,7 @@
         <v>14</v>
       </c>
       <c r="B7" s="16" t="n">
+        <f aca="false">B6+1</f>
         <v>6</v>
       </c>
       <c r="C7" s="17" t="n">
@@ -1126,7 +1169,7 @@
         <v>1.43</v>
       </c>
       <c r="F7" s="18" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="G7" s="18" t="n">
         <v>0</v>
@@ -1137,6 +1180,7 @@
         <v>15</v>
       </c>
       <c r="B8" s="16" t="n">
+        <f aca="false">B7+1</f>
         <v>7</v>
       </c>
       <c r="C8" s="17" t="n">
@@ -1150,9 +1194,9 @@
         <v>1.43</v>
       </c>
       <c r="F8" s="18" t="n">
-        <v>0</v>
-      </c>
-      <c r="G8" s="18" t="n">
+        <v>1</v>
+      </c>
+      <c r="G8" s="13" t="n">
         <v>0</v>
       </c>
     </row>
@@ -1161,6 +1205,7 @@
         <v>16</v>
       </c>
       <c r="B9" s="16" t="n">
+        <f aca="false">B8+1</f>
         <v>8</v>
       </c>
       <c r="C9" s="17" t="n">
@@ -1173,7 +1218,7 @@
         <v>1.53</v>
       </c>
       <c r="F9" s="18" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="G9" s="18" t="n">
         <v>0</v>
@@ -1184,6 +1229,7 @@
         <v>17</v>
       </c>
       <c r="B10" s="16" t="n">
+        <f aca="false">B9+1</f>
         <v>9</v>
       </c>
       <c r="C10" s="17" t="n">
@@ -1196,9 +1242,9 @@
         <v>1.43</v>
       </c>
       <c r="F10" s="18" t="n">
-        <v>0</v>
-      </c>
-      <c r="G10" s="18" t="n">
+        <v>1</v>
+      </c>
+      <c r="G10" s="13" t="n">
         <v>0</v>
       </c>
     </row>
@@ -1207,6 +1253,7 @@
         <v>18</v>
       </c>
       <c r="B11" s="11" t="n">
+        <f aca="false">B10+1</f>
         <v>10</v>
       </c>
       <c r="C11" s="12" t="n">
@@ -1221,7 +1268,7 @@
       <c r="F11" s="13" t="n">
         <v>1</v>
       </c>
-      <c r="G11" s="13" t="n">
+      <c r="G11" s="18" t="n">
         <v>0</v>
       </c>
     </row>
@@ -1230,6 +1277,7 @@
         <v>19</v>
       </c>
       <c r="B12" s="16" t="n">
+        <f aca="false">B11+1</f>
         <v>11</v>
       </c>
       <c r="C12" s="17" t="n">
@@ -1243,9 +1291,9 @@
         <v>1.09</v>
       </c>
       <c r="F12" s="18" t="n">
-        <v>0</v>
-      </c>
-      <c r="G12" s="18" t="n">
+        <v>1</v>
+      </c>
+      <c r="G12" s="13" t="n">
         <v>0</v>
       </c>
     </row>
@@ -1254,6 +1302,7 @@
         <v>19</v>
       </c>
       <c r="B13" s="16" t="n">
+        <f aca="false">B12+1</f>
         <v>12</v>
       </c>
       <c r="C13" s="17" t="n">
@@ -1267,7 +1316,7 @@
         <v>0.73</v>
       </c>
       <c r="F13" s="18" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="G13" s="18" t="n">
         <v>0</v>
@@ -1278,6 +1327,7 @@
         <v>19</v>
       </c>
       <c r="B14" s="16" t="n">
+        <f aca="false">B13+1</f>
         <v>13</v>
       </c>
       <c r="C14" s="17" t="n">
@@ -1291,9 +1341,9 @@
         <v>0.37</v>
       </c>
       <c r="F14" s="18" t="n">
-        <v>0</v>
-      </c>
-      <c r="G14" s="18" t="n">
+        <v>1</v>
+      </c>
+      <c r="G14" s="13" t="n">
         <v>0</v>
       </c>
     </row>
@@ -1302,6 +1352,7 @@
         <v>20</v>
       </c>
       <c r="B15" s="11" t="n">
+        <f aca="false">B14+1</f>
         <v>14</v>
       </c>
       <c r="C15" s="12" t="n">
@@ -1316,7 +1367,7 @@
       <c r="F15" s="13" t="n">
         <v>1</v>
       </c>
-      <c r="G15" s="13" t="n">
+      <c r="G15" s="18" t="n">
         <v>0</v>
       </c>
     </row>
@@ -1325,6 +1376,7 @@
         <v>21</v>
       </c>
       <c r="B16" s="21" t="n">
+        <f aca="false">B15+1</f>
         <v>15</v>
       </c>
       <c r="C16" s="22" t="n">
@@ -1337,9 +1389,9 @@
         <v>0.675</v>
       </c>
       <c r="F16" s="23" t="n">
-        <v>0</v>
-      </c>
-      <c r="G16" s="23" t="n">
+        <v>1</v>
+      </c>
+      <c r="G16" s="13" t="n">
         <v>0</v>
       </c>
     </row>
@@ -1348,6 +1400,7 @@
         <v>22</v>
       </c>
       <c r="B17" s="21" t="n">
+        <f aca="false">B16+1</f>
         <v>16</v>
       </c>
       <c r="C17" s="22" t="n">
@@ -1360,9 +1413,9 @@
         <v>1.325</v>
       </c>
       <c r="F17" s="23" t="n">
-        <v>0</v>
-      </c>
-      <c r="G17" s="23" t="n">
+        <v>1</v>
+      </c>
+      <c r="G17" s="18" t="n">
         <v>0</v>
       </c>
     </row>
@@ -1371,6 +1424,7 @@
         <v>23</v>
       </c>
       <c r="B18" s="21" t="n">
+        <f aca="false">B17+1</f>
         <v>17</v>
       </c>
       <c r="C18" s="22" t="n">
@@ -1385,7 +1439,7 @@
       <c r="F18" s="23" t="n">
         <v>1</v>
       </c>
-      <c r="G18" s="23" t="n">
+      <c r="G18" s="13" t="n">
         <v>0</v>
       </c>
     </row>
@@ -1394,6 +1448,7 @@
         <v>24</v>
       </c>
       <c r="B19" s="21" t="n">
+        <f aca="false">B18+1</f>
         <v>18</v>
       </c>
       <c r="C19" s="22" t="n">
@@ -1408,7 +1463,7 @@
       <c r="F19" s="23" t="n">
         <v>1</v>
       </c>
-      <c r="G19" s="23" t="n">
+      <c r="G19" s="18" t="n">
         <v>0</v>
       </c>
     </row>
@@ -1417,6 +1472,7 @@
         <v>25</v>
       </c>
       <c r="B20" s="25" t="n">
+        <f aca="false">B19+1</f>
         <v>19</v>
       </c>
       <c r="C20" s="26" t="n">
@@ -1428,8 +1484,10 @@
       <c r="E20" s="26" t="n">
         <v>0</v>
       </c>
-      <c r="F20" s="27"/>
-      <c r="G20" s="27" t="n">
+      <c r="F20" s="27" t="n">
+        <v>0</v>
+      </c>
+      <c r="G20" s="13" t="n">
         <v>0</v>
       </c>
     </row>
@@ -1438,6 +1496,7 @@
         <v>26</v>
       </c>
       <c r="B21" s="25" t="n">
+        <f aca="false">B20+1</f>
         <v>20</v>
       </c>
       <c r="C21" s="26" t="n">
@@ -1452,7 +1511,7 @@
       <c r="F21" s="27" t="n">
         <v>0</v>
       </c>
-      <c r="G21" s="27" t="n">
+      <c r="G21" s="18" t="n">
         <v>0</v>
       </c>
     </row>
@@ -1461,6 +1520,7 @@
         <v>27</v>
       </c>
       <c r="B22" s="29" t="n">
+        <f aca="false">B21+1</f>
         <v>21</v>
       </c>
       <c r="C22" s="30" t="n">
@@ -1475,7 +1535,7 @@
       <c r="F22" s="31" t="n">
         <v>0</v>
       </c>
-      <c r="G22" s="31" t="n">
+      <c r="G22" s="13" t="n">
         <v>0</v>
       </c>
     </row>
@@ -1484,6 +1544,7 @@
         <v>28</v>
       </c>
       <c r="B23" s="33" t="n">
+        <f aca="false">B22+1</f>
         <v>22</v>
       </c>
       <c r="C23" s="34" t="n">
@@ -1500,7 +1561,7 @@
       <c r="F23" s="35" t="n">
         <v>0</v>
       </c>
-      <c r="G23" s="35" t="n">
+      <c r="G23" s="18" t="n">
         <v>0</v>
       </c>
     </row>
@@ -1509,6 +1570,7 @@
         <v>29</v>
       </c>
       <c r="B24" s="25" t="n">
+        <f aca="false">B23+1</f>
         <v>23</v>
       </c>
       <c r="C24" s="26" t="n">
@@ -1523,8 +1585,8 @@
       <c r="F24" s="27" t="n">
         <v>1</v>
       </c>
-      <c r="G24" s="27" t="n">
-        <v>1</v>
+      <c r="G24" s="13" t="n">
+        <v>0</v>
       </c>
     </row>
     <row r="25" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -1532,6 +1594,7 @@
         <v>30</v>
       </c>
       <c r="B25" s="25" t="n">
+        <f aca="false">B24+1</f>
         <v>24</v>
       </c>
       <c r="C25" s="26" t="n">
@@ -1546,8 +1609,8 @@
       <c r="F25" s="27" t="n">
         <v>1</v>
       </c>
-      <c r="G25" s="27" t="n">
-        <v>2</v>
+      <c r="G25" s="18" t="n">
+        <v>0</v>
       </c>
     </row>
     <row r="26" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -1555,39 +1618,41 @@
         <v>31</v>
       </c>
       <c r="B26" s="37" t="n">
+        <f aca="false">B25+1</f>
         <v>25</v>
       </c>
       <c r="C26" s="38" t="n">
+        <v>-1.7136</v>
+      </c>
+      <c r="D26" s="38" t="n">
+        <v>13.76</v>
+      </c>
+      <c r="E26" s="38" t="n">
+        <v>4.037</v>
+      </c>
+      <c r="F26" s="39" t="n">
         <v>1</v>
       </c>
-      <c r="D26" s="38" t="n">
-        <v>2.78</v>
-      </c>
-      <c r="E26" s="38" t="n">
-        <v>0</v>
-      </c>
-      <c r="F26" s="39" t="n">
-        <v>0</v>
-      </c>
       <c r="G26" s="39" t="n">
         <v>0</v>
       </c>
     </row>
     <row r="27" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A27" s="36" t="s">
+      <c r="A27" s="40" t="s">
         <v>32</v>
       </c>
       <c r="B27" s="37" t="n">
+        <f aca="false">B26+1</f>
         <v>26</v>
       </c>
       <c r="C27" s="38" t="n">
-        <v>1</v>
+        <v>1.7126</v>
       </c>
       <c r="D27" s="38" t="n">
-        <v>2.78</v>
+        <v>13.76</v>
       </c>
       <c r="E27" s="38" t="n">
-        <v>0.6</v>
+        <v>4.0374</v>
       </c>
       <c r="F27" s="39" t="n">
         <v>1</v>
@@ -1597,878 +1662,912 @@
       </c>
     </row>
     <row r="28" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A28" s="36" t="s">
+      <c r="A28" s="41" t="s">
         <v>33</v>
       </c>
-      <c r="B28" s="37" t="n">
+      <c r="B28" s="42" t="n">
+        <f aca="false">B27+1</f>
         <v>27</v>
       </c>
-      <c r="C28" s="38" t="n">
+      <c r="C28" s="43" t="n">
         <v>1</v>
       </c>
-      <c r="D28" s="38" t="n">
+      <c r="D28" s="43" t="n">
         <v>2.78</v>
       </c>
-      <c r="E28" s="38" t="n">
+      <c r="E28" s="43" t="n">
+        <v>0</v>
+      </c>
+      <c r="F28" s="44" t="n">
+        <v>1</v>
+      </c>
+      <c r="G28" s="13" t="n">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="29" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A29" s="41" t="s">
+        <v>34</v>
+      </c>
+      <c r="B29" s="42" t="n">
+        <f aca="false">B28+1</f>
+        <v>28</v>
+      </c>
+      <c r="C29" s="43" t="n">
+        <v>1</v>
+      </c>
+      <c r="D29" s="43" t="n">
+        <v>2.78</v>
+      </c>
+      <c r="E29" s="43" t="n">
+        <v>0.6</v>
+      </c>
+      <c r="F29" s="44" t="n">
+        <v>1</v>
+      </c>
+      <c r="G29" s="18" t="n">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="30" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A30" s="41" t="s">
+        <v>35</v>
+      </c>
+      <c r="B30" s="42" t="n">
+        <f aca="false">B29+1</f>
+        <v>29</v>
+      </c>
+      <c r="C30" s="43" t="n">
+        <v>1</v>
+      </c>
+      <c r="D30" s="43" t="n">
+        <v>2.78</v>
+      </c>
+      <c r="E30" s="43" t="n">
         <v>1.2</v>
       </c>
-      <c r="F28" s="39" t="n">
+      <c r="F30" s="44" t="n">
         <v>1</v>
       </c>
-      <c r="G28" s="39" t="n">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="29" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A29" s="36" t="s">
+      <c r="G30" s="13" t="n">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="31" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A31" s="41" t="s">
+        <v>36</v>
+      </c>
+      <c r="B31" s="42" t="n">
+        <f aca="false">B30+1</f>
+        <v>30</v>
+      </c>
+      <c r="C31" s="43" t="n">
+        <v>1.6</v>
+      </c>
+      <c r="D31" s="43" t="n">
+        <v>2.78</v>
+      </c>
+      <c r="E31" s="43" t="n">
+        <v>1.2</v>
+      </c>
+      <c r="F31" s="44" t="n">
+        <v>1</v>
+      </c>
+      <c r="G31" s="18" t="n">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="32" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A32" s="41" t="s">
+        <v>37</v>
+      </c>
+      <c r="B32" s="42" t="n">
+        <f aca="false">B31+1</f>
+        <v>31</v>
+      </c>
+      <c r="C32" s="43" t="n">
+        <v>1.6</v>
+      </c>
+      <c r="D32" s="43" t="n">
+        <v>2.78</v>
+      </c>
+      <c r="E32" s="43" t="n">
+        <v>0.6</v>
+      </c>
+      <c r="F32" s="44" t="n">
+        <v>1</v>
+      </c>
+      <c r="G32" s="13" t="n">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="33" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A33" s="41" t="s">
+        <v>38</v>
+      </c>
+      <c r="B33" s="42" t="n">
+        <f aca="false">B32+1</f>
+        <v>32</v>
+      </c>
+      <c r="C33" s="43" t="n">
+        <v>1.6</v>
+      </c>
+      <c r="D33" s="43" t="n">
+        <v>2.78</v>
+      </c>
+      <c r="E33" s="43" t="n">
+        <v>0</v>
+      </c>
+      <c r="F33" s="44" t="n">
+        <v>1</v>
+      </c>
+      <c r="G33" s="31" t="n">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="34" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A34" s="45" t="s">
+        <v>39</v>
+      </c>
+      <c r="B34" s="46" t="n">
+        <f aca="false">B33+1</f>
+        <v>33</v>
+      </c>
+      <c r="C34" s="47" t="n">
+        <v>-0.8</v>
+      </c>
+      <c r="D34" s="47" t="n">
+        <v>2.04</v>
+      </c>
+      <c r="E34" s="47" t="n">
+        <v>0</v>
+      </c>
+      <c r="F34" s="48" t="n">
+        <v>0</v>
+      </c>
+      <c r="G34" s="48"/>
+    </row>
+    <row r="35" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A35" s="45" t="s">
+        <v>40</v>
+      </c>
+      <c r="B35" s="46" t="n">
+        <f aca="false">B34+1</f>
         <v>34</v>
       </c>
-      <c r="B29" s="37" t="n">
-        <v>28</v>
-      </c>
-      <c r="C29" s="38" t="n">
-        <v>1.6</v>
-      </c>
-      <c r="D29" s="38" t="n">
+      <c r="C35" s="47" t="n">
+        <v>-0.75</v>
+      </c>
+      <c r="D35" s="47" t="n">
+        <v>0.4</v>
+      </c>
+      <c r="E35" s="47" t="n">
+        <v>0</v>
+      </c>
+      <c r="F35" s="48" t="n">
+        <v>0</v>
+      </c>
+      <c r="G35" s="48" t="n">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="36" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A36" s="45" t="s">
+        <v>41</v>
+      </c>
+      <c r="B36" s="46" t="n">
+        <f aca="false">B35+1</f>
+        <v>35</v>
+      </c>
+      <c r="C36" s="47" t="n">
+        <v>-0.8</v>
+      </c>
+      <c r="D36" s="47" t="n">
+        <v>-0.13</v>
+      </c>
+      <c r="E36" s="47" t="n">
+        <v>0</v>
+      </c>
+      <c r="F36" s="48" t="n">
+        <v>0</v>
+      </c>
+      <c r="G36" s="48" t="n">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="37" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A37" s="45" t="s">
+        <v>42</v>
+      </c>
+      <c r="B37" s="46" t="n">
+        <f aca="false">B36+1</f>
+        <v>36</v>
+      </c>
+      <c r="C37" s="47" t="n">
+        <v>0.8</v>
+      </c>
+      <c r="D37" s="47" t="n">
+        <v>0.13</v>
+      </c>
+      <c r="E37" s="47" t="n">
+        <v>0</v>
+      </c>
+      <c r="F37" s="48" t="n">
+        <v>0</v>
+      </c>
+      <c r="G37" s="48" t="n">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="38" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A38" s="45" t="s">
+        <v>43</v>
+      </c>
+      <c r="B38" s="46" t="n">
+        <f aca="false">B37+1</f>
+        <v>37</v>
+      </c>
+      <c r="C38" s="47" t="n">
+        <v>0.83</v>
+      </c>
+      <c r="D38" s="47" t="n">
+        <v>0.4</v>
+      </c>
+      <c r="E38" s="47" t="n">
+        <v>0</v>
+      </c>
+      <c r="F38" s="48" t="n">
+        <v>0</v>
+      </c>
+      <c r="G38" s="48" t="n">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="39" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A39" s="45" t="s">
+        <v>44</v>
+      </c>
+      <c r="B39" s="46" t="n">
+        <f aca="false">B38+1</f>
+        <v>38</v>
+      </c>
+      <c r="C39" s="47" t="n">
+        <v>0.76</v>
+      </c>
+      <c r="D39" s="47" t="n">
+        <v>2.07</v>
+      </c>
+      <c r="E39" s="47" t="n">
+        <v>0</v>
+      </c>
+      <c r="F39" s="48" t="n">
+        <v>0</v>
+      </c>
+      <c r="G39" s="48" t="n">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="40" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A40" s="49" t="s">
+        <v>45</v>
+      </c>
+      <c r="B40" s="50" t="n">
+        <f aca="false">B39+1</f>
+        <v>39</v>
+      </c>
+      <c r="C40" s="51" t="n">
+        <v>-0.085</v>
+      </c>
+      <c r="D40" s="51" t="n">
+        <v>2.431</v>
+      </c>
+      <c r="E40" s="51" t="n">
+        <v>0</v>
+      </c>
+      <c r="F40" s="52" t="n">
+        <v>1</v>
+      </c>
+      <c r="G40" s="52" t="n">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="41" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A41" s="49" t="s">
+        <v>46</v>
+      </c>
+      <c r="B41" s="50" t="n">
+        <f aca="false">B40+1</f>
+        <v>40</v>
+      </c>
+      <c r="C41" s="51" t="n">
+        <v>-0.085</v>
+      </c>
+      <c r="D41" s="51" t="n">
+        <v>0.938</v>
+      </c>
+      <c r="E41" s="51" t="n">
+        <v>0</v>
+      </c>
+      <c r="F41" s="52" t="n">
+        <v>0</v>
+      </c>
+      <c r="G41" s="52" t="n">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="42" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A42" s="49" t="s">
+        <v>47</v>
+      </c>
+      <c r="B42" s="50" t="n">
+        <f aca="false">B41+1</f>
+        <v>41</v>
+      </c>
+      <c r="C42" s="51" t="n">
+        <v>0.085</v>
+      </c>
+      <c r="D42" s="51" t="n">
+        <v>0.938</v>
+      </c>
+      <c r="E42" s="51" t="n">
+        <v>0</v>
+      </c>
+      <c r="F42" s="52" t="n">
+        <v>0</v>
+      </c>
+      <c r="G42" s="52" t="n">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="43" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A43" s="49" t="s">
+        <v>48</v>
+      </c>
+      <c r="B43" s="50" t="n">
+        <f aca="false">B42+1</f>
+        <v>42</v>
+      </c>
+      <c r="C43" s="51" t="n">
+        <v>0.085</v>
+      </c>
+      <c r="D43" s="51" t="n">
+        <v>2.431</v>
+      </c>
+      <c r="E43" s="51" t="n">
+        <v>0</v>
+      </c>
+      <c r="F43" s="52" t="n">
+        <v>1</v>
+      </c>
+      <c r="G43" s="52" t="n">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="44" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A44" s="53" t="s">
+        <v>49</v>
+      </c>
+      <c r="B44" s="54" t="n">
+        <f aca="false">B43+1</f>
+        <v>43</v>
+      </c>
+      <c r="C44" s="55" t="n">
+        <v>-0.085</v>
+      </c>
+      <c r="D44" s="55" t="n">
+        <v>0.778</v>
+      </c>
+      <c r="E44" s="55" t="n">
+        <v>0</v>
+      </c>
+      <c r="F44" s="56" t="n">
+        <v>0</v>
+      </c>
+      <c r="G44" s="56" t="n">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="45" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A45" s="53" t="s">
+        <v>50</v>
+      </c>
+      <c r="B45" s="54" t="n">
+        <f aca="false">B44+1</f>
+        <v>44</v>
+      </c>
+      <c r="C45" s="55" t="n">
+        <v>-0.085</v>
+      </c>
+      <c r="D45" s="55" t="n">
+        <v>-0.778</v>
+      </c>
+      <c r="E45" s="55" t="n">
+        <v>0</v>
+      </c>
+      <c r="F45" s="56" t="n">
+        <v>0</v>
+      </c>
+      <c r="G45" s="56" t="n">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="46" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A46" s="53" t="s">
+        <v>51</v>
+      </c>
+      <c r="B46" s="54" t="n">
+        <f aca="false">B45+1</f>
+        <v>45</v>
+      </c>
+      <c r="C46" s="55" t="n">
+        <v>0.085</v>
+      </c>
+      <c r="D46" s="55" t="n">
+        <v>-0.778</v>
+      </c>
+      <c r="E46" s="55" t="n">
+        <v>0</v>
+      </c>
+      <c r="F46" s="56" t="n">
+        <v>0</v>
+      </c>
+      <c r="G46" s="56" t="n">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="47" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A47" s="53" t="s">
+        <v>52</v>
+      </c>
+      <c r="B47" s="54" t="n">
+        <f aca="false">B46+1</f>
+        <v>46</v>
+      </c>
+      <c r="C47" s="55" t="n">
+        <v>0.085</v>
+      </c>
+      <c r="D47" s="55" t="n">
+        <v>0.778</v>
+      </c>
+      <c r="E47" s="55" t="n">
+        <v>0</v>
+      </c>
+      <c r="F47" s="56" t="n">
+        <v>0</v>
+      </c>
+      <c r="G47" s="56" t="n">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="48" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A48" s="57" t="s">
+        <v>53</v>
+      </c>
+      <c r="B48" s="58" t="n">
+        <f aca="false">B47+1</f>
+        <v>47</v>
+      </c>
+      <c r="C48" s="59" t="n">
+        <v>-0.085</v>
+      </c>
+      <c r="D48" s="59" t="n">
+        <v>-0.938</v>
+      </c>
+      <c r="E48" s="59" t="n">
+        <v>0</v>
+      </c>
+      <c r="F48" s="60" t="n">
+        <v>0</v>
+      </c>
+      <c r="G48" s="60" t="n">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="49" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A49" s="57" t="s">
+        <v>54</v>
+      </c>
+      <c r="B49" s="58" t="n">
+        <f aca="false">B48+1</f>
+        <v>48</v>
+      </c>
+      <c r="C49" s="59" t="n">
+        <v>-0.085</v>
+      </c>
+      <c r="D49" s="59" t="n">
+        <v>-2.408</v>
+      </c>
+      <c r="E49" s="59" t="n">
+        <v>0</v>
+      </c>
+      <c r="F49" s="60" t="n">
+        <v>0</v>
+      </c>
+      <c r="G49" s="60" t="n">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="50" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A50" s="57" t="s">
+        <v>55</v>
+      </c>
+      <c r="B50" s="58" t="n">
+        <f aca="false">B49+1</f>
+        <v>49</v>
+      </c>
+      <c r="C50" s="59" t="n">
+        <v>0.085</v>
+      </c>
+      <c r="D50" s="59" t="n">
+        <v>-2.408</v>
+      </c>
+      <c r="E50" s="59" t="n">
+        <v>0</v>
+      </c>
+      <c r="F50" s="60" t="n">
+        <v>0</v>
+      </c>
+      <c r="G50" s="60" t="n">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="51" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A51" s="57" t="s">
+        <v>56</v>
+      </c>
+      <c r="B51" s="58" t="n">
+        <f aca="false">B50+1</f>
+        <v>50</v>
+      </c>
+      <c r="C51" s="59" t="n">
+        <v>0.085</v>
+      </c>
+      <c r="D51" s="59" t="n">
+        <v>-0.938</v>
+      </c>
+      <c r="E51" s="59" t="n">
+        <v>0</v>
+      </c>
+      <c r="F51" s="60" t="n">
+        <v>0</v>
+      </c>
+      <c r="G51" s="60" t="n">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="52" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A52" s="61" t="s">
+        <v>57</v>
+      </c>
+      <c r="B52" s="62" t="n">
+        <f aca="false">B51+1</f>
+        <v>51</v>
+      </c>
+      <c r="C52" s="63" t="n">
+        <v>-2.84569</v>
+      </c>
+      <c r="D52" s="63" t="n">
+        <v>2.4546</v>
+      </c>
+      <c r="E52" s="63" t="n">
+        <v>0</v>
+      </c>
+      <c r="F52" s="64" t="n">
+        <v>0</v>
+      </c>
+      <c r="G52" s="64" t="n">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="53" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A53" s="61" t="s">
+        <v>58</v>
+      </c>
+      <c r="B53" s="62" t="n">
+        <f aca="false">B52+1</f>
+        <v>52</v>
+      </c>
+      <c r="C53" s="63" t="n">
+        <v>-2.7608</v>
+      </c>
+      <c r="D53" s="63" t="n">
+        <v>-2.3894</v>
+      </c>
+      <c r="E53" s="63" t="n">
+        <v>0</v>
+      </c>
+      <c r="F53" s="64" t="n">
+        <v>0</v>
+      </c>
+      <c r="G53" s="64" t="n">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="54" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A54" s="61" t="s">
+        <v>59</v>
+      </c>
+      <c r="B54" s="62" t="n">
+        <f aca="false">B53+1</f>
+        <v>53</v>
+      </c>
+      <c r="C54" s="63" t="n">
+        <v>2.7015</v>
+      </c>
+      <c r="D54" s="63" t="n">
+        <v>-2.4284</v>
+      </c>
+      <c r="E54" s="63" t="n">
+        <v>0</v>
+      </c>
+      <c r="F54" s="64" t="n">
+        <v>0</v>
+      </c>
+      <c r="G54" s="64" t="n">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="55" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A55" s="61" t="s">
+        <v>60</v>
+      </c>
+      <c r="B55" s="62" t="n">
+        <f aca="false">B54+1</f>
+        <v>54</v>
+      </c>
+      <c r="C55" s="63" t="n">
+        <v>2.7949</v>
+      </c>
+      <c r="D55" s="63" t="n">
+        <v>2.4546</v>
+      </c>
+      <c r="E55" s="63" t="n">
+        <v>0</v>
+      </c>
+      <c r="F55" s="64" t="n">
+        <v>0</v>
+      </c>
+      <c r="G55" s="64" t="n">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="56" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A56" s="41" t="s">
+        <v>61</v>
+      </c>
+      <c r="B56" s="42" t="n">
+        <f aca="false">B55+1</f>
+        <v>55</v>
+      </c>
+      <c r="C56" s="43" t="n">
+        <v>-3.022</v>
+      </c>
+      <c r="D56" s="43" t="n">
+        <v>2.6015</v>
+      </c>
+      <c r="E56" s="43" t="n">
+        <v>0</v>
+      </c>
+      <c r="F56" s="44" t="n">
+        <v>0</v>
+      </c>
+      <c r="G56" s="44" t="n">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="57" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A57" s="41" t="s">
+        <v>62</v>
+      </c>
+      <c r="B57" s="42" t="n">
+        <f aca="false">B56+1</f>
+        <v>56</v>
+      </c>
+      <c r="C57" s="43" t="n">
+        <v>-2.915</v>
+      </c>
+      <c r="D57" s="43" t="n">
+        <v>-2.5146</v>
+      </c>
+      <c r="E57" s="43" t="n">
+        <v>0</v>
+      </c>
+      <c r="F57" s="44" t="n">
+        <v>0</v>
+      </c>
+      <c r="G57" s="44" t="n">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="58" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A58" s="41" t="s">
+        <v>63</v>
+      </c>
+      <c r="B58" s="42" t="n">
+        <f aca="false">B57+1</f>
+        <v>57</v>
+      </c>
+      <c r="C58" s="43" t="n">
+        <v>2.8496</v>
+      </c>
+      <c r="D58" s="43" t="n">
+        <v>-2.5146</v>
+      </c>
+      <c r="E58" s="43" t="n">
+        <v>0</v>
+      </c>
+      <c r="F58" s="44" t="n">
+        <v>0</v>
+      </c>
+      <c r="G58" s="44" t="n">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="59" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A59" s="41" t="s">
+        <v>64</v>
+      </c>
+      <c r="B59" s="42" t="n">
+        <f aca="false">B58+1</f>
+        <v>58</v>
+      </c>
+      <c r="C59" s="43" t="n">
+        <v>2.971</v>
+      </c>
+      <c r="D59" s="43" t="n">
+        <v>2.6015</v>
+      </c>
+      <c r="E59" s="43" t="n">
+        <v>0</v>
+      </c>
+      <c r="F59" s="44" t="n">
+        <v>0</v>
+      </c>
+      <c r="G59" s="44" t="n">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="60" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A60" s="65" t="s">
+        <v>65</v>
+      </c>
+      <c r="B60" s="66" t="n">
+        <f aca="false">B59+1</f>
+        <v>59</v>
+      </c>
+      <c r="C60" s="67" t="n">
+        <v>-3.3343</v>
+      </c>
+      <c r="D60" s="67" t="n">
         <v>2.78</v>
       </c>
-      <c r="E29" s="38" t="n">
-        <v>1.2</v>
-      </c>
-      <c r="F29" s="39" t="n">
-        <v>1</v>
-      </c>
-      <c r="G29" s="39" t="n">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="30" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A30" s="36" t="s">
-        <v>35</v>
-      </c>
-      <c r="B30" s="37" t="n">
-        <v>29</v>
-      </c>
-      <c r="C30" s="38" t="n">
-        <v>1.6</v>
-      </c>
-      <c r="D30" s="38" t="n">
+      <c r="E60" s="67" t="n">
+        <v>0</v>
+      </c>
+      <c r="F60" s="68" t="n">
+        <v>0</v>
+      </c>
+      <c r="G60" s="68" t="n">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="61" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A61" s="65" t="s">
+        <v>66</v>
+      </c>
+      <c r="B61" s="66" t="n">
+        <f aca="false">B60+1</f>
+        <v>60</v>
+      </c>
+      <c r="C61" s="67" t="n">
+        <v>-3.1388</v>
+      </c>
+      <c r="D61" s="67" t="n">
+        <v>-2.9209</v>
+      </c>
+      <c r="E61" s="67" t="n">
+        <v>0</v>
+      </c>
+      <c r="F61" s="68" t="n">
+        <v>0</v>
+      </c>
+      <c r="G61" s="68" t="n">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="62" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A62" s="65" t="s">
+        <v>67</v>
+      </c>
+      <c r="B62" s="66" t="n">
+        <f aca="false">B61+1</f>
+        <v>61</v>
+      </c>
+      <c r="C62" s="67" t="n">
+        <v>3.1388</v>
+      </c>
+      <c r="D62" s="67" t="n">
+        <v>-2.9209</v>
+      </c>
+      <c r="E62" s="67" t="n">
+        <v>0</v>
+      </c>
+      <c r="F62" s="68" t="n">
+        <v>0</v>
+      </c>
+      <c r="G62" s="68" t="n">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="63" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A63" s="65" t="s">
+        <v>68</v>
+      </c>
+      <c r="B63" s="66" t="n">
+        <f aca="false">B62+1</f>
+        <v>62</v>
+      </c>
+      <c r="C63" s="67" t="n">
+        <v>3.3343</v>
+      </c>
+      <c r="D63" s="67" t="n">
         <v>2.78</v>
       </c>
-      <c r="E30" s="38" t="n">
-        <v>0.6</v>
-      </c>
-      <c r="F30" s="39" t="n">
-        <v>1</v>
-      </c>
-      <c r="G30" s="39" t="n">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="31" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A31" s="36" t="s">
-        <v>36</v>
-      </c>
-      <c r="B31" s="37" t="n">
-        <v>30</v>
-      </c>
-      <c r="C31" s="38" t="n">
-        <v>1.6</v>
-      </c>
-      <c r="D31" s="38" t="n">
-        <v>2.78</v>
-      </c>
-      <c r="E31" s="38" t="n">
-        <v>0</v>
-      </c>
-      <c r="F31" s="39" t="n">
-        <v>0</v>
-      </c>
-      <c r="G31" s="39" t="n">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="32" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A32" s="40" t="s">
-        <v>37</v>
-      </c>
-      <c r="B32" s="41" t="n">
-        <v>31</v>
-      </c>
-      <c r="C32" s="42" t="n">
-        <v>-0.8</v>
-      </c>
-      <c r="D32" s="42" t="n">
-        <v>2.04</v>
-      </c>
-      <c r="E32" s="42" t="n">
-        <v>0</v>
-      </c>
-      <c r="F32" s="43" t="n">
-        <v>1</v>
-      </c>
-      <c r="G32" s="43" t="n">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="33" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A33" s="40" t="s">
-        <v>38</v>
-      </c>
-      <c r="B33" s="41" t="n">
-        <v>32</v>
-      </c>
-      <c r="C33" s="42" t="n">
-        <v>-0.75</v>
-      </c>
-      <c r="D33" s="42" t="n">
-        <v>0.4</v>
-      </c>
-      <c r="E33" s="42" t="n">
-        <v>0</v>
-      </c>
-      <c r="F33" s="43" t="n">
-        <v>0</v>
-      </c>
-      <c r="G33" s="43" t="n">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="34" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A34" s="40" t="s">
-        <v>39</v>
-      </c>
-      <c r="B34" s="41" t="n">
-        <v>33</v>
-      </c>
-      <c r="C34" s="42" t="n">
-        <v>-0.8</v>
-      </c>
-      <c r="D34" s="42" t="n">
-        <v>-0.13</v>
-      </c>
-      <c r="E34" s="42" t="n">
-        <v>0</v>
-      </c>
-      <c r="F34" s="43" t="n">
-        <v>0</v>
-      </c>
-      <c r="G34" s="43" t="n">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="35" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A35" s="40" t="s">
-        <v>40</v>
-      </c>
-      <c r="B35" s="41" t="n">
-        <v>34</v>
-      </c>
-      <c r="C35" s="42" t="n">
-        <v>0.8</v>
-      </c>
-      <c r="D35" s="42" t="n">
-        <v>0.13</v>
-      </c>
-      <c r="E35" s="42" t="n">
-        <v>0</v>
-      </c>
-      <c r="F35" s="43" t="n">
-        <v>0</v>
-      </c>
-      <c r="G35" s="43" t="n">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="36" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A36" s="40" t="s">
-        <v>41</v>
-      </c>
-      <c r="B36" s="41" t="n">
-        <v>35</v>
-      </c>
-      <c r="C36" s="42" t="n">
-        <v>0.83</v>
-      </c>
-      <c r="D36" s="42" t="n">
-        <v>0.4</v>
-      </c>
-      <c r="E36" s="42" t="n">
-        <v>0</v>
-      </c>
-      <c r="F36" s="43" t="n">
-        <v>0</v>
-      </c>
-      <c r="G36" s="43" t="n">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="37" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A37" s="40" t="s">
-        <v>42</v>
-      </c>
-      <c r="B37" s="41" t="n">
-        <v>36</v>
-      </c>
-      <c r="C37" s="42" t="n">
-        <v>0.76</v>
-      </c>
-      <c r="D37" s="42" t="n">
-        <v>2.07</v>
-      </c>
-      <c r="E37" s="42" t="n">
-        <v>0</v>
-      </c>
-      <c r="F37" s="43" t="n">
-        <v>1</v>
-      </c>
-      <c r="G37" s="43" t="n">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="38" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A38" s="44" t="s">
-        <v>43</v>
-      </c>
-      <c r="B38" s="45" t="n">
-        <v>37</v>
-      </c>
-      <c r="C38" s="46" t="n">
-        <v>-0.085</v>
-      </c>
-      <c r="D38" s="46" t="n">
-        <v>2.431</v>
-      </c>
-      <c r="E38" s="46" t="n">
-        <v>0</v>
-      </c>
-      <c r="F38" s="47" t="n">
-        <v>1</v>
-      </c>
-      <c r="G38" s="47" t="n">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="39" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A39" s="44" t="s">
-        <v>44</v>
-      </c>
-      <c r="B39" s="45" t="n">
-        <v>38</v>
-      </c>
-      <c r="C39" s="46" t="n">
-        <v>-0.085</v>
-      </c>
-      <c r="D39" s="46" t="n">
-        <v>0.938</v>
-      </c>
-      <c r="E39" s="46" t="n">
-        <v>0</v>
-      </c>
-      <c r="F39" s="47" t="n">
-        <v>1</v>
-      </c>
-      <c r="G39" s="47" t="n">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="40" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A40" s="44" t="s">
-        <v>45</v>
-      </c>
-      <c r="B40" s="45" t="n">
-        <v>39</v>
-      </c>
-      <c r="C40" s="46" t="n">
-        <v>0.085</v>
-      </c>
-      <c r="D40" s="46" t="n">
-        <v>0.938</v>
-      </c>
-      <c r="E40" s="46" t="n">
-        <v>0</v>
-      </c>
-      <c r="F40" s="47" t="n">
-        <v>1</v>
-      </c>
-      <c r="G40" s="47" t="n">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="41" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A41" s="44" t="s">
-        <v>46</v>
-      </c>
-      <c r="B41" s="45" t="n">
-        <v>40</v>
-      </c>
-      <c r="C41" s="46" t="n">
-        <v>0.085</v>
-      </c>
-      <c r="D41" s="46" t="n">
-        <v>2.431</v>
-      </c>
-      <c r="E41" s="46" t="n">
-        <v>0</v>
-      </c>
-      <c r="F41" s="47" t="n">
-        <v>1</v>
-      </c>
-      <c r="G41" s="47" t="n">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="42" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A42" s="48" t="s">
-        <v>47</v>
-      </c>
-      <c r="B42" s="49" t="n">
-        <v>41</v>
-      </c>
-      <c r="C42" s="50" t="n">
-        <v>-0.085</v>
-      </c>
-      <c r="D42" s="50" t="n">
-        <v>0.778</v>
-      </c>
-      <c r="E42" s="50" t="n">
-        <v>0</v>
-      </c>
-      <c r="F42" s="51" t="n">
-        <v>0</v>
-      </c>
-      <c r="G42" s="51" t="n">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="43" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A43" s="48" t="s">
-        <v>48</v>
-      </c>
-      <c r="B43" s="49" t="n">
-        <v>42</v>
-      </c>
-      <c r="C43" s="50" t="n">
-        <v>-0.085</v>
-      </c>
-      <c r="D43" s="50" t="n">
-        <v>-0.778</v>
-      </c>
-      <c r="E43" s="50" t="n">
-        <v>0</v>
-      </c>
-      <c r="F43" s="51" t="n">
-        <v>0</v>
-      </c>
-      <c r="G43" s="51" t="n">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="44" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A44" s="48" t="s">
-        <v>49</v>
-      </c>
-      <c r="B44" s="49" t="n">
-        <v>43</v>
-      </c>
-      <c r="C44" s="50" t="n">
-        <v>0.085</v>
-      </c>
-      <c r="D44" s="50" t="n">
-        <v>-0.778</v>
-      </c>
-      <c r="E44" s="50" t="n">
-        <v>0</v>
-      </c>
-      <c r="F44" s="51" t="n">
-        <v>0</v>
-      </c>
-      <c r="G44" s="51" t="n">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="45" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A45" s="48" t="s">
-        <v>50</v>
-      </c>
-      <c r="B45" s="49" t="n">
-        <v>44</v>
-      </c>
-      <c r="C45" s="50" t="n">
-        <v>0.085</v>
-      </c>
-      <c r="D45" s="50" t="n">
-        <v>0.778</v>
-      </c>
-      <c r="E45" s="50" t="n">
-        <v>0</v>
-      </c>
-      <c r="F45" s="51" t="n">
-        <v>0</v>
-      </c>
-      <c r="G45" s="51" t="n">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="46" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A46" s="52" t="s">
-        <v>51</v>
-      </c>
-      <c r="B46" s="53" t="n">
-        <v>45</v>
-      </c>
-      <c r="C46" s="54" t="n">
-        <v>-0.085</v>
-      </c>
-      <c r="D46" s="54" t="n">
-        <v>-0.938</v>
-      </c>
-      <c r="E46" s="54" t="n">
-        <v>0</v>
-      </c>
-      <c r="F46" s="55" t="n">
-        <v>0</v>
-      </c>
-      <c r="G46" s="55" t="n">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="47" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A47" s="52" t="s">
-        <v>52</v>
-      </c>
-      <c r="B47" s="53" t="n">
-        <v>46</v>
-      </c>
-      <c r="C47" s="54" t="n">
-        <v>-0.085</v>
-      </c>
-      <c r="D47" s="54" t="n">
-        <v>-2.408</v>
-      </c>
-      <c r="E47" s="54" t="n">
-        <v>0</v>
-      </c>
-      <c r="F47" s="55" t="n">
-        <v>0</v>
-      </c>
-      <c r="G47" s="55" t="n">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="48" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A48" s="52" t="s">
-        <v>53</v>
-      </c>
-      <c r="B48" s="53" t="n">
-        <v>47</v>
-      </c>
-      <c r="C48" s="54" t="n">
-        <v>0.085</v>
-      </c>
-      <c r="D48" s="54" t="n">
-        <v>-2.408</v>
-      </c>
-      <c r="E48" s="54" t="n">
-        <v>0</v>
-      </c>
-      <c r="F48" s="55" t="n">
-        <v>0</v>
-      </c>
-      <c r="G48" s="55" t="n">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="49" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A49" s="52" t="s">
-        <v>54</v>
-      </c>
-      <c r="B49" s="53" t="n">
-        <v>48</v>
-      </c>
-      <c r="C49" s="54" t="n">
-        <v>0.085</v>
-      </c>
-      <c r="D49" s="54" t="n">
-        <v>-0.938</v>
-      </c>
-      <c r="E49" s="54" t="n">
-        <v>0</v>
-      </c>
-      <c r="F49" s="55" t="n">
-        <v>0</v>
-      </c>
-      <c r="G49" s="55" t="n">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="50" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A50" s="56" t="s">
-        <v>55</v>
-      </c>
-      <c r="B50" s="57" t="n">
-        <v>49</v>
-      </c>
-      <c r="C50" s="58" t="n">
-        <v>-2.84569</v>
-      </c>
-      <c r="D50" s="58" t="n">
-        <v>2.4546</v>
-      </c>
-      <c r="E50" s="58" t="n">
-        <v>0</v>
-      </c>
-      <c r="F50" s="59" t="n">
-        <v>0</v>
-      </c>
-      <c r="G50" s="59" t="n">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="51" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A51" s="56" t="s">
-        <v>56</v>
-      </c>
-      <c r="B51" s="57" t="n">
-        <v>50</v>
-      </c>
-      <c r="C51" s="58" t="n">
-        <v>-2.7608</v>
-      </c>
-      <c r="D51" s="58" t="n">
-        <v>-2.3894</v>
-      </c>
-      <c r="E51" s="58" t="n">
-        <v>0</v>
-      </c>
-      <c r="F51" s="59" t="n">
-        <v>0</v>
-      </c>
-      <c r="G51" s="59" t="n">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="52" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A52" s="56" t="s">
-        <v>57</v>
-      </c>
-      <c r="B52" s="57" t="n">
-        <v>51</v>
-      </c>
-      <c r="C52" s="58" t="n">
-        <v>2.7015</v>
-      </c>
-      <c r="D52" s="58" t="n">
-        <v>-2.4284</v>
-      </c>
-      <c r="E52" s="58" t="n">
-        <v>0</v>
-      </c>
-      <c r="F52" s="59" t="n">
-        <v>0</v>
-      </c>
-      <c r="G52" s="59" t="n">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="53" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A53" s="56" t="s">
-        <v>58</v>
-      </c>
-      <c r="B53" s="57" t="n">
-        <v>52</v>
-      </c>
-      <c r="C53" s="58" t="n">
-        <v>2.7949</v>
-      </c>
-      <c r="D53" s="58" t="n">
-        <v>2.4546</v>
-      </c>
-      <c r="E53" s="58" t="n">
-        <v>0</v>
-      </c>
-      <c r="F53" s="59" t="n">
-        <v>0</v>
-      </c>
-      <c r="G53" s="59" t="n">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="54" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A54" s="36" t="s">
-        <v>59</v>
-      </c>
-      <c r="B54" s="37" t="n">
-        <v>53</v>
-      </c>
-      <c r="C54" s="38" t="n">
-        <v>-3.022</v>
-      </c>
-      <c r="D54" s="38" t="n">
-        <v>2.6015</v>
-      </c>
-      <c r="E54" s="38" t="n">
-        <v>0</v>
-      </c>
-      <c r="F54" s="39" t="n">
-        <v>0</v>
-      </c>
-      <c r="G54" s="39" t="n">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="55" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A55" s="36" t="s">
-        <v>60</v>
-      </c>
-      <c r="B55" s="37" t="n">
-        <v>54</v>
-      </c>
-      <c r="C55" s="38" t="n">
-        <v>-2.915</v>
-      </c>
-      <c r="D55" s="38" t="n">
-        <v>-2.5146</v>
-      </c>
-      <c r="E55" s="38" t="n">
-        <v>0</v>
-      </c>
-      <c r="F55" s="39" t="n">
-        <v>0</v>
-      </c>
-      <c r="G55" s="39" t="n">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="56" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A56" s="36" t="s">
-        <v>61</v>
-      </c>
-      <c r="B56" s="37" t="n">
-        <v>55</v>
-      </c>
-      <c r="C56" s="38" t="n">
-        <v>2.8496</v>
-      </c>
-      <c r="D56" s="38" t="n">
-        <v>-2.5146</v>
-      </c>
-      <c r="E56" s="38" t="n">
-        <v>0</v>
-      </c>
-      <c r="F56" s="39" t="n">
-        <v>0</v>
-      </c>
-      <c r="G56" s="39" t="n">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="57" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A57" s="36" t="s">
-        <v>62</v>
-      </c>
-      <c r="B57" s="37" t="n">
-        <v>56</v>
-      </c>
-      <c r="C57" s="38" t="n">
-        <v>2.971</v>
-      </c>
-      <c r="D57" s="38" t="n">
-        <v>2.6015</v>
-      </c>
-      <c r="E57" s="38" t="n">
-        <v>0</v>
-      </c>
-      <c r="F57" s="39" t="n">
-        <v>0</v>
-      </c>
-      <c r="G57" s="39" t="n">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="58" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A58" s="60" t="s">
+      <c r="E63" s="67" t="n">
+        <v>0</v>
+      </c>
+      <c r="F63" s="68" t="n">
+        <v>0</v>
+      </c>
+      <c r="G63" s="68" t="n">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="64" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A64" s="69" t="s">
+        <v>69</v>
+      </c>
+      <c r="B64" s="70" t="n">
+        <f aca="false">B63+1</f>
         <v>63</v>
       </c>
-      <c r="B58" s="61" t="n">
-        <v>57</v>
-      </c>
-      <c r="C58" s="62" t="n">
-        <v>-3.3343</v>
-      </c>
-      <c r="D58" s="62" t="n">
-        <v>2.78</v>
-      </c>
-      <c r="E58" s="62" t="n">
-        <v>0</v>
-      </c>
-      <c r="F58" s="63" t="n">
-        <v>0</v>
-      </c>
-      <c r="G58" s="63" t="n">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="59" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A59" s="60" t="s">
+      <c r="C64" s="71" t="n">
+        <v>-2.2</v>
+      </c>
+      <c r="D64" s="71" t="n">
+        <v>1.94</v>
+      </c>
+      <c r="E64" s="71" t="n">
+        <v>0</v>
+      </c>
+      <c r="F64" s="68" t="n">
+        <v>0</v>
+      </c>
+      <c r="G64" s="68" t="n">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="65" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A65" s="69" t="s">
+        <v>70</v>
+      </c>
+      <c r="B65" s="70" t="n">
+        <f aca="false">B64+1</f>
         <v>64</v>
       </c>
-      <c r="B59" s="61" t="n">
-        <v>58</v>
-      </c>
-      <c r="C59" s="62" t="n">
-        <v>-3.1388</v>
-      </c>
-      <c r="D59" s="62" t="n">
-        <v>-2.9209</v>
-      </c>
-      <c r="E59" s="62" t="n">
-        <v>0</v>
-      </c>
-      <c r="F59" s="63" t="n">
-        <v>0</v>
-      </c>
-      <c r="G59" s="63" t="n">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="60" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A60" s="60" t="s">
-        <v>65</v>
-      </c>
-      <c r="B60" s="61" t="n">
-        <v>59</v>
-      </c>
-      <c r="C60" s="62" t="n">
-        <v>3.1388</v>
-      </c>
-      <c r="D60" s="62" t="n">
-        <v>-2.9209</v>
-      </c>
-      <c r="E60" s="62" t="n">
-        <v>0</v>
-      </c>
-      <c r="F60" s="63" t="n">
-        <v>0</v>
-      </c>
-      <c r="G60" s="63" t="n">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="61" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A61" s="60" t="s">
-        <v>66</v>
-      </c>
-      <c r="B61" s="61" t="n">
-        <v>60</v>
-      </c>
-      <c r="C61" s="62" t="n">
-        <v>3.3343</v>
-      </c>
-      <c r="D61" s="62" t="n">
-        <v>2.78</v>
-      </c>
-      <c r="E61" s="62" t="n">
-        <v>0</v>
-      </c>
-      <c r="F61" s="63" t="n">
-        <v>0</v>
-      </c>
-      <c r="G61" s="63" t="n">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="62" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A62" s="64" t="s">
-        <v>67</v>
-      </c>
-      <c r="B62" s="65" t="n">
-        <v>61</v>
-      </c>
-      <c r="C62" s="66" t="n">
-        <v>-2.2</v>
-      </c>
-      <c r="D62" s="66" t="n">
+      <c r="C65" s="71" t="n">
+        <v>2.18</v>
+      </c>
+      <c r="D65" s="71" t="n">
         <v>1.94</v>
       </c>
-      <c r="E62" s="66" t="n">
-        <v>0</v>
-      </c>
-      <c r="F62" s="63" t="n">
-        <v>0</v>
-      </c>
-      <c r="G62" s="63" t="n">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="63" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A63" s="64" t="s">
-        <v>68</v>
-      </c>
-      <c r="B63" s="65" t="n">
-        <v>62</v>
-      </c>
-      <c r="C63" s="66" t="n">
-        <v>2.18</v>
-      </c>
-      <c r="D63" s="66" t="n">
-        <v>1.94</v>
-      </c>
-      <c r="E63" s="66" t="n">
-        <v>0</v>
-      </c>
-      <c r="F63" s="63" t="n">
-        <v>0</v>
-      </c>
-      <c r="G63" s="63" t="n">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="64" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A64" s="24" t="s">
-        <v>69</v>
-      </c>
-      <c r="B64" s="25" t="n">
-        <v>62</v>
-      </c>
-      <c r="C64" s="26" t="n">
-        <f aca="false">C66-1</f>
-        <v>-1.96</v>
-      </c>
-      <c r="D64" s="26" t="n">
-        <v>0.22</v>
-      </c>
-      <c r="E64" s="26" t="n">
-        <v>0</v>
-      </c>
-      <c r="F64" s="27" t="n">
-        <v>0</v>
-      </c>
-      <c r="G64" s="27" t="n">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="65" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A65" s="24" t="s">
-        <v>70</v>
-      </c>
-      <c r="B65" s="25" t="n">
-        <v>63</v>
-      </c>
-      <c r="C65" s="26" t="n">
-        <v>-1.96</v>
-      </c>
-      <c r="D65" s="26" t="n">
-        <f aca="false">D64-1.05</f>
-        <v>-0.83</v>
-      </c>
-      <c r="E65" s="26" t="n">
-        <v>0</v>
-      </c>
-      <c r="F65" s="27" t="n">
-        <v>0</v>
-      </c>
-      <c r="G65" s="27" t="n">
+      <c r="E65" s="71" t="n">
+        <v>0</v>
+      </c>
+      <c r="F65" s="68" t="n">
+        <v>0</v>
+      </c>
+      <c r="G65" s="68" t="n">
         <v>0</v>
       </c>
     </row>
@@ -2477,13 +2576,15 @@
         <v>71</v>
       </c>
       <c r="B66" s="25" t="n">
-        <v>64</v>
+        <f aca="false">B65+1</f>
+        <v>65</v>
       </c>
       <c r="C66" s="26" t="n">
-        <v>-0.96</v>
+        <f aca="false">C68-1</f>
+        <v>-1.96</v>
       </c>
       <c r="D66" s="26" t="n">
-        <v>-0.83</v>
+        <v>0.22</v>
       </c>
       <c r="E66" s="26" t="n">
         <v>0</v>
@@ -2500,68 +2601,71 @@
         <v>72</v>
       </c>
       <c r="B67" s="25" t="n">
-        <v>65</v>
+        <f aca="false">B66+1</f>
+        <v>66</v>
       </c>
       <c r="C67" s="26" t="n">
+        <v>-1.96</v>
+      </c>
+      <c r="D67" s="26" t="n">
+        <f aca="false">D66-1.05</f>
+        <v>-0.83</v>
+      </c>
+      <c r="E67" s="26" t="n">
+        <v>0</v>
+      </c>
+      <c r="F67" s="27" t="n">
+        <v>0</v>
+      </c>
+      <c r="G67" s="27" t="n">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="68" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A68" s="24" t="s">
+        <v>73</v>
+      </c>
+      <c r="B68" s="25" t="n">
+        <f aca="false">B67+1</f>
+        <v>67</v>
+      </c>
+      <c r="C68" s="26" t="n">
         <v>-0.96</v>
       </c>
-      <c r="D67" s="26" t="n">
+      <c r="D68" s="26" t="n">
+        <v>-0.83</v>
+      </c>
+      <c r="E68" s="26" t="n">
+        <v>0</v>
+      </c>
+      <c r="F68" s="27" t="n">
+        <v>0</v>
+      </c>
+      <c r="G68" s="27" t="n">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="69" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A69" s="24" t="s">
+        <v>74</v>
+      </c>
+      <c r="B69" s="25" t="n">
+        <f aca="false">B68+1</f>
+        <v>68</v>
+      </c>
+      <c r="C69" s="26" t="n">
+        <v>-0.96</v>
+      </c>
+      <c r="D69" s="26" t="n">
         <v>0.22</v>
       </c>
-      <c r="E67" s="26" t="n">
-        <v>0</v>
-      </c>
-      <c r="F67" s="27" t="n">
-        <v>0</v>
-      </c>
-      <c r="G67" s="27" t="n">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="68" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A68" s="32" t="s">
-        <v>73</v>
-      </c>
-      <c r="B68" s="33" t="n">
-        <v>66</v>
-      </c>
-      <c r="C68" s="34" t="n">
-        <v>-3.08</v>
-      </c>
-      <c r="D68" s="34" t="n">
-        <v>-0.16</v>
-      </c>
-      <c r="E68" s="34" t="n">
-        <v>0</v>
-      </c>
-      <c r="F68" s="35" t="n">
-        <v>0</v>
-      </c>
-      <c r="G68" s="35" t="n">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="69" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A69" s="32" t="s">
-        <v>74</v>
-      </c>
-      <c r="B69" s="33" t="n">
-        <v>67</v>
-      </c>
-      <c r="C69" s="34" t="n">
-        <f aca="false">C70-0.83</f>
-        <v>-3.08</v>
-      </c>
-      <c r="D69" s="34" t="n">
-        <v>-1.67</v>
-      </c>
-      <c r="E69" s="34" t="n">
-        <v>0</v>
-      </c>
-      <c r="F69" s="35" t="n">
-        <v>0</v>
-      </c>
-      <c r="G69" s="35" t="n">
+      <c r="E69" s="26" t="n">
+        <v>0</v>
+      </c>
+      <c r="F69" s="27" t="n">
+        <v>0</v>
+      </c>
+      <c r="G69" s="27" t="n">
         <v>0</v>
       </c>
     </row>
@@ -2570,14 +2674,14 @@
         <v>75</v>
       </c>
       <c r="B70" s="33" t="n">
-        <v>68</v>
+        <f aca="false">B69+1</f>
+        <v>69</v>
       </c>
       <c r="C70" s="34" t="n">
-        <v>-2.25</v>
+        <v>-3.08</v>
       </c>
       <c r="D70" s="34" t="n">
-        <f aca="false">D71-1.51</f>
-        <v>-1.67</v>
+        <v>-0.16</v>
       </c>
       <c r="E70" s="34" t="n">
         <v>0</v>
@@ -2594,1025 +2698,1083 @@
         <v>76</v>
       </c>
       <c r="B71" s="33" t="n">
-        <v>69</v>
+        <f aca="false">B70+1</f>
+        <v>70</v>
       </c>
       <c r="C71" s="34" t="n">
+        <f aca="false">C72-0.83</f>
+        <v>-3.08</v>
+      </c>
+      <c r="D71" s="34" t="n">
+        <v>-1.67</v>
+      </c>
+      <c r="E71" s="34" t="n">
+        <v>0</v>
+      </c>
+      <c r="F71" s="35" t="n">
+        <v>0</v>
+      </c>
+      <c r="G71" s="35" t="n">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="72" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A72" s="32" t="s">
+        <v>77</v>
+      </c>
+      <c r="B72" s="33" t="n">
+        <f aca="false">B71+1</f>
+        <v>71</v>
+      </c>
+      <c r="C72" s="34" t="n">
         <v>-2.25</v>
       </c>
-      <c r="D71" s="34" t="n">
+      <c r="D72" s="34" t="n">
+        <f aca="false">D73-1.51</f>
+        <v>-1.67</v>
+      </c>
+      <c r="E72" s="34" t="n">
+        <v>0</v>
+      </c>
+      <c r="F72" s="35" t="n">
+        <v>0</v>
+      </c>
+      <c r="G72" s="35" t="n">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="73" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A73" s="32" t="s">
+        <v>78</v>
+      </c>
+      <c r="B73" s="33" t="n">
+        <f aca="false">B72+1</f>
+        <v>72</v>
+      </c>
+      <c r="C73" s="34" t="n">
+        <v>-2.25</v>
+      </c>
+      <c r="D73" s="34" t="n">
         <v>-0.16</v>
       </c>
-      <c r="E71" s="34" t="n">
-        <v>0</v>
-      </c>
-      <c r="F71" s="35" t="n">
-        <v>0</v>
-      </c>
-      <c r="G71" s="35" t="n">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="72" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A72" s="67" t="s">
+      <c r="E73" s="34" t="n">
+        <v>0</v>
+      </c>
+      <c r="F73" s="35" t="n">
+        <v>0</v>
+      </c>
+      <c r="G73" s="35" t="n">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="74" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A74" s="72" t="s">
+        <v>79</v>
+      </c>
+      <c r="B74" s="73" t="n">
+        <f aca="false">B73+1</f>
+        <v>73</v>
+      </c>
+      <c r="C74" s="74" t="n">
+        <v>-1.93</v>
+      </c>
+      <c r="D74" s="74" t="n">
+        <v>-1.64</v>
+      </c>
+      <c r="E74" s="74" t="n">
+        <v>0</v>
+      </c>
+      <c r="F74" s="75" t="n">
+        <v>0</v>
+      </c>
+      <c r="G74" s="75" t="n">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="75" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A75" s="72" t="s">
+        <v>80</v>
+      </c>
+      <c r="B75" s="73" t="n">
+        <f aca="false">B74+1</f>
+        <v>74</v>
+      </c>
+      <c r="C75" s="74" t="n">
+        <v>-1.93</v>
+      </c>
+      <c r="D75" s="74" t="n">
+        <v>-2.73</v>
+      </c>
+      <c r="E75" s="74" t="n">
+        <v>0</v>
+      </c>
+      <c r="F75" s="75" t="n">
+        <v>0</v>
+      </c>
+      <c r="G75" s="75" t="n">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="76" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A76" s="72" t="s">
+        <v>81</v>
+      </c>
+      <c r="B76" s="73" t="n">
+        <f aca="false">B75+1</f>
+        <v>75</v>
+      </c>
+      <c r="C76" s="74" t="n">
+        <v>-1</v>
+      </c>
+      <c r="D76" s="74" t="n">
+        <f aca="false">D77-1.09</f>
+        <v>-2.73</v>
+      </c>
+      <c r="E76" s="74" t="n">
+        <v>0</v>
+      </c>
+      <c r="F76" s="75" t="n">
+        <v>0</v>
+      </c>
+      <c r="G76" s="75" t="n">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="77" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A77" s="72" t="s">
+        <v>82</v>
+      </c>
+      <c r="B77" s="73" t="n">
+        <f aca="false">B76+1</f>
+        <v>76</v>
+      </c>
+      <c r="C77" s="74" t="n">
+        <v>-1</v>
+      </c>
+      <c r="D77" s="74" t="n">
+        <v>-1.64</v>
+      </c>
+      <c r="E77" s="74" t="n">
+        <v>0</v>
+      </c>
+      <c r="F77" s="75" t="n">
+        <v>0</v>
+      </c>
+      <c r="G77" s="75" t="n">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="78" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A78" s="76" t="s">
+        <v>83</v>
+      </c>
+      <c r="B78" s="77" t="n">
+        <f aca="false">B77+1</f>
         <v>77</v>
       </c>
-      <c r="B72" s="68" t="n">
-        <v>70</v>
-      </c>
-      <c r="C72" s="69" t="n">
-        <v>-1.93</v>
-      </c>
-      <c r="D72" s="69" t="n">
-        <v>-1.64</v>
-      </c>
-      <c r="E72" s="69" t="n">
-        <v>0</v>
-      </c>
-      <c r="F72" s="70" t="n">
-        <v>0</v>
-      </c>
-      <c r="G72" s="70" t="n">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="73" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A73" s="67" t="s">
+      <c r="C78" s="78" t="n">
+        <v>2.26</v>
+      </c>
+      <c r="D78" s="78" t="n">
+        <v>-0.16</v>
+      </c>
+      <c r="E78" s="78" t="n">
+        <v>0</v>
+      </c>
+      <c r="F78" s="79" t="n">
+        <v>0</v>
+      </c>
+      <c r="G78" s="79" t="n">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="79" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A79" s="76" t="s">
+        <v>84</v>
+      </c>
+      <c r="B79" s="77" t="n">
+        <f aca="false">B78+1</f>
         <v>78</v>
       </c>
-      <c r="B73" s="68" t="n">
-        <v>71</v>
-      </c>
-      <c r="C73" s="69" t="n">
-        <v>-1.93</v>
-      </c>
-      <c r="D73" s="69" t="n">
-        <v>-2.73</v>
-      </c>
-      <c r="E73" s="69" t="n">
-        <v>0</v>
-      </c>
-      <c r="F73" s="70" t="n">
-        <v>0</v>
-      </c>
-      <c r="G73" s="70" t="n">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="74" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A74" s="67" t="s">
+      <c r="C79" s="78" t="n">
+        <v>2.26</v>
+      </c>
+      <c r="D79" s="78" t="n">
+        <f aca="false">D78-1.49</f>
+        <v>-1.65</v>
+      </c>
+      <c r="E79" s="78" t="n">
+        <v>0</v>
+      </c>
+      <c r="F79" s="79" t="n">
+        <v>0</v>
+      </c>
+      <c r="G79" s="79" t="n">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="80" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A80" s="76" t="s">
+        <v>85</v>
+      </c>
+      <c r="B80" s="77" t="n">
+        <f aca="false">B79+1</f>
         <v>79</v>
       </c>
-      <c r="B74" s="68" t="n">
-        <v>72</v>
-      </c>
-      <c r="C74" s="69" t="n">
-        <v>-1</v>
-      </c>
-      <c r="D74" s="69" t="n">
-        <f aca="false">D75-1.09</f>
-        <v>-2.73</v>
-      </c>
-      <c r="E74" s="69" t="n">
-        <v>0</v>
-      </c>
-      <c r="F74" s="70" t="n">
-        <v>0</v>
-      </c>
-      <c r="G74" s="70" t="n">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="75" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A75" s="67" t="s">
-        <v>80</v>
-      </c>
-      <c r="B75" s="68" t="n">
-        <v>73</v>
-      </c>
-      <c r="C75" s="69" t="n">
-        <v>-1</v>
-      </c>
-      <c r="D75" s="69" t="n">
-        <v>-1.64</v>
-      </c>
-      <c r="E75" s="69" t="n">
-        <v>0</v>
-      </c>
-      <c r="F75" s="70" t="n">
-        <v>0</v>
-      </c>
-      <c r="G75" s="70" t="n">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="76" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A76" s="71" t="s">
-        <v>81</v>
-      </c>
-      <c r="B76" s="72" t="n">
-        <v>74</v>
-      </c>
-      <c r="C76" s="73" t="n">
-        <v>2.26</v>
-      </c>
-      <c r="D76" s="73" t="n">
-        <v>-0.16</v>
-      </c>
-      <c r="E76" s="73" t="n">
-        <v>0</v>
-      </c>
-      <c r="F76" s="74" t="n">
-        <v>0</v>
-      </c>
-      <c r="G76" s="74" t="n">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="77" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A77" s="71" t="s">
-        <v>82</v>
-      </c>
-      <c r="B77" s="72" t="n">
-        <v>75</v>
-      </c>
-      <c r="C77" s="73" t="n">
-        <v>2.26</v>
-      </c>
-      <c r="D77" s="73" t="n">
-        <f aca="false">D76-1.49</f>
-        <v>-1.65</v>
-      </c>
-      <c r="E77" s="73" t="n">
-        <v>0</v>
-      </c>
-      <c r="F77" s="74" t="n">
-        <v>0</v>
-      </c>
-      <c r="G77" s="74" t="n">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="78" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A78" s="71" t="s">
-        <v>83</v>
-      </c>
-      <c r="B78" s="72" t="n">
-        <v>76</v>
-      </c>
-      <c r="C78" s="73" t="n">
+      <c r="C80" s="78" t="n">
         <f aca="false">2.26+0.83</f>
         <v>3.09</v>
       </c>
-      <c r="D78" s="73" t="n">
-        <f aca="false">D77</f>
+      <c r="D80" s="78" t="n">
+        <f aca="false">D79</f>
         <v>-1.65</v>
       </c>
-      <c r="E78" s="73" t="n">
-        <v>0</v>
-      </c>
-      <c r="F78" s="74" t="n">
-        <v>0</v>
-      </c>
-      <c r="G78" s="74" t="n">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="79" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A79" s="71" t="s">
-        <v>84</v>
-      </c>
-      <c r="B79" s="72" t="n">
-        <v>77</v>
-      </c>
-      <c r="C79" s="73" t="n">
+      <c r="E80" s="78" t="n">
+        <v>0</v>
+      </c>
+      <c r="F80" s="79" t="n">
+        <v>0</v>
+      </c>
+      <c r="G80" s="79" t="n">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="81" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A81" s="76" t="s">
+        <v>86</v>
+      </c>
+      <c r="B81" s="77" t="n">
+        <f aca="false">B80+1</f>
+        <v>80</v>
+      </c>
+      <c r="C81" s="78" t="n">
         <f aca="false">2.26+0.83</f>
         <v>3.09</v>
       </c>
-      <c r="D79" s="73" t="n">
+      <c r="D81" s="78" t="n">
         <v>-0.16</v>
       </c>
-      <c r="E79" s="73" t="n">
-        <v>0</v>
-      </c>
-      <c r="F79" s="74" t="n">
-        <v>0</v>
-      </c>
-      <c r="G79" s="74" t="n">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="80" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A80" s="52" t="s">
+      <c r="E81" s="78" t="n">
+        <v>0</v>
+      </c>
+      <c r="F81" s="79" t="n">
+        <v>0</v>
+      </c>
+      <c r="G81" s="79" t="n">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="82" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A82" s="57" t="s">
+        <v>87</v>
+      </c>
+      <c r="B82" s="58" t="n">
+        <f aca="false">B81+1</f>
+        <v>81</v>
+      </c>
+      <c r="C82" s="59" t="n">
+        <v>0</v>
+      </c>
+      <c r="D82" s="59" t="n">
+        <v>-2.9217</v>
+      </c>
+      <c r="E82" s="59" t="n">
+        <v>-0.546</v>
+      </c>
+      <c r="F82" s="60" t="n">
+        <v>0</v>
+      </c>
+      <c r="G82" s="60" t="n">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="83" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A83" s="53" t="s">
+        <v>88</v>
+      </c>
+      <c r="B83" s="58" t="n">
+        <f aca="false">B82+1</f>
+        <v>82</v>
+      </c>
+      <c r="C83" s="55" t="n">
+        <v>-3.1634</v>
+      </c>
+      <c r="D83" s="55" t="n">
+        <v>-2.9565</v>
+      </c>
+      <c r="E83" s="55" t="n">
+        <v>-0.9233</v>
+      </c>
+      <c r="F83" s="56" t="n">
+        <v>0</v>
+      </c>
+      <c r="G83" s="56" t="n">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="84" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A84" s="53" t="s">
+        <v>89</v>
+      </c>
+      <c r="B84" s="58" t="n">
+        <f aca="false">B83+1</f>
+        <v>83</v>
+      </c>
+      <c r="C84" s="55" t="n">
+        <v>-3.0852</v>
+      </c>
+      <c r="D84" s="55" t="n">
+        <v>-2.7843</v>
+      </c>
+      <c r="E84" s="55" t="n">
+        <v>-2.0292</v>
+      </c>
+      <c r="F84" s="56" t="n">
+        <v>0</v>
+      </c>
+      <c r="G84" s="56" t="n">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="85" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A85" s="53" t="s">
+        <v>90</v>
+      </c>
+      <c r="B85" s="58" t="n">
+        <f aca="false">B84+1</f>
+        <v>84</v>
+      </c>
+      <c r="C85" s="55" t="n">
+        <v>3.085</v>
+      </c>
+      <c r="D85" s="55" t="n">
+        <v>-2.784</v>
+      </c>
+      <c r="E85" s="55" t="n">
+        <v>-2.029</v>
+      </c>
+      <c r="F85" s="56" t="n">
+        <v>0</v>
+      </c>
+      <c r="G85" s="56" t="n">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="86" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A86" s="53" t="s">
+        <v>91</v>
+      </c>
+      <c r="B86" s="58" t="n">
+        <f aca="false">B85+1</f>
         <v>85</v>
       </c>
-      <c r="B80" s="53" t="n">
-        <v>78</v>
-      </c>
-      <c r="C80" s="54" t="n">
-        <v>0</v>
-      </c>
-      <c r="D80" s="54" t="n">
-        <v>-2.9217</v>
-      </c>
-      <c r="E80" s="54" t="n">
-        <v>-0.546</v>
-      </c>
-      <c r="F80" s="55" t="n">
-        <v>0</v>
-      </c>
-      <c r="G80" s="55" t="n">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="81" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A81" s="48" t="s">
-        <v>86</v>
-      </c>
-      <c r="B81" s="53" t="n">
-        <v>79</v>
-      </c>
-      <c r="C81" s="50" t="n">
-        <v>-3.1634</v>
-      </c>
-      <c r="D81" s="50" t="n">
-        <v>-2.9565</v>
-      </c>
-      <c r="E81" s="50" t="n">
-        <v>-0.9233</v>
-      </c>
-      <c r="F81" s="51" t="n">
-        <v>0</v>
-      </c>
-      <c r="G81" s="51" t="n">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="82" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A82" s="48" t="s">
-        <v>87</v>
-      </c>
-      <c r="B82" s="53" t="n">
-        <v>80</v>
-      </c>
-      <c r="C82" s="50" t="n">
-        <v>-3.0852</v>
-      </c>
-      <c r="D82" s="50" t="n">
-        <v>-2.7843</v>
-      </c>
-      <c r="E82" s="50" t="n">
-        <v>-2.0292</v>
-      </c>
-      <c r="F82" s="51" t="n">
-        <v>0</v>
-      </c>
-      <c r="G82" s="51" t="n">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="83" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A83" s="48" t="s">
-        <v>88</v>
-      </c>
-      <c r="B83" s="53" t="n">
-        <v>81</v>
-      </c>
-      <c r="C83" s="50" t="n">
-        <v>3.085</v>
-      </c>
-      <c r="D83" s="50" t="n">
-        <v>-2.784</v>
-      </c>
-      <c r="E83" s="50" t="n">
-        <v>-2.029</v>
-      </c>
-      <c r="F83" s="51" t="n">
-        <v>0</v>
-      </c>
-      <c r="G83" s="51" t="n">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="84" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A84" s="48" t="s">
-        <v>89</v>
-      </c>
-      <c r="B84" s="53" t="n">
-        <v>82</v>
-      </c>
-      <c r="C84" s="50" t="n">
+      <c r="C86" s="55" t="n">
         <v>3.163</v>
       </c>
-      <c r="D84" s="50" t="n">
+      <c r="D86" s="55" t="n">
         <v>-2.957</v>
       </c>
-      <c r="E84" s="50" t="n">
+      <c r="E86" s="55" t="n">
         <v>0.923</v>
       </c>
-      <c r="F84" s="51" t="n">
-        <v>0</v>
-      </c>
-      <c r="G84" s="51" t="n">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="85" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A85" s="75"/>
-      <c r="B85" s="76"/>
-      <c r="C85" s="77"/>
-      <c r="D85" s="77"/>
-      <c r="E85" s="77"/>
-      <c r="F85" s="78"/>
-      <c r="G85" s="78"/>
-    </row>
-    <row r="86" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A86" s="75"/>
-      <c r="B86" s="76"/>
-      <c r="C86" s="77"/>
-      <c r="D86" s="77"/>
-      <c r="E86" s="77"/>
-      <c r="F86" s="78"/>
-      <c r="G86" s="78"/>
+      <c r="F86" s="56" t="n">
+        <v>0</v>
+      </c>
+      <c r="G86" s="56" t="n">
+        <v>0</v>
+      </c>
     </row>
     <row r="87" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A87" s="75"/>
-      <c r="B87" s="76"/>
-      <c r="C87" s="77"/>
-      <c r="D87" s="77"/>
-      <c r="E87" s="77"/>
-      <c r="F87" s="78"/>
-      <c r="G87" s="78"/>
+      <c r="A87" s="80"/>
+      <c r="B87" s="81"/>
+      <c r="C87" s="82"/>
+      <c r="D87" s="82"/>
+      <c r="E87" s="82"/>
+      <c r="F87" s="83"/>
+      <c r="G87" s="83"/>
     </row>
     <row r="88" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A88" s="75"/>
-      <c r="B88" s="76"/>
-      <c r="C88" s="77"/>
-      <c r="D88" s="77"/>
-      <c r="E88" s="77"/>
-      <c r="F88" s="78"/>
-      <c r="G88" s="78"/>
+      <c r="A88" s="80"/>
+      <c r="B88" s="81"/>
+      <c r="C88" s="82"/>
+      <c r="D88" s="82"/>
+      <c r="E88" s="82"/>
+      <c r="F88" s="83"/>
+      <c r="G88" s="83"/>
     </row>
     <row r="89" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A89" s="75"/>
-      <c r="B89" s="76"/>
-      <c r="C89" s="77"/>
-      <c r="D89" s="77"/>
-      <c r="E89" s="77"/>
-      <c r="F89" s="78"/>
-      <c r="G89" s="78"/>
+      <c r="A89" s="80"/>
+      <c r="B89" s="81"/>
+      <c r="C89" s="82"/>
+      <c r="D89" s="82"/>
+      <c r="E89" s="82"/>
+      <c r="F89" s="83"/>
+      <c r="G89" s="83"/>
     </row>
     <row r="90" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A90" s="75"/>
-      <c r="B90" s="76"/>
-      <c r="C90" s="77"/>
-      <c r="D90" s="77"/>
-      <c r="E90" s="77"/>
-      <c r="F90" s="78"/>
-      <c r="G90" s="78"/>
+      <c r="A90" s="80"/>
+      <c r="B90" s="81"/>
+      <c r="C90" s="82"/>
+      <c r="D90" s="82"/>
+      <c r="E90" s="82"/>
+      <c r="F90" s="83"/>
+      <c r="G90" s="83"/>
     </row>
     <row r="91" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A91" s="75"/>
-      <c r="B91" s="76"/>
-      <c r="C91" s="77"/>
-      <c r="D91" s="77"/>
-      <c r="E91" s="77"/>
-      <c r="F91" s="78"/>
-      <c r="G91" s="78"/>
+      <c r="A91" s="80"/>
+      <c r="B91" s="81"/>
+      <c r="C91" s="82"/>
+      <c r="D91" s="82"/>
+      <c r="E91" s="82"/>
+      <c r="F91" s="83"/>
+      <c r="G91" s="83"/>
     </row>
     <row r="92" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A92" s="75"/>
-      <c r="B92" s="76"/>
-      <c r="C92" s="77"/>
-      <c r="D92" s="77"/>
-      <c r="E92" s="77"/>
-      <c r="F92" s="78"/>
-      <c r="G92" s="78"/>
+      <c r="A92" s="80"/>
+      <c r="B92" s="81"/>
+      <c r="C92" s="82"/>
+      <c r="D92" s="82"/>
+      <c r="E92" s="82"/>
+      <c r="F92" s="83"/>
+      <c r="G92" s="83"/>
     </row>
     <row r="93" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A93" s="75"/>
-      <c r="B93" s="76"/>
-      <c r="C93" s="77"/>
-      <c r="D93" s="77"/>
-      <c r="E93" s="77"/>
-      <c r="F93" s="78"/>
-      <c r="G93" s="78"/>
+      <c r="A93" s="80"/>
+      <c r="B93" s="81"/>
+      <c r="C93" s="82"/>
+      <c r="D93" s="82"/>
+      <c r="E93" s="82"/>
+      <c r="F93" s="83"/>
+      <c r="G93" s="83"/>
     </row>
     <row r="94" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A94" s="75"/>
-      <c r="B94" s="76"/>
-      <c r="C94" s="77"/>
-      <c r="D94" s="77"/>
-      <c r="E94" s="77"/>
-      <c r="F94" s="78"/>
-      <c r="G94" s="78"/>
+      <c r="A94" s="80"/>
+      <c r="B94" s="81"/>
+      <c r="C94" s="82"/>
+      <c r="D94" s="82"/>
+      <c r="E94" s="82"/>
+      <c r="F94" s="83"/>
+      <c r="G94" s="83"/>
     </row>
     <row r="95" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A95" s="75"/>
-      <c r="B95" s="76"/>
-      <c r="C95" s="77"/>
-      <c r="D95" s="77"/>
-      <c r="E95" s="77"/>
-      <c r="F95" s="78"/>
-      <c r="G95" s="78"/>
+      <c r="A95" s="80"/>
+      <c r="B95" s="81"/>
+      <c r="C95" s="82"/>
+      <c r="D95" s="82"/>
+      <c r="E95" s="82"/>
+      <c r="F95" s="83"/>
+      <c r="G95" s="83"/>
     </row>
     <row r="96" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A96" s="75"/>
-      <c r="B96" s="76"/>
-      <c r="C96" s="77"/>
-      <c r="D96" s="77"/>
-      <c r="E96" s="77"/>
-      <c r="F96" s="78"/>
-      <c r="G96" s="78"/>
+      <c r="A96" s="80"/>
+      <c r="B96" s="81"/>
+      <c r="C96" s="82"/>
+      <c r="D96" s="82"/>
+      <c r="E96" s="82"/>
+      <c r="F96" s="83"/>
+      <c r="G96" s="83"/>
     </row>
     <row r="97" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A97" s="75"/>
-      <c r="B97" s="76"/>
-      <c r="C97" s="77"/>
-      <c r="D97" s="77"/>
-      <c r="E97" s="77"/>
-      <c r="F97" s="78"/>
-      <c r="G97" s="78"/>
+      <c r="A97" s="80"/>
+      <c r="B97" s="81"/>
+      <c r="C97" s="82"/>
+      <c r="D97" s="82"/>
+      <c r="E97" s="82"/>
+      <c r="F97" s="83"/>
+      <c r="G97" s="83"/>
     </row>
     <row r="98" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A98" s="75"/>
-      <c r="B98" s="76"/>
-      <c r="C98" s="77"/>
-      <c r="D98" s="77"/>
-      <c r="E98" s="77"/>
-      <c r="F98" s="78"/>
-      <c r="G98" s="78"/>
+      <c r="A98" s="80"/>
+      <c r="B98" s="81"/>
+      <c r="C98" s="82"/>
+      <c r="D98" s="82"/>
+      <c r="E98" s="82"/>
+      <c r="F98" s="83"/>
+      <c r="G98" s="83"/>
     </row>
     <row r="99" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A99" s="75"/>
-      <c r="B99" s="76"/>
-      <c r="C99" s="77"/>
-      <c r="D99" s="77"/>
-      <c r="E99" s="77"/>
-      <c r="F99" s="78"/>
-      <c r="G99" s="78"/>
+      <c r="A99" s="80"/>
+      <c r="B99" s="81"/>
+      <c r="C99" s="82"/>
+      <c r="D99" s="82"/>
+      <c r="E99" s="82"/>
+      <c r="F99" s="83"/>
+      <c r="G99" s="83"/>
     </row>
     <row r="100" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A100" s="75"/>
-      <c r="B100" s="76"/>
-      <c r="C100" s="77"/>
-      <c r="D100" s="77"/>
-      <c r="E100" s="77"/>
-      <c r="F100" s="78"/>
-      <c r="G100" s="78"/>
+      <c r="A100" s="80"/>
+      <c r="B100" s="81"/>
+      <c r="C100" s="82"/>
+      <c r="D100" s="82"/>
+      <c r="E100" s="82"/>
+      <c r="F100" s="83"/>
+      <c r="G100" s="83"/>
     </row>
     <row r="101" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A101" s="75"/>
-      <c r="B101" s="76"/>
-      <c r="C101" s="77"/>
-      <c r="D101" s="77"/>
-      <c r="E101" s="77"/>
-      <c r="F101" s="78"/>
-      <c r="G101" s="78"/>
+      <c r="A101" s="80"/>
+      <c r="B101" s="81"/>
+      <c r="C101" s="82"/>
+      <c r="D101" s="82"/>
+      <c r="E101" s="82"/>
+      <c r="F101" s="83"/>
+      <c r="G101" s="83"/>
     </row>
     <row r="102" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A102" s="75"/>
-      <c r="B102" s="76"/>
-      <c r="C102" s="77"/>
-      <c r="D102" s="77"/>
-      <c r="E102" s="77"/>
-      <c r="F102" s="78"/>
-      <c r="G102" s="78"/>
+      <c r="A102" s="80"/>
+      <c r="B102" s="81"/>
+      <c r="C102" s="82"/>
+      <c r="D102" s="82"/>
+      <c r="E102" s="82"/>
+      <c r="F102" s="83"/>
+      <c r="G102" s="83"/>
     </row>
     <row r="103" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A103" s="75"/>
-      <c r="B103" s="76"/>
-      <c r="C103" s="77"/>
-      <c r="D103" s="77"/>
-      <c r="E103" s="77"/>
-      <c r="F103" s="78"/>
-      <c r="G103" s="78"/>
+      <c r="A103" s="80"/>
+      <c r="B103" s="81"/>
+      <c r="C103" s="82"/>
+      <c r="D103" s="82"/>
+      <c r="E103" s="82"/>
+      <c r="F103" s="83"/>
+      <c r="G103" s="83"/>
     </row>
     <row r="104" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A104" s="75"/>
-      <c r="B104" s="76"/>
-      <c r="C104" s="77"/>
-      <c r="D104" s="77"/>
-      <c r="E104" s="77"/>
-      <c r="F104" s="78"/>
-      <c r="G104" s="78"/>
+      <c r="A104" s="80"/>
+      <c r="B104" s="81"/>
+      <c r="C104" s="82"/>
+      <c r="D104" s="82"/>
+      <c r="E104" s="82"/>
+      <c r="F104" s="83"/>
+      <c r="G104" s="83"/>
     </row>
     <row r="105" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A105" s="75"/>
-      <c r="B105" s="76"/>
-      <c r="C105" s="77"/>
-      <c r="D105" s="77"/>
-      <c r="E105" s="77"/>
-      <c r="F105" s="78"/>
-      <c r="G105" s="78"/>
+      <c r="A105" s="80"/>
+      <c r="B105" s="81"/>
+      <c r="C105" s="82"/>
+      <c r="D105" s="82"/>
+      <c r="E105" s="82"/>
+      <c r="F105" s="83"/>
+      <c r="G105" s="83"/>
     </row>
     <row r="106" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A106" s="75"/>
-      <c r="B106" s="76"/>
-      <c r="C106" s="77"/>
-      <c r="D106" s="77"/>
-      <c r="E106" s="77"/>
-      <c r="F106" s="78"/>
-      <c r="G106" s="78"/>
+      <c r="A106" s="80"/>
+      <c r="B106" s="81"/>
+      <c r="C106" s="82"/>
+      <c r="D106" s="82"/>
+      <c r="E106" s="82"/>
+      <c r="F106" s="83"/>
+      <c r="G106" s="83"/>
     </row>
     <row r="107" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A107" s="75"/>
-      <c r="B107" s="76"/>
-      <c r="C107" s="77"/>
-      <c r="D107" s="77"/>
-      <c r="E107" s="77"/>
-      <c r="F107" s="78"/>
-      <c r="G107" s="78"/>
+      <c r="A107" s="80"/>
+      <c r="B107" s="81"/>
+      <c r="C107" s="82"/>
+      <c r="D107" s="82"/>
+      <c r="E107" s="82"/>
+      <c r="F107" s="83"/>
+      <c r="G107" s="83"/>
     </row>
     <row r="108" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A108" s="75"/>
-      <c r="B108" s="76"/>
-      <c r="C108" s="77"/>
-      <c r="D108" s="77"/>
-      <c r="E108" s="77"/>
-      <c r="F108" s="78"/>
-      <c r="G108" s="78"/>
+      <c r="A108" s="80"/>
+      <c r="B108" s="81"/>
+      <c r="C108" s="82"/>
+      <c r="D108" s="82"/>
+      <c r="E108" s="82"/>
+      <c r="F108" s="83"/>
+      <c r="G108" s="83"/>
     </row>
     <row r="109" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A109" s="75"/>
-      <c r="B109" s="76"/>
-      <c r="C109" s="77"/>
-      <c r="D109" s="77"/>
-      <c r="E109" s="77"/>
-      <c r="F109" s="78"/>
-      <c r="G109" s="78"/>
+      <c r="A109" s="80"/>
+      <c r="B109" s="81"/>
+      <c r="C109" s="82"/>
+      <c r="D109" s="82"/>
+      <c r="E109" s="82"/>
+      <c r="F109" s="83"/>
+      <c r="G109" s="83"/>
     </row>
     <row r="110" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A110" s="75"/>
-      <c r="B110" s="76"/>
-      <c r="C110" s="77"/>
-      <c r="D110" s="77"/>
-      <c r="E110" s="77"/>
-      <c r="F110" s="78"/>
-      <c r="G110" s="78"/>
+      <c r="A110" s="80"/>
+      <c r="B110" s="81"/>
+      <c r="C110" s="82"/>
+      <c r="D110" s="82"/>
+      <c r="E110" s="82"/>
+      <c r="F110" s="83"/>
+      <c r="G110" s="83"/>
     </row>
     <row r="111" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A111" s="75"/>
-      <c r="B111" s="76"/>
-      <c r="C111" s="77"/>
-      <c r="D111" s="77"/>
-      <c r="E111" s="77"/>
-      <c r="F111" s="78"/>
-      <c r="G111" s="78"/>
+      <c r="A111" s="80"/>
+      <c r="B111" s="81"/>
+      <c r="C111" s="82"/>
+      <c r="D111" s="82"/>
+      <c r="E111" s="82"/>
+      <c r="F111" s="83"/>
+      <c r="G111" s="83"/>
     </row>
     <row r="112" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A112" s="75"/>
-      <c r="B112" s="76"/>
-      <c r="C112" s="77"/>
-      <c r="D112" s="77"/>
-      <c r="E112" s="77"/>
-      <c r="F112" s="78"/>
-      <c r="G112" s="78"/>
+      <c r="A112" s="80"/>
+      <c r="B112" s="81"/>
+      <c r="C112" s="82"/>
+      <c r="D112" s="82"/>
+      <c r="E112" s="82"/>
+      <c r="F112" s="83"/>
+      <c r="G112" s="83"/>
     </row>
     <row r="113" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A113" s="75"/>
-      <c r="B113" s="76"/>
-      <c r="C113" s="77"/>
-      <c r="D113" s="77"/>
-      <c r="E113" s="77"/>
-      <c r="F113" s="78"/>
-      <c r="G113" s="78"/>
+      <c r="A113" s="80"/>
+      <c r="B113" s="81"/>
+      <c r="C113" s="82"/>
+      <c r="D113" s="82"/>
+      <c r="E113" s="82"/>
+      <c r="F113" s="83"/>
+      <c r="G113" s="83"/>
     </row>
     <row r="114" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A114" s="75"/>
-      <c r="B114" s="76"/>
-      <c r="C114" s="77"/>
-      <c r="D114" s="77"/>
-      <c r="E114" s="77"/>
-      <c r="F114" s="78"/>
-      <c r="G114" s="78"/>
+      <c r="A114" s="80"/>
+      <c r="B114" s="81"/>
+      <c r="C114" s="82"/>
+      <c r="D114" s="82"/>
+      <c r="E114" s="82"/>
+      <c r="F114" s="83"/>
+      <c r="G114" s="83"/>
     </row>
     <row r="115" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A115" s="75"/>
-      <c r="B115" s="76"/>
-      <c r="C115" s="77"/>
-      <c r="D115" s="77"/>
-      <c r="E115" s="77"/>
-      <c r="F115" s="78"/>
-      <c r="G115" s="78"/>
+      <c r="A115" s="80"/>
+      <c r="B115" s="81"/>
+      <c r="C115" s="82"/>
+      <c r="D115" s="82"/>
+      <c r="E115" s="82"/>
+      <c r="F115" s="83"/>
+      <c r="G115" s="83"/>
     </row>
     <row r="116" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A116" s="75"/>
-      <c r="B116" s="76"/>
-      <c r="C116" s="77"/>
-      <c r="D116" s="77"/>
-      <c r="E116" s="77"/>
-      <c r="F116" s="78"/>
-      <c r="G116" s="78"/>
+      <c r="A116" s="80"/>
+      <c r="B116" s="81"/>
+      <c r="C116" s="82"/>
+      <c r="D116" s="82"/>
+      <c r="E116" s="82"/>
+      <c r="F116" s="83"/>
+      <c r="G116" s="83"/>
     </row>
     <row r="117" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A117" s="75"/>
-      <c r="B117" s="76"/>
-      <c r="C117" s="77"/>
-      <c r="D117" s="77"/>
-      <c r="E117" s="77"/>
-      <c r="F117" s="78"/>
-      <c r="G117" s="78"/>
+      <c r="A117" s="80"/>
+      <c r="B117" s="81"/>
+      <c r="C117" s="82"/>
+      <c r="D117" s="82"/>
+      <c r="E117" s="82"/>
+      <c r="F117" s="83"/>
+      <c r="G117" s="83"/>
     </row>
     <row r="118" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A118" s="75"/>
-      <c r="B118" s="76"/>
-      <c r="C118" s="77"/>
-      <c r="D118" s="77"/>
-      <c r="E118" s="77"/>
-      <c r="F118" s="78"/>
-      <c r="G118" s="78"/>
+      <c r="A118" s="80"/>
+      <c r="B118" s="81"/>
+      <c r="C118" s="82"/>
+      <c r="D118" s="82"/>
+      <c r="E118" s="82"/>
+      <c r="F118" s="83"/>
+      <c r="G118" s="83"/>
     </row>
     <row r="119" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A119" s="75"/>
-      <c r="B119" s="76"/>
-      <c r="C119" s="77"/>
-      <c r="D119" s="77"/>
-      <c r="E119" s="77"/>
-      <c r="F119" s="78"/>
-      <c r="G119" s="78"/>
+      <c r="A119" s="80"/>
+      <c r="B119" s="81"/>
+      <c r="C119" s="82"/>
+      <c r="D119" s="82"/>
+      <c r="E119" s="82"/>
+      <c r="F119" s="83"/>
+      <c r="G119" s="83"/>
     </row>
     <row r="120" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A120" s="75"/>
-      <c r="B120" s="76"/>
-      <c r="C120" s="77"/>
-      <c r="D120" s="77"/>
-      <c r="E120" s="77"/>
-      <c r="F120" s="78"/>
-      <c r="G120" s="78"/>
+      <c r="A120" s="80"/>
+      <c r="B120" s="81"/>
+      <c r="C120" s="82"/>
+      <c r="D120" s="82"/>
+      <c r="E120" s="82"/>
+      <c r="F120" s="83"/>
+      <c r="G120" s="83"/>
     </row>
     <row r="121" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A121" s="75"/>
-      <c r="B121" s="76"/>
-      <c r="C121" s="77"/>
-      <c r="D121" s="77"/>
-      <c r="E121" s="77"/>
-      <c r="F121" s="78"/>
-      <c r="G121" s="78"/>
+      <c r="A121" s="80"/>
+      <c r="B121" s="81"/>
+      <c r="C121" s="82"/>
+      <c r="D121" s="82"/>
+      <c r="E121" s="82"/>
+      <c r="F121" s="83"/>
+      <c r="G121" s="83"/>
     </row>
     <row r="122" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A122" s="75"/>
-      <c r="B122" s="76"/>
-      <c r="C122" s="77"/>
-      <c r="D122" s="77"/>
-      <c r="E122" s="77"/>
-      <c r="F122" s="78"/>
-      <c r="G122" s="78"/>
+      <c r="A122" s="80"/>
+      <c r="B122" s="81"/>
+      <c r="C122" s="82"/>
+      <c r="D122" s="82"/>
+      <c r="E122" s="82"/>
+      <c r="F122" s="83"/>
+      <c r="G122" s="83"/>
     </row>
     <row r="123" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A123" s="75"/>
-      <c r="B123" s="76"/>
-      <c r="C123" s="77"/>
-      <c r="D123" s="77"/>
-      <c r="E123" s="77"/>
-      <c r="F123" s="78"/>
-      <c r="G123" s="78"/>
+      <c r="A123" s="80"/>
+      <c r="B123" s="81"/>
+      <c r="C123" s="82"/>
+      <c r="D123" s="82"/>
+      <c r="E123" s="82"/>
+      <c r="F123" s="83"/>
+      <c r="G123" s="83"/>
     </row>
     <row r="124" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A124" s="75"/>
-      <c r="B124" s="76"/>
-      <c r="C124" s="77"/>
-      <c r="D124" s="77"/>
-      <c r="E124" s="77"/>
-      <c r="F124" s="78"/>
-      <c r="G124" s="78"/>
+      <c r="A124" s="80"/>
+      <c r="B124" s="81"/>
+      <c r="C124" s="82"/>
+      <c r="D124" s="82"/>
+      <c r="E124" s="82"/>
+      <c r="F124" s="83"/>
+      <c r="G124" s="83"/>
     </row>
     <row r="125" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A125" s="75"/>
-      <c r="B125" s="76"/>
-      <c r="C125" s="77"/>
-      <c r="D125" s="77"/>
-      <c r="E125" s="77"/>
-      <c r="F125" s="78"/>
-      <c r="G125" s="78"/>
+      <c r="A125" s="80"/>
+      <c r="B125" s="81"/>
+      <c r="C125" s="82"/>
+      <c r="D125" s="82"/>
+      <c r="E125" s="82"/>
+      <c r="F125" s="83"/>
+      <c r="G125" s="83"/>
     </row>
     <row r="126" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A126" s="75"/>
-      <c r="B126" s="76"/>
-      <c r="C126" s="77"/>
-      <c r="D126" s="77"/>
-      <c r="E126" s="77"/>
-      <c r="F126" s="78"/>
-      <c r="G126" s="78"/>
+      <c r="A126" s="80"/>
+      <c r="B126" s="81"/>
+      <c r="C126" s="82"/>
+      <c r="D126" s="82"/>
+      <c r="E126" s="82"/>
+      <c r="F126" s="83"/>
+      <c r="G126" s="83"/>
     </row>
     <row r="127" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A127" s="75"/>
-      <c r="B127" s="76"/>
-      <c r="C127" s="77"/>
-      <c r="D127" s="77"/>
-      <c r="E127" s="77"/>
-      <c r="F127" s="78"/>
-      <c r="G127" s="78"/>
+      <c r="A127" s="80"/>
+      <c r="B127" s="81"/>
+      <c r="C127" s="82"/>
+      <c r="D127" s="82"/>
+      <c r="E127" s="82"/>
+      <c r="F127" s="83"/>
+      <c r="G127" s="83"/>
     </row>
     <row r="128" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A128" s="75"/>
-      <c r="B128" s="76"/>
-      <c r="C128" s="77"/>
-      <c r="D128" s="77"/>
-      <c r="E128" s="77"/>
-      <c r="F128" s="78"/>
-      <c r="G128" s="78"/>
+      <c r="A128" s="80"/>
+      <c r="B128" s="81"/>
+      <c r="C128" s="82"/>
+      <c r="D128" s="82"/>
+      <c r="E128" s="82"/>
+      <c r="F128" s="83"/>
+      <c r="G128" s="83"/>
     </row>
     <row r="129" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A129" s="75"/>
-      <c r="B129" s="76"/>
-      <c r="C129" s="77"/>
-      <c r="D129" s="77"/>
-      <c r="E129" s="77"/>
-      <c r="F129" s="78"/>
-      <c r="G129" s="78"/>
+      <c r="A129" s="80"/>
+      <c r="B129" s="81"/>
+      <c r="C129" s="82"/>
+      <c r="D129" s="82"/>
+      <c r="E129" s="82"/>
+      <c r="F129" s="83"/>
+      <c r="G129" s="83"/>
     </row>
     <row r="130" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A130" s="75"/>
-      <c r="B130" s="76"/>
-      <c r="C130" s="77"/>
-      <c r="D130" s="77"/>
-      <c r="E130" s="77"/>
-      <c r="F130" s="78"/>
-      <c r="G130" s="78"/>
+      <c r="A130" s="80"/>
+      <c r="B130" s="81"/>
+      <c r="C130" s="82"/>
+      <c r="D130" s="82"/>
+      <c r="E130" s="82"/>
+      <c r="F130" s="83"/>
+      <c r="G130" s="83"/>
     </row>
     <row r="131" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A131" s="75"/>
-      <c r="B131" s="76"/>
-      <c r="C131" s="77"/>
-      <c r="D131" s="77"/>
-      <c r="E131" s="77"/>
-      <c r="F131" s="78"/>
-      <c r="G131" s="78"/>
+      <c r="A131" s="80"/>
+      <c r="B131" s="81"/>
+      <c r="C131" s="82"/>
+      <c r="D131" s="82"/>
+      <c r="E131" s="82"/>
+      <c r="F131" s="83"/>
+      <c r="G131" s="83"/>
     </row>
     <row r="132" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A132" s="75"/>
-      <c r="B132" s="76"/>
-      <c r="C132" s="77"/>
-      <c r="D132" s="77"/>
-      <c r="E132" s="77"/>
-      <c r="F132" s="78"/>
-      <c r="G132" s="78"/>
+      <c r="A132" s="80"/>
+      <c r="B132" s="81"/>
+      <c r="C132" s="82"/>
+      <c r="D132" s="82"/>
+      <c r="E132" s="82"/>
+      <c r="F132" s="83"/>
+      <c r="G132" s="83"/>
     </row>
     <row r="133" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A133" s="75"/>
-      <c r="B133" s="76"/>
-      <c r="C133" s="77"/>
-      <c r="D133" s="77"/>
-      <c r="E133" s="77"/>
-      <c r="F133" s="78"/>
-      <c r="G133" s="78"/>
+      <c r="A133" s="80"/>
+      <c r="B133" s="81"/>
+      <c r="C133" s="82"/>
+      <c r="D133" s="82"/>
+      <c r="E133" s="82"/>
+      <c r="F133" s="83"/>
+      <c r="G133" s="83"/>
     </row>
     <row r="134" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A134" s="75"/>
-      <c r="B134" s="76"/>
-      <c r="C134" s="77"/>
-      <c r="D134" s="77"/>
-      <c r="E134" s="77"/>
-      <c r="F134" s="78"/>
-      <c r="G134" s="78"/>
+      <c r="A134" s="80"/>
+      <c r="B134" s="81"/>
+      <c r="C134" s="82"/>
+      <c r="D134" s="82"/>
+      <c r="E134" s="82"/>
+      <c r="F134" s="83"/>
+      <c r="G134" s="83"/>
     </row>
     <row r="135" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A135" s="75"/>
-      <c r="B135" s="76"/>
-      <c r="C135" s="77"/>
-      <c r="D135" s="77"/>
-      <c r="E135" s="77"/>
-      <c r="F135" s="78"/>
-      <c r="G135" s="78"/>
+      <c r="A135" s="80"/>
+      <c r="B135" s="81"/>
+      <c r="C135" s="82"/>
+      <c r="D135" s="82"/>
+      <c r="E135" s="82"/>
+      <c r="F135" s="83"/>
+      <c r="G135" s="83"/>
     </row>
     <row r="136" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A136" s="75"/>
-      <c r="B136" s="76"/>
-      <c r="C136" s="77"/>
-      <c r="D136" s="77"/>
-      <c r="E136" s="77"/>
-      <c r="F136" s="78"/>
-      <c r="G136" s="78"/>
+      <c r="A136" s="80"/>
+      <c r="B136" s="81"/>
+      <c r="C136" s="82"/>
+      <c r="D136" s="82"/>
+      <c r="E136" s="82"/>
+      <c r="F136" s="83"/>
+      <c r="G136" s="83"/>
     </row>
     <row r="137" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A137" s="75"/>
-      <c r="B137" s="76"/>
-      <c r="C137" s="77"/>
-      <c r="D137" s="77"/>
-      <c r="E137" s="77"/>
-      <c r="F137" s="78"/>
-      <c r="G137" s="78"/>
+      <c r="A137" s="80"/>
+      <c r="B137" s="81"/>
+      <c r="C137" s="82"/>
+      <c r="D137" s="82"/>
+      <c r="E137" s="82"/>
+      <c r="F137" s="83"/>
+      <c r="G137" s="83"/>
     </row>
     <row r="138" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A138" s="75"/>
-      <c r="B138" s="76"/>
-      <c r="C138" s="77"/>
-      <c r="D138" s="77"/>
-      <c r="E138" s="77"/>
-      <c r="F138" s="78"/>
-      <c r="G138" s="78"/>
+      <c r="A138" s="80"/>
+      <c r="B138" s="81"/>
+      <c r="C138" s="82"/>
+      <c r="D138" s="82"/>
+      <c r="E138" s="82"/>
+      <c r="F138" s="83"/>
+      <c r="G138" s="83"/>
     </row>
     <row r="139" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A139" s="75"/>
-      <c r="B139" s="76"/>
-      <c r="C139" s="77"/>
-      <c r="D139" s="77"/>
-      <c r="E139" s="77"/>
-      <c r="F139" s="78"/>
-      <c r="G139" s="78"/>
+      <c r="A139" s="80"/>
+      <c r="B139" s="81"/>
+      <c r="C139" s="82"/>
+      <c r="D139" s="82"/>
+      <c r="E139" s="82"/>
+      <c r="F139" s="83"/>
+      <c r="G139" s="83"/>
     </row>
     <row r="140" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A140" s="75"/>
-      <c r="B140" s="76"/>
-      <c r="C140" s="77"/>
-      <c r="D140" s="77"/>
-      <c r="E140" s="77"/>
-      <c r="F140" s="78"/>
-      <c r="G140" s="78"/>
+      <c r="A140" s="80"/>
+      <c r="B140" s="81"/>
+      <c r="C140" s="82"/>
+      <c r="D140" s="82"/>
+      <c r="E140" s="82"/>
+      <c r="F140" s="83"/>
+      <c r="G140" s="83"/>
     </row>
     <row r="141" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A141" s="75"/>
-      <c r="B141" s="76"/>
-      <c r="C141" s="77"/>
-      <c r="D141" s="77"/>
-      <c r="E141" s="77"/>
-      <c r="F141" s="78"/>
-      <c r="G141" s="78"/>
+      <c r="A141" s="80"/>
+      <c r="B141" s="81"/>
+      <c r="C141" s="82"/>
+      <c r="D141" s="82"/>
+      <c r="E141" s="82"/>
+      <c r="F141" s="83"/>
+      <c r="G141" s="83"/>
     </row>
     <row r="142" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A142" s="75"/>
-      <c r="B142" s="76"/>
-      <c r="C142" s="77"/>
-      <c r="D142" s="77"/>
-      <c r="E142" s="77"/>
-      <c r="F142" s="78"/>
-      <c r="G142" s="78"/>
+      <c r="A142" s="80"/>
+      <c r="B142" s="81"/>
+      <c r="C142" s="82"/>
+      <c r="D142" s="82"/>
+      <c r="E142" s="82"/>
+      <c r="F142" s="83"/>
+      <c r="G142" s="83"/>
     </row>
     <row r="143" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A143" s="75"/>
-      <c r="B143" s="76"/>
-      <c r="C143" s="77"/>
-      <c r="D143" s="77"/>
-      <c r="E143" s="77"/>
-      <c r="F143" s="78"/>
-      <c r="G143" s="78"/>
+      <c r="A143" s="80"/>
+      <c r="B143" s="81"/>
+      <c r="C143" s="82"/>
+      <c r="D143" s="82"/>
+      <c r="E143" s="82"/>
+      <c r="F143" s="83"/>
+      <c r="G143" s="83"/>
     </row>
     <row r="144" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A144" s="75"/>
-      <c r="B144" s="76"/>
-      <c r="C144" s="77"/>
-      <c r="D144" s="77"/>
-      <c r="E144" s="77"/>
-      <c r="F144" s="78"/>
-      <c r="G144" s="78"/>
+      <c r="A144" s="80"/>
+      <c r="B144" s="81"/>
+      <c r="C144" s="82"/>
+      <c r="D144" s="82"/>
+      <c r="E144" s="82"/>
+      <c r="F144" s="83"/>
+      <c r="G144" s="83"/>
     </row>
     <row r="145" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A145" s="75"/>
-      <c r="B145" s="76"/>
-      <c r="C145" s="77"/>
-      <c r="D145" s="77"/>
-      <c r="E145" s="77"/>
-      <c r="F145" s="78"/>
-      <c r="G145" s="78"/>
+      <c r="A145" s="80"/>
+      <c r="B145" s="81"/>
+      <c r="C145" s="82"/>
+      <c r="D145" s="82"/>
+      <c r="E145" s="82"/>
+      <c r="F145" s="83"/>
+      <c r="G145" s="83"/>
     </row>
     <row r="146" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A146" s="75"/>
-      <c r="B146" s="76"/>
-      <c r="C146" s="77"/>
-      <c r="D146" s="77"/>
-      <c r="E146" s="77"/>
-      <c r="F146" s="78"/>
-      <c r="G146" s="78"/>
+      <c r="A146" s="80"/>
+      <c r="B146" s="81"/>
+      <c r="C146" s="82"/>
+      <c r="D146" s="82"/>
+      <c r="E146" s="82"/>
+      <c r="F146" s="83"/>
+      <c r="G146" s="83"/>
     </row>
     <row r="147" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A147" s="75"/>
-      <c r="B147" s="76"/>
-      <c r="C147" s="77"/>
-      <c r="D147" s="77"/>
-      <c r="E147" s="77"/>
-      <c r="F147" s="78"/>
-      <c r="G147" s="78"/>
+      <c r="A147" s="80"/>
+      <c r="B147" s="81"/>
+      <c r="C147" s="82"/>
+      <c r="D147" s="82"/>
+      <c r="E147" s="82"/>
+      <c r="F147" s="83"/>
+      <c r="G147" s="83"/>
     </row>
     <row r="148" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A148" s="75"/>
-      <c r="B148" s="76"/>
-      <c r="C148" s="77"/>
-      <c r="D148" s="77"/>
-      <c r="E148" s="77"/>
-      <c r="F148" s="78"/>
-      <c r="G148" s="78"/>
+      <c r="A148" s="80"/>
+      <c r="B148" s="81"/>
+      <c r="C148" s="82"/>
+      <c r="D148" s="82"/>
+      <c r="E148" s="82"/>
+      <c r="F148" s="83"/>
+      <c r="G148" s="83"/>
     </row>
     <row r="149" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A149" s="75"/>
-      <c r="B149" s="76"/>
-      <c r="C149" s="77"/>
-      <c r="D149" s="77"/>
-      <c r="E149" s="77"/>
-      <c r="F149" s="78"/>
-      <c r="G149" s="78"/>
+      <c r="A149" s="80"/>
+      <c r="B149" s="81"/>
+      <c r="C149" s="82"/>
+      <c r="D149" s="82"/>
+      <c r="E149" s="82"/>
+      <c r="F149" s="83"/>
+      <c r="G149" s="83"/>
     </row>
     <row r="150" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A150" s="75"/>
-      <c r="B150" s="76"/>
-      <c r="C150" s="76"/>
-      <c r="D150" s="76"/>
-      <c r="E150" s="76"/>
-      <c r="F150" s="78"/>
-      <c r="G150" s="78"/>
+      <c r="A150" s="80"/>
+      <c r="B150" s="81"/>
+      <c r="C150" s="82"/>
+      <c r="D150" s="82"/>
+      <c r="E150" s="82"/>
+      <c r="F150" s="83"/>
+      <c r="G150" s="83"/>
     </row>
     <row r="151" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A151" s="75"/>
-      <c r="B151" s="76"/>
-      <c r="C151" s="76"/>
-      <c r="D151" s="76"/>
-      <c r="E151" s="76"/>
-      <c r="F151" s="78"/>
-      <c r="G151" s="78"/>
+      <c r="A151" s="80"/>
+      <c r="B151" s="81"/>
+      <c r="C151" s="82"/>
+      <c r="D151" s="82"/>
+      <c r="E151" s="82"/>
+      <c r="F151" s="83"/>
+      <c r="G151" s="83"/>
     </row>
     <row r="152" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A152" s="75"/>
-      <c r="B152" s="76"/>
-      <c r="C152" s="76"/>
-      <c r="D152" s="76"/>
-      <c r="E152" s="76"/>
-      <c r="F152" s="78"/>
-      <c r="G152" s="78"/>
+      <c r="A152" s="80"/>
+      <c r="B152" s="81"/>
+      <c r="C152" s="81"/>
+      <c r="D152" s="81"/>
+      <c r="E152" s="81"/>
+      <c r="F152" s="83"/>
+      <c r="G152" s="83"/>
     </row>
     <row r="153" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A153" s="75"/>
-      <c r="B153" s="76"/>
-      <c r="C153" s="76"/>
-      <c r="D153" s="76"/>
-      <c r="E153" s="76"/>
-      <c r="F153" s="78"/>
-      <c r="G153" s="78"/>
+      <c r="A153" s="80"/>
+      <c r="B153" s="81"/>
+      <c r="C153" s="81"/>
+      <c r="D153" s="81"/>
+      <c r="E153" s="81"/>
+      <c r="F153" s="83"/>
+      <c r="G153" s="83"/>
     </row>
     <row r="154" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A154" s="75"/>
-      <c r="B154" s="76"/>
-      <c r="C154" s="76"/>
-      <c r="D154" s="76"/>
-      <c r="E154" s="76"/>
-      <c r="F154" s="78"/>
-      <c r="G154" s="78"/>
+      <c r="A154" s="80"/>
+      <c r="B154" s="81"/>
+      <c r="C154" s="81"/>
+      <c r="D154" s="81"/>
+      <c r="E154" s="81"/>
+      <c r="F154" s="83"/>
+      <c r="G154" s="83"/>
     </row>
     <row r="155" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A155" s="75"/>
-      <c r="B155" s="76"/>
-      <c r="C155" s="76"/>
-      <c r="D155" s="76"/>
-      <c r="E155" s="76"/>
-      <c r="F155" s="78"/>
-      <c r="G155" s="78"/>
+      <c r="A155" s="80"/>
+      <c r="B155" s="81"/>
+      <c r="C155" s="81"/>
+      <c r="D155" s="81"/>
+      <c r="E155" s="81"/>
+      <c r="F155" s="83"/>
+      <c r="G155" s="83"/>
     </row>
     <row r="156" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A156" s="75"/>
-      <c r="B156" s="76"/>
-      <c r="C156" s="76"/>
-      <c r="D156" s="76"/>
-      <c r="E156" s="76"/>
-      <c r="F156" s="78"/>
-      <c r="G156" s="78"/>
+      <c r="A156" s="80"/>
+      <c r="B156" s="81"/>
+      <c r="C156" s="81"/>
+      <c r="D156" s="81"/>
+      <c r="E156" s="81"/>
+      <c r="F156" s="83"/>
+      <c r="G156" s="83"/>
     </row>
     <row r="157" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A157" s="75"/>
-      <c r="B157" s="76"/>
-      <c r="C157" s="76"/>
-      <c r="D157" s="76"/>
-      <c r="E157" s="76"/>
-      <c r="F157" s="78"/>
-      <c r="G157" s="78"/>
+      <c r="A157" s="80"/>
+      <c r="B157" s="81"/>
+      <c r="C157" s="81"/>
+      <c r="D157" s="81"/>
+      <c r="E157" s="81"/>
+      <c r="F157" s="83"/>
+      <c r="G157" s="83"/>
     </row>
     <row r="158" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A158" s="75"/>
-      <c r="B158" s="76"/>
-      <c r="C158" s="76"/>
-      <c r="D158" s="76"/>
-      <c r="E158" s="76"/>
-      <c r="F158" s="78"/>
-      <c r="G158" s="78"/>
+      <c r="A158" s="80"/>
+      <c r="B158" s="81"/>
+      <c r="C158" s="81"/>
+      <c r="D158" s="81"/>
+      <c r="E158" s="81"/>
+      <c r="F158" s="83"/>
+      <c r="G158" s="83"/>
     </row>
     <row r="159" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A159" s="75"/>
-      <c r="B159" s="76"/>
-      <c r="C159" s="76"/>
-      <c r="D159" s="76"/>
-      <c r="E159" s="76"/>
-      <c r="F159" s="78"/>
-      <c r="G159" s="78"/>
+      <c r="A159" s="80"/>
+      <c r="B159" s="81"/>
+      <c r="C159" s="81"/>
+      <c r="D159" s="81"/>
+      <c r="E159" s="81"/>
+      <c r="F159" s="83"/>
+      <c r="G159" s="83"/>
     </row>
     <row r="160" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A160" s="75"/>
-      <c r="B160" s="76"/>
-      <c r="C160" s="76"/>
-      <c r="D160" s="76"/>
-      <c r="E160" s="76"/>
-      <c r="F160" s="78"/>
-      <c r="G160" s="78"/>
+      <c r="A160" s="80"/>
+      <c r="B160" s="81"/>
+      <c r="C160" s="81"/>
+      <c r="D160" s="81"/>
+      <c r="E160" s="81"/>
+      <c r="F160" s="83"/>
+      <c r="G160" s="83"/>
     </row>
     <row r="161" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="B161" s="2"/>
-      <c r="G161" s="78"/>
+      <c r="A161" s="80"/>
+      <c r="B161" s="81"/>
+      <c r="C161" s="81"/>
+      <c r="D161" s="81"/>
+      <c r="E161" s="81"/>
+      <c r="F161" s="83"/>
+      <c r="G161" s="83"/>
     </row>
     <row r="162" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="B162" s="2"/>
-      <c r="G162" s="78"/>
+      <c r="A162" s="80"/>
+      <c r="B162" s="81"/>
+      <c r="C162" s="81"/>
+      <c r="D162" s="81"/>
+      <c r="E162" s="81"/>
+      <c r="F162" s="83"/>
+      <c r="G162" s="83"/>
     </row>
     <row r="163" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="B163" s="2"/>
+      <c r="G163" s="83"/>
     </row>
     <row r="164" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="B164" s="2"/>
+      <c r="G164" s="83"/>
     </row>
     <row r="165" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="B165" s="2"/>
@@ -6602,8 +6764,14 @@
     <row r="1160" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="B1160" s="2"/>
     </row>
+    <row r="1161" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="B1161" s="2"/>
+    </row>
+    <row r="1162" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="B1162" s="2"/>
+    </row>
   </sheetData>
-  <conditionalFormatting sqref="F2:G144 G145:G162">
+  <conditionalFormatting sqref="F2:F146 G2:G164">
     <cfRule type="cellIs" priority="2" operator="equal" aboveAverage="0" equalAverage="0" bottom="0" percent="0" rank="0" text="" dxfId="0">
       <formula>0</formula>
     </cfRule>

--- a/pw.xlsx
+++ b/pw.xlsx
@@ -97,6 +97,24 @@
     <t xml:space="preserve">Window Right Bottom</t>
   </si>
   <si>
+    <t xml:space="preserve">Wall Left Bottom </t>
+  </si>
+  <si>
+    <t xml:space="preserve">Wall Mid point Left Bottom to Left Up </t>
+  </si>
+  <si>
+    <t xml:space="preserve">Wall Left Top </t>
+  </si>
+  <si>
+    <t xml:space="preserve">Wall Right Top </t>
+  </si>
+  <si>
+    <t xml:space="preserve">Wall Mid point Right Top to Right Up </t>
+  </si>
+  <si>
+    <t xml:space="preserve">Wall Right Bottom</t>
+  </si>
+  <si>
     <t xml:space="preserve">Dog House Left Bottom</t>
   </si>
   <si>
@@ -119,24 +137,6 @@
   </si>
   <si>
     <t xml:space="preserve">Ship Super Structure House Sturn Side Right</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Wall Left Bottom </t>
-  </si>
-  <si>
-    <t xml:space="preserve">Wall Mid point Left Bottom to Left Up </t>
-  </si>
-  <si>
-    <t xml:space="preserve">Wall Left Top </t>
-  </si>
-  <si>
-    <t xml:space="preserve">Wall Right Top </t>
-  </si>
-  <si>
-    <t xml:space="preserve">Wall Mid point Right Top to Right Up </t>
-  </si>
-  <si>
-    <t xml:space="preserve">Wall Right Bottom</t>
   </si>
   <si>
     <t xml:space="preserve">Landing Pad Hole LF</t>
@@ -307,7 +307,7 @@
     <numFmt numFmtId="165" formatCode="0.000"/>
     <numFmt numFmtId="166" formatCode="General"/>
   </numFmts>
-  <fonts count="7">
+  <fonts count="6">
     <font>
       <sz val="11"/>
       <color rgb="FF000000"/>
@@ -345,14 +345,8 @@
       <family val="2"/>
       <charset val="1"/>
     </font>
-    <font>
-      <sz val="8"/>
-      <color rgb="FF000000"/>
-      <name val="Calibri"/>
-      <family val="2"/>
-    </font>
   </fonts>
-  <fills count="24">
+  <fills count="26">
     <fill>
       <patternFill patternType="none"/>
     </fill>
@@ -409,6 +403,12 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
+        <fgColor rgb="FF729FCF"/>
+        <bgColor rgb="FF8E86AE"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
         <fgColor rgb="FFFFB66C"/>
         <bgColor rgb="FFFFA6A6"/>
       </patternFill>
@@ -429,12 +429,6 @@
       <patternFill patternType="solid">
         <fgColor rgb="FFE16173"/>
         <bgColor rgb="FFFF7B59"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFB4C7DC"/>
-        <bgColor rgb="FFCCCCCC"/>
       </patternFill>
     </fill>
     <fill>
@@ -469,6 +463,12 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
+        <fgColor rgb="FFB4C7DC"/>
+        <bgColor rgb="FFCCCCCC"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
         <fgColor rgb="FF8E86AE"/>
         <bgColor rgb="FF808080"/>
       </patternFill>
@@ -491,6 +491,12 @@
         <bgColor rgb="FFFFDBB6"/>
       </patternFill>
     </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFFFFF"/>
+        <bgColor rgb="FFFFFFD7"/>
+      </patternFill>
+    </fill>
   </fills>
   <borders count="2">
     <border diagonalUp="false" diagonalDown="false">
@@ -542,7 +548,7 @@
       <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
     </xf>
   </cellStyleXfs>
-  <cellXfs count="84">
+  <cellXfs count="91">
     <xf numFmtId="164" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="false" applyBorder="false" applyAlignment="false" applyProtection="false">
       <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
@@ -703,10 +709,6 @@
       <alignment horizontal="center" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
     </xf>
-    <xf numFmtId="164" fontId="6" fillId="13" borderId="1" xfId="0" applyFont="true" applyBorder="true" applyAlignment="false" applyProtection="false">
-      <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
-      <protection locked="true" hidden="false"/>
-    </xf>
     <xf numFmtId="164" fontId="5" fillId="14" borderId="1" xfId="0" applyFont="true" applyBorder="true" applyAlignment="false" applyProtection="false">
       <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
@@ -831,6 +833,10 @@
       <alignment horizontal="center" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
     </xf>
+    <xf numFmtId="164" fontId="0" fillId="21" borderId="1" xfId="0" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="false">
+      <alignment horizontal="center" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
+      <protection locked="true" hidden="false"/>
+    </xf>
     <xf numFmtId="164" fontId="5" fillId="22" borderId="1" xfId="0" applyFont="true" applyBorder="true" applyAlignment="false" applyProtection="false">
       <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
@@ -843,10 +849,6 @@
       <alignment horizontal="center" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
     </xf>
-    <xf numFmtId="164" fontId="0" fillId="22" borderId="1" xfId="0" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="false">
-      <alignment horizontal="center" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
-      <protection locked="true" hidden="false"/>
-    </xf>
     <xf numFmtId="164" fontId="5" fillId="23" borderId="1" xfId="0" applyFont="true" applyBorder="true" applyAlignment="false" applyProtection="false">
       <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
@@ -860,6 +862,38 @@
       <protection locked="true" hidden="false"/>
     </xf>
     <xf numFmtId="164" fontId="0" fillId="23" borderId="1" xfId="0" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="false">
+      <alignment horizontal="center" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
+      <protection locked="true" hidden="false"/>
+    </xf>
+    <xf numFmtId="164" fontId="5" fillId="24" borderId="1" xfId="0" applyFont="true" applyBorder="true" applyAlignment="false" applyProtection="false">
+      <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
+      <protection locked="true" hidden="false"/>
+    </xf>
+    <xf numFmtId="166" fontId="5" fillId="24" borderId="1" xfId="0" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="false">
+      <alignment horizontal="center" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
+      <protection locked="true" hidden="false"/>
+    </xf>
+    <xf numFmtId="165" fontId="5" fillId="24" borderId="1" xfId="0" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="false">
+      <alignment horizontal="center" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
+      <protection locked="true" hidden="false"/>
+    </xf>
+    <xf numFmtId="164" fontId="0" fillId="24" borderId="1" xfId="0" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="false">
+      <alignment horizontal="center" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
+      <protection locked="true" hidden="false"/>
+    </xf>
+    <xf numFmtId="164" fontId="5" fillId="25" borderId="1" xfId="0" applyFont="true" applyBorder="true" applyAlignment="false" applyProtection="false">
+      <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
+      <protection locked="true" hidden="false"/>
+    </xf>
+    <xf numFmtId="164" fontId="5" fillId="25" borderId="1" xfId="0" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="false">
+      <alignment horizontal="center" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
+      <protection locked="true" hidden="false"/>
+    </xf>
+    <xf numFmtId="165" fontId="5" fillId="25" borderId="1" xfId="0" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="false">
+      <alignment horizontal="center" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
+      <protection locked="true" hidden="false"/>
+    </xf>
+    <xf numFmtId="164" fontId="0" fillId="25" borderId="1" xfId="0" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="false">
       <alignment horizontal="center" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
     </xf>
@@ -910,7 +944,7 @@
   <colors>
     <indexedColors>
       <rgbColor rgb="FF000000"/>
-      <rgbColor rgb="FFF6F9D4"/>
+      <rgbColor rgb="FFFFFFFF"/>
       <rgbColor rgb="FFFF0000"/>
       <rgbColor rgb="FF00FF00"/>
       <rgbColor rgb="FF0000FF"/>
@@ -925,7 +959,7 @@
       <rgbColor rgb="FF008080"/>
       <rgbColor rgb="FFCCCCCC"/>
       <rgbColor rgb="FF808080"/>
-      <rgbColor rgb="FF9999FF"/>
+      <rgbColor rgb="FF729FCF"/>
       <rgbColor rgb="FF993366"/>
       <rgbColor rgb="FFFFFFD7"/>
       <rgbColor rgb="FFDEE6EF"/>
@@ -942,7 +976,7 @@
       <rgbColor rgb="FF008080"/>
       <rgbColor rgb="FF0000FF"/>
       <rgbColor rgb="FF00CCFF"/>
-      <rgbColor rgb="FFFFD7D7"/>
+      <rgbColor rgb="FFF6F9D4"/>
       <rgbColor rgb="FFE8F2A1"/>
       <rgbColor rgb="FFFFFFA6"/>
       <rgbColor rgb="FFAFD095"/>
@@ -953,7 +987,7 @@
       <rgbColor rgb="FF33CCCC"/>
       <rgbColor rgb="FF99CC00"/>
       <rgbColor rgb="FFFFB66C"/>
-      <rgbColor rgb="FFFF9900"/>
+      <rgbColor rgb="FFFFD7D7"/>
       <rgbColor rgb="FFE16173"/>
       <rgbColor rgb="FF666666"/>
       <rgbColor rgb="FF8E86AE"/>
@@ -975,13 +1009,13 @@
   <sheetPr filterMode="false">
     <pageSetUpPr fitToPage="false"/>
   </sheetPr>
-  <dimension ref="A1:I1162"/>
+  <dimension ref="A1:I1168"/>
   <sheetViews>
-    <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="true" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A10" colorId="64" zoomScale="100" zoomScaleNormal="100" zoomScalePageLayoutView="100" workbookViewId="0">
-      <selection pane="topLeft" activeCell="J34" activeCellId="0" sqref="J34"/>
+    <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="true" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A16" colorId="64" zoomScale="100" zoomScaleNormal="100" zoomScalePageLayoutView="100" workbookViewId="0">
+      <selection pane="topLeft" activeCell="H28" activeCellId="0" sqref="H28"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="8.94140625" defaultRowHeight="13.8" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
+  <sheetFormatPr defaultColWidth="8.9765625" defaultRowHeight="13.8" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
   <cols>
     <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="1" min="1" style="0" width="34.73"/>
     <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="2" min="2" style="1" width="11.11"/>
@@ -1042,11 +1076,11 @@
         <v>0</v>
       </c>
       <c r="H2" s="14" t="n">
-        <f aca="false">SUM(F2:F86)</f>
-        <v>28</v>
+        <f aca="false">SUM(F2:F120)</f>
+        <v>19</v>
       </c>
       <c r="I2" s="0" t="n">
-        <f aca="false">MAX(G2:G164)</f>
+        <f aca="false">MAX(G2:G170)</f>
         <v>0</v>
       </c>
     </row>
@@ -1068,7 +1102,7 @@
         <v>0.365</v>
       </c>
       <c r="F3" s="18" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="G3" s="18" t="n">
         <v>0</v>
@@ -1094,7 +1128,7 @@
         <v>0.725</v>
       </c>
       <c r="F4" s="18" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="G4" s="13" t="n">
         <v>0</v>
@@ -1169,7 +1203,7 @@
         <v>1.43</v>
       </c>
       <c r="F7" s="18" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="G7" s="18" t="n">
         <v>0</v>
@@ -1193,8 +1227,8 @@
       <c r="E8" s="17" t="n">
         <v>1.43</v>
       </c>
-      <c r="F8" s="18" t="n">
-        <v>1</v>
+      <c r="F8" s="13" t="n">
+        <v>0</v>
       </c>
       <c r="G8" s="13" t="n">
         <v>0</v>
@@ -1218,7 +1252,7 @@
         <v>1.53</v>
       </c>
       <c r="F9" s="18" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="G9" s="18" t="n">
         <v>0</v>
@@ -1241,8 +1275,8 @@
       <c r="E10" s="17" t="n">
         <v>1.43</v>
       </c>
-      <c r="F10" s="18" t="n">
-        <v>1</v>
+      <c r="F10" s="13" t="n">
+        <v>0</v>
       </c>
       <c r="G10" s="13" t="n">
         <v>0</v>
@@ -1291,7 +1325,7 @@
         <v>1.09</v>
       </c>
       <c r="F12" s="18" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="G12" s="13" t="n">
         <v>0</v>
@@ -1316,7 +1350,7 @@
         <v>0.73</v>
       </c>
       <c r="F13" s="18" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="G13" s="18" t="n">
         <v>0</v>
@@ -1341,7 +1375,7 @@
         <v>0.37</v>
       </c>
       <c r="F14" s="18" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="G14" s="13" t="n">
         <v>0</v>
@@ -1476,20 +1510,18 @@
         <v>19</v>
       </c>
       <c r="C20" s="26" t="n">
-        <v>-2.1079</v>
+        <v>1</v>
       </c>
       <c r="D20" s="26" t="n">
-        <v>2.775</v>
+        <v>2.78</v>
       </c>
       <c r="E20" s="26" t="n">
         <v>0</v>
       </c>
       <c r="F20" s="27" t="n">
-        <v>0</v>
-      </c>
-      <c r="G20" s="13" t="n">
-        <v>0</v>
-      </c>
+        <v>1</v>
+      </c>
+      <c r="G20" s="27"/>
     </row>
     <row r="21" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A21" s="24" t="s">
@@ -1500,68 +1532,66 @@
         <v>20</v>
       </c>
       <c r="C21" s="26" t="n">
-        <v>-1.9484</v>
+        <v>1</v>
       </c>
       <c r="D21" s="26" t="n">
-        <v>2.775</v>
+        <v>2.78</v>
       </c>
       <c r="E21" s="26" t="n">
-        <v>1.56</v>
+        <v>0.6</v>
       </c>
       <c r="F21" s="27" t="n">
-        <v>0</v>
-      </c>
-      <c r="G21" s="18" t="n">
+        <v>1</v>
+      </c>
+      <c r="G21" s="27" t="n">
         <v>0</v>
       </c>
     </row>
     <row r="22" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A22" s="28" t="s">
+      <c r="A22" s="24" t="s">
         <v>27</v>
       </c>
-      <c r="B22" s="29" t="n">
+      <c r="B22" s="25" t="n">
         <f aca="false">B21+1</f>
         <v>21</v>
       </c>
-      <c r="C22" s="30" t="n">
-        <v>0</v>
-      </c>
-      <c r="D22" s="30" t="n">
-        <v>2.775</v>
-      </c>
-      <c r="E22" s="30" t="n">
-        <v>1.6043</v>
-      </c>
-      <c r="F22" s="31" t="n">
-        <v>0</v>
-      </c>
-      <c r="G22" s="13" t="n">
+      <c r="C22" s="26" t="n">
+        <v>1</v>
+      </c>
+      <c r="D22" s="26" t="n">
+        <v>2.78</v>
+      </c>
+      <c r="E22" s="26" t="n">
+        <v>1.2</v>
+      </c>
+      <c r="F22" s="27" t="n">
+        <v>1</v>
+      </c>
+      <c r="G22" s="27" t="n">
         <v>0</v>
       </c>
     </row>
     <row r="23" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A23" s="32" t="s">
+      <c r="A23" s="24" t="s">
         <v>28</v>
       </c>
-      <c r="B23" s="33" t="n">
+      <c r="B23" s="25" t="n">
         <f aca="false">B22+1</f>
         <v>22</v>
       </c>
-      <c r="C23" s="34" t="n">
-        <v>0</v>
-      </c>
-      <c r="D23" s="34" t="n">
-        <f aca="false">2.775+1</f>
-        <v>3.775</v>
-      </c>
-      <c r="E23" s="34" t="n">
-        <f aca="false">E22+0.7</f>
-        <v>2.3043</v>
-      </c>
-      <c r="F23" s="35" t="n">
-        <v>0</v>
-      </c>
-      <c r="G23" s="18" t="n">
+      <c r="C23" s="26" t="n">
+        <v>1.6</v>
+      </c>
+      <c r="D23" s="26" t="n">
+        <v>2.78</v>
+      </c>
+      <c r="E23" s="26" t="n">
+        <v>1.2</v>
+      </c>
+      <c r="F23" s="27" t="n">
+        <v>1</v>
+      </c>
+      <c r="G23" s="27" t="n">
         <v>0</v>
       </c>
     </row>
@@ -1574,18 +1604,18 @@
         <v>23</v>
       </c>
       <c r="C24" s="26" t="n">
-        <v>1.9484</v>
+        <v>1.6</v>
       </c>
       <c r="D24" s="26" t="n">
-        <v>2.775</v>
+        <v>2.78</v>
       </c>
       <c r="E24" s="26" t="n">
-        <v>1.56</v>
+        <v>0.6</v>
       </c>
       <c r="F24" s="27" t="n">
         <v>1</v>
       </c>
-      <c r="G24" s="13" t="n">
+      <c r="G24" s="27" t="n">
         <v>0</v>
       </c>
     </row>
@@ -1598,10 +1628,10 @@
         <v>24</v>
       </c>
       <c r="C25" s="26" t="n">
-        <v>2.1079</v>
+        <v>1.6</v>
       </c>
       <c r="D25" s="26" t="n">
-        <v>2.775</v>
+        <v>2.78</v>
       </c>
       <c r="E25" s="26" t="n">
         <v>0</v>
@@ -1609,148 +1639,150 @@
       <c r="F25" s="27" t="n">
         <v>1</v>
       </c>
-      <c r="G25" s="18" t="n">
+      <c r="G25" s="27" t="n">
         <v>0</v>
       </c>
     </row>
     <row r="26" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A26" s="36" t="s">
+      <c r="A26" s="28" t="s">
         <v>31</v>
       </c>
-      <c r="B26" s="37" t="n">
+      <c r="B26" s="29" t="n">
         <f aca="false">B25+1</f>
         <v>25</v>
       </c>
-      <c r="C26" s="38" t="n">
-        <v>-1.7136</v>
-      </c>
-      <c r="D26" s="38" t="n">
-        <v>13.76</v>
-      </c>
-      <c r="E26" s="38" t="n">
-        <v>4.037</v>
-      </c>
-      <c r="F26" s="39" t="n">
-        <v>1</v>
-      </c>
-      <c r="G26" s="39" t="n">
+      <c r="C26" s="30" t="n">
+        <v>-2.1079</v>
+      </c>
+      <c r="D26" s="30" t="n">
+        <v>2.775</v>
+      </c>
+      <c r="E26" s="30" t="n">
+        <v>0</v>
+      </c>
+      <c r="F26" s="31" t="n">
+        <v>0</v>
+      </c>
+      <c r="G26" s="13" t="n">
         <v>0</v>
       </c>
     </row>
     <row r="27" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A27" s="40" t="s">
+      <c r="A27" s="28" t="s">
         <v>32</v>
       </c>
-      <c r="B27" s="37" t="n">
+      <c r="B27" s="29" t="n">
         <f aca="false">B26+1</f>
         <v>26</v>
       </c>
-      <c r="C27" s="38" t="n">
-        <v>1.7126</v>
-      </c>
-      <c r="D27" s="38" t="n">
-        <v>13.76</v>
-      </c>
-      <c r="E27" s="38" t="n">
-        <v>4.0374</v>
-      </c>
-      <c r="F27" s="39" t="n">
-        <v>1</v>
-      </c>
-      <c r="G27" s="39" t="n">
+      <c r="C27" s="30" t="n">
+        <v>-1.9484</v>
+      </c>
+      <c r="D27" s="30" t="n">
+        <v>2.775</v>
+      </c>
+      <c r="E27" s="30" t="n">
+        <v>1.56</v>
+      </c>
+      <c r="F27" s="31" t="n">
+        <v>0</v>
+      </c>
+      <c r="G27" s="18" t="n">
         <v>0</v>
       </c>
     </row>
     <row r="28" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A28" s="41" t="s">
+      <c r="A28" s="32" t="s">
         <v>33</v>
       </c>
-      <c r="B28" s="42" t="n">
+      <c r="B28" s="33" t="n">
         <f aca="false">B27+1</f>
         <v>27</v>
       </c>
-      <c r="C28" s="43" t="n">
-        <v>1</v>
-      </c>
-      <c r="D28" s="43" t="n">
-        <v>2.78</v>
-      </c>
-      <c r="E28" s="43" t="n">
-        <v>0</v>
-      </c>
-      <c r="F28" s="44" t="n">
-        <v>1</v>
+      <c r="C28" s="34" t="n">
+        <v>0</v>
+      </c>
+      <c r="D28" s="34" t="n">
+        <v>2.775</v>
+      </c>
+      <c r="E28" s="34" t="n">
+        <v>1.6043</v>
+      </c>
+      <c r="F28" s="35" t="n">
+        <v>0</v>
       </c>
       <c r="G28" s="13" t="n">
         <v>0</v>
       </c>
     </row>
     <row r="29" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A29" s="41" t="s">
+      <c r="A29" s="36" t="s">
         <v>34</v>
       </c>
-      <c r="B29" s="42" t="n">
+      <c r="B29" s="37" t="n">
         <f aca="false">B28+1</f>
         <v>28</v>
       </c>
-      <c r="C29" s="43" t="n">
-        <v>1</v>
-      </c>
-      <c r="D29" s="43" t="n">
-        <v>2.78</v>
-      </c>
-      <c r="E29" s="43" t="n">
-        <v>0.6</v>
-      </c>
-      <c r="F29" s="44" t="n">
-        <v>1</v>
+      <c r="C29" s="38" t="n">
+        <v>0</v>
+      </c>
+      <c r="D29" s="38" t="n">
+        <f aca="false">2.775+1</f>
+        <v>3.775</v>
+      </c>
+      <c r="E29" s="38" t="n">
+        <f aca="false">E28+0.7</f>
+        <v>2.3043</v>
+      </c>
+      <c r="F29" s="39" t="n">
+        <v>0</v>
       </c>
       <c r="G29" s="18" t="n">
         <v>0</v>
       </c>
     </row>
     <row r="30" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A30" s="41" t="s">
+      <c r="A30" s="28" t="s">
         <v>35</v>
       </c>
-      <c r="B30" s="42" t="n">
+      <c r="B30" s="29" t="n">
         <f aca="false">B29+1</f>
         <v>29</v>
       </c>
-      <c r="C30" s="43" t="n">
+      <c r="C30" s="30" t="n">
+        <v>1.9484</v>
+      </c>
+      <c r="D30" s="30" t="n">
+        <v>2.775</v>
+      </c>
+      <c r="E30" s="30" t="n">
+        <v>1.56</v>
+      </c>
+      <c r="F30" s="31" t="n">
         <v>1</v>
       </c>
-      <c r="D30" s="43" t="n">
-        <v>2.78</v>
-      </c>
-      <c r="E30" s="43" t="n">
-        <v>1.2</v>
-      </c>
-      <c r="F30" s="44" t="n">
-        <v>1</v>
-      </c>
       <c r="G30" s="13" t="n">
         <v>0</v>
       </c>
     </row>
     <row r="31" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A31" s="41" t="s">
+      <c r="A31" s="28" t="s">
         <v>36</v>
       </c>
-      <c r="B31" s="42" t="n">
+      <c r="B31" s="29" t="n">
         <f aca="false">B30+1</f>
         <v>30</v>
       </c>
-      <c r="C31" s="43" t="n">
-        <v>1.6</v>
-      </c>
-      <c r="D31" s="43" t="n">
-        <v>2.78</v>
-      </c>
-      <c r="E31" s="43" t="n">
-        <v>1.2</v>
-      </c>
-      <c r="F31" s="44" t="n">
+      <c r="C31" s="30" t="n">
+        <v>2.1079</v>
+      </c>
+      <c r="D31" s="30" t="n">
+        <v>2.775</v>
+      </c>
+      <c r="E31" s="30" t="n">
+        <v>0</v>
+      </c>
+      <c r="F31" s="31" t="n">
         <v>1</v>
       </c>
       <c r="G31" s="18" t="n">
@@ -1758,2041 +1790,2077 @@
       </c>
     </row>
     <row r="32" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A32" s="41" t="s">
+      <c r="A32" s="40" t="s">
         <v>37</v>
       </c>
-      <c r="B32" s="42" t="n">
+      <c r="B32" s="41" t="n">
         <f aca="false">B31+1</f>
         <v>31</v>
       </c>
-      <c r="C32" s="43" t="n">
-        <v>1.6</v>
-      </c>
-      <c r="D32" s="43" t="n">
-        <v>2.78</v>
-      </c>
-      <c r="E32" s="43" t="n">
-        <v>0.6</v>
-      </c>
-      <c r="F32" s="44" t="n">
-        <v>1</v>
-      </c>
-      <c r="G32" s="13" t="n">
+      <c r="C32" s="42" t="n">
+        <v>-1.7136</v>
+      </c>
+      <c r="D32" s="42" t="n">
+        <v>13.76</v>
+      </c>
+      <c r="E32" s="42" t="n">
+        <v>4.037</v>
+      </c>
+      <c r="F32" s="43" t="n">
+        <v>0</v>
+      </c>
+      <c r="G32" s="43" t="n">
         <v>0</v>
       </c>
     </row>
     <row r="33" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A33" s="41" t="s">
+      <c r="A33" s="40" t="s">
         <v>38</v>
       </c>
-      <c r="B33" s="42" t="n">
+      <c r="B33" s="41" t="n">
         <f aca="false">B32+1</f>
         <v>32</v>
       </c>
-      <c r="C33" s="43" t="n">
-        <v>1.6</v>
-      </c>
-      <c r="D33" s="43" t="n">
-        <v>2.78</v>
-      </c>
-      <c r="E33" s="43" t="n">
-        <v>0</v>
-      </c>
-      <c r="F33" s="44" t="n">
-        <v>1</v>
-      </c>
-      <c r="G33" s="31" t="n">
+      <c r="C33" s="42" t="n">
+        <v>1.7126</v>
+      </c>
+      <c r="D33" s="42" t="n">
+        <v>13.76</v>
+      </c>
+      <c r="E33" s="42" t="n">
+        <v>4.0374</v>
+      </c>
+      <c r="F33" s="43" t="n">
+        <v>0</v>
+      </c>
+      <c r="G33" s="43" t="n">
         <v>0</v>
       </c>
     </row>
     <row r="34" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A34" s="45" t="s">
+      <c r="A34" s="44" t="s">
         <v>39</v>
       </c>
-      <c r="B34" s="46" t="n">
+      <c r="B34" s="45" t="n">
         <f aca="false">B33+1</f>
         <v>33</v>
       </c>
-      <c r="C34" s="47" t="n">
+      <c r="C34" s="46" t="n">
         <v>-0.8</v>
       </c>
-      <c r="D34" s="47" t="n">
+      <c r="D34" s="46" t="n">
         <v>2.04</v>
       </c>
-      <c r="E34" s="47" t="n">
-        <v>0</v>
-      </c>
-      <c r="F34" s="48" t="n">
-        <v>0</v>
-      </c>
-      <c r="G34" s="48"/>
+      <c r="E34" s="46" t="n">
+        <v>0</v>
+      </c>
+      <c r="F34" s="47" t="n">
+        <v>0</v>
+      </c>
+      <c r="G34" s="47"/>
     </row>
     <row r="35" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A35" s="45" t="s">
+      <c r="A35" s="44" t="s">
         <v>40</v>
       </c>
-      <c r="B35" s="46" t="n">
+      <c r="B35" s="45" t="n">
         <f aca="false">B34+1</f>
         <v>34</v>
       </c>
-      <c r="C35" s="47" t="n">
+      <c r="C35" s="46" t="n">
         <v>-0.75</v>
       </c>
-      <c r="D35" s="47" t="n">
+      <c r="D35" s="46" t="n">
         <v>0.4</v>
       </c>
-      <c r="E35" s="47" t="n">
-        <v>0</v>
-      </c>
-      <c r="F35" s="48" t="n">
-        <v>0</v>
-      </c>
-      <c r="G35" s="48" t="n">
+      <c r="E35" s="46" t="n">
+        <v>0</v>
+      </c>
+      <c r="F35" s="47" t="n">
+        <v>0</v>
+      </c>
+      <c r="G35" s="47" t="n">
         <v>0</v>
       </c>
     </row>
     <row r="36" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A36" s="45" t="s">
+      <c r="A36" s="44" t="s">
         <v>41</v>
       </c>
-      <c r="B36" s="46" t="n">
+      <c r="B36" s="45" t="n">
         <f aca="false">B35+1</f>
         <v>35</v>
       </c>
-      <c r="C36" s="47" t="n">
+      <c r="C36" s="46" t="n">
         <v>-0.8</v>
       </c>
-      <c r="D36" s="47" t="n">
+      <c r="D36" s="46" t="n">
         <v>-0.13</v>
       </c>
-      <c r="E36" s="47" t="n">
-        <v>0</v>
-      </c>
-      <c r="F36" s="48" t="n">
-        <v>0</v>
-      </c>
-      <c r="G36" s="48" t="n">
+      <c r="E36" s="46" t="n">
+        <v>0</v>
+      </c>
+      <c r="F36" s="47" t="n">
+        <v>0</v>
+      </c>
+      <c r="G36" s="47" t="n">
         <v>0</v>
       </c>
     </row>
     <row r="37" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A37" s="45" t="s">
+      <c r="A37" s="44" t="s">
         <v>42</v>
       </c>
-      <c r="B37" s="46" t="n">
+      <c r="B37" s="45" t="n">
         <f aca="false">B36+1</f>
         <v>36</v>
       </c>
-      <c r="C37" s="47" t="n">
+      <c r="C37" s="46" t="n">
         <v>0.8</v>
       </c>
-      <c r="D37" s="47" t="n">
+      <c r="D37" s="46" t="n">
         <v>0.13</v>
       </c>
-      <c r="E37" s="47" t="n">
-        <v>0</v>
-      </c>
-      <c r="F37" s="48" t="n">
-        <v>0</v>
-      </c>
-      <c r="G37" s="48" t="n">
+      <c r="E37" s="46" t="n">
+        <v>0</v>
+      </c>
+      <c r="F37" s="47" t="n">
+        <v>0</v>
+      </c>
+      <c r="G37" s="47" t="n">
         <v>0</v>
       </c>
     </row>
     <row r="38" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A38" s="45" t="s">
+      <c r="A38" s="44" t="s">
         <v>43</v>
       </c>
-      <c r="B38" s="46" t="n">
+      <c r="B38" s="45" t="n">
         <f aca="false">B37+1</f>
         <v>37</v>
       </c>
-      <c r="C38" s="47" t="n">
+      <c r="C38" s="46" t="n">
         <v>0.83</v>
       </c>
-      <c r="D38" s="47" t="n">
+      <c r="D38" s="46" t="n">
         <v>0.4</v>
       </c>
-      <c r="E38" s="47" t="n">
-        <v>0</v>
-      </c>
-      <c r="F38" s="48" t="n">
-        <v>0</v>
-      </c>
-      <c r="G38" s="48" t="n">
+      <c r="E38" s="46" t="n">
+        <v>0</v>
+      </c>
+      <c r="F38" s="47" t="n">
+        <v>0</v>
+      </c>
+      <c r="G38" s="47" t="n">
         <v>0</v>
       </c>
     </row>
     <row r="39" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A39" s="45" t="s">
+      <c r="A39" s="44" t="s">
         <v>44</v>
       </c>
-      <c r="B39" s="46" t="n">
+      <c r="B39" s="45" t="n">
         <f aca="false">B38+1</f>
         <v>38</v>
       </c>
-      <c r="C39" s="47" t="n">
+      <c r="C39" s="46" t="n">
         <v>0.76</v>
       </c>
-      <c r="D39" s="47" t="n">
+      <c r="D39" s="46" t="n">
         <v>2.07</v>
       </c>
-      <c r="E39" s="47" t="n">
-        <v>0</v>
-      </c>
-      <c r="F39" s="48" t="n">
-        <v>0</v>
-      </c>
-      <c r="G39" s="48" t="n">
+      <c r="E39" s="46" t="n">
+        <v>0</v>
+      </c>
+      <c r="F39" s="47" t="n">
+        <v>0</v>
+      </c>
+      <c r="G39" s="47" t="n">
         <v>0</v>
       </c>
     </row>
     <row r="40" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A40" s="49" t="s">
+      <c r="A40" s="48" t="s">
         <v>45</v>
       </c>
-      <c r="B40" s="50" t="n">
+      <c r="B40" s="49" t="n">
         <f aca="false">B39+1</f>
         <v>39</v>
       </c>
-      <c r="C40" s="51" t="n">
+      <c r="C40" s="50" t="n">
         <v>-0.085</v>
       </c>
-      <c r="D40" s="51" t="n">
+      <c r="D40" s="50" t="n">
         <v>2.431</v>
       </c>
-      <c r="E40" s="51" t="n">
-        <v>0</v>
-      </c>
-      <c r="F40" s="52" t="n">
+      <c r="E40" s="50" t="n">
+        <v>0</v>
+      </c>
+      <c r="F40" s="51" t="n">
         <v>1</v>
       </c>
-      <c r="G40" s="52" t="n">
+      <c r="G40" s="51" t="n">
         <v>0</v>
       </c>
     </row>
     <row r="41" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A41" s="49" t="s">
+      <c r="A41" s="48" t="s">
         <v>46</v>
       </c>
-      <c r="B41" s="50" t="n">
+      <c r="B41" s="49" t="n">
         <f aca="false">B40+1</f>
         <v>40</v>
       </c>
-      <c r="C41" s="51" t="n">
+      <c r="C41" s="50" t="n">
         <v>-0.085</v>
       </c>
-      <c r="D41" s="51" t="n">
+      <c r="D41" s="50" t="n">
         <v>0.938</v>
       </c>
-      <c r="E41" s="51" t="n">
-        <v>0</v>
-      </c>
-      <c r="F41" s="52" t="n">
-        <v>0</v>
-      </c>
-      <c r="G41" s="52" t="n">
+      <c r="E41" s="50" t="n">
+        <v>0</v>
+      </c>
+      <c r="F41" s="51" t="n">
+        <v>1</v>
+      </c>
+      <c r="G41" s="51" t="n">
         <v>0</v>
       </c>
     </row>
     <row r="42" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A42" s="49" t="s">
+      <c r="A42" s="48" t="s">
         <v>47</v>
       </c>
-      <c r="B42" s="50" t="n">
+      <c r="B42" s="49" t="n">
         <f aca="false">B41+1</f>
         <v>41</v>
       </c>
-      <c r="C42" s="51" t="n">
+      <c r="C42" s="50" t="n">
         <v>0.085</v>
       </c>
-      <c r="D42" s="51" t="n">
+      <c r="D42" s="50" t="n">
         <v>0.938</v>
       </c>
-      <c r="E42" s="51" t="n">
-        <v>0</v>
-      </c>
-      <c r="F42" s="52" t="n">
-        <v>0</v>
-      </c>
-      <c r="G42" s="52" t="n">
+      <c r="E42" s="50" t="n">
+        <v>0</v>
+      </c>
+      <c r="F42" s="51" t="n">
+        <v>1</v>
+      </c>
+      <c r="G42" s="51" t="n">
         <v>0</v>
       </c>
     </row>
     <row r="43" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A43" s="49" t="s">
+      <c r="A43" s="48" t="s">
         <v>48</v>
       </c>
-      <c r="B43" s="50" t="n">
+      <c r="B43" s="49" t="n">
         <f aca="false">B42+1</f>
         <v>42</v>
       </c>
-      <c r="C43" s="51" t="n">
+      <c r="C43" s="50" t="n">
         <v>0.085</v>
       </c>
-      <c r="D43" s="51" t="n">
+      <c r="D43" s="50" t="n">
         <v>2.431</v>
       </c>
-      <c r="E43" s="51" t="n">
-        <v>0</v>
-      </c>
-      <c r="F43" s="52" t="n">
+      <c r="E43" s="50" t="n">
+        <v>0</v>
+      </c>
+      <c r="F43" s="51" t="n">
         <v>1</v>
       </c>
-      <c r="G43" s="52" t="n">
+      <c r="G43" s="51" t="n">
         <v>0</v>
       </c>
     </row>
     <row r="44" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A44" s="53" t="s">
+      <c r="A44" s="52" t="s">
         <v>49</v>
       </c>
-      <c r="B44" s="54" t="n">
+      <c r="B44" s="53" t="n">
         <f aca="false">B43+1</f>
         <v>43</v>
       </c>
-      <c r="C44" s="55" t="n">
+      <c r="C44" s="54" t="n">
         <v>-0.085</v>
       </c>
-      <c r="D44" s="55" t="n">
+      <c r="D44" s="54" t="n">
         <v>0.778</v>
       </c>
-      <c r="E44" s="55" t="n">
-        <v>0</v>
-      </c>
-      <c r="F44" s="56" t="n">
-        <v>0</v>
-      </c>
-      <c r="G44" s="56" t="n">
+      <c r="E44" s="54" t="n">
+        <v>0</v>
+      </c>
+      <c r="F44" s="55" t="n">
+        <v>0</v>
+      </c>
+      <c r="G44" s="55" t="n">
         <v>0</v>
       </c>
     </row>
     <row r="45" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A45" s="53" t="s">
+      <c r="A45" s="52" t="s">
         <v>50</v>
       </c>
-      <c r="B45" s="54" t="n">
+      <c r="B45" s="53" t="n">
         <f aca="false">B44+1</f>
         <v>44</v>
       </c>
-      <c r="C45" s="55" t="n">
+      <c r="C45" s="54" t="n">
         <v>-0.085</v>
       </c>
-      <c r="D45" s="55" t="n">
+      <c r="D45" s="54" t="n">
         <v>-0.778</v>
       </c>
-      <c r="E45" s="55" t="n">
-        <v>0</v>
-      </c>
-      <c r="F45" s="56" t="n">
-        <v>0</v>
-      </c>
-      <c r="G45" s="56" t="n">
+      <c r="E45" s="54" t="n">
+        <v>0</v>
+      </c>
+      <c r="F45" s="55" t="n">
+        <v>0</v>
+      </c>
+      <c r="G45" s="55" t="n">
         <v>0</v>
       </c>
     </row>
     <row r="46" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A46" s="53" t="s">
+      <c r="A46" s="52" t="s">
         <v>51</v>
       </c>
-      <c r="B46" s="54" t="n">
+      <c r="B46" s="53" t="n">
         <f aca="false">B45+1</f>
         <v>45</v>
       </c>
-      <c r="C46" s="55" t="n">
+      <c r="C46" s="54" t="n">
         <v>0.085</v>
       </c>
-      <c r="D46" s="55" t="n">
+      <c r="D46" s="54" t="n">
         <v>-0.778</v>
       </c>
-      <c r="E46" s="55" t="n">
-        <v>0</v>
-      </c>
-      <c r="F46" s="56" t="n">
-        <v>0</v>
-      </c>
-      <c r="G46" s="56" t="n">
+      <c r="E46" s="54" t="n">
+        <v>0</v>
+      </c>
+      <c r="F46" s="55" t="n">
+        <v>0</v>
+      </c>
+      <c r="G46" s="55" t="n">
         <v>0</v>
       </c>
     </row>
     <row r="47" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A47" s="53" t="s">
+      <c r="A47" s="52" t="s">
         <v>52</v>
       </c>
-      <c r="B47" s="54" t="n">
+      <c r="B47" s="53" t="n">
         <f aca="false">B46+1</f>
         <v>46</v>
       </c>
-      <c r="C47" s="55" t="n">
+      <c r="C47" s="54" t="n">
         <v>0.085</v>
       </c>
-      <c r="D47" s="55" t="n">
+      <c r="D47" s="54" t="n">
         <v>0.778</v>
       </c>
-      <c r="E47" s="55" t="n">
-        <v>0</v>
-      </c>
-      <c r="F47" s="56" t="n">
-        <v>0</v>
-      </c>
-      <c r="G47" s="56" t="n">
+      <c r="E47" s="54" t="n">
+        <v>0</v>
+      </c>
+      <c r="F47" s="55" t="n">
+        <v>0</v>
+      </c>
+      <c r="G47" s="55" t="n">
         <v>0</v>
       </c>
     </row>
     <row r="48" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A48" s="57" t="s">
+      <c r="A48" s="56" t="s">
         <v>53</v>
       </c>
-      <c r="B48" s="58" t="n">
+      <c r="B48" s="57" t="n">
         <f aca="false">B47+1</f>
         <v>47</v>
       </c>
-      <c r="C48" s="59" t="n">
+      <c r="C48" s="58" t="n">
         <v>-0.085</v>
       </c>
-      <c r="D48" s="59" t="n">
+      <c r="D48" s="58" t="n">
         <v>-0.938</v>
       </c>
-      <c r="E48" s="59" t="n">
-        <v>0</v>
-      </c>
-      <c r="F48" s="60" t="n">
-        <v>0</v>
-      </c>
-      <c r="G48" s="60" t="n">
+      <c r="E48" s="58" t="n">
+        <v>0</v>
+      </c>
+      <c r="F48" s="59" t="n">
+        <v>0</v>
+      </c>
+      <c r="G48" s="59" t="n">
         <v>0</v>
       </c>
     </row>
     <row r="49" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A49" s="57" t="s">
+      <c r="A49" s="56" t="s">
         <v>54</v>
       </c>
-      <c r="B49" s="58" t="n">
+      <c r="B49" s="57" t="n">
         <f aca="false">B48+1</f>
         <v>48</v>
       </c>
-      <c r="C49" s="59" t="n">
+      <c r="C49" s="58" t="n">
         <v>-0.085</v>
       </c>
-      <c r="D49" s="59" t="n">
+      <c r="D49" s="58" t="n">
         <v>-2.408</v>
       </c>
-      <c r="E49" s="59" t="n">
-        <v>0</v>
-      </c>
-      <c r="F49" s="60" t="n">
-        <v>0</v>
-      </c>
-      <c r="G49" s="60" t="n">
+      <c r="E49" s="58" t="n">
+        <v>0</v>
+      </c>
+      <c r="F49" s="59" t="n">
+        <v>0</v>
+      </c>
+      <c r="G49" s="59" t="n">
         <v>0</v>
       </c>
     </row>
     <row r="50" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A50" s="57" t="s">
+      <c r="A50" s="56" t="s">
         <v>55</v>
       </c>
-      <c r="B50" s="58" t="n">
+      <c r="B50" s="57" t="n">
         <f aca="false">B49+1</f>
         <v>49</v>
       </c>
-      <c r="C50" s="59" t="n">
+      <c r="C50" s="58" t="n">
         <v>0.085</v>
       </c>
-      <c r="D50" s="59" t="n">
+      <c r="D50" s="58" t="n">
         <v>-2.408</v>
       </c>
-      <c r="E50" s="59" t="n">
-        <v>0</v>
-      </c>
-      <c r="F50" s="60" t="n">
-        <v>0</v>
-      </c>
-      <c r="G50" s="60" t="n">
+      <c r="E50" s="58" t="n">
+        <v>0</v>
+      </c>
+      <c r="F50" s="59" t="n">
+        <v>0</v>
+      </c>
+      <c r="G50" s="59" t="n">
         <v>0</v>
       </c>
     </row>
     <row r="51" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A51" s="57" t="s">
+      <c r="A51" s="56" t="s">
         <v>56</v>
       </c>
-      <c r="B51" s="58" t="n">
+      <c r="B51" s="57" t="n">
         <f aca="false">B50+1</f>
         <v>50</v>
       </c>
-      <c r="C51" s="59" t="n">
+      <c r="C51" s="58" t="n">
         <v>0.085</v>
       </c>
-      <c r="D51" s="59" t="n">
+      <c r="D51" s="58" t="n">
         <v>-0.938</v>
       </c>
-      <c r="E51" s="59" t="n">
-        <v>0</v>
-      </c>
-      <c r="F51" s="60" t="n">
-        <v>0</v>
-      </c>
-      <c r="G51" s="60" t="n">
+      <c r="E51" s="58" t="n">
+        <v>0</v>
+      </c>
+      <c r="F51" s="59" t="n">
+        <v>0</v>
+      </c>
+      <c r="G51" s="59" t="n">
         <v>0</v>
       </c>
     </row>
     <row r="52" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A52" s="61" t="s">
+      <c r="A52" s="60" t="s">
         <v>57</v>
       </c>
-      <c r="B52" s="62" t="n">
+      <c r="B52" s="61" t="n">
         <f aca="false">B51+1</f>
         <v>51</v>
       </c>
-      <c r="C52" s="63" t="n">
+      <c r="C52" s="62" t="n">
         <v>-2.84569</v>
       </c>
-      <c r="D52" s="63" t="n">
+      <c r="D52" s="62" t="n">
         <v>2.4546</v>
       </c>
-      <c r="E52" s="63" t="n">
-        <v>0</v>
-      </c>
-      <c r="F52" s="64" t="n">
-        <v>0</v>
-      </c>
-      <c r="G52" s="64" t="n">
+      <c r="E52" s="62" t="n">
+        <v>0</v>
+      </c>
+      <c r="F52" s="63" t="n">
+        <v>0</v>
+      </c>
+      <c r="G52" s="63" t="n">
         <v>0</v>
       </c>
     </row>
     <row r="53" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A53" s="61" t="s">
+      <c r="A53" s="60" t="s">
         <v>58</v>
       </c>
-      <c r="B53" s="62" t="n">
+      <c r="B53" s="61" t="n">
         <f aca="false">B52+1</f>
         <v>52</v>
       </c>
-      <c r="C53" s="63" t="n">
+      <c r="C53" s="62" t="n">
         <v>-2.7608</v>
       </c>
-      <c r="D53" s="63" t="n">
+      <c r="D53" s="62" t="n">
         <v>-2.3894</v>
       </c>
-      <c r="E53" s="63" t="n">
-        <v>0</v>
-      </c>
-      <c r="F53" s="64" t="n">
-        <v>0</v>
-      </c>
-      <c r="G53" s="64" t="n">
+      <c r="E53" s="62" t="n">
+        <v>0</v>
+      </c>
+      <c r="F53" s="63" t="n">
+        <v>0</v>
+      </c>
+      <c r="G53" s="63" t="n">
         <v>0</v>
       </c>
     </row>
     <row r="54" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A54" s="61" t="s">
+      <c r="A54" s="60" t="s">
         <v>59</v>
       </c>
-      <c r="B54" s="62" t="n">
+      <c r="B54" s="61" t="n">
         <f aca="false">B53+1</f>
         <v>53</v>
       </c>
-      <c r="C54" s="63" t="n">
+      <c r="C54" s="62" t="n">
         <v>2.7015</v>
       </c>
-      <c r="D54" s="63" t="n">
+      <c r="D54" s="62" t="n">
         <v>-2.4284</v>
       </c>
-      <c r="E54" s="63" t="n">
-        <v>0</v>
-      </c>
-      <c r="F54" s="64" t="n">
-        <v>0</v>
-      </c>
-      <c r="G54" s="64" t="n">
+      <c r="E54" s="62" t="n">
+        <v>0</v>
+      </c>
+      <c r="F54" s="63" t="n">
+        <v>0</v>
+      </c>
+      <c r="G54" s="63" t="n">
         <v>0</v>
       </c>
     </row>
     <row r="55" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A55" s="61" t="s">
+      <c r="A55" s="60" t="s">
         <v>60</v>
       </c>
-      <c r="B55" s="62" t="n">
+      <c r="B55" s="61" t="n">
         <f aca="false">B54+1</f>
         <v>54</v>
       </c>
-      <c r="C55" s="63" t="n">
+      <c r="C55" s="62" t="n">
         <v>2.7949</v>
       </c>
-      <c r="D55" s="63" t="n">
+      <c r="D55" s="62" t="n">
         <v>2.4546</v>
       </c>
-      <c r="E55" s="63" t="n">
-        <v>0</v>
-      </c>
-      <c r="F55" s="64" t="n">
-        <v>0</v>
-      </c>
-      <c r="G55" s="64" t="n">
+      <c r="E55" s="62" t="n">
+        <v>0</v>
+      </c>
+      <c r="F55" s="63" t="n">
+        <v>0</v>
+      </c>
+      <c r="G55" s="63" t="n">
         <v>0</v>
       </c>
     </row>
     <row r="56" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A56" s="41" t="s">
+      <c r="A56" s="64" t="s">
         <v>61</v>
       </c>
-      <c r="B56" s="42" t="n">
+      <c r="B56" s="65" t="n">
         <f aca="false">B55+1</f>
         <v>55</v>
       </c>
-      <c r="C56" s="43" t="n">
+      <c r="C56" s="66" t="n">
         <v>-3.022</v>
       </c>
-      <c r="D56" s="43" t="n">
+      <c r="D56" s="66" t="n">
         <v>2.6015</v>
       </c>
-      <c r="E56" s="43" t="n">
-        <v>0</v>
-      </c>
-      <c r="F56" s="44" t="n">
-        <v>0</v>
-      </c>
-      <c r="G56" s="44" t="n">
+      <c r="E56" s="66" t="n">
+        <v>0</v>
+      </c>
+      <c r="F56" s="67" t="n">
+        <v>0</v>
+      </c>
+      <c r="G56" s="67" t="n">
         <v>0</v>
       </c>
     </row>
     <row r="57" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A57" s="41" t="s">
+      <c r="A57" s="64" t="s">
         <v>62</v>
       </c>
-      <c r="B57" s="42" t="n">
+      <c r="B57" s="65" t="n">
         <f aca="false">B56+1</f>
         <v>56</v>
       </c>
-      <c r="C57" s="43" t="n">
+      <c r="C57" s="66" t="n">
         <v>-2.915</v>
       </c>
-      <c r="D57" s="43" t="n">
+      <c r="D57" s="66" t="n">
         <v>-2.5146</v>
       </c>
-      <c r="E57" s="43" t="n">
-        <v>0</v>
-      </c>
-      <c r="F57" s="44" t="n">
-        <v>0</v>
-      </c>
-      <c r="G57" s="44" t="n">
+      <c r="E57" s="66" t="n">
+        <v>0</v>
+      </c>
+      <c r="F57" s="67" t="n">
+        <v>0</v>
+      </c>
+      <c r="G57" s="67" t="n">
         <v>0</v>
       </c>
     </row>
     <row r="58" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A58" s="41" t="s">
+      <c r="A58" s="64" t="s">
         <v>63</v>
       </c>
-      <c r="B58" s="42" t="n">
+      <c r="B58" s="65" t="n">
         <f aca="false">B57+1</f>
         <v>57</v>
       </c>
-      <c r="C58" s="43" t="n">
+      <c r="C58" s="66" t="n">
         <v>2.8496</v>
       </c>
-      <c r="D58" s="43" t="n">
+      <c r="D58" s="66" t="n">
         <v>-2.5146</v>
       </c>
-      <c r="E58" s="43" t="n">
-        <v>0</v>
-      </c>
-      <c r="F58" s="44" t="n">
-        <v>0</v>
-      </c>
-      <c r="G58" s="44" t="n">
+      <c r="E58" s="66" t="n">
+        <v>0</v>
+      </c>
+      <c r="F58" s="67" t="n">
+        <v>0</v>
+      </c>
+      <c r="G58" s="67" t="n">
         <v>0</v>
       </c>
     </row>
     <row r="59" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A59" s="41" t="s">
+      <c r="A59" s="64" t="s">
         <v>64</v>
       </c>
-      <c r="B59" s="42" t="n">
+      <c r="B59" s="65" t="n">
         <f aca="false">B58+1</f>
         <v>58</v>
       </c>
-      <c r="C59" s="43" t="n">
+      <c r="C59" s="66" t="n">
         <v>2.971</v>
       </c>
-      <c r="D59" s="43" t="n">
+      <c r="D59" s="66" t="n">
         <v>2.6015</v>
       </c>
-      <c r="E59" s="43" t="n">
-        <v>0</v>
-      </c>
-      <c r="F59" s="44" t="n">
-        <v>0</v>
-      </c>
-      <c r="G59" s="44" t="n">
+      <c r="E59" s="66" t="n">
+        <v>0</v>
+      </c>
+      <c r="F59" s="67" t="n">
+        <v>0</v>
+      </c>
+      <c r="G59" s="67" t="n">
         <v>0</v>
       </c>
     </row>
     <row r="60" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A60" s="65" t="s">
+      <c r="A60" s="68" t="s">
         <v>65</v>
       </c>
-      <c r="B60" s="66" t="n">
+      <c r="B60" s="69" t="n">
         <f aca="false">B59+1</f>
         <v>59</v>
       </c>
-      <c r="C60" s="67" t="n">
+      <c r="C60" s="70" t="n">
         <v>-3.3343</v>
       </c>
-      <c r="D60" s="67" t="n">
+      <c r="D60" s="70" t="n">
         <v>2.78</v>
       </c>
-      <c r="E60" s="67" t="n">
-        <v>0</v>
-      </c>
-      <c r="F60" s="68" t="n">
-        <v>0</v>
-      </c>
-      <c r="G60" s="68" t="n">
+      <c r="E60" s="70" t="n">
+        <v>0</v>
+      </c>
+      <c r="F60" s="71" t="n">
+        <v>0</v>
+      </c>
+      <c r="G60" s="71" t="n">
         <v>0</v>
       </c>
     </row>
     <row r="61" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A61" s="65" t="s">
+      <c r="A61" s="68" t="s">
         <v>66</v>
       </c>
-      <c r="B61" s="66" t="n">
+      <c r="B61" s="69" t="n">
         <f aca="false">B60+1</f>
         <v>60</v>
       </c>
-      <c r="C61" s="67" t="n">
+      <c r="C61" s="70" t="n">
         <v>-3.1388</v>
       </c>
-      <c r="D61" s="67" t="n">
+      <c r="D61" s="70" t="n">
         <v>-2.9209</v>
       </c>
-      <c r="E61" s="67" t="n">
-        <v>0</v>
-      </c>
-      <c r="F61" s="68" t="n">
-        <v>0</v>
-      </c>
-      <c r="G61" s="68" t="n">
+      <c r="E61" s="70" t="n">
+        <v>0</v>
+      </c>
+      <c r="F61" s="71" t="n">
+        <v>0</v>
+      </c>
+      <c r="G61" s="71" t="n">
         <v>0</v>
       </c>
     </row>
     <row r="62" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A62" s="65" t="s">
+      <c r="A62" s="68" t="s">
         <v>67</v>
       </c>
-      <c r="B62" s="66" t="n">
+      <c r="B62" s="69" t="n">
         <f aca="false">B61+1</f>
         <v>61</v>
       </c>
-      <c r="C62" s="67" t="n">
+      <c r="C62" s="70" t="n">
         <v>3.1388</v>
       </c>
-      <c r="D62" s="67" t="n">
+      <c r="D62" s="70" t="n">
         <v>-2.9209</v>
       </c>
-      <c r="E62" s="67" t="n">
-        <v>0</v>
-      </c>
-      <c r="F62" s="68" t="n">
-        <v>0</v>
-      </c>
-      <c r="G62" s="68" t="n">
+      <c r="E62" s="70" t="n">
+        <v>0</v>
+      </c>
+      <c r="F62" s="71" t="n">
+        <v>0</v>
+      </c>
+      <c r="G62" s="71" t="n">
         <v>0</v>
       </c>
     </row>
     <row r="63" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A63" s="65" t="s">
+      <c r="A63" s="68" t="s">
         <v>68</v>
       </c>
-      <c r="B63" s="66" t="n">
+      <c r="B63" s="69" t="n">
         <f aca="false">B62+1</f>
         <v>62</v>
       </c>
-      <c r="C63" s="67" t="n">
+      <c r="C63" s="70" t="n">
         <v>3.3343</v>
       </c>
-      <c r="D63" s="67" t="n">
+      <c r="D63" s="70" t="n">
         <v>2.78</v>
       </c>
-      <c r="E63" s="67" t="n">
-        <v>0</v>
-      </c>
-      <c r="F63" s="68" t="n">
-        <v>0</v>
-      </c>
-      <c r="G63" s="68" t="n">
+      <c r="E63" s="70" t="n">
+        <v>0</v>
+      </c>
+      <c r="F63" s="71" t="n">
+        <v>0</v>
+      </c>
+      <c r="G63" s="71" t="n">
         <v>0</v>
       </c>
     </row>
     <row r="64" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A64" s="69" t="s">
+      <c r="A64" s="72" t="s">
         <v>69</v>
       </c>
-      <c r="B64" s="70" t="n">
+      <c r="B64" s="73" t="n">
         <f aca="false">B63+1</f>
         <v>63</v>
       </c>
-      <c r="C64" s="71" t="n">
+      <c r="C64" s="74" t="n">
         <v>-2.2</v>
       </c>
-      <c r="D64" s="71" t="n">
+      <c r="D64" s="74" t="n">
         <v>1.94</v>
       </c>
-      <c r="E64" s="71" t="n">
-        <v>0</v>
-      </c>
-      <c r="F64" s="68" t="n">
-        <v>0</v>
-      </c>
-      <c r="G64" s="68" t="n">
+      <c r="E64" s="74" t="n">
+        <v>0</v>
+      </c>
+      <c r="F64" s="71" t="n">
+        <v>0</v>
+      </c>
+      <c r="G64" s="71" t="n">
         <v>0</v>
       </c>
     </row>
     <row r="65" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A65" s="69" t="s">
+      <c r="A65" s="72" t="s">
         <v>70</v>
       </c>
-      <c r="B65" s="70" t="n">
+      <c r="B65" s="73" t="n">
         <f aca="false">B64+1</f>
         <v>64</v>
       </c>
-      <c r="C65" s="71" t="n">
+      <c r="C65" s="74" t="n">
         <v>2.18</v>
       </c>
-      <c r="D65" s="71" t="n">
+      <c r="D65" s="74" t="n">
         <v>1.94</v>
       </c>
-      <c r="E65" s="71" t="n">
-        <v>0</v>
-      </c>
-      <c r="F65" s="68" t="n">
-        <v>0</v>
-      </c>
-      <c r="G65" s="68" t="n">
+      <c r="E65" s="74" t="n">
+        <v>0</v>
+      </c>
+      <c r="F65" s="71" t="n">
+        <v>0</v>
+      </c>
+      <c r="G65" s="71" t="n">
         <v>0</v>
       </c>
     </row>
     <row r="66" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A66" s="24" t="s">
+      <c r="A66" s="28" t="s">
         <v>71</v>
       </c>
-      <c r="B66" s="25" t="n">
+      <c r="B66" s="29" t="n">
         <f aca="false">B65+1</f>
         <v>65</v>
       </c>
-      <c r="C66" s="26" t="n">
+      <c r="C66" s="30" t="n">
         <f aca="false">C68-1</f>
         <v>-1.96</v>
       </c>
-      <c r="D66" s="26" t="n">
+      <c r="D66" s="30" t="n">
         <v>0.22</v>
       </c>
-      <c r="E66" s="26" t="n">
-        <v>0</v>
-      </c>
-      <c r="F66" s="27" t="n">
-        <v>0</v>
-      </c>
-      <c r="G66" s="27" t="n">
+      <c r="E66" s="30" t="n">
+        <v>0</v>
+      </c>
+      <c r="F66" s="31" t="n">
+        <v>0</v>
+      </c>
+      <c r="G66" s="31" t="n">
         <v>0</v>
       </c>
     </row>
     <row r="67" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A67" s="24" t="s">
+      <c r="A67" s="28" t="s">
         <v>72</v>
       </c>
-      <c r="B67" s="25" t="n">
+      <c r="B67" s="29" t="n">
         <f aca="false">B66+1</f>
         <v>66</v>
       </c>
-      <c r="C67" s="26" t="n">
+      <c r="C67" s="30" t="n">
         <v>-1.96</v>
       </c>
-      <c r="D67" s="26" t="n">
+      <c r="D67" s="30" t="n">
         <f aca="false">D66-1.05</f>
         <v>-0.83</v>
       </c>
-      <c r="E67" s="26" t="n">
-        <v>0</v>
-      </c>
-      <c r="F67" s="27" t="n">
-        <v>0</v>
-      </c>
-      <c r="G67" s="27" t="n">
+      <c r="E67" s="30" t="n">
+        <v>0</v>
+      </c>
+      <c r="F67" s="31" t="n">
+        <v>0</v>
+      </c>
+      <c r="G67" s="31" t="n">
         <v>0</v>
       </c>
     </row>
     <row r="68" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A68" s="24" t="s">
+      <c r="A68" s="28" t="s">
         <v>73</v>
       </c>
-      <c r="B68" s="25" t="n">
+      <c r="B68" s="29" t="n">
         <f aca="false">B67+1</f>
         <v>67</v>
       </c>
-      <c r="C68" s="26" t="n">
+      <c r="C68" s="30" t="n">
         <v>-0.96</v>
       </c>
-      <c r="D68" s="26" t="n">
+      <c r="D68" s="30" t="n">
         <v>-0.83</v>
       </c>
-      <c r="E68" s="26" t="n">
-        <v>0</v>
-      </c>
-      <c r="F68" s="27" t="n">
-        <v>0</v>
-      </c>
-      <c r="G68" s="27" t="n">
+      <c r="E68" s="30" t="n">
+        <v>0</v>
+      </c>
+      <c r="F68" s="31" t="n">
+        <v>0</v>
+      </c>
+      <c r="G68" s="31" t="n">
         <v>0</v>
       </c>
     </row>
     <row r="69" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A69" s="24" t="s">
+      <c r="A69" s="28" t="s">
         <v>74</v>
       </c>
-      <c r="B69" s="25" t="n">
+      <c r="B69" s="29" t="n">
         <f aca="false">B68+1</f>
         <v>68</v>
       </c>
-      <c r="C69" s="26" t="n">
+      <c r="C69" s="30" t="n">
         <v>-0.96</v>
       </c>
-      <c r="D69" s="26" t="n">
+      <c r="D69" s="30" t="n">
         <v>0.22</v>
       </c>
-      <c r="E69" s="26" t="n">
-        <v>0</v>
-      </c>
-      <c r="F69" s="27" t="n">
-        <v>0</v>
-      </c>
-      <c r="G69" s="27" t="n">
+      <c r="E69" s="30" t="n">
+        <v>0</v>
+      </c>
+      <c r="F69" s="31" t="n">
+        <v>0</v>
+      </c>
+      <c r="G69" s="31" t="n">
         <v>0</v>
       </c>
     </row>
     <row r="70" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A70" s="32" t="s">
+      <c r="A70" s="36" t="s">
         <v>75</v>
       </c>
-      <c r="B70" s="33" t="n">
+      <c r="B70" s="37" t="n">
         <f aca="false">B69+1</f>
         <v>69</v>
       </c>
-      <c r="C70" s="34" t="n">
+      <c r="C70" s="38" t="n">
         <v>-3.08</v>
       </c>
-      <c r="D70" s="34" t="n">
+      <c r="D70" s="38" t="n">
         <v>-0.16</v>
       </c>
-      <c r="E70" s="34" t="n">
-        <v>0</v>
-      </c>
-      <c r="F70" s="35" t="n">
-        <v>0</v>
-      </c>
-      <c r="G70" s="35" t="n">
+      <c r="E70" s="38" t="n">
+        <v>0</v>
+      </c>
+      <c r="F70" s="39" t="n">
+        <v>0</v>
+      </c>
+      <c r="G70" s="39" t="n">
         <v>0</v>
       </c>
     </row>
     <row r="71" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A71" s="32" t="s">
+      <c r="A71" s="36" t="s">
         <v>76</v>
       </c>
-      <c r="B71" s="33" t="n">
+      <c r="B71" s="37" t="n">
         <f aca="false">B70+1</f>
         <v>70</v>
       </c>
-      <c r="C71" s="34" t="n">
+      <c r="C71" s="38" t="n">
         <f aca="false">C72-0.83</f>
         <v>-3.08</v>
       </c>
-      <c r="D71" s="34" t="n">
+      <c r="D71" s="38" t="n">
         <v>-1.67</v>
       </c>
-      <c r="E71" s="34" t="n">
-        <v>0</v>
-      </c>
-      <c r="F71" s="35" t="n">
-        <v>0</v>
-      </c>
-      <c r="G71" s="35" t="n">
+      <c r="E71" s="38" t="n">
+        <v>0</v>
+      </c>
+      <c r="F71" s="39" t="n">
+        <v>0</v>
+      </c>
+      <c r="G71" s="39" t="n">
         <v>0</v>
       </c>
     </row>
     <row r="72" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A72" s="32" t="s">
+      <c r="A72" s="36" t="s">
         <v>77</v>
       </c>
-      <c r="B72" s="33" t="n">
+      <c r="B72" s="37" t="n">
         <f aca="false">B71+1</f>
         <v>71</v>
       </c>
-      <c r="C72" s="34" t="n">
+      <c r="C72" s="38" t="n">
         <v>-2.25</v>
       </c>
-      <c r="D72" s="34" t="n">
+      <c r="D72" s="38" t="n">
         <f aca="false">D73-1.51</f>
         <v>-1.67</v>
       </c>
-      <c r="E72" s="34" t="n">
-        <v>0</v>
-      </c>
-      <c r="F72" s="35" t="n">
-        <v>0</v>
-      </c>
-      <c r="G72" s="35" t="n">
+      <c r="E72" s="38" t="n">
+        <v>0</v>
+      </c>
+      <c r="F72" s="39" t="n">
+        <v>0</v>
+      </c>
+      <c r="G72" s="39" t="n">
         <v>0</v>
       </c>
     </row>
     <row r="73" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A73" s="32" t="s">
+      <c r="A73" s="36" t="s">
         <v>78</v>
       </c>
-      <c r="B73" s="33" t="n">
+      <c r="B73" s="37" t="n">
         <f aca="false">B72+1</f>
         <v>72</v>
       </c>
-      <c r="C73" s="34" t="n">
+      <c r="C73" s="38" t="n">
         <v>-2.25</v>
       </c>
-      <c r="D73" s="34" t="n">
+      <c r="D73" s="38" t="n">
         <v>-0.16</v>
       </c>
-      <c r="E73" s="34" t="n">
-        <v>0</v>
-      </c>
-      <c r="F73" s="35" t="n">
-        <v>0</v>
-      </c>
-      <c r="G73" s="35" t="n">
+      <c r="E73" s="38" t="n">
+        <v>0</v>
+      </c>
+      <c r="F73" s="39" t="n">
+        <v>0</v>
+      </c>
+      <c r="G73" s="39" t="n">
         <v>0</v>
       </c>
     </row>
     <row r="74" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A74" s="72" t="s">
+      <c r="A74" s="75" t="s">
         <v>79</v>
       </c>
-      <c r="B74" s="73" t="n">
+      <c r="B74" s="76" t="n">
         <f aca="false">B73+1</f>
         <v>73</v>
       </c>
-      <c r="C74" s="74" t="n">
+      <c r="C74" s="77" t="n">
         <v>-1.93</v>
       </c>
-      <c r="D74" s="74" t="n">
+      <c r="D74" s="77" t="n">
         <v>-1.64</v>
       </c>
-      <c r="E74" s="74" t="n">
-        <v>0</v>
-      </c>
-      <c r="F74" s="75" t="n">
-        <v>0</v>
-      </c>
-      <c r="G74" s="75" t="n">
+      <c r="E74" s="77" t="n">
+        <v>0</v>
+      </c>
+      <c r="F74" s="78" t="n">
+        <v>0</v>
+      </c>
+      <c r="G74" s="78" t="n">
         <v>0</v>
       </c>
     </row>
     <row r="75" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A75" s="72" t="s">
+      <c r="A75" s="75" t="s">
         <v>80</v>
       </c>
-      <c r="B75" s="73" t="n">
+      <c r="B75" s="76" t="n">
         <f aca="false">B74+1</f>
         <v>74</v>
       </c>
-      <c r="C75" s="74" t="n">
+      <c r="C75" s="77" t="n">
         <v>-1.93</v>
       </c>
-      <c r="D75" s="74" t="n">
+      <c r="D75" s="77" t="n">
         <v>-2.73</v>
       </c>
-      <c r="E75" s="74" t="n">
-        <v>0</v>
-      </c>
-      <c r="F75" s="75" t="n">
-        <v>0</v>
-      </c>
-      <c r="G75" s="75" t="n">
+      <c r="E75" s="77" t="n">
+        <v>0</v>
+      </c>
+      <c r="F75" s="78" t="n">
+        <v>0</v>
+      </c>
+      <c r="G75" s="78" t="n">
         <v>0</v>
       </c>
     </row>
     <row r="76" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A76" s="72" t="s">
+      <c r="A76" s="75" t="s">
         <v>81</v>
       </c>
-      <c r="B76" s="73" t="n">
+      <c r="B76" s="76" t="n">
         <f aca="false">B75+1</f>
         <v>75</v>
       </c>
-      <c r="C76" s="74" t="n">
+      <c r="C76" s="77" t="n">
         <v>-1</v>
       </c>
-      <c r="D76" s="74" t="n">
+      <c r="D76" s="77" t="n">
         <f aca="false">D77-1.09</f>
         <v>-2.73</v>
       </c>
-      <c r="E76" s="74" t="n">
-        <v>0</v>
-      </c>
-      <c r="F76" s="75" t="n">
-        <v>0</v>
-      </c>
-      <c r="G76" s="75" t="n">
+      <c r="E76" s="77" t="n">
+        <v>0</v>
+      </c>
+      <c r="F76" s="78" t="n">
+        <v>0</v>
+      </c>
+      <c r="G76" s="78" t="n">
         <v>0</v>
       </c>
     </row>
     <row r="77" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A77" s="72" t="s">
+      <c r="A77" s="75" t="s">
         <v>82</v>
       </c>
-      <c r="B77" s="73" t="n">
+      <c r="B77" s="76" t="n">
         <f aca="false">B76+1</f>
         <v>76</v>
       </c>
-      <c r="C77" s="74" t="n">
+      <c r="C77" s="77" t="n">
         <v>-1</v>
       </c>
-      <c r="D77" s="74" t="n">
+      <c r="D77" s="77" t="n">
         <v>-1.64</v>
       </c>
-      <c r="E77" s="74" t="n">
-        <v>0</v>
-      </c>
-      <c r="F77" s="75" t="n">
-        <v>0</v>
-      </c>
-      <c r="G77" s="75" t="n">
+      <c r="E77" s="77" t="n">
+        <v>0</v>
+      </c>
+      <c r="F77" s="78" t="n">
+        <v>0</v>
+      </c>
+      <c r="G77" s="78" t="n">
         <v>0</v>
       </c>
     </row>
     <row r="78" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A78" s="76" t="s">
+      <c r="A78" s="79" t="s">
         <v>83</v>
       </c>
-      <c r="B78" s="77" t="n">
+      <c r="B78" s="80" t="n">
         <f aca="false">B77+1</f>
         <v>77</v>
       </c>
-      <c r="C78" s="78" t="n">
+      <c r="C78" s="81" t="n">
         <v>2.26</v>
       </c>
-      <c r="D78" s="78" t="n">
+      <c r="D78" s="81" t="n">
         <v>-0.16</v>
       </c>
-      <c r="E78" s="78" t="n">
-        <v>0</v>
-      </c>
-      <c r="F78" s="79" t="n">
-        <v>0</v>
-      </c>
-      <c r="G78" s="79" t="n">
+      <c r="E78" s="81" t="n">
+        <v>0</v>
+      </c>
+      <c r="F78" s="82" t="n">
+        <v>0</v>
+      </c>
+      <c r="G78" s="82" t="n">
         <v>0</v>
       </c>
     </row>
     <row r="79" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A79" s="76" t="s">
+      <c r="A79" s="79" t="s">
         <v>84</v>
       </c>
-      <c r="B79" s="77" t="n">
+      <c r="B79" s="80" t="n">
         <f aca="false">B78+1</f>
         <v>78</v>
       </c>
-      <c r="C79" s="78" t="n">
+      <c r="C79" s="81" t="n">
         <v>2.26</v>
       </c>
-      <c r="D79" s="78" t="n">
+      <c r="D79" s="81" t="n">
         <f aca="false">D78-1.49</f>
         <v>-1.65</v>
       </c>
-      <c r="E79" s="78" t="n">
-        <v>0</v>
-      </c>
-      <c r="F79" s="79" t="n">
-        <v>0</v>
-      </c>
-      <c r="G79" s="79" t="n">
+      <c r="E79" s="81" t="n">
+        <v>0</v>
+      </c>
+      <c r="F79" s="82" t="n">
+        <v>0</v>
+      </c>
+      <c r="G79" s="82" t="n">
         <v>0</v>
       </c>
     </row>
     <row r="80" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A80" s="76" t="s">
+      <c r="A80" s="79" t="s">
         <v>85</v>
       </c>
-      <c r="B80" s="77" t="n">
+      <c r="B80" s="80" t="n">
         <f aca="false">B79+1</f>
         <v>79</v>
       </c>
-      <c r="C80" s="78" t="n">
+      <c r="C80" s="81" t="n">
         <f aca="false">2.26+0.83</f>
         <v>3.09</v>
       </c>
-      <c r="D80" s="78" t="n">
+      <c r="D80" s="81" t="n">
         <f aca="false">D79</f>
         <v>-1.65</v>
       </c>
-      <c r="E80" s="78" t="n">
-        <v>0</v>
-      </c>
-      <c r="F80" s="79" t="n">
-        <v>0</v>
-      </c>
-      <c r="G80" s="79" t="n">
+      <c r="E80" s="81" t="n">
+        <v>0</v>
+      </c>
+      <c r="F80" s="82" t="n">
+        <v>0</v>
+      </c>
+      <c r="G80" s="82" t="n">
         <v>0</v>
       </c>
     </row>
     <row r="81" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A81" s="76" t="s">
+      <c r="A81" s="79" t="s">
         <v>86</v>
       </c>
-      <c r="B81" s="77" t="n">
+      <c r="B81" s="80" t="n">
         <f aca="false">B80+1</f>
         <v>80</v>
       </c>
-      <c r="C81" s="78" t="n">
+      <c r="C81" s="81" t="n">
         <f aca="false">2.26+0.83</f>
         <v>3.09</v>
       </c>
-      <c r="D81" s="78" t="n">
+      <c r="D81" s="81" t="n">
         <v>-0.16</v>
       </c>
-      <c r="E81" s="78" t="n">
-        <v>0</v>
-      </c>
-      <c r="F81" s="79" t="n">
-        <v>0</v>
-      </c>
-      <c r="G81" s="79" t="n">
+      <c r="E81" s="81" t="n">
+        <v>0</v>
+      </c>
+      <c r="F81" s="82" t="n">
+        <v>0</v>
+      </c>
+      <c r="G81" s="82" t="n">
         <v>0</v>
       </c>
     </row>
     <row r="82" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A82" s="57" t="s">
+      <c r="A82" s="56" t="s">
         <v>87</v>
       </c>
-      <c r="B82" s="58" t="n">
+      <c r="B82" s="57" t="n">
         <f aca="false">B81+1</f>
         <v>81</v>
       </c>
-      <c r="C82" s="59" t="n">
-        <v>0</v>
-      </c>
-      <c r="D82" s="59" t="n">
+      <c r="C82" s="58" t="n">
+        <v>0</v>
+      </c>
+      <c r="D82" s="58" t="n">
         <v>-2.9217</v>
       </c>
-      <c r="E82" s="59" t="n">
+      <c r="E82" s="58" t="n">
         <v>-0.546</v>
       </c>
-      <c r="F82" s="60" t="n">
-        <v>0</v>
-      </c>
-      <c r="G82" s="60" t="n">
+      <c r="F82" s="59" t="n">
+        <v>0</v>
+      </c>
+      <c r="G82" s="59" t="n">
         <v>0</v>
       </c>
     </row>
     <row r="83" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A83" s="53" t="s">
+      <c r="A83" s="52" t="s">
         <v>88</v>
       </c>
-      <c r="B83" s="58" t="n">
+      <c r="B83" s="57" t="n">
         <f aca="false">B82+1</f>
         <v>82</v>
       </c>
-      <c r="C83" s="55" t="n">
+      <c r="C83" s="54" t="n">
         <v>-3.1634</v>
       </c>
-      <c r="D83" s="55" t="n">
+      <c r="D83" s="54" t="n">
         <v>-2.9565</v>
       </c>
-      <c r="E83" s="55" t="n">
+      <c r="E83" s="54" t="n">
         <v>-0.9233</v>
       </c>
-      <c r="F83" s="56" t="n">
-        <v>0</v>
-      </c>
-      <c r="G83" s="56" t="n">
+      <c r="F83" s="55" t="n">
+        <v>0</v>
+      </c>
+      <c r="G83" s="55" t="n">
         <v>0</v>
       </c>
     </row>
     <row r="84" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A84" s="53" t="s">
+      <c r="A84" s="52" t="s">
         <v>89</v>
       </c>
-      <c r="B84" s="58" t="n">
+      <c r="B84" s="57" t="n">
         <f aca="false">B83+1</f>
         <v>83</v>
       </c>
-      <c r="C84" s="55" t="n">
+      <c r="C84" s="54" t="n">
         <v>-3.0852</v>
       </c>
-      <c r="D84" s="55" t="n">
+      <c r="D84" s="54" t="n">
         <v>-2.7843</v>
       </c>
-      <c r="E84" s="55" t="n">
+      <c r="E84" s="54" t="n">
         <v>-2.0292</v>
       </c>
-      <c r="F84" s="56" t="n">
-        <v>0</v>
-      </c>
-      <c r="G84" s="56" t="n">
+      <c r="F84" s="55" t="n">
+        <v>0</v>
+      </c>
+      <c r="G84" s="55" t="n">
         <v>0</v>
       </c>
     </row>
     <row r="85" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A85" s="53" t="s">
+      <c r="A85" s="52" t="s">
         <v>90</v>
       </c>
-      <c r="B85" s="58" t="n">
+      <c r="B85" s="57" t="n">
         <f aca="false">B84+1</f>
         <v>84</v>
       </c>
-      <c r="C85" s="55" t="n">
+      <c r="C85" s="54" t="n">
         <v>3.085</v>
       </c>
-      <c r="D85" s="55" t="n">
+      <c r="D85" s="54" t="n">
         <v>-2.784</v>
       </c>
-      <c r="E85" s="55" t="n">
+      <c r="E85" s="54" t="n">
         <v>-2.029</v>
       </c>
-      <c r="F85" s="56" t="n">
-        <v>0</v>
-      </c>
-      <c r="G85" s="56" t="n">
+      <c r="F85" s="55" t="n">
+        <v>0</v>
+      </c>
+      <c r="G85" s="55" t="n">
         <v>0</v>
       </c>
     </row>
     <row r="86" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A86" s="53" t="s">
+      <c r="A86" s="52" t="s">
         <v>91</v>
       </c>
-      <c r="B86" s="58" t="n">
+      <c r="B86" s="57" t="n">
         <f aca="false">B85+1</f>
         <v>85</v>
       </c>
-      <c r="C86" s="55" t="n">
+      <c r="C86" s="54" t="n">
         <v>3.163</v>
       </c>
-      <c r="D86" s="55" t="n">
+      <c r="D86" s="54" t="n">
         <v>-2.957</v>
       </c>
-      <c r="E86" s="55" t="n">
+      <c r="E86" s="54" t="n">
         <v>0.923</v>
       </c>
-      <c r="F86" s="56" t="n">
-        <v>0</v>
-      </c>
-      <c r="G86" s="56" t="n">
+      <c r="F86" s="55" t="n">
+        <v>0</v>
+      </c>
+      <c r="G86" s="55" t="n">
         <v>0</v>
       </c>
     </row>
     <row r="87" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A87" s="80"/>
-      <c r="B87" s="81"/>
-      <c r="C87" s="82"/>
-      <c r="D87" s="82"/>
-      <c r="E87" s="82"/>
-      <c r="F87" s="83"/>
-      <c r="G87" s="83"/>
+      <c r="A87" s="83"/>
+      <c r="B87" s="84"/>
+      <c r="C87" s="85"/>
+      <c r="D87" s="85"/>
+      <c r="E87" s="85"/>
+      <c r="F87" s="86"/>
+      <c r="G87" s="86"/>
     </row>
     <row r="88" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A88" s="80"/>
-      <c r="B88" s="81"/>
-      <c r="C88" s="82"/>
-      <c r="D88" s="82"/>
-      <c r="E88" s="82"/>
-      <c r="F88" s="83"/>
-      <c r="G88" s="83"/>
+      <c r="A88" s="83"/>
+      <c r="B88" s="84"/>
+      <c r="C88" s="85"/>
+      <c r="D88" s="85"/>
+      <c r="E88" s="85"/>
+      <c r="F88" s="86"/>
+      <c r="G88" s="86"/>
     </row>
     <row r="89" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A89" s="80"/>
-      <c r="B89" s="81"/>
-      <c r="C89" s="82"/>
-      <c r="D89" s="82"/>
-      <c r="E89" s="82"/>
-      <c r="F89" s="83"/>
-      <c r="G89" s="83"/>
+      <c r="A89" s="83"/>
+      <c r="B89" s="84"/>
+      <c r="C89" s="85"/>
+      <c r="D89" s="85"/>
+      <c r="E89" s="85"/>
+      <c r="F89" s="86"/>
+      <c r="G89" s="86"/>
     </row>
     <row r="90" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A90" s="80"/>
-      <c r="B90" s="81"/>
-      <c r="C90" s="82"/>
-      <c r="D90" s="82"/>
-      <c r="E90" s="82"/>
-      <c r="F90" s="83"/>
-      <c r="G90" s="83"/>
+      <c r="A90" s="83"/>
+      <c r="B90" s="84"/>
+      <c r="C90" s="85"/>
+      <c r="D90" s="85"/>
+      <c r="E90" s="85"/>
+      <c r="F90" s="86"/>
+      <c r="G90" s="86"/>
     </row>
     <row r="91" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A91" s="80"/>
-      <c r="B91" s="81"/>
-      <c r="C91" s="82"/>
-      <c r="D91" s="82"/>
-      <c r="E91" s="82"/>
-      <c r="F91" s="83"/>
-      <c r="G91" s="83"/>
+      <c r="A91" s="83"/>
+      <c r="B91" s="84"/>
+      <c r="C91" s="85"/>
+      <c r="D91" s="85"/>
+      <c r="E91" s="85"/>
+      <c r="F91" s="86"/>
+      <c r="G91" s="86"/>
     </row>
     <row r="92" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A92" s="80"/>
-      <c r="B92" s="81"/>
-      <c r="C92" s="82"/>
-      <c r="D92" s="82"/>
-      <c r="E92" s="82"/>
-      <c r="F92" s="83"/>
-      <c r="G92" s="83"/>
+      <c r="A92" s="83"/>
+      <c r="B92" s="84"/>
+      <c r="C92" s="85"/>
+      <c r="D92" s="85"/>
+      <c r="E92" s="85"/>
+      <c r="F92" s="86"/>
+      <c r="G92" s="86"/>
     </row>
     <row r="93" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A93" s="80"/>
-      <c r="B93" s="81"/>
-      <c r="C93" s="82"/>
-      <c r="D93" s="82"/>
-      <c r="E93" s="82"/>
-      <c r="F93" s="83"/>
-      <c r="G93" s="83"/>
+      <c r="A93" s="87"/>
+      <c r="B93" s="88"/>
+      <c r="C93" s="89"/>
+      <c r="D93" s="89"/>
+      <c r="E93" s="89"/>
+      <c r="F93" s="90"/>
+      <c r="G93" s="90"/>
     </row>
     <row r="94" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A94" s="80"/>
-      <c r="B94" s="81"/>
-      <c r="C94" s="82"/>
-      <c r="D94" s="82"/>
-      <c r="E94" s="82"/>
-      <c r="F94" s="83"/>
-      <c r="G94" s="83"/>
+      <c r="A94" s="87"/>
+      <c r="B94" s="88"/>
+      <c r="C94" s="89"/>
+      <c r="D94" s="89"/>
+      <c r="E94" s="89"/>
+      <c r="F94" s="90"/>
+      <c r="G94" s="90"/>
     </row>
     <row r="95" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A95" s="80"/>
-      <c r="B95" s="81"/>
-      <c r="C95" s="82"/>
-      <c r="D95" s="82"/>
-      <c r="E95" s="82"/>
-      <c r="F95" s="83"/>
-      <c r="G95" s="83"/>
+      <c r="A95" s="87"/>
+      <c r="B95" s="88"/>
+      <c r="C95" s="89"/>
+      <c r="D95" s="89"/>
+      <c r="E95" s="89"/>
+      <c r="F95" s="90"/>
+      <c r="G95" s="90"/>
     </row>
     <row r="96" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A96" s="80"/>
-      <c r="B96" s="81"/>
-      <c r="C96" s="82"/>
-      <c r="D96" s="82"/>
-      <c r="E96" s="82"/>
-      <c r="F96" s="83"/>
-      <c r="G96" s="83"/>
+      <c r="A96" s="87"/>
+      <c r="B96" s="88"/>
+      <c r="C96" s="89"/>
+      <c r="D96" s="89"/>
+      <c r="E96" s="89"/>
+      <c r="F96" s="90"/>
+      <c r="G96" s="90"/>
     </row>
     <row r="97" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A97" s="80"/>
-      <c r="B97" s="81"/>
-      <c r="C97" s="82"/>
-      <c r="D97" s="82"/>
-      <c r="E97" s="82"/>
-      <c r="F97" s="83"/>
-      <c r="G97" s="83"/>
+      <c r="A97" s="87"/>
+      <c r="B97" s="88"/>
+      <c r="C97" s="89"/>
+      <c r="D97" s="89"/>
+      <c r="E97" s="89"/>
+      <c r="F97" s="90"/>
+      <c r="G97" s="90"/>
     </row>
     <row r="98" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A98" s="80"/>
-      <c r="B98" s="81"/>
-      <c r="C98" s="82"/>
-      <c r="D98" s="82"/>
-      <c r="E98" s="82"/>
-      <c r="F98" s="83"/>
-      <c r="G98" s="83"/>
+      <c r="A98" s="87"/>
+      <c r="B98" s="88"/>
+      <c r="C98" s="89"/>
+      <c r="D98" s="89"/>
+      <c r="E98" s="89"/>
+      <c r="F98" s="90"/>
+      <c r="G98" s="90"/>
     </row>
     <row r="99" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A99" s="80"/>
-      <c r="B99" s="81"/>
-      <c r="C99" s="82"/>
-      <c r="D99" s="82"/>
-      <c r="E99" s="82"/>
-      <c r="F99" s="83"/>
-      <c r="G99" s="83"/>
+      <c r="A99" s="87"/>
+      <c r="B99" s="88"/>
+      <c r="C99" s="89"/>
+      <c r="D99" s="89"/>
+      <c r="E99" s="89"/>
+      <c r="F99" s="90"/>
+      <c r="G99" s="90"/>
     </row>
     <row r="100" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A100" s="80"/>
-      <c r="B100" s="81"/>
-      <c r="C100" s="82"/>
-      <c r="D100" s="82"/>
-      <c r="E100" s="82"/>
-      <c r="F100" s="83"/>
-      <c r="G100" s="83"/>
+      <c r="A100" s="87"/>
+      <c r="B100" s="88"/>
+      <c r="C100" s="89"/>
+      <c r="D100" s="89"/>
+      <c r="E100" s="89"/>
+      <c r="F100" s="90"/>
+      <c r="G100" s="90"/>
     </row>
     <row r="101" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A101" s="80"/>
-      <c r="B101" s="81"/>
-      <c r="C101" s="82"/>
-      <c r="D101" s="82"/>
-      <c r="E101" s="82"/>
-      <c r="F101" s="83"/>
-      <c r="G101" s="83"/>
+      <c r="A101" s="87"/>
+      <c r="B101" s="88"/>
+      <c r="C101" s="89"/>
+      <c r="D101" s="89"/>
+      <c r="E101" s="89"/>
+      <c r="F101" s="90"/>
+      <c r="G101" s="90"/>
     </row>
     <row r="102" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A102" s="80"/>
-      <c r="B102" s="81"/>
-      <c r="C102" s="82"/>
-      <c r="D102" s="82"/>
-      <c r="E102" s="82"/>
-      <c r="F102" s="83"/>
-      <c r="G102" s="83"/>
+      <c r="A102" s="87"/>
+      <c r="B102" s="88"/>
+      <c r="C102" s="89"/>
+      <c r="D102" s="89"/>
+      <c r="E102" s="89"/>
+      <c r="F102" s="90"/>
+      <c r="G102" s="90"/>
     </row>
     <row r="103" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A103" s="80"/>
-      <c r="B103" s="81"/>
-      <c r="C103" s="82"/>
-      <c r="D103" s="82"/>
-      <c r="E103" s="82"/>
-      <c r="F103" s="83"/>
-      <c r="G103" s="83"/>
+      <c r="A103" s="87"/>
+      <c r="B103" s="88"/>
+      <c r="C103" s="89"/>
+      <c r="D103" s="89"/>
+      <c r="E103" s="89"/>
+      <c r="F103" s="90"/>
+      <c r="G103" s="90"/>
     </row>
     <row r="104" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A104" s="80"/>
-      <c r="B104" s="81"/>
-      <c r="C104" s="82"/>
-      <c r="D104" s="82"/>
-      <c r="E104" s="82"/>
-      <c r="F104" s="83"/>
-      <c r="G104" s="83"/>
+      <c r="A104" s="87"/>
+      <c r="B104" s="88"/>
+      <c r="C104" s="89"/>
+      <c r="D104" s="89"/>
+      <c r="E104" s="89"/>
+      <c r="F104" s="90"/>
+      <c r="G104" s="90"/>
     </row>
     <row r="105" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A105" s="80"/>
-      <c r="B105" s="81"/>
-      <c r="C105" s="82"/>
-      <c r="D105" s="82"/>
-      <c r="E105" s="82"/>
-      <c r="F105" s="83"/>
-      <c r="G105" s="83"/>
+      <c r="A105" s="87"/>
+      <c r="B105" s="88"/>
+      <c r="C105" s="89"/>
+      <c r="D105" s="89"/>
+      <c r="E105" s="89"/>
+      <c r="F105" s="90"/>
+      <c r="G105" s="90"/>
     </row>
     <row r="106" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A106" s="80"/>
-      <c r="B106" s="81"/>
-      <c r="C106" s="82"/>
-      <c r="D106" s="82"/>
-      <c r="E106" s="82"/>
-      <c r="F106" s="83"/>
-      <c r="G106" s="83"/>
+      <c r="A106" s="87"/>
+      <c r="B106" s="88"/>
+      <c r="C106" s="89"/>
+      <c r="D106" s="89"/>
+      <c r="E106" s="89"/>
+      <c r="F106" s="90"/>
+      <c r="G106" s="90"/>
     </row>
     <row r="107" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A107" s="80"/>
-      <c r="B107" s="81"/>
-      <c r="C107" s="82"/>
-      <c r="D107" s="82"/>
-      <c r="E107" s="82"/>
-      <c r="F107" s="83"/>
-      <c r="G107" s="83"/>
+      <c r="A107" s="87"/>
+      <c r="B107" s="88"/>
+      <c r="C107" s="89"/>
+      <c r="D107" s="89"/>
+      <c r="E107" s="89"/>
+      <c r="F107" s="90"/>
+      <c r="G107" s="90"/>
     </row>
     <row r="108" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A108" s="80"/>
-      <c r="B108" s="81"/>
-      <c r="C108" s="82"/>
-      <c r="D108" s="82"/>
-      <c r="E108" s="82"/>
-      <c r="F108" s="83"/>
-      <c r="G108" s="83"/>
+      <c r="A108" s="87"/>
+      <c r="B108" s="88"/>
+      <c r="C108" s="89"/>
+      <c r="D108" s="89"/>
+      <c r="E108" s="89"/>
+      <c r="F108" s="90"/>
+      <c r="G108" s="90"/>
     </row>
     <row r="109" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A109" s="80"/>
-      <c r="B109" s="81"/>
-      <c r="C109" s="82"/>
-      <c r="D109" s="82"/>
-      <c r="E109" s="82"/>
-      <c r="F109" s="83"/>
-      <c r="G109" s="83"/>
+      <c r="A109" s="87"/>
+      <c r="B109" s="88"/>
+      <c r="C109" s="89"/>
+      <c r="D109" s="89"/>
+      <c r="E109" s="89"/>
+      <c r="F109" s="90"/>
+      <c r="G109" s="90"/>
     </row>
     <row r="110" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A110" s="80"/>
-      <c r="B110" s="81"/>
-      <c r="C110" s="82"/>
-      <c r="D110" s="82"/>
-      <c r="E110" s="82"/>
-      <c r="F110" s="83"/>
-      <c r="G110" s="83"/>
+      <c r="A110" s="87"/>
+      <c r="B110" s="88"/>
+      <c r="C110" s="89"/>
+      <c r="D110" s="89"/>
+      <c r="E110" s="89"/>
+      <c r="F110" s="90"/>
+      <c r="G110" s="90"/>
     </row>
     <row r="111" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A111" s="80"/>
-      <c r="B111" s="81"/>
-      <c r="C111" s="82"/>
-      <c r="D111" s="82"/>
-      <c r="E111" s="82"/>
-      <c r="F111" s="83"/>
-      <c r="G111" s="83"/>
+      <c r="A111" s="87"/>
+      <c r="B111" s="88"/>
+      <c r="C111" s="89"/>
+      <c r="D111" s="89"/>
+      <c r="E111" s="89"/>
+      <c r="F111" s="90"/>
+      <c r="G111" s="90"/>
     </row>
     <row r="112" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A112" s="80"/>
-      <c r="B112" s="81"/>
-      <c r="C112" s="82"/>
-      <c r="D112" s="82"/>
-      <c r="E112" s="82"/>
-      <c r="F112" s="83"/>
-      <c r="G112" s="83"/>
+      <c r="A112" s="87"/>
+      <c r="B112" s="88"/>
+      <c r="C112" s="89"/>
+      <c r="D112" s="89"/>
+      <c r="E112" s="89"/>
+      <c r="F112" s="90"/>
+      <c r="G112" s="90"/>
     </row>
     <row r="113" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A113" s="80"/>
-      <c r="B113" s="81"/>
-      <c r="C113" s="82"/>
-      <c r="D113" s="82"/>
-      <c r="E113" s="82"/>
-      <c r="F113" s="83"/>
-      <c r="G113" s="83"/>
+      <c r="A113" s="87"/>
+      <c r="B113" s="88"/>
+      <c r="C113" s="89"/>
+      <c r="D113" s="89"/>
+      <c r="E113" s="89"/>
+      <c r="F113" s="90"/>
+      <c r="G113" s="90"/>
     </row>
     <row r="114" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A114" s="80"/>
-      <c r="B114" s="81"/>
-      <c r="C114" s="82"/>
-      <c r="D114" s="82"/>
-      <c r="E114" s="82"/>
-      <c r="F114" s="83"/>
-      <c r="G114" s="83"/>
+      <c r="A114" s="87"/>
+      <c r="B114" s="88"/>
+      <c r="C114" s="89"/>
+      <c r="D114" s="89"/>
+      <c r="E114" s="89"/>
+      <c r="F114" s="90"/>
+      <c r="G114" s="90"/>
     </row>
     <row r="115" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A115" s="80"/>
-      <c r="B115" s="81"/>
-      <c r="C115" s="82"/>
-      <c r="D115" s="82"/>
-      <c r="E115" s="82"/>
-      <c r="F115" s="83"/>
-      <c r="G115" s="83"/>
+      <c r="A115" s="87"/>
+      <c r="B115" s="88"/>
+      <c r="C115" s="89"/>
+      <c r="D115" s="89"/>
+      <c r="E115" s="89"/>
+      <c r="F115" s="90"/>
+      <c r="G115" s="90"/>
     </row>
     <row r="116" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A116" s="80"/>
-      <c r="B116" s="81"/>
-      <c r="C116" s="82"/>
-      <c r="D116" s="82"/>
-      <c r="E116" s="82"/>
-      <c r="F116" s="83"/>
-      <c r="G116" s="83"/>
+      <c r="A116" s="87"/>
+      <c r="B116" s="88"/>
+      <c r="C116" s="89"/>
+      <c r="D116" s="89"/>
+      <c r="E116" s="89"/>
+      <c r="F116" s="90"/>
+      <c r="G116" s="90"/>
     </row>
     <row r="117" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A117" s="80"/>
-      <c r="B117" s="81"/>
-      <c r="C117" s="82"/>
-      <c r="D117" s="82"/>
-      <c r="E117" s="82"/>
-      <c r="F117" s="83"/>
-      <c r="G117" s="83"/>
+      <c r="A117" s="87"/>
+      <c r="B117" s="88"/>
+      <c r="C117" s="89"/>
+      <c r="D117" s="89"/>
+      <c r="E117" s="89"/>
+      <c r="F117" s="90"/>
+      <c r="G117" s="90"/>
     </row>
     <row r="118" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A118" s="80"/>
-      <c r="B118" s="81"/>
-      <c r="C118" s="82"/>
-      <c r="D118" s="82"/>
-      <c r="E118" s="82"/>
-      <c r="F118" s="83"/>
-      <c r="G118" s="83"/>
+      <c r="A118" s="87"/>
+      <c r="B118" s="88"/>
+      <c r="C118" s="89"/>
+      <c r="D118" s="89"/>
+      <c r="E118" s="89"/>
+      <c r="F118" s="90"/>
+      <c r="G118" s="90"/>
     </row>
     <row r="119" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A119" s="80"/>
-      <c r="B119" s="81"/>
-      <c r="C119" s="82"/>
-      <c r="D119" s="82"/>
-      <c r="E119" s="82"/>
-      <c r="F119" s="83"/>
-      <c r="G119" s="83"/>
+      <c r="A119" s="87"/>
+      <c r="B119" s="88"/>
+      <c r="C119" s="89"/>
+      <c r="D119" s="89"/>
+      <c r="E119" s="89"/>
+      <c r="F119" s="90"/>
+      <c r="G119" s="90"/>
     </row>
     <row r="120" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A120" s="80"/>
-      <c r="B120" s="81"/>
-      <c r="C120" s="82"/>
-      <c r="D120" s="82"/>
-      <c r="E120" s="82"/>
-      <c r="F120" s="83"/>
-      <c r="G120" s="83"/>
+      <c r="A120" s="87"/>
+      <c r="B120" s="88"/>
+      <c r="C120" s="89"/>
+      <c r="D120" s="89"/>
+      <c r="E120" s="89"/>
+      <c r="F120" s="90"/>
+      <c r="G120" s="90"/>
     </row>
     <row r="121" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A121" s="80"/>
-      <c r="B121" s="81"/>
-      <c r="C121" s="82"/>
-      <c r="D121" s="82"/>
-      <c r="E121" s="82"/>
-      <c r="F121" s="83"/>
-      <c r="G121" s="83"/>
+      <c r="A121" s="87"/>
+      <c r="B121" s="88"/>
+      <c r="C121" s="89"/>
+      <c r="D121" s="89"/>
+      <c r="E121" s="89"/>
+      <c r="F121" s="90"/>
+      <c r="G121" s="90"/>
     </row>
     <row r="122" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A122" s="80"/>
-      <c r="B122" s="81"/>
-      <c r="C122" s="82"/>
-      <c r="D122" s="82"/>
-      <c r="E122" s="82"/>
-      <c r="F122" s="83"/>
-      <c r="G122" s="83"/>
+      <c r="A122" s="87"/>
+      <c r="B122" s="88"/>
+      <c r="C122" s="89"/>
+      <c r="D122" s="89"/>
+      <c r="E122" s="89"/>
+      <c r="F122" s="90"/>
+      <c r="G122" s="90"/>
     </row>
     <row r="123" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A123" s="80"/>
-      <c r="B123" s="81"/>
-      <c r="C123" s="82"/>
-      <c r="D123" s="82"/>
-      <c r="E123" s="82"/>
-      <c r="F123" s="83"/>
-      <c r="G123" s="83"/>
+      <c r="A123" s="87"/>
+      <c r="B123" s="88"/>
+      <c r="C123" s="89"/>
+      <c r="D123" s="89"/>
+      <c r="E123" s="89"/>
+      <c r="F123" s="90"/>
+      <c r="G123" s="90"/>
     </row>
     <row r="124" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A124" s="80"/>
-      <c r="B124" s="81"/>
-      <c r="C124" s="82"/>
-      <c r="D124" s="82"/>
-      <c r="E124" s="82"/>
-      <c r="F124" s="83"/>
-      <c r="G124" s="83"/>
+      <c r="A124" s="87"/>
+      <c r="B124" s="88"/>
+      <c r="C124" s="89"/>
+      <c r="D124" s="89"/>
+      <c r="E124" s="89"/>
+      <c r="F124" s="90"/>
+      <c r="G124" s="90"/>
     </row>
     <row r="125" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A125" s="80"/>
-      <c r="B125" s="81"/>
-      <c r="C125" s="82"/>
-      <c r="D125" s="82"/>
-      <c r="E125" s="82"/>
-      <c r="F125" s="83"/>
-      <c r="G125" s="83"/>
+      <c r="A125" s="87"/>
+      <c r="B125" s="88"/>
+      <c r="C125" s="89"/>
+      <c r="D125" s="89"/>
+      <c r="E125" s="89"/>
+      <c r="F125" s="90"/>
+      <c r="G125" s="90"/>
     </row>
     <row r="126" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A126" s="80"/>
-      <c r="B126" s="81"/>
-      <c r="C126" s="82"/>
-      <c r="D126" s="82"/>
-      <c r="E126" s="82"/>
-      <c r="F126" s="83"/>
-      <c r="G126" s="83"/>
+      <c r="A126" s="87"/>
+      <c r="B126" s="88"/>
+      <c r="C126" s="89"/>
+      <c r="D126" s="89"/>
+      <c r="E126" s="89"/>
+      <c r="F126" s="90"/>
+      <c r="G126" s="90"/>
     </row>
     <row r="127" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A127" s="80"/>
-      <c r="B127" s="81"/>
-      <c r="C127" s="82"/>
-      <c r="D127" s="82"/>
-      <c r="E127" s="82"/>
-      <c r="F127" s="83"/>
-      <c r="G127" s="83"/>
+      <c r="A127" s="87"/>
+      <c r="B127" s="88"/>
+      <c r="C127" s="89"/>
+      <c r="D127" s="89"/>
+      <c r="E127" s="89"/>
+      <c r="F127" s="90"/>
+      <c r="G127" s="90"/>
     </row>
     <row r="128" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A128" s="80"/>
-      <c r="B128" s="81"/>
-      <c r="C128" s="82"/>
-      <c r="D128" s="82"/>
-      <c r="E128" s="82"/>
-      <c r="F128" s="83"/>
-      <c r="G128" s="83"/>
+      <c r="A128" s="87"/>
+      <c r="B128" s="88"/>
+      <c r="C128" s="89"/>
+      <c r="D128" s="89"/>
+      <c r="E128" s="89"/>
+      <c r="F128" s="90"/>
+      <c r="G128" s="90"/>
     </row>
     <row r="129" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A129" s="80"/>
-      <c r="B129" s="81"/>
-      <c r="C129" s="82"/>
-      <c r="D129" s="82"/>
-      <c r="E129" s="82"/>
-      <c r="F129" s="83"/>
-      <c r="G129" s="83"/>
+      <c r="A129" s="87"/>
+      <c r="B129" s="88"/>
+      <c r="C129" s="89"/>
+      <c r="D129" s="89"/>
+      <c r="E129" s="89"/>
+      <c r="F129" s="90"/>
+      <c r="G129" s="90"/>
     </row>
     <row r="130" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A130" s="80"/>
-      <c r="B130" s="81"/>
-      <c r="C130" s="82"/>
-      <c r="D130" s="82"/>
-      <c r="E130" s="82"/>
-      <c r="F130" s="83"/>
-      <c r="G130" s="83"/>
+      <c r="A130" s="87"/>
+      <c r="B130" s="88"/>
+      <c r="C130" s="89"/>
+      <c r="D130" s="89"/>
+      <c r="E130" s="89"/>
+      <c r="F130" s="90"/>
+      <c r="G130" s="90"/>
     </row>
     <row r="131" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A131" s="80"/>
-      <c r="B131" s="81"/>
-      <c r="C131" s="82"/>
-      <c r="D131" s="82"/>
-      <c r="E131" s="82"/>
-      <c r="F131" s="83"/>
-      <c r="G131" s="83"/>
+      <c r="A131" s="87"/>
+      <c r="B131" s="88"/>
+      <c r="C131" s="89"/>
+      <c r="D131" s="89"/>
+      <c r="E131" s="89"/>
+      <c r="F131" s="90"/>
+      <c r="G131" s="90"/>
     </row>
     <row r="132" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A132" s="80"/>
-      <c r="B132" s="81"/>
-      <c r="C132" s="82"/>
-      <c r="D132" s="82"/>
-      <c r="E132" s="82"/>
-      <c r="F132" s="83"/>
-      <c r="G132" s="83"/>
+      <c r="A132" s="87"/>
+      <c r="B132" s="88"/>
+      <c r="C132" s="89"/>
+      <c r="D132" s="89"/>
+      <c r="E132" s="89"/>
+      <c r="F132" s="90"/>
+      <c r="G132" s="90"/>
     </row>
     <row r="133" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A133" s="80"/>
-      <c r="B133" s="81"/>
-      <c r="C133" s="82"/>
-      <c r="D133" s="82"/>
-      <c r="E133" s="82"/>
-      <c r="F133" s="83"/>
-      <c r="G133" s="83"/>
+      <c r="A133" s="87"/>
+      <c r="B133" s="88"/>
+      <c r="C133" s="89"/>
+      <c r="D133" s="89"/>
+      <c r="E133" s="89"/>
+      <c r="F133" s="90"/>
+      <c r="G133" s="90"/>
     </row>
     <row r="134" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A134" s="80"/>
-      <c r="B134" s="81"/>
-      <c r="C134" s="82"/>
-      <c r="D134" s="82"/>
-      <c r="E134" s="82"/>
-      <c r="F134" s="83"/>
-      <c r="G134" s="83"/>
+      <c r="A134" s="87"/>
+      <c r="B134" s="88"/>
+      <c r="C134" s="89"/>
+      <c r="D134" s="89"/>
+      <c r="E134" s="89"/>
+      <c r="F134" s="90"/>
+      <c r="G134" s="90"/>
     </row>
     <row r="135" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A135" s="80"/>
-      <c r="B135" s="81"/>
-      <c r="C135" s="82"/>
-      <c r="D135" s="82"/>
-      <c r="E135" s="82"/>
-      <c r="F135" s="83"/>
-      <c r="G135" s="83"/>
+      <c r="A135" s="87"/>
+      <c r="B135" s="88"/>
+      <c r="C135" s="89"/>
+      <c r="D135" s="89"/>
+      <c r="E135" s="89"/>
+      <c r="F135" s="90"/>
+      <c r="G135" s="90"/>
     </row>
     <row r="136" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A136" s="80"/>
-      <c r="B136" s="81"/>
-      <c r="C136" s="82"/>
-      <c r="D136" s="82"/>
-      <c r="E136" s="82"/>
-      <c r="F136" s="83"/>
-      <c r="G136" s="83"/>
+      <c r="A136" s="87"/>
+      <c r="B136" s="88"/>
+      <c r="C136" s="89"/>
+      <c r="D136" s="89"/>
+      <c r="E136" s="89"/>
+      <c r="F136" s="90"/>
+      <c r="G136" s="90"/>
     </row>
     <row r="137" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A137" s="80"/>
-      <c r="B137" s="81"/>
-      <c r="C137" s="82"/>
-      <c r="D137" s="82"/>
-      <c r="E137" s="82"/>
-      <c r="F137" s="83"/>
-      <c r="G137" s="83"/>
+      <c r="A137" s="87"/>
+      <c r="B137" s="88"/>
+      <c r="C137" s="89"/>
+      <c r="D137" s="89"/>
+      <c r="E137" s="89"/>
+      <c r="F137" s="90"/>
+      <c r="G137" s="90"/>
     </row>
     <row r="138" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A138" s="80"/>
-      <c r="B138" s="81"/>
-      <c r="C138" s="82"/>
-      <c r="D138" s="82"/>
-      <c r="E138" s="82"/>
-      <c r="F138" s="83"/>
-      <c r="G138" s="83"/>
+      <c r="A138" s="87"/>
+      <c r="B138" s="88"/>
+      <c r="C138" s="89"/>
+      <c r="D138" s="89"/>
+      <c r="E138" s="89"/>
+      <c r="F138" s="90"/>
+      <c r="G138" s="90"/>
     </row>
     <row r="139" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A139" s="80"/>
-      <c r="B139" s="81"/>
-      <c r="C139" s="82"/>
-      <c r="D139" s="82"/>
-      <c r="E139" s="82"/>
-      <c r="F139" s="83"/>
-      <c r="G139" s="83"/>
+      <c r="A139" s="87"/>
+      <c r="B139" s="88"/>
+      <c r="C139" s="89"/>
+      <c r="D139" s="89"/>
+      <c r="E139" s="89"/>
+      <c r="F139" s="90"/>
+      <c r="G139" s="90"/>
     </row>
     <row r="140" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A140" s="80"/>
-      <c r="B140" s="81"/>
-      <c r="C140" s="82"/>
-      <c r="D140" s="82"/>
-      <c r="E140" s="82"/>
-      <c r="F140" s="83"/>
-      <c r="G140" s="83"/>
+      <c r="A140" s="87"/>
+      <c r="B140" s="88"/>
+      <c r="C140" s="89"/>
+      <c r="D140" s="89"/>
+      <c r="E140" s="89"/>
+      <c r="F140" s="90"/>
+      <c r="G140" s="90"/>
     </row>
     <row r="141" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A141" s="80"/>
-      <c r="B141" s="81"/>
-      <c r="C141" s="82"/>
-      <c r="D141" s="82"/>
-      <c r="E141" s="82"/>
-      <c r="F141" s="83"/>
-      <c r="G141" s="83"/>
+      <c r="A141" s="87"/>
+      <c r="B141" s="88"/>
+      <c r="C141" s="89"/>
+      <c r="D141" s="89"/>
+      <c r="E141" s="89"/>
+      <c r="F141" s="90"/>
+      <c r="G141" s="90"/>
     </row>
     <row r="142" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A142" s="80"/>
-      <c r="B142" s="81"/>
-      <c r="C142" s="82"/>
-      <c r="D142" s="82"/>
-      <c r="E142" s="82"/>
-      <c r="F142" s="83"/>
-      <c r="G142" s="83"/>
+      <c r="A142" s="87"/>
+      <c r="B142" s="88"/>
+      <c r="C142" s="89"/>
+      <c r="D142" s="89"/>
+      <c r="E142" s="89"/>
+      <c r="F142" s="90"/>
+      <c r="G142" s="90"/>
     </row>
     <row r="143" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A143" s="80"/>
-      <c r="B143" s="81"/>
-      <c r="C143" s="82"/>
-      <c r="D143" s="82"/>
-      <c r="E143" s="82"/>
-      <c r="F143" s="83"/>
-      <c r="G143" s="83"/>
+      <c r="A143" s="87"/>
+      <c r="B143" s="88"/>
+      <c r="C143" s="89"/>
+      <c r="D143" s="89"/>
+      <c r="E143" s="89"/>
+      <c r="F143" s="90"/>
+      <c r="G143" s="90"/>
     </row>
     <row r="144" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A144" s="80"/>
-      <c r="B144" s="81"/>
-      <c r="C144" s="82"/>
-      <c r="D144" s="82"/>
-      <c r="E144" s="82"/>
-      <c r="F144" s="83"/>
-      <c r="G144" s="83"/>
+      <c r="A144" s="87"/>
+      <c r="B144" s="88"/>
+      <c r="C144" s="89"/>
+      <c r="D144" s="89"/>
+      <c r="E144" s="89"/>
+      <c r="F144" s="90"/>
+      <c r="G144" s="90"/>
     </row>
     <row r="145" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A145" s="80"/>
-      <c r="B145" s="81"/>
-      <c r="C145" s="82"/>
-      <c r="D145" s="82"/>
-      <c r="E145" s="82"/>
-      <c r="F145" s="83"/>
-      <c r="G145" s="83"/>
+      <c r="A145" s="87"/>
+      <c r="B145" s="88"/>
+      <c r="C145" s="89"/>
+      <c r="D145" s="89"/>
+      <c r="E145" s="89"/>
+      <c r="F145" s="90"/>
+      <c r="G145" s="90"/>
     </row>
     <row r="146" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A146" s="80"/>
-      <c r="B146" s="81"/>
-      <c r="C146" s="82"/>
-      <c r="D146" s="82"/>
-      <c r="E146" s="82"/>
-      <c r="F146" s="83"/>
-      <c r="G146" s="83"/>
+      <c r="A146" s="87"/>
+      <c r="B146" s="88"/>
+      <c r="C146" s="89"/>
+      <c r="D146" s="89"/>
+      <c r="E146" s="89"/>
+      <c r="F146" s="90"/>
+      <c r="G146" s="90"/>
     </row>
     <row r="147" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A147" s="80"/>
-      <c r="B147" s="81"/>
-      <c r="C147" s="82"/>
-      <c r="D147" s="82"/>
-      <c r="E147" s="82"/>
-      <c r="F147" s="83"/>
-      <c r="G147" s="83"/>
+      <c r="A147" s="87"/>
+      <c r="B147" s="88"/>
+      <c r="C147" s="89"/>
+      <c r="D147" s="89"/>
+      <c r="E147" s="89"/>
+      <c r="F147" s="90"/>
+      <c r="G147" s="90"/>
     </row>
     <row r="148" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A148" s="80"/>
-      <c r="B148" s="81"/>
-      <c r="C148" s="82"/>
-      <c r="D148" s="82"/>
-      <c r="E148" s="82"/>
-      <c r="F148" s="83"/>
-      <c r="G148" s="83"/>
+      <c r="A148" s="87"/>
+      <c r="B148" s="88"/>
+      <c r="C148" s="89"/>
+      <c r="D148" s="89"/>
+      <c r="E148" s="89"/>
+      <c r="F148" s="90"/>
+      <c r="G148" s="90"/>
     </row>
     <row r="149" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A149" s="80"/>
-      <c r="B149" s="81"/>
-      <c r="C149" s="82"/>
-      <c r="D149" s="82"/>
-      <c r="E149" s="82"/>
-      <c r="F149" s="83"/>
-      <c r="G149" s="83"/>
+      <c r="A149" s="87"/>
+      <c r="B149" s="88"/>
+      <c r="C149" s="89"/>
+      <c r="D149" s="89"/>
+      <c r="E149" s="89"/>
+      <c r="F149" s="90"/>
+      <c r="G149" s="90"/>
     </row>
     <row r="150" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A150" s="80"/>
-      <c r="B150" s="81"/>
-      <c r="C150" s="82"/>
-      <c r="D150" s="82"/>
-      <c r="E150" s="82"/>
-      <c r="F150" s="83"/>
-      <c r="G150" s="83"/>
+      <c r="A150" s="87"/>
+      <c r="B150" s="88"/>
+      <c r="C150" s="89"/>
+      <c r="D150" s="89"/>
+      <c r="E150" s="89"/>
+      <c r="F150" s="90"/>
+      <c r="G150" s="90"/>
     </row>
     <row r="151" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A151" s="80"/>
-      <c r="B151" s="81"/>
-      <c r="C151" s="82"/>
-      <c r="D151" s="82"/>
-      <c r="E151" s="82"/>
-      <c r="F151" s="83"/>
-      <c r="G151" s="83"/>
+      <c r="A151" s="87"/>
+      <c r="B151" s="88"/>
+      <c r="C151" s="89"/>
+      <c r="D151" s="89"/>
+      <c r="E151" s="89"/>
+      <c r="F151" s="90"/>
+      <c r="G151" s="90"/>
     </row>
     <row r="152" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A152" s="80"/>
-      <c r="B152" s="81"/>
-      <c r="C152" s="81"/>
-      <c r="D152" s="81"/>
-      <c r="E152" s="81"/>
-      <c r="F152" s="83"/>
-      <c r="G152" s="83"/>
+      <c r="A152" s="87"/>
+      <c r="B152" s="88"/>
+      <c r="C152" s="89"/>
+      <c r="D152" s="89"/>
+      <c r="E152" s="89"/>
+      <c r="F152" s="90"/>
+      <c r="G152" s="90"/>
     </row>
     <row r="153" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A153" s="80"/>
-      <c r="B153" s="81"/>
-      <c r="C153" s="81"/>
-      <c r="D153" s="81"/>
-      <c r="E153" s="81"/>
-      <c r="F153" s="83"/>
-      <c r="G153" s="83"/>
+      <c r="A153" s="87"/>
+      <c r="B153" s="88"/>
+      <c r="C153" s="89"/>
+      <c r="D153" s="89"/>
+      <c r="E153" s="89"/>
+      <c r="F153" s="90"/>
+      <c r="G153" s="90"/>
     </row>
     <row r="154" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A154" s="80"/>
-      <c r="B154" s="81"/>
-      <c r="C154" s="81"/>
-      <c r="D154" s="81"/>
-      <c r="E154" s="81"/>
-      <c r="F154" s="83"/>
-      <c r="G154" s="83"/>
+      <c r="A154" s="87"/>
+      <c r="B154" s="88"/>
+      <c r="C154" s="89"/>
+      <c r="D154" s="89"/>
+      <c r="E154" s="89"/>
+      <c r="F154" s="90"/>
+      <c r="G154" s="90"/>
     </row>
     <row r="155" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A155" s="80"/>
-      <c r="B155" s="81"/>
-      <c r="C155" s="81"/>
-      <c r="D155" s="81"/>
-      <c r="E155" s="81"/>
-      <c r="F155" s="83"/>
-      <c r="G155" s="83"/>
+      <c r="A155" s="87"/>
+      <c r="B155" s="88"/>
+      <c r="C155" s="89"/>
+      <c r="D155" s="89"/>
+      <c r="E155" s="89"/>
+      <c r="F155" s="90"/>
+      <c r="G155" s="90"/>
     </row>
     <row r="156" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A156" s="80"/>
-      <c r="B156" s="81"/>
-      <c r="C156" s="81"/>
-      <c r="D156" s="81"/>
-      <c r="E156" s="81"/>
-      <c r="F156" s="83"/>
-      <c r="G156" s="83"/>
+      <c r="A156" s="87"/>
+      <c r="B156" s="88"/>
+      <c r="C156" s="89"/>
+      <c r="D156" s="89"/>
+      <c r="E156" s="89"/>
+      <c r="F156" s="90"/>
+      <c r="G156" s="90"/>
     </row>
     <row r="157" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A157" s="80"/>
-      <c r="B157" s="81"/>
-      <c r="C157" s="81"/>
-      <c r="D157" s="81"/>
-      <c r="E157" s="81"/>
-      <c r="F157" s="83"/>
-      <c r="G157" s="83"/>
+      <c r="A157" s="87"/>
+      <c r="B157" s="88"/>
+      <c r="C157" s="89"/>
+      <c r="D157" s="89"/>
+      <c r="E157" s="89"/>
+      <c r="F157" s="90"/>
+      <c r="G157" s="90"/>
     </row>
     <row r="158" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A158" s="80"/>
-      <c r="B158" s="81"/>
-      <c r="C158" s="81"/>
-      <c r="D158" s="81"/>
-      <c r="E158" s="81"/>
-      <c r="F158" s="83"/>
-      <c r="G158" s="83"/>
+      <c r="A158" s="87"/>
+      <c r="B158" s="88"/>
+      <c r="C158" s="88"/>
+      <c r="D158" s="88"/>
+      <c r="E158" s="88"/>
+      <c r="F158" s="90"/>
+      <c r="G158" s="90"/>
     </row>
     <row r="159" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A159" s="80"/>
-      <c r="B159" s="81"/>
-      <c r="C159" s="81"/>
-      <c r="D159" s="81"/>
-      <c r="E159" s="81"/>
-      <c r="F159" s="83"/>
-      <c r="G159" s="83"/>
+      <c r="A159" s="87"/>
+      <c r="B159" s="88"/>
+      <c r="C159" s="88"/>
+      <c r="D159" s="88"/>
+      <c r="E159" s="88"/>
+      <c r="F159" s="90"/>
+      <c r="G159" s="90"/>
     </row>
     <row r="160" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A160" s="80"/>
-      <c r="B160" s="81"/>
-      <c r="C160" s="81"/>
-      <c r="D160" s="81"/>
-      <c r="E160" s="81"/>
-      <c r="F160" s="83"/>
-      <c r="G160" s="83"/>
+      <c r="A160" s="87"/>
+      <c r="B160" s="88"/>
+      <c r="C160" s="88"/>
+      <c r="D160" s="88"/>
+      <c r="E160" s="88"/>
+      <c r="F160" s="90"/>
+      <c r="G160" s="90"/>
     </row>
     <row r="161" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A161" s="80"/>
-      <c r="B161" s="81"/>
-      <c r="C161" s="81"/>
-      <c r="D161" s="81"/>
-      <c r="E161" s="81"/>
-      <c r="F161" s="83"/>
-      <c r="G161" s="83"/>
+      <c r="A161" s="87"/>
+      <c r="B161" s="88"/>
+      <c r="C161" s="88"/>
+      <c r="D161" s="88"/>
+      <c r="E161" s="88"/>
+      <c r="F161" s="90"/>
+      <c r="G161" s="90"/>
     </row>
     <row r="162" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A162" s="80"/>
-      <c r="B162" s="81"/>
-      <c r="C162" s="81"/>
-      <c r="D162" s="81"/>
-      <c r="E162" s="81"/>
-      <c r="F162" s="83"/>
-      <c r="G162" s="83"/>
+      <c r="A162" s="87"/>
+      <c r="B162" s="88"/>
+      <c r="C162" s="88"/>
+      <c r="D162" s="88"/>
+      <c r="E162" s="88"/>
+      <c r="F162" s="90"/>
+      <c r="G162" s="90"/>
     </row>
     <row r="163" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="B163" s="2"/>
-      <c r="G163" s="83"/>
+      <c r="A163" s="87"/>
+      <c r="B163" s="88"/>
+      <c r="C163" s="88"/>
+      <c r="D163" s="88"/>
+      <c r="E163" s="88"/>
+      <c r="F163" s="90"/>
+      <c r="G163" s="90"/>
     </row>
     <row r="164" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="B164" s="2"/>
-      <c r="G164" s="83"/>
+      <c r="A164" s="87"/>
+      <c r="B164" s="88"/>
+      <c r="C164" s="88"/>
+      <c r="D164" s="88"/>
+      <c r="E164" s="88"/>
+      <c r="F164" s="90"/>
+      <c r="G164" s="90"/>
     </row>
     <row r="165" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="B165" s="2"/>
+      <c r="A165" s="87"/>
+      <c r="B165" s="88"/>
+      <c r="C165" s="88"/>
+      <c r="D165" s="88"/>
+      <c r="E165" s="88"/>
+      <c r="F165" s="90"/>
+      <c r="G165" s="90"/>
     </row>
     <row r="166" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="B166" s="2"/>
+      <c r="A166" s="87"/>
+      <c r="B166" s="88"/>
+      <c r="C166" s="88"/>
+      <c r="D166" s="88"/>
+      <c r="E166" s="88"/>
+      <c r="F166" s="90"/>
+      <c r="G166" s="90"/>
     </row>
     <row r="167" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="B167" s="2"/>
+      <c r="A167" s="87"/>
+      <c r="B167" s="88"/>
+      <c r="C167" s="88"/>
+      <c r="D167" s="88"/>
+      <c r="E167" s="88"/>
+      <c r="F167" s="90"/>
+      <c r="G167" s="90"/>
     </row>
     <row r="168" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="B168" s="2"/>
+      <c r="A168" s="87"/>
+      <c r="B168" s="88"/>
+      <c r="C168" s="88"/>
+      <c r="D168" s="88"/>
+      <c r="E168" s="88"/>
+      <c r="F168" s="90"/>
+      <c r="G168" s="90"/>
     </row>
     <row r="169" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="B169" s="2"/>
+      <c r="G169" s="90"/>
     </row>
     <row r="170" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="B170" s="2"/>
+      <c r="G170" s="90"/>
     </row>
     <row r="171" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="B171" s="2"/>
@@ -6770,8 +6838,26 @@
     <row r="1162" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="B1162" s="2"/>
     </row>
+    <row r="1163" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="B1163" s="2"/>
+    </row>
+    <row r="1164" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="B1164" s="2"/>
+    </row>
+    <row r="1165" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="B1165" s="2"/>
+    </row>
+    <row r="1166" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="B1166" s="2"/>
+    </row>
+    <row r="1167" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="B1167" s="2"/>
+    </row>
+    <row r="1168" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="B1168" s="2"/>
+    </row>
   </sheetData>
-  <conditionalFormatting sqref="F2:F146 G2:G164">
+  <conditionalFormatting sqref="G88:G170 F93:F152 G26:G33 G2:G25 F34:G92 F2:F33">
     <cfRule type="cellIs" priority="2" operator="equal" aboveAverage="0" equalAverage="0" bottom="0" percent="0" rank="0" text="" dxfId="0">
       <formula>0</formula>
     </cfRule>

--- a/pw.xlsx
+++ b/pw.xlsx
@@ -1012,10 +1012,10 @@
   <dimension ref="A1:I1168"/>
   <sheetViews>
     <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="true" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A16" colorId="64" zoomScale="100" zoomScaleNormal="100" zoomScalePageLayoutView="100" workbookViewId="0">
-      <selection pane="topLeft" activeCell="H28" activeCellId="0" sqref="H28"/>
+      <selection pane="topLeft" activeCell="G34" activeCellId="0" sqref="G34"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="8.9765625" defaultRowHeight="13.8" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
+  <sheetFormatPr defaultColWidth="8.984375" defaultRowHeight="13.8" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
   <cols>
     <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="1" min="1" style="0" width="34.73"/>
     <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="2" min="2" style="1" width="11.11"/>
@@ -1857,7 +1857,9 @@
       <c r="F34" s="47" t="n">
         <v>0</v>
       </c>
-      <c r="G34" s="47"/>
+      <c r="G34" s="47" t="n">
+        <v>0</v>
+      </c>
     </row>
     <row r="35" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A35" s="44" t="s">

--- a/pw.xlsx
+++ b/pw.xlsx
@@ -1011,11 +1011,11 @@
   </sheetPr>
   <dimension ref="A1:I1168"/>
   <sheetViews>
-    <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="true" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A16" colorId="64" zoomScale="100" zoomScaleNormal="100" zoomScalePageLayoutView="100" workbookViewId="0">
-      <selection pane="topLeft" activeCell="G34" activeCellId="0" sqref="G34"/>
+    <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="true" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A19" colorId="64" zoomScale="100" zoomScaleNormal="100" zoomScalePageLayoutView="100" workbookViewId="0">
+      <selection pane="topLeft" activeCell="F47" activeCellId="0" sqref="F47"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="8.984375" defaultRowHeight="13.8" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
+  <sheetFormatPr defaultColWidth="8.9921875" defaultRowHeight="13.8" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
   <cols>
     <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="1" min="1" style="0" width="34.73"/>
     <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="2" min="2" style="1" width="11.11"/>
@@ -1077,7 +1077,7 @@
       </c>
       <c r="H2" s="14" t="n">
         <f aca="false">SUM(F2:F120)</f>
-        <v>19</v>
+        <v>21</v>
       </c>
       <c r="I2" s="0" t="n">
         <f aca="false">MAX(G2:G170)</f>
@@ -2095,7 +2095,7 @@
         <v>0</v>
       </c>
       <c r="F44" s="55" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="G44" s="55" t="n">
         <v>0</v>
@@ -2167,7 +2167,7 @@
         <v>0</v>
       </c>
       <c r="F47" s="55" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="G47" s="55" t="n">
         <v>0</v>

--- a/pw.xlsx
+++ b/pw.xlsx
@@ -20,7 +20,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="94" uniqueCount="92">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="100" uniqueCount="98">
   <si>
     <t xml:space="preserve">Label</t>
   </si>
@@ -160,10 +160,28 @@
     <t xml:space="preserve">Center Marker Line Fseg. 1 Left Forward</t>
   </si>
   <si>
+    <t xml:space="preserve">Center Marker Line Fseg. 1 Mid1   LF-LS</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Center Marker Line Fseg. 1 Mid2   LF-LS</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Center Marker Line Fseg. 1 Mid3   LF-LS</t>
+  </si>
+  <si>
     <t xml:space="preserve">Center Marker Line Fseg. 1 Left Sturn</t>
   </si>
   <si>
     <t xml:space="preserve">Center Marker Line Fseg. 1 Right Sturn</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Center Marker Line Fseg. 1 Mid3   RS-RF</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Center Marker Line Fseg. 1 Mid2   RS-RF</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Center Marker Line Fseg. 1 Mid1   RS-RF</t>
   </si>
   <si>
     <t xml:space="preserve">Center Marker Line Fseg. 1 Right Forward</t>
@@ -307,7 +325,7 @@
     <numFmt numFmtId="165" formatCode="0.000"/>
     <numFmt numFmtId="166" formatCode="General"/>
   </numFmts>
-  <fonts count="6">
+  <fonts count="7">
     <font>
       <sz val="11"/>
       <color rgb="FF000000"/>
@@ -344,6 +362,12 @@
       <name val="Calibri"/>
       <family val="2"/>
       <charset val="1"/>
+    </font>
+    <font>
+      <sz val="8"/>
+      <color rgb="FF000000"/>
+      <name val="Calibri"/>
+      <family val="2"/>
     </font>
   </fonts>
   <fills count="26">
@@ -548,7 +572,7 @@
       <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
     </xf>
   </cellStyleXfs>
-  <cellXfs count="91">
+  <cellXfs count="94">
     <xf numFmtId="164" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="false" applyBorder="false" applyAlignment="false" applyProtection="false">
       <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
@@ -741,6 +765,10 @@
       <alignment horizontal="center" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
     </xf>
+    <xf numFmtId="164" fontId="6" fillId="13" borderId="1" xfId="0" applyFont="true" applyBorder="true" applyAlignment="false" applyProtection="false">
+      <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
+      <protection locked="true" hidden="false"/>
+    </xf>
     <xf numFmtId="164" fontId="5" fillId="16" borderId="1" xfId="0" applyFont="true" applyBorder="true" applyAlignment="false" applyProtection="false">
       <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
@@ -754,6 +782,14 @@
       <protection locked="true" hidden="false"/>
     </xf>
     <xf numFmtId="164" fontId="0" fillId="16" borderId="1" xfId="0" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="false">
+      <alignment horizontal="center" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
+      <protection locked="true" hidden="false"/>
+    </xf>
+    <xf numFmtId="164" fontId="6" fillId="16" borderId="1" xfId="0" applyFont="true" applyBorder="true" applyAlignment="false" applyProtection="false">
+      <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
+      <protection locked="true" hidden="false"/>
+    </xf>
+    <xf numFmtId="165" fontId="6" fillId="16" borderId="1" xfId="0" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="false">
       <alignment horizontal="center" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
     </xf>
@@ -1009,10 +1045,10 @@
   <sheetPr filterMode="false">
     <pageSetUpPr fitToPage="false"/>
   </sheetPr>
-  <dimension ref="A1:I1168"/>
+  <dimension ref="A1:I1174"/>
   <sheetViews>
-    <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="true" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A19" colorId="64" zoomScale="100" zoomScaleNormal="100" zoomScalePageLayoutView="100" workbookViewId="0">
-      <selection pane="topLeft" activeCell="F47" activeCellId="0" sqref="F47"/>
+    <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="true" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A22" colorId="64" zoomScale="100" zoomScaleNormal="100" zoomScalePageLayoutView="100" workbookViewId="0">
+      <selection pane="topLeft" activeCell="G50" activeCellId="0" sqref="G50"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="8.9921875" defaultRowHeight="13.8" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
@@ -1076,11 +1112,11 @@
         <v>0</v>
       </c>
       <c r="H2" s="14" t="n">
-        <f aca="false">SUM(F2:F120)</f>
-        <v>21</v>
+        <f aca="false">SUM(F2:F126)</f>
+        <v>19</v>
       </c>
       <c r="I2" s="0" t="n">
-        <f aca="false">MAX(G2:G170)</f>
+        <f aca="false">MAX(G2:G176)</f>
         <v>0</v>
       </c>
     </row>
@@ -1807,7 +1843,7 @@
         <v>4.037</v>
       </c>
       <c r="F32" s="43" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="G32" s="43" t="n">
         <v>0</v>
@@ -1831,7 +1867,7 @@
         <v>4.0374</v>
       </c>
       <c r="F33" s="43" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="G33" s="43" t="n">
         <v>0</v>
@@ -1982,26 +2018,26 @@
       </c>
     </row>
     <row r="40" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A40" s="48" t="s">
+      <c r="A40" s="36" t="s">
         <v>45</v>
       </c>
-      <c r="B40" s="49" t="n">
+      <c r="B40" s="37" t="n">
         <f aca="false">B39+1</f>
         <v>39</v>
       </c>
-      <c r="C40" s="50" t="n">
+      <c r="C40" s="38" t="n">
         <v>-0.085</v>
       </c>
-      <c r="D40" s="50" t="n">
+      <c r="D40" s="38" t="n">
         <v>2.431</v>
       </c>
-      <c r="E40" s="50" t="n">
-        <v>0</v>
-      </c>
-      <c r="F40" s="51" t="n">
+      <c r="E40" s="38" t="n">
+        <v>0</v>
+      </c>
+      <c r="F40" s="39" t="n">
         <v>1</v>
       </c>
-      <c r="G40" s="51" t="n">
+      <c r="G40" s="39" t="n">
         <v>0</v>
       </c>
     </row>
@@ -2009,23 +2045,23 @@
       <c r="A41" s="48" t="s">
         <v>46</v>
       </c>
-      <c r="B41" s="49" t="n">
-        <f aca="false">B40+1</f>
+      <c r="B41" s="37" t="n">
         <v>40</v>
       </c>
-      <c r="C41" s="50" t="n">
+      <c r="C41" s="38" t="n">
+        <f aca="false">C40</f>
         <v>-0.085</v>
       </c>
-      <c r="D41" s="50" t="n">
-        <v>0.938</v>
-      </c>
-      <c r="E41" s="50" t="n">
-        <v>0</v>
-      </c>
-      <c r="F41" s="51" t="n">
-        <v>1</v>
-      </c>
-      <c r="G41" s="51" t="n">
+      <c r="D41" s="38" t="n">
+        <v>2</v>
+      </c>
+      <c r="E41" s="38" t="n">
+        <v>0</v>
+      </c>
+      <c r="F41" s="39" t="n">
+        <v>0</v>
+      </c>
+      <c r="G41" s="39" t="n">
         <v>0</v>
       </c>
     </row>
@@ -2033,23 +2069,23 @@
       <c r="A42" s="48" t="s">
         <v>47</v>
       </c>
-      <c r="B42" s="49" t="n">
-        <f aca="false">B41+1</f>
+      <c r="B42" s="37" t="n">
         <v>41</v>
       </c>
-      <c r="C42" s="50" t="n">
-        <v>0.085</v>
-      </c>
-      <c r="D42" s="50" t="n">
-        <v>0.938</v>
-      </c>
-      <c r="E42" s="50" t="n">
-        <v>0</v>
-      </c>
-      <c r="F42" s="51" t="n">
-        <v>1</v>
-      </c>
-      <c r="G42" s="51" t="n">
+      <c r="C42" s="38" t="n">
+        <f aca="false">C41</f>
+        <v>-0.085</v>
+      </c>
+      <c r="D42" s="38" t="n">
+        <v>1.5</v>
+      </c>
+      <c r="E42" s="38" t="n">
+        <v>0</v>
+      </c>
+      <c r="F42" s="39" t="n">
+        <v>0</v>
+      </c>
+      <c r="G42" s="39" t="n">
         <v>0</v>
       </c>
     </row>
@@ -2057,1830 +2093,1956 @@
       <c r="A43" s="48" t="s">
         <v>48</v>
       </c>
-      <c r="B43" s="49" t="n">
-        <f aca="false">B42+1</f>
+      <c r="B43" s="37" t="n">
         <v>42</v>
       </c>
-      <c r="C43" s="50" t="n">
-        <v>0.085</v>
-      </c>
-      <c r="D43" s="50" t="n">
-        <v>2.431</v>
-      </c>
-      <c r="E43" s="50" t="n">
-        <v>0</v>
-      </c>
-      <c r="F43" s="51" t="n">
+      <c r="C43" s="38" t="n">
+        <f aca="false">C41</f>
+        <v>-0.085</v>
+      </c>
+      <c r="D43" s="38" t="n">
         <v>1</v>
       </c>
-      <c r="G43" s="51" t="n">
+      <c r="E43" s="38" t="n">
+        <v>0</v>
+      </c>
+      <c r="F43" s="39" t="n">
+        <v>0</v>
+      </c>
+      <c r="G43" s="39" t="n">
         <v>0</v>
       </c>
     </row>
     <row r="44" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A44" s="52" t="s">
+      <c r="A44" s="36" t="s">
         <v>49</v>
       </c>
-      <c r="B44" s="53" t="n">
+      <c r="B44" s="37" t="n">
         <f aca="false">B43+1</f>
         <v>43</v>
       </c>
-      <c r="C44" s="54" t="n">
+      <c r="C44" s="38" t="n">
         <v>-0.085</v>
       </c>
-      <c r="D44" s="54" t="n">
-        <v>0.778</v>
-      </c>
-      <c r="E44" s="54" t="n">
-        <v>0</v>
-      </c>
-      <c r="F44" s="55" t="n">
-        <v>1</v>
-      </c>
-      <c r="G44" s="55" t="n">
+      <c r="D44" s="38" t="n">
+        <v>0.938</v>
+      </c>
+      <c r="E44" s="38" t="n">
+        <v>0</v>
+      </c>
+      <c r="F44" s="39" t="n">
+        <v>0</v>
+      </c>
+      <c r="G44" s="39" t="n">
         <v>0</v>
       </c>
     </row>
     <row r="45" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A45" s="52" t="s">
+      <c r="A45" s="49" t="s">
         <v>50</v>
       </c>
-      <c r="B45" s="53" t="n">
+      <c r="B45" s="50" t="n">
         <f aca="false">B44+1</f>
         <v>44</v>
       </c>
-      <c r="C45" s="54" t="n">
-        <v>-0.085</v>
-      </c>
-      <c r="D45" s="54" t="n">
-        <v>-0.778</v>
-      </c>
-      <c r="E45" s="54" t="n">
-        <v>0</v>
-      </c>
-      <c r="F45" s="55" t="n">
-        <v>0</v>
-      </c>
-      <c r="G45" s="55" t="n">
+      <c r="C45" s="51" t="n">
+        <v>0.085</v>
+      </c>
+      <c r="D45" s="51" t="n">
+        <v>0.938</v>
+      </c>
+      <c r="E45" s="51" t="n">
+        <v>0</v>
+      </c>
+      <c r="F45" s="52" t="n">
+        <v>0</v>
+      </c>
+      <c r="G45" s="52" t="n">
         <v>0</v>
       </c>
     </row>
     <row r="46" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A46" s="52" t="s">
+      <c r="A46" s="53" t="s">
         <v>51</v>
       </c>
-      <c r="B46" s="53" t="n">
+      <c r="B46" s="50" t="n">
         <f aca="false">B45+1</f>
         <v>45</v>
       </c>
-      <c r="C46" s="54" t="n">
+      <c r="C46" s="51" t="n">
         <v>0.085</v>
       </c>
       <c r="D46" s="54" t="n">
-        <v>-0.778</v>
-      </c>
-      <c r="E46" s="54" t="n">
-        <v>0</v>
-      </c>
-      <c r="F46" s="55" t="n">
-        <v>0</v>
-      </c>
-      <c r="G46" s="55" t="n">
+        <v>1</v>
+      </c>
+      <c r="E46" s="51" t="n">
+        <v>0</v>
+      </c>
+      <c r="F46" s="52" t="n">
+        <v>0</v>
+      </c>
+      <c r="G46" s="52" t="n">
         <v>0</v>
       </c>
     </row>
     <row r="47" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A47" s="52" t="s">
+      <c r="A47" s="53" t="s">
         <v>52</v>
       </c>
-      <c r="B47" s="53" t="n">
+      <c r="B47" s="50" t="n">
         <f aca="false">B46+1</f>
         <v>46</v>
       </c>
       <c r="C47" s="54" t="n">
         <v>0.085</v>
       </c>
-      <c r="D47" s="54" t="n">
-        <v>0.778</v>
-      </c>
-      <c r="E47" s="54" t="n">
-        <v>0</v>
-      </c>
-      <c r="F47" s="55" t="n">
-        <v>1</v>
-      </c>
-      <c r="G47" s="55" t="n">
+      <c r="D47" s="51" t="n">
+        <v>1.5</v>
+      </c>
+      <c r="E47" s="51" t="n">
+        <v>0</v>
+      </c>
+      <c r="F47" s="52" t="n">
+        <v>0</v>
+      </c>
+      <c r="G47" s="52" t="n">
         <v>0</v>
       </c>
     </row>
     <row r="48" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A48" s="56" t="s">
+      <c r="A48" s="53" t="s">
         <v>53</v>
       </c>
-      <c r="B48" s="57" t="n">
+      <c r="B48" s="50" t="n">
         <f aca="false">B47+1</f>
         <v>47</v>
       </c>
-      <c r="C48" s="58" t="n">
-        <v>-0.085</v>
-      </c>
-      <c r="D48" s="58" t="n">
-        <v>-0.938</v>
-      </c>
-      <c r="E48" s="58" t="n">
-        <v>0</v>
-      </c>
-      <c r="F48" s="59" t="n">
-        <v>0</v>
-      </c>
-      <c r="G48" s="59" t="n">
+      <c r="C48" s="54" t="n">
+        <v>0.085</v>
+      </c>
+      <c r="D48" s="51" t="n">
+        <v>2</v>
+      </c>
+      <c r="E48" s="51" t="n">
+        <v>0</v>
+      </c>
+      <c r="F48" s="52" t="n">
+        <v>0</v>
+      </c>
+      <c r="G48" s="52" t="n">
         <v>0</v>
       </c>
     </row>
     <row r="49" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A49" s="56" t="s">
+      <c r="A49" s="49" t="s">
         <v>54</v>
       </c>
-      <c r="B49" s="57" t="n">
+      <c r="B49" s="50" t="n">
         <f aca="false">B48+1</f>
         <v>48</v>
       </c>
-      <c r="C49" s="58" t="n">
-        <v>-0.085</v>
-      </c>
-      <c r="D49" s="58" t="n">
-        <v>-2.408</v>
-      </c>
-      <c r="E49" s="58" t="n">
-        <v>0</v>
-      </c>
-      <c r="F49" s="59" t="n">
-        <v>0</v>
-      </c>
-      <c r="G49" s="59" t="n">
+      <c r="C49" s="51" t="n">
+        <v>0.085</v>
+      </c>
+      <c r="D49" s="51" t="n">
+        <v>2.431</v>
+      </c>
+      <c r="E49" s="51" t="n">
+        <v>0</v>
+      </c>
+      <c r="F49" s="52" t="n">
+        <v>1</v>
+      </c>
+      <c r="G49" s="52" t="n">
         <v>0</v>
       </c>
     </row>
     <row r="50" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A50" s="56" t="s">
+      <c r="A50" s="55" t="s">
         <v>55</v>
       </c>
-      <c r="B50" s="57" t="n">
+      <c r="B50" s="56" t="n">
         <f aca="false">B49+1</f>
         <v>49</v>
       </c>
-      <c r="C50" s="58" t="n">
-        <v>0.085</v>
-      </c>
-      <c r="D50" s="58" t="n">
-        <v>-2.408</v>
-      </c>
-      <c r="E50" s="58" t="n">
-        <v>0</v>
-      </c>
-      <c r="F50" s="59" t="n">
-        <v>0</v>
-      </c>
-      <c r="G50" s="59" t="n">
+      <c r="C50" s="57" t="n">
+        <v>-0.085</v>
+      </c>
+      <c r="D50" s="57" t="n">
+        <v>0.8</v>
+      </c>
+      <c r="E50" s="57" t="n">
+        <v>0</v>
+      </c>
+      <c r="F50" s="58" t="n">
+        <v>0</v>
+      </c>
+      <c r="G50" s="58" t="n">
         <v>0</v>
       </c>
     </row>
     <row r="51" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A51" s="56" t="s">
+      <c r="A51" s="55" t="s">
         <v>56</v>
       </c>
-      <c r="B51" s="57" t="n">
+      <c r="B51" s="56" t="n">
         <f aca="false">B50+1</f>
         <v>50</v>
       </c>
-      <c r="C51" s="58" t="n">
-        <v>0.085</v>
-      </c>
-      <c r="D51" s="58" t="n">
-        <v>-0.938</v>
-      </c>
-      <c r="E51" s="58" t="n">
-        <v>0</v>
-      </c>
-      <c r="F51" s="59" t="n">
-        <v>0</v>
-      </c>
-      <c r="G51" s="59" t="n">
+      <c r="C51" s="57" t="n">
+        <v>-0.085</v>
+      </c>
+      <c r="D51" s="57" t="n">
+        <v>-0.8</v>
+      </c>
+      <c r="E51" s="57" t="n">
+        <v>0</v>
+      </c>
+      <c r="F51" s="58" t="n">
+        <v>0</v>
+      </c>
+      <c r="G51" s="58" t="n">
         <v>0</v>
       </c>
     </row>
     <row r="52" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A52" s="60" t="s">
+      <c r="A52" s="55" t="s">
         <v>57</v>
       </c>
-      <c r="B52" s="61" t="n">
+      <c r="B52" s="56" t="n">
         <f aca="false">B51+1</f>
         <v>51</v>
       </c>
-      <c r="C52" s="62" t="n">
-        <v>-2.84569</v>
-      </c>
-      <c r="D52" s="62" t="n">
-        <v>2.4546</v>
-      </c>
-      <c r="E52" s="62" t="n">
-        <v>0</v>
-      </c>
-      <c r="F52" s="63" t="n">
-        <v>0</v>
-      </c>
-      <c r="G52" s="63" t="n">
+      <c r="C52" s="57" t="n">
+        <v>0.085</v>
+      </c>
+      <c r="D52" s="57" t="n">
+        <v>-0.8</v>
+      </c>
+      <c r="E52" s="57" t="n">
+        <v>0</v>
+      </c>
+      <c r="F52" s="58" t="n">
+        <v>0</v>
+      </c>
+      <c r="G52" s="58" t="n">
         <v>0</v>
       </c>
     </row>
     <row r="53" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A53" s="60" t="s">
+      <c r="A53" s="55" t="s">
         <v>58</v>
       </c>
-      <c r="B53" s="61" t="n">
+      <c r="B53" s="56" t="n">
         <f aca="false">B52+1</f>
         <v>52</v>
       </c>
-      <c r="C53" s="62" t="n">
-        <v>-2.7608</v>
-      </c>
-      <c r="D53" s="62" t="n">
-        <v>-2.3894</v>
-      </c>
-      <c r="E53" s="62" t="n">
-        <v>0</v>
-      </c>
-      <c r="F53" s="63" t="n">
-        <v>0</v>
-      </c>
-      <c r="G53" s="63" t="n">
+      <c r="C53" s="57" t="n">
+        <v>0.085</v>
+      </c>
+      <c r="D53" s="57" t="n">
+        <v>0.8</v>
+      </c>
+      <c r="E53" s="57" t="n">
+        <v>0</v>
+      </c>
+      <c r="F53" s="58" t="n">
+        <v>0</v>
+      </c>
+      <c r="G53" s="58" t="n">
         <v>0</v>
       </c>
     </row>
     <row r="54" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A54" s="60" t="s">
+      <c r="A54" s="59" t="s">
         <v>59</v>
       </c>
-      <c r="B54" s="61" t="n">
+      <c r="B54" s="60" t="n">
         <f aca="false">B53+1</f>
         <v>53</v>
       </c>
-      <c r="C54" s="62" t="n">
-        <v>2.7015</v>
-      </c>
-      <c r="D54" s="62" t="n">
-        <v>-2.4284</v>
-      </c>
-      <c r="E54" s="62" t="n">
-        <v>0</v>
-      </c>
-      <c r="F54" s="63" t="n">
-        <v>0</v>
-      </c>
-      <c r="G54" s="63" t="n">
+      <c r="C54" s="61" t="n">
+        <v>-0.085</v>
+      </c>
+      <c r="D54" s="61" t="n">
+        <v>-0.938</v>
+      </c>
+      <c r="E54" s="61" t="n">
+        <v>0</v>
+      </c>
+      <c r="F54" s="62" t="n">
+        <v>0</v>
+      </c>
+      <c r="G54" s="62" t="n">
         <v>0</v>
       </c>
     </row>
     <row r="55" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A55" s="60" t="s">
+      <c r="A55" s="59" t="s">
         <v>60</v>
       </c>
-      <c r="B55" s="61" t="n">
+      <c r="B55" s="60" t="n">
         <f aca="false">B54+1</f>
         <v>54</v>
       </c>
-      <c r="C55" s="62" t="n">
-        <v>2.7949</v>
-      </c>
-      <c r="D55" s="62" t="n">
-        <v>2.4546</v>
-      </c>
-      <c r="E55" s="62" t="n">
-        <v>0</v>
-      </c>
-      <c r="F55" s="63" t="n">
-        <v>0</v>
-      </c>
-      <c r="G55" s="63" t="n">
+      <c r="C55" s="61" t="n">
+        <v>-0.085</v>
+      </c>
+      <c r="D55" s="61" t="n">
+        <v>-2.408</v>
+      </c>
+      <c r="E55" s="61" t="n">
+        <v>0</v>
+      </c>
+      <c r="F55" s="62" t="n">
+        <v>0</v>
+      </c>
+      <c r="G55" s="62" t="n">
         <v>0</v>
       </c>
     </row>
     <row r="56" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A56" s="64" t="s">
+      <c r="A56" s="59" t="s">
         <v>61</v>
       </c>
-      <c r="B56" s="65" t="n">
+      <c r="B56" s="60" t="n">
         <f aca="false">B55+1</f>
         <v>55</v>
       </c>
-      <c r="C56" s="66" t="n">
-        <v>-3.022</v>
-      </c>
-      <c r="D56" s="66" t="n">
-        <v>2.6015</v>
-      </c>
-      <c r="E56" s="66" t="n">
-        <v>0</v>
-      </c>
-      <c r="F56" s="67" t="n">
-        <v>0</v>
-      </c>
-      <c r="G56" s="67" t="n">
+      <c r="C56" s="61" t="n">
+        <v>0.085</v>
+      </c>
+      <c r="D56" s="61" t="n">
+        <v>-2.408</v>
+      </c>
+      <c r="E56" s="61" t="n">
+        <v>0</v>
+      </c>
+      <c r="F56" s="62" t="n">
+        <v>0</v>
+      </c>
+      <c r="G56" s="62" t="n">
         <v>0</v>
       </c>
     </row>
     <row r="57" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A57" s="64" t="s">
+      <c r="A57" s="59" t="s">
         <v>62</v>
       </c>
-      <c r="B57" s="65" t="n">
+      <c r="B57" s="60" t="n">
         <f aca="false">B56+1</f>
         <v>56</v>
       </c>
-      <c r="C57" s="66" t="n">
-        <v>-2.915</v>
-      </c>
-      <c r="D57" s="66" t="n">
-        <v>-2.5146</v>
-      </c>
-      <c r="E57" s="66" t="n">
-        <v>0</v>
-      </c>
-      <c r="F57" s="67" t="n">
-        <v>0</v>
-      </c>
-      <c r="G57" s="67" t="n">
+      <c r="C57" s="61" t="n">
+        <v>0.085</v>
+      </c>
+      <c r="D57" s="61" t="n">
+        <v>-0.938</v>
+      </c>
+      <c r="E57" s="61" t="n">
+        <v>0</v>
+      </c>
+      <c r="F57" s="62" t="n">
+        <v>0</v>
+      </c>
+      <c r="G57" s="62" t="n">
         <v>0</v>
       </c>
     </row>
     <row r="58" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A58" s="64" t="s">
+      <c r="A58" s="63" t="s">
         <v>63</v>
       </c>
-      <c r="B58" s="65" t="n">
+      <c r="B58" s="64" t="n">
         <f aca="false">B57+1</f>
         <v>57</v>
       </c>
-      <c r="C58" s="66" t="n">
-        <v>2.8496</v>
-      </c>
-      <c r="D58" s="66" t="n">
-        <v>-2.5146</v>
-      </c>
-      <c r="E58" s="66" t="n">
-        <v>0</v>
-      </c>
-      <c r="F58" s="67" t="n">
-        <v>0</v>
-      </c>
-      <c r="G58" s="67" t="n">
+      <c r="C58" s="65" t="n">
+        <v>-2.84569</v>
+      </c>
+      <c r="D58" s="65" t="n">
+        <v>2.4546</v>
+      </c>
+      <c r="E58" s="65" t="n">
+        <v>0</v>
+      </c>
+      <c r="F58" s="66" t="n">
+        <v>0</v>
+      </c>
+      <c r="G58" s="66" t="n">
         <v>0</v>
       </c>
     </row>
     <row r="59" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A59" s="64" t="s">
+      <c r="A59" s="63" t="s">
         <v>64</v>
       </c>
-      <c r="B59" s="65" t="n">
+      <c r="B59" s="64" t="n">
         <f aca="false">B58+1</f>
         <v>58</v>
       </c>
-      <c r="C59" s="66" t="n">
-        <v>2.971</v>
-      </c>
-      <c r="D59" s="66" t="n">
-        <v>2.6015</v>
-      </c>
-      <c r="E59" s="66" t="n">
-        <v>0</v>
-      </c>
-      <c r="F59" s="67" t="n">
-        <v>0</v>
-      </c>
-      <c r="G59" s="67" t="n">
+      <c r="C59" s="65" t="n">
+        <v>-2.7608</v>
+      </c>
+      <c r="D59" s="65" t="n">
+        <v>-2.3894</v>
+      </c>
+      <c r="E59" s="65" t="n">
+        <v>0</v>
+      </c>
+      <c r="F59" s="66" t="n">
+        <v>0</v>
+      </c>
+      <c r="G59" s="66" t="n">
         <v>0</v>
       </c>
     </row>
     <row r="60" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A60" s="68" t="s">
+      <c r="A60" s="63" t="s">
         <v>65</v>
       </c>
-      <c r="B60" s="69" t="n">
+      <c r="B60" s="64" t="n">
         <f aca="false">B59+1</f>
         <v>59</v>
       </c>
-      <c r="C60" s="70" t="n">
-        <v>-3.3343</v>
-      </c>
-      <c r="D60" s="70" t="n">
-        <v>2.78</v>
-      </c>
-      <c r="E60" s="70" t="n">
-        <v>0</v>
-      </c>
-      <c r="F60" s="71" t="n">
-        <v>0</v>
-      </c>
-      <c r="G60" s="71" t="n">
+      <c r="C60" s="65" t="n">
+        <v>2.7015</v>
+      </c>
+      <c r="D60" s="65" t="n">
+        <v>-2.4284</v>
+      </c>
+      <c r="E60" s="65" t="n">
+        <v>0</v>
+      </c>
+      <c r="F60" s="66" t="n">
+        <v>0</v>
+      </c>
+      <c r="G60" s="66" t="n">
         <v>0</v>
       </c>
     </row>
     <row r="61" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A61" s="68" t="s">
+      <c r="A61" s="63" t="s">
         <v>66</v>
       </c>
-      <c r="B61" s="69" t="n">
+      <c r="B61" s="64" t="n">
         <f aca="false">B60+1</f>
         <v>60</v>
       </c>
-      <c r="C61" s="70" t="n">
-        <v>-3.1388</v>
-      </c>
-      <c r="D61" s="70" t="n">
-        <v>-2.9209</v>
-      </c>
-      <c r="E61" s="70" t="n">
-        <v>0</v>
-      </c>
-      <c r="F61" s="71" t="n">
-        <v>0</v>
-      </c>
-      <c r="G61" s="71" t="n">
+      <c r="C61" s="65" t="n">
+        <v>2.7949</v>
+      </c>
+      <c r="D61" s="65" t="n">
+        <v>2.4546</v>
+      </c>
+      <c r="E61" s="65" t="n">
+        <v>0</v>
+      </c>
+      <c r="F61" s="66" t="n">
+        <v>0</v>
+      </c>
+      <c r="G61" s="66" t="n">
         <v>0</v>
       </c>
     </row>
     <row r="62" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A62" s="68" t="s">
+      <c r="A62" s="67" t="s">
         <v>67</v>
       </c>
-      <c r="B62" s="69" t="n">
+      <c r="B62" s="68" t="n">
         <f aca="false">B61+1</f>
         <v>61</v>
       </c>
-      <c r="C62" s="70" t="n">
-        <v>3.1388</v>
-      </c>
-      <c r="D62" s="70" t="n">
-        <v>-2.9209</v>
-      </c>
-      <c r="E62" s="70" t="n">
-        <v>0</v>
-      </c>
-      <c r="F62" s="71" t="n">
-        <v>0</v>
-      </c>
-      <c r="G62" s="71" t="n">
+      <c r="C62" s="69" t="n">
+        <v>-3.022</v>
+      </c>
+      <c r="D62" s="69" t="n">
+        <v>2.6015</v>
+      </c>
+      <c r="E62" s="69" t="n">
+        <v>0</v>
+      </c>
+      <c r="F62" s="70" t="n">
+        <v>0</v>
+      </c>
+      <c r="G62" s="70" t="n">
         <v>0</v>
       </c>
     </row>
     <row r="63" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A63" s="68" t="s">
+      <c r="A63" s="67" t="s">
         <v>68</v>
       </c>
-      <c r="B63" s="69" t="n">
+      <c r="B63" s="68" t="n">
         <f aca="false">B62+1</f>
         <v>62</v>
       </c>
-      <c r="C63" s="70" t="n">
-        <v>3.3343</v>
-      </c>
-      <c r="D63" s="70" t="n">
-        <v>2.78</v>
-      </c>
-      <c r="E63" s="70" t="n">
-        <v>0</v>
-      </c>
-      <c r="F63" s="71" t="n">
-        <v>0</v>
-      </c>
-      <c r="G63" s="71" t="n">
+      <c r="C63" s="69" t="n">
+        <v>-2.915</v>
+      </c>
+      <c r="D63" s="69" t="n">
+        <v>-2.5146</v>
+      </c>
+      <c r="E63" s="69" t="n">
+        <v>0</v>
+      </c>
+      <c r="F63" s="70" t="n">
+        <v>0</v>
+      </c>
+      <c r="G63" s="70" t="n">
         <v>0</v>
       </c>
     </row>
     <row r="64" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A64" s="72" t="s">
+      <c r="A64" s="67" t="s">
         <v>69</v>
       </c>
-      <c r="B64" s="73" t="n">
+      <c r="B64" s="68" t="n">
         <f aca="false">B63+1</f>
         <v>63</v>
       </c>
-      <c r="C64" s="74" t="n">
-        <v>-2.2</v>
-      </c>
-      <c r="D64" s="74" t="n">
-        <v>1.94</v>
-      </c>
-      <c r="E64" s="74" t="n">
-        <v>0</v>
-      </c>
-      <c r="F64" s="71" t="n">
-        <v>0</v>
-      </c>
-      <c r="G64" s="71" t="n">
+      <c r="C64" s="69" t="n">
+        <v>2.8496</v>
+      </c>
+      <c r="D64" s="69" t="n">
+        <v>-2.5146</v>
+      </c>
+      <c r="E64" s="69" t="n">
+        <v>0</v>
+      </c>
+      <c r="F64" s="70" t="n">
+        <v>0</v>
+      </c>
+      <c r="G64" s="70" t="n">
         <v>0</v>
       </c>
     </row>
     <row r="65" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A65" s="72" t="s">
+      <c r="A65" s="67" t="s">
         <v>70</v>
       </c>
-      <c r="B65" s="73" t="n">
+      <c r="B65" s="68" t="n">
         <f aca="false">B64+1</f>
         <v>64</v>
       </c>
-      <c r="C65" s="74" t="n">
-        <v>2.18</v>
-      </c>
-      <c r="D65" s="74" t="n">
-        <v>1.94</v>
-      </c>
-      <c r="E65" s="74" t="n">
-        <v>0</v>
-      </c>
-      <c r="F65" s="71" t="n">
-        <v>0</v>
-      </c>
-      <c r="G65" s="71" t="n">
+      <c r="C65" s="69" t="n">
+        <v>2.971</v>
+      </c>
+      <c r="D65" s="69" t="n">
+        <v>2.6015</v>
+      </c>
+      <c r="E65" s="69" t="n">
+        <v>0</v>
+      </c>
+      <c r="F65" s="70" t="n">
+        <v>0</v>
+      </c>
+      <c r="G65" s="70" t="n">
         <v>0</v>
       </c>
     </row>
     <row r="66" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A66" s="28" t="s">
+      <c r="A66" s="71" t="s">
         <v>71</v>
       </c>
-      <c r="B66" s="29" t="n">
+      <c r="B66" s="72" t="n">
         <f aca="false">B65+1</f>
         <v>65</v>
       </c>
-      <c r="C66" s="30" t="n">
-        <f aca="false">C68-1</f>
-        <v>-1.96</v>
-      </c>
-      <c r="D66" s="30" t="n">
-        <v>0.22</v>
-      </c>
-      <c r="E66" s="30" t="n">
-        <v>0</v>
-      </c>
-      <c r="F66" s="31" t="n">
-        <v>0</v>
-      </c>
-      <c r="G66" s="31" t="n">
+      <c r="C66" s="73" t="n">
+        <v>-3.3343</v>
+      </c>
+      <c r="D66" s="73" t="n">
+        <v>2.78</v>
+      </c>
+      <c r="E66" s="73" t="n">
+        <v>0</v>
+      </c>
+      <c r="F66" s="74" t="n">
+        <v>0</v>
+      </c>
+      <c r="G66" s="74" t="n">
         <v>0</v>
       </c>
     </row>
     <row r="67" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A67" s="28" t="s">
+      <c r="A67" s="71" t="s">
         <v>72</v>
       </c>
-      <c r="B67" s="29" t="n">
+      <c r="B67" s="72" t="n">
         <f aca="false">B66+1</f>
         <v>66</v>
       </c>
-      <c r="C67" s="30" t="n">
-        <v>-1.96</v>
-      </c>
-      <c r="D67" s="30" t="n">
-        <f aca="false">D66-1.05</f>
-        <v>-0.83</v>
-      </c>
-      <c r="E67" s="30" t="n">
-        <v>0</v>
-      </c>
-      <c r="F67" s="31" t="n">
-        <v>0</v>
-      </c>
-      <c r="G67" s="31" t="n">
+      <c r="C67" s="73" t="n">
+        <v>-3.1388</v>
+      </c>
+      <c r="D67" s="73" t="n">
+        <v>-2.9209</v>
+      </c>
+      <c r="E67" s="73" t="n">
+        <v>0</v>
+      </c>
+      <c r="F67" s="74" t="n">
+        <v>0</v>
+      </c>
+      <c r="G67" s="74" t="n">
         <v>0</v>
       </c>
     </row>
     <row r="68" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A68" s="28" t="s">
+      <c r="A68" s="71" t="s">
         <v>73</v>
       </c>
-      <c r="B68" s="29" t="n">
+      <c r="B68" s="72" t="n">
         <f aca="false">B67+1</f>
         <v>67</v>
       </c>
-      <c r="C68" s="30" t="n">
-        <v>-0.96</v>
-      </c>
-      <c r="D68" s="30" t="n">
-        <v>-0.83</v>
-      </c>
-      <c r="E68" s="30" t="n">
-        <v>0</v>
-      </c>
-      <c r="F68" s="31" t="n">
-        <v>0</v>
-      </c>
-      <c r="G68" s="31" t="n">
+      <c r="C68" s="73" t="n">
+        <v>3.1388</v>
+      </c>
+      <c r="D68" s="73" t="n">
+        <v>-2.9209</v>
+      </c>
+      <c r="E68" s="73" t="n">
+        <v>0</v>
+      </c>
+      <c r="F68" s="74" t="n">
+        <v>0</v>
+      </c>
+      <c r="G68" s="74" t="n">
         <v>0</v>
       </c>
     </row>
     <row r="69" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A69" s="28" t="s">
+      <c r="A69" s="71" t="s">
         <v>74</v>
       </c>
-      <c r="B69" s="29" t="n">
+      <c r="B69" s="72" t="n">
         <f aca="false">B68+1</f>
         <v>68</v>
       </c>
-      <c r="C69" s="30" t="n">
-        <v>-0.96</v>
-      </c>
-      <c r="D69" s="30" t="n">
-        <v>0.22</v>
-      </c>
-      <c r="E69" s="30" t="n">
-        <v>0</v>
-      </c>
-      <c r="F69" s="31" t="n">
-        <v>0</v>
-      </c>
-      <c r="G69" s="31" t="n">
+      <c r="C69" s="73" t="n">
+        <v>3.3343</v>
+      </c>
+      <c r="D69" s="73" t="n">
+        <v>2.78</v>
+      </c>
+      <c r="E69" s="73" t="n">
+        <v>0</v>
+      </c>
+      <c r="F69" s="74" t="n">
+        <v>0</v>
+      </c>
+      <c r="G69" s="74" t="n">
         <v>0</v>
       </c>
     </row>
     <row r="70" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A70" s="36" t="s">
+      <c r="A70" s="75" t="s">
         <v>75</v>
       </c>
-      <c r="B70" s="37" t="n">
+      <c r="B70" s="76" t="n">
         <f aca="false">B69+1</f>
         <v>69</v>
       </c>
-      <c r="C70" s="38" t="n">
-        <v>-3.08</v>
-      </c>
-      <c r="D70" s="38" t="n">
-        <v>-0.16</v>
-      </c>
-      <c r="E70" s="38" t="n">
-        <v>0</v>
-      </c>
-      <c r="F70" s="39" t="n">
-        <v>0</v>
-      </c>
-      <c r="G70" s="39" t="n">
+      <c r="C70" s="77" t="n">
+        <v>-2.2</v>
+      </c>
+      <c r="D70" s="77" t="n">
+        <v>1.94</v>
+      </c>
+      <c r="E70" s="77" t="n">
+        <v>0</v>
+      </c>
+      <c r="F70" s="74" t="n">
+        <v>0</v>
+      </c>
+      <c r="G70" s="74" t="n">
         <v>0</v>
       </c>
     </row>
     <row r="71" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A71" s="36" t="s">
+      <c r="A71" s="75" t="s">
         <v>76</v>
       </c>
-      <c r="B71" s="37" t="n">
+      <c r="B71" s="76" t="n">
         <f aca="false">B70+1</f>
         <v>70</v>
       </c>
-      <c r="C71" s="38" t="n">
-        <f aca="false">C72-0.83</f>
-        <v>-3.08</v>
-      </c>
-      <c r="D71" s="38" t="n">
-        <v>-1.67</v>
-      </c>
-      <c r="E71" s="38" t="n">
-        <v>0</v>
-      </c>
-      <c r="F71" s="39" t="n">
-        <v>0</v>
-      </c>
-      <c r="G71" s="39" t="n">
+      <c r="C71" s="77" t="n">
+        <v>2.18</v>
+      </c>
+      <c r="D71" s="77" t="n">
+        <v>1.94</v>
+      </c>
+      <c r="E71" s="77" t="n">
+        <v>0</v>
+      </c>
+      <c r="F71" s="74" t="n">
+        <v>0</v>
+      </c>
+      <c r="G71" s="74" t="n">
         <v>0</v>
       </c>
     </row>
     <row r="72" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A72" s="36" t="s">
+      <c r="A72" s="28" t="s">
         <v>77</v>
       </c>
-      <c r="B72" s="37" t="n">
+      <c r="B72" s="29" t="n">
         <f aca="false">B71+1</f>
         <v>71</v>
       </c>
-      <c r="C72" s="38" t="n">
-        <v>-2.25</v>
-      </c>
-      <c r="D72" s="38" t="n">
-        <f aca="false">D73-1.51</f>
-        <v>-1.67</v>
-      </c>
-      <c r="E72" s="38" t="n">
-        <v>0</v>
-      </c>
-      <c r="F72" s="39" t="n">
-        <v>0</v>
-      </c>
-      <c r="G72" s="39" t="n">
+      <c r="C72" s="30" t="n">
+        <f aca="false">C74-1</f>
+        <v>-1.96</v>
+      </c>
+      <c r="D72" s="30" t="n">
+        <v>0.22</v>
+      </c>
+      <c r="E72" s="30" t="n">
+        <v>0</v>
+      </c>
+      <c r="F72" s="31" t="n">
+        <v>0</v>
+      </c>
+      <c r="G72" s="31" t="n">
         <v>0</v>
       </c>
     </row>
     <row r="73" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A73" s="36" t="s">
+      <c r="A73" s="28" t="s">
         <v>78</v>
       </c>
-      <c r="B73" s="37" t="n">
+      <c r="B73" s="29" t="n">
         <f aca="false">B72+1</f>
         <v>72</v>
       </c>
-      <c r="C73" s="38" t="n">
-        <v>-2.25</v>
-      </c>
-      <c r="D73" s="38" t="n">
-        <v>-0.16</v>
-      </c>
-      <c r="E73" s="38" t="n">
-        <v>0</v>
-      </c>
-      <c r="F73" s="39" t="n">
-        <v>0</v>
-      </c>
-      <c r="G73" s="39" t="n">
+      <c r="C73" s="30" t="n">
+        <v>-1.96</v>
+      </c>
+      <c r="D73" s="30" t="n">
+        <f aca="false">D72-1.05</f>
+        <v>-0.83</v>
+      </c>
+      <c r="E73" s="30" t="n">
+        <v>0</v>
+      </c>
+      <c r="F73" s="31" t="n">
+        <v>0</v>
+      </c>
+      <c r="G73" s="31" t="n">
         <v>0</v>
       </c>
     </row>
     <row r="74" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A74" s="75" t="s">
+      <c r="A74" s="28" t="s">
         <v>79</v>
       </c>
-      <c r="B74" s="76" t="n">
+      <c r="B74" s="29" t="n">
         <f aca="false">B73+1</f>
         <v>73</v>
       </c>
-      <c r="C74" s="77" t="n">
-        <v>-1.93</v>
-      </c>
-      <c r="D74" s="77" t="n">
-        <v>-1.64</v>
-      </c>
-      <c r="E74" s="77" t="n">
-        <v>0</v>
-      </c>
-      <c r="F74" s="78" t="n">
-        <v>0</v>
-      </c>
-      <c r="G74" s="78" t="n">
+      <c r="C74" s="30" t="n">
+        <v>-0.96</v>
+      </c>
+      <c r="D74" s="30" t="n">
+        <v>-0.83</v>
+      </c>
+      <c r="E74" s="30" t="n">
+        <v>0</v>
+      </c>
+      <c r="F74" s="31" t="n">
+        <v>0</v>
+      </c>
+      <c r="G74" s="31" t="n">
         <v>0</v>
       </c>
     </row>
     <row r="75" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A75" s="75" t="s">
+      <c r="A75" s="28" t="s">
         <v>80</v>
       </c>
-      <c r="B75" s="76" t="n">
+      <c r="B75" s="29" t="n">
         <f aca="false">B74+1</f>
         <v>74</v>
       </c>
-      <c r="C75" s="77" t="n">
-        <v>-1.93</v>
-      </c>
-      <c r="D75" s="77" t="n">
-        <v>-2.73</v>
-      </c>
-      <c r="E75" s="77" t="n">
-        <v>0</v>
-      </c>
-      <c r="F75" s="78" t="n">
-        <v>0</v>
-      </c>
-      <c r="G75" s="78" t="n">
+      <c r="C75" s="30" t="n">
+        <v>-0.96</v>
+      </c>
+      <c r="D75" s="30" t="n">
+        <v>0.22</v>
+      </c>
+      <c r="E75" s="30" t="n">
+        <v>0</v>
+      </c>
+      <c r="F75" s="31" t="n">
+        <v>0</v>
+      </c>
+      <c r="G75" s="31" t="n">
         <v>0</v>
       </c>
     </row>
     <row r="76" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A76" s="75" t="s">
+      <c r="A76" s="36" t="s">
         <v>81</v>
       </c>
-      <c r="B76" s="76" t="n">
+      <c r="B76" s="37" t="n">
         <f aca="false">B75+1</f>
         <v>75</v>
       </c>
-      <c r="C76" s="77" t="n">
-        <v>-1</v>
-      </c>
-      <c r="D76" s="77" t="n">
-        <f aca="false">D77-1.09</f>
-        <v>-2.73</v>
-      </c>
-      <c r="E76" s="77" t="n">
-        <v>0</v>
-      </c>
-      <c r="F76" s="78" t="n">
-        <v>0</v>
-      </c>
-      <c r="G76" s="78" t="n">
+      <c r="C76" s="38" t="n">
+        <v>-3.08</v>
+      </c>
+      <c r="D76" s="38" t="n">
+        <v>-0.16</v>
+      </c>
+      <c r="E76" s="38" t="n">
+        <v>0</v>
+      </c>
+      <c r="F76" s="39" t="n">
+        <v>0</v>
+      </c>
+      <c r="G76" s="39" t="n">
         <v>0</v>
       </c>
     </row>
     <row r="77" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A77" s="75" t="s">
+      <c r="A77" s="36" t="s">
         <v>82</v>
       </c>
-      <c r="B77" s="76" t="n">
+      <c r="B77" s="37" t="n">
         <f aca="false">B76+1</f>
         <v>76</v>
       </c>
-      <c r="C77" s="77" t="n">
-        <v>-1</v>
-      </c>
-      <c r="D77" s="77" t="n">
-        <v>-1.64</v>
-      </c>
-      <c r="E77" s="77" t="n">
-        <v>0</v>
-      </c>
-      <c r="F77" s="78" t="n">
-        <v>0</v>
-      </c>
-      <c r="G77" s="78" t="n">
+      <c r="C77" s="38" t="n">
+        <f aca="false">C78-0.83</f>
+        <v>-3.08</v>
+      </c>
+      <c r="D77" s="38" t="n">
+        <v>-1.67</v>
+      </c>
+      <c r="E77" s="38" t="n">
+        <v>0</v>
+      </c>
+      <c r="F77" s="39" t="n">
+        <v>0</v>
+      </c>
+      <c r="G77" s="39" t="n">
         <v>0</v>
       </c>
     </row>
     <row r="78" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A78" s="79" t="s">
+      <c r="A78" s="36" t="s">
         <v>83</v>
       </c>
-      <c r="B78" s="80" t="n">
+      <c r="B78" s="37" t="n">
         <f aca="false">B77+1</f>
         <v>77</v>
       </c>
-      <c r="C78" s="81" t="n">
-        <v>2.26</v>
-      </c>
-      <c r="D78" s="81" t="n">
-        <v>-0.16</v>
-      </c>
-      <c r="E78" s="81" t="n">
-        <v>0</v>
-      </c>
-      <c r="F78" s="82" t="n">
-        <v>0</v>
-      </c>
-      <c r="G78" s="82" t="n">
+      <c r="C78" s="38" t="n">
+        <v>-2.25</v>
+      </c>
+      <c r="D78" s="38" t="n">
+        <f aca="false">D79-1.51</f>
+        <v>-1.67</v>
+      </c>
+      <c r="E78" s="38" t="n">
+        <v>0</v>
+      </c>
+      <c r="F78" s="39" t="n">
+        <v>0</v>
+      </c>
+      <c r="G78" s="39" t="n">
         <v>0</v>
       </c>
     </row>
     <row r="79" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A79" s="79" t="s">
+      <c r="A79" s="36" t="s">
         <v>84</v>
       </c>
-      <c r="B79" s="80" t="n">
+      <c r="B79" s="37" t="n">
         <f aca="false">B78+1</f>
         <v>78</v>
       </c>
-      <c r="C79" s="81" t="n">
-        <v>2.26</v>
-      </c>
-      <c r="D79" s="81" t="n">
-        <f aca="false">D78-1.49</f>
-        <v>-1.65</v>
-      </c>
-      <c r="E79" s="81" t="n">
-        <v>0</v>
-      </c>
-      <c r="F79" s="82" t="n">
-        <v>0</v>
-      </c>
-      <c r="G79" s="82" t="n">
+      <c r="C79" s="38" t="n">
+        <v>-2.25</v>
+      </c>
+      <c r="D79" s="38" t="n">
+        <v>-0.16</v>
+      </c>
+      <c r="E79" s="38" t="n">
+        <v>0</v>
+      </c>
+      <c r="F79" s="39" t="n">
+        <v>0</v>
+      </c>
+      <c r="G79" s="39" t="n">
         <v>0</v>
       </c>
     </row>
     <row r="80" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A80" s="79" t="s">
+      <c r="A80" s="78" t="s">
         <v>85</v>
       </c>
-      <c r="B80" s="80" t="n">
+      <c r="B80" s="79" t="n">
         <f aca="false">B79+1</f>
         <v>79</v>
       </c>
-      <c r="C80" s="81" t="n">
+      <c r="C80" s="80" t="n">
+        <v>-1.93</v>
+      </c>
+      <c r="D80" s="80" t="n">
+        <v>-1.64</v>
+      </c>
+      <c r="E80" s="80" t="n">
+        <v>0</v>
+      </c>
+      <c r="F80" s="81" t="n">
+        <v>0</v>
+      </c>
+      <c r="G80" s="81" t="n">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="81" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A81" s="78" t="s">
+        <v>86</v>
+      </c>
+      <c r="B81" s="79" t="n">
+        <f aca="false">B80+1</f>
+        <v>80</v>
+      </c>
+      <c r="C81" s="80" t="n">
+        <v>-1.93</v>
+      </c>
+      <c r="D81" s="80" t="n">
+        <v>-2.73</v>
+      </c>
+      <c r="E81" s="80" t="n">
+        <v>0</v>
+      </c>
+      <c r="F81" s="81" t="n">
+        <v>0</v>
+      </c>
+      <c r="G81" s="81" t="n">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="82" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A82" s="78" t="s">
+        <v>87</v>
+      </c>
+      <c r="B82" s="79" t="n">
+        <f aca="false">B81+1</f>
+        <v>81</v>
+      </c>
+      <c r="C82" s="80" t="n">
+        <v>-1</v>
+      </c>
+      <c r="D82" s="80" t="n">
+        <f aca="false">D83-1.09</f>
+        <v>-2.73</v>
+      </c>
+      <c r="E82" s="80" t="n">
+        <v>0</v>
+      </c>
+      <c r="F82" s="81" t="n">
+        <v>0</v>
+      </c>
+      <c r="G82" s="81" t="n">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="83" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A83" s="78" t="s">
+        <v>88</v>
+      </c>
+      <c r="B83" s="79" t="n">
+        <f aca="false">B82+1</f>
+        <v>82</v>
+      </c>
+      <c r="C83" s="80" t="n">
+        <v>-1</v>
+      </c>
+      <c r="D83" s="80" t="n">
+        <v>-1.64</v>
+      </c>
+      <c r="E83" s="80" t="n">
+        <v>0</v>
+      </c>
+      <c r="F83" s="81" t="n">
+        <v>0</v>
+      </c>
+      <c r="G83" s="81" t="n">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="84" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A84" s="82" t="s">
+        <v>89</v>
+      </c>
+      <c r="B84" s="83" t="n">
+        <f aca="false">B83+1</f>
+        <v>83</v>
+      </c>
+      <c r="C84" s="84" t="n">
+        <v>2.26</v>
+      </c>
+      <c r="D84" s="84" t="n">
+        <v>-0.16</v>
+      </c>
+      <c r="E84" s="84" t="n">
+        <v>0</v>
+      </c>
+      <c r="F84" s="85" t="n">
+        <v>0</v>
+      </c>
+      <c r="G84" s="85" t="n">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="85" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A85" s="82" t="s">
+        <v>90</v>
+      </c>
+      <c r="B85" s="83" t="n">
+        <f aca="false">B84+1</f>
+        <v>84</v>
+      </c>
+      <c r="C85" s="84" t="n">
+        <v>2.26</v>
+      </c>
+      <c r="D85" s="84" t="n">
+        <f aca="false">D84-1.49</f>
+        <v>-1.65</v>
+      </c>
+      <c r="E85" s="84" t="n">
+        <v>0</v>
+      </c>
+      <c r="F85" s="85" t="n">
+        <v>0</v>
+      </c>
+      <c r="G85" s="85" t="n">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="86" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A86" s="82" t="s">
+        <v>91</v>
+      </c>
+      <c r="B86" s="83" t="n">
+        <f aca="false">B85+1</f>
+        <v>85</v>
+      </c>
+      <c r="C86" s="84" t="n">
         <f aca="false">2.26+0.83</f>
         <v>3.09</v>
       </c>
-      <c r="D80" s="81" t="n">
-        <f aca="false">D79</f>
+      <c r="D86" s="84" t="n">
+        <f aca="false">D85</f>
         <v>-1.65</v>
       </c>
-      <c r="E80" s="81" t="n">
-        <v>0</v>
-      </c>
-      <c r="F80" s="82" t="n">
-        <v>0</v>
-      </c>
-      <c r="G80" s="82" t="n">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="81" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A81" s="79" t="s">
+      <c r="E86" s="84" t="n">
+        <v>0</v>
+      </c>
+      <c r="F86" s="85" t="n">
+        <v>0</v>
+      </c>
+      <c r="G86" s="85" t="n">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="87" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A87" s="82" t="s">
+        <v>92</v>
+      </c>
+      <c r="B87" s="83" t="n">
+        <f aca="false">B86+1</f>
         <v>86</v>
       </c>
-      <c r="B81" s="80" t="n">
-        <f aca="false">B80+1</f>
-        <v>80</v>
-      </c>
-      <c r="C81" s="81" t="n">
+      <c r="C87" s="84" t="n">
         <f aca="false">2.26+0.83</f>
         <v>3.09</v>
       </c>
-      <c r="D81" s="81" t="n">
+      <c r="D87" s="84" t="n">
         <v>-0.16</v>
       </c>
-      <c r="E81" s="81" t="n">
-        <v>0</v>
-      </c>
-      <c r="F81" s="82" t="n">
-        <v>0</v>
-      </c>
-      <c r="G81" s="82" t="n">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="82" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A82" s="56" t="s">
+      <c r="E87" s="84" t="n">
+        <v>0</v>
+      </c>
+      <c r="F87" s="85" t="n">
+        <v>0</v>
+      </c>
+      <c r="G87" s="85" t="n">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="88" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A88" s="59" t="s">
+        <v>93</v>
+      </c>
+      <c r="B88" s="60" t="n">
+        <f aca="false">B87+1</f>
         <v>87</v>
       </c>
-      <c r="B82" s="57" t="n">
-        <f aca="false">B81+1</f>
-        <v>81</v>
-      </c>
-      <c r="C82" s="58" t="n">
-        <v>0</v>
-      </c>
-      <c r="D82" s="58" t="n">
+      <c r="C88" s="61" t="n">
+        <v>0</v>
+      </c>
+      <c r="D88" s="61" t="n">
         <v>-2.9217</v>
       </c>
-      <c r="E82" s="58" t="n">
+      <c r="E88" s="61" t="n">
         <v>-0.546</v>
       </c>
-      <c r="F82" s="59" t="n">
-        <v>0</v>
-      </c>
-      <c r="G82" s="59" t="n">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="83" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A83" s="52" t="s">
+      <c r="F88" s="62" t="n">
+        <v>0</v>
+      </c>
+      <c r="G88" s="62" t="n">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="89" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A89" s="55" t="s">
+        <v>94</v>
+      </c>
+      <c r="B89" s="60" t="n">
+        <f aca="false">B88+1</f>
         <v>88</v>
       </c>
-      <c r="B83" s="57" t="n">
-        <f aca="false">B82+1</f>
-        <v>82</v>
-      </c>
-      <c r="C83" s="54" t="n">
+      <c r="C89" s="57" t="n">
         <v>-3.1634</v>
       </c>
-      <c r="D83" s="54" t="n">
+      <c r="D89" s="57" t="n">
         <v>-2.9565</v>
       </c>
-      <c r="E83" s="54" t="n">
+      <c r="E89" s="57" t="n">
         <v>-0.9233</v>
       </c>
-      <c r="F83" s="55" t="n">
-        <v>0</v>
-      </c>
-      <c r="G83" s="55" t="n">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="84" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A84" s="52" t="s">
+      <c r="F89" s="58" t="n">
+        <v>0</v>
+      </c>
+      <c r="G89" s="58" t="n">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="90" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A90" s="55" t="s">
+        <v>95</v>
+      </c>
+      <c r="B90" s="60" t="n">
+        <f aca="false">B89+1</f>
         <v>89</v>
       </c>
-      <c r="B84" s="57" t="n">
-        <f aca="false">B83+1</f>
-        <v>83</v>
-      </c>
-      <c r="C84" s="54" t="n">
+      <c r="C90" s="57" t="n">
         <v>-3.0852</v>
       </c>
-      <c r="D84" s="54" t="n">
+      <c r="D90" s="57" t="n">
         <v>-2.7843</v>
       </c>
-      <c r="E84" s="54" t="n">
+      <c r="E90" s="57" t="n">
         <v>-2.0292</v>
       </c>
-      <c r="F84" s="55" t="n">
-        <v>0</v>
-      </c>
-      <c r="G84" s="55" t="n">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="85" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A85" s="52" t="s">
+      <c r="F90" s="58" t="n">
+        <v>0</v>
+      </c>
+      <c r="G90" s="58" t="n">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="91" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A91" s="55" t="s">
+        <v>96</v>
+      </c>
+      <c r="B91" s="60" t="n">
+        <f aca="false">B90+1</f>
         <v>90</v>
       </c>
-      <c r="B85" s="57" t="n">
-        <f aca="false">B84+1</f>
-        <v>84</v>
-      </c>
-      <c r="C85" s="54" t="n">
+      <c r="C91" s="57" t="n">
         <v>3.085</v>
       </c>
-      <c r="D85" s="54" t="n">
+      <c r="D91" s="57" t="n">
         <v>-2.784</v>
       </c>
-      <c r="E85" s="54" t="n">
+      <c r="E91" s="57" t="n">
         <v>-2.029</v>
       </c>
-      <c r="F85" s="55" t="n">
-        <v>0</v>
-      </c>
-      <c r="G85" s="55" t="n">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="86" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A86" s="52" t="s">
+      <c r="F91" s="58" t="n">
+        <v>0</v>
+      </c>
+      <c r="G91" s="58" t="n">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="92" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A92" s="55" t="s">
+        <v>97</v>
+      </c>
+      <c r="B92" s="60" t="n">
+        <f aca="false">B91+1</f>
         <v>91</v>
       </c>
-      <c r="B86" s="57" t="n">
-        <f aca="false">B85+1</f>
-        <v>85</v>
-      </c>
-      <c r="C86" s="54" t="n">
+      <c r="C92" s="57" t="n">
         <v>3.163</v>
       </c>
-      <c r="D86" s="54" t="n">
+      <c r="D92" s="57" t="n">
         <v>-2.957</v>
       </c>
-      <c r="E86" s="54" t="n">
+      <c r="E92" s="57" t="n">
         <v>0.923</v>
       </c>
-      <c r="F86" s="55" t="n">
-        <v>0</v>
-      </c>
-      <c r="G86" s="55" t="n">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="87" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A87" s="83"/>
-      <c r="B87" s="84"/>
-      <c r="C87" s="85"/>
-      <c r="D87" s="85"/>
-      <c r="E87" s="85"/>
-      <c r="F87" s="86"/>
-      <c r="G87" s="86"/>
-    </row>
-    <row r="88" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A88" s="83"/>
-      <c r="B88" s="84"/>
-      <c r="C88" s="85"/>
-      <c r="D88" s="85"/>
-      <c r="E88" s="85"/>
-      <c r="F88" s="86"/>
-      <c r="G88" s="86"/>
-    </row>
-    <row r="89" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A89" s="83"/>
-      <c r="B89" s="84"/>
-      <c r="C89" s="85"/>
-      <c r="D89" s="85"/>
-      <c r="E89" s="85"/>
-      <c r="F89" s="86"/>
-      <c r="G89" s="86"/>
-    </row>
-    <row r="90" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A90" s="83"/>
-      <c r="B90" s="84"/>
-      <c r="C90" s="85"/>
-      <c r="D90" s="85"/>
-      <c r="E90" s="85"/>
-      <c r="F90" s="86"/>
-      <c r="G90" s="86"/>
-    </row>
-    <row r="91" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A91" s="83"/>
-      <c r="B91" s="84"/>
-      <c r="C91" s="85"/>
-      <c r="D91" s="85"/>
-      <c r="E91" s="85"/>
-      <c r="F91" s="86"/>
-      <c r="G91" s="86"/>
-    </row>
-    <row r="92" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A92" s="83"/>
-      <c r="B92" s="84"/>
-      <c r="C92" s="85"/>
-      <c r="D92" s="85"/>
-      <c r="E92" s="85"/>
-      <c r="F92" s="86"/>
-      <c r="G92" s="86"/>
+      <c r="F92" s="58" t="n">
+        <v>0</v>
+      </c>
+      <c r="G92" s="58" t="n">
+        <v>0</v>
+      </c>
     </row>
     <row r="93" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A93" s="87"/>
-      <c r="B93" s="88"/>
-      <c r="C93" s="89"/>
-      <c r="D93" s="89"/>
-      <c r="E93" s="89"/>
-      <c r="F93" s="90"/>
-      <c r="G93" s="90"/>
+      <c r="A93" s="86"/>
+      <c r="B93" s="87"/>
+      <c r="C93" s="88"/>
+      <c r="D93" s="88"/>
+      <c r="E93" s="88"/>
+      <c r="F93" s="89"/>
+      <c r="G93" s="89"/>
     </row>
     <row r="94" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A94" s="87"/>
-      <c r="B94" s="88"/>
-      <c r="C94" s="89"/>
-      <c r="D94" s="89"/>
-      <c r="E94" s="89"/>
-      <c r="F94" s="90"/>
-      <c r="G94" s="90"/>
+      <c r="A94" s="86"/>
+      <c r="B94" s="87"/>
+      <c r="C94" s="88"/>
+      <c r="D94" s="88"/>
+      <c r="E94" s="88"/>
+      <c r="F94" s="89"/>
+      <c r="G94" s="89"/>
     </row>
     <row r="95" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A95" s="87"/>
-      <c r="B95" s="88"/>
-      <c r="C95" s="89"/>
-      <c r="D95" s="89"/>
-      <c r="E95" s="89"/>
-      <c r="F95" s="90"/>
-      <c r="G95" s="90"/>
+      <c r="A95" s="86"/>
+      <c r="B95" s="87"/>
+      <c r="C95" s="88"/>
+      <c r="D95" s="88"/>
+      <c r="E95" s="88"/>
+      <c r="F95" s="89"/>
+      <c r="G95" s="89"/>
     </row>
     <row r="96" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A96" s="87"/>
-      <c r="B96" s="88"/>
-      <c r="C96" s="89"/>
-      <c r="D96" s="89"/>
-      <c r="E96" s="89"/>
-      <c r="F96" s="90"/>
-      <c r="G96" s="90"/>
+      <c r="A96" s="86"/>
+      <c r="B96" s="87"/>
+      <c r="C96" s="88"/>
+      <c r="D96" s="88"/>
+      <c r="E96" s="88"/>
+      <c r="F96" s="89"/>
+      <c r="G96" s="89"/>
     </row>
     <row r="97" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A97" s="87"/>
-      <c r="B97" s="88"/>
-      <c r="C97" s="89"/>
-      <c r="D97" s="89"/>
-      <c r="E97" s="89"/>
-      <c r="F97" s="90"/>
-      <c r="G97" s="90"/>
+      <c r="A97" s="86"/>
+      <c r="B97" s="87"/>
+      <c r="C97" s="88"/>
+      <c r="D97" s="88"/>
+      <c r="E97" s="88"/>
+      <c r="F97" s="89"/>
+      <c r="G97" s="89"/>
     </row>
     <row r="98" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A98" s="87"/>
-      <c r="B98" s="88"/>
-      <c r="C98" s="89"/>
-      <c r="D98" s="89"/>
-      <c r="E98" s="89"/>
-      <c r="F98" s="90"/>
-      <c r="G98" s="90"/>
+      <c r="A98" s="86"/>
+      <c r="B98" s="87"/>
+      <c r="C98" s="88"/>
+      <c r="D98" s="88"/>
+      <c r="E98" s="88"/>
+      <c r="F98" s="89"/>
+      <c r="G98" s="89"/>
     </row>
     <row r="99" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A99" s="87"/>
-      <c r="B99" s="88"/>
-      <c r="C99" s="89"/>
-      <c r="D99" s="89"/>
-      <c r="E99" s="89"/>
-      <c r="F99" s="90"/>
-      <c r="G99" s="90"/>
+      <c r="A99" s="90"/>
+      <c r="B99" s="91"/>
+      <c r="C99" s="92"/>
+      <c r="D99" s="92"/>
+      <c r="E99" s="92"/>
+      <c r="F99" s="93"/>
+      <c r="G99" s="93"/>
     </row>
     <row r="100" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A100" s="87"/>
-      <c r="B100" s="88"/>
-      <c r="C100" s="89"/>
-      <c r="D100" s="89"/>
-      <c r="E100" s="89"/>
-      <c r="F100" s="90"/>
-      <c r="G100" s="90"/>
+      <c r="A100" s="90"/>
+      <c r="B100" s="91"/>
+      <c r="C100" s="92"/>
+      <c r="D100" s="92"/>
+      <c r="E100" s="92"/>
+      <c r="F100" s="93"/>
+      <c r="G100" s="93"/>
     </row>
     <row r="101" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A101" s="87"/>
-      <c r="B101" s="88"/>
-      <c r="C101" s="89"/>
-      <c r="D101" s="89"/>
-      <c r="E101" s="89"/>
-      <c r="F101" s="90"/>
-      <c r="G101" s="90"/>
+      <c r="A101" s="90"/>
+      <c r="B101" s="91"/>
+      <c r="C101" s="92"/>
+      <c r="D101" s="92"/>
+      <c r="E101" s="92"/>
+      <c r="F101" s="93"/>
+      <c r="G101" s="93"/>
     </row>
     <row r="102" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A102" s="87"/>
-      <c r="B102" s="88"/>
-      <c r="C102" s="89"/>
-      <c r="D102" s="89"/>
-      <c r="E102" s="89"/>
-      <c r="F102" s="90"/>
-      <c r="G102" s="90"/>
+      <c r="A102" s="90"/>
+      <c r="B102" s="91"/>
+      <c r="C102" s="92"/>
+      <c r="D102" s="92"/>
+      <c r="E102" s="92"/>
+      <c r="F102" s="93"/>
+      <c r="G102" s="93"/>
     </row>
     <row r="103" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A103" s="87"/>
-      <c r="B103" s="88"/>
-      <c r="C103" s="89"/>
-      <c r="D103" s="89"/>
-      <c r="E103" s="89"/>
-      <c r="F103" s="90"/>
-      <c r="G103" s="90"/>
+      <c r="A103" s="90"/>
+      <c r="B103" s="91"/>
+      <c r="C103" s="92"/>
+      <c r="D103" s="92"/>
+      <c r="E103" s="92"/>
+      <c r="F103" s="93"/>
+      <c r="G103" s="93"/>
     </row>
     <row r="104" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A104" s="87"/>
-      <c r="B104" s="88"/>
-      <c r="C104" s="89"/>
-      <c r="D104" s="89"/>
-      <c r="E104" s="89"/>
-      <c r="F104" s="90"/>
-      <c r="G104" s="90"/>
+      <c r="A104" s="90"/>
+      <c r="B104" s="91"/>
+      <c r="C104" s="92"/>
+      <c r="D104" s="92"/>
+      <c r="E104" s="92"/>
+      <c r="F104" s="93"/>
+      <c r="G104" s="93"/>
     </row>
     <row r="105" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A105" s="87"/>
-      <c r="B105" s="88"/>
-      <c r="C105" s="89"/>
-      <c r="D105" s="89"/>
-      <c r="E105" s="89"/>
-      <c r="F105" s="90"/>
-      <c r="G105" s="90"/>
+      <c r="A105" s="90"/>
+      <c r="B105" s="91"/>
+      <c r="C105" s="92"/>
+      <c r="D105" s="92"/>
+      <c r="E105" s="92"/>
+      <c r="F105" s="93"/>
+      <c r="G105" s="93"/>
     </row>
     <row r="106" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A106" s="87"/>
-      <c r="B106" s="88"/>
-      <c r="C106" s="89"/>
-      <c r="D106" s="89"/>
-      <c r="E106" s="89"/>
-      <c r="F106" s="90"/>
-      <c r="G106" s="90"/>
+      <c r="A106" s="90"/>
+      <c r="B106" s="91"/>
+      <c r="C106" s="92"/>
+      <c r="D106" s="92"/>
+      <c r="E106" s="92"/>
+      <c r="F106" s="93"/>
+      <c r="G106" s="93"/>
     </row>
     <row r="107" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A107" s="87"/>
-      <c r="B107" s="88"/>
-      <c r="C107" s="89"/>
-      <c r="D107" s="89"/>
-      <c r="E107" s="89"/>
-      <c r="F107" s="90"/>
-      <c r="G107" s="90"/>
+      <c r="A107" s="90"/>
+      <c r="B107" s="91"/>
+      <c r="C107" s="92"/>
+      <c r="D107" s="92"/>
+      <c r="E107" s="92"/>
+      <c r="F107" s="93"/>
+      <c r="G107" s="93"/>
     </row>
     <row r="108" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A108" s="87"/>
-      <c r="B108" s="88"/>
-      <c r="C108" s="89"/>
-      <c r="D108" s="89"/>
-      <c r="E108" s="89"/>
-      <c r="F108" s="90"/>
-      <c r="G108" s="90"/>
+      <c r="A108" s="90"/>
+      <c r="B108" s="91"/>
+      <c r="C108" s="92"/>
+      <c r="D108" s="92"/>
+      <c r="E108" s="92"/>
+      <c r="F108" s="93"/>
+      <c r="G108" s="93"/>
     </row>
     <row r="109" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A109" s="87"/>
-      <c r="B109" s="88"/>
-      <c r="C109" s="89"/>
-      <c r="D109" s="89"/>
-      <c r="E109" s="89"/>
-      <c r="F109" s="90"/>
-      <c r="G109" s="90"/>
+      <c r="A109" s="90"/>
+      <c r="B109" s="91"/>
+      <c r="C109" s="92"/>
+      <c r="D109" s="92"/>
+      <c r="E109" s="92"/>
+      <c r="F109" s="93"/>
+      <c r="G109" s="93"/>
     </row>
     <row r="110" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A110" s="87"/>
-      <c r="B110" s="88"/>
-      <c r="C110" s="89"/>
-      <c r="D110" s="89"/>
-      <c r="E110" s="89"/>
-      <c r="F110" s="90"/>
-      <c r="G110" s="90"/>
+      <c r="A110" s="90"/>
+      <c r="B110" s="91"/>
+      <c r="C110" s="92"/>
+      <c r="D110" s="92"/>
+      <c r="E110" s="92"/>
+      <c r="F110" s="93"/>
+      <c r="G110" s="93"/>
     </row>
     <row r="111" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A111" s="87"/>
-      <c r="B111" s="88"/>
-      <c r="C111" s="89"/>
-      <c r="D111" s="89"/>
-      <c r="E111" s="89"/>
-      <c r="F111" s="90"/>
-      <c r="G111" s="90"/>
+      <c r="A111" s="90"/>
+      <c r="B111" s="91"/>
+      <c r="C111" s="92"/>
+      <c r="D111" s="92"/>
+      <c r="E111" s="92"/>
+      <c r="F111" s="93"/>
+      <c r="G111" s="93"/>
     </row>
     <row r="112" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A112" s="87"/>
-      <c r="B112" s="88"/>
-      <c r="C112" s="89"/>
-      <c r="D112" s="89"/>
-      <c r="E112" s="89"/>
-      <c r="F112" s="90"/>
-      <c r="G112" s="90"/>
+      <c r="A112" s="90"/>
+      <c r="B112" s="91"/>
+      <c r="C112" s="92"/>
+      <c r="D112" s="92"/>
+      <c r="E112" s="92"/>
+      <c r="F112" s="93"/>
+      <c r="G112" s="93"/>
     </row>
     <row r="113" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A113" s="87"/>
-      <c r="B113" s="88"/>
-      <c r="C113" s="89"/>
-      <c r="D113" s="89"/>
-      <c r="E113" s="89"/>
-      <c r="F113" s="90"/>
-      <c r="G113" s="90"/>
+      <c r="A113" s="90"/>
+      <c r="B113" s="91"/>
+      <c r="C113" s="92"/>
+      <c r="D113" s="92"/>
+      <c r="E113" s="92"/>
+      <c r="F113" s="93"/>
+      <c r="G113" s="93"/>
     </row>
     <row r="114" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A114" s="87"/>
-      <c r="B114" s="88"/>
-      <c r="C114" s="89"/>
-      <c r="D114" s="89"/>
-      <c r="E114" s="89"/>
-      <c r="F114" s="90"/>
-      <c r="G114" s="90"/>
+      <c r="A114" s="90"/>
+      <c r="B114" s="91"/>
+      <c r="C114" s="92"/>
+      <c r="D114" s="92"/>
+      <c r="E114" s="92"/>
+      <c r="F114" s="93"/>
+      <c r="G114" s="93"/>
     </row>
     <row r="115" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A115" s="87"/>
-      <c r="B115" s="88"/>
-      <c r="C115" s="89"/>
-      <c r="D115" s="89"/>
-      <c r="E115" s="89"/>
-      <c r="F115" s="90"/>
-      <c r="G115" s="90"/>
+      <c r="A115" s="90"/>
+      <c r="B115" s="91"/>
+      <c r="C115" s="92"/>
+      <c r="D115" s="92"/>
+      <c r="E115" s="92"/>
+      <c r="F115" s="93"/>
+      <c r="G115" s="93"/>
     </row>
     <row r="116" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A116" s="87"/>
-      <c r="B116" s="88"/>
-      <c r="C116" s="89"/>
-      <c r="D116" s="89"/>
-      <c r="E116" s="89"/>
-      <c r="F116" s="90"/>
-      <c r="G116" s="90"/>
+      <c r="A116" s="90"/>
+      <c r="B116" s="91"/>
+      <c r="C116" s="92"/>
+      <c r="D116" s="92"/>
+      <c r="E116" s="92"/>
+      <c r="F116" s="93"/>
+      <c r="G116" s="93"/>
     </row>
     <row r="117" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A117" s="87"/>
-      <c r="B117" s="88"/>
-      <c r="C117" s="89"/>
-      <c r="D117" s="89"/>
-      <c r="E117" s="89"/>
-      <c r="F117" s="90"/>
-      <c r="G117" s="90"/>
+      <c r="A117" s="90"/>
+      <c r="B117" s="91"/>
+      <c r="C117" s="92"/>
+      <c r="D117" s="92"/>
+      <c r="E117" s="92"/>
+      <c r="F117" s="93"/>
+      <c r="G117" s="93"/>
     </row>
     <row r="118" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A118" s="87"/>
-      <c r="B118" s="88"/>
-      <c r="C118" s="89"/>
-      <c r="D118" s="89"/>
-      <c r="E118" s="89"/>
-      <c r="F118" s="90"/>
-      <c r="G118" s="90"/>
+      <c r="A118" s="90"/>
+      <c r="B118" s="91"/>
+      <c r="C118" s="92"/>
+      <c r="D118" s="92"/>
+      <c r="E118" s="92"/>
+      <c r="F118" s="93"/>
+      <c r="G118" s="93"/>
     </row>
     <row r="119" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A119" s="87"/>
-      <c r="B119" s="88"/>
-      <c r="C119" s="89"/>
-      <c r="D119" s="89"/>
-      <c r="E119" s="89"/>
-      <c r="F119" s="90"/>
-      <c r="G119" s="90"/>
+      <c r="A119" s="90"/>
+      <c r="B119" s="91"/>
+      <c r="C119" s="92"/>
+      <c r="D119" s="92"/>
+      <c r="E119" s="92"/>
+      <c r="F119" s="93"/>
+      <c r="G119" s="93"/>
     </row>
     <row r="120" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A120" s="87"/>
-      <c r="B120" s="88"/>
-      <c r="C120" s="89"/>
-      <c r="D120" s="89"/>
-      <c r="E120" s="89"/>
-      <c r="F120" s="90"/>
-      <c r="G120" s="90"/>
+      <c r="A120" s="90"/>
+      <c r="B120" s="91"/>
+      <c r="C120" s="92"/>
+      <c r="D120" s="92"/>
+      <c r="E120" s="92"/>
+      <c r="F120" s="93"/>
+      <c r="G120" s="93"/>
     </row>
     <row r="121" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A121" s="87"/>
-      <c r="B121" s="88"/>
-      <c r="C121" s="89"/>
-      <c r="D121" s="89"/>
-      <c r="E121" s="89"/>
-      <c r="F121" s="90"/>
-      <c r="G121" s="90"/>
+      <c r="A121" s="90"/>
+      <c r="B121" s="91"/>
+      <c r="C121" s="92"/>
+      <c r="D121" s="92"/>
+      <c r="E121" s="92"/>
+      <c r="F121" s="93"/>
+      <c r="G121" s="93"/>
     </row>
     <row r="122" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A122" s="87"/>
-      <c r="B122" s="88"/>
-      <c r="C122" s="89"/>
-      <c r="D122" s="89"/>
-      <c r="E122" s="89"/>
-      <c r="F122" s="90"/>
-      <c r="G122" s="90"/>
+      <c r="A122" s="90"/>
+      <c r="B122" s="91"/>
+      <c r="C122" s="92"/>
+      <c r="D122" s="92"/>
+      <c r="E122" s="92"/>
+      <c r="F122" s="93"/>
+      <c r="G122" s="93"/>
     </row>
     <row r="123" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A123" s="87"/>
-      <c r="B123" s="88"/>
-      <c r="C123" s="89"/>
-      <c r="D123" s="89"/>
-      <c r="E123" s="89"/>
-      <c r="F123" s="90"/>
-      <c r="G123" s="90"/>
+      <c r="A123" s="90"/>
+      <c r="B123" s="91"/>
+      <c r="C123" s="92"/>
+      <c r="D123" s="92"/>
+      <c r="E123" s="92"/>
+      <c r="F123" s="93"/>
+      <c r="G123" s="93"/>
     </row>
     <row r="124" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A124" s="87"/>
-      <c r="B124" s="88"/>
-      <c r="C124" s="89"/>
-      <c r="D124" s="89"/>
-      <c r="E124" s="89"/>
-      <c r="F124" s="90"/>
-      <c r="G124" s="90"/>
+      <c r="A124" s="90"/>
+      <c r="B124" s="91"/>
+      <c r="C124" s="92"/>
+      <c r="D124" s="92"/>
+      <c r="E124" s="92"/>
+      <c r="F124" s="93"/>
+      <c r="G124" s="93"/>
     </row>
     <row r="125" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A125" s="87"/>
-      <c r="B125" s="88"/>
-      <c r="C125" s="89"/>
-      <c r="D125" s="89"/>
-      <c r="E125" s="89"/>
-      <c r="F125" s="90"/>
-      <c r="G125" s="90"/>
+      <c r="A125" s="90"/>
+      <c r="B125" s="91"/>
+      <c r="C125" s="92"/>
+      <c r="D125" s="92"/>
+      <c r="E125" s="92"/>
+      <c r="F125" s="93"/>
+      <c r="G125" s="93"/>
     </row>
     <row r="126" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A126" s="87"/>
-      <c r="B126" s="88"/>
-      <c r="C126" s="89"/>
-      <c r="D126" s="89"/>
-      <c r="E126" s="89"/>
-      <c r="F126" s="90"/>
-      <c r="G126" s="90"/>
+      <c r="A126" s="90"/>
+      <c r="B126" s="91"/>
+      <c r="C126" s="92"/>
+      <c r="D126" s="92"/>
+      <c r="E126" s="92"/>
+      <c r="F126" s="93"/>
+      <c r="G126" s="93"/>
     </row>
     <row r="127" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A127" s="87"/>
-      <c r="B127" s="88"/>
-      <c r="C127" s="89"/>
-      <c r="D127" s="89"/>
-      <c r="E127" s="89"/>
-      <c r="F127" s="90"/>
-      <c r="G127" s="90"/>
+      <c r="A127" s="90"/>
+      <c r="B127" s="91"/>
+      <c r="C127" s="92"/>
+      <c r="D127" s="92"/>
+      <c r="E127" s="92"/>
+      <c r="F127" s="93"/>
+      <c r="G127" s="93"/>
     </row>
     <row r="128" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A128" s="87"/>
-      <c r="B128" s="88"/>
-      <c r="C128" s="89"/>
-      <c r="D128" s="89"/>
-      <c r="E128" s="89"/>
-      <c r="F128" s="90"/>
-      <c r="G128" s="90"/>
+      <c r="A128" s="90"/>
+      <c r="B128" s="91"/>
+      <c r="C128" s="92"/>
+      <c r="D128" s="92"/>
+      <c r="E128" s="92"/>
+      <c r="F128" s="93"/>
+      <c r="G128" s="93"/>
     </row>
     <row r="129" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A129" s="87"/>
-      <c r="B129" s="88"/>
-      <c r="C129" s="89"/>
-      <c r="D129" s="89"/>
-      <c r="E129" s="89"/>
-      <c r="F129" s="90"/>
-      <c r="G129" s="90"/>
+      <c r="A129" s="90"/>
+      <c r="B129" s="91"/>
+      <c r="C129" s="92"/>
+      <c r="D129" s="92"/>
+      <c r="E129" s="92"/>
+      <c r="F129" s="93"/>
+      <c r="G129" s="93"/>
     </row>
     <row r="130" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A130" s="87"/>
-      <c r="B130" s="88"/>
-      <c r="C130" s="89"/>
-      <c r="D130" s="89"/>
-      <c r="E130" s="89"/>
-      <c r="F130" s="90"/>
-      <c r="G130" s="90"/>
+      <c r="A130" s="90"/>
+      <c r="B130" s="91"/>
+      <c r="C130" s="92"/>
+      <c r="D130" s="92"/>
+      <c r="E130" s="92"/>
+      <c r="F130" s="93"/>
+      <c r="G130" s="93"/>
     </row>
     <row r="131" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A131" s="87"/>
-      <c r="B131" s="88"/>
-      <c r="C131" s="89"/>
-      <c r="D131" s="89"/>
-      <c r="E131" s="89"/>
-      <c r="F131" s="90"/>
-      <c r="G131" s="90"/>
+      <c r="A131" s="90"/>
+      <c r="B131" s="91"/>
+      <c r="C131" s="92"/>
+      <c r="D131" s="92"/>
+      <c r="E131" s="92"/>
+      <c r="F131" s="93"/>
+      <c r="G131" s="93"/>
     </row>
     <row r="132" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A132" s="87"/>
-      <c r="B132" s="88"/>
-      <c r="C132" s="89"/>
-      <c r="D132" s="89"/>
-      <c r="E132" s="89"/>
-      <c r="F132" s="90"/>
-      <c r="G132" s="90"/>
+      <c r="A132" s="90"/>
+      <c r="B132" s="91"/>
+      <c r="C132" s="92"/>
+      <c r="D132" s="92"/>
+      <c r="E132" s="92"/>
+      <c r="F132" s="93"/>
+      <c r="G132" s="93"/>
     </row>
     <row r="133" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A133" s="87"/>
-      <c r="B133" s="88"/>
-      <c r="C133" s="89"/>
-      <c r="D133" s="89"/>
-      <c r="E133" s="89"/>
-      <c r="F133" s="90"/>
-      <c r="G133" s="90"/>
+      <c r="A133" s="90"/>
+      <c r="B133" s="91"/>
+      <c r="C133" s="92"/>
+      <c r="D133" s="92"/>
+      <c r="E133" s="92"/>
+      <c r="F133" s="93"/>
+      <c r="G133" s="93"/>
     </row>
     <row r="134" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A134" s="87"/>
-      <c r="B134" s="88"/>
-      <c r="C134" s="89"/>
-      <c r="D134" s="89"/>
-      <c r="E134" s="89"/>
-      <c r="F134" s="90"/>
-      <c r="G134" s="90"/>
+      <c r="A134" s="90"/>
+      <c r="B134" s="91"/>
+      <c r="C134" s="92"/>
+      <c r="D134" s="92"/>
+      <c r="E134" s="92"/>
+      <c r="F134" s="93"/>
+      <c r="G134" s="93"/>
     </row>
     <row r="135" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A135" s="87"/>
-      <c r="B135" s="88"/>
-      <c r="C135" s="89"/>
-      <c r="D135" s="89"/>
-      <c r="E135" s="89"/>
-      <c r="F135" s="90"/>
-      <c r="G135" s="90"/>
+      <c r="A135" s="90"/>
+      <c r="B135" s="91"/>
+      <c r="C135" s="92"/>
+      <c r="D135" s="92"/>
+      <c r="E135" s="92"/>
+      <c r="F135" s="93"/>
+      <c r="G135" s="93"/>
     </row>
     <row r="136" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A136" s="87"/>
-      <c r="B136" s="88"/>
-      <c r="C136" s="89"/>
-      <c r="D136" s="89"/>
-      <c r="E136" s="89"/>
-      <c r="F136" s="90"/>
-      <c r="G136" s="90"/>
+      <c r="A136" s="90"/>
+      <c r="B136" s="91"/>
+      <c r="C136" s="92"/>
+      <c r="D136" s="92"/>
+      <c r="E136" s="92"/>
+      <c r="F136" s="93"/>
+      <c r="G136" s="93"/>
     </row>
     <row r="137" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A137" s="87"/>
-      <c r="B137" s="88"/>
-      <c r="C137" s="89"/>
-      <c r="D137" s="89"/>
-      <c r="E137" s="89"/>
-      <c r="F137" s="90"/>
-      <c r="G137" s="90"/>
+      <c r="A137" s="90"/>
+      <c r="B137" s="91"/>
+      <c r="C137" s="92"/>
+      <c r="D137" s="92"/>
+      <c r="E137" s="92"/>
+      <c r="F137" s="93"/>
+      <c r="G137" s="93"/>
     </row>
     <row r="138" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A138" s="87"/>
-      <c r="B138" s="88"/>
-      <c r="C138" s="89"/>
-      <c r="D138" s="89"/>
-      <c r="E138" s="89"/>
-      <c r="F138" s="90"/>
-      <c r="G138" s="90"/>
+      <c r="A138" s="90"/>
+      <c r="B138" s="91"/>
+      <c r="C138" s="92"/>
+      <c r="D138" s="92"/>
+      <c r="E138" s="92"/>
+      <c r="F138" s="93"/>
+      <c r="G138" s="93"/>
     </row>
     <row r="139" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A139" s="87"/>
-      <c r="B139" s="88"/>
-      <c r="C139" s="89"/>
-      <c r="D139" s="89"/>
-      <c r="E139" s="89"/>
-      <c r="F139" s="90"/>
-      <c r="G139" s="90"/>
+      <c r="A139" s="90"/>
+      <c r="B139" s="91"/>
+      <c r="C139" s="92"/>
+      <c r="D139" s="92"/>
+      <c r="E139" s="92"/>
+      <c r="F139" s="93"/>
+      <c r="G139" s="93"/>
     </row>
     <row r="140" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A140" s="87"/>
-      <c r="B140" s="88"/>
-      <c r="C140" s="89"/>
-      <c r="D140" s="89"/>
-      <c r="E140" s="89"/>
-      <c r="F140" s="90"/>
-      <c r="G140" s="90"/>
+      <c r="A140" s="90"/>
+      <c r="B140" s="91"/>
+      <c r="C140" s="92"/>
+      <c r="D140" s="92"/>
+      <c r="E140" s="92"/>
+      <c r="F140" s="93"/>
+      <c r="G140" s="93"/>
     </row>
     <row r="141" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A141" s="87"/>
-      <c r="B141" s="88"/>
-      <c r="C141" s="89"/>
-      <c r="D141" s="89"/>
-      <c r="E141" s="89"/>
-      <c r="F141" s="90"/>
-      <c r="G141" s="90"/>
+      <c r="A141" s="90"/>
+      <c r="B141" s="91"/>
+      <c r="C141" s="92"/>
+      <c r="D141" s="92"/>
+      <c r="E141" s="92"/>
+      <c r="F141" s="93"/>
+      <c r="G141" s="93"/>
     </row>
     <row r="142" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A142" s="87"/>
-      <c r="B142" s="88"/>
-      <c r="C142" s="89"/>
-      <c r="D142" s="89"/>
-      <c r="E142" s="89"/>
-      <c r="F142" s="90"/>
-      <c r="G142" s="90"/>
+      <c r="A142" s="90"/>
+      <c r="B142" s="91"/>
+      <c r="C142" s="92"/>
+      <c r="D142" s="92"/>
+      <c r="E142" s="92"/>
+      <c r="F142" s="93"/>
+      <c r="G142" s="93"/>
     </row>
     <row r="143" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A143" s="87"/>
-      <c r="B143" s="88"/>
-      <c r="C143" s="89"/>
-      <c r="D143" s="89"/>
-      <c r="E143" s="89"/>
-      <c r="F143" s="90"/>
-      <c r="G143" s="90"/>
+      <c r="A143" s="90"/>
+      <c r="B143" s="91"/>
+      <c r="C143" s="92"/>
+      <c r="D143" s="92"/>
+      <c r="E143" s="92"/>
+      <c r="F143" s="93"/>
+      <c r="G143" s="93"/>
     </row>
     <row r="144" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A144" s="87"/>
-      <c r="B144" s="88"/>
-      <c r="C144" s="89"/>
-      <c r="D144" s="89"/>
-      <c r="E144" s="89"/>
-      <c r="F144" s="90"/>
-      <c r="G144" s="90"/>
+      <c r="A144" s="90"/>
+      <c r="B144" s="91"/>
+      <c r="C144" s="92"/>
+      <c r="D144" s="92"/>
+      <c r="E144" s="92"/>
+      <c r="F144" s="93"/>
+      <c r="G144" s="93"/>
     </row>
     <row r="145" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A145" s="87"/>
-      <c r="B145" s="88"/>
-      <c r="C145" s="89"/>
-      <c r="D145" s="89"/>
-      <c r="E145" s="89"/>
-      <c r="F145" s="90"/>
-      <c r="G145" s="90"/>
+      <c r="A145" s="90"/>
+      <c r="B145" s="91"/>
+      <c r="C145" s="92"/>
+      <c r="D145" s="92"/>
+      <c r="E145" s="92"/>
+      <c r="F145" s="93"/>
+      <c r="G145" s="93"/>
     </row>
     <row r="146" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A146" s="87"/>
-      <c r="B146" s="88"/>
-      <c r="C146" s="89"/>
-      <c r="D146" s="89"/>
-      <c r="E146" s="89"/>
-      <c r="F146" s="90"/>
-      <c r="G146" s="90"/>
+      <c r="A146" s="90"/>
+      <c r="B146" s="91"/>
+      <c r="C146" s="92"/>
+      <c r="D146" s="92"/>
+      <c r="E146" s="92"/>
+      <c r="F146" s="93"/>
+      <c r="G146" s="93"/>
     </row>
     <row r="147" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A147" s="87"/>
-      <c r="B147" s="88"/>
-      <c r="C147" s="89"/>
-      <c r="D147" s="89"/>
-      <c r="E147" s="89"/>
-      <c r="F147" s="90"/>
-      <c r="G147" s="90"/>
+      <c r="A147" s="90"/>
+      <c r="B147" s="91"/>
+      <c r="C147" s="92"/>
+      <c r="D147" s="92"/>
+      <c r="E147" s="92"/>
+      <c r="F147" s="93"/>
+      <c r="G147" s="93"/>
     </row>
     <row r="148" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A148" s="87"/>
-      <c r="B148" s="88"/>
-      <c r="C148" s="89"/>
-      <c r="D148" s="89"/>
-      <c r="E148" s="89"/>
-      <c r="F148" s="90"/>
-      <c r="G148" s="90"/>
+      <c r="A148" s="90"/>
+      <c r="B148" s="91"/>
+      <c r="C148" s="92"/>
+      <c r="D148" s="92"/>
+      <c r="E148" s="92"/>
+      <c r="F148" s="93"/>
+      <c r="G148" s="93"/>
     </row>
     <row r="149" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A149" s="87"/>
-      <c r="B149" s="88"/>
-      <c r="C149" s="89"/>
-      <c r="D149" s="89"/>
-      <c r="E149" s="89"/>
-      <c r="F149" s="90"/>
-      <c r="G149" s="90"/>
+      <c r="A149" s="90"/>
+      <c r="B149" s="91"/>
+      <c r="C149" s="92"/>
+      <c r="D149" s="92"/>
+      <c r="E149" s="92"/>
+      <c r="F149" s="93"/>
+      <c r="G149" s="93"/>
     </row>
     <row r="150" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A150" s="87"/>
-      <c r="B150" s="88"/>
-      <c r="C150" s="89"/>
-      <c r="D150" s="89"/>
-      <c r="E150" s="89"/>
-      <c r="F150" s="90"/>
-      <c r="G150" s="90"/>
+      <c r="A150" s="90"/>
+      <c r="B150" s="91"/>
+      <c r="C150" s="92"/>
+      <c r="D150" s="92"/>
+      <c r="E150" s="92"/>
+      <c r="F150" s="93"/>
+      <c r="G150" s="93"/>
     </row>
     <row r="151" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A151" s="87"/>
-      <c r="B151" s="88"/>
-      <c r="C151" s="89"/>
-      <c r="D151" s="89"/>
-      <c r="E151" s="89"/>
-      <c r="F151" s="90"/>
-      <c r="G151" s="90"/>
+      <c r="A151" s="90"/>
+      <c r="B151" s="91"/>
+      <c r="C151" s="92"/>
+      <c r="D151" s="92"/>
+      <c r="E151" s="92"/>
+      <c r="F151" s="93"/>
+      <c r="G151" s="93"/>
     </row>
     <row r="152" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A152" s="87"/>
-      <c r="B152" s="88"/>
-      <c r="C152" s="89"/>
-      <c r="D152" s="89"/>
-      <c r="E152" s="89"/>
-      <c r="F152" s="90"/>
-      <c r="G152" s="90"/>
+      <c r="A152" s="90"/>
+      <c r="B152" s="91"/>
+      <c r="C152" s="92"/>
+      <c r="D152" s="92"/>
+      <c r="E152" s="92"/>
+      <c r="F152" s="93"/>
+      <c r="G152" s="93"/>
     </row>
     <row r="153" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A153" s="87"/>
-      <c r="B153" s="88"/>
-      <c r="C153" s="89"/>
-      <c r="D153" s="89"/>
-      <c r="E153" s="89"/>
-      <c r="F153" s="90"/>
-      <c r="G153" s="90"/>
+      <c r="A153" s="90"/>
+      <c r="B153" s="91"/>
+      <c r="C153" s="92"/>
+      <c r="D153" s="92"/>
+      <c r="E153" s="92"/>
+      <c r="F153" s="93"/>
+      <c r="G153" s="93"/>
     </row>
     <row r="154" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A154" s="87"/>
-      <c r="B154" s="88"/>
-      <c r="C154" s="89"/>
-      <c r="D154" s="89"/>
-      <c r="E154" s="89"/>
-      <c r="F154" s="90"/>
-      <c r="G154" s="90"/>
+      <c r="A154" s="90"/>
+      <c r="B154" s="91"/>
+      <c r="C154" s="92"/>
+      <c r="D154" s="92"/>
+      <c r="E154" s="92"/>
+      <c r="F154" s="93"/>
+      <c r="G154" s="93"/>
     </row>
     <row r="155" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A155" s="87"/>
-      <c r="B155" s="88"/>
-      <c r="C155" s="89"/>
-      <c r="D155" s="89"/>
-      <c r="E155" s="89"/>
-      <c r="F155" s="90"/>
-      <c r="G155" s="90"/>
+      <c r="A155" s="90"/>
+      <c r="B155" s="91"/>
+      <c r="C155" s="92"/>
+      <c r="D155" s="92"/>
+      <c r="E155" s="92"/>
+      <c r="F155" s="93"/>
+      <c r="G155" s="93"/>
     </row>
     <row r="156" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A156" s="87"/>
-      <c r="B156" s="88"/>
-      <c r="C156" s="89"/>
-      <c r="D156" s="89"/>
-      <c r="E156" s="89"/>
-      <c r="F156" s="90"/>
-      <c r="G156" s="90"/>
+      <c r="A156" s="90"/>
+      <c r="B156" s="91"/>
+      <c r="C156" s="92"/>
+      <c r="D156" s="92"/>
+      <c r="E156" s="92"/>
+      <c r="F156" s="93"/>
+      <c r="G156" s="93"/>
     </row>
     <row r="157" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A157" s="87"/>
-      <c r="B157" s="88"/>
-      <c r="C157" s="89"/>
-      <c r="D157" s="89"/>
-      <c r="E157" s="89"/>
-      <c r="F157" s="90"/>
-      <c r="G157" s="90"/>
+      <c r="A157" s="90"/>
+      <c r="B157" s="91"/>
+      <c r="C157" s="92"/>
+      <c r="D157" s="92"/>
+      <c r="E157" s="92"/>
+      <c r="F157" s="93"/>
+      <c r="G157" s="93"/>
     </row>
     <row r="158" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A158" s="87"/>
-      <c r="B158" s="88"/>
-      <c r="C158" s="88"/>
-      <c r="D158" s="88"/>
-      <c r="E158" s="88"/>
-      <c r="F158" s="90"/>
-      <c r="G158" s="90"/>
+      <c r="A158" s="90"/>
+      <c r="B158" s="91"/>
+      <c r="C158" s="92"/>
+      <c r="D158" s="92"/>
+      <c r="E158" s="92"/>
+      <c r="F158" s="93"/>
+      <c r="G158" s="93"/>
     </row>
     <row r="159" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A159" s="87"/>
-      <c r="B159" s="88"/>
-      <c r="C159" s="88"/>
-      <c r="D159" s="88"/>
-      <c r="E159" s="88"/>
-      <c r="F159" s="90"/>
-      <c r="G159" s="90"/>
+      <c r="A159" s="90"/>
+      <c r="B159" s="91"/>
+      <c r="C159" s="92"/>
+      <c r="D159" s="92"/>
+      <c r="E159" s="92"/>
+      <c r="F159" s="93"/>
+      <c r="G159" s="93"/>
     </row>
     <row r="160" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A160" s="87"/>
-      <c r="B160" s="88"/>
-      <c r="C160" s="88"/>
-      <c r="D160" s="88"/>
-      <c r="E160" s="88"/>
-      <c r="F160" s="90"/>
-      <c r="G160" s="90"/>
+      <c r="A160" s="90"/>
+      <c r="B160" s="91"/>
+      <c r="C160" s="92"/>
+      <c r="D160" s="92"/>
+      <c r="E160" s="92"/>
+      <c r="F160" s="93"/>
+      <c r="G160" s="93"/>
     </row>
     <row r="161" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A161" s="87"/>
-      <c r="B161" s="88"/>
-      <c r="C161" s="88"/>
-      <c r="D161" s="88"/>
-      <c r="E161" s="88"/>
-      <c r="F161" s="90"/>
-      <c r="G161" s="90"/>
+      <c r="A161" s="90"/>
+      <c r="B161" s="91"/>
+      <c r="C161" s="92"/>
+      <c r="D161" s="92"/>
+      <c r="E161" s="92"/>
+      <c r="F161" s="93"/>
+      <c r="G161" s="93"/>
     </row>
     <row r="162" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A162" s="87"/>
-      <c r="B162" s="88"/>
-      <c r="C162" s="88"/>
-      <c r="D162" s="88"/>
-      <c r="E162" s="88"/>
-      <c r="F162" s="90"/>
-      <c r="G162" s="90"/>
+      <c r="A162" s="90"/>
+      <c r="B162" s="91"/>
+      <c r="C162" s="92"/>
+      <c r="D162" s="92"/>
+      <c r="E162" s="92"/>
+      <c r="F162" s="93"/>
+      <c r="G162" s="93"/>
     </row>
     <row r="163" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A163" s="87"/>
-      <c r="B163" s="88"/>
-      <c r="C163" s="88"/>
-      <c r="D163" s="88"/>
-      <c r="E163" s="88"/>
-      <c r="F163" s="90"/>
-      <c r="G163" s="90"/>
+      <c r="A163" s="90"/>
+      <c r="B163" s="91"/>
+      <c r="C163" s="92"/>
+      <c r="D163" s="92"/>
+      <c r="E163" s="92"/>
+      <c r="F163" s="93"/>
+      <c r="G163" s="93"/>
     </row>
     <row r="164" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A164" s="87"/>
-      <c r="B164" s="88"/>
-      <c r="C164" s="88"/>
-      <c r="D164" s="88"/>
-      <c r="E164" s="88"/>
-      <c r="F164" s="90"/>
-      <c r="G164" s="90"/>
+      <c r="A164" s="90"/>
+      <c r="B164" s="91"/>
+      <c r="C164" s="91"/>
+      <c r="D164" s="91"/>
+      <c r="E164" s="91"/>
+      <c r="F164" s="93"/>
+      <c r="G164" s="93"/>
     </row>
     <row r="165" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A165" s="87"/>
-      <c r="B165" s="88"/>
-      <c r="C165" s="88"/>
-      <c r="D165" s="88"/>
-      <c r="E165" s="88"/>
-      <c r="F165" s="90"/>
-      <c r="G165" s="90"/>
+      <c r="A165" s="90"/>
+      <c r="B165" s="91"/>
+      <c r="C165" s="91"/>
+      <c r="D165" s="91"/>
+      <c r="E165" s="91"/>
+      <c r="F165" s="93"/>
+      <c r="G165" s="93"/>
     </row>
     <row r="166" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A166" s="87"/>
-      <c r="B166" s="88"/>
-      <c r="C166" s="88"/>
-      <c r="D166" s="88"/>
-      <c r="E166" s="88"/>
-      <c r="F166" s="90"/>
-      <c r="G166" s="90"/>
+      <c r="A166" s="90"/>
+      <c r="B166" s="91"/>
+      <c r="C166" s="91"/>
+      <c r="D166" s="91"/>
+      <c r="E166" s="91"/>
+      <c r="F166" s="93"/>
+      <c r="G166" s="93"/>
     </row>
     <row r="167" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A167" s="87"/>
-      <c r="B167" s="88"/>
-      <c r="C167" s="88"/>
-      <c r="D167" s="88"/>
-      <c r="E167" s="88"/>
-      <c r="F167" s="90"/>
-      <c r="G167" s="90"/>
+      <c r="A167" s="90"/>
+      <c r="B167" s="91"/>
+      <c r="C167" s="91"/>
+      <c r="D167" s="91"/>
+      <c r="E167" s="91"/>
+      <c r="F167" s="93"/>
+      <c r="G167" s="93"/>
     </row>
     <row r="168" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A168" s="87"/>
-      <c r="B168" s="88"/>
-      <c r="C168" s="88"/>
-      <c r="D168" s="88"/>
-      <c r="E168" s="88"/>
-      <c r="F168" s="90"/>
-      <c r="G168" s="90"/>
+      <c r="A168" s="90"/>
+      <c r="B168" s="91"/>
+      <c r="C168" s="91"/>
+      <c r="D168" s="91"/>
+      <c r="E168" s="91"/>
+      <c r="F168" s="93"/>
+      <c r="G168" s="93"/>
     </row>
     <row r="169" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="B169" s="2"/>
-      <c r="G169" s="90"/>
+      <c r="A169" s="90"/>
+      <c r="B169" s="91"/>
+      <c r="C169" s="91"/>
+      <c r="D169" s="91"/>
+      <c r="E169" s="91"/>
+      <c r="F169" s="93"/>
+      <c r="G169" s="93"/>
     </row>
     <row r="170" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="B170" s="2"/>
-      <c r="G170" s="90"/>
+      <c r="A170" s="90"/>
+      <c r="B170" s="91"/>
+      <c r="C170" s="91"/>
+      <c r="D170" s="91"/>
+      <c r="E170" s="91"/>
+      <c r="F170" s="93"/>
+      <c r="G170" s="93"/>
     </row>
     <row r="171" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="B171" s="2"/>
+      <c r="A171" s="90"/>
+      <c r="B171" s="91"/>
+      <c r="C171" s="91"/>
+      <c r="D171" s="91"/>
+      <c r="E171" s="91"/>
+      <c r="F171" s="93"/>
+      <c r="G171" s="93"/>
     </row>
     <row r="172" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="B172" s="2"/>
+      <c r="A172" s="90"/>
+      <c r="B172" s="91"/>
+      <c r="C172" s="91"/>
+      <c r="D172" s="91"/>
+      <c r="E172" s="91"/>
+      <c r="F172" s="93"/>
+      <c r="G172" s="93"/>
     </row>
     <row r="173" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="B173" s="2"/>
+      <c r="A173" s="90"/>
+      <c r="B173" s="91"/>
+      <c r="C173" s="91"/>
+      <c r="D173" s="91"/>
+      <c r="E173" s="91"/>
+      <c r="F173" s="93"/>
+      <c r="G173" s="93"/>
     </row>
     <row r="174" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="B174" s="2"/>
+      <c r="A174" s="90"/>
+      <c r="B174" s="91"/>
+      <c r="C174" s="91"/>
+      <c r="D174" s="91"/>
+      <c r="E174" s="91"/>
+      <c r="F174" s="93"/>
+      <c r="G174" s="93"/>
     </row>
     <row r="175" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="B175" s="2"/>
+      <c r="G175" s="93"/>
     </row>
     <row r="176" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="B176" s="2"/>
+      <c r="G176" s="93"/>
     </row>
     <row r="177" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="B177" s="2"/>
@@ -6858,8 +7020,26 @@
     <row r="1168" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="B1168" s="2"/>
     </row>
+    <row r="1169" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="B1169" s="2"/>
+    </row>
+    <row r="1170" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="B1170" s="2"/>
+    </row>
+    <row r="1171" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="B1171" s="2"/>
+    </row>
+    <row r="1172" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="B1172" s="2"/>
+    </row>
+    <row r="1173" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="B1173" s="2"/>
+    </row>
+    <row r="1174" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="B1174" s="2"/>
+    </row>
   </sheetData>
-  <conditionalFormatting sqref="G88:G170 F93:F152 G26:G33 G2:G25 F34:G92 F2:F33">
+  <conditionalFormatting sqref="G94:G176 F99:F158 F2:G98">
     <cfRule type="cellIs" priority="2" operator="equal" aboveAverage="0" equalAverage="0" bottom="0" percent="0" rank="0" text="" dxfId="0">
       <formula>0</formula>
     </cfRule>

--- a/pw.xlsx
+++ b/pw.xlsx
@@ -325,7 +325,7 @@
     <numFmt numFmtId="165" formatCode="0.000"/>
     <numFmt numFmtId="166" formatCode="General"/>
   </numFmts>
-  <fonts count="7">
+  <fonts count="6">
     <font>
       <sz val="11"/>
       <color rgb="FF000000"/>
@@ -362,12 +362,6 @@
       <name val="Calibri"/>
       <family val="2"/>
       <charset val="1"/>
-    </font>
-    <font>
-      <sz val="8"/>
-      <color rgb="FF000000"/>
-      <name val="Calibri"/>
-      <family val="2"/>
     </font>
   </fonts>
   <fills count="26">
@@ -572,7 +566,7 @@
       <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
     </xf>
   </cellStyleXfs>
-  <cellXfs count="94">
+  <cellXfs count="91">
     <xf numFmtId="164" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="false" applyBorder="false" applyAlignment="false" applyProtection="false">
       <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
@@ -765,10 +759,6 @@
       <alignment horizontal="center" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
     </xf>
-    <xf numFmtId="164" fontId="6" fillId="13" borderId="1" xfId="0" applyFont="true" applyBorder="true" applyAlignment="false" applyProtection="false">
-      <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
-      <protection locked="true" hidden="false"/>
-    </xf>
     <xf numFmtId="164" fontId="5" fillId="16" borderId="1" xfId="0" applyFont="true" applyBorder="true" applyAlignment="false" applyProtection="false">
       <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
@@ -782,14 +772,6 @@
       <protection locked="true" hidden="false"/>
     </xf>
     <xf numFmtId="164" fontId="0" fillId="16" borderId="1" xfId="0" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="false">
-      <alignment horizontal="center" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
-      <protection locked="true" hidden="false"/>
-    </xf>
-    <xf numFmtId="164" fontId="6" fillId="16" borderId="1" xfId="0" applyFont="true" applyBorder="true" applyAlignment="false" applyProtection="false">
-      <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
-      <protection locked="true" hidden="false"/>
-    </xf>
-    <xf numFmtId="165" fontId="6" fillId="16" borderId="1" xfId="0" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="false">
       <alignment horizontal="center" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
     </xf>
@@ -1047,11 +1029,11 @@
   </sheetPr>
   <dimension ref="A1:I1174"/>
   <sheetViews>
-    <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="true" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A22" colorId="64" zoomScale="100" zoomScaleNormal="100" zoomScalePageLayoutView="100" workbookViewId="0">
-      <selection pane="topLeft" activeCell="G50" activeCellId="0" sqref="G50"/>
+    <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="true" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A18" colorId="64" zoomScale="100" zoomScaleNormal="100" zoomScalePageLayoutView="100" workbookViewId="0">
+      <selection pane="topLeft" activeCell="F45" activeCellId="0" sqref="F45"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="8.9921875" defaultRowHeight="13.8" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
+  <sheetFormatPr defaultColWidth="9.00390625" defaultRowHeight="13.8" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
   <cols>
     <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="1" min="1" style="0" width="34.73"/>
     <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="2" min="2" style="1" width="11.11"/>
@@ -1843,7 +1825,7 @@
         <v>4.037</v>
       </c>
       <c r="F32" s="43" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="G32" s="43" t="n">
         <v>0</v>
@@ -1867,7 +1849,7 @@
         <v>4.0374</v>
       </c>
       <c r="F33" s="43" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="G33" s="43" t="n">
         <v>0</v>
@@ -2042,7 +2024,7 @@
       </c>
     </row>
     <row r="41" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A41" s="48" t="s">
+      <c r="A41" s="36" t="s">
         <v>46</v>
       </c>
       <c r="B41" s="37" t="n">
@@ -2066,7 +2048,7 @@
       </c>
     </row>
     <row r="42" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A42" s="48" t="s">
+      <c r="A42" s="36" t="s">
         <v>47</v>
       </c>
       <c r="B42" s="37" t="n">
@@ -2090,7 +2072,7 @@
       </c>
     </row>
     <row r="43" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A43" s="48" t="s">
+      <c r="A43" s="36" t="s">
         <v>48</v>
       </c>
       <c r="B43" s="37" t="n">
@@ -2131,657 +2113,657 @@
         <v>0</v>
       </c>
       <c r="F44" s="39" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="G44" s="39" t="n">
         <v>0</v>
       </c>
     </row>
     <row r="45" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A45" s="49" t="s">
+      <c r="A45" s="48" t="s">
         <v>50</v>
       </c>
-      <c r="B45" s="50" t="n">
+      <c r="B45" s="49" t="n">
         <f aca="false">B44+1</f>
         <v>44</v>
       </c>
-      <c r="C45" s="51" t="n">
+      <c r="C45" s="50" t="n">
         <v>0.085</v>
       </c>
-      <c r="D45" s="51" t="n">
+      <c r="D45" s="50" t="n">
         <v>0.938</v>
       </c>
-      <c r="E45" s="51" t="n">
-        <v>0</v>
-      </c>
-      <c r="F45" s="52" t="n">
-        <v>0</v>
-      </c>
-      <c r="G45" s="52" t="n">
+      <c r="E45" s="50" t="n">
+        <v>0</v>
+      </c>
+      <c r="F45" s="51" t="n">
+        <v>1</v>
+      </c>
+      <c r="G45" s="51" t="n">
         <v>0</v>
       </c>
     </row>
     <row r="46" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A46" s="53" t="s">
+      <c r="A46" s="48" t="s">
         <v>51</v>
       </c>
-      <c r="B46" s="50" t="n">
+      <c r="B46" s="49" t="n">
         <f aca="false">B45+1</f>
         <v>45</v>
       </c>
-      <c r="C46" s="51" t="n">
+      <c r="C46" s="50" t="n">
         <v>0.085</v>
       </c>
-      <c r="D46" s="54" t="n">
+      <c r="D46" s="50" t="n">
         <v>1</v>
       </c>
-      <c r="E46" s="51" t="n">
-        <v>0</v>
-      </c>
-      <c r="F46" s="52" t="n">
-        <v>0</v>
-      </c>
-      <c r="G46" s="52" t="n">
+      <c r="E46" s="50" t="n">
+        <v>0</v>
+      </c>
+      <c r="F46" s="51" t="n">
+        <v>0</v>
+      </c>
+      <c r="G46" s="51" t="n">
         <v>0</v>
       </c>
     </row>
     <row r="47" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A47" s="53" t="s">
+      <c r="A47" s="48" t="s">
         <v>52</v>
       </c>
-      <c r="B47" s="50" t="n">
+      <c r="B47" s="49" t="n">
         <f aca="false">B46+1</f>
         <v>46</v>
       </c>
-      <c r="C47" s="54" t="n">
+      <c r="C47" s="50" t="n">
         <v>0.085</v>
       </c>
-      <c r="D47" s="51" t="n">
+      <c r="D47" s="50" t="n">
         <v>1.5</v>
       </c>
-      <c r="E47" s="51" t="n">
-        <v>0</v>
-      </c>
-      <c r="F47" s="52" t="n">
-        <v>0</v>
-      </c>
-      <c r="G47" s="52" t="n">
+      <c r="E47" s="50" t="n">
+        <v>0</v>
+      </c>
+      <c r="F47" s="51" t="n">
+        <v>0</v>
+      </c>
+      <c r="G47" s="51" t="n">
         <v>0</v>
       </c>
     </row>
     <row r="48" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A48" s="53" t="s">
+      <c r="A48" s="48" t="s">
         <v>53</v>
       </c>
-      <c r="B48" s="50" t="n">
+      <c r="B48" s="49" t="n">
         <f aca="false">B47+1</f>
         <v>47</v>
       </c>
-      <c r="C48" s="54" t="n">
+      <c r="C48" s="50" t="n">
         <v>0.085</v>
       </c>
-      <c r="D48" s="51" t="n">
+      <c r="D48" s="50" t="n">
         <v>2</v>
       </c>
-      <c r="E48" s="51" t="n">
-        <v>0</v>
-      </c>
-      <c r="F48" s="52" t="n">
-        <v>0</v>
-      </c>
-      <c r="G48" s="52" t="n">
+      <c r="E48" s="50" t="n">
+        <v>0</v>
+      </c>
+      <c r="F48" s="51" t="n">
+        <v>0</v>
+      </c>
+      <c r="G48" s="51" t="n">
         <v>0</v>
       </c>
     </row>
     <row r="49" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A49" s="49" t="s">
+      <c r="A49" s="48" t="s">
         <v>54</v>
       </c>
-      <c r="B49" s="50" t="n">
+      <c r="B49" s="49" t="n">
         <f aca="false">B48+1</f>
         <v>48</v>
       </c>
-      <c r="C49" s="51" t="n">
+      <c r="C49" s="50" t="n">
         <v>0.085</v>
       </c>
-      <c r="D49" s="51" t="n">
+      <c r="D49" s="50" t="n">
         <v>2.431</v>
       </c>
-      <c r="E49" s="51" t="n">
-        <v>0</v>
-      </c>
-      <c r="F49" s="52" t="n">
+      <c r="E49" s="50" t="n">
+        <v>0</v>
+      </c>
+      <c r="F49" s="51" t="n">
         <v>1</v>
       </c>
-      <c r="G49" s="52" t="n">
+      <c r="G49" s="51" t="n">
         <v>0</v>
       </c>
     </row>
     <row r="50" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A50" s="55" t="s">
+      <c r="A50" s="52" t="s">
         <v>55</v>
       </c>
-      <c r="B50" s="56" t="n">
+      <c r="B50" s="53" t="n">
         <f aca="false">B49+1</f>
         <v>49</v>
       </c>
-      <c r="C50" s="57" t="n">
+      <c r="C50" s="54" t="n">
         <v>-0.085</v>
       </c>
-      <c r="D50" s="57" t="n">
+      <c r="D50" s="54" t="n">
         <v>0.8</v>
       </c>
-      <c r="E50" s="57" t="n">
-        <v>0</v>
-      </c>
-      <c r="F50" s="58" t="n">
-        <v>0</v>
-      </c>
-      <c r="G50" s="58" t="n">
+      <c r="E50" s="54" t="n">
+        <v>0</v>
+      </c>
+      <c r="F50" s="55" t="n">
+        <v>0</v>
+      </c>
+      <c r="G50" s="55" t="n">
         <v>0</v>
       </c>
     </row>
     <row r="51" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A51" s="55" t="s">
+      <c r="A51" s="52" t="s">
         <v>56</v>
       </c>
-      <c r="B51" s="56" t="n">
+      <c r="B51" s="53" t="n">
         <f aca="false">B50+1</f>
         <v>50</v>
       </c>
-      <c r="C51" s="57" t="n">
+      <c r="C51" s="54" t="n">
         <v>-0.085</v>
       </c>
-      <c r="D51" s="57" t="n">
+      <c r="D51" s="54" t="n">
         <v>-0.8</v>
       </c>
-      <c r="E51" s="57" t="n">
-        <v>0</v>
-      </c>
-      <c r="F51" s="58" t="n">
-        <v>0</v>
-      </c>
-      <c r="G51" s="58" t="n">
+      <c r="E51" s="54" t="n">
+        <v>0</v>
+      </c>
+      <c r="F51" s="55" t="n">
+        <v>0</v>
+      </c>
+      <c r="G51" s="55" t="n">
         <v>0</v>
       </c>
     </row>
     <row r="52" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A52" s="55" t="s">
+      <c r="A52" s="52" t="s">
         <v>57</v>
       </c>
-      <c r="B52" s="56" t="n">
+      <c r="B52" s="53" t="n">
         <f aca="false">B51+1</f>
         <v>51</v>
       </c>
-      <c r="C52" s="57" t="n">
+      <c r="C52" s="54" t="n">
         <v>0.085</v>
       </c>
-      <c r="D52" s="57" t="n">
+      <c r="D52" s="54" t="n">
         <v>-0.8</v>
       </c>
-      <c r="E52" s="57" t="n">
-        <v>0</v>
-      </c>
-      <c r="F52" s="58" t="n">
-        <v>0</v>
-      </c>
-      <c r="G52" s="58" t="n">
+      <c r="E52" s="54" t="n">
+        <v>0</v>
+      </c>
+      <c r="F52" s="55" t="n">
+        <v>0</v>
+      </c>
+      <c r="G52" s="55" t="n">
         <v>0</v>
       </c>
     </row>
     <row r="53" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A53" s="55" t="s">
+      <c r="A53" s="52" t="s">
         <v>58</v>
       </c>
-      <c r="B53" s="56" t="n">
+      <c r="B53" s="53" t="n">
         <f aca="false">B52+1</f>
         <v>52</v>
       </c>
-      <c r="C53" s="57" t="n">
+      <c r="C53" s="54" t="n">
         <v>0.085</v>
       </c>
-      <c r="D53" s="57" t="n">
+      <c r="D53" s="54" t="n">
         <v>0.8</v>
       </c>
-      <c r="E53" s="57" t="n">
-        <v>0</v>
-      </c>
-      <c r="F53" s="58" t="n">
-        <v>0</v>
-      </c>
-      <c r="G53" s="58" t="n">
+      <c r="E53" s="54" t="n">
+        <v>0</v>
+      </c>
+      <c r="F53" s="55" t="n">
+        <v>0</v>
+      </c>
+      <c r="G53" s="55" t="n">
         <v>0</v>
       </c>
     </row>
     <row r="54" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A54" s="59" t="s">
+      <c r="A54" s="56" t="s">
         <v>59</v>
       </c>
-      <c r="B54" s="60" t="n">
+      <c r="B54" s="57" t="n">
         <f aca="false">B53+1</f>
         <v>53</v>
       </c>
-      <c r="C54" s="61" t="n">
+      <c r="C54" s="58" t="n">
         <v>-0.085</v>
       </c>
-      <c r="D54" s="61" t="n">
+      <c r="D54" s="58" t="n">
         <v>-0.938</v>
       </c>
-      <c r="E54" s="61" t="n">
-        <v>0</v>
-      </c>
-      <c r="F54" s="62" t="n">
-        <v>0</v>
-      </c>
-      <c r="G54" s="62" t="n">
+      <c r="E54" s="58" t="n">
+        <v>0</v>
+      </c>
+      <c r="F54" s="59" t="n">
+        <v>0</v>
+      </c>
+      <c r="G54" s="59" t="n">
         <v>0</v>
       </c>
     </row>
     <row r="55" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A55" s="59" t="s">
+      <c r="A55" s="56" t="s">
         <v>60</v>
       </c>
-      <c r="B55" s="60" t="n">
+      <c r="B55" s="57" t="n">
         <f aca="false">B54+1</f>
         <v>54</v>
       </c>
-      <c r="C55" s="61" t="n">
+      <c r="C55" s="58" t="n">
         <v>-0.085</v>
       </c>
-      <c r="D55" s="61" t="n">
+      <c r="D55" s="58" t="n">
         <v>-2.408</v>
       </c>
-      <c r="E55" s="61" t="n">
-        <v>0</v>
-      </c>
-      <c r="F55" s="62" t="n">
-        <v>0</v>
-      </c>
-      <c r="G55" s="62" t="n">
+      <c r="E55" s="58" t="n">
+        <v>0</v>
+      </c>
+      <c r="F55" s="59" t="n">
+        <v>0</v>
+      </c>
+      <c r="G55" s="59" t="n">
         <v>0</v>
       </c>
     </row>
     <row r="56" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A56" s="59" t="s">
+      <c r="A56" s="56" t="s">
         <v>61</v>
       </c>
-      <c r="B56" s="60" t="n">
+      <c r="B56" s="57" t="n">
         <f aca="false">B55+1</f>
         <v>55</v>
       </c>
-      <c r="C56" s="61" t="n">
+      <c r="C56" s="58" t="n">
         <v>0.085</v>
       </c>
-      <c r="D56" s="61" t="n">
+      <c r="D56" s="58" t="n">
         <v>-2.408</v>
       </c>
-      <c r="E56" s="61" t="n">
-        <v>0</v>
-      </c>
-      <c r="F56" s="62" t="n">
-        <v>0</v>
-      </c>
-      <c r="G56" s="62" t="n">
+      <c r="E56" s="58" t="n">
+        <v>0</v>
+      </c>
+      <c r="F56" s="59" t="n">
+        <v>0</v>
+      </c>
+      <c r="G56" s="59" t="n">
         <v>0</v>
       </c>
     </row>
     <row r="57" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A57" s="59" t="s">
+      <c r="A57" s="56" t="s">
         <v>62</v>
       </c>
-      <c r="B57" s="60" t="n">
+      <c r="B57" s="57" t="n">
         <f aca="false">B56+1</f>
         <v>56</v>
       </c>
-      <c r="C57" s="61" t="n">
+      <c r="C57" s="58" t="n">
         <v>0.085</v>
       </c>
-      <c r="D57" s="61" t="n">
+      <c r="D57" s="58" t="n">
         <v>-0.938</v>
       </c>
-      <c r="E57" s="61" t="n">
-        <v>0</v>
-      </c>
-      <c r="F57" s="62" t="n">
-        <v>0</v>
-      </c>
-      <c r="G57" s="62" t="n">
+      <c r="E57" s="58" t="n">
+        <v>0</v>
+      </c>
+      <c r="F57" s="59" t="n">
+        <v>0</v>
+      </c>
+      <c r="G57" s="59" t="n">
         <v>0</v>
       </c>
     </row>
     <row r="58" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A58" s="63" t="s">
+      <c r="A58" s="60" t="s">
         <v>63</v>
       </c>
-      <c r="B58" s="64" t="n">
+      <c r="B58" s="61" t="n">
         <f aca="false">B57+1</f>
         <v>57</v>
       </c>
-      <c r="C58" s="65" t="n">
+      <c r="C58" s="62" t="n">
         <v>-2.84569</v>
       </c>
-      <c r="D58" s="65" t="n">
+      <c r="D58" s="62" t="n">
         <v>2.4546</v>
       </c>
-      <c r="E58" s="65" t="n">
-        <v>0</v>
-      </c>
-      <c r="F58" s="66" t="n">
-        <v>0</v>
-      </c>
-      <c r="G58" s="66" t="n">
+      <c r="E58" s="62" t="n">
+        <v>0</v>
+      </c>
+      <c r="F58" s="63" t="n">
+        <v>0</v>
+      </c>
+      <c r="G58" s="63" t="n">
         <v>0</v>
       </c>
     </row>
     <row r="59" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A59" s="63" t="s">
+      <c r="A59" s="60" t="s">
         <v>64</v>
       </c>
-      <c r="B59" s="64" t="n">
+      <c r="B59" s="61" t="n">
         <f aca="false">B58+1</f>
         <v>58</v>
       </c>
-      <c r="C59" s="65" t="n">
+      <c r="C59" s="62" t="n">
         <v>-2.7608</v>
       </c>
-      <c r="D59" s="65" t="n">
+      <c r="D59" s="62" t="n">
         <v>-2.3894</v>
       </c>
-      <c r="E59" s="65" t="n">
-        <v>0</v>
-      </c>
-      <c r="F59" s="66" t="n">
-        <v>0</v>
-      </c>
-      <c r="G59" s="66" t="n">
+      <c r="E59" s="62" t="n">
+        <v>0</v>
+      </c>
+      <c r="F59" s="63" t="n">
+        <v>0</v>
+      </c>
+      <c r="G59" s="63" t="n">
         <v>0</v>
       </c>
     </row>
     <row r="60" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A60" s="63" t="s">
+      <c r="A60" s="60" t="s">
         <v>65</v>
       </c>
-      <c r="B60" s="64" t="n">
+      <c r="B60" s="61" t="n">
         <f aca="false">B59+1</f>
         <v>59</v>
       </c>
-      <c r="C60" s="65" t="n">
+      <c r="C60" s="62" t="n">
         <v>2.7015</v>
       </c>
-      <c r="D60" s="65" t="n">
+      <c r="D60" s="62" t="n">
         <v>-2.4284</v>
       </c>
-      <c r="E60" s="65" t="n">
-        <v>0</v>
-      </c>
-      <c r="F60" s="66" t="n">
-        <v>0</v>
-      </c>
-      <c r="G60" s="66" t="n">
+      <c r="E60" s="62" t="n">
+        <v>0</v>
+      </c>
+      <c r="F60" s="63" t="n">
+        <v>0</v>
+      </c>
+      <c r="G60" s="63" t="n">
         <v>0</v>
       </c>
     </row>
     <row r="61" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A61" s="63" t="s">
+      <c r="A61" s="60" t="s">
         <v>66</v>
       </c>
-      <c r="B61" s="64" t="n">
+      <c r="B61" s="61" t="n">
         <f aca="false">B60+1</f>
         <v>60</v>
       </c>
-      <c r="C61" s="65" t="n">
+      <c r="C61" s="62" t="n">
         <v>2.7949</v>
       </c>
-      <c r="D61" s="65" t="n">
+      <c r="D61" s="62" t="n">
         <v>2.4546</v>
       </c>
-      <c r="E61" s="65" t="n">
-        <v>0</v>
-      </c>
-      <c r="F61" s="66" t="n">
-        <v>0</v>
-      </c>
-      <c r="G61" s="66" t="n">
+      <c r="E61" s="62" t="n">
+        <v>0</v>
+      </c>
+      <c r="F61" s="63" t="n">
+        <v>0</v>
+      </c>
+      <c r="G61" s="63" t="n">
         <v>0</v>
       </c>
     </row>
     <row r="62" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A62" s="67" t="s">
+      <c r="A62" s="64" t="s">
         <v>67</v>
       </c>
-      <c r="B62" s="68" t="n">
+      <c r="B62" s="65" t="n">
         <f aca="false">B61+1</f>
         <v>61</v>
       </c>
-      <c r="C62" s="69" t="n">
+      <c r="C62" s="66" t="n">
         <v>-3.022</v>
       </c>
-      <c r="D62" s="69" t="n">
+      <c r="D62" s="66" t="n">
         <v>2.6015</v>
       </c>
-      <c r="E62" s="69" t="n">
-        <v>0</v>
-      </c>
-      <c r="F62" s="70" t="n">
-        <v>0</v>
-      </c>
-      <c r="G62" s="70" t="n">
+      <c r="E62" s="66" t="n">
+        <v>0</v>
+      </c>
+      <c r="F62" s="67" t="n">
+        <v>0</v>
+      </c>
+      <c r="G62" s="67" t="n">
         <v>0</v>
       </c>
     </row>
     <row r="63" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A63" s="67" t="s">
+      <c r="A63" s="64" t="s">
         <v>68</v>
       </c>
-      <c r="B63" s="68" t="n">
+      <c r="B63" s="65" t="n">
         <f aca="false">B62+1</f>
         <v>62</v>
       </c>
-      <c r="C63" s="69" t="n">
+      <c r="C63" s="66" t="n">
         <v>-2.915</v>
       </c>
-      <c r="D63" s="69" t="n">
+      <c r="D63" s="66" t="n">
         <v>-2.5146</v>
       </c>
-      <c r="E63" s="69" t="n">
-        <v>0</v>
-      </c>
-      <c r="F63" s="70" t="n">
-        <v>0</v>
-      </c>
-      <c r="G63" s="70" t="n">
+      <c r="E63" s="66" t="n">
+        <v>0</v>
+      </c>
+      <c r="F63" s="67" t="n">
+        <v>0</v>
+      </c>
+      <c r="G63" s="67" t="n">
         <v>0</v>
       </c>
     </row>
     <row r="64" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A64" s="67" t="s">
+      <c r="A64" s="64" t="s">
         <v>69</v>
       </c>
-      <c r="B64" s="68" t="n">
+      <c r="B64" s="65" t="n">
         <f aca="false">B63+1</f>
         <v>63</v>
       </c>
-      <c r="C64" s="69" t="n">
+      <c r="C64" s="66" t="n">
         <v>2.8496</v>
       </c>
-      <c r="D64" s="69" t="n">
+      <c r="D64" s="66" t="n">
         <v>-2.5146</v>
       </c>
-      <c r="E64" s="69" t="n">
-        <v>0</v>
-      </c>
-      <c r="F64" s="70" t="n">
-        <v>0</v>
-      </c>
-      <c r="G64" s="70" t="n">
+      <c r="E64" s="66" t="n">
+        <v>0</v>
+      </c>
+      <c r="F64" s="67" t="n">
+        <v>0</v>
+      </c>
+      <c r="G64" s="67" t="n">
         <v>0</v>
       </c>
     </row>
     <row r="65" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A65" s="67" t="s">
+      <c r="A65" s="64" t="s">
         <v>70</v>
       </c>
-      <c r="B65" s="68" t="n">
+      <c r="B65" s="65" t="n">
         <f aca="false">B64+1</f>
         <v>64</v>
       </c>
-      <c r="C65" s="69" t="n">
+      <c r="C65" s="66" t="n">
         <v>2.971</v>
       </c>
-      <c r="D65" s="69" t="n">
+      <c r="D65" s="66" t="n">
         <v>2.6015</v>
       </c>
-      <c r="E65" s="69" t="n">
-        <v>0</v>
-      </c>
-      <c r="F65" s="70" t="n">
-        <v>0</v>
-      </c>
-      <c r="G65" s="70" t="n">
+      <c r="E65" s="66" t="n">
+        <v>0</v>
+      </c>
+      <c r="F65" s="67" t="n">
+        <v>0</v>
+      </c>
+      <c r="G65" s="67" t="n">
         <v>0</v>
       </c>
     </row>
     <row r="66" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A66" s="71" t="s">
+      <c r="A66" s="68" t="s">
         <v>71</v>
       </c>
-      <c r="B66" s="72" t="n">
+      <c r="B66" s="69" t="n">
         <f aca="false">B65+1</f>
         <v>65</v>
       </c>
-      <c r="C66" s="73" t="n">
+      <c r="C66" s="70" t="n">
         <v>-3.3343</v>
       </c>
-      <c r="D66" s="73" t="n">
+      <c r="D66" s="70" t="n">
         <v>2.78</v>
       </c>
-      <c r="E66" s="73" t="n">
-        <v>0</v>
-      </c>
-      <c r="F66" s="74" t="n">
-        <v>0</v>
-      </c>
-      <c r="G66" s="74" t="n">
+      <c r="E66" s="70" t="n">
+        <v>0</v>
+      </c>
+      <c r="F66" s="71" t="n">
+        <v>0</v>
+      </c>
+      <c r="G66" s="71" t="n">
         <v>0</v>
       </c>
     </row>
     <row r="67" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A67" s="71" t="s">
+      <c r="A67" s="68" t="s">
         <v>72</v>
       </c>
-      <c r="B67" s="72" t="n">
+      <c r="B67" s="69" t="n">
         <f aca="false">B66+1</f>
         <v>66</v>
       </c>
-      <c r="C67" s="73" t="n">
+      <c r="C67" s="70" t="n">
         <v>-3.1388</v>
       </c>
-      <c r="D67" s="73" t="n">
+      <c r="D67" s="70" t="n">
         <v>-2.9209</v>
       </c>
-      <c r="E67" s="73" t="n">
-        <v>0</v>
-      </c>
-      <c r="F67" s="74" t="n">
-        <v>0</v>
-      </c>
-      <c r="G67" s="74" t="n">
+      <c r="E67" s="70" t="n">
+        <v>0</v>
+      </c>
+      <c r="F67" s="71" t="n">
+        <v>0</v>
+      </c>
+      <c r="G67" s="71" t="n">
         <v>0</v>
       </c>
     </row>
     <row r="68" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A68" s="71" t="s">
+      <c r="A68" s="68" t="s">
         <v>73</v>
       </c>
-      <c r="B68" s="72" t="n">
+      <c r="B68" s="69" t="n">
         <f aca="false">B67+1</f>
         <v>67</v>
       </c>
-      <c r="C68" s="73" t="n">
+      <c r="C68" s="70" t="n">
         <v>3.1388</v>
       </c>
-      <c r="D68" s="73" t="n">
+      <c r="D68" s="70" t="n">
         <v>-2.9209</v>
       </c>
-      <c r="E68" s="73" t="n">
-        <v>0</v>
-      </c>
-      <c r="F68" s="74" t="n">
-        <v>0</v>
-      </c>
-      <c r="G68" s="74" t="n">
+      <c r="E68" s="70" t="n">
+        <v>0</v>
+      </c>
+      <c r="F68" s="71" t="n">
+        <v>0</v>
+      </c>
+      <c r="G68" s="71" t="n">
         <v>0</v>
       </c>
     </row>
     <row r="69" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A69" s="71" t="s">
+      <c r="A69" s="68" t="s">
         <v>74</v>
       </c>
-      <c r="B69" s="72" t="n">
+      <c r="B69" s="69" t="n">
         <f aca="false">B68+1</f>
         <v>68</v>
       </c>
-      <c r="C69" s="73" t="n">
+      <c r="C69" s="70" t="n">
         <v>3.3343</v>
       </c>
-      <c r="D69" s="73" t="n">
+      <c r="D69" s="70" t="n">
         <v>2.78</v>
       </c>
-      <c r="E69" s="73" t="n">
-        <v>0</v>
-      </c>
-      <c r="F69" s="74" t="n">
-        <v>0</v>
-      </c>
-      <c r="G69" s="74" t="n">
+      <c r="E69" s="70" t="n">
+        <v>0</v>
+      </c>
+      <c r="F69" s="71" t="n">
+        <v>0</v>
+      </c>
+      <c r="G69" s="71" t="n">
         <v>0</v>
       </c>
     </row>
     <row r="70" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A70" s="75" t="s">
+      <c r="A70" s="72" t="s">
         <v>75</v>
       </c>
-      <c r="B70" s="76" t="n">
+      <c r="B70" s="73" t="n">
         <f aca="false">B69+1</f>
         <v>69</v>
       </c>
-      <c r="C70" s="77" t="n">
+      <c r="C70" s="74" t="n">
         <v>-2.2</v>
       </c>
-      <c r="D70" s="77" t="n">
+      <c r="D70" s="74" t="n">
         <v>1.94</v>
       </c>
-      <c r="E70" s="77" t="n">
-        <v>0</v>
-      </c>
-      <c r="F70" s="74" t="n">
-        <v>0</v>
-      </c>
-      <c r="G70" s="74" t="n">
+      <c r="E70" s="74" t="n">
+        <v>0</v>
+      </c>
+      <c r="F70" s="71" t="n">
+        <v>0</v>
+      </c>
+      <c r="G70" s="71" t="n">
         <v>0</v>
       </c>
     </row>
     <row r="71" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A71" s="75" t="s">
+      <c r="A71" s="72" t="s">
         <v>76</v>
       </c>
-      <c r="B71" s="76" t="n">
+      <c r="B71" s="73" t="n">
         <f aca="false">B70+1</f>
         <v>70</v>
       </c>
-      <c r="C71" s="77" t="n">
+      <c r="C71" s="74" t="n">
         <v>2.18</v>
       </c>
-      <c r="D71" s="77" t="n">
+      <c r="D71" s="74" t="n">
         <v>1.94</v>
       </c>
-      <c r="E71" s="77" t="n">
-        <v>0</v>
-      </c>
-      <c r="F71" s="74" t="n">
-        <v>0</v>
-      </c>
-      <c r="G71" s="74" t="n">
+      <c r="E71" s="74" t="n">
+        <v>0</v>
+      </c>
+      <c r="F71" s="71" t="n">
+        <v>0</v>
+      </c>
+      <c r="G71" s="71" t="n">
         <v>0</v>
       </c>
     </row>
@@ -2982,1067 +2964,1067 @@
       </c>
     </row>
     <row r="80" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A80" s="78" t="s">
+      <c r="A80" s="75" t="s">
         <v>85</v>
       </c>
-      <c r="B80" s="79" t="n">
+      <c r="B80" s="76" t="n">
         <f aca="false">B79+1</f>
         <v>79</v>
       </c>
-      <c r="C80" s="80" t="n">
+      <c r="C80" s="77" t="n">
         <v>-1.93</v>
       </c>
-      <c r="D80" s="80" t="n">
+      <c r="D80" s="77" t="n">
         <v>-1.64</v>
       </c>
-      <c r="E80" s="80" t="n">
-        <v>0</v>
-      </c>
-      <c r="F80" s="81" t="n">
-        <v>0</v>
-      </c>
-      <c r="G80" s="81" t="n">
+      <c r="E80" s="77" t="n">
+        <v>0</v>
+      </c>
+      <c r="F80" s="78" t="n">
+        <v>0</v>
+      </c>
+      <c r="G80" s="78" t="n">
         <v>0</v>
       </c>
     </row>
     <row r="81" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A81" s="78" t="s">
+      <c r="A81" s="75" t="s">
         <v>86</v>
       </c>
-      <c r="B81" s="79" t="n">
+      <c r="B81" s="76" t="n">
         <f aca="false">B80+1</f>
         <v>80</v>
       </c>
-      <c r="C81" s="80" t="n">
+      <c r="C81" s="77" t="n">
         <v>-1.93</v>
       </c>
-      <c r="D81" s="80" t="n">
+      <c r="D81" s="77" t="n">
         <v>-2.73</v>
       </c>
-      <c r="E81" s="80" t="n">
-        <v>0</v>
-      </c>
-      <c r="F81" s="81" t="n">
-        <v>0</v>
-      </c>
-      <c r="G81" s="81" t="n">
+      <c r="E81" s="77" t="n">
+        <v>0</v>
+      </c>
+      <c r="F81" s="78" t="n">
+        <v>0</v>
+      </c>
+      <c r="G81" s="78" t="n">
         <v>0</v>
       </c>
     </row>
     <row r="82" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A82" s="78" t="s">
+      <c r="A82" s="75" t="s">
         <v>87</v>
       </c>
-      <c r="B82" s="79" t="n">
+      <c r="B82" s="76" t="n">
         <f aca="false">B81+1</f>
         <v>81</v>
       </c>
-      <c r="C82" s="80" t="n">
+      <c r="C82" s="77" t="n">
         <v>-1</v>
       </c>
-      <c r="D82" s="80" t="n">
+      <c r="D82" s="77" t="n">
         <f aca="false">D83-1.09</f>
         <v>-2.73</v>
       </c>
-      <c r="E82" s="80" t="n">
-        <v>0</v>
-      </c>
-      <c r="F82" s="81" t="n">
-        <v>0</v>
-      </c>
-      <c r="G82" s="81" t="n">
+      <c r="E82" s="77" t="n">
+        <v>0</v>
+      </c>
+      <c r="F82" s="78" t="n">
+        <v>0</v>
+      </c>
+      <c r="G82" s="78" t="n">
         <v>0</v>
       </c>
     </row>
     <row r="83" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A83" s="78" t="s">
+      <c r="A83" s="75" t="s">
         <v>88</v>
       </c>
-      <c r="B83" s="79" t="n">
+      <c r="B83" s="76" t="n">
         <f aca="false">B82+1</f>
         <v>82</v>
       </c>
-      <c r="C83" s="80" t="n">
+      <c r="C83" s="77" t="n">
         <v>-1</v>
       </c>
-      <c r="D83" s="80" t="n">
+      <c r="D83" s="77" t="n">
         <v>-1.64</v>
       </c>
-      <c r="E83" s="80" t="n">
-        <v>0</v>
-      </c>
-      <c r="F83" s="81" t="n">
-        <v>0</v>
-      </c>
-      <c r="G83" s="81" t="n">
+      <c r="E83" s="77" t="n">
+        <v>0</v>
+      </c>
+      <c r="F83" s="78" t="n">
+        <v>0</v>
+      </c>
+      <c r="G83" s="78" t="n">
         <v>0</v>
       </c>
     </row>
     <row r="84" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A84" s="82" t="s">
+      <c r="A84" s="79" t="s">
         <v>89</v>
       </c>
-      <c r="B84" s="83" t="n">
+      <c r="B84" s="80" t="n">
         <f aca="false">B83+1</f>
         <v>83</v>
       </c>
-      <c r="C84" s="84" t="n">
+      <c r="C84" s="81" t="n">
         <v>2.26</v>
       </c>
-      <c r="D84" s="84" t="n">
+      <c r="D84" s="81" t="n">
         <v>-0.16</v>
       </c>
-      <c r="E84" s="84" t="n">
-        <v>0</v>
-      </c>
-      <c r="F84" s="85" t="n">
-        <v>0</v>
-      </c>
-      <c r="G84" s="85" t="n">
+      <c r="E84" s="81" t="n">
+        <v>0</v>
+      </c>
+      <c r="F84" s="82" t="n">
+        <v>0</v>
+      </c>
+      <c r="G84" s="82" t="n">
         <v>0</v>
       </c>
     </row>
     <row r="85" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A85" s="82" t="s">
+      <c r="A85" s="79" t="s">
         <v>90</v>
       </c>
-      <c r="B85" s="83" t="n">
+      <c r="B85" s="80" t="n">
         <f aca="false">B84+1</f>
         <v>84</v>
       </c>
-      <c r="C85" s="84" t="n">
+      <c r="C85" s="81" t="n">
         <v>2.26</v>
       </c>
-      <c r="D85" s="84" t="n">
+      <c r="D85" s="81" t="n">
         <f aca="false">D84-1.49</f>
         <v>-1.65</v>
       </c>
-      <c r="E85" s="84" t="n">
-        <v>0</v>
-      </c>
-      <c r="F85" s="85" t="n">
-        <v>0</v>
-      </c>
-      <c r="G85" s="85" t="n">
+      <c r="E85" s="81" t="n">
+        <v>0</v>
+      </c>
+      <c r="F85" s="82" t="n">
+        <v>0</v>
+      </c>
+      <c r="G85" s="82" t="n">
         <v>0</v>
       </c>
     </row>
     <row r="86" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A86" s="82" t="s">
+      <c r="A86" s="79" t="s">
         <v>91</v>
       </c>
-      <c r="B86" s="83" t="n">
+      <c r="B86" s="80" t="n">
         <f aca="false">B85+1</f>
         <v>85</v>
       </c>
-      <c r="C86" s="84" t="n">
+      <c r="C86" s="81" t="n">
         <f aca="false">2.26+0.83</f>
         <v>3.09</v>
       </c>
-      <c r="D86" s="84" t="n">
+      <c r="D86" s="81" t="n">
         <f aca="false">D85</f>
         <v>-1.65</v>
       </c>
-      <c r="E86" s="84" t="n">
-        <v>0</v>
-      </c>
-      <c r="F86" s="85" t="n">
-        <v>0</v>
-      </c>
-      <c r="G86" s="85" t="n">
+      <c r="E86" s="81" t="n">
+        <v>0</v>
+      </c>
+      <c r="F86" s="82" t="n">
+        <v>0</v>
+      </c>
+      <c r="G86" s="82" t="n">
         <v>0</v>
       </c>
     </row>
     <row r="87" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A87" s="82" t="s">
+      <c r="A87" s="79" t="s">
         <v>92</v>
       </c>
-      <c r="B87" s="83" t="n">
+      <c r="B87" s="80" t="n">
         <f aca="false">B86+1</f>
         <v>86</v>
       </c>
-      <c r="C87" s="84" t="n">
+      <c r="C87" s="81" t="n">
         <f aca="false">2.26+0.83</f>
         <v>3.09</v>
       </c>
-      <c r="D87" s="84" t="n">
+      <c r="D87" s="81" t="n">
         <v>-0.16</v>
       </c>
-      <c r="E87" s="84" t="n">
-        <v>0</v>
-      </c>
-      <c r="F87" s="85" t="n">
-        <v>0</v>
-      </c>
-      <c r="G87" s="85" t="n">
+      <c r="E87" s="81" t="n">
+        <v>0</v>
+      </c>
+      <c r="F87" s="82" t="n">
+        <v>0</v>
+      </c>
+      <c r="G87" s="82" t="n">
         <v>0</v>
       </c>
     </row>
     <row r="88" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A88" s="59" t="s">
+      <c r="A88" s="56" t="s">
         <v>93</v>
       </c>
-      <c r="B88" s="60" t="n">
+      <c r="B88" s="57" t="n">
         <f aca="false">B87+1</f>
         <v>87</v>
       </c>
-      <c r="C88" s="61" t="n">
-        <v>0</v>
-      </c>
-      <c r="D88" s="61" t="n">
+      <c r="C88" s="58" t="n">
+        <v>0</v>
+      </c>
+      <c r="D88" s="58" t="n">
         <v>-2.9217</v>
       </c>
-      <c r="E88" s="61" t="n">
+      <c r="E88" s="58" t="n">
         <v>-0.546</v>
       </c>
-      <c r="F88" s="62" t="n">
-        <v>0</v>
-      </c>
-      <c r="G88" s="62" t="n">
+      <c r="F88" s="59" t="n">
+        <v>0</v>
+      </c>
+      <c r="G88" s="59" t="n">
         <v>0</v>
       </c>
     </row>
     <row r="89" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A89" s="55" t="s">
+      <c r="A89" s="52" t="s">
         <v>94</v>
       </c>
-      <c r="B89" s="60" t="n">
+      <c r="B89" s="57" t="n">
         <f aca="false">B88+1</f>
         <v>88</v>
       </c>
-      <c r="C89" s="57" t="n">
+      <c r="C89" s="54" t="n">
         <v>-3.1634</v>
       </c>
-      <c r="D89" s="57" t="n">
+      <c r="D89" s="54" t="n">
         <v>-2.9565</v>
       </c>
-      <c r="E89" s="57" t="n">
+      <c r="E89" s="54" t="n">
         <v>-0.9233</v>
       </c>
-      <c r="F89" s="58" t="n">
-        <v>0</v>
-      </c>
-      <c r="G89" s="58" t="n">
+      <c r="F89" s="55" t="n">
+        <v>0</v>
+      </c>
+      <c r="G89" s="55" t="n">
         <v>0</v>
       </c>
     </row>
     <row r="90" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A90" s="55" t="s">
+      <c r="A90" s="52" t="s">
         <v>95</v>
       </c>
-      <c r="B90" s="60" t="n">
+      <c r="B90" s="57" t="n">
         <f aca="false">B89+1</f>
         <v>89</v>
       </c>
-      <c r="C90" s="57" t="n">
+      <c r="C90" s="54" t="n">
         <v>-3.0852</v>
       </c>
-      <c r="D90" s="57" t="n">
+      <c r="D90" s="54" t="n">
         <v>-2.7843</v>
       </c>
-      <c r="E90" s="57" t="n">
+      <c r="E90" s="54" t="n">
         <v>-2.0292</v>
       </c>
-      <c r="F90" s="58" t="n">
-        <v>0</v>
-      </c>
-      <c r="G90" s="58" t="n">
+      <c r="F90" s="55" t="n">
+        <v>0</v>
+      </c>
+      <c r="G90" s="55" t="n">
         <v>0</v>
       </c>
     </row>
     <row r="91" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A91" s="55" t="s">
+      <c r="A91" s="52" t="s">
         <v>96</v>
       </c>
-      <c r="B91" s="60" t="n">
+      <c r="B91" s="57" t="n">
         <f aca="false">B90+1</f>
         <v>90</v>
       </c>
-      <c r="C91" s="57" t="n">
+      <c r="C91" s="54" t="n">
         <v>3.085</v>
       </c>
-      <c r="D91" s="57" t="n">
+      <c r="D91" s="54" t="n">
         <v>-2.784</v>
       </c>
-      <c r="E91" s="57" t="n">
+      <c r="E91" s="54" t="n">
         <v>-2.029</v>
       </c>
-      <c r="F91" s="58" t="n">
-        <v>0</v>
-      </c>
-      <c r="G91" s="58" t="n">
+      <c r="F91" s="55" t="n">
+        <v>0</v>
+      </c>
+      <c r="G91" s="55" t="n">
         <v>0</v>
       </c>
     </row>
     <row r="92" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A92" s="55" t="s">
+      <c r="A92" s="52" t="s">
         <v>97</v>
       </c>
-      <c r="B92" s="60" t="n">
+      <c r="B92" s="57" t="n">
         <f aca="false">B91+1</f>
         <v>91</v>
       </c>
-      <c r="C92" s="57" t="n">
+      <c r="C92" s="54" t="n">
         <v>3.163</v>
       </c>
-      <c r="D92" s="57" t="n">
+      <c r="D92" s="54" t="n">
         <v>-2.957</v>
       </c>
-      <c r="E92" s="57" t="n">
+      <c r="E92" s="54" t="n">
         <v>0.923</v>
       </c>
-      <c r="F92" s="58" t="n">
-        <v>0</v>
-      </c>
-      <c r="G92" s="58" t="n">
+      <c r="F92" s="55" t="n">
+        <v>0</v>
+      </c>
+      <c r="G92" s="55" t="n">
         <v>0</v>
       </c>
     </row>
     <row r="93" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A93" s="86"/>
-      <c r="B93" s="87"/>
-      <c r="C93" s="88"/>
-      <c r="D93" s="88"/>
-      <c r="E93" s="88"/>
-      <c r="F93" s="89"/>
-      <c r="G93" s="89"/>
+      <c r="A93" s="83"/>
+      <c r="B93" s="84"/>
+      <c r="C93" s="85"/>
+      <c r="D93" s="85"/>
+      <c r="E93" s="85"/>
+      <c r="F93" s="86"/>
+      <c r="G93" s="86"/>
     </row>
     <row r="94" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A94" s="86"/>
-      <c r="B94" s="87"/>
-      <c r="C94" s="88"/>
-      <c r="D94" s="88"/>
-      <c r="E94" s="88"/>
-      <c r="F94" s="89"/>
-      <c r="G94" s="89"/>
+      <c r="A94" s="83"/>
+      <c r="B94" s="84"/>
+      <c r="C94" s="85"/>
+      <c r="D94" s="85"/>
+      <c r="E94" s="85"/>
+      <c r="F94" s="86"/>
+      <c r="G94" s="86"/>
     </row>
     <row r="95" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A95" s="86"/>
-      <c r="B95" s="87"/>
-      <c r="C95" s="88"/>
-      <c r="D95" s="88"/>
-      <c r="E95" s="88"/>
-      <c r="F95" s="89"/>
-      <c r="G95" s="89"/>
+      <c r="A95" s="83"/>
+      <c r="B95" s="84"/>
+      <c r="C95" s="85"/>
+      <c r="D95" s="85"/>
+      <c r="E95" s="85"/>
+      <c r="F95" s="86"/>
+      <c r="G95" s="86"/>
     </row>
     <row r="96" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A96" s="86"/>
-      <c r="B96" s="87"/>
-      <c r="C96" s="88"/>
-      <c r="D96" s="88"/>
-      <c r="E96" s="88"/>
-      <c r="F96" s="89"/>
-      <c r="G96" s="89"/>
+      <c r="A96" s="83"/>
+      <c r="B96" s="84"/>
+      <c r="C96" s="85"/>
+      <c r="D96" s="85"/>
+      <c r="E96" s="85"/>
+      <c r="F96" s="86"/>
+      <c r="G96" s="86"/>
     </row>
     <row r="97" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A97" s="86"/>
-      <c r="B97" s="87"/>
-      <c r="C97" s="88"/>
-      <c r="D97" s="88"/>
-      <c r="E97" s="88"/>
-      <c r="F97" s="89"/>
-      <c r="G97" s="89"/>
+      <c r="A97" s="83"/>
+      <c r="B97" s="84"/>
+      <c r="C97" s="85"/>
+      <c r="D97" s="85"/>
+      <c r="E97" s="85"/>
+      <c r="F97" s="86"/>
+      <c r="G97" s="86"/>
     </row>
     <row r="98" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A98" s="86"/>
-      <c r="B98" s="87"/>
-      <c r="C98" s="88"/>
-      <c r="D98" s="88"/>
-      <c r="E98" s="88"/>
-      <c r="F98" s="89"/>
-      <c r="G98" s="89"/>
+      <c r="A98" s="83"/>
+      <c r="B98" s="84"/>
+      <c r="C98" s="85"/>
+      <c r="D98" s="85"/>
+      <c r="E98" s="85"/>
+      <c r="F98" s="86"/>
+      <c r="G98" s="86"/>
     </row>
     <row r="99" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A99" s="90"/>
-      <c r="B99" s="91"/>
-      <c r="C99" s="92"/>
-      <c r="D99" s="92"/>
-      <c r="E99" s="92"/>
-      <c r="F99" s="93"/>
-      <c r="G99" s="93"/>
+      <c r="A99" s="87"/>
+      <c r="B99" s="88"/>
+      <c r="C99" s="89"/>
+      <c r="D99" s="89"/>
+      <c r="E99" s="89"/>
+      <c r="F99" s="90"/>
+      <c r="G99" s="90"/>
     </row>
     <row r="100" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A100" s="90"/>
-      <c r="B100" s="91"/>
-      <c r="C100" s="92"/>
-      <c r="D100" s="92"/>
-      <c r="E100" s="92"/>
-      <c r="F100" s="93"/>
-      <c r="G100" s="93"/>
+      <c r="A100" s="87"/>
+      <c r="B100" s="88"/>
+      <c r="C100" s="89"/>
+      <c r="D100" s="89"/>
+      <c r="E100" s="89"/>
+      <c r="F100" s="90"/>
+      <c r="G100" s="90"/>
     </row>
     <row r="101" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A101" s="90"/>
-      <c r="B101" s="91"/>
-      <c r="C101" s="92"/>
-      <c r="D101" s="92"/>
-      <c r="E101" s="92"/>
-      <c r="F101" s="93"/>
-      <c r="G101" s="93"/>
+      <c r="A101" s="87"/>
+      <c r="B101" s="88"/>
+      <c r="C101" s="89"/>
+      <c r="D101" s="89"/>
+      <c r="E101" s="89"/>
+      <c r="F101" s="90"/>
+      <c r="G101" s="90"/>
     </row>
     <row r="102" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A102" s="90"/>
-      <c r="B102" s="91"/>
-      <c r="C102" s="92"/>
-      <c r="D102" s="92"/>
-      <c r="E102" s="92"/>
-      <c r="F102" s="93"/>
-      <c r="G102" s="93"/>
+      <c r="A102" s="87"/>
+      <c r="B102" s="88"/>
+      <c r="C102" s="89"/>
+      <c r="D102" s="89"/>
+      <c r="E102" s="89"/>
+      <c r="F102" s="90"/>
+      <c r="G102" s="90"/>
     </row>
     <row r="103" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A103" s="90"/>
-      <c r="B103" s="91"/>
-      <c r="C103" s="92"/>
-      <c r="D103" s="92"/>
-      <c r="E103" s="92"/>
-      <c r="F103" s="93"/>
-      <c r="G103" s="93"/>
+      <c r="A103" s="87"/>
+      <c r="B103" s="88"/>
+      <c r="C103" s="89"/>
+      <c r="D103" s="89"/>
+      <c r="E103" s="89"/>
+      <c r="F103" s="90"/>
+      <c r="G103" s="90"/>
     </row>
     <row r="104" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A104" s="90"/>
-      <c r="B104" s="91"/>
-      <c r="C104" s="92"/>
-      <c r="D104" s="92"/>
-      <c r="E104" s="92"/>
-      <c r="F104" s="93"/>
-      <c r="G104" s="93"/>
+      <c r="A104" s="87"/>
+      <c r="B104" s="88"/>
+      <c r="C104" s="89"/>
+      <c r="D104" s="89"/>
+      <c r="E104" s="89"/>
+      <c r="F104" s="90"/>
+      <c r="G104" s="90"/>
     </row>
     <row r="105" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A105" s="90"/>
-      <c r="B105" s="91"/>
-      <c r="C105" s="92"/>
-      <c r="D105" s="92"/>
-      <c r="E105" s="92"/>
-      <c r="F105" s="93"/>
-      <c r="G105" s="93"/>
+      <c r="A105" s="87"/>
+      <c r="B105" s="88"/>
+      <c r="C105" s="89"/>
+      <c r="D105" s="89"/>
+      <c r="E105" s="89"/>
+      <c r="F105" s="90"/>
+      <c r="G105" s="90"/>
     </row>
     <row r="106" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A106" s="90"/>
-      <c r="B106" s="91"/>
-      <c r="C106" s="92"/>
-      <c r="D106" s="92"/>
-      <c r="E106" s="92"/>
-      <c r="F106" s="93"/>
-      <c r="G106" s="93"/>
+      <c r="A106" s="87"/>
+      <c r="B106" s="88"/>
+      <c r="C106" s="89"/>
+      <c r="D106" s="89"/>
+      <c r="E106" s="89"/>
+      <c r="F106" s="90"/>
+      <c r="G106" s="90"/>
     </row>
     <row r="107" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A107" s="90"/>
-      <c r="B107" s="91"/>
-      <c r="C107" s="92"/>
-      <c r="D107" s="92"/>
-      <c r="E107" s="92"/>
-      <c r="F107" s="93"/>
-      <c r="G107" s="93"/>
+      <c r="A107" s="87"/>
+      <c r="B107" s="88"/>
+      <c r="C107" s="89"/>
+      <c r="D107" s="89"/>
+      <c r="E107" s="89"/>
+      <c r="F107" s="90"/>
+      <c r="G107" s="90"/>
     </row>
     <row r="108" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A108" s="90"/>
-      <c r="B108" s="91"/>
-      <c r="C108" s="92"/>
-      <c r="D108" s="92"/>
-      <c r="E108" s="92"/>
-      <c r="F108" s="93"/>
-      <c r="G108" s="93"/>
+      <c r="A108" s="87"/>
+      <c r="B108" s="88"/>
+      <c r="C108" s="89"/>
+      <c r="D108" s="89"/>
+      <c r="E108" s="89"/>
+      <c r="F108" s="90"/>
+      <c r="G108" s="90"/>
     </row>
     <row r="109" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A109" s="90"/>
-      <c r="B109" s="91"/>
-      <c r="C109" s="92"/>
-      <c r="D109" s="92"/>
-      <c r="E109" s="92"/>
-      <c r="F109" s="93"/>
-      <c r="G109" s="93"/>
+      <c r="A109" s="87"/>
+      <c r="B109" s="88"/>
+      <c r="C109" s="89"/>
+      <c r="D109" s="89"/>
+      <c r="E109" s="89"/>
+      <c r="F109" s="90"/>
+      <c r="G109" s="90"/>
     </row>
     <row r="110" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A110" s="90"/>
-      <c r="B110" s="91"/>
-      <c r="C110" s="92"/>
-      <c r="D110" s="92"/>
-      <c r="E110" s="92"/>
-      <c r="F110" s="93"/>
-      <c r="G110" s="93"/>
+      <c r="A110" s="87"/>
+      <c r="B110" s="88"/>
+      <c r="C110" s="89"/>
+      <c r="D110" s="89"/>
+      <c r="E110" s="89"/>
+      <c r="F110" s="90"/>
+      <c r="G110" s="90"/>
     </row>
     <row r="111" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A111" s="90"/>
-      <c r="B111" s="91"/>
-      <c r="C111" s="92"/>
-      <c r="D111" s="92"/>
-      <c r="E111" s="92"/>
-      <c r="F111" s="93"/>
-      <c r="G111" s="93"/>
+      <c r="A111" s="87"/>
+      <c r="B111" s="88"/>
+      <c r="C111" s="89"/>
+      <c r="D111" s="89"/>
+      <c r="E111" s="89"/>
+      <c r="F111" s="90"/>
+      <c r="G111" s="90"/>
     </row>
     <row r="112" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A112" s="90"/>
-      <c r="B112" s="91"/>
-      <c r="C112" s="92"/>
-      <c r="D112" s="92"/>
-      <c r="E112" s="92"/>
-      <c r="F112" s="93"/>
-      <c r="G112" s="93"/>
+      <c r="A112" s="87"/>
+      <c r="B112" s="88"/>
+      <c r="C112" s="89"/>
+      <c r="D112" s="89"/>
+      <c r="E112" s="89"/>
+      <c r="F112" s="90"/>
+      <c r="G112" s="90"/>
     </row>
     <row r="113" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A113" s="90"/>
-      <c r="B113" s="91"/>
-      <c r="C113" s="92"/>
-      <c r="D113" s="92"/>
-      <c r="E113" s="92"/>
-      <c r="F113" s="93"/>
-      <c r="G113" s="93"/>
+      <c r="A113" s="87"/>
+      <c r="B113" s="88"/>
+      <c r="C113" s="89"/>
+      <c r="D113" s="89"/>
+      <c r="E113" s="89"/>
+      <c r="F113" s="90"/>
+      <c r="G113" s="90"/>
     </row>
     <row r="114" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A114" s="90"/>
-      <c r="B114" s="91"/>
-      <c r="C114" s="92"/>
-      <c r="D114" s="92"/>
-      <c r="E114" s="92"/>
-      <c r="F114" s="93"/>
-      <c r="G114" s="93"/>
+      <c r="A114" s="87"/>
+      <c r="B114" s="88"/>
+      <c r="C114" s="89"/>
+      <c r="D114" s="89"/>
+      <c r="E114" s="89"/>
+      <c r="F114" s="90"/>
+      <c r="G114" s="90"/>
     </row>
     <row r="115" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A115" s="90"/>
-      <c r="B115" s="91"/>
-      <c r="C115" s="92"/>
-      <c r="D115" s="92"/>
-      <c r="E115" s="92"/>
-      <c r="F115" s="93"/>
-      <c r="G115" s="93"/>
+      <c r="A115" s="87"/>
+      <c r="B115" s="88"/>
+      <c r="C115" s="89"/>
+      <c r="D115" s="89"/>
+      <c r="E115" s="89"/>
+      <c r="F115" s="90"/>
+      <c r="G115" s="90"/>
     </row>
     <row r="116" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A116" s="90"/>
-      <c r="B116" s="91"/>
-      <c r="C116" s="92"/>
-      <c r="D116" s="92"/>
-      <c r="E116" s="92"/>
-      <c r="F116" s="93"/>
-      <c r="G116" s="93"/>
+      <c r="A116" s="87"/>
+      <c r="B116" s="88"/>
+      <c r="C116" s="89"/>
+      <c r="D116" s="89"/>
+      <c r="E116" s="89"/>
+      <c r="F116" s="90"/>
+      <c r="G116" s="90"/>
     </row>
     <row r="117" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A117" s="90"/>
-      <c r="B117" s="91"/>
-      <c r="C117" s="92"/>
-      <c r="D117" s="92"/>
-      <c r="E117" s="92"/>
-      <c r="F117" s="93"/>
-      <c r="G117" s="93"/>
+      <c r="A117" s="87"/>
+      <c r="B117" s="88"/>
+      <c r="C117" s="89"/>
+      <c r="D117" s="89"/>
+      <c r="E117" s="89"/>
+      <c r="F117" s="90"/>
+      <c r="G117" s="90"/>
     </row>
     <row r="118" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A118" s="90"/>
-      <c r="B118" s="91"/>
-      <c r="C118" s="92"/>
-      <c r="D118" s="92"/>
-      <c r="E118" s="92"/>
-      <c r="F118" s="93"/>
-      <c r="G118" s="93"/>
+      <c r="A118" s="87"/>
+      <c r="B118" s="88"/>
+      <c r="C118" s="89"/>
+      <c r="D118" s="89"/>
+      <c r="E118" s="89"/>
+      <c r="F118" s="90"/>
+      <c r="G118" s="90"/>
     </row>
     <row r="119" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A119" s="90"/>
-      <c r="B119" s="91"/>
-      <c r="C119" s="92"/>
-      <c r="D119" s="92"/>
-      <c r="E119" s="92"/>
-      <c r="F119" s="93"/>
-      <c r="G119" s="93"/>
+      <c r="A119" s="87"/>
+      <c r="B119" s="88"/>
+      <c r="C119" s="89"/>
+      <c r="D119" s="89"/>
+      <c r="E119" s="89"/>
+      <c r="F119" s="90"/>
+      <c r="G119" s="90"/>
     </row>
     <row r="120" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A120" s="90"/>
-      <c r="B120" s="91"/>
-      <c r="C120" s="92"/>
-      <c r="D120" s="92"/>
-      <c r="E120" s="92"/>
-      <c r="F120" s="93"/>
-      <c r="G120" s="93"/>
+      <c r="A120" s="87"/>
+      <c r="B120" s="88"/>
+      <c r="C120" s="89"/>
+      <c r="D120" s="89"/>
+      <c r="E120" s="89"/>
+      <c r="F120" s="90"/>
+      <c r="G120" s="90"/>
     </row>
     <row r="121" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A121" s="90"/>
-      <c r="B121" s="91"/>
-      <c r="C121" s="92"/>
-      <c r="D121" s="92"/>
-      <c r="E121" s="92"/>
-      <c r="F121" s="93"/>
-      <c r="G121" s="93"/>
+      <c r="A121" s="87"/>
+      <c r="B121" s="88"/>
+      <c r="C121" s="89"/>
+      <c r="D121" s="89"/>
+      <c r="E121" s="89"/>
+      <c r="F121" s="90"/>
+      <c r="G121" s="90"/>
     </row>
     <row r="122" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A122" s="90"/>
-      <c r="B122" s="91"/>
-      <c r="C122" s="92"/>
-      <c r="D122" s="92"/>
-      <c r="E122" s="92"/>
-      <c r="F122" s="93"/>
-      <c r="G122" s="93"/>
+      <c r="A122" s="87"/>
+      <c r="B122" s="88"/>
+      <c r="C122" s="89"/>
+      <c r="D122" s="89"/>
+      <c r="E122" s="89"/>
+      <c r="F122" s="90"/>
+      <c r="G122" s="90"/>
     </row>
     <row r="123" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A123" s="90"/>
-      <c r="B123" s="91"/>
-      <c r="C123" s="92"/>
-      <c r="D123" s="92"/>
-      <c r="E123" s="92"/>
-      <c r="F123" s="93"/>
-      <c r="G123" s="93"/>
+      <c r="A123" s="87"/>
+      <c r="B123" s="88"/>
+      <c r="C123" s="89"/>
+      <c r="D123" s="89"/>
+      <c r="E123" s="89"/>
+      <c r="F123" s="90"/>
+      <c r="G123" s="90"/>
     </row>
     <row r="124" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A124" s="90"/>
-      <c r="B124" s="91"/>
-      <c r="C124" s="92"/>
-      <c r="D124" s="92"/>
-      <c r="E124" s="92"/>
-      <c r="F124" s="93"/>
-      <c r="G124" s="93"/>
+      <c r="A124" s="87"/>
+      <c r="B124" s="88"/>
+      <c r="C124" s="89"/>
+      <c r="D124" s="89"/>
+      <c r="E124" s="89"/>
+      <c r="F124" s="90"/>
+      <c r="G124" s="90"/>
     </row>
     <row r="125" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A125" s="90"/>
-      <c r="B125" s="91"/>
-      <c r="C125" s="92"/>
-      <c r="D125" s="92"/>
-      <c r="E125" s="92"/>
-      <c r="F125" s="93"/>
-      <c r="G125" s="93"/>
+      <c r="A125" s="87"/>
+      <c r="B125" s="88"/>
+      <c r="C125" s="89"/>
+      <c r="D125" s="89"/>
+      <c r="E125" s="89"/>
+      <c r="F125" s="90"/>
+      <c r="G125" s="90"/>
     </row>
     <row r="126" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A126" s="90"/>
-      <c r="B126" s="91"/>
-      <c r="C126" s="92"/>
-      <c r="D126" s="92"/>
-      <c r="E126" s="92"/>
-      <c r="F126" s="93"/>
-      <c r="G126" s="93"/>
+      <c r="A126" s="87"/>
+      <c r="B126" s="88"/>
+      <c r="C126" s="89"/>
+      <c r="D126" s="89"/>
+      <c r="E126" s="89"/>
+      <c r="F126" s="90"/>
+      <c r="G126" s="90"/>
     </row>
     <row r="127" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A127" s="90"/>
-      <c r="B127" s="91"/>
-      <c r="C127" s="92"/>
-      <c r="D127" s="92"/>
-      <c r="E127" s="92"/>
-      <c r="F127" s="93"/>
-      <c r="G127" s="93"/>
+      <c r="A127" s="87"/>
+      <c r="B127" s="88"/>
+      <c r="C127" s="89"/>
+      <c r="D127" s="89"/>
+      <c r="E127" s="89"/>
+      <c r="F127" s="90"/>
+      <c r="G127" s="90"/>
     </row>
     <row r="128" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A128" s="90"/>
-      <c r="B128" s="91"/>
-      <c r="C128" s="92"/>
-      <c r="D128" s="92"/>
-      <c r="E128" s="92"/>
-      <c r="F128" s="93"/>
-      <c r="G128" s="93"/>
+      <c r="A128" s="87"/>
+      <c r="B128" s="88"/>
+      <c r="C128" s="89"/>
+      <c r="D128" s="89"/>
+      <c r="E128" s="89"/>
+      <c r="F128" s="90"/>
+      <c r="G128" s="90"/>
     </row>
     <row r="129" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A129" s="90"/>
-      <c r="B129" s="91"/>
-      <c r="C129" s="92"/>
-      <c r="D129" s="92"/>
-      <c r="E129" s="92"/>
-      <c r="F129" s="93"/>
-      <c r="G129" s="93"/>
+      <c r="A129" s="87"/>
+      <c r="B129" s="88"/>
+      <c r="C129" s="89"/>
+      <c r="D129" s="89"/>
+      <c r="E129" s="89"/>
+      <c r="F129" s="90"/>
+      <c r="G129" s="90"/>
     </row>
     <row r="130" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A130" s="90"/>
-      <c r="B130" s="91"/>
-      <c r="C130" s="92"/>
-      <c r="D130" s="92"/>
-      <c r="E130" s="92"/>
-      <c r="F130" s="93"/>
-      <c r="G130" s="93"/>
+      <c r="A130" s="87"/>
+      <c r="B130" s="88"/>
+      <c r="C130" s="89"/>
+      <c r="D130" s="89"/>
+      <c r="E130" s="89"/>
+      <c r="F130" s="90"/>
+      <c r="G130" s="90"/>
     </row>
     <row r="131" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A131" s="90"/>
-      <c r="B131" s="91"/>
-      <c r="C131" s="92"/>
-      <c r="D131" s="92"/>
-      <c r="E131" s="92"/>
-      <c r="F131" s="93"/>
-      <c r="G131" s="93"/>
+      <c r="A131" s="87"/>
+      <c r="B131" s="88"/>
+      <c r="C131" s="89"/>
+      <c r="D131" s="89"/>
+      <c r="E131" s="89"/>
+      <c r="F131" s="90"/>
+      <c r="G131" s="90"/>
     </row>
     <row r="132" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A132" s="90"/>
-      <c r="B132" s="91"/>
-      <c r="C132" s="92"/>
-      <c r="D132" s="92"/>
-      <c r="E132" s="92"/>
-      <c r="F132" s="93"/>
-      <c r="G132" s="93"/>
+      <c r="A132" s="87"/>
+      <c r="B132" s="88"/>
+      <c r="C132" s="89"/>
+      <c r="D132" s="89"/>
+      <c r="E132" s="89"/>
+      <c r="F132" s="90"/>
+      <c r="G132" s="90"/>
     </row>
     <row r="133" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A133" s="90"/>
-      <c r="B133" s="91"/>
-      <c r="C133" s="92"/>
-      <c r="D133" s="92"/>
-      <c r="E133" s="92"/>
-      <c r="F133" s="93"/>
-      <c r="G133" s="93"/>
+      <c r="A133" s="87"/>
+      <c r="B133" s="88"/>
+      <c r="C133" s="89"/>
+      <c r="D133" s="89"/>
+      <c r="E133" s="89"/>
+      <c r="F133" s="90"/>
+      <c r="G133" s="90"/>
     </row>
     <row r="134" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A134" s="90"/>
-      <c r="B134" s="91"/>
-      <c r="C134" s="92"/>
-      <c r="D134" s="92"/>
-      <c r="E134" s="92"/>
-      <c r="F134" s="93"/>
-      <c r="G134" s="93"/>
+      <c r="A134" s="87"/>
+      <c r="B134" s="88"/>
+      <c r="C134" s="89"/>
+      <c r="D134" s="89"/>
+      <c r="E134" s="89"/>
+      <c r="F134" s="90"/>
+      <c r="G134" s="90"/>
     </row>
     <row r="135" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A135" s="90"/>
-      <c r="B135" s="91"/>
-      <c r="C135" s="92"/>
-      <c r="D135" s="92"/>
-      <c r="E135" s="92"/>
-      <c r="F135" s="93"/>
-      <c r="G135" s="93"/>
+      <c r="A135" s="87"/>
+      <c r="B135" s="88"/>
+      <c r="C135" s="89"/>
+      <c r="D135" s="89"/>
+      <c r="E135" s="89"/>
+      <c r="F135" s="90"/>
+      <c r="G135" s="90"/>
     </row>
     <row r="136" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A136" s="90"/>
-      <c r="B136" s="91"/>
-      <c r="C136" s="92"/>
-      <c r="D136" s="92"/>
-      <c r="E136" s="92"/>
-      <c r="F136" s="93"/>
-      <c r="G136" s="93"/>
+      <c r="A136" s="87"/>
+      <c r="B136" s="88"/>
+      <c r="C136" s="89"/>
+      <c r="D136" s="89"/>
+      <c r="E136" s="89"/>
+      <c r="F136" s="90"/>
+      <c r="G136" s="90"/>
     </row>
     <row r="137" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A137" s="90"/>
-      <c r="B137" s="91"/>
-      <c r="C137" s="92"/>
-      <c r="D137" s="92"/>
-      <c r="E137" s="92"/>
-      <c r="F137" s="93"/>
-      <c r="G137" s="93"/>
+      <c r="A137" s="87"/>
+      <c r="B137" s="88"/>
+      <c r="C137" s="89"/>
+      <c r="D137" s="89"/>
+      <c r="E137" s="89"/>
+      <c r="F137" s="90"/>
+      <c r="G137" s="90"/>
     </row>
     <row r="138" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A138" s="90"/>
-      <c r="B138" s="91"/>
-      <c r="C138" s="92"/>
-      <c r="D138" s="92"/>
-      <c r="E138" s="92"/>
-      <c r="F138" s="93"/>
-      <c r="G138" s="93"/>
+      <c r="A138" s="87"/>
+      <c r="B138" s="88"/>
+      <c r="C138" s="89"/>
+      <c r="D138" s="89"/>
+      <c r="E138" s="89"/>
+      <c r="F138" s="90"/>
+      <c r="G138" s="90"/>
     </row>
     <row r="139" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A139" s="90"/>
-      <c r="B139" s="91"/>
-      <c r="C139" s="92"/>
-      <c r="D139" s="92"/>
-      <c r="E139" s="92"/>
-      <c r="F139" s="93"/>
-      <c r="G139" s="93"/>
+      <c r="A139" s="87"/>
+      <c r="B139" s="88"/>
+      <c r="C139" s="89"/>
+      <c r="D139" s="89"/>
+      <c r="E139" s="89"/>
+      <c r="F139" s="90"/>
+      <c r="G139" s="90"/>
     </row>
     <row r="140" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A140" s="90"/>
-      <c r="B140" s="91"/>
-      <c r="C140" s="92"/>
-      <c r="D140" s="92"/>
-      <c r="E140" s="92"/>
-      <c r="F140" s="93"/>
-      <c r="G140" s="93"/>
+      <c r="A140" s="87"/>
+      <c r="B140" s="88"/>
+      <c r="C140" s="89"/>
+      <c r="D140" s="89"/>
+      <c r="E140" s="89"/>
+      <c r="F140" s="90"/>
+      <c r="G140" s="90"/>
     </row>
     <row r="141" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A141" s="90"/>
-      <c r="B141" s="91"/>
-      <c r="C141" s="92"/>
-      <c r="D141" s="92"/>
-      <c r="E141" s="92"/>
-      <c r="F141" s="93"/>
-      <c r="G141" s="93"/>
+      <c r="A141" s="87"/>
+      <c r="B141" s="88"/>
+      <c r="C141" s="89"/>
+      <c r="D141" s="89"/>
+      <c r="E141" s="89"/>
+      <c r="F141" s="90"/>
+      <c r="G141" s="90"/>
     </row>
     <row r="142" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A142" s="90"/>
-      <c r="B142" s="91"/>
-      <c r="C142" s="92"/>
-      <c r="D142" s="92"/>
-      <c r="E142" s="92"/>
-      <c r="F142" s="93"/>
-      <c r="G142" s="93"/>
+      <c r="A142" s="87"/>
+      <c r="B142" s="88"/>
+      <c r="C142" s="89"/>
+      <c r="D142" s="89"/>
+      <c r="E142" s="89"/>
+      <c r="F142" s="90"/>
+      <c r="G142" s="90"/>
     </row>
     <row r="143" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A143" s="90"/>
-      <c r="B143" s="91"/>
-      <c r="C143" s="92"/>
-      <c r="D143" s="92"/>
-      <c r="E143" s="92"/>
-      <c r="F143" s="93"/>
-      <c r="G143" s="93"/>
+      <c r="A143" s="87"/>
+      <c r="B143" s="88"/>
+      <c r="C143" s="89"/>
+      <c r="D143" s="89"/>
+      <c r="E143" s="89"/>
+      <c r="F143" s="90"/>
+      <c r="G143" s="90"/>
     </row>
     <row r="144" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A144" s="90"/>
-      <c r="B144" s="91"/>
-      <c r="C144" s="92"/>
-      <c r="D144" s="92"/>
-      <c r="E144" s="92"/>
-      <c r="F144" s="93"/>
-      <c r="G144" s="93"/>
+      <c r="A144" s="87"/>
+      <c r="B144" s="88"/>
+      <c r="C144" s="89"/>
+      <c r="D144" s="89"/>
+      <c r="E144" s="89"/>
+      <c r="F144" s="90"/>
+      <c r="G144" s="90"/>
     </row>
     <row r="145" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A145" s="90"/>
-      <c r="B145" s="91"/>
-      <c r="C145" s="92"/>
-      <c r="D145" s="92"/>
-      <c r="E145" s="92"/>
-      <c r="F145" s="93"/>
-      <c r="G145" s="93"/>
+      <c r="A145" s="87"/>
+      <c r="B145" s="88"/>
+      <c r="C145" s="89"/>
+      <c r="D145" s="89"/>
+      <c r="E145" s="89"/>
+      <c r="F145" s="90"/>
+      <c r="G145" s="90"/>
     </row>
     <row r="146" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A146" s="90"/>
-      <c r="B146" s="91"/>
-      <c r="C146" s="92"/>
-      <c r="D146" s="92"/>
-      <c r="E146" s="92"/>
-      <c r="F146" s="93"/>
-      <c r="G146" s="93"/>
+      <c r="A146" s="87"/>
+      <c r="B146" s="88"/>
+      <c r="C146" s="89"/>
+      <c r="D146" s="89"/>
+      <c r="E146" s="89"/>
+      <c r="F146" s="90"/>
+      <c r="G146" s="90"/>
     </row>
     <row r="147" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A147" s="90"/>
-      <c r="B147" s="91"/>
-      <c r="C147" s="92"/>
-      <c r="D147" s="92"/>
-      <c r="E147" s="92"/>
-      <c r="F147" s="93"/>
-      <c r="G147" s="93"/>
+      <c r="A147" s="87"/>
+      <c r="B147" s="88"/>
+      <c r="C147" s="89"/>
+      <c r="D147" s="89"/>
+      <c r="E147" s="89"/>
+      <c r="F147" s="90"/>
+      <c r="G147" s="90"/>
     </row>
     <row r="148" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A148" s="90"/>
-      <c r="B148" s="91"/>
-      <c r="C148" s="92"/>
-      <c r="D148" s="92"/>
-      <c r="E148" s="92"/>
-      <c r="F148" s="93"/>
-      <c r="G148" s="93"/>
+      <c r="A148" s="87"/>
+      <c r="B148" s="88"/>
+      <c r="C148" s="89"/>
+      <c r="D148" s="89"/>
+      <c r="E148" s="89"/>
+      <c r="F148" s="90"/>
+      <c r="G148" s="90"/>
     </row>
     <row r="149" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A149" s="90"/>
-      <c r="B149" s="91"/>
-      <c r="C149" s="92"/>
-      <c r="D149" s="92"/>
-      <c r="E149" s="92"/>
-      <c r="F149" s="93"/>
-      <c r="G149" s="93"/>
+      <c r="A149" s="87"/>
+      <c r="B149" s="88"/>
+      <c r="C149" s="89"/>
+      <c r="D149" s="89"/>
+      <c r="E149" s="89"/>
+      <c r="F149" s="90"/>
+      <c r="G149" s="90"/>
     </row>
     <row r="150" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A150" s="90"/>
-      <c r="B150" s="91"/>
-      <c r="C150" s="92"/>
-      <c r="D150" s="92"/>
-      <c r="E150" s="92"/>
-      <c r="F150" s="93"/>
-      <c r="G150" s="93"/>
+      <c r="A150" s="87"/>
+      <c r="B150" s="88"/>
+      <c r="C150" s="89"/>
+      <c r="D150" s="89"/>
+      <c r="E150" s="89"/>
+      <c r="F150" s="90"/>
+      <c r="G150" s="90"/>
     </row>
     <row r="151" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A151" s="90"/>
-      <c r="B151" s="91"/>
-      <c r="C151" s="92"/>
-      <c r="D151" s="92"/>
-      <c r="E151" s="92"/>
-      <c r="F151" s="93"/>
-      <c r="G151" s="93"/>
+      <c r="A151" s="87"/>
+      <c r="B151" s="88"/>
+      <c r="C151" s="89"/>
+      <c r="D151" s="89"/>
+      <c r="E151" s="89"/>
+      <c r="F151" s="90"/>
+      <c r="G151" s="90"/>
     </row>
     <row r="152" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A152" s="90"/>
-      <c r="B152" s="91"/>
-      <c r="C152" s="92"/>
-      <c r="D152" s="92"/>
-      <c r="E152" s="92"/>
-      <c r="F152" s="93"/>
-      <c r="G152" s="93"/>
+      <c r="A152" s="87"/>
+      <c r="B152" s="88"/>
+      <c r="C152" s="89"/>
+      <c r="D152" s="89"/>
+      <c r="E152" s="89"/>
+      <c r="F152" s="90"/>
+      <c r="G152" s="90"/>
     </row>
     <row r="153" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A153" s="90"/>
-      <c r="B153" s="91"/>
-      <c r="C153" s="92"/>
-      <c r="D153" s="92"/>
-      <c r="E153" s="92"/>
-      <c r="F153" s="93"/>
-      <c r="G153" s="93"/>
+      <c r="A153" s="87"/>
+      <c r="B153" s="88"/>
+      <c r="C153" s="89"/>
+      <c r="D153" s="89"/>
+      <c r="E153" s="89"/>
+      <c r="F153" s="90"/>
+      <c r="G153" s="90"/>
     </row>
     <row r="154" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A154" s="90"/>
-      <c r="B154" s="91"/>
-      <c r="C154" s="92"/>
-      <c r="D154" s="92"/>
-      <c r="E154" s="92"/>
-      <c r="F154" s="93"/>
-      <c r="G154" s="93"/>
+      <c r="A154" s="87"/>
+      <c r="B154" s="88"/>
+      <c r="C154" s="89"/>
+      <c r="D154" s="89"/>
+      <c r="E154" s="89"/>
+      <c r="F154" s="90"/>
+      <c r="G154" s="90"/>
     </row>
     <row r="155" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A155" s="90"/>
-      <c r="B155" s="91"/>
-      <c r="C155" s="92"/>
-      <c r="D155" s="92"/>
-      <c r="E155" s="92"/>
-      <c r="F155" s="93"/>
-      <c r="G155" s="93"/>
+      <c r="A155" s="87"/>
+      <c r="B155" s="88"/>
+      <c r="C155" s="89"/>
+      <c r="D155" s="89"/>
+      <c r="E155" s="89"/>
+      <c r="F155" s="90"/>
+      <c r="G155" s="90"/>
     </row>
     <row r="156" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A156" s="90"/>
-      <c r="B156" s="91"/>
-      <c r="C156" s="92"/>
-      <c r="D156" s="92"/>
-      <c r="E156" s="92"/>
-      <c r="F156" s="93"/>
-      <c r="G156" s="93"/>
+      <c r="A156" s="87"/>
+      <c r="B156" s="88"/>
+      <c r="C156" s="89"/>
+      <c r="D156" s="89"/>
+      <c r="E156" s="89"/>
+      <c r="F156" s="90"/>
+      <c r="G156" s="90"/>
     </row>
     <row r="157" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A157" s="90"/>
-      <c r="B157" s="91"/>
-      <c r="C157" s="92"/>
-      <c r="D157" s="92"/>
-      <c r="E157" s="92"/>
-      <c r="F157" s="93"/>
-      <c r="G157" s="93"/>
+      <c r="A157" s="87"/>
+      <c r="B157" s="88"/>
+      <c r="C157" s="89"/>
+      <c r="D157" s="89"/>
+      <c r="E157" s="89"/>
+      <c r="F157" s="90"/>
+      <c r="G157" s="90"/>
     </row>
     <row r="158" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A158" s="90"/>
-      <c r="B158" s="91"/>
-      <c r="C158" s="92"/>
-      <c r="D158" s="92"/>
-      <c r="E158" s="92"/>
-      <c r="F158" s="93"/>
-      <c r="G158" s="93"/>
+      <c r="A158" s="87"/>
+      <c r="B158" s="88"/>
+      <c r="C158" s="89"/>
+      <c r="D158" s="89"/>
+      <c r="E158" s="89"/>
+      <c r="F158" s="90"/>
+      <c r="G158" s="90"/>
     </row>
     <row r="159" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A159" s="90"/>
-      <c r="B159" s="91"/>
-      <c r="C159" s="92"/>
-      <c r="D159" s="92"/>
-      <c r="E159" s="92"/>
-      <c r="F159" s="93"/>
-      <c r="G159" s="93"/>
+      <c r="A159" s="87"/>
+      <c r="B159" s="88"/>
+      <c r="C159" s="89"/>
+      <c r="D159" s="89"/>
+      <c r="E159" s="89"/>
+      <c r="F159" s="90"/>
+      <c r="G159" s="90"/>
     </row>
     <row r="160" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A160" s="90"/>
-      <c r="B160" s="91"/>
-      <c r="C160" s="92"/>
-      <c r="D160" s="92"/>
-      <c r="E160" s="92"/>
-      <c r="F160" s="93"/>
-      <c r="G160" s="93"/>
+      <c r="A160" s="87"/>
+      <c r="B160" s="88"/>
+      <c r="C160" s="89"/>
+      <c r="D160" s="89"/>
+      <c r="E160" s="89"/>
+      <c r="F160" s="90"/>
+      <c r="G160" s="90"/>
     </row>
     <row r="161" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A161" s="90"/>
-      <c r="B161" s="91"/>
-      <c r="C161" s="92"/>
-      <c r="D161" s="92"/>
-      <c r="E161" s="92"/>
-      <c r="F161" s="93"/>
-      <c r="G161" s="93"/>
+      <c r="A161" s="87"/>
+      <c r="B161" s="88"/>
+      <c r="C161" s="89"/>
+      <c r="D161" s="89"/>
+      <c r="E161" s="89"/>
+      <c r="F161" s="90"/>
+      <c r="G161" s="90"/>
     </row>
     <row r="162" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A162" s="90"/>
-      <c r="B162" s="91"/>
-      <c r="C162" s="92"/>
-      <c r="D162" s="92"/>
-      <c r="E162" s="92"/>
-      <c r="F162" s="93"/>
-      <c r="G162" s="93"/>
+      <c r="A162" s="87"/>
+      <c r="B162" s="88"/>
+      <c r="C162" s="89"/>
+      <c r="D162" s="89"/>
+      <c r="E162" s="89"/>
+      <c r="F162" s="90"/>
+      <c r="G162" s="90"/>
     </row>
     <row r="163" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A163" s="90"/>
-      <c r="B163" s="91"/>
-      <c r="C163" s="92"/>
-      <c r="D163" s="92"/>
-      <c r="E163" s="92"/>
-      <c r="F163" s="93"/>
-      <c r="G163" s="93"/>
+      <c r="A163" s="87"/>
+      <c r="B163" s="88"/>
+      <c r="C163" s="89"/>
+      <c r="D163" s="89"/>
+      <c r="E163" s="89"/>
+      <c r="F163" s="90"/>
+      <c r="G163" s="90"/>
     </row>
     <row r="164" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A164" s="90"/>
-      <c r="B164" s="91"/>
-      <c r="C164" s="91"/>
-      <c r="D164" s="91"/>
-      <c r="E164" s="91"/>
-      <c r="F164" s="93"/>
-      <c r="G164" s="93"/>
+      <c r="A164" s="87"/>
+      <c r="B164" s="88"/>
+      <c r="C164" s="88"/>
+      <c r="D164" s="88"/>
+      <c r="E164" s="88"/>
+      <c r="F164" s="90"/>
+      <c r="G164" s="90"/>
     </row>
     <row r="165" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A165" s="90"/>
-      <c r="B165" s="91"/>
-      <c r="C165" s="91"/>
-      <c r="D165" s="91"/>
-      <c r="E165" s="91"/>
-      <c r="F165" s="93"/>
-      <c r="G165" s="93"/>
+      <c r="A165" s="87"/>
+      <c r="B165" s="88"/>
+      <c r="C165" s="88"/>
+      <c r="D165" s="88"/>
+      <c r="E165" s="88"/>
+      <c r="F165" s="90"/>
+      <c r="G165" s="90"/>
     </row>
     <row r="166" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A166" s="90"/>
-      <c r="B166" s="91"/>
-      <c r="C166" s="91"/>
-      <c r="D166" s="91"/>
-      <c r="E166" s="91"/>
-      <c r="F166" s="93"/>
-      <c r="G166" s="93"/>
+      <c r="A166" s="87"/>
+      <c r="B166" s="88"/>
+      <c r="C166" s="88"/>
+      <c r="D166" s="88"/>
+      <c r="E166" s="88"/>
+      <c r="F166" s="90"/>
+      <c r="G166" s="90"/>
     </row>
     <row r="167" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A167" s="90"/>
-      <c r="B167" s="91"/>
-      <c r="C167" s="91"/>
-      <c r="D167" s="91"/>
-      <c r="E167" s="91"/>
-      <c r="F167" s="93"/>
-      <c r="G167" s="93"/>
+      <c r="A167" s="87"/>
+      <c r="B167" s="88"/>
+      <c r="C167" s="88"/>
+      <c r="D167" s="88"/>
+      <c r="E167" s="88"/>
+      <c r="F167" s="90"/>
+      <c r="G167" s="90"/>
     </row>
     <row r="168" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A168" s="90"/>
-      <c r="B168" s="91"/>
-      <c r="C168" s="91"/>
-      <c r="D168" s="91"/>
-      <c r="E168" s="91"/>
-      <c r="F168" s="93"/>
-      <c r="G168" s="93"/>
+      <c r="A168" s="87"/>
+      <c r="B168" s="88"/>
+      <c r="C168" s="88"/>
+      <c r="D168" s="88"/>
+      <c r="E168" s="88"/>
+      <c r="F168" s="90"/>
+      <c r="G168" s="90"/>
     </row>
     <row r="169" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A169" s="90"/>
-      <c r="B169" s="91"/>
-      <c r="C169" s="91"/>
-      <c r="D169" s="91"/>
-      <c r="E169" s="91"/>
-      <c r="F169" s="93"/>
-      <c r="G169" s="93"/>
+      <c r="A169" s="87"/>
+      <c r="B169" s="88"/>
+      <c r="C169" s="88"/>
+      <c r="D169" s="88"/>
+      <c r="E169" s="88"/>
+      <c r="F169" s="90"/>
+      <c r="G169" s="90"/>
     </row>
     <row r="170" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A170" s="90"/>
-      <c r="B170" s="91"/>
-      <c r="C170" s="91"/>
-      <c r="D170" s="91"/>
-      <c r="E170" s="91"/>
-      <c r="F170" s="93"/>
-      <c r="G170" s="93"/>
+      <c r="A170" s="87"/>
+      <c r="B170" s="88"/>
+      <c r="C170" s="88"/>
+      <c r="D170" s="88"/>
+      <c r="E170" s="88"/>
+      <c r="F170" s="90"/>
+      <c r="G170" s="90"/>
     </row>
     <row r="171" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A171" s="90"/>
-      <c r="B171" s="91"/>
-      <c r="C171" s="91"/>
-      <c r="D171" s="91"/>
-      <c r="E171" s="91"/>
-      <c r="F171" s="93"/>
-      <c r="G171" s="93"/>
+      <c r="A171" s="87"/>
+      <c r="B171" s="88"/>
+      <c r="C171" s="88"/>
+      <c r="D171" s="88"/>
+      <c r="E171" s="88"/>
+      <c r="F171" s="90"/>
+      <c r="G171" s="90"/>
     </row>
     <row r="172" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A172" s="90"/>
-      <c r="B172" s="91"/>
-      <c r="C172" s="91"/>
-      <c r="D172" s="91"/>
-      <c r="E172" s="91"/>
-      <c r="F172" s="93"/>
-      <c r="G172" s="93"/>
+      <c r="A172" s="87"/>
+      <c r="B172" s="88"/>
+      <c r="C172" s="88"/>
+      <c r="D172" s="88"/>
+      <c r="E172" s="88"/>
+      <c r="F172" s="90"/>
+      <c r="G172" s="90"/>
     </row>
     <row r="173" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A173" s="90"/>
-      <c r="B173" s="91"/>
-      <c r="C173" s="91"/>
-      <c r="D173" s="91"/>
-      <c r="E173" s="91"/>
-      <c r="F173" s="93"/>
-      <c r="G173" s="93"/>
+      <c r="A173" s="87"/>
+      <c r="B173" s="88"/>
+      <c r="C173" s="88"/>
+      <c r="D173" s="88"/>
+      <c r="E173" s="88"/>
+      <c r="F173" s="90"/>
+      <c r="G173" s="90"/>
     </row>
     <row r="174" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A174" s="90"/>
-      <c r="B174" s="91"/>
-      <c r="C174" s="91"/>
-      <c r="D174" s="91"/>
-      <c r="E174" s="91"/>
-      <c r="F174" s="93"/>
-      <c r="G174" s="93"/>
+      <c r="A174" s="87"/>
+      <c r="B174" s="88"/>
+      <c r="C174" s="88"/>
+      <c r="D174" s="88"/>
+      <c r="E174" s="88"/>
+      <c r="F174" s="90"/>
+      <c r="G174" s="90"/>
     </row>
     <row r="175" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="B175" s="2"/>
-      <c r="G175" s="93"/>
+      <c r="G175" s="90"/>
     </row>
     <row r="176" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="B176" s="2"/>
-      <c r="G176" s="93"/>
+      <c r="G176" s="90"/>
     </row>
     <row r="177" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="B177" s="2"/>

--- a/pw.xlsx
+++ b/pw.xlsx
@@ -1029,11 +1029,11 @@
   </sheetPr>
   <dimension ref="A1:I1174"/>
   <sheetViews>
-    <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="true" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A18" colorId="64" zoomScale="100" zoomScaleNormal="100" zoomScalePageLayoutView="100" workbookViewId="0">
+    <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="true" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A1" colorId="64" zoomScale="100" zoomScaleNormal="100" zoomScalePageLayoutView="100" workbookViewId="0">
       <selection pane="topLeft" activeCell="F45" activeCellId="0" sqref="F45"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="9.00390625" defaultRowHeight="13.8" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
+  <sheetFormatPr defaultColWidth="9.01953125" defaultRowHeight="13.8" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
   <cols>
     <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="1" min="1" style="0" width="34.73"/>
     <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="2" min="2" style="1" width="11.11"/>

--- a/pw.xlsx
+++ b/pw.xlsx
@@ -20,7 +20,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="100" uniqueCount="98">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="112" uniqueCount="109">
   <si>
     <t xml:space="preserve">Label</t>
   </si>
@@ -136,6 +136,9 @@
     <t xml:space="preserve">Ship Super Structure House Sturn Side Left</t>
   </si>
   <si>
+    <t xml:space="preserve">Ship Super Structure House Sturn Side Left Bottom</t>
+  </si>
+  <si>
     <t xml:space="preserve">Ship Super Structure House Sturn Side Right</t>
   </si>
   <si>
@@ -314,6 +317,36 @@
   </si>
   <si>
     <t xml:space="preserve">Sturn Hull Right Mid</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Ship Left Air vent Left Keypoint</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Ship Left Air vent Right Keypoint</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Ship Right Air vent Left Keypoint</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Ship Right Air vent Right Keypoint</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Flag Box Left Top</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Flag Box Left Mid</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Flag Box Left Bottom</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Flag Box Right Bottom</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Flag Box Right Mid</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Flag Box RightTop</t>
   </si>
 </sst>
 </file>
@@ -511,8 +544,8 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor rgb="FFFFFFFF"/>
-        <bgColor rgb="FFFFFFD7"/>
+        <fgColor rgb="FF5983B0"/>
+        <bgColor rgb="FF808080"/>
       </patternFill>
     </fill>
   </fills>
@@ -566,7 +599,7 @@
       <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
     </xf>
   </cellStyleXfs>
-  <cellXfs count="91">
+  <cellXfs count="95">
     <xf numFmtId="164" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="false" applyBorder="false" applyAlignment="false" applyProtection="false">
       <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
@@ -903,7 +936,7 @@
       <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
     </xf>
-    <xf numFmtId="164" fontId="5" fillId="25" borderId="1" xfId="0" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="false">
+    <xf numFmtId="166" fontId="5" fillId="25" borderId="1" xfId="0" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="false">
       <alignment horizontal="center" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
     </xf>
@@ -913,6 +946,22 @@
     </xf>
     <xf numFmtId="164" fontId="0" fillId="25" borderId="1" xfId="0" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="false">
       <alignment horizontal="center" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
+      <protection locked="true" hidden="false"/>
+    </xf>
+    <xf numFmtId="164" fontId="5" fillId="15" borderId="1" xfId="0" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="false">
+      <alignment horizontal="center" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
+      <protection locked="true" hidden="false"/>
+    </xf>
+    <xf numFmtId="164" fontId="5" fillId="0" borderId="1" xfId="0" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="false">
+      <alignment horizontal="center" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
+      <protection locked="true" hidden="false"/>
+    </xf>
+    <xf numFmtId="165" fontId="5" fillId="0" borderId="1" xfId="0" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="false">
+      <alignment horizontal="center" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
+      <protection locked="true" hidden="false"/>
+    </xf>
+    <xf numFmtId="164" fontId="5" fillId="0" borderId="1" xfId="0" applyFont="true" applyBorder="true" applyAlignment="false" applyProtection="false">
+      <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
     </xf>
     <xf numFmtId="164" fontId="0" fillId="0" borderId="1" xfId="0" applyFont="false" applyBorder="true" applyAlignment="false" applyProtection="false">
@@ -962,7 +1011,7 @@
   <colors>
     <indexedColors>
       <rgbColor rgb="FF000000"/>
-      <rgbColor rgb="FFFFFFFF"/>
+      <rgbColor rgb="FFF6F9D4"/>
       <rgbColor rgb="FFFF0000"/>
       <rgbColor rgb="FF00FF00"/>
       <rgbColor rgb="FF0000FF"/>
@@ -994,7 +1043,7 @@
       <rgbColor rgb="FF008080"/>
       <rgbColor rgb="FF0000FF"/>
       <rgbColor rgb="FF00CCFF"/>
-      <rgbColor rgb="FFF6F9D4"/>
+      <rgbColor rgb="FFFFD7D7"/>
       <rgbColor rgb="FFE8F2A1"/>
       <rgbColor rgb="FFFFFFA6"/>
       <rgbColor rgb="FFAFD095"/>
@@ -1005,12 +1054,12 @@
       <rgbColor rgb="FF33CCCC"/>
       <rgbColor rgb="FF99CC00"/>
       <rgbColor rgb="FFFFB66C"/>
-      <rgbColor rgb="FFFFD7D7"/>
+      <rgbColor rgb="FFFF9900"/>
       <rgbColor rgb="FFE16173"/>
       <rgbColor rgb="FF666666"/>
       <rgbColor rgb="FF8E86AE"/>
       <rgbColor rgb="FF003366"/>
-      <rgbColor rgb="FF339966"/>
+      <rgbColor rgb="FF5983B0"/>
       <rgbColor rgb="FF003300"/>
       <rgbColor rgb="FF1C1C1C"/>
       <rgbColor rgb="FF993300"/>
@@ -1027,13 +1076,13 @@
   <sheetPr filterMode="false">
     <pageSetUpPr fitToPage="false"/>
   </sheetPr>
-  <dimension ref="A1:I1174"/>
+  <dimension ref="A1:I1176"/>
   <sheetViews>
     <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="true" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A1" colorId="64" zoomScale="100" zoomScaleNormal="100" zoomScalePageLayoutView="100" workbookViewId="0">
-      <selection pane="topLeft" activeCell="F45" activeCellId="0" sqref="F45"/>
+      <selection pane="topLeft" activeCell="L35" activeCellId="0" sqref="L35"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="9.01953125" defaultRowHeight="13.8" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
+  <sheetFormatPr defaultColWidth="9.0390625" defaultRowHeight="13.8" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
   <cols>
     <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="1" min="1" style="0" width="34.73"/>
     <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="2" min="2" style="1" width="11.11"/>
@@ -1094,11 +1143,11 @@
         <v>0</v>
       </c>
       <c r="H2" s="14" t="n">
-        <f aca="false">SUM(F2:F126)</f>
-        <v>19</v>
+        <f aca="false">SUM(F2:F128)</f>
+        <v>20</v>
       </c>
       <c r="I2" s="0" t="n">
-        <f aca="false">MAX(G2:G176)</f>
+        <f aca="false">MAX(G2:G178)</f>
         <v>0</v>
       </c>
     </row>
@@ -1727,9 +1776,9 @@
         <v>1.6043</v>
       </c>
       <c r="F28" s="35" t="n">
-        <v>0</v>
-      </c>
-      <c r="G28" s="13" t="n">
+        <v>1</v>
+      </c>
+      <c r="G28" s="35" t="n">
         <v>0</v>
       </c>
     </row>
@@ -1840,13 +1889,13 @@
         <v>32</v>
       </c>
       <c r="C33" s="42" t="n">
-        <v>1.7126</v>
+        <v>-1.8926</v>
       </c>
       <c r="D33" s="42" t="n">
-        <v>13.76</v>
+        <v>13.04</v>
       </c>
       <c r="E33" s="42" t="n">
-        <v>4.0374</v>
+        <v>1.7554</v>
       </c>
       <c r="F33" s="43" t="n">
         <v>0</v>
@@ -1856,56 +1905,56 @@
       </c>
     </row>
     <row r="34" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A34" s="44" t="s">
-        <v>39</v>
-      </c>
-      <c r="B34" s="45" t="n">
+      <c r="A34" s="40" t="s">
+        <v>38</v>
+      </c>
+      <c r="B34" s="41" t="n">
         <f aca="false">B33+1</f>
         <v>33</v>
       </c>
-      <c r="C34" s="46" t="n">
-        <v>-0.8</v>
-      </c>
-      <c r="D34" s="46" t="n">
-        <v>2.04</v>
-      </c>
-      <c r="E34" s="46" t="n">
-        <v>0</v>
-      </c>
-      <c r="F34" s="47" t="n">
-        <v>0</v>
-      </c>
-      <c r="G34" s="47" t="n">
+      <c r="C34" s="42" t="n">
+        <v>1.8926</v>
+      </c>
+      <c r="D34" s="42" t="n">
+        <v>13.04</v>
+      </c>
+      <c r="E34" s="42" t="n">
+        <v>1.7554</v>
+      </c>
+      <c r="F34" s="43" t="n">
+        <v>0</v>
+      </c>
+      <c r="G34" s="43" t="n">
         <v>0</v>
       </c>
     </row>
     <row r="35" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A35" s="44" t="s">
-        <v>40</v>
-      </c>
-      <c r="B35" s="45" t="n">
+      <c r="A35" s="40" t="s">
+        <v>39</v>
+      </c>
+      <c r="B35" s="41" t="n">
         <f aca="false">B34+1</f>
         <v>34</v>
       </c>
-      <c r="C35" s="46" t="n">
-        <v>-0.75</v>
-      </c>
-      <c r="D35" s="46" t="n">
-        <v>0.4</v>
-      </c>
-      <c r="E35" s="46" t="n">
-        <v>0</v>
-      </c>
-      <c r="F35" s="47" t="n">
-        <v>0</v>
-      </c>
-      <c r="G35" s="47" t="n">
+      <c r="C35" s="42" t="n">
+        <v>1.7126</v>
+      </c>
+      <c r="D35" s="42" t="n">
+        <v>13.76</v>
+      </c>
+      <c r="E35" s="42" t="n">
+        <v>4.0374</v>
+      </c>
+      <c r="F35" s="43" t="n">
+        <v>0</v>
+      </c>
+      <c r="G35" s="43" t="n">
         <v>0</v>
       </c>
     </row>
     <row r="36" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A36" s="44" t="s">
-        <v>41</v>
+        <v>40</v>
       </c>
       <c r="B36" s="45" t="n">
         <f aca="false">B35+1</f>
@@ -1915,7 +1964,7 @@
         <v>-0.8</v>
       </c>
       <c r="D36" s="46" t="n">
-        <v>-0.13</v>
+        <v>2.04</v>
       </c>
       <c r="E36" s="46" t="n">
         <v>0</v>
@@ -1929,17 +1978,17 @@
     </row>
     <row r="37" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A37" s="44" t="s">
-        <v>42</v>
+        <v>41</v>
       </c>
       <c r="B37" s="45" t="n">
         <f aca="false">B36+1</f>
         <v>36</v>
       </c>
       <c r="C37" s="46" t="n">
-        <v>0.8</v>
+        <v>-0.75</v>
       </c>
       <c r="D37" s="46" t="n">
-        <v>0.13</v>
+        <v>0.4</v>
       </c>
       <c r="E37" s="46" t="n">
         <v>0</v>
@@ -1953,17 +2002,17 @@
     </row>
     <row r="38" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A38" s="44" t="s">
-        <v>43</v>
+        <v>42</v>
       </c>
       <c r="B38" s="45" t="n">
         <f aca="false">B37+1</f>
         <v>37</v>
       </c>
       <c r="C38" s="46" t="n">
-        <v>0.83</v>
+        <v>-0.8</v>
       </c>
       <c r="D38" s="46" t="n">
-        <v>0.4</v>
+        <v>-0.13</v>
       </c>
       <c r="E38" s="46" t="n">
         <v>0</v>
@@ -1977,17 +2026,17 @@
     </row>
     <row r="39" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A39" s="44" t="s">
-        <v>44</v>
+        <v>43</v>
       </c>
       <c r="B39" s="45" t="n">
         <f aca="false">B38+1</f>
         <v>38</v>
       </c>
       <c r="C39" s="46" t="n">
-        <v>0.76</v>
+        <v>0.8</v>
       </c>
       <c r="D39" s="46" t="n">
-        <v>2.07</v>
+        <v>0.13</v>
       </c>
       <c r="E39" s="46" t="n">
         <v>0</v>
@@ -2000,72 +2049,72 @@
       </c>
     </row>
     <row r="40" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A40" s="36" t="s">
-        <v>45</v>
-      </c>
-      <c r="B40" s="37" t="n">
+      <c r="A40" s="44" t="s">
+        <v>44</v>
+      </c>
+      <c r="B40" s="45" t="n">
         <f aca="false">B39+1</f>
         <v>39</v>
       </c>
-      <c r="C40" s="38" t="n">
-        <v>-0.085</v>
-      </c>
-      <c r="D40" s="38" t="n">
-        <v>2.431</v>
-      </c>
-      <c r="E40" s="38" t="n">
-        <v>0</v>
-      </c>
-      <c r="F40" s="39" t="n">
-        <v>1</v>
-      </c>
-      <c r="G40" s="39" t="n">
+      <c r="C40" s="46" t="n">
+        <v>0.83</v>
+      </c>
+      <c r="D40" s="46" t="n">
+        <v>0.4</v>
+      </c>
+      <c r="E40" s="46" t="n">
+        <v>0</v>
+      </c>
+      <c r="F40" s="47" t="n">
+        <v>0</v>
+      </c>
+      <c r="G40" s="47" t="n">
         <v>0</v>
       </c>
     </row>
     <row r="41" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A41" s="36" t="s">
-        <v>46</v>
-      </c>
-      <c r="B41" s="37" t="n">
+      <c r="A41" s="44" t="s">
+        <v>45</v>
+      </c>
+      <c r="B41" s="45" t="n">
+        <f aca="false">B40+1</f>
         <v>40</v>
       </c>
-      <c r="C41" s="38" t="n">
-        <f aca="false">C40</f>
-        <v>-0.085</v>
-      </c>
-      <c r="D41" s="38" t="n">
-        <v>2</v>
-      </c>
-      <c r="E41" s="38" t="n">
-        <v>0</v>
-      </c>
-      <c r="F41" s="39" t="n">
-        <v>0</v>
-      </c>
-      <c r="G41" s="39" t="n">
+      <c r="C41" s="46" t="n">
+        <v>0.76</v>
+      </c>
+      <c r="D41" s="46" t="n">
+        <v>2.07</v>
+      </c>
+      <c r="E41" s="46" t="n">
+        <v>0</v>
+      </c>
+      <c r="F41" s="47" t="n">
+        <v>0</v>
+      </c>
+      <c r="G41" s="47" t="n">
         <v>0</v>
       </c>
     </row>
     <row r="42" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A42" s="36" t="s">
-        <v>47</v>
+        <v>46</v>
       </c>
       <c r="B42" s="37" t="n">
+        <f aca="false">B41+1</f>
         <v>41</v>
       </c>
       <c r="C42" s="38" t="n">
-        <f aca="false">C41</f>
         <v>-0.085</v>
       </c>
       <c r="D42" s="38" t="n">
-        <v>1.5</v>
+        <v>2.431</v>
       </c>
       <c r="E42" s="38" t="n">
         <v>0</v>
       </c>
       <c r="F42" s="39" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="G42" s="39" t="n">
         <v>0</v>
@@ -2073,17 +2122,18 @@
     </row>
     <row r="43" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A43" s="36" t="s">
-        <v>48</v>
+        <v>47</v>
       </c>
       <c r="B43" s="37" t="n">
+        <f aca="false">B42+1</f>
         <v>42</v>
       </c>
       <c r="C43" s="38" t="n">
-        <f aca="false">C41</f>
+        <f aca="false">C42</f>
         <v>-0.085</v>
       </c>
       <c r="D43" s="38" t="n">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="E43" s="38" t="n">
         <v>0</v>
@@ -2097,79 +2147,81 @@
     </row>
     <row r="44" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A44" s="36" t="s">
-        <v>49</v>
+        <v>48</v>
       </c>
       <c r="B44" s="37" t="n">
         <f aca="false">B43+1</f>
         <v>43</v>
       </c>
       <c r="C44" s="38" t="n">
+        <f aca="false">C43</f>
         <v>-0.085</v>
       </c>
       <c r="D44" s="38" t="n">
-        <v>0.938</v>
+        <v>1.5</v>
       </c>
       <c r="E44" s="38" t="n">
         <v>0</v>
       </c>
       <c r="F44" s="39" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="G44" s="39" t="n">
         <v>0</v>
       </c>
     </row>
     <row r="45" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A45" s="48" t="s">
-        <v>50</v>
-      </c>
-      <c r="B45" s="49" t="n">
+      <c r="A45" s="36" t="s">
+        <v>49</v>
+      </c>
+      <c r="B45" s="37" t="n">
         <f aca="false">B44+1</f>
         <v>44</v>
       </c>
-      <c r="C45" s="50" t="n">
-        <v>0.085</v>
-      </c>
-      <c r="D45" s="50" t="n">
-        <v>0.938</v>
-      </c>
-      <c r="E45" s="50" t="n">
-        <v>0</v>
-      </c>
-      <c r="F45" s="51" t="n">
+      <c r="C45" s="38" t="n">
+        <f aca="false">C43</f>
+        <v>-0.085</v>
+      </c>
+      <c r="D45" s="38" t="n">
         <v>1</v>
       </c>
-      <c r="G45" s="51" t="n">
+      <c r="E45" s="38" t="n">
+        <v>0</v>
+      </c>
+      <c r="F45" s="39" t="n">
+        <v>0</v>
+      </c>
+      <c r="G45" s="39" t="n">
         <v>0</v>
       </c>
     </row>
     <row r="46" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A46" s="48" t="s">
-        <v>51</v>
-      </c>
-      <c r="B46" s="49" t="n">
+      <c r="A46" s="36" t="s">
+        <v>50</v>
+      </c>
+      <c r="B46" s="37" t="n">
         <f aca="false">B45+1</f>
         <v>45</v>
       </c>
-      <c r="C46" s="50" t="n">
-        <v>0.085</v>
-      </c>
-      <c r="D46" s="50" t="n">
+      <c r="C46" s="38" t="n">
+        <v>-0.085</v>
+      </c>
+      <c r="D46" s="38" t="n">
+        <v>0.938</v>
+      </c>
+      <c r="E46" s="38" t="n">
+        <v>0</v>
+      </c>
+      <c r="F46" s="39" t="n">
         <v>1</v>
       </c>
-      <c r="E46" s="50" t="n">
-        <v>0</v>
-      </c>
-      <c r="F46" s="51" t="n">
-        <v>0</v>
-      </c>
-      <c r="G46" s="51" t="n">
+      <c r="G46" s="39" t="n">
         <v>0</v>
       </c>
     </row>
     <row r="47" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A47" s="48" t="s">
-        <v>52</v>
+        <v>51</v>
       </c>
       <c r="B47" s="49" t="n">
         <f aca="false">B46+1</f>
@@ -2179,13 +2231,13 @@
         <v>0.085</v>
       </c>
       <c r="D47" s="50" t="n">
-        <v>1.5</v>
+        <v>0.938</v>
       </c>
       <c r="E47" s="50" t="n">
         <v>0</v>
       </c>
       <c r="F47" s="51" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="G47" s="51" t="n">
         <v>0</v>
@@ -2193,7 +2245,7 @@
     </row>
     <row r="48" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A48" s="48" t="s">
-        <v>53</v>
+        <v>52</v>
       </c>
       <c r="B48" s="49" t="n">
         <f aca="false">B47+1</f>
@@ -2203,7 +2255,7 @@
         <v>0.085</v>
       </c>
       <c r="D48" s="50" t="n">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="E48" s="50" t="n">
         <v>0</v>
@@ -2217,7 +2269,7 @@
     </row>
     <row r="49" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A49" s="48" t="s">
-        <v>54</v>
+        <v>53</v>
       </c>
       <c r="B49" s="49" t="n">
         <f aca="false">B48+1</f>
@@ -2227,79 +2279,79 @@
         <v>0.085</v>
       </c>
       <c r="D49" s="50" t="n">
-        <v>2.431</v>
+        <v>1.5</v>
       </c>
       <c r="E49" s="50" t="n">
         <v>0</v>
       </c>
       <c r="F49" s="51" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="G49" s="51" t="n">
         <v>0</v>
       </c>
     </row>
     <row r="50" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A50" s="52" t="s">
-        <v>55</v>
-      </c>
-      <c r="B50" s="53" t="n">
+      <c r="A50" s="48" t="s">
+        <v>54</v>
+      </c>
+      <c r="B50" s="49" t="n">
         <f aca="false">B49+1</f>
         <v>49</v>
       </c>
-      <c r="C50" s="54" t="n">
-        <v>-0.085</v>
-      </c>
-      <c r="D50" s="54" t="n">
-        <v>0.8</v>
-      </c>
-      <c r="E50" s="54" t="n">
-        <v>0</v>
-      </c>
-      <c r="F50" s="55" t="n">
-        <v>0</v>
-      </c>
-      <c r="G50" s="55" t="n">
+      <c r="C50" s="50" t="n">
+        <v>0.085</v>
+      </c>
+      <c r="D50" s="50" t="n">
+        <v>2</v>
+      </c>
+      <c r="E50" s="50" t="n">
+        <v>0</v>
+      </c>
+      <c r="F50" s="51" t="n">
+        <v>0</v>
+      </c>
+      <c r="G50" s="51" t="n">
         <v>0</v>
       </c>
     </row>
     <row r="51" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A51" s="52" t="s">
-        <v>56</v>
-      </c>
-      <c r="B51" s="53" t="n">
+      <c r="A51" s="48" t="s">
+        <v>55</v>
+      </c>
+      <c r="B51" s="49" t="n">
         <f aca="false">B50+1</f>
         <v>50</v>
       </c>
-      <c r="C51" s="54" t="n">
-        <v>-0.085</v>
-      </c>
-      <c r="D51" s="54" t="n">
-        <v>-0.8</v>
-      </c>
-      <c r="E51" s="54" t="n">
-        <v>0</v>
-      </c>
-      <c r="F51" s="55" t="n">
-        <v>0</v>
-      </c>
-      <c r="G51" s="55" t="n">
+      <c r="C51" s="50" t="n">
+        <v>0.085</v>
+      </c>
+      <c r="D51" s="50" t="n">
+        <v>2.431</v>
+      </c>
+      <c r="E51" s="50" t="n">
+        <v>0</v>
+      </c>
+      <c r="F51" s="51" t="n">
+        <v>1</v>
+      </c>
+      <c r="G51" s="51" t="n">
         <v>0</v>
       </c>
     </row>
     <row r="52" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A52" s="52" t="s">
-        <v>57</v>
+        <v>56</v>
       </c>
       <c r="B52" s="53" t="n">
         <f aca="false">B51+1</f>
         <v>51</v>
       </c>
       <c r="C52" s="54" t="n">
-        <v>0.085</v>
+        <v>-0.085</v>
       </c>
       <c r="D52" s="54" t="n">
-        <v>-0.8</v>
+        <v>0.8</v>
       </c>
       <c r="E52" s="54" t="n">
         <v>0</v>
@@ -2313,17 +2365,17 @@
     </row>
     <row r="53" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A53" s="52" t="s">
-        <v>58</v>
+        <v>57</v>
       </c>
       <c r="B53" s="53" t="n">
         <f aca="false">B52+1</f>
         <v>52</v>
       </c>
       <c r="C53" s="54" t="n">
-        <v>0.085</v>
+        <v>-0.085</v>
       </c>
       <c r="D53" s="54" t="n">
-        <v>0.8</v>
+        <v>-0.8</v>
       </c>
       <c r="E53" s="54" t="n">
         <v>0</v>
@@ -2336,66 +2388,66 @@
       </c>
     </row>
     <row r="54" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A54" s="56" t="s">
-        <v>59</v>
-      </c>
-      <c r="B54" s="57" t="n">
+      <c r="A54" s="52" t="s">
+        <v>58</v>
+      </c>
+      <c r="B54" s="53" t="n">
         <f aca="false">B53+1</f>
         <v>53</v>
       </c>
-      <c r="C54" s="58" t="n">
-        <v>-0.085</v>
-      </c>
-      <c r="D54" s="58" t="n">
-        <v>-0.938</v>
-      </c>
-      <c r="E54" s="58" t="n">
-        <v>0</v>
-      </c>
-      <c r="F54" s="59" t="n">
-        <v>0</v>
-      </c>
-      <c r="G54" s="59" t="n">
+      <c r="C54" s="54" t="n">
+        <v>0.085</v>
+      </c>
+      <c r="D54" s="54" t="n">
+        <v>-0.8</v>
+      </c>
+      <c r="E54" s="54" t="n">
+        <v>0</v>
+      </c>
+      <c r="F54" s="55" t="n">
+        <v>0</v>
+      </c>
+      <c r="G54" s="55" t="n">
         <v>0</v>
       </c>
     </row>
     <row r="55" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A55" s="56" t="s">
-        <v>60</v>
-      </c>
-      <c r="B55" s="57" t="n">
+      <c r="A55" s="52" t="s">
+        <v>59</v>
+      </c>
+      <c r="B55" s="53" t="n">
         <f aca="false">B54+1</f>
         <v>54</v>
       </c>
-      <c r="C55" s="58" t="n">
-        <v>-0.085</v>
-      </c>
-      <c r="D55" s="58" t="n">
-        <v>-2.408</v>
-      </c>
-      <c r="E55" s="58" t="n">
-        <v>0</v>
-      </c>
-      <c r="F55" s="59" t="n">
-        <v>0</v>
-      </c>
-      <c r="G55" s="59" t="n">
+      <c r="C55" s="54" t="n">
+        <v>0.085</v>
+      </c>
+      <c r="D55" s="54" t="n">
+        <v>0.8</v>
+      </c>
+      <c r="E55" s="54" t="n">
+        <v>0</v>
+      </c>
+      <c r="F55" s="55" t="n">
+        <v>0</v>
+      </c>
+      <c r="G55" s="55" t="n">
         <v>0</v>
       </c>
     </row>
     <row r="56" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A56" s="56" t="s">
-        <v>61</v>
+        <v>60</v>
       </c>
       <c r="B56" s="57" t="n">
         <f aca="false">B55+1</f>
         <v>55</v>
       </c>
       <c r="C56" s="58" t="n">
-        <v>0.085</v>
+        <v>-0.085</v>
       </c>
       <c r="D56" s="58" t="n">
-        <v>-2.408</v>
+        <v>-0.938</v>
       </c>
       <c r="E56" s="58" t="n">
         <v>0</v>
@@ -2409,17 +2461,17 @@
     </row>
     <row r="57" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A57" s="56" t="s">
-        <v>62</v>
+        <v>61</v>
       </c>
       <c r="B57" s="57" t="n">
         <f aca="false">B56+1</f>
         <v>56</v>
       </c>
       <c r="C57" s="58" t="n">
-        <v>0.085</v>
+        <v>-0.085</v>
       </c>
       <c r="D57" s="58" t="n">
-        <v>-0.938</v>
+        <v>-2.408</v>
       </c>
       <c r="E57" s="58" t="n">
         <v>0</v>
@@ -2432,66 +2484,66 @@
       </c>
     </row>
     <row r="58" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A58" s="60" t="s">
-        <v>63</v>
-      </c>
-      <c r="B58" s="61" t="n">
+      <c r="A58" s="56" t="s">
+        <v>62</v>
+      </c>
+      <c r="B58" s="57" t="n">
         <f aca="false">B57+1</f>
         <v>57</v>
       </c>
-      <c r="C58" s="62" t="n">
-        <v>-2.84569</v>
-      </c>
-      <c r="D58" s="62" t="n">
-        <v>2.4546</v>
-      </c>
-      <c r="E58" s="62" t="n">
-        <v>0</v>
-      </c>
-      <c r="F58" s="63" t="n">
-        <v>0</v>
-      </c>
-      <c r="G58" s="63" t="n">
+      <c r="C58" s="58" t="n">
+        <v>0.085</v>
+      </c>
+      <c r="D58" s="58" t="n">
+        <v>-2.408</v>
+      </c>
+      <c r="E58" s="58" t="n">
+        <v>0</v>
+      </c>
+      <c r="F58" s="59" t="n">
+        <v>0</v>
+      </c>
+      <c r="G58" s="59" t="n">
         <v>0</v>
       </c>
     </row>
     <row r="59" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A59" s="60" t="s">
-        <v>64</v>
-      </c>
-      <c r="B59" s="61" t="n">
+      <c r="A59" s="56" t="s">
+        <v>63</v>
+      </c>
+      <c r="B59" s="57" t="n">
         <f aca="false">B58+1</f>
         <v>58</v>
       </c>
-      <c r="C59" s="62" t="n">
-        <v>-2.7608</v>
-      </c>
-      <c r="D59" s="62" t="n">
-        <v>-2.3894</v>
-      </c>
-      <c r="E59" s="62" t="n">
-        <v>0</v>
-      </c>
-      <c r="F59" s="63" t="n">
-        <v>0</v>
-      </c>
-      <c r="G59" s="63" t="n">
+      <c r="C59" s="58" t="n">
+        <v>0.085</v>
+      </c>
+      <c r="D59" s="58" t="n">
+        <v>-0.938</v>
+      </c>
+      <c r="E59" s="58" t="n">
+        <v>0</v>
+      </c>
+      <c r="F59" s="59" t="n">
+        <v>0</v>
+      </c>
+      <c r="G59" s="59" t="n">
         <v>0</v>
       </c>
     </row>
     <row r="60" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A60" s="60" t="s">
-        <v>65</v>
+        <v>64</v>
       </c>
       <c r="B60" s="61" t="n">
         <f aca="false">B59+1</f>
         <v>59</v>
       </c>
       <c r="C60" s="62" t="n">
-        <v>2.7015</v>
+        <v>-2.84569</v>
       </c>
       <c r="D60" s="62" t="n">
-        <v>-2.4284</v>
+        <v>2.4546</v>
       </c>
       <c r="E60" s="62" t="n">
         <v>0</v>
@@ -2505,17 +2557,17 @@
     </row>
     <row r="61" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A61" s="60" t="s">
-        <v>66</v>
+        <v>65</v>
       </c>
       <c r="B61" s="61" t="n">
         <f aca="false">B60+1</f>
         <v>60</v>
       </c>
       <c r="C61" s="62" t="n">
-        <v>2.7949</v>
+        <v>-2.7608</v>
       </c>
       <c r="D61" s="62" t="n">
-        <v>2.4546</v>
+        <v>-2.3894</v>
       </c>
       <c r="E61" s="62" t="n">
         <v>0</v>
@@ -2528,66 +2580,66 @@
       </c>
     </row>
     <row r="62" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A62" s="64" t="s">
-        <v>67</v>
-      </c>
-      <c r="B62" s="65" t="n">
+      <c r="A62" s="60" t="s">
+        <v>66</v>
+      </c>
+      <c r="B62" s="61" t="n">
         <f aca="false">B61+1</f>
         <v>61</v>
       </c>
-      <c r="C62" s="66" t="n">
-        <v>-3.022</v>
-      </c>
-      <c r="D62" s="66" t="n">
-        <v>2.6015</v>
-      </c>
-      <c r="E62" s="66" t="n">
-        <v>0</v>
-      </c>
-      <c r="F62" s="67" t="n">
-        <v>0</v>
-      </c>
-      <c r="G62" s="67" t="n">
+      <c r="C62" s="62" t="n">
+        <v>2.7015</v>
+      </c>
+      <c r="D62" s="62" t="n">
+        <v>-2.4284</v>
+      </c>
+      <c r="E62" s="62" t="n">
+        <v>0</v>
+      </c>
+      <c r="F62" s="63" t="n">
+        <v>0</v>
+      </c>
+      <c r="G62" s="63" t="n">
         <v>0</v>
       </c>
     </row>
     <row r="63" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A63" s="64" t="s">
-        <v>68</v>
-      </c>
-      <c r="B63" s="65" t="n">
+      <c r="A63" s="60" t="s">
+        <v>67</v>
+      </c>
+      <c r="B63" s="61" t="n">
         <f aca="false">B62+1</f>
         <v>62</v>
       </c>
-      <c r="C63" s="66" t="n">
-        <v>-2.915</v>
-      </c>
-      <c r="D63" s="66" t="n">
-        <v>-2.5146</v>
-      </c>
-      <c r="E63" s="66" t="n">
-        <v>0</v>
-      </c>
-      <c r="F63" s="67" t="n">
-        <v>0</v>
-      </c>
-      <c r="G63" s="67" t="n">
+      <c r="C63" s="62" t="n">
+        <v>2.7949</v>
+      </c>
+      <c r="D63" s="62" t="n">
+        <v>2.4546</v>
+      </c>
+      <c r="E63" s="62" t="n">
+        <v>0</v>
+      </c>
+      <c r="F63" s="63" t="n">
+        <v>0</v>
+      </c>
+      <c r="G63" s="63" t="n">
         <v>0</v>
       </c>
     </row>
     <row r="64" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A64" s="64" t="s">
-        <v>69</v>
+        <v>68</v>
       </c>
       <c r="B64" s="65" t="n">
         <f aca="false">B63+1</f>
         <v>63</v>
       </c>
       <c r="C64" s="66" t="n">
-        <v>2.8496</v>
+        <v>-3.022</v>
       </c>
       <c r="D64" s="66" t="n">
-        <v>-2.5146</v>
+        <v>2.6015</v>
       </c>
       <c r="E64" s="66" t="n">
         <v>0</v>
@@ -2601,17 +2653,17 @@
     </row>
     <row r="65" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A65" s="64" t="s">
-        <v>70</v>
+        <v>69</v>
       </c>
       <c r="B65" s="65" t="n">
         <f aca="false">B64+1</f>
         <v>64</v>
       </c>
       <c r="C65" s="66" t="n">
-        <v>2.971</v>
+        <v>-2.915</v>
       </c>
       <c r="D65" s="66" t="n">
-        <v>2.6015</v>
+        <v>-2.5146</v>
       </c>
       <c r="E65" s="66" t="n">
         <v>0</v>
@@ -2624,66 +2676,66 @@
       </c>
     </row>
     <row r="66" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A66" s="68" t="s">
-        <v>71</v>
-      </c>
-      <c r="B66" s="69" t="n">
+      <c r="A66" s="64" t="s">
+        <v>70</v>
+      </c>
+      <c r="B66" s="65" t="n">
         <f aca="false">B65+1</f>
         <v>65</v>
       </c>
-      <c r="C66" s="70" t="n">
-        <v>-3.3343</v>
-      </c>
-      <c r="D66" s="70" t="n">
-        <v>2.78</v>
-      </c>
-      <c r="E66" s="70" t="n">
-        <v>0</v>
-      </c>
-      <c r="F66" s="71" t="n">
-        <v>0</v>
-      </c>
-      <c r="G66" s="71" t="n">
+      <c r="C66" s="66" t="n">
+        <v>2.8496</v>
+      </c>
+      <c r="D66" s="66" t="n">
+        <v>-2.5146</v>
+      </c>
+      <c r="E66" s="66" t="n">
+        <v>0</v>
+      </c>
+      <c r="F66" s="67" t="n">
+        <v>0</v>
+      </c>
+      <c r="G66" s="67" t="n">
         <v>0</v>
       </c>
     </row>
     <row r="67" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A67" s="68" t="s">
-        <v>72</v>
-      </c>
-      <c r="B67" s="69" t="n">
+      <c r="A67" s="64" t="s">
+        <v>71</v>
+      </c>
+      <c r="B67" s="65" t="n">
         <f aca="false">B66+1</f>
         <v>66</v>
       </c>
-      <c r="C67" s="70" t="n">
-        <v>-3.1388</v>
-      </c>
-      <c r="D67" s="70" t="n">
-        <v>-2.9209</v>
-      </c>
-      <c r="E67" s="70" t="n">
-        <v>0</v>
-      </c>
-      <c r="F67" s="71" t="n">
-        <v>0</v>
-      </c>
-      <c r="G67" s="71" t="n">
+      <c r="C67" s="66" t="n">
+        <v>2.971</v>
+      </c>
+      <c r="D67" s="66" t="n">
+        <v>2.6015</v>
+      </c>
+      <c r="E67" s="66" t="n">
+        <v>0</v>
+      </c>
+      <c r="F67" s="67" t="n">
+        <v>0</v>
+      </c>
+      <c r="G67" s="67" t="n">
         <v>0</v>
       </c>
     </row>
     <row r="68" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A68" s="68" t="s">
-        <v>73</v>
+        <v>72</v>
       </c>
       <c r="B68" s="69" t="n">
         <f aca="false">B67+1</f>
         <v>67</v>
       </c>
       <c r="C68" s="70" t="n">
-        <v>3.1388</v>
+        <v>-3.3343</v>
       </c>
       <c r="D68" s="70" t="n">
-        <v>-2.9209</v>
+        <v>2.78</v>
       </c>
       <c r="E68" s="70" t="n">
         <v>0</v>
@@ -2697,17 +2749,17 @@
     </row>
     <row r="69" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A69" s="68" t="s">
-        <v>74</v>
+        <v>73</v>
       </c>
       <c r="B69" s="69" t="n">
         <f aca="false">B68+1</f>
         <v>68</v>
       </c>
       <c r="C69" s="70" t="n">
-        <v>3.3343</v>
+        <v>-3.1388</v>
       </c>
       <c r="D69" s="70" t="n">
-        <v>2.78</v>
+        <v>-2.9209</v>
       </c>
       <c r="E69" s="70" t="n">
         <v>0</v>
@@ -2720,20 +2772,20 @@
       </c>
     </row>
     <row r="70" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A70" s="72" t="s">
-        <v>75</v>
-      </c>
-      <c r="B70" s="73" t="n">
+      <c r="A70" s="68" t="s">
+        <v>74</v>
+      </c>
+      <c r="B70" s="69" t="n">
         <f aca="false">B69+1</f>
         <v>69</v>
       </c>
-      <c r="C70" s="74" t="n">
-        <v>-2.2</v>
-      </c>
-      <c r="D70" s="74" t="n">
-        <v>1.94</v>
-      </c>
-      <c r="E70" s="74" t="n">
+      <c r="C70" s="70" t="n">
+        <v>3.1388</v>
+      </c>
+      <c r="D70" s="70" t="n">
+        <v>-2.9209</v>
+      </c>
+      <c r="E70" s="70" t="n">
         <v>0</v>
       </c>
       <c r="F70" s="71" t="n">
@@ -2744,20 +2796,20 @@
       </c>
     </row>
     <row r="71" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A71" s="72" t="s">
-        <v>76</v>
-      </c>
-      <c r="B71" s="73" t="n">
+      <c r="A71" s="68" t="s">
+        <v>75</v>
+      </c>
+      <c r="B71" s="69" t="n">
         <f aca="false">B70+1</f>
         <v>70</v>
       </c>
-      <c r="C71" s="74" t="n">
-        <v>2.18</v>
-      </c>
-      <c r="D71" s="74" t="n">
-        <v>1.94</v>
-      </c>
-      <c r="E71" s="74" t="n">
+      <c r="C71" s="70" t="n">
+        <v>3.3343</v>
+      </c>
+      <c r="D71" s="70" t="n">
+        <v>2.78</v>
+      </c>
+      <c r="E71" s="70" t="n">
         <v>0</v>
       </c>
       <c r="F71" s="71" t="n">
@@ -2768,68 +2820,67 @@
       </c>
     </row>
     <row r="72" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A72" s="28" t="s">
-        <v>77</v>
-      </c>
-      <c r="B72" s="29" t="n">
+      <c r="A72" s="72" t="s">
+        <v>76</v>
+      </c>
+      <c r="B72" s="73" t="n">
         <f aca="false">B71+1</f>
         <v>71</v>
       </c>
-      <c r="C72" s="30" t="n">
-        <f aca="false">C74-1</f>
-        <v>-1.96</v>
-      </c>
-      <c r="D72" s="30" t="n">
-        <v>0.22</v>
-      </c>
-      <c r="E72" s="30" t="n">
-        <v>0</v>
-      </c>
-      <c r="F72" s="31" t="n">
-        <v>0</v>
-      </c>
-      <c r="G72" s="31" t="n">
+      <c r="C72" s="74" t="n">
+        <v>-2.2</v>
+      </c>
+      <c r="D72" s="74" t="n">
+        <v>1.94</v>
+      </c>
+      <c r="E72" s="74" t="n">
+        <v>0</v>
+      </c>
+      <c r="F72" s="71" t="n">
+        <v>0</v>
+      </c>
+      <c r="G72" s="71" t="n">
         <v>0</v>
       </c>
     </row>
     <row r="73" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A73" s="28" t="s">
-        <v>78</v>
-      </c>
-      <c r="B73" s="29" t="n">
+      <c r="A73" s="72" t="s">
+        <v>77</v>
+      </c>
+      <c r="B73" s="73" t="n">
         <f aca="false">B72+1</f>
         <v>72</v>
       </c>
-      <c r="C73" s="30" t="n">
-        <v>-1.96</v>
-      </c>
-      <c r="D73" s="30" t="n">
-        <f aca="false">D72-1.05</f>
-        <v>-0.83</v>
-      </c>
-      <c r="E73" s="30" t="n">
-        <v>0</v>
-      </c>
-      <c r="F73" s="31" t="n">
-        <v>0</v>
-      </c>
-      <c r="G73" s="31" t="n">
+      <c r="C73" s="74" t="n">
+        <v>2.18</v>
+      </c>
+      <c r="D73" s="74" t="n">
+        <v>1.94</v>
+      </c>
+      <c r="E73" s="74" t="n">
+        <v>0</v>
+      </c>
+      <c r="F73" s="71" t="n">
+        <v>0</v>
+      </c>
+      <c r="G73" s="71" t="n">
         <v>0</v>
       </c>
     </row>
     <row r="74" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A74" s="28" t="s">
-        <v>79</v>
+        <v>78</v>
       </c>
       <c r="B74" s="29" t="n">
         <f aca="false">B73+1</f>
         <v>73</v>
       </c>
       <c r="C74" s="30" t="n">
-        <v>-0.96</v>
+        <f aca="false">C76-1</f>
+        <v>-1.96</v>
       </c>
       <c r="D74" s="30" t="n">
-        <v>-0.83</v>
+        <v>0.22</v>
       </c>
       <c r="E74" s="30" t="n">
         <v>0</v>
@@ -2843,17 +2894,18 @@
     </row>
     <row r="75" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A75" s="28" t="s">
-        <v>80</v>
+        <v>79</v>
       </c>
       <c r="B75" s="29" t="n">
         <f aca="false">B74+1</f>
         <v>74</v>
       </c>
       <c r="C75" s="30" t="n">
-        <v>-0.96</v>
+        <v>-1.96</v>
       </c>
       <c r="D75" s="30" t="n">
-        <v>0.22</v>
+        <f aca="false">D74-1.05</f>
+        <v>-0.83</v>
       </c>
       <c r="E75" s="30" t="n">
         <v>0</v>
@@ -2866,68 +2918,66 @@
       </c>
     </row>
     <row r="76" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A76" s="36" t="s">
-        <v>81</v>
-      </c>
-      <c r="B76" s="37" t="n">
+      <c r="A76" s="28" t="s">
+        <v>80</v>
+      </c>
+      <c r="B76" s="29" t="n">
         <f aca="false">B75+1</f>
         <v>75</v>
       </c>
-      <c r="C76" s="38" t="n">
-        <v>-3.08</v>
-      </c>
-      <c r="D76" s="38" t="n">
-        <v>-0.16</v>
-      </c>
-      <c r="E76" s="38" t="n">
-        <v>0</v>
-      </c>
-      <c r="F76" s="39" t="n">
-        <v>0</v>
-      </c>
-      <c r="G76" s="39" t="n">
+      <c r="C76" s="30" t="n">
+        <v>-0.96</v>
+      </c>
+      <c r="D76" s="30" t="n">
+        <v>-0.83</v>
+      </c>
+      <c r="E76" s="30" t="n">
+        <v>0</v>
+      </c>
+      <c r="F76" s="31" t="n">
+        <v>0</v>
+      </c>
+      <c r="G76" s="31" t="n">
         <v>0</v>
       </c>
     </row>
     <row r="77" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A77" s="36" t="s">
-        <v>82</v>
-      </c>
-      <c r="B77" s="37" t="n">
+      <c r="A77" s="28" t="s">
+        <v>81</v>
+      </c>
+      <c r="B77" s="29" t="n">
         <f aca="false">B76+1</f>
         <v>76</v>
       </c>
-      <c r="C77" s="38" t="n">
-        <f aca="false">C78-0.83</f>
-        <v>-3.08</v>
-      </c>
-      <c r="D77" s="38" t="n">
-        <v>-1.67</v>
-      </c>
-      <c r="E77" s="38" t="n">
-        <v>0</v>
-      </c>
-      <c r="F77" s="39" t="n">
-        <v>0</v>
-      </c>
-      <c r="G77" s="39" t="n">
+      <c r="C77" s="30" t="n">
+        <v>-0.96</v>
+      </c>
+      <c r="D77" s="30" t="n">
+        <v>0.22</v>
+      </c>
+      <c r="E77" s="30" t="n">
+        <v>0</v>
+      </c>
+      <c r="F77" s="31" t="n">
+        <v>0</v>
+      </c>
+      <c r="G77" s="31" t="n">
         <v>0</v>
       </c>
     </row>
     <row r="78" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A78" s="36" t="s">
-        <v>83</v>
+        <v>82</v>
       </c>
       <c r="B78" s="37" t="n">
         <f aca="false">B77+1</f>
         <v>77</v>
       </c>
       <c r="C78" s="38" t="n">
-        <v>-2.25</v>
+        <v>-3.08</v>
       </c>
       <c r="D78" s="38" t="n">
-        <f aca="false">D79-1.51</f>
-        <v>-1.67</v>
+        <v>-0.16</v>
       </c>
       <c r="E78" s="38" t="n">
         <v>0</v>
@@ -2941,17 +2991,18 @@
     </row>
     <row r="79" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A79" s="36" t="s">
-        <v>84</v>
+        <v>83</v>
       </c>
       <c r="B79" s="37" t="n">
         <f aca="false">B78+1</f>
         <v>78</v>
       </c>
       <c r="C79" s="38" t="n">
-        <v>-2.25</v>
+        <f aca="false">C80-0.83</f>
+        <v>-3.08</v>
       </c>
       <c r="D79" s="38" t="n">
-        <v>-0.16</v>
+        <v>-1.67</v>
       </c>
       <c r="E79" s="38" t="n">
         <v>0</v>
@@ -2964,67 +3015,67 @@
       </c>
     </row>
     <row r="80" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A80" s="75" t="s">
-        <v>85</v>
-      </c>
-      <c r="B80" s="76" t="n">
+      <c r="A80" s="36" t="s">
+        <v>84</v>
+      </c>
+      <c r="B80" s="37" t="n">
         <f aca="false">B79+1</f>
         <v>79</v>
       </c>
-      <c r="C80" s="77" t="n">
-        <v>-1.93</v>
-      </c>
-      <c r="D80" s="77" t="n">
-        <v>-1.64</v>
-      </c>
-      <c r="E80" s="77" t="n">
-        <v>0</v>
-      </c>
-      <c r="F80" s="78" t="n">
-        <v>0</v>
-      </c>
-      <c r="G80" s="78" t="n">
+      <c r="C80" s="38" t="n">
+        <v>-2.25</v>
+      </c>
+      <c r="D80" s="38" t="n">
+        <f aca="false">D81-1.51</f>
+        <v>-1.67</v>
+      </c>
+      <c r="E80" s="38" t="n">
+        <v>0</v>
+      </c>
+      <c r="F80" s="39" t="n">
+        <v>0</v>
+      </c>
+      <c r="G80" s="39" t="n">
         <v>0</v>
       </c>
     </row>
     <row r="81" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A81" s="75" t="s">
-        <v>86</v>
-      </c>
-      <c r="B81" s="76" t="n">
+      <c r="A81" s="36" t="s">
+        <v>85</v>
+      </c>
+      <c r="B81" s="37" t="n">
         <f aca="false">B80+1</f>
         <v>80</v>
       </c>
-      <c r="C81" s="77" t="n">
-        <v>-1.93</v>
-      </c>
-      <c r="D81" s="77" t="n">
-        <v>-2.73</v>
-      </c>
-      <c r="E81" s="77" t="n">
-        <v>0</v>
-      </c>
-      <c r="F81" s="78" t="n">
-        <v>0</v>
-      </c>
-      <c r="G81" s="78" t="n">
+      <c r="C81" s="38" t="n">
+        <v>-2.25</v>
+      </c>
+      <c r="D81" s="38" t="n">
+        <v>-0.16</v>
+      </c>
+      <c r="E81" s="38" t="n">
+        <v>0</v>
+      </c>
+      <c r="F81" s="39" t="n">
+        <v>0</v>
+      </c>
+      <c r="G81" s="39" t="n">
         <v>0</v>
       </c>
     </row>
     <row r="82" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A82" s="75" t="s">
-        <v>87</v>
+        <v>86</v>
       </c>
       <c r="B82" s="76" t="n">
         <f aca="false">B81+1</f>
         <v>81</v>
       </c>
       <c r="C82" s="77" t="n">
-        <v>-1</v>
+        <v>-1.93</v>
       </c>
       <c r="D82" s="77" t="n">
-        <f aca="false">D83-1.09</f>
-        <v>-2.73</v>
+        <v>-1.64</v>
       </c>
       <c r="E82" s="77" t="n">
         <v>0</v>
@@ -3038,17 +3089,17 @@
     </row>
     <row r="83" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A83" s="75" t="s">
-        <v>88</v>
+        <v>87</v>
       </c>
       <c r="B83" s="76" t="n">
         <f aca="false">B82+1</f>
         <v>82</v>
       </c>
       <c r="C83" s="77" t="n">
-        <v>-1</v>
+        <v>-1.93</v>
       </c>
       <c r="D83" s="77" t="n">
-        <v>-1.64</v>
+        <v>-2.73</v>
       </c>
       <c r="E83" s="77" t="n">
         <v>0</v>
@@ -3061,69 +3112,67 @@
       </c>
     </row>
     <row r="84" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A84" s="79" t="s">
-        <v>89</v>
-      </c>
-      <c r="B84" s="80" t="n">
+      <c r="A84" s="75" t="s">
+        <v>88</v>
+      </c>
+      <c r="B84" s="76" t="n">
         <f aca="false">B83+1</f>
         <v>83</v>
       </c>
-      <c r="C84" s="81" t="n">
-        <v>2.26</v>
-      </c>
-      <c r="D84" s="81" t="n">
-        <v>-0.16</v>
-      </c>
-      <c r="E84" s="81" t="n">
-        <v>0</v>
-      </c>
-      <c r="F84" s="82" t="n">
-        <v>0</v>
-      </c>
-      <c r="G84" s="82" t="n">
+      <c r="C84" s="77" t="n">
+        <v>-1</v>
+      </c>
+      <c r="D84" s="77" t="n">
+        <f aca="false">D85-1.09</f>
+        <v>-2.73</v>
+      </c>
+      <c r="E84" s="77" t="n">
+        <v>0</v>
+      </c>
+      <c r="F84" s="78" t="n">
+        <v>0</v>
+      </c>
+      <c r="G84" s="78" t="n">
         <v>0</v>
       </c>
     </row>
     <row r="85" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A85" s="79" t="s">
-        <v>90</v>
-      </c>
-      <c r="B85" s="80" t="n">
+      <c r="A85" s="75" t="s">
+        <v>89</v>
+      </c>
+      <c r="B85" s="76" t="n">
         <f aca="false">B84+1</f>
         <v>84</v>
       </c>
-      <c r="C85" s="81" t="n">
-        <v>2.26</v>
-      </c>
-      <c r="D85" s="81" t="n">
-        <f aca="false">D84-1.49</f>
-        <v>-1.65</v>
-      </c>
-      <c r="E85" s="81" t="n">
-        <v>0</v>
-      </c>
-      <c r="F85" s="82" t="n">
-        <v>0</v>
-      </c>
-      <c r="G85" s="82" t="n">
+      <c r="C85" s="77" t="n">
+        <v>-1</v>
+      </c>
+      <c r="D85" s="77" t="n">
+        <v>-1.64</v>
+      </c>
+      <c r="E85" s="77" t="n">
+        <v>0</v>
+      </c>
+      <c r="F85" s="78" t="n">
+        <v>0</v>
+      </c>
+      <c r="G85" s="78" t="n">
         <v>0</v>
       </c>
     </row>
     <row r="86" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A86" s="79" t="s">
-        <v>91</v>
+        <v>90</v>
       </c>
       <c r="B86" s="80" t="n">
         <f aca="false">B85+1</f>
         <v>85</v>
       </c>
       <c r="C86" s="81" t="n">
-        <f aca="false">2.26+0.83</f>
-        <v>3.09</v>
+        <v>2.26</v>
       </c>
       <c r="D86" s="81" t="n">
-        <f aca="false">D85</f>
-        <v>-1.65</v>
+        <v>-0.16</v>
       </c>
       <c r="E86" s="81" t="n">
         <v>0</v>
@@ -3137,117 +3186,120 @@
     </row>
     <row r="87" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A87" s="79" t="s">
-        <v>92</v>
+        <v>91</v>
       </c>
       <c r="B87" s="80" t="n">
         <f aca="false">B86+1</f>
         <v>86</v>
       </c>
       <c r="C87" s="81" t="n">
+        <v>2.26</v>
+      </c>
+      <c r="D87" s="81" t="n">
+        <f aca="false">D86-1.49</f>
+        <v>-1.65</v>
+      </c>
+      <c r="E87" s="81" t="n">
+        <v>0</v>
+      </c>
+      <c r="F87" s="82" t="n">
+        <v>0</v>
+      </c>
+      <c r="G87" s="82" t="n">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="88" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A88" s="79" t="s">
+        <v>92</v>
+      </c>
+      <c r="B88" s="80" t="n">
+        <f aca="false">B87+1</f>
+        <v>87</v>
+      </c>
+      <c r="C88" s="81" t="n">
         <f aca="false">2.26+0.83</f>
         <v>3.09</v>
       </c>
-      <c r="D87" s="81" t="n">
-        <v>-0.16</v>
-      </c>
-      <c r="E87" s="81" t="n">
-        <v>0</v>
-      </c>
-      <c r="F87" s="82" t="n">
-        <v>0</v>
-      </c>
-      <c r="G87" s="82" t="n">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="88" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A88" s="56" t="s">
+      <c r="D88" s="81" t="n">
+        <f aca="false">D87</f>
+        <v>-1.65</v>
+      </c>
+      <c r="E88" s="81" t="n">
+        <v>0</v>
+      </c>
+      <c r="F88" s="82" t="n">
+        <v>0</v>
+      </c>
+      <c r="G88" s="82" t="n">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="89" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A89" s="79" t="s">
         <v>93</v>
       </c>
-      <c r="B88" s="57" t="n">
-        <f aca="false">B87+1</f>
-        <v>87</v>
-      </c>
-      <c r="C88" s="58" t="n">
-        <v>0</v>
-      </c>
-      <c r="D88" s="58" t="n">
-        <v>-2.9217</v>
-      </c>
-      <c r="E88" s="58" t="n">
-        <v>-0.546</v>
-      </c>
-      <c r="F88" s="59" t="n">
-        <v>0</v>
-      </c>
-      <c r="G88" s="59" t="n">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="89" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A89" s="52" t="s">
-        <v>94</v>
-      </c>
-      <c r="B89" s="57" t="n">
+      <c r="B89" s="80" t="n">
         <f aca="false">B88+1</f>
         <v>88</v>
       </c>
-      <c r="C89" s="54" t="n">
-        <v>-3.1634</v>
-      </c>
-      <c r="D89" s="54" t="n">
-        <v>-2.9565</v>
-      </c>
-      <c r="E89" s="54" t="n">
-        <v>-0.9233</v>
-      </c>
-      <c r="F89" s="55" t="n">
-        <v>0</v>
-      </c>
-      <c r="G89" s="55" t="n">
+      <c r="C89" s="81" t="n">
+        <f aca="false">2.26+0.83</f>
+        <v>3.09</v>
+      </c>
+      <c r="D89" s="81" t="n">
+        <v>-0.16</v>
+      </c>
+      <c r="E89" s="81" t="n">
+        <v>0</v>
+      </c>
+      <c r="F89" s="82" t="n">
+        <v>0</v>
+      </c>
+      <c r="G89" s="82" t="n">
         <v>0</v>
       </c>
     </row>
     <row r="90" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A90" s="52" t="s">
-        <v>95</v>
+      <c r="A90" s="56" t="s">
+        <v>94</v>
       </c>
       <c r="B90" s="57" t="n">
         <f aca="false">B89+1</f>
         <v>89</v>
       </c>
-      <c r="C90" s="54" t="n">
-        <v>-3.0852</v>
-      </c>
-      <c r="D90" s="54" t="n">
-        <v>-2.7843</v>
-      </c>
-      <c r="E90" s="54" t="n">
-        <v>-2.0292</v>
-      </c>
-      <c r="F90" s="55" t="n">
-        <v>0</v>
-      </c>
-      <c r="G90" s="55" t="n">
+      <c r="C90" s="58" t="n">
+        <v>0</v>
+      </c>
+      <c r="D90" s="58" t="n">
+        <v>-2.9217</v>
+      </c>
+      <c r="E90" s="58" t="n">
+        <v>-0.546</v>
+      </c>
+      <c r="F90" s="59" t="n">
+        <v>0</v>
+      </c>
+      <c r="G90" s="59" t="n">
         <v>0</v>
       </c>
     </row>
     <row r="91" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A91" s="52" t="s">
-        <v>96</v>
+        <v>95</v>
       </c>
       <c r="B91" s="57" t="n">
         <f aca="false">B90+1</f>
         <v>90</v>
       </c>
       <c r="C91" s="54" t="n">
-        <v>3.085</v>
+        <v>-3.1634</v>
       </c>
       <c r="D91" s="54" t="n">
-        <v>-2.784</v>
+        <v>-2.9565</v>
       </c>
       <c r="E91" s="54" t="n">
-        <v>-2.029</v>
+        <v>-0.9233</v>
       </c>
       <c r="F91" s="55" t="n">
         <v>0</v>
@@ -3258,779 +3310,970 @@
     </row>
     <row r="92" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A92" s="52" t="s">
-        <v>97</v>
+        <v>96</v>
       </c>
       <c r="B92" s="57" t="n">
         <f aca="false">B91+1</f>
         <v>91</v>
       </c>
       <c r="C92" s="54" t="n">
+        <v>-3.0852</v>
+      </c>
+      <c r="D92" s="54" t="n">
+        <v>-2.7843</v>
+      </c>
+      <c r="E92" s="54" t="n">
+        <v>-2.0292</v>
+      </c>
+      <c r="F92" s="55" t="n">
+        <v>0</v>
+      </c>
+      <c r="G92" s="55" t="n">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="93" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A93" s="52" t="s">
+        <v>97</v>
+      </c>
+      <c r="B93" s="57" t="n">
+        <f aca="false">B92+1</f>
+        <v>92</v>
+      </c>
+      <c r="C93" s="54" t="n">
+        <v>3.085</v>
+      </c>
+      <c r="D93" s="54" t="n">
+        <v>-2.784</v>
+      </c>
+      <c r="E93" s="54" t="n">
+        <v>-2.029</v>
+      </c>
+      <c r="F93" s="55" t="n">
+        <v>0</v>
+      </c>
+      <c r="G93" s="55" t="n">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="94" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A94" s="52" t="s">
+        <v>98</v>
+      </c>
+      <c r="B94" s="57" t="n">
+        <f aca="false">B93+1</f>
+        <v>93</v>
+      </c>
+      <c r="C94" s="54" t="n">
         <v>3.163</v>
       </c>
-      <c r="D92" s="54" t="n">
+      <c r="D94" s="54" t="n">
         <v>-2.957</v>
       </c>
-      <c r="E92" s="54" t="n">
+      <c r="E94" s="54" t="n">
         <v>0.923</v>
       </c>
-      <c r="F92" s="55" t="n">
-        <v>0</v>
-      </c>
-      <c r="G92" s="55" t="n">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="93" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A93" s="83"/>
-      <c r="B93" s="84"/>
-      <c r="C93" s="85"/>
-      <c r="D93" s="85"/>
-      <c r="E93" s="85"/>
-      <c r="F93" s="86"/>
-      <c r="G93" s="86"/>
-    </row>
-    <row r="94" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A94" s="83"/>
-      <c r="B94" s="84"/>
-      <c r="C94" s="85"/>
-      <c r="D94" s="85"/>
-      <c r="E94" s="85"/>
-      <c r="F94" s="86"/>
-      <c r="G94" s="86"/>
+      <c r="F94" s="55" t="n">
+        <v>0</v>
+      </c>
+      <c r="G94" s="55" t="n">
+        <v>0</v>
+      </c>
     </row>
     <row r="95" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A95" s="83"/>
-      <c r="B95" s="84"/>
-      <c r="C95" s="85"/>
-      <c r="D95" s="85"/>
-      <c r="E95" s="85"/>
-      <c r="F95" s="86"/>
-      <c r="G95" s="86"/>
+      <c r="A95" s="83" t="s">
+        <v>99</v>
+      </c>
+      <c r="B95" s="84" t="n">
+        <f aca="false">B94+1</f>
+        <v>94</v>
+      </c>
+      <c r="C95" s="85" t="n">
+        <v>-1.9484</v>
+      </c>
+      <c r="D95" s="85" t="n">
+        <v>5.0197</v>
+      </c>
+      <c r="E95" s="85" t="n">
+        <v>2.2155</v>
+      </c>
+      <c r="F95" s="86" t="n">
+        <v>0</v>
+      </c>
+      <c r="G95" s="86" t="n">
+        <v>0</v>
+      </c>
     </row>
     <row r="96" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A96" s="83"/>
-      <c r="B96" s="84"/>
-      <c r="C96" s="85"/>
-      <c r="D96" s="85"/>
-      <c r="E96" s="85"/>
-      <c r="F96" s="86"/>
-      <c r="G96" s="86"/>
+      <c r="A96" s="83" t="s">
+        <v>100</v>
+      </c>
+      <c r="B96" s="84" t="n">
+        <f aca="false">B95+1</f>
+        <v>95</v>
+      </c>
+      <c r="C96" s="85" t="n">
+        <v>-1.3279</v>
+      </c>
+      <c r="D96" s="85" t="n">
+        <v>5.0197</v>
+      </c>
+      <c r="E96" s="85" t="n">
+        <v>2.2155</v>
+      </c>
+      <c r="F96" s="86" t="n">
+        <v>0</v>
+      </c>
+      <c r="G96" s="86" t="n">
+        <v>0</v>
+      </c>
     </row>
     <row r="97" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A97" s="83"/>
-      <c r="B97" s="84"/>
-      <c r="C97" s="85"/>
-      <c r="D97" s="85"/>
-      <c r="E97" s="85"/>
-      <c r="F97" s="86"/>
-      <c r="G97" s="86"/>
+      <c r="A97" s="83" t="s">
+        <v>101</v>
+      </c>
+      <c r="B97" s="84" t="n">
+        <f aca="false">B96+1</f>
+        <v>96</v>
+      </c>
+      <c r="C97" s="85" t="n">
+        <v>1.3279</v>
+      </c>
+      <c r="D97" s="85" t="n">
+        <v>5.0197</v>
+      </c>
+      <c r="E97" s="85" t="n">
+        <v>2.2155</v>
+      </c>
+      <c r="F97" s="86" t="n">
+        <v>0</v>
+      </c>
+      <c r="G97" s="86" t="n">
+        <v>0</v>
+      </c>
     </row>
     <row r="98" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A98" s="83"/>
-      <c r="B98" s="84"/>
-      <c r="C98" s="85"/>
-      <c r="D98" s="85"/>
-      <c r="E98" s="85"/>
-      <c r="F98" s="86"/>
-      <c r="G98" s="86"/>
+      <c r="A98" s="83" t="s">
+        <v>102</v>
+      </c>
+      <c r="B98" s="84" t="n">
+        <f aca="false">B97+1</f>
+        <v>97</v>
+      </c>
+      <c r="C98" s="85" t="n">
+        <v>1.9484</v>
+      </c>
+      <c r="D98" s="85" t="n">
+        <v>5.0197</v>
+      </c>
+      <c r="E98" s="85" t="n">
+        <v>2.2155</v>
+      </c>
+      <c r="F98" s="86" t="n">
+        <v>0</v>
+      </c>
+      <c r="G98" s="86" t="n">
+        <v>0</v>
+      </c>
     </row>
     <row r="99" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A99" s="87"/>
-      <c r="B99" s="88"/>
-      <c r="C99" s="89"/>
-      <c r="D99" s="89"/>
-      <c r="E99" s="89"/>
-      <c r="F99" s="90"/>
-      <c r="G99" s="90"/>
+      <c r="A99" s="44" t="s">
+        <v>103</v>
+      </c>
+      <c r="B99" s="45" t="n">
+        <f aca="false">B98+1</f>
+        <v>98</v>
+      </c>
+      <c r="C99" s="46" t="n">
+        <v>-0.94319</v>
+      </c>
+      <c r="D99" s="46" t="n">
+        <v>13.015</v>
+      </c>
+      <c r="E99" s="46" t="n">
+        <v>3.2265</v>
+      </c>
+      <c r="F99" s="47" t="n">
+        <v>0</v>
+      </c>
+      <c r="G99" s="47" t="n">
+        <v>0</v>
+      </c>
     </row>
     <row r="100" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A100" s="87"/>
-      <c r="B100" s="88"/>
-      <c r="C100" s="89"/>
-      <c r="D100" s="89"/>
-      <c r="E100" s="89"/>
-      <c r="F100" s="90"/>
-      <c r="G100" s="90"/>
+      <c r="A100" s="44" t="s">
+        <v>104</v>
+      </c>
+      <c r="B100" s="45" t="n">
+        <f aca="false">B99+1</f>
+        <v>99</v>
+      </c>
+      <c r="C100" s="46" t="n">
+        <v>-0.94319</v>
+      </c>
+      <c r="D100" s="46" t="n">
+        <v>12.26</v>
+      </c>
+      <c r="E100" s="46" t="n">
+        <v>2.8063</v>
+      </c>
+      <c r="F100" s="87" t="n">
+        <v>0</v>
+      </c>
+      <c r="G100" s="87" t="n">
+        <v>0</v>
+      </c>
     </row>
     <row r="101" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A101" s="87"/>
-      <c r="B101" s="88"/>
-      <c r="C101" s="89"/>
-      <c r="D101" s="89"/>
-      <c r="E101" s="89"/>
-      <c r="F101" s="90"/>
-      <c r="G101" s="90"/>
+      <c r="A101" s="44" t="s">
+        <v>105</v>
+      </c>
+      <c r="B101" s="45" t="n">
+        <f aca="false">B100+1</f>
+        <v>100</v>
+      </c>
+      <c r="C101" s="46" t="n">
+        <v>-0.94319</v>
+      </c>
+      <c r="D101" s="46" t="n">
+        <v>12.277</v>
+      </c>
+      <c r="E101" s="46" t="n">
+        <v>1.7803</v>
+      </c>
+      <c r="F101" s="87" t="n">
+        <v>0</v>
+      </c>
+      <c r="G101" s="87" t="n">
+        <v>0</v>
+      </c>
     </row>
     <row r="102" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A102" s="87"/>
-      <c r="B102" s="88"/>
-      <c r="C102" s="89"/>
-      <c r="D102" s="89"/>
-      <c r="E102" s="89"/>
-      <c r="F102" s="90"/>
-      <c r="G102" s="90"/>
+      <c r="A102" s="44" t="s">
+        <v>106</v>
+      </c>
+      <c r="B102" s="45" t="n">
+        <f aca="false">B101+1</f>
+        <v>101</v>
+      </c>
+      <c r="C102" s="46" t="n">
+        <v>0.9432</v>
+      </c>
+      <c r="D102" s="46" t="n">
+        <v>13.015</v>
+      </c>
+      <c r="E102" s="46" t="n">
+        <v>1.7803</v>
+      </c>
+      <c r="F102" s="87" t="n">
+        <v>0</v>
+      </c>
+      <c r="G102" s="87" t="n">
+        <v>0</v>
+      </c>
     </row>
     <row r="103" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A103" s="87"/>
-      <c r="B103" s="88"/>
-      <c r="C103" s="89"/>
-      <c r="D103" s="89"/>
-      <c r="E103" s="89"/>
-      <c r="F103" s="90"/>
-      <c r="G103" s="90"/>
+      <c r="A103" s="44" t="s">
+        <v>107</v>
+      </c>
+      <c r="B103" s="45" t="n">
+        <f aca="false">B102+1</f>
+        <v>102</v>
+      </c>
+      <c r="C103" s="46" t="n">
+        <v>0.9432</v>
+      </c>
+      <c r="D103" s="46" t="n">
+        <v>12.26</v>
+      </c>
+      <c r="E103" s="46" t="n">
+        <v>2.8063</v>
+      </c>
+      <c r="F103" s="87" t="n">
+        <v>0</v>
+      </c>
+      <c r="G103" s="87" t="n">
+        <v>0</v>
+      </c>
     </row>
     <row r="104" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A104" s="87"/>
-      <c r="B104" s="88"/>
-      <c r="C104" s="89"/>
-      <c r="D104" s="89"/>
-      <c r="E104" s="89"/>
-      <c r="F104" s="90"/>
-      <c r="G104" s="90"/>
+      <c r="A104" s="44" t="s">
+        <v>108</v>
+      </c>
+      <c r="B104" s="45" t="n">
+        <f aca="false">B103+1</f>
+        <v>103</v>
+      </c>
+      <c r="C104" s="46" t="n">
+        <v>0.9432</v>
+      </c>
+      <c r="D104" s="46" t="n">
+        <v>13.015</v>
+      </c>
+      <c r="E104" s="46" t="n">
+        <v>3.2265</v>
+      </c>
+      <c r="F104" s="87" t="n">
+        <v>0</v>
+      </c>
+      <c r="G104" s="87" t="n">
+        <v>0</v>
+      </c>
     </row>
     <row r="105" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A105" s="87"/>
       <c r="B105" s="88"/>
       <c r="C105" s="89"/>
       <c r="D105" s="89"/>
       <c r="E105" s="89"/>
-      <c r="F105" s="90"/>
-      <c r="G105" s="90"/>
+      <c r="F105" s="88"/>
+      <c r="G105" s="88"/>
     </row>
     <row r="106" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A106" s="87"/>
+      <c r="A106" s="90"/>
       <c r="B106" s="88"/>
       <c r="C106" s="89"/>
       <c r="D106" s="89"/>
       <c r="E106" s="89"/>
-      <c r="F106" s="90"/>
-      <c r="G106" s="90"/>
+      <c r="F106" s="88"/>
+      <c r="G106" s="88"/>
     </row>
     <row r="107" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A107" s="87"/>
+      <c r="A107" s="90"/>
       <c r="B107" s="88"/>
       <c r="C107" s="89"/>
       <c r="D107" s="89"/>
       <c r="E107" s="89"/>
-      <c r="F107" s="90"/>
-      <c r="G107" s="90"/>
+      <c r="F107" s="88"/>
+      <c r="G107" s="88"/>
     </row>
     <row r="108" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A108" s="87"/>
+      <c r="A108" s="90"/>
       <c r="B108" s="88"/>
       <c r="C108" s="89"/>
       <c r="D108" s="89"/>
       <c r="E108" s="89"/>
-      <c r="F108" s="90"/>
-      <c r="G108" s="90"/>
+      <c r="F108" s="88"/>
+      <c r="G108" s="88"/>
     </row>
     <row r="109" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A109" s="87"/>
+      <c r="A109" s="90"/>
       <c r="B109" s="88"/>
       <c r="C109" s="89"/>
       <c r="D109" s="89"/>
       <c r="E109" s="89"/>
-      <c r="F109" s="90"/>
-      <c r="G109" s="90"/>
+      <c r="F109" s="88"/>
+      <c r="G109" s="88"/>
     </row>
     <row r="110" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A110" s="87"/>
+      <c r="A110" s="90"/>
       <c r="B110" s="88"/>
       <c r="C110" s="89"/>
       <c r="D110" s="89"/>
       <c r="E110" s="89"/>
-      <c r="F110" s="90"/>
-      <c r="G110" s="90"/>
+      <c r="F110" s="88"/>
+      <c r="G110" s="88"/>
     </row>
     <row r="111" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A111" s="87"/>
+      <c r="A111" s="90"/>
       <c r="B111" s="88"/>
       <c r="C111" s="89"/>
       <c r="D111" s="89"/>
       <c r="E111" s="89"/>
-      <c r="F111" s="90"/>
-      <c r="G111" s="90"/>
+      <c r="F111" s="88"/>
+      <c r="G111" s="88"/>
     </row>
     <row r="112" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A112" s="87"/>
+      <c r="A112" s="90"/>
       <c r="B112" s="88"/>
       <c r="C112" s="89"/>
       <c r="D112" s="89"/>
       <c r="E112" s="89"/>
-      <c r="F112" s="90"/>
-      <c r="G112" s="90"/>
+      <c r="F112" s="88"/>
+      <c r="G112" s="88"/>
     </row>
     <row r="113" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A113" s="87"/>
+      <c r="A113" s="90"/>
       <c r="B113" s="88"/>
       <c r="C113" s="89"/>
       <c r="D113" s="89"/>
       <c r="E113" s="89"/>
-      <c r="F113" s="90"/>
-      <c r="G113" s="90"/>
+      <c r="F113" s="88"/>
+      <c r="G113" s="88"/>
     </row>
     <row r="114" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A114" s="87"/>
+      <c r="A114" s="90"/>
       <c r="B114" s="88"/>
       <c r="C114" s="89"/>
       <c r="D114" s="89"/>
       <c r="E114" s="89"/>
-      <c r="F114" s="90"/>
-      <c r="G114" s="90"/>
+      <c r="F114" s="88"/>
+      <c r="G114" s="88"/>
     </row>
     <row r="115" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A115" s="87"/>
+      <c r="A115" s="90"/>
       <c r="B115" s="88"/>
       <c r="C115" s="89"/>
       <c r="D115" s="89"/>
       <c r="E115" s="89"/>
-      <c r="F115" s="90"/>
-      <c r="G115" s="90"/>
+      <c r="F115" s="88"/>
+      <c r="G115" s="88"/>
     </row>
     <row r="116" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A116" s="87"/>
+      <c r="A116" s="90"/>
       <c r="B116" s="88"/>
       <c r="C116" s="89"/>
       <c r="D116" s="89"/>
       <c r="E116" s="89"/>
-      <c r="F116" s="90"/>
-      <c r="G116" s="90"/>
+      <c r="F116" s="88"/>
+      <c r="G116" s="88"/>
     </row>
     <row r="117" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A117" s="87"/>
+      <c r="A117" s="90"/>
       <c r="B117" s="88"/>
       <c r="C117" s="89"/>
       <c r="D117" s="89"/>
       <c r="E117" s="89"/>
-      <c r="F117" s="90"/>
-      <c r="G117" s="90"/>
+      <c r="F117" s="88"/>
+      <c r="G117" s="88"/>
     </row>
     <row r="118" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A118" s="87"/>
+      <c r="A118" s="90"/>
       <c r="B118" s="88"/>
       <c r="C118" s="89"/>
       <c r="D118" s="89"/>
       <c r="E118" s="89"/>
-      <c r="F118" s="90"/>
-      <c r="G118" s="90"/>
+      <c r="F118" s="88"/>
+      <c r="G118" s="88"/>
     </row>
     <row r="119" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A119" s="87"/>
+      <c r="A119" s="90"/>
       <c r="B119" s="88"/>
       <c r="C119" s="89"/>
       <c r="D119" s="89"/>
       <c r="E119" s="89"/>
-      <c r="F119" s="90"/>
-      <c r="G119" s="90"/>
+      <c r="F119" s="88"/>
+      <c r="G119" s="88"/>
     </row>
     <row r="120" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A120" s="87"/>
+      <c r="A120" s="90"/>
       <c r="B120" s="88"/>
       <c r="C120" s="89"/>
       <c r="D120" s="89"/>
       <c r="E120" s="89"/>
-      <c r="F120" s="90"/>
-      <c r="G120" s="90"/>
+      <c r="F120" s="88"/>
+      <c r="G120" s="88"/>
     </row>
     <row r="121" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A121" s="87"/>
+      <c r="A121" s="90"/>
       <c r="B121" s="88"/>
       <c r="C121" s="89"/>
       <c r="D121" s="89"/>
       <c r="E121" s="89"/>
-      <c r="F121" s="90"/>
-      <c r="G121" s="90"/>
+      <c r="F121" s="88"/>
+      <c r="G121" s="88"/>
     </row>
     <row r="122" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A122" s="87"/>
+      <c r="A122" s="90"/>
       <c r="B122" s="88"/>
       <c r="C122" s="89"/>
       <c r="D122" s="89"/>
       <c r="E122" s="89"/>
-      <c r="F122" s="90"/>
-      <c r="G122" s="90"/>
+      <c r="F122" s="88"/>
+      <c r="G122" s="88"/>
     </row>
     <row r="123" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A123" s="87"/>
+      <c r="A123" s="90"/>
       <c r="B123" s="88"/>
       <c r="C123" s="89"/>
       <c r="D123" s="89"/>
       <c r="E123" s="89"/>
-      <c r="F123" s="90"/>
-      <c r="G123" s="90"/>
+      <c r="F123" s="88"/>
+      <c r="G123" s="88"/>
     </row>
     <row r="124" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A124" s="87"/>
+      <c r="A124" s="90"/>
       <c r="B124" s="88"/>
       <c r="C124" s="89"/>
       <c r="D124" s="89"/>
       <c r="E124" s="89"/>
-      <c r="F124" s="90"/>
-      <c r="G124" s="90"/>
+      <c r="F124" s="88"/>
+      <c r="G124" s="88"/>
     </row>
     <row r="125" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A125" s="87"/>
+      <c r="A125" s="90"/>
       <c r="B125" s="88"/>
       <c r="C125" s="89"/>
       <c r="D125" s="89"/>
       <c r="E125" s="89"/>
-      <c r="F125" s="90"/>
-      <c r="G125" s="90"/>
+      <c r="F125" s="88"/>
+      <c r="G125" s="88"/>
     </row>
     <row r="126" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A126" s="87"/>
+      <c r="A126" s="90"/>
       <c r="B126" s="88"/>
       <c r="C126" s="89"/>
       <c r="D126" s="89"/>
       <c r="E126" s="89"/>
-      <c r="F126" s="90"/>
-      <c r="G126" s="90"/>
+      <c r="F126" s="88"/>
+      <c r="G126" s="88"/>
     </row>
     <row r="127" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A127" s="87"/>
+      <c r="A127" s="90"/>
       <c r="B127" s="88"/>
       <c r="C127" s="89"/>
       <c r="D127" s="89"/>
       <c r="E127" s="89"/>
-      <c r="F127" s="90"/>
-      <c r="G127" s="90"/>
+      <c r="F127" s="88"/>
+      <c r="G127" s="88"/>
     </row>
     <row r="128" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A128" s="87"/>
-      <c r="B128" s="88"/>
-      <c r="C128" s="89"/>
-      <c r="D128" s="89"/>
-      <c r="E128" s="89"/>
-      <c r="F128" s="90"/>
-      <c r="G128" s="90"/>
+      <c r="A128" s="91"/>
+      <c r="B128" s="92"/>
+      <c r="C128" s="93"/>
+      <c r="D128" s="93"/>
+      <c r="E128" s="93"/>
+      <c r="F128" s="94"/>
+      <c r="G128" s="94"/>
     </row>
     <row r="129" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A129" s="87"/>
-      <c r="B129" s="88"/>
-      <c r="C129" s="89"/>
-      <c r="D129" s="89"/>
-      <c r="E129" s="89"/>
-      <c r="F129" s="90"/>
-      <c r="G129" s="90"/>
+      <c r="A129" s="91"/>
+      <c r="B129" s="92"/>
+      <c r="C129" s="93"/>
+      <c r="D129" s="93"/>
+      <c r="E129" s="93"/>
+      <c r="F129" s="94"/>
+      <c r="G129" s="94"/>
     </row>
     <row r="130" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A130" s="87"/>
-      <c r="B130" s="88"/>
-      <c r="C130" s="89"/>
-      <c r="D130" s="89"/>
-      <c r="E130" s="89"/>
-      <c r="F130" s="90"/>
-      <c r="G130" s="90"/>
+      <c r="A130" s="91"/>
+      <c r="B130" s="92"/>
+      <c r="C130" s="93"/>
+      <c r="D130" s="93"/>
+      <c r="E130" s="93"/>
+      <c r="F130" s="94"/>
+      <c r="G130" s="94"/>
     </row>
     <row r="131" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A131" s="87"/>
-      <c r="B131" s="88"/>
-      <c r="C131" s="89"/>
-      <c r="D131" s="89"/>
-      <c r="E131" s="89"/>
-      <c r="F131" s="90"/>
-      <c r="G131" s="90"/>
+      <c r="A131" s="91"/>
+      <c r="B131" s="92"/>
+      <c r="C131" s="93"/>
+      <c r="D131" s="93"/>
+      <c r="E131" s="93"/>
+      <c r="F131" s="94"/>
+      <c r="G131" s="94"/>
     </row>
     <row r="132" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A132" s="87"/>
-      <c r="B132" s="88"/>
-      <c r="C132" s="89"/>
-      <c r="D132" s="89"/>
-      <c r="E132" s="89"/>
-      <c r="F132" s="90"/>
-      <c r="G132" s="90"/>
+      <c r="A132" s="91"/>
+      <c r="B132" s="92"/>
+      <c r="C132" s="93"/>
+      <c r="D132" s="93"/>
+      <c r="E132" s="93"/>
+      <c r="F132" s="94"/>
+      <c r="G132" s="94"/>
     </row>
     <row r="133" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A133" s="87"/>
-      <c r="B133" s="88"/>
-      <c r="C133" s="89"/>
-      <c r="D133" s="89"/>
-      <c r="E133" s="89"/>
-      <c r="F133" s="90"/>
-      <c r="G133" s="90"/>
+      <c r="A133" s="91"/>
+      <c r="B133" s="92"/>
+      <c r="C133" s="93"/>
+      <c r="D133" s="93"/>
+      <c r="E133" s="93"/>
+      <c r="F133" s="94"/>
+      <c r="G133" s="94"/>
     </row>
     <row r="134" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A134" s="87"/>
-      <c r="B134" s="88"/>
-      <c r="C134" s="89"/>
-      <c r="D134" s="89"/>
-      <c r="E134" s="89"/>
-      <c r="F134" s="90"/>
-      <c r="G134" s="90"/>
+      <c r="A134" s="91"/>
+      <c r="B134" s="92"/>
+      <c r="C134" s="93"/>
+      <c r="D134" s="93"/>
+      <c r="E134" s="93"/>
+      <c r="F134" s="94"/>
+      <c r="G134" s="94"/>
     </row>
     <row r="135" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A135" s="87"/>
-      <c r="B135" s="88"/>
-      <c r="C135" s="89"/>
-      <c r="D135" s="89"/>
-      <c r="E135" s="89"/>
-      <c r="F135" s="90"/>
-      <c r="G135" s="90"/>
+      <c r="A135" s="91"/>
+      <c r="B135" s="92"/>
+      <c r="C135" s="93"/>
+      <c r="D135" s="93"/>
+      <c r="E135" s="93"/>
+      <c r="F135" s="94"/>
+      <c r="G135" s="94"/>
     </row>
     <row r="136" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A136" s="87"/>
-      <c r="B136" s="88"/>
-      <c r="C136" s="89"/>
-      <c r="D136" s="89"/>
-      <c r="E136" s="89"/>
-      <c r="F136" s="90"/>
-      <c r="G136" s="90"/>
+      <c r="A136" s="91"/>
+      <c r="B136" s="92"/>
+      <c r="C136" s="93"/>
+      <c r="D136" s="93"/>
+      <c r="E136" s="93"/>
+      <c r="F136" s="94"/>
+      <c r="G136" s="94"/>
     </row>
     <row r="137" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A137" s="87"/>
-      <c r="B137" s="88"/>
-      <c r="C137" s="89"/>
-      <c r="D137" s="89"/>
-      <c r="E137" s="89"/>
-      <c r="F137" s="90"/>
-      <c r="G137" s="90"/>
+      <c r="A137" s="91"/>
+      <c r="B137" s="92"/>
+      <c r="C137" s="93"/>
+      <c r="D137" s="93"/>
+      <c r="E137" s="93"/>
+      <c r="F137" s="94"/>
+      <c r="G137" s="94"/>
     </row>
     <row r="138" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A138" s="87"/>
-      <c r="B138" s="88"/>
-      <c r="C138" s="89"/>
-      <c r="D138" s="89"/>
-      <c r="E138" s="89"/>
-      <c r="F138" s="90"/>
-      <c r="G138" s="90"/>
+      <c r="A138" s="91"/>
+      <c r="B138" s="92"/>
+      <c r="C138" s="93"/>
+      <c r="D138" s="93"/>
+      <c r="E138" s="93"/>
+      <c r="F138" s="94"/>
+      <c r="G138" s="94"/>
     </row>
     <row r="139" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A139" s="87"/>
-      <c r="B139" s="88"/>
-      <c r="C139" s="89"/>
-      <c r="D139" s="89"/>
-      <c r="E139" s="89"/>
-      <c r="F139" s="90"/>
-      <c r="G139" s="90"/>
+      <c r="A139" s="91"/>
+      <c r="B139" s="92"/>
+      <c r="C139" s="93"/>
+      <c r="D139" s="93"/>
+      <c r="E139" s="93"/>
+      <c r="F139" s="94"/>
+      <c r="G139" s="94"/>
     </row>
     <row r="140" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A140" s="87"/>
-      <c r="B140" s="88"/>
-      <c r="C140" s="89"/>
-      <c r="D140" s="89"/>
-      <c r="E140" s="89"/>
-      <c r="F140" s="90"/>
-      <c r="G140" s="90"/>
+      <c r="A140" s="91"/>
+      <c r="B140" s="92"/>
+      <c r="C140" s="93"/>
+      <c r="D140" s="93"/>
+      <c r="E140" s="93"/>
+      <c r="F140" s="94"/>
+      <c r="G140" s="94"/>
     </row>
     <row r="141" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A141" s="87"/>
-      <c r="B141" s="88"/>
-      <c r="C141" s="89"/>
-      <c r="D141" s="89"/>
-      <c r="E141" s="89"/>
-      <c r="F141" s="90"/>
-      <c r="G141" s="90"/>
+      <c r="A141" s="91"/>
+      <c r="B141" s="92"/>
+      <c r="C141" s="93"/>
+      <c r="D141" s="93"/>
+      <c r="E141" s="93"/>
+      <c r="F141" s="94"/>
+      <c r="G141" s="94"/>
     </row>
     <row r="142" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A142" s="87"/>
-      <c r="B142" s="88"/>
-      <c r="C142" s="89"/>
-      <c r="D142" s="89"/>
-      <c r="E142" s="89"/>
-      <c r="F142" s="90"/>
-      <c r="G142" s="90"/>
+      <c r="A142" s="91"/>
+      <c r="B142" s="92"/>
+      <c r="C142" s="93"/>
+      <c r="D142" s="93"/>
+      <c r="E142" s="93"/>
+      <c r="F142" s="94"/>
+      <c r="G142" s="94"/>
     </row>
     <row r="143" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A143" s="87"/>
-      <c r="B143" s="88"/>
-      <c r="C143" s="89"/>
-      <c r="D143" s="89"/>
-      <c r="E143" s="89"/>
-      <c r="F143" s="90"/>
-      <c r="G143" s="90"/>
+      <c r="A143" s="91"/>
+      <c r="B143" s="92"/>
+      <c r="C143" s="93"/>
+      <c r="D143" s="93"/>
+      <c r="E143" s="93"/>
+      <c r="F143" s="94"/>
+      <c r="G143" s="94"/>
     </row>
     <row r="144" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A144" s="87"/>
-      <c r="B144" s="88"/>
-      <c r="C144" s="89"/>
-      <c r="D144" s="89"/>
-      <c r="E144" s="89"/>
-      <c r="F144" s="90"/>
-      <c r="G144" s="90"/>
+      <c r="A144" s="91"/>
+      <c r="B144" s="92"/>
+      <c r="C144" s="93"/>
+      <c r="D144" s="93"/>
+      <c r="E144" s="93"/>
+      <c r="F144" s="94"/>
+      <c r="G144" s="94"/>
     </row>
     <row r="145" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A145" s="87"/>
-      <c r="B145" s="88"/>
-      <c r="C145" s="89"/>
-      <c r="D145" s="89"/>
-      <c r="E145" s="89"/>
-      <c r="F145" s="90"/>
-      <c r="G145" s="90"/>
+      <c r="A145" s="91"/>
+      <c r="B145" s="92"/>
+      <c r="C145" s="93"/>
+      <c r="D145" s="93"/>
+      <c r="E145" s="93"/>
+      <c r="F145" s="94"/>
+      <c r="G145" s="94"/>
     </row>
     <row r="146" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A146" s="87"/>
-      <c r="B146" s="88"/>
-      <c r="C146" s="89"/>
-      <c r="D146" s="89"/>
-      <c r="E146" s="89"/>
-      <c r="F146" s="90"/>
-      <c r="G146" s="90"/>
+      <c r="A146" s="91"/>
+      <c r="B146" s="92"/>
+      <c r="C146" s="93"/>
+      <c r="D146" s="93"/>
+      <c r="E146" s="93"/>
+      <c r="F146" s="94"/>
+      <c r="G146" s="94"/>
     </row>
     <row r="147" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A147" s="87"/>
-      <c r="B147" s="88"/>
-      <c r="C147" s="89"/>
-      <c r="D147" s="89"/>
-      <c r="E147" s="89"/>
-      <c r="F147" s="90"/>
-      <c r="G147" s="90"/>
+      <c r="A147" s="91"/>
+      <c r="B147" s="92"/>
+      <c r="C147" s="93"/>
+      <c r="D147" s="93"/>
+      <c r="E147" s="93"/>
+      <c r="F147" s="94"/>
+      <c r="G147" s="94"/>
     </row>
     <row r="148" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A148" s="87"/>
-      <c r="B148" s="88"/>
-      <c r="C148" s="89"/>
-      <c r="D148" s="89"/>
-      <c r="E148" s="89"/>
-      <c r="F148" s="90"/>
-      <c r="G148" s="90"/>
+      <c r="A148" s="91"/>
+      <c r="B148" s="92"/>
+      <c r="C148" s="93"/>
+      <c r="D148" s="93"/>
+      <c r="E148" s="93"/>
+      <c r="F148" s="94"/>
+      <c r="G148" s="94"/>
     </row>
     <row r="149" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A149" s="87"/>
-      <c r="B149" s="88"/>
-      <c r="C149" s="89"/>
-      <c r="D149" s="89"/>
-      <c r="E149" s="89"/>
-      <c r="F149" s="90"/>
-      <c r="G149" s="90"/>
+      <c r="A149" s="91"/>
+      <c r="B149" s="92"/>
+      <c r="C149" s="93"/>
+      <c r="D149" s="93"/>
+      <c r="E149" s="93"/>
+      <c r="F149" s="94"/>
+      <c r="G149" s="94"/>
     </row>
     <row r="150" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A150" s="87"/>
-      <c r="B150" s="88"/>
-      <c r="C150" s="89"/>
-      <c r="D150" s="89"/>
-      <c r="E150" s="89"/>
-      <c r="F150" s="90"/>
-      <c r="G150" s="90"/>
+      <c r="A150" s="91"/>
+      <c r="B150" s="92"/>
+      <c r="C150" s="93"/>
+      <c r="D150" s="93"/>
+      <c r="E150" s="93"/>
+      <c r="F150" s="94"/>
+      <c r="G150" s="94"/>
     </row>
     <row r="151" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A151" s="87"/>
-      <c r="B151" s="88"/>
-      <c r="C151" s="89"/>
-      <c r="D151" s="89"/>
-      <c r="E151" s="89"/>
-      <c r="F151" s="90"/>
-      <c r="G151" s="90"/>
+      <c r="A151" s="91"/>
+      <c r="B151" s="92"/>
+      <c r="C151" s="93"/>
+      <c r="D151" s="93"/>
+      <c r="E151" s="93"/>
+      <c r="F151" s="94"/>
+      <c r="G151" s="94"/>
     </row>
     <row r="152" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A152" s="87"/>
-      <c r="B152" s="88"/>
-      <c r="C152" s="89"/>
-      <c r="D152" s="89"/>
-      <c r="E152" s="89"/>
-      <c r="F152" s="90"/>
-      <c r="G152" s="90"/>
+      <c r="A152" s="91"/>
+      <c r="B152" s="92"/>
+      <c r="C152" s="93"/>
+      <c r="D152" s="93"/>
+      <c r="E152" s="93"/>
+      <c r="F152" s="94"/>
+      <c r="G152" s="94"/>
     </row>
     <row r="153" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A153" s="87"/>
-      <c r="B153" s="88"/>
-      <c r="C153" s="89"/>
-      <c r="D153" s="89"/>
-      <c r="E153" s="89"/>
-      <c r="F153" s="90"/>
-      <c r="G153" s="90"/>
+      <c r="A153" s="91"/>
+      <c r="B153" s="92"/>
+      <c r="C153" s="93"/>
+      <c r="D153" s="93"/>
+      <c r="E153" s="93"/>
+      <c r="F153" s="94"/>
+      <c r="G153" s="94"/>
     </row>
     <row r="154" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A154" s="87"/>
-      <c r="B154" s="88"/>
-      <c r="C154" s="89"/>
-      <c r="D154" s="89"/>
-      <c r="E154" s="89"/>
-      <c r="F154" s="90"/>
-      <c r="G154" s="90"/>
+      <c r="A154" s="91"/>
+      <c r="B154" s="92"/>
+      <c r="C154" s="93"/>
+      <c r="D154" s="93"/>
+      <c r="E154" s="93"/>
+      <c r="F154" s="94"/>
+      <c r="G154" s="94"/>
     </row>
     <row r="155" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A155" s="87"/>
-      <c r="B155" s="88"/>
-      <c r="C155" s="89"/>
-      <c r="D155" s="89"/>
-      <c r="E155" s="89"/>
-      <c r="F155" s="90"/>
-      <c r="G155" s="90"/>
+      <c r="A155" s="91"/>
+      <c r="B155" s="92"/>
+      <c r="C155" s="93"/>
+      <c r="D155" s="93"/>
+      <c r="E155" s="93"/>
+      <c r="F155" s="94"/>
+      <c r="G155" s="94"/>
     </row>
     <row r="156" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A156" s="87"/>
-      <c r="B156" s="88"/>
-      <c r="C156" s="89"/>
-      <c r="D156" s="89"/>
-      <c r="E156" s="89"/>
-      <c r="F156" s="90"/>
-      <c r="G156" s="90"/>
+      <c r="A156" s="91"/>
+      <c r="B156" s="92"/>
+      <c r="C156" s="93"/>
+      <c r="D156" s="93"/>
+      <c r="E156" s="93"/>
+      <c r="F156" s="94"/>
+      <c r="G156" s="94"/>
     </row>
     <row r="157" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A157" s="87"/>
-      <c r="B157" s="88"/>
-      <c r="C157" s="89"/>
-      <c r="D157" s="89"/>
-      <c r="E157" s="89"/>
-      <c r="F157" s="90"/>
-      <c r="G157" s="90"/>
+      <c r="A157" s="91"/>
+      <c r="B157" s="92"/>
+      <c r="C157" s="93"/>
+      <c r="D157" s="93"/>
+      <c r="E157" s="93"/>
+      <c r="F157" s="94"/>
+      <c r="G157" s="94"/>
     </row>
     <row r="158" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A158" s="87"/>
-      <c r="B158" s="88"/>
-      <c r="C158" s="89"/>
-      <c r="D158" s="89"/>
-      <c r="E158" s="89"/>
-      <c r="F158" s="90"/>
-      <c r="G158" s="90"/>
+      <c r="A158" s="91"/>
+      <c r="B158" s="92"/>
+      <c r="C158" s="93"/>
+      <c r="D158" s="93"/>
+      <c r="E158" s="93"/>
+      <c r="F158" s="94"/>
+      <c r="G158" s="94"/>
     </row>
     <row r="159" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A159" s="87"/>
-      <c r="B159" s="88"/>
-      <c r="C159" s="89"/>
-      <c r="D159" s="89"/>
-      <c r="E159" s="89"/>
-      <c r="F159" s="90"/>
-      <c r="G159" s="90"/>
+      <c r="A159" s="91"/>
+      <c r="B159" s="92"/>
+      <c r="C159" s="93"/>
+      <c r="D159" s="93"/>
+      <c r="E159" s="93"/>
+      <c r="F159" s="94"/>
+      <c r="G159" s="94"/>
     </row>
     <row r="160" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A160" s="87"/>
-      <c r="B160" s="88"/>
-      <c r="C160" s="89"/>
-      <c r="D160" s="89"/>
-      <c r="E160" s="89"/>
-      <c r="F160" s="90"/>
-      <c r="G160" s="90"/>
+      <c r="A160" s="91"/>
+      <c r="B160" s="92"/>
+      <c r="C160" s="93"/>
+      <c r="D160" s="93"/>
+      <c r="E160" s="93"/>
+      <c r="F160" s="94"/>
+      <c r="G160" s="94"/>
     </row>
     <row r="161" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A161" s="87"/>
-      <c r="B161" s="88"/>
-      <c r="C161" s="89"/>
-      <c r="D161" s="89"/>
-      <c r="E161" s="89"/>
-      <c r="F161" s="90"/>
-      <c r="G161" s="90"/>
+      <c r="A161" s="91"/>
+      <c r="B161" s="92"/>
+      <c r="C161" s="93"/>
+      <c r="D161" s="93"/>
+      <c r="E161" s="93"/>
+      <c r="F161" s="94"/>
+      <c r="G161" s="94"/>
     </row>
     <row r="162" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A162" s="87"/>
-      <c r="B162" s="88"/>
-      <c r="C162" s="89"/>
-      <c r="D162" s="89"/>
-      <c r="E162" s="89"/>
-      <c r="F162" s="90"/>
-      <c r="G162" s="90"/>
+      <c r="A162" s="91"/>
+      <c r="B162" s="92"/>
+      <c r="C162" s="93"/>
+      <c r="D162" s="93"/>
+      <c r="E162" s="93"/>
+      <c r="F162" s="94"/>
+      <c r="G162" s="94"/>
     </row>
     <row r="163" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A163" s="87"/>
-      <c r="B163" s="88"/>
-      <c r="C163" s="89"/>
-      <c r="D163" s="89"/>
-      <c r="E163" s="89"/>
-      <c r="F163" s="90"/>
-      <c r="G163" s="90"/>
+      <c r="A163" s="91"/>
+      <c r="B163" s="92"/>
+      <c r="C163" s="93"/>
+      <c r="D163" s="93"/>
+      <c r="E163" s="93"/>
+      <c r="F163" s="94"/>
+      <c r="G163" s="94"/>
     </row>
     <row r="164" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A164" s="87"/>
-      <c r="B164" s="88"/>
-      <c r="C164" s="88"/>
-      <c r="D164" s="88"/>
-      <c r="E164" s="88"/>
-      <c r="F164" s="90"/>
-      <c r="G164" s="90"/>
+      <c r="A164" s="91"/>
+      <c r="B164" s="92"/>
+      <c r="C164" s="93"/>
+      <c r="D164" s="93"/>
+      <c r="E164" s="93"/>
+      <c r="F164" s="94"/>
+      <c r="G164" s="94"/>
     </row>
     <row r="165" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A165" s="87"/>
-      <c r="B165" s="88"/>
-      <c r="C165" s="88"/>
-      <c r="D165" s="88"/>
-      <c r="E165" s="88"/>
-      <c r="F165" s="90"/>
-      <c r="G165" s="90"/>
+      <c r="A165" s="91"/>
+      <c r="B165" s="92"/>
+      <c r="C165" s="93"/>
+      <c r="D165" s="93"/>
+      <c r="E165" s="93"/>
+      <c r="F165" s="94"/>
+      <c r="G165" s="94"/>
     </row>
     <row r="166" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A166" s="87"/>
-      <c r="B166" s="88"/>
-      <c r="C166" s="88"/>
-      <c r="D166" s="88"/>
-      <c r="E166" s="88"/>
-      <c r="F166" s="90"/>
-      <c r="G166" s="90"/>
+      <c r="A166" s="91"/>
+      <c r="B166" s="92"/>
+      <c r="C166" s="92"/>
+      <c r="D166" s="92"/>
+      <c r="E166" s="92"/>
+      <c r="F166" s="94"/>
+      <c r="G166" s="94"/>
     </row>
     <row r="167" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A167" s="87"/>
-      <c r="B167" s="88"/>
-      <c r="C167" s="88"/>
-      <c r="D167" s="88"/>
-      <c r="E167" s="88"/>
-      <c r="F167" s="90"/>
-      <c r="G167" s="90"/>
+      <c r="A167" s="91"/>
+      <c r="B167" s="92"/>
+      <c r="C167" s="92"/>
+      <c r="D167" s="92"/>
+      <c r="E167" s="92"/>
+      <c r="F167" s="94"/>
+      <c r="G167" s="94"/>
     </row>
     <row r="168" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A168" s="87"/>
-      <c r="B168" s="88"/>
-      <c r="C168" s="88"/>
-      <c r="D168" s="88"/>
-      <c r="E168" s="88"/>
-      <c r="F168" s="90"/>
-      <c r="G168" s="90"/>
+      <c r="A168" s="91"/>
+      <c r="B168" s="92"/>
+      <c r="C168" s="92"/>
+      <c r="D168" s="92"/>
+      <c r="E168" s="92"/>
+      <c r="F168" s="94"/>
+      <c r="G168" s="94"/>
     </row>
     <row r="169" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A169" s="87"/>
-      <c r="B169" s="88"/>
-      <c r="C169" s="88"/>
-      <c r="D169" s="88"/>
-      <c r="E169" s="88"/>
-      <c r="F169" s="90"/>
-      <c r="G169" s="90"/>
+      <c r="A169" s="91"/>
+      <c r="B169" s="92"/>
+      <c r="C169" s="92"/>
+      <c r="D169" s="92"/>
+      <c r="E169" s="92"/>
+      <c r="F169" s="94"/>
+      <c r="G169" s="94"/>
     </row>
     <row r="170" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A170" s="87"/>
-      <c r="B170" s="88"/>
-      <c r="C170" s="88"/>
-      <c r="D170" s="88"/>
-      <c r="E170" s="88"/>
-      <c r="F170" s="90"/>
-      <c r="G170" s="90"/>
+      <c r="A170" s="91"/>
+      <c r="B170" s="92"/>
+      <c r="C170" s="92"/>
+      <c r="D170" s="92"/>
+      <c r="E170" s="92"/>
+      <c r="F170" s="94"/>
+      <c r="G170" s="94"/>
     </row>
     <row r="171" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A171" s="87"/>
-      <c r="B171" s="88"/>
-      <c r="C171" s="88"/>
-      <c r="D171" s="88"/>
-      <c r="E171" s="88"/>
-      <c r="F171" s="90"/>
-      <c r="G171" s="90"/>
+      <c r="A171" s="91"/>
+      <c r="B171" s="92"/>
+      <c r="C171" s="92"/>
+      <c r="D171" s="92"/>
+      <c r="E171" s="92"/>
+      <c r="F171" s="94"/>
+      <c r="G171" s="94"/>
     </row>
     <row r="172" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A172" s="87"/>
-      <c r="B172" s="88"/>
-      <c r="C172" s="88"/>
-      <c r="D172" s="88"/>
-      <c r="E172" s="88"/>
-      <c r="F172" s="90"/>
-      <c r="G172" s="90"/>
+      <c r="A172" s="91"/>
+      <c r="B172" s="92"/>
+      <c r="C172" s="92"/>
+      <c r="D172" s="92"/>
+      <c r="E172" s="92"/>
+      <c r="F172" s="94"/>
+      <c r="G172" s="94"/>
     </row>
     <row r="173" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A173" s="87"/>
-      <c r="B173" s="88"/>
-      <c r="C173" s="88"/>
-      <c r="D173" s="88"/>
-      <c r="E173" s="88"/>
-      <c r="F173" s="90"/>
-      <c r="G173" s="90"/>
+      <c r="A173" s="91"/>
+      <c r="B173" s="92"/>
+      <c r="C173" s="92"/>
+      <c r="D173" s="92"/>
+      <c r="E173" s="92"/>
+      <c r="F173" s="94"/>
+      <c r="G173" s="94"/>
     </row>
     <row r="174" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A174" s="87"/>
-      <c r="B174" s="88"/>
-      <c r="C174" s="88"/>
-      <c r="D174" s="88"/>
-      <c r="E174" s="88"/>
-      <c r="F174" s="90"/>
-      <c r="G174" s="90"/>
+      <c r="A174" s="91"/>
+      <c r="B174" s="92"/>
+      <c r="C174" s="92"/>
+      <c r="D174" s="92"/>
+      <c r="E174" s="92"/>
+      <c r="F174" s="94"/>
+      <c r="G174" s="94"/>
     </row>
     <row r="175" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="B175" s="2"/>
-      <c r="G175" s="90"/>
+      <c r="A175" s="91"/>
+      <c r="B175" s="92"/>
+      <c r="C175" s="92"/>
+      <c r="D175" s="92"/>
+      <c r="E175" s="92"/>
+      <c r="F175" s="94"/>
+      <c r="G175" s="94"/>
     </row>
     <row r="176" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="B176" s="2"/>
-      <c r="G176" s="90"/>
+      <c r="A176" s="91"/>
+      <c r="B176" s="92"/>
+      <c r="C176" s="92"/>
+      <c r="D176" s="92"/>
+      <c r="E176" s="92"/>
+      <c r="F176" s="94"/>
+      <c r="G176" s="94"/>
     </row>
     <row r="177" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="B177" s="2"/>
+      <c r="G177" s="94"/>
     </row>
     <row r="178" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="B178" s="2"/>
+      <c r="G178" s="94"/>
     </row>
     <row r="179" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="B179" s="2"/>
@@ -7020,8 +7263,14 @@
     <row r="1174" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="B1174" s="2"/>
     </row>
+    <row r="1175" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="B1175" s="2"/>
+    </row>
+    <row r="1176" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="B1176" s="2"/>
+    </row>
   </sheetData>
-  <conditionalFormatting sqref="G94:G176 F99:F158 F2:G98">
+  <conditionalFormatting sqref="G96:G178 G2:G100 F2:F160">
     <cfRule type="cellIs" priority="2" operator="equal" aboveAverage="0" equalAverage="0" bottom="0" percent="0" rank="0" text="" dxfId="0">
       <formula>0</formula>
     </cfRule>

--- a/pw.xlsx
+++ b/pw.xlsx
@@ -1079,10 +1079,10 @@
   <dimension ref="A1:I1176"/>
   <sheetViews>
     <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="true" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A1" colorId="64" zoomScale="100" zoomScaleNormal="100" zoomScalePageLayoutView="100" workbookViewId="0">
-      <selection pane="topLeft" activeCell="L35" activeCellId="0" sqref="L35"/>
+      <selection pane="topLeft" activeCell="H28" activeCellId="0" sqref="H28"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="9.0390625" defaultRowHeight="13.8" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
+  <sheetFormatPr defaultColWidth="9.0546875" defaultRowHeight="13.8" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
   <cols>
     <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="1" min="1" style="0" width="34.73"/>
     <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="2" min="2" style="1" width="11.11"/>
@@ -1144,7 +1144,7 @@
       </c>
       <c r="H2" s="14" t="n">
         <f aca="false">SUM(F2:F128)</f>
-        <v>20</v>
+        <v>19</v>
       </c>
       <c r="I2" s="0" t="n">
         <f aca="false">MAX(G2:G178)</f>
@@ -1776,7 +1776,7 @@
         <v>1.6043</v>
       </c>
       <c r="F28" s="35" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="G28" s="35" t="n">
         <v>0</v>
